--- a/잡리스트 0514수정.xlsx
+++ b/잡리스트 0514수정.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="590" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="580" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="jobList" sheetId="1" r:id="rId1"/>
+    <sheet name="ho" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="152511"/>
@@ -1585,7 +1586,7 @@
   <numFmts count="1">
     <numFmt numFmtId="64" formatCode="&quot;₩&quot;#,##0;\\\-&quot;₩&quot;#,##0"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="22">
     <font>
       <sz val="11.0"/>
       <name val="맑은 고딕"/>
@@ -1702,17 +1703,7 @@
       <color theme="1"/>
     </font>
     <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <color theme="1"/>
-    </font>
-    <font>
       <sz val="10.0"/>
-      <name val="맑은 고딕"/>
-      <color theme="1"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
       <name val="맑은 고딕"/>
       <color theme="1"/>
     </font>
@@ -1892,7 +1883,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="187">
+  <borders count="178">
     <border>
       <left/>
       <right/>
@@ -2948,33 +2939,9 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -2982,13 +2949,13 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color theme="1"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -2997,80 +2964,45 @@
       <left style="thin">
         <color theme="1"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color theme="1"/>
       </right>
       <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color theme="1"/>
       </left>
       <right style="thin">
@@ -3153,19 +3085,6 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -3685,19 +3604,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color theme="1"/>
       </left>
@@ -3853,13 +3759,6 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -4241,19 +4140,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -4468,7 +4354,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="387">
+  <cellXfs count="371">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4976,33 +4862,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="72" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5045,44 +4904,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="80" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="80" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="80" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -5090,544 +4955,517 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="89" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="89" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="90" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="78" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="73" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="91" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="92" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="93" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="94" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="95" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="96" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="97" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="89" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="98" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="99" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="100" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="101" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="102" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="103" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="104" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="105" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="106" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="107" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="108" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="109" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="110" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="111" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="112" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="109" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="113" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="113" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="114" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="115" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="115" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="93" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="93" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="116" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="117" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="118" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="119" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="108" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="120" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="121" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="121" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="122" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="123" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="123" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="124" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="125" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="90" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="90" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="91" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="126" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="93" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="127" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="128" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="117" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="118" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="119" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="120" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="122" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="93" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="94" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="95" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="129" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="123" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="130" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="78" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="93" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="96" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="97" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="98" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="99" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="100" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="101" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="102" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="103" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="94" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="104" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="105" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="106" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="107" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="108" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="109" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="110" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="111" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="112" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="113" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="114" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="115" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="116" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="117" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="118" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="115" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="131" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="119" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="119" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="120" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="132" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="121" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="121" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="99" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="99" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="122" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="123" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="124" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="125" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="114" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="126" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="127" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="127" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="128" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="129" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="129" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="130" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="131" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="95" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="95" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="132" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="99" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="133" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="134" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="135" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="136" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="137" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="138" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="139" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="140" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="141" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="124" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="142" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="115" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="143" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="144" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="145" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="146" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="147" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="148" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="149" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="150" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="134" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="135" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="123" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="124" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="125" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="126" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="151" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="152" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="152" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="136" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="137" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="144" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="152" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="152" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="153" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="154" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="155" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="156" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="157" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="158" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="116" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="119" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="120" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="159" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="160" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="125" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="127" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="128" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="135" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="136" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="129" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="137" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="138" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="139" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="140" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="141" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="126" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="142" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="124" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="90" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="126" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="117" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="108" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="93" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="108" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="121" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="122" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="142" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="143" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="144" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="145" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="146" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="147" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="148" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="130" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="149" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="121" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="150" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="150" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="151" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="152" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="153" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="154" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="155" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="156" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="157" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="158" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="159" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="160" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="160" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="143" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="144" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="152" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="160" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="160" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="124" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="121" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="93" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="161" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="162" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="163" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="164" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="165" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="166" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="122" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="125" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="126" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="167" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="168" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="131" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="133" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="134" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="132" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="80" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="149" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="130" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="95" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="132" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="123" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="114" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="99" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="114" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="127" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="128" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="149" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="130" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="127" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="99" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="80" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="169" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="162" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="163" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="116" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="119" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="120" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="164" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="165" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="166" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="80" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="167" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="168" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="169" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="170" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="171" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="122" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="172" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="173" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="173" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="173" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="173" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="173" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="125" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="126" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="172" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="173" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="174" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="117" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="116" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="116" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="174" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="175" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="176" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="90" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="90" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="176" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="177" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="178" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="179" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="73" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="180" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="181" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="182" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="182" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="182" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="182" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="182" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="123" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="122" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="122" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="183" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="184" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="95" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="95" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="185" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="186" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="176" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="168" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6058,15 +5896,15 @@
       <c r="C6" s="94" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="172" t="s">
+      <c r="D6" s="124" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="172"/>
+      <c r="E6" s="124"/>
       <c r="F6" s="94" t="s">
         <v>226</v>
       </c>
       <c r="G6" s="94"/>
-      <c r="H6" s="172" t="s">
+      <c r="H6" s="124" t="s">
         <v>81</v>
       </c>
       <c r="I6" s="96" t="s">
@@ -6079,15 +5917,15 @@
       <c r="C7" s="94" t="s">
         <v>228</v>
       </c>
-      <c r="D7" s="173" t="s">
+      <c r="D7" s="94" t="s">
         <v>75</v>
       </c>
-      <c r="E7" s="173"/>
+      <c r="E7" s="94"/>
       <c r="F7" s="94" t="s">
         <v>226</v>
       </c>
       <c r="G7" s="94"/>
-      <c r="H7" s="173" t="s">
+      <c r="H7" s="94" t="s">
         <v>82</v>
       </c>
       <c r="I7" s="96" t="s">
@@ -6100,15 +5938,15 @@
       <c r="C8" s="94" t="s">
         <v>229</v>
       </c>
-      <c r="D8" s="173" t="s">
+      <c r="D8" s="94" t="s">
         <v>64</v>
       </c>
-      <c r="E8" s="173"/>
+      <c r="E8" s="94"/>
       <c r="F8" s="94" t="s">
         <v>226</v>
       </c>
       <c r="G8" s="94"/>
-      <c r="H8" s="173" t="s">
+      <c r="H8" s="94" t="s">
         <v>83</v>
       </c>
       <c r="I8" s="96" t="s">
@@ -6121,15 +5959,15 @@
       <c r="C9" s="94" t="s">
         <v>230</v>
       </c>
-      <c r="D9" s="173" t="s">
+      <c r="D9" s="94" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="173"/>
+      <c r="E9" s="94"/>
       <c r="F9" s="94" t="s">
         <v>226</v>
       </c>
       <c r="G9" s="94"/>
-      <c r="H9" s="173" t="s">
+      <c r="H9" s="94" t="s">
         <v>84</v>
       </c>
       <c r="I9" s="96" t="s">
@@ -6142,15 +5980,15 @@
       <c r="C10" s="94" t="s">
         <v>231</v>
       </c>
-      <c r="D10" s="173" t="s">
+      <c r="D10" s="94" t="s">
         <v>76</v>
       </c>
-      <c r="E10" s="173"/>
+      <c r="E10" s="94"/>
       <c r="F10" s="94" t="s">
         <v>226</v>
       </c>
       <c r="G10" s="94"/>
-      <c r="H10" s="173" t="s">
+      <c r="H10" s="94" t="s">
         <v>85</v>
       </c>
       <c r="I10" s="96" t="s">
@@ -6163,15 +6001,15 @@
       <c r="C11" s="94" t="s">
         <v>232</v>
       </c>
-      <c r="D11" s="174" t="s">
+      <c r="D11" s="127" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="174"/>
+      <c r="E11" s="127"/>
       <c r="F11" s="94" t="s">
         <v>226</v>
       </c>
       <c r="G11" s="94"/>
-      <c r="H11" s="174" t="s">
+      <c r="H11" s="127" t="s">
         <v>86</v>
       </c>
       <c r="I11" s="96" t="s">
@@ -6179,1859 +6017,1859 @@
       </c>
       <c r="J11" s="14"/>
     </row>
-    <row r="12" spans="2:10" ht="17.250000">
-      <c r="B12" s="216" t="s">
+    <row r="12" spans="2:10">
+      <c r="B12" s="204" t="s">
         <v>131</v>
       </c>
-      <c r="C12" s="217"/>
-      <c r="D12" s="217"/>
-      <c r="E12" s="217"/>
-      <c r="F12" s="217"/>
-      <c r="G12" s="217"/>
-      <c r="H12" s="217"/>
-      <c r="I12" s="218"/>
+      <c r="C12" s="205"/>
+      <c r="D12" s="205"/>
+      <c r="E12" s="205"/>
+      <c r="F12" s="205"/>
+      <c r="G12" s="205"/>
+      <c r="H12" s="205"/>
+      <c r="I12" s="206"/>
       <c r="J12" s="14"/>
     </row>
     <row r="13" spans="2:10">
-      <c r="B13" s="254" t="s">
+      <c r="B13" s="242" t="s">
         <v>241</v>
       </c>
-      <c r="C13" s="255" t="s">
+      <c r="C13" s="243" t="s">
         <v>277</v>
       </c>
-      <c r="D13" s="255" t="s">
+      <c r="D13" s="243" t="s">
         <v>240</v>
       </c>
-      <c r="E13" s="255"/>
-      <c r="F13" s="255" t="s">
+      <c r="E13" s="243"/>
+      <c r="F13" s="243" t="s">
         <v>131</v>
       </c>
-      <c r="G13" s="255"/>
-      <c r="H13" s="255" t="s">
+      <c r="G13" s="243"/>
+      <c r="H13" s="243" t="s">
         <v>242</v>
       </c>
-      <c r="I13" s="256" t="s">
+      <c r="I13" s="244" t="s">
         <v>243</v>
       </c>
       <c r="J13" s="14"/>
     </row>
     <row r="14" spans="2:10">
-      <c r="B14" s="257"/>
-      <c r="C14" s="219" t="s">
+      <c r="B14" s="245"/>
+      <c r="C14" s="207" t="s">
         <v>278</v>
       </c>
-      <c r="D14" s="219" t="s">
+      <c r="D14" s="207" t="s">
         <v>245</v>
       </c>
-      <c r="E14" s="219"/>
-      <c r="F14" s="219" t="s">
+      <c r="E14" s="207"/>
+      <c r="F14" s="207" t="s">
         <v>131</v>
       </c>
-      <c r="G14" s="219"/>
-      <c r="H14" s="219" t="s">
+      <c r="G14" s="207"/>
+      <c r="H14" s="207" t="s">
         <v>242</v>
       </c>
-      <c r="I14" s="235" t="s">
+      <c r="I14" s="223" t="s">
         <v>246</v>
       </c>
       <c r="J14" s="14"/>
     </row>
     <row r="15" spans="2:10">
-      <c r="B15" s="257"/>
-      <c r="C15" s="219" t="s">
+      <c r="B15" s="245"/>
+      <c r="C15" s="207" t="s">
         <v>279</v>
       </c>
-      <c r="D15" s="219" t="s">
+      <c r="D15" s="207" t="s">
         <v>249</v>
       </c>
-      <c r="E15" s="219"/>
-      <c r="F15" s="219" t="s">
+      <c r="E15" s="207"/>
+      <c r="F15" s="207" t="s">
         <v>131</v>
       </c>
-      <c r="G15" s="219"/>
-      <c r="H15" s="219" t="s">
+      <c r="G15" s="207"/>
+      <c r="H15" s="207" t="s">
         <v>242</v>
       </c>
-      <c r="I15" s="235" t="s">
+      <c r="I15" s="223" t="s">
         <v>250</v>
       </c>
       <c r="J15" s="14"/>
     </row>
     <row r="16" spans="2:10">
-      <c r="B16" s="257"/>
-      <c r="C16" s="219" t="s">
+      <c r="B16" s="245"/>
+      <c r="C16" s="207" t="s">
         <v>280</v>
       </c>
-      <c r="D16" s="219" t="s">
+      <c r="D16" s="207" t="s">
         <v>255</v>
       </c>
-      <c r="E16" s="219"/>
-      <c r="F16" s="219" t="s">
+      <c r="E16" s="207"/>
+      <c r="F16" s="207" t="s">
         <v>131</v>
       </c>
-      <c r="G16" s="219"/>
-      <c r="H16" s="219" t="s">
+      <c r="G16" s="207"/>
+      <c r="H16" s="207" t="s">
         <v>242</v>
       </c>
-      <c r="I16" s="235" t="s">
+      <c r="I16" s="223" t="s">
         <v>256</v>
       </c>
       <c r="J16" s="14"/>
     </row>
     <row r="17" spans="2:14">
-      <c r="B17" s="257"/>
-      <c r="C17" s="219" t="s">
+      <c r="B17" s="245"/>
+      <c r="C17" s="207" t="s">
         <v>281</v>
       </c>
-      <c r="D17" s="219" t="s">
+      <c r="D17" s="207" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="219"/>
-      <c r="F17" s="219" t="s">
+      <c r="E17" s="207"/>
+      <c r="F17" s="207" t="s">
         <v>131</v>
       </c>
-      <c r="G17" s="219"/>
-      <c r="H17" s="219" t="s">
+      <c r="G17" s="207"/>
+      <c r="H17" s="207" t="s">
         <v>242</v>
       </c>
-      <c r="I17" s="235" t="s">
+      <c r="I17" s="223" t="s">
         <v>252</v>
       </c>
       <c r="J17" s="14"/>
     </row>
     <row r="18" spans="2:14">
-      <c r="B18" s="257"/>
-      <c r="C18" s="219" t="s">
+      <c r="B18" s="245"/>
+      <c r="C18" s="207" t="s">
         <v>282</v>
       </c>
-      <c r="D18" s="219" t="s">
+      <c r="D18" s="207" t="s">
         <v>254</v>
       </c>
-      <c r="E18" s="219"/>
-      <c r="F18" s="219" t="s">
+      <c r="E18" s="207"/>
+      <c r="F18" s="207" t="s">
         <v>131</v>
       </c>
-      <c r="G18" s="219"/>
-      <c r="H18" s="219" t="s">
+      <c r="G18" s="207"/>
+      <c r="H18" s="207" t="s">
         <v>242</v>
       </c>
-      <c r="I18" s="235" t="s">
+      <c r="I18" s="223" t="s">
         <v>258</v>
       </c>
       <c r="J18" s="14"/>
     </row>
     <row r="19" spans="2:14">
-      <c r="B19" s="257"/>
-      <c r="C19" s="219" t="s">
+      <c r="B19" s="245"/>
+      <c r="C19" s="207" t="s">
         <v>283</v>
       </c>
-      <c r="D19" s="253" t="s">
+      <c r="D19" s="241" t="s">
         <v>260</v>
       </c>
-      <c r="E19" s="253"/>
-      <c r="F19" s="219" t="s">
+      <c r="E19" s="241"/>
+      <c r="F19" s="207" t="s">
         <v>131</v>
       </c>
-      <c r="G19" s="219"/>
-      <c r="H19" s="219" t="s">
+      <c r="G19" s="207"/>
+      <c r="H19" s="207" t="s">
         <v>242</v>
       </c>
-      <c r="I19" s="235" t="s">
+      <c r="I19" s="223" t="s">
         <v>261</v>
       </c>
       <c r="J19" s="14"/>
     </row>
     <row r="20" spans="2:14">
-      <c r="B20" s="257"/>
-      <c r="C20" s="219" t="s">
+      <c r="B20" s="245"/>
+      <c r="C20" s="207" t="s">
         <v>284</v>
       </c>
-      <c r="D20" s="253" t="s">
+      <c r="D20" s="241" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="253"/>
-      <c r="F20" s="219" t="s">
+      <c r="E20" s="241"/>
+      <c r="F20" s="207" t="s">
         <v>131</v>
       </c>
-      <c r="G20" s="219"/>
-      <c r="H20" s="219" t="s">
+      <c r="G20" s="207"/>
+      <c r="H20" s="207" t="s">
         <v>242</v>
       </c>
-      <c r="I20" s="258" t="s">
+      <c r="I20" s="246" t="s">
         <v>267</v>
       </c>
       <c r="J20" s="14"/>
     </row>
     <row r="21" spans="2:14">
-      <c r="B21" s="257"/>
-      <c r="C21" s="219" t="s">
+      <c r="B21" s="245"/>
+      <c r="C21" s="207" t="s">
         <v>285</v>
       </c>
-      <c r="D21" s="253" t="s">
+      <c r="D21" s="241" t="s">
         <v>265</v>
       </c>
-      <c r="E21" s="253"/>
-      <c r="F21" s="219" t="s">
+      <c r="E21" s="241"/>
+      <c r="F21" s="207" t="s">
         <v>131</v>
       </c>
-      <c r="G21" s="219"/>
-      <c r="H21" s="219" t="s">
+      <c r="G21" s="207"/>
+      <c r="H21" s="207" t="s">
         <v>242</v>
       </c>
-      <c r="I21" s="258" t="s">
+      <c r="I21" s="246" t="s">
         <v>268</v>
       </c>
       <c r="J21" s="14"/>
     </row>
     <row r="22" spans="2:14">
-      <c r="B22" s="257"/>
-      <c r="C22" s="219" t="s">
+      <c r="B22" s="245"/>
+      <c r="C22" s="207" t="s">
         <v>286</v>
       </c>
-      <c r="D22" s="253" t="s">
+      <c r="D22" s="241" t="s">
         <v>272</v>
       </c>
-      <c r="E22" s="253"/>
-      <c r="F22" s="219" t="s">
+      <c r="E22" s="241"/>
+      <c r="F22" s="207" t="s">
         <v>131</v>
       </c>
-      <c r="G22" s="219"/>
-      <c r="H22" s="219" t="s">
+      <c r="G22" s="207"/>
+      <c r="H22" s="207" t="s">
         <v>242</v>
       </c>
-      <c r="I22" s="258" t="s">
+      <c r="I22" s="246" t="s">
         <v>80</v>
       </c>
       <c r="J22" s="14"/>
       <c r="N22" s="14"/>
     </row>
-    <row r="23" spans="2:14" ht="17.250000">
-      <c r="B23" s="272"/>
-      <c r="C23" s="273" t="s">
+    <row r="23" spans="2:14">
+      <c r="B23" s="260"/>
+      <c r="C23" s="261" t="s">
         <v>287</v>
       </c>
-      <c r="D23" s="274" t="s">
+      <c r="D23" s="262" t="s">
         <v>273</v>
       </c>
-      <c r="E23" s="274"/>
-      <c r="F23" s="273" t="s">
+      <c r="E23" s="262"/>
+      <c r="F23" s="261" t="s">
         <v>131</v>
       </c>
-      <c r="G23" s="273"/>
-      <c r="H23" s="273" t="s">
+      <c r="G23" s="261"/>
+      <c r="H23" s="261" t="s">
         <v>242</v>
       </c>
-      <c r="I23" s="275" t="s">
+      <c r="I23" s="263" t="s">
         <v>274</v>
       </c>
       <c r="J23" s="14"/>
     </row>
     <row r="24" spans="2:14">
-      <c r="B24" s="254" t="s">
+      <c r="B24" s="242" t="s">
         <v>276</v>
       </c>
-      <c r="C24" s="277" t="s">
+      <c r="C24" s="264" t="s">
         <v>288</v>
       </c>
-      <c r="D24" s="277" t="s">
+      <c r="D24" s="264" t="s">
         <v>272</v>
       </c>
-      <c r="E24" s="277"/>
-      <c r="F24" s="255" t="s">
+      <c r="E24" s="264"/>
+      <c r="F24" s="243" t="s">
         <v>131</v>
       </c>
-      <c r="G24" s="255"/>
-      <c r="H24" s="255" t="s">
+      <c r="G24" s="243"/>
+      <c r="H24" s="243" t="s">
         <v>304</v>
       </c>
-      <c r="I24" s="278" t="s">
+      <c r="I24" s="265" t="s">
         <v>80</v>
       </c>
       <c r="J24" s="14"/>
     </row>
     <row r="25" spans="2:14">
-      <c r="B25" s="257"/>
-      <c r="C25" s="253" t="s">
+      <c r="B25" s="245"/>
+      <c r="C25" s="241" t="s">
         <v>289</v>
       </c>
-      <c r="D25" s="253" t="s">
+      <c r="D25" s="241" t="s">
         <v>273</v>
       </c>
-      <c r="E25" s="253"/>
-      <c r="F25" s="219" t="s">
+      <c r="E25" s="241"/>
+      <c r="F25" s="207" t="s">
         <v>131</v>
       </c>
-      <c r="G25" s="219"/>
-      <c r="H25" s="219" t="s">
+      <c r="G25" s="207"/>
+      <c r="H25" s="207" t="s">
         <v>304</v>
       </c>
-      <c r="I25" s="258" t="s">
+      <c r="I25" s="246" t="s">
         <v>274</v>
       </c>
       <c r="J25" s="14"/>
     </row>
     <row r="26" spans="2:14">
-      <c r="B26" s="279"/>
-      <c r="C26" s="253" t="s">
+      <c r="B26" s="266"/>
+      <c r="C26" s="241" t="s">
         <v>290</v>
       </c>
-      <c r="D26" s="253" t="s">
+      <c r="D26" s="241" t="s">
         <v>292</v>
       </c>
-      <c r="E26" s="253"/>
-      <c r="F26" s="219" t="s">
+      <c r="E26" s="241"/>
+      <c r="F26" s="207" t="s">
         <v>131</v>
       </c>
-      <c r="G26" s="219"/>
-      <c r="H26" s="219" t="s">
+      <c r="G26" s="207"/>
+      <c r="H26" s="207" t="s">
         <v>304</v>
       </c>
-      <c r="I26" s="235" t="s">
+      <c r="I26" s="223" t="s">
         <v>294</v>
       </c>
       <c r="J26" s="14"/>
     </row>
-    <row r="27" spans="2:14" ht="17.250000">
-      <c r="B27" s="332"/>
-      <c r="C27" s="274" t="s">
+    <row r="27" spans="2:14">
+      <c r="B27" s="319"/>
+      <c r="C27" s="262" t="s">
         <v>291</v>
       </c>
-      <c r="D27" s="274" t="s">
+      <c r="D27" s="262" t="s">
         <v>260</v>
       </c>
-      <c r="E27" s="274"/>
-      <c r="F27" s="273" t="s">
+      <c r="E27" s="262"/>
+      <c r="F27" s="261" t="s">
         <v>131</v>
       </c>
-      <c r="G27" s="273"/>
-      <c r="H27" s="273" t="s">
+      <c r="G27" s="261"/>
+      <c r="H27" s="261" t="s">
         <v>304</v>
       </c>
-      <c r="I27" s="333" t="s">
+      <c r="I27" s="320" t="s">
         <v>261</v>
       </c>
       <c r="J27" s="14"/>
     </row>
-    <row r="28" spans="2:14" ht="16.500000" customHeight="1">
-      <c r="B28" s="254" t="s">
+    <row r="28" spans="2:14">
+      <c r="B28" s="242" t="s">
         <v>296</v>
       </c>
-      <c r="C28" s="277" t="s">
+      <c r="C28" s="264" t="s">
         <v>297</v>
       </c>
-      <c r="D28" s="277" t="s">
+      <c r="D28" s="264" t="s">
         <v>309</v>
       </c>
-      <c r="E28" s="277"/>
-      <c r="F28" s="255" t="s">
+      <c r="E28" s="264"/>
+      <c r="F28" s="243" t="s">
         <v>131</v>
       </c>
-      <c r="G28" s="255"/>
-      <c r="H28" s="255" t="s">
+      <c r="G28" s="243"/>
+      <c r="H28" s="243" t="s">
         <v>305</v>
       </c>
-      <c r="I28" s="256" t="s">
+      <c r="I28" s="244" t="s">
         <v>243</v>
       </c>
       <c r="J28" s="14"/>
     </row>
-    <row r="29" spans="2:14" ht="16.500000" customHeight="1">
-      <c r="B29" s="257"/>
-      <c r="C29" s="253" t="s">
+    <row r="29" spans="2:14">
+      <c r="B29" s="245"/>
+      <c r="C29" s="241" t="s">
         <v>298</v>
       </c>
-      <c r="D29" s="253" t="s">
+      <c r="D29" s="241" t="s">
         <v>308</v>
       </c>
-      <c r="E29" s="253"/>
-      <c r="F29" s="219" t="s">
+      <c r="E29" s="241"/>
+      <c r="F29" s="207" t="s">
         <v>131</v>
       </c>
-      <c r="G29" s="219"/>
-      <c r="H29" s="219" t="s">
+      <c r="G29" s="207"/>
+      <c r="H29" s="207" t="s">
         <v>305</v>
       </c>
-      <c r="I29" s="235" t="s">
+      <c r="I29" s="223" t="s">
         <v>250</v>
       </c>
       <c r="J29" s="14"/>
     </row>
     <row r="30" spans="2:14">
-      <c r="B30" s="257"/>
-      <c r="C30" s="253" t="s">
+      <c r="B30" s="245"/>
+      <c r="C30" s="241" t="s">
         <v>299</v>
       </c>
-      <c r="D30" s="253" t="s">
+      <c r="D30" s="241" t="s">
         <v>311</v>
       </c>
-      <c r="E30" s="253"/>
-      <c r="F30" s="219" t="s">
+      <c r="E30" s="241"/>
+      <c r="F30" s="207" t="s">
         <v>131</v>
       </c>
-      <c r="G30" s="219"/>
-      <c r="H30" s="219" t="s">
+      <c r="G30" s="207"/>
+      <c r="H30" s="207" t="s">
         <v>305</v>
       </c>
-      <c r="I30" s="258" t="s">
+      <c r="I30" s="246" t="s">
         <v>312</v>
       </c>
       <c r="J30" s="14"/>
     </row>
     <row r="31" spans="2:14">
-      <c r="B31" s="257"/>
-      <c r="C31" s="253" t="s">
+      <c r="B31" s="245"/>
+      <c r="C31" s="241" t="s">
         <v>300</v>
       </c>
-      <c r="D31" s="253" t="s">
+      <c r="D31" s="241" t="s">
         <v>316</v>
       </c>
-      <c r="E31" s="253"/>
-      <c r="F31" s="219" t="s">
+      <c r="E31" s="241"/>
+      <c r="F31" s="207" t="s">
         <v>131</v>
       </c>
-      <c r="G31" s="219"/>
-      <c r="H31" s="253" t="s">
+      <c r="G31" s="207"/>
+      <c r="H31" s="241" t="s">
         <v>305</v>
       </c>
-      <c r="I31" s="258" t="s">
+      <c r="I31" s="246" t="s">
         <v>317</v>
       </c>
       <c r="J31" s="14"/>
     </row>
-    <row r="32" spans="2:14" ht="17.250000">
-      <c r="B32" s="257"/>
-      <c r="C32" s="253" t="s">
+    <row r="32" spans="2:14">
+      <c r="B32" s="245"/>
+      <c r="C32" s="241" t="s">
         <v>320</v>
       </c>
-      <c r="D32" s="253" t="s">
+      <c r="D32" s="241" t="s">
         <v>318</v>
       </c>
-      <c r="E32" s="253"/>
-      <c r="F32" s="219" t="s">
+      <c r="E32" s="241"/>
+      <c r="F32" s="207" t="s">
         <v>131</v>
       </c>
-      <c r="G32" s="219"/>
-      <c r="H32" s="253" t="s">
+      <c r="G32" s="207"/>
+      <c r="H32" s="241" t="s">
         <v>305</v>
       </c>
-      <c r="I32" s="258" t="s">
+      <c r="I32" s="246" t="s">
         <v>319</v>
       </c>
       <c r="J32" s="14"/>
       <c r="N32" s="14"/>
     </row>
-    <row r="33" spans="2:14" ht="17.250000">
-      <c r="B33" s="257"/>
-      <c r="C33" s="253" t="s">
+    <row r="33" spans="2:14">
+      <c r="B33" s="245"/>
+      <c r="C33" s="241" t="s">
         <v>346</v>
       </c>
-      <c r="D33" s="253" t="s">
+      <c r="D33" s="241" t="s">
         <v>272</v>
       </c>
-      <c r="E33" s="253"/>
-      <c r="F33" s="219" t="s">
+      <c r="E33" s="241"/>
+      <c r="F33" s="207" t="s">
         <v>131</v>
       </c>
-      <c r="G33" s="219"/>
-      <c r="H33" s="253" t="s">
+      <c r="G33" s="207"/>
+      <c r="H33" s="241" t="s">
         <v>305</v>
       </c>
-      <c r="I33" s="258" t="s">
+      <c r="I33" s="246" t="s">
         <v>80</v>
       </c>
       <c r="J33" s="14"/>
     </row>
-    <row r="34" spans="2:14" ht="17.250000">
-      <c r="B34" s="272"/>
-      <c r="C34" s="274" t="s">
+    <row r="34" spans="2:14">
+      <c r="B34" s="260"/>
+      <c r="C34" s="262" t="s">
         <v>347</v>
       </c>
-      <c r="D34" s="274" t="s">
+      <c r="D34" s="262" t="s">
         <v>273</v>
       </c>
-      <c r="E34" s="274"/>
-      <c r="F34" s="273" t="s">
+      <c r="E34" s="262"/>
+      <c r="F34" s="261" t="s">
         <v>131</v>
       </c>
-      <c r="G34" s="273"/>
-      <c r="H34" s="274" t="s">
+      <c r="G34" s="261"/>
+      <c r="H34" s="262" t="s">
         <v>305</v>
       </c>
-      <c r="I34" s="275" t="s">
+      <c r="I34" s="263" t="s">
         <v>274</v>
       </c>
       <c r="J34" s="14"/>
     </row>
-    <row r="35" spans="2:14" ht="16.500000" customHeight="1">
-      <c r="B35" s="254" t="s">
+    <row r="35" spans="2:14">
+      <c r="B35" s="242" t="s">
         <v>321</v>
       </c>
-      <c r="C35" s="277" t="s">
+      <c r="C35" s="264" t="s">
         <v>322</v>
       </c>
-      <c r="D35" s="277" t="s">
+      <c r="D35" s="264" t="s">
         <v>334</v>
       </c>
-      <c r="E35" s="277"/>
-      <c r="F35" s="277" t="s">
+      <c r="E35" s="264"/>
+      <c r="F35" s="264" t="s">
         <v>131</v>
       </c>
-      <c r="G35" s="277"/>
-      <c r="H35" s="255" t="s">
+      <c r="G35" s="264"/>
+      <c r="H35" s="243" t="s">
         <v>333</v>
       </c>
-      <c r="I35" s="256" t="s">
+      <c r="I35" s="244" t="s">
         <v>243</v>
       </c>
       <c r="J35" s="14"/>
     </row>
-    <row r="36" spans="2:14" ht="16.500000" customHeight="1">
-      <c r="B36" s="257"/>
-      <c r="C36" s="253" t="s">
+    <row r="36" spans="2:14">
+      <c r="B36" s="245"/>
+      <c r="C36" s="241" t="s">
         <v>323</v>
       </c>
-      <c r="D36" s="253" t="s">
+      <c r="D36" s="241" t="s">
         <v>336</v>
       </c>
-      <c r="E36" s="253"/>
-      <c r="F36" s="253" t="s">
+      <c r="E36" s="241"/>
+      <c r="F36" s="241" t="s">
         <v>131</v>
       </c>
-      <c r="G36" s="253"/>
-      <c r="H36" s="219" t="s">
+      <c r="G36" s="241"/>
+      <c r="H36" s="207" t="s">
         <v>333</v>
       </c>
-      <c r="I36" s="235" t="s">
+      <c r="I36" s="223" t="s">
         <v>250</v>
       </c>
       <c r="J36" s="14"/>
     </row>
     <row r="37" spans="2:14">
-      <c r="B37" s="257"/>
-      <c r="C37" s="253" t="s">
+      <c r="B37" s="245"/>
+      <c r="C37" s="241" t="s">
         <v>324</v>
       </c>
-      <c r="D37" s="253" t="s">
+      <c r="D37" s="241" t="s">
         <v>337</v>
       </c>
-      <c r="E37" s="253"/>
-      <c r="F37" s="253" t="s">
+      <c r="E37" s="241"/>
+      <c r="F37" s="241" t="s">
         <v>131</v>
       </c>
-      <c r="G37" s="253"/>
-      <c r="H37" s="219" t="s">
+      <c r="G37" s="241"/>
+      <c r="H37" s="207" t="s">
         <v>333</v>
       </c>
-      <c r="I37" s="258" t="s">
+      <c r="I37" s="246" t="s">
         <v>338</v>
       </c>
       <c r="J37" s="14"/>
     </row>
     <row r="38" spans="2:14">
-      <c r="B38" s="257"/>
-      <c r="C38" s="253" t="s">
+      <c r="B38" s="245"/>
+      <c r="C38" s="241" t="s">
         <v>325</v>
       </c>
-      <c r="D38" s="253" t="s">
+      <c r="D38" s="241" t="s">
         <v>339</v>
       </c>
-      <c r="E38" s="253"/>
-      <c r="F38" s="253" t="s">
+      <c r="E38" s="241"/>
+      <c r="F38" s="241" t="s">
         <v>131</v>
       </c>
-      <c r="G38" s="253"/>
-      <c r="H38" s="219" t="s">
+      <c r="G38" s="241"/>
+      <c r="H38" s="207" t="s">
         <v>333</v>
       </c>
-      <c r="I38" s="258" t="s">
+      <c r="I38" s="246" t="s">
         <v>340</v>
       </c>
       <c r="J38" s="14"/>
     </row>
     <row r="39" spans="2:14">
-      <c r="B39" s="257"/>
-      <c r="C39" s="253" t="s">
+      <c r="B39" s="245"/>
+      <c r="C39" s="241" t="s">
         <v>326</v>
       </c>
-      <c r="D39" s="253" t="s">
+      <c r="D39" s="241" t="s">
         <v>341</v>
       </c>
-      <c r="E39" s="253"/>
-      <c r="F39" s="253" t="s">
+      <c r="E39" s="241"/>
+      <c r="F39" s="241" t="s">
         <v>131</v>
       </c>
-      <c r="G39" s="253"/>
-      <c r="H39" s="219" t="s">
+      <c r="G39" s="241"/>
+      <c r="H39" s="207" t="s">
         <v>333</v>
       </c>
-      <c r="I39" s="258" t="s">
+      <c r="I39" s="246" t="s">
         <v>343</v>
       </c>
       <c r="J39" s="14"/>
     </row>
     <row r="40" spans="2:14">
-      <c r="B40" s="257"/>
-      <c r="C40" s="253" t="s">
+      <c r="B40" s="245"/>
+      <c r="C40" s="241" t="s">
         <v>327</v>
       </c>
-      <c r="D40" s="253" t="s">
+      <c r="D40" s="241" t="s">
         <v>344</v>
       </c>
-      <c r="E40" s="253"/>
-      <c r="F40" s="253" t="s">
+      <c r="E40" s="241"/>
+      <c r="F40" s="241" t="s">
         <v>131</v>
       </c>
-      <c r="G40" s="253"/>
-      <c r="H40" s="219" t="s">
+      <c r="G40" s="241"/>
+      <c r="H40" s="207" t="s">
         <v>333</v>
       </c>
-      <c r="I40" s="258" t="s">
+      <c r="I40" s="246" t="s">
         <v>348</v>
       </c>
       <c r="J40" s="14"/>
       <c r="N40" s="14"/>
     </row>
     <row r="41" spans="2:14">
-      <c r="B41" s="257"/>
-      <c r="C41" s="253" t="s">
+      <c r="B41" s="245"/>
+      <c r="C41" s="241" t="s">
         <v>328</v>
       </c>
-      <c r="D41" s="253" t="s">
+      <c r="D41" s="241" t="s">
         <v>345</v>
       </c>
-      <c r="E41" s="253"/>
-      <c r="F41" s="253" t="s">
+      <c r="E41" s="241"/>
+      <c r="F41" s="241" t="s">
         <v>131</v>
       </c>
-      <c r="G41" s="253"/>
-      <c r="H41" s="219" t="s">
+      <c r="G41" s="241"/>
+      <c r="H41" s="207" t="s">
         <v>333</v>
       </c>
-      <c r="I41" s="258" t="s">
+      <c r="I41" s="246" t="s">
         <v>349</v>
       </c>
       <c r="J41" s="14"/>
       <c r="N41" s="14"/>
     </row>
     <row r="42" spans="2:14">
-      <c r="B42" s="257"/>
-      <c r="C42" s="253" t="s">
+      <c r="B42" s="245"/>
+      <c r="C42" s="241" t="s">
         <v>329</v>
       </c>
-      <c r="D42" s="253" t="s">
+      <c r="D42" s="241" t="s">
         <v>272</v>
       </c>
-      <c r="E42" s="253"/>
-      <c r="F42" s="253" t="s">
+      <c r="E42" s="241"/>
+      <c r="F42" s="241" t="s">
         <v>131</v>
       </c>
-      <c r="G42" s="253"/>
-      <c r="H42" s="219" t="s">
+      <c r="G42" s="241"/>
+      <c r="H42" s="207" t="s">
         <v>333</v>
       </c>
-      <c r="I42" s="258" t="s">
+      <c r="I42" s="246" t="s">
         <v>80</v>
       </c>
       <c r="J42" s="14"/>
       <c r="N42" s="14"/>
     </row>
     <row r="43" spans="2:14" ht="17.250000">
-      <c r="B43" s="259"/>
-      <c r="C43" s="260" t="s">
+      <c r="B43" s="247"/>
+      <c r="C43" s="248" t="s">
         <v>330</v>
       </c>
-      <c r="D43" s="260" t="s">
+      <c r="D43" s="248" t="s">
         <v>273</v>
       </c>
-      <c r="E43" s="260"/>
-      <c r="F43" s="260" t="s">
+      <c r="E43" s="248"/>
+      <c r="F43" s="248" t="s">
         <v>131</v>
       </c>
-      <c r="G43" s="260"/>
-      <c r="H43" s="261" t="s">
+      <c r="G43" s="248"/>
+      <c r="H43" s="249" t="s">
         <v>333</v>
       </c>
-      <c r="I43" s="262" t="s">
+      <c r="I43" s="250" t="s">
         <v>274</v>
       </c>
       <c r="J43" s="14"/>
       <c r="N43" s="14"/>
     </row>
     <row r="44" spans="2:14">
-      <c r="B44" s="254" t="s">
+      <c r="B44" s="242" t="s">
         <v>368</v>
       </c>
-      <c r="C44" s="277" t="s">
+      <c r="C44" s="264" t="s">
         <v>351</v>
       </c>
-      <c r="D44" s="277" t="s">
+      <c r="D44" s="264" t="s">
         <v>357</v>
       </c>
-      <c r="E44" s="277"/>
-      <c r="F44" s="277" t="s">
+      <c r="E44" s="264"/>
+      <c r="F44" s="264" t="s">
         <v>131</v>
       </c>
-      <c r="G44" s="277"/>
-      <c r="H44" s="255" t="s">
+      <c r="G44" s="264"/>
+      <c r="H44" s="243" t="s">
         <v>369</v>
       </c>
-      <c r="I44" s="278" t="s">
+      <c r="I44" s="265" t="s">
         <v>243</v>
       </c>
       <c r="J44" s="14"/>
       <c r="N44" s="14"/>
     </row>
     <row r="45" spans="2:14">
-      <c r="B45" s="257"/>
-      <c r="C45" s="253" t="s">
+      <c r="B45" s="245"/>
+      <c r="C45" s="241" t="s">
         <v>352</v>
       </c>
-      <c r="D45" s="253" t="s">
+      <c r="D45" s="241" t="s">
         <v>362</v>
       </c>
-      <c r="E45" s="253"/>
-      <c r="F45" s="253" t="s">
+      <c r="E45" s="241"/>
+      <c r="F45" s="241" t="s">
         <v>131</v>
       </c>
-      <c r="G45" s="253"/>
-      <c r="H45" s="219" t="s">
+      <c r="G45" s="241"/>
+      <c r="H45" s="207" t="s">
         <v>369</v>
       </c>
-      <c r="I45" s="258" t="s">
+      <c r="I45" s="246" t="s">
         <v>363</v>
       </c>
       <c r="J45" s="14"/>
       <c r="N45" s="14"/>
     </row>
     <row r="46" spans="2:14">
-      <c r="B46" s="257"/>
-      <c r="C46" s="253" t="s">
+      <c r="B46" s="245"/>
+      <c r="C46" s="241" t="s">
         <v>352</v>
       </c>
-      <c r="D46" s="253" t="s">
+      <c r="D46" s="241" t="s">
         <v>384</v>
       </c>
-      <c r="E46" s="253"/>
-      <c r="F46" s="253" t="s">
+      <c r="E46" s="241"/>
+      <c r="F46" s="241" t="s">
         <v>131</v>
       </c>
-      <c r="G46" s="253"/>
-      <c r="H46" s="219" t="s">
+      <c r="G46" s="241"/>
+      <c r="H46" s="207" t="s">
         <v>369</v>
       </c>
-      <c r="I46" s="258" t="s">
+      <c r="I46" s="246" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="47" spans="2:14">
-      <c r="B47" s="279"/>
-      <c r="C47" s="253" t="s">
+      <c r="B47" s="266"/>
+      <c r="C47" s="241" t="s">
         <v>353</v>
       </c>
-      <c r="D47" s="253" t="s">
+      <c r="D47" s="241" t="s">
         <v>365</v>
       </c>
-      <c r="E47" s="253"/>
-      <c r="F47" s="253" t="s">
+      <c r="E47" s="241"/>
+      <c r="F47" s="241" t="s">
         <v>131</v>
       </c>
-      <c r="G47" s="253"/>
-      <c r="H47" s="219" t="s">
+      <c r="G47" s="241"/>
+      <c r="H47" s="207" t="s">
         <v>369</v>
       </c>
-      <c r="I47" s="258" t="s">
+      <c r="I47" s="246" t="s">
         <v>366</v>
       </c>
       <c r="J47" s="14"/>
     </row>
     <row r="48" spans="2:14">
-      <c r="B48" s="279"/>
-      <c r="C48" s="253" t="s">
+      <c r="B48" s="266"/>
+      <c r="C48" s="241" t="s">
         <v>354</v>
       </c>
-      <c r="D48" s="253" t="s">
+      <c r="D48" s="241" t="s">
         <v>272</v>
       </c>
-      <c r="E48" s="253"/>
-      <c r="F48" s="253" t="s">
+      <c r="E48" s="241"/>
+      <c r="F48" s="241" t="s">
         <v>131</v>
       </c>
-      <c r="G48" s="253"/>
-      <c r="H48" s="219" t="s">
+      <c r="G48" s="241"/>
+      <c r="H48" s="207" t="s">
         <v>369</v>
       </c>
-      <c r="I48" s="258" t="s">
+      <c r="I48" s="246" t="s">
         <v>80</v>
       </c>
       <c r="J48" s="14"/>
     </row>
     <row r="49" spans="2:10" ht="17.250000">
-      <c r="B49" s="280"/>
-      <c r="C49" s="260" t="s">
+      <c r="B49" s="267"/>
+      <c r="C49" s="248" t="s">
         <v>367</v>
       </c>
-      <c r="D49" s="260" t="s">
+      <c r="D49" s="248" t="s">
         <v>273</v>
       </c>
-      <c r="E49" s="260"/>
-      <c r="F49" s="260" t="s">
+      <c r="E49" s="248"/>
+      <c r="F49" s="248" t="s">
         <v>131</v>
       </c>
-      <c r="G49" s="260"/>
-      <c r="H49" s="273" t="s">
+      <c r="G49" s="248"/>
+      <c r="H49" s="261" t="s">
         <v>369</v>
       </c>
-      <c r="I49" s="262" t="s">
+      <c r="I49" s="250" t="s">
         <v>274</v>
       </c>
       <c r="J49" s="14"/>
     </row>
     <row r="50" spans="2:10">
-      <c r="B50" s="356" t="s">
+      <c r="B50" s="342" t="s">
         <v>370</v>
       </c>
-      <c r="C50" s="277" t="s">
+      <c r="C50" s="264" t="s">
         <v>371</v>
       </c>
-      <c r="D50" s="277" t="s">
+      <c r="D50" s="264" t="s">
         <v>379</v>
       </c>
-      <c r="E50" s="277"/>
-      <c r="F50" s="277" t="s">
+      <c r="E50" s="264"/>
+      <c r="F50" s="264" t="s">
         <v>131</v>
       </c>
-      <c r="G50" s="277"/>
-      <c r="H50" s="255" t="s">
+      <c r="G50" s="264"/>
+      <c r="H50" s="243" t="s">
         <v>378</v>
       </c>
-      <c r="I50" s="278" t="s">
+      <c r="I50" s="265" t="s">
         <v>243</v>
       </c>
       <c r="J50" s="14"/>
     </row>
     <row r="51" spans="2:10">
-      <c r="B51" s="357"/>
-      <c r="C51" s="253" t="s">
+      <c r="B51" s="343"/>
+      <c r="C51" s="241" t="s">
         <v>372</v>
       </c>
-      <c r="D51" s="253" t="s">
+      <c r="D51" s="241" t="s">
         <v>380</v>
       </c>
-      <c r="E51" s="253"/>
-      <c r="F51" s="253" t="s">
+      <c r="E51" s="241"/>
+      <c r="F51" s="241" t="s">
         <v>131</v>
       </c>
-      <c r="G51" s="253"/>
-      <c r="H51" s="219" t="s">
+      <c r="G51" s="241"/>
+      <c r="H51" s="207" t="s">
         <v>378</v>
       </c>
-      <c r="I51" s="258" t="s">
+      <c r="I51" s="246" t="s">
         <v>381</v>
       </c>
       <c r="J51" s="14"/>
     </row>
     <row r="52" spans="2:10">
-      <c r="B52" s="357"/>
-      <c r="C52" s="253" t="s">
+      <c r="B52" s="343"/>
+      <c r="C52" s="241" t="s">
         <v>373</v>
       </c>
-      <c r="D52" s="253" t="s">
+      <c r="D52" s="241" t="s">
         <v>335</v>
       </c>
-      <c r="E52" s="253"/>
-      <c r="F52" s="253" t="s">
+      <c r="E52" s="241"/>
+      <c r="F52" s="241" t="s">
         <v>131</v>
       </c>
-      <c r="G52" s="253"/>
-      <c r="H52" s="219" t="s">
+      <c r="G52" s="241"/>
+      <c r="H52" s="207" t="s">
         <v>378</v>
       </c>
-      <c r="I52" s="258" t="s">
+      <c r="I52" s="246" t="s">
         <v>382</v>
       </c>
       <c r="J52" s="14"/>
     </row>
     <row r="53" spans="2:10">
-      <c r="B53" s="357"/>
-      <c r="C53" s="253" t="s">
+      <c r="B53" s="343"/>
+      <c r="C53" s="241" t="s">
         <v>374</v>
       </c>
-      <c r="D53" s="253" t="s">
+      <c r="D53" s="241" t="s">
         <v>383</v>
       </c>
-      <c r="E53" s="253"/>
-      <c r="F53" s="253" t="s">
+      <c r="E53" s="241"/>
+      <c r="F53" s="241" t="s">
         <v>131</v>
       </c>
-      <c r="G53" s="253"/>
-      <c r="H53" s="219" t="s">
+      <c r="G53" s="241"/>
+      <c r="H53" s="207" t="s">
         <v>378</v>
       </c>
-      <c r="I53" s="258" t="s">
+      <c r="I53" s="246" t="s">
         <v>385</v>
       </c>
       <c r="J53" s="14"/>
     </row>
     <row r="54" spans="2:10">
-      <c r="B54" s="357"/>
-      <c r="C54" s="253" t="s">
+      <c r="B54" s="343"/>
+      <c r="C54" s="241" t="s">
         <v>375</v>
       </c>
-      <c r="D54" s="253" t="s">
+      <c r="D54" s="241" t="s">
         <v>384</v>
       </c>
-      <c r="E54" s="253"/>
-      <c r="F54" s="253" t="s">
+      <c r="E54" s="241"/>
+      <c r="F54" s="241" t="s">
         <v>131</v>
       </c>
-      <c r="G54" s="253"/>
-      <c r="H54" s="219" t="s">
+      <c r="G54" s="241"/>
+      <c r="H54" s="207" t="s">
         <v>378</v>
       </c>
-      <c r="I54" s="258" t="s">
+      <c r="I54" s="246" t="s">
         <v>386</v>
       </c>
       <c r="J54" s="14"/>
     </row>
     <row r="55" spans="2:10">
-      <c r="B55" s="357"/>
-      <c r="C55" s="253" t="s">
+      <c r="B55" s="343"/>
+      <c r="C55" s="241" t="s">
         <v>376</v>
       </c>
-      <c r="D55" s="253" t="s">
+      <c r="D55" s="241" t="s">
         <v>272</v>
       </c>
-      <c r="E55" s="253"/>
-      <c r="F55" s="253" t="s">
+      <c r="E55" s="241"/>
+      <c r="F55" s="241" t="s">
         <v>131</v>
       </c>
-      <c r="G55" s="253"/>
-      <c r="H55" s="219" t="s">
+      <c r="G55" s="241"/>
+      <c r="H55" s="207" t="s">
         <v>378</v>
       </c>
-      <c r="I55" s="258" t="s">
+      <c r="I55" s="246" t="s">
         <v>80</v>
       </c>
       <c r="J55" s="14"/>
     </row>
     <row r="56" spans="2:10" ht="17.250000">
-      <c r="B56" s="358"/>
-      <c r="C56" s="260" t="s">
+      <c r="B56" s="344"/>
+      <c r="C56" s="248" t="s">
         <v>377</v>
       </c>
-      <c r="D56" s="260" t="s">
+      <c r="D56" s="248" t="s">
         <v>273</v>
       </c>
-      <c r="E56" s="260"/>
-      <c r="F56" s="260" t="s">
+      <c r="E56" s="248"/>
+      <c r="F56" s="248" t="s">
         <v>131</v>
       </c>
-      <c r="G56" s="260"/>
-      <c r="H56" s="219" t="s">
+      <c r="G56" s="248"/>
+      <c r="H56" s="207" t="s">
         <v>378</v>
       </c>
-      <c r="I56" s="262" t="s">
+      <c r="I56" s="250" t="s">
         <v>274</v>
       </c>
       <c r="J56" s="14"/>
     </row>
     <row r="57" spans="2:10">
-      <c r="B57" s="369" t="s">
+      <c r="B57" s="204" t="s">
         <v>388</v>
       </c>
-      <c r="C57" s="370"/>
-      <c r="D57" s="370"/>
-      <c r="E57" s="370"/>
-      <c r="F57" s="370"/>
-      <c r="G57" s="370"/>
-      <c r="H57" s="370"/>
-      <c r="I57" s="371"/>
+      <c r="C57" s="355"/>
+      <c r="D57" s="355"/>
+      <c r="E57" s="355"/>
+      <c r="F57" s="355"/>
+      <c r="G57" s="355"/>
+      <c r="H57" s="355"/>
+      <c r="I57" s="206"/>
     </row>
     <row r="58" spans="2:10">
-      <c r="B58" s="378" t="s">
+      <c r="B58" s="362" t="s">
         <v>390</v>
       </c>
-      <c r="C58" s="277" t="s">
+      <c r="C58" s="264" t="s">
         <v>237</v>
       </c>
-      <c r="D58" s="277" t="s">
+      <c r="D58" s="264" t="s">
         <v>391</v>
       </c>
-      <c r="E58" s="277"/>
-      <c r="F58" s="277" t="s">
+      <c r="E58" s="264"/>
+      <c r="F58" s="264" t="s">
         <v>388</v>
       </c>
-      <c r="G58" s="277"/>
-      <c r="H58" s="277" t="s">
+      <c r="G58" s="264"/>
+      <c r="H58" s="264" t="s">
         <v>395</v>
       </c>
-      <c r="I58" s="278" t="s">
+      <c r="I58" s="265" t="s">
         <v>399</v>
       </c>
       <c r="J58" s="14"/>
     </row>
     <row r="59" spans="2:10">
-      <c r="B59" s="357"/>
-      <c r="C59" s="253" t="s">
+      <c r="B59" s="343"/>
+      <c r="C59" s="241" t="s">
         <v>237</v>
       </c>
-      <c r="D59" s="253" t="s">
+      <c r="D59" s="241" t="s">
         <v>392</v>
       </c>
-      <c r="E59" s="253"/>
-      <c r="F59" s="253" t="s">
+      <c r="E59" s="241"/>
+      <c r="F59" s="241" t="s">
         <v>388</v>
       </c>
-      <c r="G59" s="253"/>
-      <c r="H59" s="253" t="s">
+      <c r="G59" s="241"/>
+      <c r="H59" s="241" t="s">
         <v>395</v>
       </c>
-      <c r="I59" s="258" t="s">
+      <c r="I59" s="246" t="s">
         <v>401</v>
       </c>
       <c r="J59" s="14"/>
     </row>
     <row r="60" spans="2:10">
-      <c r="B60" s="357"/>
-      <c r="C60" s="253" t="s">
+      <c r="B60" s="343"/>
+      <c r="C60" s="241" t="s">
         <v>237</v>
       </c>
-      <c r="D60" s="253" t="s">
+      <c r="D60" s="241" t="s">
         <v>393</v>
       </c>
-      <c r="E60" s="253"/>
-      <c r="F60" s="253" t="s">
+      <c r="E60" s="241"/>
+      <c r="F60" s="241" t="s">
         <v>388</v>
       </c>
-      <c r="G60" s="253"/>
-      <c r="H60" s="253" t="s">
+      <c r="G60" s="241"/>
+      <c r="H60" s="241" t="s">
         <v>395</v>
       </c>
-      <c r="I60" s="258" t="s">
+      <c r="I60" s="246" t="s">
         <v>397</v>
       </c>
       <c r="J60" s="14"/>
     </row>
-    <row r="61" spans="2:10">
-      <c r="B61" s="358"/>
-      <c r="C61" s="260" t="s">
+    <row r="61" spans="2:10" ht="17.250000">
+      <c r="B61" s="344"/>
+      <c r="C61" s="248" t="s">
         <v>237</v>
       </c>
-      <c r="D61" s="260" t="s">
+      <c r="D61" s="248" t="s">
         <v>394</v>
       </c>
-      <c r="E61" s="260"/>
-      <c r="F61" s="260" t="s">
+      <c r="E61" s="248"/>
+      <c r="F61" s="248" t="s">
         <v>388</v>
       </c>
-      <c r="G61" s="260"/>
-      <c r="H61" s="260" t="s">
+      <c r="G61" s="248"/>
+      <c r="H61" s="248" t="s">
         <v>395</v>
       </c>
-      <c r="I61" s="262" t="s">
+      <c r="I61" s="250" t="s">
         <v>396</v>
       </c>
       <c r="J61" s="14"/>
     </row>
     <row r="62" spans="2:10">
-      <c r="B62" s="254" t="s">
+      <c r="B62" s="242" t="s">
         <v>402</v>
       </c>
-      <c r="C62" s="277" t="s">
+      <c r="C62" s="264" t="s">
         <v>403</v>
       </c>
-      <c r="D62" s="377" t="s">
+      <c r="D62" s="361" t="s">
         <v>408</v>
       </c>
-      <c r="E62" s="377"/>
-      <c r="F62" s="277" t="s">
+      <c r="E62" s="361"/>
+      <c r="F62" s="264" t="s">
         <v>388</v>
       </c>
-      <c r="G62" s="277"/>
-      <c r="H62" s="277" t="s">
+      <c r="G62" s="264"/>
+      <c r="H62" s="264" t="s">
         <v>407</v>
       </c>
-      <c r="I62" s="278" t="s">
+      <c r="I62" s="265" t="s">
         <v>414</v>
       </c>
       <c r="J62" s="14"/>
     </row>
     <row r="63" spans="2:10">
-      <c r="B63" s="279"/>
-      <c r="C63" s="253" t="s">
+      <c r="B63" s="266"/>
+      <c r="C63" s="241" t="s">
         <v>404</v>
       </c>
-      <c r="D63" s="253" t="s">
+      <c r="D63" s="241" t="s">
         <v>410</v>
       </c>
-      <c r="E63" s="253"/>
-      <c r="F63" s="253" t="s">
+      <c r="E63" s="241"/>
+      <c r="F63" s="241" t="s">
         <v>388</v>
       </c>
-      <c r="G63" s="253"/>
-      <c r="H63" s="253" t="s">
+      <c r="G63" s="241"/>
+      <c r="H63" s="241" t="s">
         <v>407</v>
       </c>
-      <c r="I63" s="258" t="s">
+      <c r="I63" s="246" t="s">
         <v>415</v>
       </c>
       <c r="J63" s="14"/>
     </row>
     <row r="64" spans="2:10">
-      <c r="B64" s="279"/>
-      <c r="C64" s="253" t="s">
+      <c r="B64" s="266"/>
+      <c r="C64" s="241" t="s">
         <v>405</v>
       </c>
-      <c r="D64" s="253" t="s">
+      <c r="D64" s="241" t="s">
         <v>411</v>
       </c>
-      <c r="E64" s="253"/>
-      <c r="F64" s="253" t="s">
+      <c r="E64" s="241"/>
+      <c r="F64" s="241" t="s">
         <v>388</v>
       </c>
-      <c r="G64" s="253"/>
-      <c r="H64" s="253" t="s">
+      <c r="G64" s="241"/>
+      <c r="H64" s="241" t="s">
         <v>407</v>
       </c>
-      <c r="I64" s="258" t="s">
+      <c r="I64" s="246" t="s">
         <v>416</v>
       </c>
       <c r="J64" s="14"/>
     </row>
-    <row r="65" spans="2:10">
-      <c r="B65" s="280"/>
-      <c r="C65" s="260" t="s">
+    <row r="65" spans="2:10" ht="17.250000">
+      <c r="B65" s="267"/>
+      <c r="C65" s="248" t="s">
         <v>406</v>
       </c>
-      <c r="D65" s="260" t="s">
+      <c r="D65" s="248" t="s">
         <v>412</v>
       </c>
-      <c r="E65" s="260"/>
-      <c r="F65" s="260" t="s">
+      <c r="E65" s="248"/>
+      <c r="F65" s="248" t="s">
         <v>388</v>
       </c>
-      <c r="G65" s="260"/>
-      <c r="H65" s="260" t="s">
+      <c r="G65" s="248"/>
+      <c r="H65" s="248" t="s">
         <v>407</v>
       </c>
-      <c r="I65" s="262" t="s">
+      <c r="I65" s="250" t="s">
         <v>418</v>
       </c>
       <c r="J65" s="14"/>
     </row>
     <row r="66" spans="2:10">
-      <c r="B66" s="369" t="s">
+      <c r="B66" s="204" t="s">
         <v>420</v>
       </c>
-      <c r="C66" s="370"/>
-      <c r="D66" s="370"/>
-      <c r="E66" s="370"/>
-      <c r="F66" s="370"/>
-      <c r="G66" s="370"/>
-      <c r="H66" s="370"/>
-      <c r="I66" s="371"/>
+      <c r="C66" s="355"/>
+      <c r="D66" s="355"/>
+      <c r="E66" s="355"/>
+      <c r="F66" s="355"/>
+      <c r="G66" s="355"/>
+      <c r="H66" s="355"/>
+      <c r="I66" s="206"/>
     </row>
     <row r="67" spans="2:10">
-      <c r="B67" s="379" t="s">
+      <c r="B67" s="363" t="s">
         <v>420</v>
       </c>
-      <c r="C67" s="277" t="s">
+      <c r="C67" s="264" t="s">
         <v>9</v>
       </c>
-      <c r="D67" s="377" t="s">
+      <c r="D67" s="361" t="s">
         <v>14</v>
       </c>
-      <c r="E67" s="377"/>
-      <c r="F67" s="277" t="s">
+      <c r="E67" s="361"/>
+      <c r="F67" s="264" t="s">
         <v>388</v>
       </c>
-      <c r="G67" s="277"/>
-      <c r="H67" s="277" t="s">
+      <c r="G67" s="264"/>
+      <c r="H67" s="264" t="s">
         <v>183</v>
       </c>
-      <c r="I67" s="278" t="s">
+      <c r="I67" s="265" t="s">
         <v>469</v>
       </c>
       <c r="J67" s="14"/>
     </row>
     <row r="68" spans="2:10">
-      <c r="B68" s="279"/>
-      <c r="C68" s="253" t="s">
+      <c r="B68" s="266"/>
+      <c r="C68" s="241" t="s">
         <v>421</v>
       </c>
-      <c r="D68" s="253" t="s">
+      <c r="D68" s="241" t="s">
         <v>439</v>
       </c>
-      <c r="E68" s="253"/>
-      <c r="F68" s="253" t="s">
+      <c r="E68" s="241"/>
+      <c r="F68" s="241" t="s">
         <v>388</v>
       </c>
-      <c r="G68" s="253"/>
-      <c r="H68" s="253" t="s">
+      <c r="G68" s="241"/>
+      <c r="H68" s="241" t="s">
         <v>452</v>
       </c>
-      <c r="I68" s="278" t="s">
+      <c r="I68" s="265" t="s">
         <v>469</v>
       </c>
       <c r="J68" s="14"/>
     </row>
     <row r="69" spans="2:10">
-      <c r="B69" s="279"/>
-      <c r="C69" s="253" t="s">
+      <c r="B69" s="266"/>
+      <c r="C69" s="241" t="s">
         <v>422</v>
       </c>
-      <c r="D69" s="253" t="s">
+      <c r="D69" s="241" t="s">
         <v>59</v>
       </c>
-      <c r="E69" s="253"/>
-      <c r="F69" s="253" t="s">
+      <c r="E69" s="241"/>
+      <c r="F69" s="241" t="s">
         <v>388</v>
       </c>
-      <c r="G69" s="253"/>
-      <c r="H69" s="253" t="s">
+      <c r="G69" s="241"/>
+      <c r="H69" s="241" t="s">
         <v>453</v>
       </c>
-      <c r="I69" s="278" t="s">
+      <c r="I69" s="265" t="s">
         <v>469</v>
       </c>
       <c r="J69" s="14"/>
     </row>
     <row r="70" spans="2:10">
-      <c r="B70" s="279"/>
-      <c r="C70" s="253" t="s">
+      <c r="B70" s="266"/>
+      <c r="C70" s="241" t="s">
         <v>423</v>
       </c>
-      <c r="D70" s="253" t="s">
+      <c r="D70" s="241" t="s">
         <v>45</v>
       </c>
-      <c r="E70" s="253"/>
-      <c r="F70" s="253" t="s">
+      <c r="E70" s="241"/>
+      <c r="F70" s="241" t="s">
         <v>388</v>
       </c>
-      <c r="G70" s="253"/>
-      <c r="H70" s="253" t="s">
+      <c r="G70" s="241"/>
+      <c r="H70" s="241" t="s">
         <v>454</v>
       </c>
-      <c r="I70" s="278" t="s">
+      <c r="I70" s="265" t="s">
         <v>469</v>
       </c>
       <c r="J70" s="14"/>
     </row>
     <row r="71" spans="2:10">
-      <c r="B71" s="279"/>
-      <c r="C71" s="253" t="s">
+      <c r="B71" s="266"/>
+      <c r="C71" s="241" t="s">
         <v>424</v>
       </c>
-      <c r="D71" s="253" t="s">
+      <c r="D71" s="241" t="s">
         <v>30</v>
       </c>
-      <c r="E71" s="253"/>
-      <c r="F71" s="253" t="s">
+      <c r="E71" s="241"/>
+      <c r="F71" s="241" t="s">
         <v>388</v>
       </c>
-      <c r="G71" s="253"/>
-      <c r="H71" s="253" t="s">
+      <c r="G71" s="241"/>
+      <c r="H71" s="241" t="s">
         <v>458</v>
       </c>
-      <c r="I71" s="278" t="s">
+      <c r="I71" s="265" t="s">
         <v>469</v>
       </c>
       <c r="J71" s="14"/>
     </row>
     <row r="72" spans="2:10">
-      <c r="B72" s="279"/>
-      <c r="C72" s="253" t="s">
+      <c r="B72" s="266"/>
+      <c r="C72" s="241" t="s">
         <v>425</v>
       </c>
-      <c r="D72" s="253" t="s">
+      <c r="D72" s="241" t="s">
         <v>444</v>
       </c>
-      <c r="E72" s="253"/>
-      <c r="F72" s="253" t="s">
+      <c r="E72" s="241"/>
+      <c r="F72" s="241" t="s">
         <v>388</v>
       </c>
-      <c r="G72" s="253"/>
-      <c r="H72" s="253" t="s">
+      <c r="G72" s="241"/>
+      <c r="H72" s="241" t="s">
         <v>456</v>
       </c>
-      <c r="I72" s="278" t="s">
+      <c r="I72" s="265" t="s">
         <v>469</v>
       </c>
       <c r="J72" s="14"/>
     </row>
     <row r="73" spans="2:10">
-      <c r="B73" s="279"/>
-      <c r="C73" s="253" t="s">
+      <c r="B73" s="266"/>
+      <c r="C73" s="241" t="s">
         <v>426</v>
       </c>
-      <c r="D73" s="253" t="s">
+      <c r="D73" s="241" t="s">
         <v>11</v>
       </c>
-      <c r="E73" s="253"/>
-      <c r="F73" s="253" t="s">
+      <c r="E73" s="241"/>
+      <c r="F73" s="241" t="s">
         <v>388</v>
       </c>
-      <c r="G73" s="253"/>
-      <c r="H73" s="253" t="s">
+      <c r="G73" s="241"/>
+      <c r="H73" s="241" t="s">
         <v>180</v>
       </c>
-      <c r="I73" s="278" t="s">
+      <c r="I73" s="265" t="s">
         <v>469</v>
       </c>
       <c r="J73" s="14"/>
     </row>
     <row r="74" spans="2:10">
-      <c r="B74" s="279"/>
-      <c r="C74" s="253" t="s">
+      <c r="B74" s="266"/>
+      <c r="C74" s="241" t="s">
         <v>427</v>
       </c>
-      <c r="D74" s="253" t="s">
+      <c r="D74" s="241" t="s">
         <v>31</v>
       </c>
-      <c r="E74" s="253"/>
-      <c r="F74" s="253" t="s">
+      <c r="E74" s="241"/>
+      <c r="F74" s="241" t="s">
         <v>388</v>
       </c>
-      <c r="G74" s="253"/>
-      <c r="H74" s="253" t="s">
+      <c r="G74" s="241"/>
+      <c r="H74" s="241" t="s">
         <v>460</v>
       </c>
-      <c r="I74" s="278" t="s">
+      <c r="I74" s="265" t="s">
         <v>469</v>
       </c>
       <c r="J74" s="14"/>
     </row>
     <row r="75" spans="2:10">
-      <c r="B75" s="279"/>
-      <c r="C75" s="253" t="s">
+      <c r="B75" s="266"/>
+      <c r="C75" s="241" t="s">
         <v>428</v>
       </c>
-      <c r="D75" s="253" t="s">
+      <c r="D75" s="241" t="s">
         <v>13</v>
       </c>
-      <c r="E75" s="253"/>
-      <c r="F75" s="253" t="s">
+      <c r="E75" s="241"/>
+      <c r="F75" s="241" t="s">
         <v>388</v>
       </c>
-      <c r="G75" s="253"/>
-      <c r="H75" s="253" t="s">
+      <c r="G75" s="241"/>
+      <c r="H75" s="241" t="s">
         <v>182</v>
       </c>
-      <c r="I75" s="278" t="s">
+      <c r="I75" s="265" t="s">
         <v>469</v>
       </c>
       <c r="J75" s="14"/>
     </row>
     <row r="76" spans="2:10">
-      <c r="B76" s="279"/>
-      <c r="C76" s="253" t="s">
+      <c r="B76" s="266"/>
+      <c r="C76" s="241" t="s">
         <v>429</v>
       </c>
-      <c r="D76" s="253" t="s">
+      <c r="D76" s="241" t="s">
         <v>445</v>
       </c>
-      <c r="E76" s="253"/>
-      <c r="F76" s="253" t="s">
+      <c r="E76" s="241"/>
+      <c r="F76" s="241" t="s">
         <v>388</v>
       </c>
-      <c r="G76" s="253"/>
-      <c r="H76" s="253" t="s">
+      <c r="G76" s="241"/>
+      <c r="H76" s="241" t="s">
         <v>461</v>
       </c>
-      <c r="I76" s="278" t="s">
+      <c r="I76" s="265" t="s">
         <v>469</v>
       </c>
       <c r="J76" s="14"/>
     </row>
     <row r="77" spans="2:10">
-      <c r="B77" s="279"/>
-      <c r="C77" s="253" t="s">
+      <c r="B77" s="266"/>
+      <c r="C77" s="241" t="s">
         <v>430</v>
       </c>
-      <c r="D77" s="253" t="s">
+      <c r="D77" s="241" t="s">
         <v>446</v>
       </c>
-      <c r="E77" s="253"/>
-      <c r="F77" s="253" t="s">
+      <c r="E77" s="241"/>
+      <c r="F77" s="241" t="s">
         <v>388</v>
       </c>
-      <c r="G77" s="253"/>
-      <c r="H77" s="253" t="s">
+      <c r="G77" s="241"/>
+      <c r="H77" s="241" t="s">
         <v>462</v>
       </c>
-      <c r="I77" s="278" t="s">
+      <c r="I77" s="265" t="s">
         <v>469</v>
       </c>
       <c r="J77" s="14"/>
     </row>
     <row r="78" spans="2:10" ht="17.250000">
-      <c r="B78" s="280"/>
-      <c r="C78" s="260" t="s">
+      <c r="B78" s="267"/>
+      <c r="C78" s="248" t="s">
         <v>431</v>
       </c>
-      <c r="D78" s="260" t="s">
+      <c r="D78" s="248" t="s">
         <v>61</v>
       </c>
-      <c r="E78" s="260"/>
-      <c r="F78" s="260" t="s">
+      <c r="E78" s="248"/>
+      <c r="F78" s="248" t="s">
         <v>388</v>
       </c>
-      <c r="G78" s="260"/>
-      <c r="H78" s="260" t="s">
+      <c r="G78" s="248"/>
+      <c r="H78" s="248" t="s">
         <v>463</v>
       </c>
-      <c r="I78" s="385" t="s">
+      <c r="I78" s="369" t="s">
         <v>469</v>
       </c>
       <c r="J78" s="14"/>
     </row>
-    <row r="79" spans="2:10">
-      <c r="B79" s="384" t="s">
+    <row r="79" spans="2:10" ht="17.250000">
+      <c r="B79" s="368" t="s">
         <v>464</v>
       </c>
-      <c r="C79" s="331" t="s">
+      <c r="C79" s="318" t="s">
         <v>468</v>
       </c>
-      <c r="D79" s="331" t="s">
+      <c r="D79" s="318" t="s">
         <v>466</v>
       </c>
-      <c r="E79" s="331"/>
-      <c r="F79" s="331" t="s">
+      <c r="E79" s="318"/>
+      <c r="F79" s="318" t="s">
         <v>388</v>
       </c>
-      <c r="G79" s="331"/>
-      <c r="H79" s="331" t="s">
+      <c r="G79" s="318"/>
+      <c r="H79" s="318" t="s">
         <v>467</v>
       </c>
-      <c r="I79" s="381" t="s">
+      <c r="I79" s="365" t="s">
         <v>469</v>
       </c>
       <c r="J79" s="14"/>
     </row>
     <row r="80" spans="2:10">
-      <c r="B80" s="369" t="s">
+      <c r="B80" s="204" t="s">
         <v>470</v>
       </c>
-      <c r="C80" s="370"/>
-      <c r="D80" s="370"/>
-      <c r="E80" s="370"/>
-      <c r="F80" s="370"/>
-      <c r="G80" s="370"/>
-      <c r="H80" s="370"/>
-      <c r="I80" s="371"/>
+      <c r="C80" s="355"/>
+      <c r="D80" s="355"/>
+      <c r="E80" s="355"/>
+      <c r="F80" s="355"/>
+      <c r="G80" s="355"/>
+      <c r="H80" s="355"/>
+      <c r="I80" s="206"/>
     </row>
     <row r="81" spans="2:10">
-      <c r="B81" s="379" t="s">
+      <c r="B81" s="363" t="s">
         <v>470</v>
       </c>
-      <c r="C81" s="277" t="s">
+      <c r="C81" s="264" t="s">
         <v>471</v>
       </c>
-      <c r="D81" s="277" t="s">
+      <c r="D81" s="264" t="s">
         <v>14</v>
       </c>
-      <c r="E81" s="277"/>
-      <c r="F81" s="277" t="s">
+      <c r="E81" s="264"/>
+      <c r="F81" s="264" t="s">
         <v>494</v>
       </c>
-      <c r="G81" s="277"/>
-      <c r="H81" s="277" t="s">
+      <c r="G81" s="264"/>
+      <c r="H81" s="264" t="s">
         <v>497</v>
       </c>
-      <c r="I81" s="278" t="s">
+      <c r="I81" s="265" t="s">
         <v>496</v>
       </c>
       <c r="J81" s="14"/>
     </row>
     <row r="82" spans="2:10">
-      <c r="B82" s="279"/>
-      <c r="C82" s="253" t="s">
+      <c r="B82" s="266"/>
+      <c r="C82" s="241" t="s">
         <v>472</v>
       </c>
-      <c r="D82" s="253" t="s">
+      <c r="D82" s="241" t="s">
         <v>14</v>
       </c>
-      <c r="E82" s="253"/>
-      <c r="F82" s="253" t="s">
+      <c r="E82" s="241"/>
+      <c r="F82" s="241" t="s">
         <v>494</v>
       </c>
-      <c r="G82" s="253"/>
-      <c r="H82" s="253" t="s">
+      <c r="G82" s="241"/>
+      <c r="H82" s="241" t="s">
         <v>498</v>
       </c>
-      <c r="I82" s="258" t="s">
+      <c r="I82" s="246" t="s">
         <v>496</v>
       </c>
       <c r="J82" s="14"/>
     </row>
     <row r="83" spans="2:10">
-      <c r="B83" s="279"/>
-      <c r="C83" s="253" t="s">
+      <c r="B83" s="266"/>
+      <c r="C83" s="241" t="s">
         <v>473</v>
       </c>
-      <c r="D83" s="253" t="s">
+      <c r="D83" s="241" t="s">
         <v>499</v>
       </c>
-      <c r="E83" s="253"/>
-      <c r="F83" s="253" t="s">
+      <c r="E83" s="241"/>
+      <c r="F83" s="241" t="s">
         <v>494</v>
       </c>
-      <c r="G83" s="253"/>
-      <c r="H83" s="253" t="s">
+      <c r="G83" s="241"/>
+      <c r="H83" s="241" t="s">
         <v>452</v>
       </c>
-      <c r="I83" s="258" t="s">
+      <c r="I83" s="246" t="s">
         <v>496</v>
       </c>
       <c r="J83" s="14"/>
     </row>
     <row r="84" spans="2:10">
-      <c r="B84" s="279"/>
-      <c r="C84" s="253" t="s">
+      <c r="B84" s="266"/>
+      <c r="C84" s="241" t="s">
         <v>474</v>
       </c>
-      <c r="D84" s="253" t="s">
+      <c r="D84" s="241" t="s">
         <v>59</v>
       </c>
-      <c r="E84" s="253"/>
-      <c r="F84" s="253" t="s">
+      <c r="E84" s="241"/>
+      <c r="F84" s="241" t="s">
         <v>494</v>
       </c>
-      <c r="G84" s="253"/>
-      <c r="H84" s="253" t="s">
+      <c r="G84" s="241"/>
+      <c r="H84" s="241" t="s">
         <v>453</v>
       </c>
-      <c r="I84" s="258" t="s">
+      <c r="I84" s="246" t="s">
         <v>496</v>
       </c>
       <c r="J84" s="14"/>
     </row>
     <row r="85" spans="2:10">
-      <c r="B85" s="279"/>
-      <c r="C85" s="253" t="s">
+      <c r="B85" s="266"/>
+      <c r="C85" s="241" t="s">
         <v>475</v>
       </c>
-      <c r="D85" s="253" t="s">
+      <c r="D85" s="241" t="s">
         <v>45</v>
       </c>
-      <c r="E85" s="253"/>
-      <c r="F85" s="253" t="s">
+      <c r="E85" s="241"/>
+      <c r="F85" s="241" t="s">
         <v>494</v>
       </c>
-      <c r="G85" s="253"/>
-      <c r="H85" s="253" t="s">
+      <c r="G85" s="241"/>
+      <c r="H85" s="241" t="s">
         <v>454</v>
       </c>
-      <c r="I85" s="258" t="s">
+      <c r="I85" s="246" t="s">
         <v>496</v>
       </c>
       <c r="J85" s="14"/>
     </row>
     <row r="86" spans="2:10">
-      <c r="B86" s="279"/>
-      <c r="C86" s="253" t="s">
+      <c r="B86" s="266"/>
+      <c r="C86" s="241" t="s">
         <v>476</v>
       </c>
-      <c r="D86" s="253" t="s">
+      <c r="D86" s="241" t="s">
         <v>30</v>
       </c>
-      <c r="E86" s="253"/>
-      <c r="F86" s="253" t="s">
+      <c r="E86" s="241"/>
+      <c r="F86" s="241" t="s">
         <v>494</v>
       </c>
-      <c r="G86" s="253"/>
-      <c r="H86" s="253" t="s">
+      <c r="G86" s="241"/>
+      <c r="H86" s="241" t="s">
         <v>500</v>
       </c>
-      <c r="I86" s="258" t="s">
+      <c r="I86" s="246" t="s">
         <v>496</v>
       </c>
       <c r="J86" s="14"/>
     </row>
     <row r="87" spans="2:10">
-      <c r="B87" s="279"/>
-      <c r="C87" s="253" t="s">
+      <c r="B87" s="266"/>
+      <c r="C87" s="241" t="s">
         <v>477</v>
       </c>
-      <c r="D87" s="253" t="s">
+      <c r="D87" s="241" t="s">
         <v>46</v>
       </c>
-      <c r="E87" s="253"/>
-      <c r="F87" s="253" t="s">
+      <c r="E87" s="241"/>
+      <c r="F87" s="241" t="s">
         <v>494</v>
       </c>
-      <c r="G87" s="253"/>
-      <c r="H87" s="253" t="s">
+      <c r="G87" s="241"/>
+      <c r="H87" s="241" t="s">
         <v>502</v>
       </c>
-      <c r="I87" s="258" t="s">
+      <c r="I87" s="246" t="s">
         <v>496</v>
       </c>
       <c r="J87" s="14"/>
     </row>
     <row r="88" spans="2:10">
-      <c r="B88" s="279"/>
-      <c r="C88" s="253" t="s">
+      <c r="B88" s="266"/>
+      <c r="C88" s="241" t="s">
         <v>478</v>
       </c>
-      <c r="D88" s="253" t="s">
+      <c r="D88" s="241" t="s">
         <v>444</v>
       </c>
-      <c r="E88" s="253"/>
-      <c r="F88" s="253" t="s">
+      <c r="E88" s="241"/>
+      <c r="F88" s="241" t="s">
         <v>494</v>
       </c>
-      <c r="G88" s="253"/>
-      <c r="H88" s="253" t="s">
+      <c r="G88" s="241"/>
+      <c r="H88" s="241" t="s">
         <v>456</v>
       </c>
-      <c r="I88" s="258" t="s">
+      <c r="I88" s="246" t="s">
         <v>496</v>
       </c>
       <c r="J88" s="14"/>
     </row>
     <row r="89" spans="2:10">
-      <c r="B89" s="279"/>
-      <c r="C89" s="253" t="s">
+      <c r="B89" s="266"/>
+      <c r="C89" s="241" t="s">
         <v>479</v>
       </c>
-      <c r="D89" s="253" t="s">
+      <c r="D89" s="241" t="s">
         <v>11</v>
       </c>
-      <c r="E89" s="253"/>
-      <c r="F89" s="253" t="s">
+      <c r="E89" s="241"/>
+      <c r="F89" s="241" t="s">
         <v>494</v>
       </c>
-      <c r="G89" s="253"/>
-      <c r="H89" s="253" t="s">
+      <c r="G89" s="241"/>
+      <c r="H89" s="241" t="s">
         <v>503</v>
       </c>
-      <c r="I89" s="258" t="s">
+      <c r="I89" s="246" t="s">
         <v>496</v>
       </c>
       <c r="J89" s="14"/>
     </row>
     <row r="90" spans="2:10">
-      <c r="B90" s="279"/>
-      <c r="C90" s="253" t="s">
+      <c r="B90" s="266"/>
+      <c r="C90" s="241" t="s">
         <v>480</v>
       </c>
-      <c r="D90" s="253" t="s">
+      <c r="D90" s="241" t="s">
         <v>31</v>
       </c>
-      <c r="E90" s="253"/>
-      <c r="F90" s="253" t="s">
+      <c r="E90" s="241"/>
+      <c r="F90" s="241" t="s">
         <v>494</v>
       </c>
-      <c r="G90" s="253"/>
-      <c r="H90" s="253" t="s">
+      <c r="G90" s="241"/>
+      <c r="H90" s="241" t="s">
         <v>460</v>
       </c>
-      <c r="I90" s="258" t="s">
+      <c r="I90" s="246" t="s">
         <v>496</v>
       </c>
       <c r="J90" s="14"/>
     </row>
     <row r="91" spans="2:10">
-      <c r="B91" s="279"/>
-      <c r="C91" s="253" t="s">
+      <c r="B91" s="266"/>
+      <c r="C91" s="241" t="s">
         <v>481</v>
       </c>
-      <c r="D91" s="253" t="s">
+      <c r="D91" s="241" t="s">
         <v>504</v>
       </c>
-      <c r="E91" s="253"/>
-      <c r="F91" s="253" t="s">
+      <c r="E91" s="241"/>
+      <c r="F91" s="241" t="s">
         <v>494</v>
       </c>
-      <c r="G91" s="253"/>
-      <c r="H91" s="253" t="s">
+      <c r="G91" s="241"/>
+      <c r="H91" s="241" t="s">
         <v>506</v>
       </c>
-      <c r="I91" s="258" t="s">
+      <c r="I91" s="246" t="s">
         <v>496</v>
       </c>
       <c r="J91" s="14"/>
     </row>
     <row r="92" spans="2:10">
-      <c r="B92" s="279"/>
-      <c r="C92" s="253" t="s">
+      <c r="B92" s="266"/>
+      <c r="C92" s="241" t="s">
         <v>482</v>
       </c>
-      <c r="D92" s="253" t="s">
+      <c r="D92" s="241" t="s">
         <v>13</v>
       </c>
-      <c r="E92" s="253"/>
-      <c r="F92" s="253" t="s">
+      <c r="E92" s="241"/>
+      <c r="F92" s="241" t="s">
         <v>494</v>
       </c>
-      <c r="G92" s="253"/>
-      <c r="H92" s="253" t="s">
+      <c r="G92" s="241"/>
+      <c r="H92" s="241" t="s">
         <v>182</v>
       </c>
-      <c r="I92" s="258" t="s">
+      <c r="I92" s="246" t="s">
         <v>496</v>
       </c>
       <c r="J92" s="14"/>
     </row>
     <row r="93" spans="2:10">
-      <c r="B93" s="279"/>
-      <c r="C93" s="253" t="s">
+      <c r="B93" s="266"/>
+      <c r="C93" s="241" t="s">
         <v>483</v>
       </c>
-      <c r="D93" s="253" t="s">
+      <c r="D93" s="241" t="s">
         <v>437</v>
       </c>
-      <c r="E93" s="253"/>
-      <c r="F93" s="253" t="s">
+      <c r="E93" s="241"/>
+      <c r="F93" s="241" t="s">
         <v>494</v>
       </c>
-      <c r="G93" s="253"/>
-      <c r="H93" s="253" t="s">
+      <c r="G93" s="241"/>
+      <c r="H93" s="241" t="s">
         <v>461</v>
       </c>
-      <c r="I93" s="258" t="s">
+      <c r="I93" s="246" t="s">
         <v>496</v>
       </c>
       <c r="J93" s="14"/>
     </row>
     <row r="94" spans="2:10">
-      <c r="B94" s="279"/>
-      <c r="C94" s="253" t="s">
+      <c r="B94" s="266"/>
+      <c r="C94" s="241" t="s">
         <v>484</v>
       </c>
-      <c r="D94" s="253" t="s">
+      <c r="D94" s="241" t="s">
         <v>507</v>
       </c>
-      <c r="E94" s="253"/>
-      <c r="F94" s="253" t="s">
+      <c r="E94" s="241"/>
+      <c r="F94" s="241" t="s">
         <v>494</v>
       </c>
-      <c r="G94" s="253"/>
-      <c r="H94" s="253" t="s">
+      <c r="G94" s="241"/>
+      <c r="H94" s="241" t="s">
         <v>508</v>
       </c>
-      <c r="I94" s="258" t="s">
+      <c r="I94" s="246" t="s">
         <v>496</v>
       </c>
       <c r="J94" s="14"/>
     </row>
     <row r="95" spans="2:10">
-      <c r="B95" s="279"/>
-      <c r="C95" s="253" t="s">
+      <c r="B95" s="266"/>
+      <c r="C95" s="241" t="s">
         <v>485</v>
       </c>
-      <c r="D95" s="253" t="s">
+      <c r="D95" s="241" t="s">
         <v>510</v>
       </c>
-      <c r="E95" s="253"/>
-      <c r="F95" s="253" t="s">
+      <c r="E95" s="241"/>
+      <c r="F95" s="241" t="s">
         <v>494</v>
       </c>
-      <c r="G95" s="253"/>
-      <c r="H95" s="253" t="s">
+      <c r="G95" s="241"/>
+      <c r="H95" s="241" t="s">
         <v>512</v>
       </c>
-      <c r="I95" s="258" t="s">
+      <c r="I95" s="246" t="s">
         <v>496</v>
       </c>
       <c r="J95" s="14"/>
     </row>
     <row r="96" spans="2:10">
-      <c r="B96" s="279"/>
-      <c r="C96" s="253" t="s">
+      <c r="B96" s="266"/>
+      <c r="C96" s="241" t="s">
         <v>486</v>
       </c>
-      <c r="D96" s="253" t="s">
+      <c r="D96" s="241" t="s">
         <v>513</v>
       </c>
-      <c r="E96" s="253"/>
-      <c r="F96" s="253" t="s">
+      <c r="E96" s="241"/>
+      <c r="F96" s="241" t="s">
         <v>494</v>
       </c>
-      <c r="G96" s="253"/>
-      <c r="H96" s="253" t="s">
+      <c r="G96" s="241"/>
+      <c r="H96" s="241" t="s">
         <v>514</v>
       </c>
-      <c r="I96" s="258" t="s">
+      <c r="I96" s="246" t="s">
         <v>496</v>
       </c>
       <c r="J96" s="14"/>
     </row>
     <row r="97" spans="2:10">
-      <c r="B97" s="279"/>
-      <c r="C97" s="253" t="s">
+      <c r="B97" s="266"/>
+      <c r="C97" s="241" t="s">
         <v>487</v>
       </c>
-      <c r="D97" s="253" t="s">
+      <c r="D97" s="241" t="s">
         <v>446</v>
       </c>
-      <c r="E97" s="253"/>
-      <c r="F97" s="253" t="s">
+      <c r="E97" s="241"/>
+      <c r="F97" s="241" t="s">
         <v>494</v>
       </c>
-      <c r="G97" s="253"/>
-      <c r="H97" s="253" t="s">
+      <c r="G97" s="241"/>
+      <c r="H97" s="241" t="s">
         <v>462</v>
       </c>
-      <c r="I97" s="258" t="s">
+      <c r="I97" s="246" t="s">
         <v>496</v>
       </c>
       <c r="J97" s="14"/>
     </row>
     <row r="98" spans="2:10">
-      <c r="B98" s="279"/>
-      <c r="C98" s="253" t="s">
+      <c r="B98" s="266"/>
+      <c r="C98" s="241" t="s">
         <v>488</v>
       </c>
-      <c r="D98" s="253" t="s">
+      <c r="D98" s="241" t="s">
         <v>61</v>
       </c>
-      <c r="E98" s="253"/>
-      <c r="F98" s="253" t="s">
+      <c r="E98" s="241"/>
+      <c r="F98" s="241" t="s">
         <v>494</v>
       </c>
-      <c r="G98" s="253"/>
-      <c r="H98" s="253" t="s">
+      <c r="G98" s="241"/>
+      <c r="H98" s="241" t="s">
         <v>463</v>
       </c>
-      <c r="I98" s="258" t="s">
+      <c r="I98" s="246" t="s">
         <v>496</v>
       </c>
       <c r="J98" s="14"/>
     </row>
-    <row r="99" spans="2:10">
-      <c r="B99" s="280"/>
-      <c r="C99" s="260" t="s">
+    <row r="99" spans="2:10" ht="17.250000">
+      <c r="B99" s="267"/>
+      <c r="C99" s="248" t="s">
         <v>489</v>
       </c>
-      <c r="D99" s="260" t="s">
+      <c r="D99" s="248" t="s">
         <v>515</v>
       </c>
-      <c r="E99" s="260"/>
-      <c r="F99" s="260" t="s">
+      <c r="E99" s="248"/>
+      <c r="F99" s="248" t="s">
         <v>494</v>
       </c>
-      <c r="G99" s="260"/>
-      <c r="H99" s="260" t="s">
+      <c r="G99" s="248"/>
+      <c r="H99" s="248" t="s">
         <v>516</v>
       </c>
-      <c r="I99" s="262" t="s">
+      <c r="I99" s="250" t="s">
         <v>496</v>
       </c>
       <c r="J99" s="14"/>
     </row>
     <row r="100" spans="2:10">
-      <c r="B100" s="369" t="s">
+      <c r="B100" s="204" t="s">
         <v>517</v>
       </c>
-      <c r="C100" s="370"/>
-      <c r="D100" s="370"/>
-      <c r="E100" s="370"/>
-      <c r="F100" s="370"/>
-      <c r="G100" s="370"/>
-      <c r="H100" s="370"/>
-      <c r="I100" s="371"/>
+      <c r="C100" s="355"/>
+      <c r="D100" s="355"/>
+      <c r="E100" s="355"/>
+      <c r="F100" s="355"/>
+      <c r="G100" s="355"/>
+      <c r="H100" s="355"/>
+      <c r="I100" s="206"/>
     </row>
     <row r="101" spans="2:10">
       <c r="B101" s="50"/>
@@ -8311,4 +8149,20 @@
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.500000"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
 </file>
--- a/잡리스트 0514수정.xlsx
+++ b/잡리스트 0514수정.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="590" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="580" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
+    <sheet name="She123123et1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="152511"/>
@@ -1585,7 +1586,7 @@
   <numFmts count="1">
     <numFmt numFmtId="64" formatCode="&quot;₩&quot;#,##0;\\\-&quot;₩&quot;#,##0"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="22">
     <font>
       <sz val="11.0"/>
       <name val="맑은 고딕"/>
@@ -1702,17 +1703,7 @@
       <color theme="1"/>
     </font>
     <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <color theme="1"/>
-    </font>
-    <font>
       <sz val="10.0"/>
-      <name val="맑은 고딕"/>
-      <color theme="1"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
       <name val="맑은 고딕"/>
       <color theme="1"/>
     </font>
@@ -1892,7 +1883,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="187">
+  <borders count="178">
     <border>
       <left/>
       <right/>
@@ -2948,33 +2939,9 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -2982,13 +2949,13 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color theme="1"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -2997,80 +2964,45 @@
       <left style="thin">
         <color theme="1"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color theme="1"/>
       </right>
       <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color theme="1"/>
       </left>
       <right style="thin">
@@ -3153,19 +3085,6 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -3685,19 +3604,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color theme="1"/>
       </left>
@@ -3853,13 +3759,6 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -4241,19 +4140,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -4468,7 +4354,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="387">
+  <cellXfs count="371">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4976,33 +4862,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="72" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5045,44 +4904,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="80" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="80" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="80" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -5090,544 +4955,517 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="89" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="89" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="90" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="78" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="73" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="91" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="92" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="93" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="94" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="95" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="96" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="97" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="89" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="98" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="99" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="100" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="101" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="102" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="103" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="104" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="105" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="106" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="107" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="108" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="109" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="110" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="111" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="112" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="109" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="113" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="113" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="114" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="115" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="115" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="93" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="93" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="116" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="117" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="118" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="119" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="108" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="120" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="121" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="121" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="122" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="123" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="123" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="124" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="125" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="90" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="90" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="91" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="126" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="93" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="127" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="128" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="117" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="118" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="119" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="120" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="122" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="93" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="94" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="95" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="129" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="123" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="130" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="78" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="93" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="96" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="97" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="98" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="99" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="100" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="101" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="102" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="103" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="94" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="104" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="105" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="106" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="107" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="108" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="109" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="110" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="111" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="112" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="113" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="114" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="115" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="116" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="117" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="118" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="115" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="131" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="119" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="119" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="120" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="132" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="121" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="121" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="99" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="99" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="122" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="123" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="124" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="125" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="114" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="126" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="127" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="127" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="128" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="129" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="129" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="130" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="131" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="95" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="95" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="132" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="99" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="133" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="134" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="135" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="136" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="137" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="138" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="139" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="140" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="141" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="124" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="142" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="115" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="143" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="144" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="145" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="146" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="147" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="148" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="149" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="150" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="134" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="135" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="123" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="124" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="125" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="126" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="151" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="152" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="152" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="136" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="137" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="144" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="152" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="152" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="153" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="154" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="155" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="156" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="157" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="158" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="116" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="119" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="120" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="159" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="160" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="125" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="127" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="128" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="135" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="136" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="129" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="137" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="138" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="139" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="140" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="141" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="126" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="142" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="124" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="90" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="126" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="117" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="108" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="93" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="108" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="121" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="122" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="142" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="143" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="144" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="145" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="146" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="147" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="148" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="130" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="149" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="121" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="150" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="150" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="151" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="152" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="153" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="154" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="155" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="156" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="157" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="158" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="159" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="160" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="160" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="143" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="144" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="152" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="160" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="160" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="124" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="121" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="93" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="161" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="162" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="163" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="164" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="165" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="166" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="122" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="125" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="126" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="167" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="168" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="131" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="133" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="134" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="132" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="80" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="149" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="130" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="95" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="132" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="123" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="114" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="99" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="114" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="127" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="128" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="149" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="130" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="127" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="99" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="80" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="169" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="162" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="163" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="116" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="119" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="120" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="164" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="165" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="166" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="80" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="167" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="168" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="169" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="170" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="171" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="122" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="172" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="173" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="173" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="173" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="173" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="173" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="125" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="126" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="172" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="173" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="174" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="117" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="116" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="116" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="174" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="175" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="176" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="90" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="90" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="176" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="177" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="178" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="179" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="73" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="180" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="181" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="182" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="182" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="182" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="182" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="182" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="123" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="122" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="122" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="183" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="184" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="95" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="95" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="185" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="186" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="176" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="168" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5948,10 +5786,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.500000"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N103"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:I3"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="J92" sqref="J92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -6058,15 +5912,15 @@
       <c r="C6" s="94" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="172" t="s">
+      <c r="D6" s="124" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="172"/>
+      <c r="E6" s="124"/>
       <c r="F6" s="94" t="s">
         <v>226</v>
       </c>
       <c r="G6" s="94"/>
-      <c r="H6" s="172" t="s">
+      <c r="H6" s="124" t="s">
         <v>81</v>
       </c>
       <c r="I6" s="96" t="s">
@@ -6079,15 +5933,15 @@
       <c r="C7" s="94" t="s">
         <v>228</v>
       </c>
-      <c r="D7" s="173" t="s">
+      <c r="D7" s="94" t="s">
         <v>75</v>
       </c>
-      <c r="E7" s="173"/>
+      <c r="E7" s="94"/>
       <c r="F7" s="94" t="s">
         <v>226</v>
       </c>
       <c r="G7" s="94"/>
-      <c r="H7" s="173" t="s">
+      <c r="H7" s="94" t="s">
         <v>82</v>
       </c>
       <c r="I7" s="96" t="s">
@@ -6100,15 +5954,15 @@
       <c r="C8" s="94" t="s">
         <v>229</v>
       </c>
-      <c r="D8" s="173" t="s">
+      <c r="D8" s="94" t="s">
         <v>64</v>
       </c>
-      <c r="E8" s="173"/>
+      <c r="E8" s="94"/>
       <c r="F8" s="94" t="s">
         <v>226</v>
       </c>
       <c r="G8" s="94"/>
-      <c r="H8" s="173" t="s">
+      <c r="H8" s="94" t="s">
         <v>83</v>
       </c>
       <c r="I8" s="96" t="s">
@@ -6121,15 +5975,15 @@
       <c r="C9" s="94" t="s">
         <v>230</v>
       </c>
-      <c r="D9" s="173" t="s">
+      <c r="D9" s="94" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="173"/>
+      <c r="E9" s="94"/>
       <c r="F9" s="94" t="s">
         <v>226</v>
       </c>
       <c r="G9" s="94"/>
-      <c r="H9" s="173" t="s">
+      <c r="H9" s="94" t="s">
         <v>84</v>
       </c>
       <c r="I9" s="96" t="s">
@@ -6142,15 +5996,15 @@
       <c r="C10" s="94" t="s">
         <v>231</v>
       </c>
-      <c r="D10" s="173" t="s">
+      <c r="D10" s="94" t="s">
         <v>76</v>
       </c>
-      <c r="E10" s="173"/>
+      <c r="E10" s="94"/>
       <c r="F10" s="94" t="s">
         <v>226</v>
       </c>
       <c r="G10" s="94"/>
-      <c r="H10" s="173" t="s">
+      <c r="H10" s="94" t="s">
         <v>85</v>
       </c>
       <c r="I10" s="96" t="s">
@@ -6163,15 +6017,15 @@
       <c r="C11" s="94" t="s">
         <v>232</v>
       </c>
-      <c r="D11" s="174" t="s">
+      <c r="D11" s="127" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="174"/>
+      <c r="E11" s="127"/>
       <c r="F11" s="94" t="s">
         <v>226</v>
       </c>
       <c r="G11" s="94"/>
-      <c r="H11" s="174" t="s">
+      <c r="H11" s="127" t="s">
         <v>86</v>
       </c>
       <c r="I11" s="96" t="s">
@@ -6179,1859 +6033,1859 @@
       </c>
       <c r="J11" s="14"/>
     </row>
-    <row r="12" spans="2:10" ht="17.250000">
-      <c r="B12" s="216" t="s">
+    <row r="12" spans="2:10">
+      <c r="B12" s="204" t="s">
         <v>131</v>
       </c>
-      <c r="C12" s="217"/>
-      <c r="D12" s="217"/>
-      <c r="E12" s="217"/>
-      <c r="F12" s="217"/>
-      <c r="G12" s="217"/>
-      <c r="H12" s="217"/>
-      <c r="I12" s="218"/>
+      <c r="C12" s="205"/>
+      <c r="D12" s="205"/>
+      <c r="E12" s="205"/>
+      <c r="F12" s="205"/>
+      <c r="G12" s="205"/>
+      <c r="H12" s="205"/>
+      <c r="I12" s="206"/>
       <c r="J12" s="14"/>
     </row>
     <row r="13" spans="2:10">
-      <c r="B13" s="254" t="s">
+      <c r="B13" s="242" t="s">
         <v>241</v>
       </c>
-      <c r="C13" s="255" t="s">
+      <c r="C13" s="243" t="s">
         <v>277</v>
       </c>
-      <c r="D13" s="255" t="s">
+      <c r="D13" s="243" t="s">
         <v>240</v>
       </c>
-      <c r="E13" s="255"/>
-      <c r="F13" s="255" t="s">
+      <c r="E13" s="243"/>
+      <c r="F13" s="243" t="s">
         <v>131</v>
       </c>
-      <c r="G13" s="255"/>
-      <c r="H13" s="255" t="s">
+      <c r="G13" s="243"/>
+      <c r="H13" s="243" t="s">
         <v>242</v>
       </c>
-      <c r="I13" s="256" t="s">
+      <c r="I13" s="244" t="s">
         <v>243</v>
       </c>
       <c r="J13" s="14"/>
     </row>
     <row r="14" spans="2:10">
-      <c r="B14" s="257"/>
-      <c r="C14" s="219" t="s">
+      <c r="B14" s="245"/>
+      <c r="C14" s="207" t="s">
         <v>278</v>
       </c>
-      <c r="D14" s="219" t="s">
+      <c r="D14" s="207" t="s">
         <v>245</v>
       </c>
-      <c r="E14" s="219"/>
-      <c r="F14" s="219" t="s">
+      <c r="E14" s="207"/>
+      <c r="F14" s="207" t="s">
         <v>131</v>
       </c>
-      <c r="G14" s="219"/>
-      <c r="H14" s="219" t="s">
+      <c r="G14" s="207"/>
+      <c r="H14" s="207" t="s">
         <v>242</v>
       </c>
-      <c r="I14" s="235" t="s">
+      <c r="I14" s="223" t="s">
         <v>246</v>
       </c>
       <c r="J14" s="14"/>
     </row>
     <row r="15" spans="2:10">
-      <c r="B15" s="257"/>
-      <c r="C15" s="219" t="s">
+      <c r="B15" s="245"/>
+      <c r="C15" s="207" t="s">
         <v>279</v>
       </c>
-      <c r="D15" s="219" t="s">
+      <c r="D15" s="207" t="s">
         <v>249</v>
       </c>
-      <c r="E15" s="219"/>
-      <c r="F15" s="219" t="s">
+      <c r="E15" s="207"/>
+      <c r="F15" s="207" t="s">
         <v>131</v>
       </c>
-      <c r="G15" s="219"/>
-      <c r="H15" s="219" t="s">
+      <c r="G15" s="207"/>
+      <c r="H15" s="207" t="s">
         <v>242</v>
       </c>
-      <c r="I15" s="235" t="s">
+      <c r="I15" s="223" t="s">
         <v>250</v>
       </c>
       <c r="J15" s="14"/>
     </row>
     <row r="16" spans="2:10">
-      <c r="B16" s="257"/>
-      <c r="C16" s="219" t="s">
+      <c r="B16" s="245"/>
+      <c r="C16" s="207" t="s">
         <v>280</v>
       </c>
-      <c r="D16" s="219" t="s">
+      <c r="D16" s="207" t="s">
         <v>255</v>
       </c>
-      <c r="E16" s="219"/>
-      <c r="F16" s="219" t="s">
+      <c r="E16" s="207"/>
+      <c r="F16" s="207" t="s">
         <v>131</v>
       </c>
-      <c r="G16" s="219"/>
-      <c r="H16" s="219" t="s">
+      <c r="G16" s="207"/>
+      <c r="H16" s="207" t="s">
         <v>242</v>
       </c>
-      <c r="I16" s="235" t="s">
+      <c r="I16" s="223" t="s">
         <v>256</v>
       </c>
       <c r="J16" s="14"/>
     </row>
     <row r="17" spans="2:14">
-      <c r="B17" s="257"/>
-      <c r="C17" s="219" t="s">
+      <c r="B17" s="245"/>
+      <c r="C17" s="207" t="s">
         <v>281</v>
       </c>
-      <c r="D17" s="219" t="s">
+      <c r="D17" s="207" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="219"/>
-      <c r="F17" s="219" t="s">
+      <c r="E17" s="207"/>
+      <c r="F17" s="207" t="s">
         <v>131</v>
       </c>
-      <c r="G17" s="219"/>
-      <c r="H17" s="219" t="s">
+      <c r="G17" s="207"/>
+      <c r="H17" s="207" t="s">
         <v>242</v>
       </c>
-      <c r="I17" s="235" t="s">
+      <c r="I17" s="223" t="s">
         <v>252</v>
       </c>
       <c r="J17" s="14"/>
     </row>
     <row r="18" spans="2:14">
-      <c r="B18" s="257"/>
-      <c r="C18" s="219" t="s">
+      <c r="B18" s="245"/>
+      <c r="C18" s="207" t="s">
         <v>282</v>
       </c>
-      <c r="D18" s="219" t="s">
+      <c r="D18" s="207" t="s">
         <v>254</v>
       </c>
-      <c r="E18" s="219"/>
-      <c r="F18" s="219" t="s">
+      <c r="E18" s="207"/>
+      <c r="F18" s="207" t="s">
         <v>131</v>
       </c>
-      <c r="G18" s="219"/>
-      <c r="H18" s="219" t="s">
+      <c r="G18" s="207"/>
+      <c r="H18" s="207" t="s">
         <v>242</v>
       </c>
-      <c r="I18" s="235" t="s">
+      <c r="I18" s="223" t="s">
         <v>258</v>
       </c>
       <c r="J18" s="14"/>
     </row>
     <row r="19" spans="2:14">
-      <c r="B19" s="257"/>
-      <c r="C19" s="219" t="s">
+      <c r="B19" s="245"/>
+      <c r="C19" s="207" t="s">
         <v>283</v>
       </c>
-      <c r="D19" s="253" t="s">
+      <c r="D19" s="241" t="s">
         <v>260</v>
       </c>
-      <c r="E19" s="253"/>
-      <c r="F19" s="219" t="s">
+      <c r="E19" s="241"/>
+      <c r="F19" s="207" t="s">
         <v>131</v>
       </c>
-      <c r="G19" s="219"/>
-      <c r="H19" s="219" t="s">
+      <c r="G19" s="207"/>
+      <c r="H19" s="207" t="s">
         <v>242</v>
       </c>
-      <c r="I19" s="235" t="s">
+      <c r="I19" s="223" t="s">
         <v>261</v>
       </c>
       <c r="J19" s="14"/>
     </row>
     <row r="20" spans="2:14">
-      <c r="B20" s="257"/>
-      <c r="C20" s="219" t="s">
+      <c r="B20" s="245"/>
+      <c r="C20" s="207" t="s">
         <v>284</v>
       </c>
-      <c r="D20" s="253" t="s">
+      <c r="D20" s="241" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="253"/>
-      <c r="F20" s="219" t="s">
+      <c r="E20" s="241"/>
+      <c r="F20" s="207" t="s">
         <v>131</v>
       </c>
-      <c r="G20" s="219"/>
-      <c r="H20" s="219" t="s">
+      <c r="G20" s="207"/>
+      <c r="H20" s="207" t="s">
         <v>242</v>
       </c>
-      <c r="I20" s="258" t="s">
+      <c r="I20" s="246" t="s">
         <v>267</v>
       </c>
       <c r="J20" s="14"/>
     </row>
     <row r="21" spans="2:14">
-      <c r="B21" s="257"/>
-      <c r="C21" s="219" t="s">
+      <c r="B21" s="245"/>
+      <c r="C21" s="207" t="s">
         <v>285</v>
       </c>
-      <c r="D21" s="253" t="s">
+      <c r="D21" s="241" t="s">
         <v>265</v>
       </c>
-      <c r="E21" s="253"/>
-      <c r="F21" s="219" t="s">
+      <c r="E21" s="241"/>
+      <c r="F21" s="207" t="s">
         <v>131</v>
       </c>
-      <c r="G21" s="219"/>
-      <c r="H21" s="219" t="s">
+      <c r="G21" s="207"/>
+      <c r="H21" s="207" t="s">
         <v>242</v>
       </c>
-      <c r="I21" s="258" t="s">
+      <c r="I21" s="246" t="s">
         <v>268</v>
       </c>
       <c r="J21" s="14"/>
     </row>
     <row r="22" spans="2:14">
-      <c r="B22" s="257"/>
-      <c r="C22" s="219" t="s">
+      <c r="B22" s="245"/>
+      <c r="C22" s="207" t="s">
         <v>286</v>
       </c>
-      <c r="D22" s="253" t="s">
+      <c r="D22" s="241" t="s">
         <v>272</v>
       </c>
-      <c r="E22" s="253"/>
-      <c r="F22" s="219" t="s">
+      <c r="E22" s="241"/>
+      <c r="F22" s="207" t="s">
         <v>131</v>
       </c>
-      <c r="G22" s="219"/>
-      <c r="H22" s="219" t="s">
+      <c r="G22" s="207"/>
+      <c r="H22" s="207" t="s">
         <v>242</v>
       </c>
-      <c r="I22" s="258" t="s">
+      <c r="I22" s="246" t="s">
         <v>80</v>
       </c>
       <c r="J22" s="14"/>
       <c r="N22" s="14"/>
     </row>
-    <row r="23" spans="2:14" ht="17.250000">
-      <c r="B23" s="272"/>
-      <c r="C23" s="273" t="s">
+    <row r="23" spans="2:14">
+      <c r="B23" s="260"/>
+      <c r="C23" s="261" t="s">
         <v>287</v>
       </c>
-      <c r="D23" s="274" t="s">
+      <c r="D23" s="262" t="s">
         <v>273</v>
       </c>
-      <c r="E23" s="274"/>
-      <c r="F23" s="273" t="s">
+      <c r="E23" s="262"/>
+      <c r="F23" s="261" t="s">
         <v>131</v>
       </c>
-      <c r="G23" s="273"/>
-      <c r="H23" s="273" t="s">
+      <c r="G23" s="261"/>
+      <c r="H23" s="261" t="s">
         <v>242</v>
       </c>
-      <c r="I23" s="275" t="s">
+      <c r="I23" s="263" t="s">
         <v>274</v>
       </c>
       <c r="J23" s="14"/>
     </row>
     <row r="24" spans="2:14">
-      <c r="B24" s="254" t="s">
+      <c r="B24" s="242" t="s">
         <v>276</v>
       </c>
-      <c r="C24" s="277" t="s">
+      <c r="C24" s="264" t="s">
         <v>288</v>
       </c>
-      <c r="D24" s="277" t="s">
+      <c r="D24" s="264" t="s">
         <v>272</v>
       </c>
-      <c r="E24" s="277"/>
-      <c r="F24" s="255" t="s">
+      <c r="E24" s="264"/>
+      <c r="F24" s="243" t="s">
         <v>131</v>
       </c>
-      <c r="G24" s="255"/>
-      <c r="H24" s="255" t="s">
+      <c r="G24" s="243"/>
+      <c r="H24" s="243" t="s">
         <v>304</v>
       </c>
-      <c r="I24" s="278" t="s">
+      <c r="I24" s="265" t="s">
         <v>80</v>
       </c>
       <c r="J24" s="14"/>
     </row>
     <row r="25" spans="2:14">
-      <c r="B25" s="257"/>
-      <c r="C25" s="253" t="s">
+      <c r="B25" s="245"/>
+      <c r="C25" s="241" t="s">
         <v>289</v>
       </c>
-      <c r="D25" s="253" t="s">
+      <c r="D25" s="241" t="s">
         <v>273</v>
       </c>
-      <c r="E25" s="253"/>
-      <c r="F25" s="219" t="s">
+      <c r="E25" s="241"/>
+      <c r="F25" s="207" t="s">
         <v>131</v>
       </c>
-      <c r="G25" s="219"/>
-      <c r="H25" s="219" t="s">
+      <c r="G25" s="207"/>
+      <c r="H25" s="207" t="s">
         <v>304</v>
       </c>
-      <c r="I25" s="258" t="s">
+      <c r="I25" s="246" t="s">
         <v>274</v>
       </c>
       <c r="J25" s="14"/>
     </row>
     <row r="26" spans="2:14">
-      <c r="B26" s="279"/>
-      <c r="C26" s="253" t="s">
+      <c r="B26" s="266"/>
+      <c r="C26" s="241" t="s">
         <v>290</v>
       </c>
-      <c r="D26" s="253" t="s">
+      <c r="D26" s="241" t="s">
         <v>292</v>
       </c>
-      <c r="E26" s="253"/>
-      <c r="F26" s="219" t="s">
+      <c r="E26" s="241"/>
+      <c r="F26" s="207" t="s">
         <v>131</v>
       </c>
-      <c r="G26" s="219"/>
-      <c r="H26" s="219" t="s">
+      <c r="G26" s="207"/>
+      <c r="H26" s="207" t="s">
         <v>304</v>
       </c>
-      <c r="I26" s="235" t="s">
+      <c r="I26" s="223" t="s">
         <v>294</v>
       </c>
       <c r="J26" s="14"/>
     </row>
-    <row r="27" spans="2:14" ht="17.250000">
-      <c r="B27" s="332"/>
-      <c r="C27" s="274" t="s">
+    <row r="27" spans="2:14">
+      <c r="B27" s="319"/>
+      <c r="C27" s="262" t="s">
         <v>291</v>
       </c>
-      <c r="D27" s="274" t="s">
+      <c r="D27" s="262" t="s">
         <v>260</v>
       </c>
-      <c r="E27" s="274"/>
-      <c r="F27" s="273" t="s">
+      <c r="E27" s="262"/>
+      <c r="F27" s="261" t="s">
         <v>131</v>
       </c>
-      <c r="G27" s="273"/>
-      <c r="H27" s="273" t="s">
+      <c r="G27" s="261"/>
+      <c r="H27" s="261" t="s">
         <v>304</v>
       </c>
-      <c r="I27" s="333" t="s">
+      <c r="I27" s="320" t="s">
         <v>261</v>
       </c>
       <c r="J27" s="14"/>
     </row>
-    <row r="28" spans="2:14" ht="16.500000" customHeight="1">
-      <c r="B28" s="254" t="s">
+    <row r="28" spans="2:14">
+      <c r="B28" s="242" t="s">
         <v>296</v>
       </c>
-      <c r="C28" s="277" t="s">
+      <c r="C28" s="264" t="s">
         <v>297</v>
       </c>
-      <c r="D28" s="277" t="s">
+      <c r="D28" s="264" t="s">
         <v>309</v>
       </c>
-      <c r="E28" s="277"/>
-      <c r="F28" s="255" t="s">
+      <c r="E28" s="264"/>
+      <c r="F28" s="243" t="s">
         <v>131</v>
       </c>
-      <c r="G28" s="255"/>
-      <c r="H28" s="255" t="s">
+      <c r="G28" s="243"/>
+      <c r="H28" s="243" t="s">
         <v>305</v>
       </c>
-      <c r="I28" s="256" t="s">
+      <c r="I28" s="244" t="s">
         <v>243</v>
       </c>
       <c r="J28" s="14"/>
     </row>
-    <row r="29" spans="2:14" ht="16.500000" customHeight="1">
-      <c r="B29" s="257"/>
-      <c r="C29" s="253" t="s">
+    <row r="29" spans="2:14">
+      <c r="B29" s="245"/>
+      <c r="C29" s="241" t="s">
         <v>298</v>
       </c>
-      <c r="D29" s="253" t="s">
+      <c r="D29" s="241" t="s">
         <v>308</v>
       </c>
-      <c r="E29" s="253"/>
-      <c r="F29" s="219" t="s">
+      <c r="E29" s="241"/>
+      <c r="F29" s="207" t="s">
         <v>131</v>
       </c>
-      <c r="G29" s="219"/>
-      <c r="H29" s="219" t="s">
+      <c r="G29" s="207"/>
+      <c r="H29" s="207" t="s">
         <v>305</v>
       </c>
-      <c r="I29" s="235" t="s">
+      <c r="I29" s="223" t="s">
         <v>250</v>
       </c>
       <c r="J29" s="14"/>
     </row>
     <row r="30" spans="2:14">
-      <c r="B30" s="257"/>
-      <c r="C30" s="253" t="s">
+      <c r="B30" s="245"/>
+      <c r="C30" s="241" t="s">
         <v>299</v>
       </c>
-      <c r="D30" s="253" t="s">
+      <c r="D30" s="241" t="s">
         <v>311</v>
       </c>
-      <c r="E30" s="253"/>
-      <c r="F30" s="219" t="s">
+      <c r="E30" s="241"/>
+      <c r="F30" s="207" t="s">
         <v>131</v>
       </c>
-      <c r="G30" s="219"/>
-      <c r="H30" s="219" t="s">
+      <c r="G30" s="207"/>
+      <c r="H30" s="207" t="s">
         <v>305</v>
       </c>
-      <c r="I30" s="258" t="s">
+      <c r="I30" s="246" t="s">
         <v>312</v>
       </c>
       <c r="J30" s="14"/>
     </row>
     <row r="31" spans="2:14">
-      <c r="B31" s="257"/>
-      <c r="C31" s="253" t="s">
+      <c r="B31" s="245"/>
+      <c r="C31" s="241" t="s">
         <v>300</v>
       </c>
-      <c r="D31" s="253" t="s">
+      <c r="D31" s="241" t="s">
         <v>316</v>
       </c>
-      <c r="E31" s="253"/>
-      <c r="F31" s="219" t="s">
+      <c r="E31" s="241"/>
+      <c r="F31" s="207" t="s">
         <v>131</v>
       </c>
-      <c r="G31" s="219"/>
-      <c r="H31" s="253" t="s">
+      <c r="G31" s="207"/>
+      <c r="H31" s="241" t="s">
         <v>305</v>
       </c>
-      <c r="I31" s="258" t="s">
+      <c r="I31" s="246" t="s">
         <v>317</v>
       </c>
       <c r="J31" s="14"/>
     </row>
-    <row r="32" spans="2:14" ht="17.250000">
-      <c r="B32" s="257"/>
-      <c r="C32" s="253" t="s">
+    <row r="32" spans="2:14">
+      <c r="B32" s="245"/>
+      <c r="C32" s="241" t="s">
         <v>320</v>
       </c>
-      <c r="D32" s="253" t="s">
+      <c r="D32" s="241" t="s">
         <v>318</v>
       </c>
-      <c r="E32" s="253"/>
-      <c r="F32" s="219" t="s">
+      <c r="E32" s="241"/>
+      <c r="F32" s="207" t="s">
         <v>131</v>
       </c>
-      <c r="G32" s="219"/>
-      <c r="H32" s="253" t="s">
+      <c r="G32" s="207"/>
+      <c r="H32" s="241" t="s">
         <v>305</v>
       </c>
-      <c r="I32" s="258" t="s">
+      <c r="I32" s="246" t="s">
         <v>319</v>
       </c>
       <c r="J32" s="14"/>
       <c r="N32" s="14"/>
     </row>
-    <row r="33" spans="2:14" ht="17.250000">
-      <c r="B33" s="257"/>
-      <c r="C33" s="253" t="s">
+    <row r="33" spans="2:14">
+      <c r="B33" s="245"/>
+      <c r="C33" s="241" t="s">
         <v>346</v>
       </c>
-      <c r="D33" s="253" t="s">
+      <c r="D33" s="241" t="s">
         <v>272</v>
       </c>
-      <c r="E33" s="253"/>
-      <c r="F33" s="219" t="s">
+      <c r="E33" s="241"/>
+      <c r="F33" s="207" t="s">
         <v>131</v>
       </c>
-      <c r="G33" s="219"/>
-      <c r="H33" s="253" t="s">
+      <c r="G33" s="207"/>
+      <c r="H33" s="241" t="s">
         <v>305</v>
       </c>
-      <c r="I33" s="258" t="s">
+      <c r="I33" s="246" t="s">
         <v>80</v>
       </c>
       <c r="J33" s="14"/>
     </row>
-    <row r="34" spans="2:14" ht="17.250000">
-      <c r="B34" s="272"/>
-      <c r="C34" s="274" t="s">
+    <row r="34" spans="2:14">
+      <c r="B34" s="260"/>
+      <c r="C34" s="262" t="s">
         <v>347</v>
       </c>
-      <c r="D34" s="274" t="s">
+      <c r="D34" s="262" t="s">
         <v>273</v>
       </c>
-      <c r="E34" s="274"/>
-      <c r="F34" s="273" t="s">
+      <c r="E34" s="262"/>
+      <c r="F34" s="261" t="s">
         <v>131</v>
       </c>
-      <c r="G34" s="273"/>
-      <c r="H34" s="274" t="s">
+      <c r="G34" s="261"/>
+      <c r="H34" s="262" t="s">
         <v>305</v>
       </c>
-      <c r="I34" s="275" t="s">
+      <c r="I34" s="263" t="s">
         <v>274</v>
       </c>
       <c r="J34" s="14"/>
     </row>
-    <row r="35" spans="2:14" ht="16.500000" customHeight="1">
-      <c r="B35" s="254" t="s">
+    <row r="35" spans="2:14">
+      <c r="B35" s="242" t="s">
         <v>321</v>
       </c>
-      <c r="C35" s="277" t="s">
+      <c r="C35" s="264" t="s">
         <v>322</v>
       </c>
-      <c r="D35" s="277" t="s">
+      <c r="D35" s="264" t="s">
         <v>334</v>
       </c>
-      <c r="E35" s="277"/>
-      <c r="F35" s="277" t="s">
+      <c r="E35" s="264"/>
+      <c r="F35" s="264" t="s">
         <v>131</v>
       </c>
-      <c r="G35" s="277"/>
-      <c r="H35" s="255" t="s">
+      <c r="G35" s="264"/>
+      <c r="H35" s="243" t="s">
         <v>333</v>
       </c>
-      <c r="I35" s="256" t="s">
+      <c r="I35" s="244" t="s">
         <v>243</v>
       </c>
       <c r="J35" s="14"/>
     </row>
-    <row r="36" spans="2:14" ht="16.500000" customHeight="1">
-      <c r="B36" s="257"/>
-      <c r="C36" s="253" t="s">
+    <row r="36" spans="2:14">
+      <c r="B36" s="245"/>
+      <c r="C36" s="241" t="s">
         <v>323</v>
       </c>
-      <c r="D36" s="253" t="s">
+      <c r="D36" s="241" t="s">
         <v>336</v>
       </c>
-      <c r="E36" s="253"/>
-      <c r="F36" s="253" t="s">
+      <c r="E36" s="241"/>
+      <c r="F36" s="241" t="s">
         <v>131</v>
       </c>
-      <c r="G36" s="253"/>
-      <c r="H36" s="219" t="s">
+      <c r="G36" s="241"/>
+      <c r="H36" s="207" t="s">
         <v>333</v>
       </c>
-      <c r="I36" s="235" t="s">
+      <c r="I36" s="223" t="s">
         <v>250</v>
       </c>
       <c r="J36" s="14"/>
     </row>
     <row r="37" spans="2:14">
-      <c r="B37" s="257"/>
-      <c r="C37" s="253" t="s">
+      <c r="B37" s="245"/>
+      <c r="C37" s="241" t="s">
         <v>324</v>
       </c>
-      <c r="D37" s="253" t="s">
+      <c r="D37" s="241" t="s">
         <v>337</v>
       </c>
-      <c r="E37" s="253"/>
-      <c r="F37" s="253" t="s">
+      <c r="E37" s="241"/>
+      <c r="F37" s="241" t="s">
         <v>131</v>
       </c>
-      <c r="G37" s="253"/>
-      <c r="H37" s="219" t="s">
+      <c r="G37" s="241"/>
+      <c r="H37" s="207" t="s">
         <v>333</v>
       </c>
-      <c r="I37" s="258" t="s">
+      <c r="I37" s="246" t="s">
         <v>338</v>
       </c>
       <c r="J37" s="14"/>
     </row>
     <row r="38" spans="2:14">
-      <c r="B38" s="257"/>
-      <c r="C38" s="253" t="s">
+      <c r="B38" s="245"/>
+      <c r="C38" s="241" t="s">
         <v>325</v>
       </c>
-      <c r="D38" s="253" t="s">
+      <c r="D38" s="241" t="s">
         <v>339</v>
       </c>
-      <c r="E38" s="253"/>
-      <c r="F38" s="253" t="s">
+      <c r="E38" s="241"/>
+      <c r="F38" s="241" t="s">
         <v>131</v>
       </c>
-      <c r="G38" s="253"/>
-      <c r="H38" s="219" t="s">
+      <c r="G38" s="241"/>
+      <c r="H38" s="207" t="s">
         <v>333</v>
       </c>
-      <c r="I38" s="258" t="s">
+      <c r="I38" s="246" t="s">
         <v>340</v>
       </c>
       <c r="J38" s="14"/>
     </row>
     <row r="39" spans="2:14">
-      <c r="B39" s="257"/>
-      <c r="C39" s="253" t="s">
+      <c r="B39" s="245"/>
+      <c r="C39" s="241" t="s">
         <v>326</v>
       </c>
-      <c r="D39" s="253" t="s">
+      <c r="D39" s="241" t="s">
         <v>341</v>
       </c>
-      <c r="E39" s="253"/>
-      <c r="F39" s="253" t="s">
+      <c r="E39" s="241"/>
+      <c r="F39" s="241" t="s">
         <v>131</v>
       </c>
-      <c r="G39" s="253"/>
-      <c r="H39" s="219" t="s">
+      <c r="G39" s="241"/>
+      <c r="H39" s="207" t="s">
         <v>333</v>
       </c>
-      <c r="I39" s="258" t="s">
+      <c r="I39" s="246" t="s">
         <v>343</v>
       </c>
       <c r="J39" s="14"/>
     </row>
     <row r="40" spans="2:14">
-      <c r="B40" s="257"/>
-      <c r="C40" s="253" t="s">
+      <c r="B40" s="245"/>
+      <c r="C40" s="241" t="s">
         <v>327</v>
       </c>
-      <c r="D40" s="253" t="s">
+      <c r="D40" s="241" t="s">
         <v>344</v>
       </c>
-      <c r="E40" s="253"/>
-      <c r="F40" s="253" t="s">
+      <c r="E40" s="241"/>
+      <c r="F40" s="241" t="s">
         <v>131</v>
       </c>
-      <c r="G40" s="253"/>
-      <c r="H40" s="219" t="s">
+      <c r="G40" s="241"/>
+      <c r="H40" s="207" t="s">
         <v>333</v>
       </c>
-      <c r="I40" s="258" t="s">
+      <c r="I40" s="246" t="s">
         <v>348</v>
       </c>
       <c r="J40" s="14"/>
       <c r="N40" s="14"/>
     </row>
     <row r="41" spans="2:14">
-      <c r="B41" s="257"/>
-      <c r="C41" s="253" t="s">
+      <c r="B41" s="245"/>
+      <c r="C41" s="241" t="s">
         <v>328</v>
       </c>
-      <c r="D41" s="253" t="s">
+      <c r="D41" s="241" t="s">
         <v>345</v>
       </c>
-      <c r="E41" s="253"/>
-      <c r="F41" s="253" t="s">
+      <c r="E41" s="241"/>
+      <c r="F41" s="241" t="s">
         <v>131</v>
       </c>
-      <c r="G41" s="253"/>
-      <c r="H41" s="219" t="s">
+      <c r="G41" s="241"/>
+      <c r="H41" s="207" t="s">
         <v>333</v>
       </c>
-      <c r="I41" s="258" t="s">
+      <c r="I41" s="246" t="s">
         <v>349</v>
       </c>
       <c r="J41" s="14"/>
       <c r="N41" s="14"/>
     </row>
     <row r="42" spans="2:14">
-      <c r="B42" s="257"/>
-      <c r="C42" s="253" t="s">
+      <c r="B42" s="245"/>
+      <c r="C42" s="241" t="s">
         <v>329</v>
       </c>
-      <c r="D42" s="253" t="s">
+      <c r="D42" s="241" t="s">
         <v>272</v>
       </c>
-      <c r="E42" s="253"/>
-      <c r="F42" s="253" t="s">
+      <c r="E42" s="241"/>
+      <c r="F42" s="241" t="s">
         <v>131</v>
       </c>
-      <c r="G42" s="253"/>
-      <c r="H42" s="219" t="s">
+      <c r="G42" s="241"/>
+      <c r="H42" s="207" t="s">
         <v>333</v>
       </c>
-      <c r="I42" s="258" t="s">
+      <c r="I42" s="246" t="s">
         <v>80</v>
       </c>
       <c r="J42" s="14"/>
       <c r="N42" s="14"/>
     </row>
     <row r="43" spans="2:14" ht="17.250000">
-      <c r="B43" s="259"/>
-      <c r="C43" s="260" t="s">
+      <c r="B43" s="247"/>
+      <c r="C43" s="248" t="s">
         <v>330</v>
       </c>
-      <c r="D43" s="260" t="s">
+      <c r="D43" s="248" t="s">
         <v>273</v>
       </c>
-      <c r="E43" s="260"/>
-      <c r="F43" s="260" t="s">
+      <c r="E43" s="248"/>
+      <c r="F43" s="248" t="s">
         <v>131</v>
       </c>
-      <c r="G43" s="260"/>
-      <c r="H43" s="261" t="s">
+      <c r="G43" s="248"/>
+      <c r="H43" s="249" t="s">
         <v>333</v>
       </c>
-      <c r="I43" s="262" t="s">
+      <c r="I43" s="250" t="s">
         <v>274</v>
       </c>
       <c r="J43" s="14"/>
       <c r="N43" s="14"/>
     </row>
     <row r="44" spans="2:14">
-      <c r="B44" s="254" t="s">
+      <c r="B44" s="242" t="s">
         <v>368</v>
       </c>
-      <c r="C44" s="277" t="s">
+      <c r="C44" s="264" t="s">
         <v>351</v>
       </c>
-      <c r="D44" s="277" t="s">
+      <c r="D44" s="264" t="s">
         <v>357</v>
       </c>
-      <c r="E44" s="277"/>
-      <c r="F44" s="277" t="s">
+      <c r="E44" s="264"/>
+      <c r="F44" s="264" t="s">
         <v>131</v>
       </c>
-      <c r="G44" s="277"/>
-      <c r="H44" s="255" t="s">
+      <c r="G44" s="264"/>
+      <c r="H44" s="243" t="s">
         <v>369</v>
       </c>
-      <c r="I44" s="278" t="s">
+      <c r="I44" s="265" t="s">
         <v>243</v>
       </c>
       <c r="J44" s="14"/>
       <c r="N44" s="14"/>
     </row>
     <row r="45" spans="2:14">
-      <c r="B45" s="257"/>
-      <c r="C45" s="253" t="s">
+      <c r="B45" s="245"/>
+      <c r="C45" s="241" t="s">
         <v>352</v>
       </c>
-      <c r="D45" s="253" t="s">
+      <c r="D45" s="241" t="s">
         <v>362</v>
       </c>
-      <c r="E45" s="253"/>
-      <c r="F45" s="253" t="s">
+      <c r="E45" s="241"/>
+      <c r="F45" s="241" t="s">
         <v>131</v>
       </c>
-      <c r="G45" s="253"/>
-      <c r="H45" s="219" t="s">
+      <c r="G45" s="241"/>
+      <c r="H45" s="207" t="s">
         <v>369</v>
       </c>
-      <c r="I45" s="258" t="s">
+      <c r="I45" s="246" t="s">
         <v>363</v>
       </c>
       <c r="J45" s="14"/>
       <c r="N45" s="14"/>
     </row>
     <row r="46" spans="2:14">
-      <c r="B46" s="257"/>
-      <c r="C46" s="253" t="s">
+      <c r="B46" s="245"/>
+      <c r="C46" s="241" t="s">
         <v>352</v>
       </c>
-      <c r="D46" s="253" t="s">
+      <c r="D46" s="241" t="s">
         <v>384</v>
       </c>
-      <c r="E46" s="253"/>
-      <c r="F46" s="253" t="s">
+      <c r="E46" s="241"/>
+      <c r="F46" s="241" t="s">
         <v>131</v>
       </c>
-      <c r="G46" s="253"/>
-      <c r="H46" s="219" t="s">
+      <c r="G46" s="241"/>
+      <c r="H46" s="207" t="s">
         <v>369</v>
       </c>
-      <c r="I46" s="258" t="s">
+      <c r="I46" s="246" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="47" spans="2:14">
-      <c r="B47" s="279"/>
-      <c r="C47" s="253" t="s">
+      <c r="B47" s="266"/>
+      <c r="C47" s="241" t="s">
         <v>353</v>
       </c>
-      <c r="D47" s="253" t="s">
+      <c r="D47" s="241" t="s">
         <v>365</v>
       </c>
-      <c r="E47" s="253"/>
-      <c r="F47" s="253" t="s">
+      <c r="E47" s="241"/>
+      <c r="F47" s="241" t="s">
         <v>131</v>
       </c>
-      <c r="G47" s="253"/>
-      <c r="H47" s="219" t="s">
+      <c r="G47" s="241"/>
+      <c r="H47" s="207" t="s">
         <v>369</v>
       </c>
-      <c r="I47" s="258" t="s">
+      <c r="I47" s="246" t="s">
         <v>366</v>
       </c>
       <c r="J47" s="14"/>
     </row>
     <row r="48" spans="2:14">
-      <c r="B48" s="279"/>
-      <c r="C48" s="253" t="s">
+      <c r="B48" s="266"/>
+      <c r="C48" s="241" t="s">
         <v>354</v>
       </c>
-      <c r="D48" s="253" t="s">
+      <c r="D48" s="241" t="s">
         <v>272</v>
       </c>
-      <c r="E48" s="253"/>
-      <c r="F48" s="253" t="s">
+      <c r="E48" s="241"/>
+      <c r="F48" s="241" t="s">
         <v>131</v>
       </c>
-      <c r="G48" s="253"/>
-      <c r="H48" s="219" t="s">
+      <c r="G48" s="241"/>
+      <c r="H48" s="207" t="s">
         <v>369</v>
       </c>
-      <c r="I48" s="258" t="s">
+      <c r="I48" s="246" t="s">
         <v>80</v>
       </c>
       <c r="J48" s="14"/>
     </row>
     <row r="49" spans="2:10" ht="17.250000">
-      <c r="B49" s="280"/>
-      <c r="C49" s="260" t="s">
+      <c r="B49" s="267"/>
+      <c r="C49" s="248" t="s">
         <v>367</v>
       </c>
-      <c r="D49" s="260" t="s">
+      <c r="D49" s="248" t="s">
         <v>273</v>
       </c>
-      <c r="E49" s="260"/>
-      <c r="F49" s="260" t="s">
+      <c r="E49" s="248"/>
+      <c r="F49" s="248" t="s">
         <v>131</v>
       </c>
-      <c r="G49" s="260"/>
-      <c r="H49" s="273" t="s">
+      <c r="G49" s="248"/>
+      <c r="H49" s="261" t="s">
         <v>369</v>
       </c>
-      <c r="I49" s="262" t="s">
+      <c r="I49" s="250" t="s">
         <v>274</v>
       </c>
       <c r="J49" s="14"/>
     </row>
     <row r="50" spans="2:10">
-      <c r="B50" s="356" t="s">
+      <c r="B50" s="342" t="s">
         <v>370</v>
       </c>
-      <c r="C50" s="277" t="s">
+      <c r="C50" s="264" t="s">
         <v>371</v>
       </c>
-      <c r="D50" s="277" t="s">
+      <c r="D50" s="264" t="s">
         <v>379</v>
       </c>
-      <c r="E50" s="277"/>
-      <c r="F50" s="277" t="s">
+      <c r="E50" s="264"/>
+      <c r="F50" s="264" t="s">
         <v>131</v>
       </c>
-      <c r="G50" s="277"/>
-      <c r="H50" s="255" t="s">
+      <c r="G50" s="264"/>
+      <c r="H50" s="243" t="s">
         <v>378</v>
       </c>
-      <c r="I50" s="278" t="s">
+      <c r="I50" s="265" t="s">
         <v>243</v>
       </c>
       <c r="J50" s="14"/>
     </row>
     <row r="51" spans="2:10">
-      <c r="B51" s="357"/>
-      <c r="C51" s="253" t="s">
+      <c r="B51" s="343"/>
+      <c r="C51" s="241" t="s">
         <v>372</v>
       </c>
-      <c r="D51" s="253" t="s">
+      <c r="D51" s="241" t="s">
         <v>380</v>
       </c>
-      <c r="E51" s="253"/>
-      <c r="F51" s="253" t="s">
+      <c r="E51" s="241"/>
+      <c r="F51" s="241" t="s">
         <v>131</v>
       </c>
-      <c r="G51" s="253"/>
-      <c r="H51" s="219" t="s">
+      <c r="G51" s="241"/>
+      <c r="H51" s="207" t="s">
         <v>378</v>
       </c>
-      <c r="I51" s="258" t="s">
+      <c r="I51" s="246" t="s">
         <v>381</v>
       </c>
       <c r="J51" s="14"/>
     </row>
     <row r="52" spans="2:10">
-      <c r="B52" s="357"/>
-      <c r="C52" s="253" t="s">
+      <c r="B52" s="343"/>
+      <c r="C52" s="241" t="s">
         <v>373</v>
       </c>
-      <c r="D52" s="253" t="s">
+      <c r="D52" s="241" t="s">
         <v>335</v>
       </c>
-      <c r="E52" s="253"/>
-      <c r="F52" s="253" t="s">
+      <c r="E52" s="241"/>
+      <c r="F52" s="241" t="s">
         <v>131</v>
       </c>
-      <c r="G52" s="253"/>
-      <c r="H52" s="219" t="s">
+      <c r="G52" s="241"/>
+      <c r="H52" s="207" t="s">
         <v>378</v>
       </c>
-      <c r="I52" s="258" t="s">
+      <c r="I52" s="246" t="s">
         <v>382</v>
       </c>
       <c r="J52" s="14"/>
     </row>
     <row r="53" spans="2:10">
-      <c r="B53" s="357"/>
-      <c r="C53" s="253" t="s">
+      <c r="B53" s="343"/>
+      <c r="C53" s="241" t="s">
         <v>374</v>
       </c>
-      <c r="D53" s="253" t="s">
+      <c r="D53" s="241" t="s">
         <v>383</v>
       </c>
-      <c r="E53" s="253"/>
-      <c r="F53" s="253" t="s">
+      <c r="E53" s="241"/>
+      <c r="F53" s="241" t="s">
         <v>131</v>
       </c>
-      <c r="G53" s="253"/>
-      <c r="H53" s="219" t="s">
+      <c r="G53" s="241"/>
+      <c r="H53" s="207" t="s">
         <v>378</v>
       </c>
-      <c r="I53" s="258" t="s">
+      <c r="I53" s="246" t="s">
         <v>385</v>
       </c>
       <c r="J53" s="14"/>
     </row>
     <row r="54" spans="2:10">
-      <c r="B54" s="357"/>
-      <c r="C54" s="253" t="s">
+      <c r="B54" s="343"/>
+      <c r="C54" s="241" t="s">
         <v>375</v>
       </c>
-      <c r="D54" s="253" t="s">
+      <c r="D54" s="241" t="s">
         <v>384</v>
       </c>
-      <c r="E54" s="253"/>
-      <c r="F54" s="253" t="s">
+      <c r="E54" s="241"/>
+      <c r="F54" s="241" t="s">
         <v>131</v>
       </c>
-      <c r="G54" s="253"/>
-      <c r="H54" s="219" t="s">
+      <c r="G54" s="241"/>
+      <c r="H54" s="207" t="s">
         <v>378</v>
       </c>
-      <c r="I54" s="258" t="s">
+      <c r="I54" s="246" t="s">
         <v>386</v>
       </c>
       <c r="J54" s="14"/>
     </row>
     <row r="55" spans="2:10">
-      <c r="B55" s="357"/>
-      <c r="C55" s="253" t="s">
+      <c r="B55" s="343"/>
+      <c r="C55" s="241" t="s">
         <v>376</v>
       </c>
-      <c r="D55" s="253" t="s">
+      <c r="D55" s="241" t="s">
         <v>272</v>
       </c>
-      <c r="E55" s="253"/>
-      <c r="F55" s="253" t="s">
+      <c r="E55" s="241"/>
+      <c r="F55" s="241" t="s">
         <v>131</v>
       </c>
-      <c r="G55" s="253"/>
-      <c r="H55" s="219" t="s">
+      <c r="G55" s="241"/>
+      <c r="H55" s="207" t="s">
         <v>378</v>
       </c>
-      <c r="I55" s="258" t="s">
+      <c r="I55" s="246" t="s">
         <v>80</v>
       </c>
       <c r="J55" s="14"/>
     </row>
     <row r="56" spans="2:10" ht="17.250000">
-      <c r="B56" s="358"/>
-      <c r="C56" s="260" t="s">
+      <c r="B56" s="344"/>
+      <c r="C56" s="248" t="s">
         <v>377</v>
       </c>
-      <c r="D56" s="260" t="s">
+      <c r="D56" s="248" t="s">
         <v>273</v>
       </c>
-      <c r="E56" s="260"/>
-      <c r="F56" s="260" t="s">
+      <c r="E56" s="248"/>
+      <c r="F56" s="248" t="s">
         <v>131</v>
       </c>
-      <c r="G56" s="260"/>
-      <c r="H56" s="219" t="s">
+      <c r="G56" s="248"/>
+      <c r="H56" s="207" t="s">
         <v>378</v>
       </c>
-      <c r="I56" s="262" t="s">
+      <c r="I56" s="250" t="s">
         <v>274</v>
       </c>
       <c r="J56" s="14"/>
     </row>
     <row r="57" spans="2:10">
-      <c r="B57" s="369" t="s">
+      <c r="B57" s="204" t="s">
         <v>388</v>
       </c>
-      <c r="C57" s="370"/>
-      <c r="D57" s="370"/>
-      <c r="E57" s="370"/>
-      <c r="F57" s="370"/>
-      <c r="G57" s="370"/>
-      <c r="H57" s="370"/>
-      <c r="I57" s="371"/>
+      <c r="C57" s="355"/>
+      <c r="D57" s="355"/>
+      <c r="E57" s="355"/>
+      <c r="F57" s="355"/>
+      <c r="G57" s="355"/>
+      <c r="H57" s="355"/>
+      <c r="I57" s="206"/>
     </row>
     <row r="58" spans="2:10">
-      <c r="B58" s="378" t="s">
+      <c r="B58" s="362" t="s">
         <v>390</v>
       </c>
-      <c r="C58" s="277" t="s">
+      <c r="C58" s="264" t="s">
         <v>237</v>
       </c>
-      <c r="D58" s="277" t="s">
+      <c r="D58" s="264" t="s">
         <v>391</v>
       </c>
-      <c r="E58" s="277"/>
-      <c r="F58" s="277" t="s">
+      <c r="E58" s="264"/>
+      <c r="F58" s="264" t="s">
         <v>388</v>
       </c>
-      <c r="G58" s="277"/>
-      <c r="H58" s="277" t="s">
+      <c r="G58" s="264"/>
+      <c r="H58" s="264" t="s">
         <v>395</v>
       </c>
-      <c r="I58" s="278" t="s">
+      <c r="I58" s="265" t="s">
         <v>399</v>
       </c>
       <c r="J58" s="14"/>
     </row>
     <row r="59" spans="2:10">
-      <c r="B59" s="357"/>
-      <c r="C59" s="253" t="s">
+      <c r="B59" s="343"/>
+      <c r="C59" s="241" t="s">
         <v>237</v>
       </c>
-      <c r="D59" s="253" t="s">
+      <c r="D59" s="241" t="s">
         <v>392</v>
       </c>
-      <c r="E59" s="253"/>
-      <c r="F59" s="253" t="s">
+      <c r="E59" s="241"/>
+      <c r="F59" s="241" t="s">
         <v>388</v>
       </c>
-      <c r="G59" s="253"/>
-      <c r="H59" s="253" t="s">
+      <c r="G59" s="241"/>
+      <c r="H59" s="241" t="s">
         <v>395</v>
       </c>
-      <c r="I59" s="258" t="s">
+      <c r="I59" s="246" t="s">
         <v>401</v>
       </c>
       <c r="J59" s="14"/>
     </row>
     <row r="60" spans="2:10">
-      <c r="B60" s="357"/>
-      <c r="C60" s="253" t="s">
+      <c r="B60" s="343"/>
+      <c r="C60" s="241" t="s">
         <v>237</v>
       </c>
-      <c r="D60" s="253" t="s">
+      <c r="D60" s="241" t="s">
         <v>393</v>
       </c>
-      <c r="E60" s="253"/>
-      <c r="F60" s="253" t="s">
+      <c r="E60" s="241"/>
+      <c r="F60" s="241" t="s">
         <v>388</v>
       </c>
-      <c r="G60" s="253"/>
-      <c r="H60" s="253" t="s">
+      <c r="G60" s="241"/>
+      <c r="H60" s="241" t="s">
         <v>395</v>
       </c>
-      <c r="I60" s="258" t="s">
+      <c r="I60" s="246" t="s">
         <v>397</v>
       </c>
       <c r="J60" s="14"/>
     </row>
-    <row r="61" spans="2:10">
-      <c r="B61" s="358"/>
-      <c r="C61" s="260" t="s">
+    <row r="61" spans="2:10" ht="17.250000">
+      <c r="B61" s="344"/>
+      <c r="C61" s="248" t="s">
         <v>237</v>
       </c>
-      <c r="D61" s="260" t="s">
+      <c r="D61" s="248" t="s">
         <v>394</v>
       </c>
-      <c r="E61" s="260"/>
-      <c r="F61" s="260" t="s">
+      <c r="E61" s="248"/>
+      <c r="F61" s="248" t="s">
         <v>388</v>
       </c>
-      <c r="G61" s="260"/>
-      <c r="H61" s="260" t="s">
+      <c r="G61" s="248"/>
+      <c r="H61" s="248" t="s">
         <v>395</v>
       </c>
-      <c r="I61" s="262" t="s">
+      <c r="I61" s="250" t="s">
         <v>396</v>
       </c>
       <c r="J61" s="14"/>
     </row>
     <row r="62" spans="2:10">
-      <c r="B62" s="254" t="s">
+      <c r="B62" s="242" t="s">
         <v>402</v>
       </c>
-      <c r="C62" s="277" t="s">
+      <c r="C62" s="264" t="s">
         <v>403</v>
       </c>
-      <c r="D62" s="377" t="s">
+      <c r="D62" s="361" t="s">
         <v>408</v>
       </c>
-      <c r="E62" s="377"/>
-      <c r="F62" s="277" t="s">
+      <c r="E62" s="361"/>
+      <c r="F62" s="264" t="s">
         <v>388</v>
       </c>
-      <c r="G62" s="277"/>
-      <c r="H62" s="277" t="s">
+      <c r="G62" s="264"/>
+      <c r="H62" s="264" t="s">
         <v>407</v>
       </c>
-      <c r="I62" s="278" t="s">
+      <c r="I62" s="265" t="s">
         <v>414</v>
       </c>
       <c r="J62" s="14"/>
     </row>
     <row r="63" spans="2:10">
-      <c r="B63" s="279"/>
-      <c r="C63" s="253" t="s">
+      <c r="B63" s="266"/>
+      <c r="C63" s="241" t="s">
         <v>404</v>
       </c>
-      <c r="D63" s="253" t="s">
+      <c r="D63" s="241" t="s">
         <v>410</v>
       </c>
-      <c r="E63" s="253"/>
-      <c r="F63" s="253" t="s">
+      <c r="E63" s="241"/>
+      <c r="F63" s="241" t="s">
         <v>388</v>
       </c>
-      <c r="G63" s="253"/>
-      <c r="H63" s="253" t="s">
+      <c r="G63" s="241"/>
+      <c r="H63" s="241" t="s">
         <v>407</v>
       </c>
-      <c r="I63" s="258" t="s">
+      <c r="I63" s="246" t="s">
         <v>415</v>
       </c>
       <c r="J63" s="14"/>
     </row>
     <row r="64" spans="2:10">
-      <c r="B64" s="279"/>
-      <c r="C64" s="253" t="s">
+      <c r="B64" s="266"/>
+      <c r="C64" s="241" t="s">
         <v>405</v>
       </c>
-      <c r="D64" s="253" t="s">
+      <c r="D64" s="241" t="s">
         <v>411</v>
       </c>
-      <c r="E64" s="253"/>
-      <c r="F64" s="253" t="s">
+      <c r="E64" s="241"/>
+      <c r="F64" s="241" t="s">
         <v>388</v>
       </c>
-      <c r="G64" s="253"/>
-      <c r="H64" s="253" t="s">
+      <c r="G64" s="241"/>
+      <c r="H64" s="241" t="s">
         <v>407</v>
       </c>
-      <c r="I64" s="258" t="s">
+      <c r="I64" s="246" t="s">
         <v>416</v>
       </c>
       <c r="J64" s="14"/>
     </row>
-    <row r="65" spans="2:10">
-      <c r="B65" s="280"/>
-      <c r="C65" s="260" t="s">
+    <row r="65" spans="2:10" ht="17.250000">
+      <c r="B65" s="267"/>
+      <c r="C65" s="248" t="s">
         <v>406</v>
       </c>
-      <c r="D65" s="260" t="s">
+      <c r="D65" s="248" t="s">
         <v>412</v>
       </c>
-      <c r="E65" s="260"/>
-      <c r="F65" s="260" t="s">
+      <c r="E65" s="248"/>
+      <c r="F65" s="248" t="s">
         <v>388</v>
       </c>
-      <c r="G65" s="260"/>
-      <c r="H65" s="260" t="s">
+      <c r="G65" s="248"/>
+      <c r="H65" s="248" t="s">
         <v>407</v>
       </c>
-      <c r="I65" s="262" t="s">
+      <c r="I65" s="250" t="s">
         <v>418</v>
       </c>
       <c r="J65" s="14"/>
     </row>
     <row r="66" spans="2:10">
-      <c r="B66" s="369" t="s">
+      <c r="B66" s="204" t="s">
         <v>420</v>
       </c>
-      <c r="C66" s="370"/>
-      <c r="D66" s="370"/>
-      <c r="E66" s="370"/>
-      <c r="F66" s="370"/>
-      <c r="G66" s="370"/>
-      <c r="H66" s="370"/>
-      <c r="I66" s="371"/>
+      <c r="C66" s="355"/>
+      <c r="D66" s="355"/>
+      <c r="E66" s="355"/>
+      <c r="F66" s="355"/>
+      <c r="G66" s="355"/>
+      <c r="H66" s="355"/>
+      <c r="I66" s="206"/>
     </row>
     <row r="67" spans="2:10">
-      <c r="B67" s="379" t="s">
+      <c r="B67" s="363" t="s">
         <v>420</v>
       </c>
-      <c r="C67" s="277" t="s">
+      <c r="C67" s="264" t="s">
         <v>9</v>
       </c>
-      <c r="D67" s="377" t="s">
+      <c r="D67" s="361" t="s">
         <v>14</v>
       </c>
-      <c r="E67" s="377"/>
-      <c r="F67" s="277" t="s">
+      <c r="E67" s="361"/>
+      <c r="F67" s="264" t="s">
         <v>388</v>
       </c>
-      <c r="G67" s="277"/>
-      <c r="H67" s="277" t="s">
+      <c r="G67" s="264"/>
+      <c r="H67" s="264" t="s">
         <v>183</v>
       </c>
-      <c r="I67" s="278" t="s">
+      <c r="I67" s="265" t="s">
         <v>469</v>
       </c>
       <c r="J67" s="14"/>
     </row>
     <row r="68" spans="2:10">
-      <c r="B68" s="279"/>
-      <c r="C68" s="253" t="s">
+      <c r="B68" s="266"/>
+      <c r="C68" s="241" t="s">
         <v>421</v>
       </c>
-      <c r="D68" s="253" t="s">
+      <c r="D68" s="241" t="s">
         <v>439</v>
       </c>
-      <c r="E68" s="253"/>
-      <c r="F68" s="253" t="s">
+      <c r="E68" s="241"/>
+      <c r="F68" s="241" t="s">
         <v>388</v>
       </c>
-      <c r="G68" s="253"/>
-      <c r="H68" s="253" t="s">
+      <c r="G68" s="241"/>
+      <c r="H68" s="241" t="s">
         <v>452</v>
       </c>
-      <c r="I68" s="278" t="s">
+      <c r="I68" s="265" t="s">
         <v>469</v>
       </c>
       <c r="J68" s="14"/>
     </row>
     <row r="69" spans="2:10">
-      <c r="B69" s="279"/>
-      <c r="C69" s="253" t="s">
+      <c r="B69" s="266"/>
+      <c r="C69" s="241" t="s">
         <v>422</v>
       </c>
-      <c r="D69" s="253" t="s">
+      <c r="D69" s="241" t="s">
         <v>59</v>
       </c>
-      <c r="E69" s="253"/>
-      <c r="F69" s="253" t="s">
+      <c r="E69" s="241"/>
+      <c r="F69" s="241" t="s">
         <v>388</v>
       </c>
-      <c r="G69" s="253"/>
-      <c r="H69" s="253" t="s">
+      <c r="G69" s="241"/>
+      <c r="H69" s="241" t="s">
         <v>453</v>
       </c>
-      <c r="I69" s="278" t="s">
+      <c r="I69" s="265" t="s">
         <v>469</v>
       </c>
       <c r="J69" s="14"/>
     </row>
     <row r="70" spans="2:10">
-      <c r="B70" s="279"/>
-      <c r="C70" s="253" t="s">
+      <c r="B70" s="266"/>
+      <c r="C70" s="241" t="s">
         <v>423</v>
       </c>
-      <c r="D70" s="253" t="s">
+      <c r="D70" s="241" t="s">
         <v>45</v>
       </c>
-      <c r="E70" s="253"/>
-      <c r="F70" s="253" t="s">
+      <c r="E70" s="241"/>
+      <c r="F70" s="241" t="s">
         <v>388</v>
       </c>
-      <c r="G70" s="253"/>
-      <c r="H70" s="253" t="s">
+      <c r="G70" s="241"/>
+      <c r="H70" s="241" t="s">
         <v>454</v>
       </c>
-      <c r="I70" s="278" t="s">
+      <c r="I70" s="265" t="s">
         <v>469</v>
       </c>
       <c r="J70" s="14"/>
     </row>
     <row r="71" spans="2:10">
-      <c r="B71" s="279"/>
-      <c r="C71" s="253" t="s">
+      <c r="B71" s="266"/>
+      <c r="C71" s="241" t="s">
         <v>424</v>
       </c>
-      <c r="D71" s="253" t="s">
+      <c r="D71" s="241" t="s">
         <v>30</v>
       </c>
-      <c r="E71" s="253"/>
-      <c r="F71" s="253" t="s">
+      <c r="E71" s="241"/>
+      <c r="F71" s="241" t="s">
         <v>388</v>
       </c>
-      <c r="G71" s="253"/>
-      <c r="H71" s="253" t="s">
+      <c r="G71" s="241"/>
+      <c r="H71" s="241" t="s">
         <v>458</v>
       </c>
-      <c r="I71" s="278" t="s">
+      <c r="I71" s="265" t="s">
         <v>469</v>
       </c>
       <c r="J71" s="14"/>
     </row>
     <row r="72" spans="2:10">
-      <c r="B72" s="279"/>
-      <c r="C72" s="253" t="s">
+      <c r="B72" s="266"/>
+      <c r="C72" s="241" t="s">
         <v>425</v>
       </c>
-      <c r="D72" s="253" t="s">
+      <c r="D72" s="241" t="s">
         <v>444</v>
       </c>
-      <c r="E72" s="253"/>
-      <c r="F72" s="253" t="s">
+      <c r="E72" s="241"/>
+      <c r="F72" s="241" t="s">
         <v>388</v>
       </c>
-      <c r="G72" s="253"/>
-      <c r="H72" s="253" t="s">
+      <c r="G72" s="241"/>
+      <c r="H72" s="241" t="s">
         <v>456</v>
       </c>
-      <c r="I72" s="278" t="s">
+      <c r="I72" s="265" t="s">
         <v>469</v>
       </c>
       <c r="J72" s="14"/>
     </row>
     <row r="73" spans="2:10">
-      <c r="B73" s="279"/>
-      <c r="C73" s="253" t="s">
+      <c r="B73" s="266"/>
+      <c r="C73" s="241" t="s">
         <v>426</v>
       </c>
-      <c r="D73" s="253" t="s">
+      <c r="D73" s="241" t="s">
         <v>11</v>
       </c>
-      <c r="E73" s="253"/>
-      <c r="F73" s="253" t="s">
+      <c r="E73" s="241"/>
+      <c r="F73" s="241" t="s">
         <v>388</v>
       </c>
-      <c r="G73" s="253"/>
-      <c r="H73" s="253" t="s">
+      <c r="G73" s="241"/>
+      <c r="H73" s="241" t="s">
         <v>180</v>
       </c>
-      <c r="I73" s="278" t="s">
+      <c r="I73" s="265" t="s">
         <v>469</v>
       </c>
       <c r="J73" s="14"/>
     </row>
     <row r="74" spans="2:10">
-      <c r="B74" s="279"/>
-      <c r="C74" s="253" t="s">
+      <c r="B74" s="266"/>
+      <c r="C74" s="241" t="s">
         <v>427</v>
       </c>
-      <c r="D74" s="253" t="s">
+      <c r="D74" s="241" t="s">
         <v>31</v>
       </c>
-      <c r="E74" s="253"/>
-      <c r="F74" s="253" t="s">
+      <c r="E74" s="241"/>
+      <c r="F74" s="241" t="s">
         <v>388</v>
       </c>
-      <c r="G74" s="253"/>
-      <c r="H74" s="253" t="s">
+      <c r="G74" s="241"/>
+      <c r="H74" s="241" t="s">
         <v>460</v>
       </c>
-      <c r="I74" s="278" t="s">
+      <c r="I74" s="265" t="s">
         <v>469</v>
       </c>
       <c r="J74" s="14"/>
     </row>
     <row r="75" spans="2:10">
-      <c r="B75" s="279"/>
-      <c r="C75" s="253" t="s">
+      <c r="B75" s="266"/>
+      <c r="C75" s="241" t="s">
         <v>428</v>
       </c>
-      <c r="D75" s="253" t="s">
+      <c r="D75" s="241" t="s">
         <v>13</v>
       </c>
-      <c r="E75" s="253"/>
-      <c r="F75" s="253" t="s">
+      <c r="E75" s="241"/>
+      <c r="F75" s="241" t="s">
         <v>388</v>
       </c>
-      <c r="G75" s="253"/>
-      <c r="H75" s="253" t="s">
+      <c r="G75" s="241"/>
+      <c r="H75" s="241" t="s">
         <v>182</v>
       </c>
-      <c r="I75" s="278" t="s">
+      <c r="I75" s="265" t="s">
         <v>469</v>
       </c>
       <c r="J75" s="14"/>
     </row>
     <row r="76" spans="2:10">
-      <c r="B76" s="279"/>
-      <c r="C76" s="253" t="s">
+      <c r="B76" s="266"/>
+      <c r="C76" s="241" t="s">
         <v>429</v>
       </c>
-      <c r="D76" s="253" t="s">
+      <c r="D76" s="241" t="s">
         <v>445</v>
       </c>
-      <c r="E76" s="253"/>
-      <c r="F76" s="253" t="s">
+      <c r="E76" s="241"/>
+      <c r="F76" s="241" t="s">
         <v>388</v>
       </c>
-      <c r="G76" s="253"/>
-      <c r="H76" s="253" t="s">
+      <c r="G76" s="241"/>
+      <c r="H76" s="241" t="s">
         <v>461</v>
       </c>
-      <c r="I76" s="278" t="s">
+      <c r="I76" s="265" t="s">
         <v>469</v>
       </c>
       <c r="J76" s="14"/>
     </row>
     <row r="77" spans="2:10">
-      <c r="B77" s="279"/>
-      <c r="C77" s="253" t="s">
+      <c r="B77" s="266"/>
+      <c r="C77" s="241" t="s">
         <v>430</v>
       </c>
-      <c r="D77" s="253" t="s">
+      <c r="D77" s="241" t="s">
         <v>446</v>
       </c>
-      <c r="E77" s="253"/>
-      <c r="F77" s="253" t="s">
+      <c r="E77" s="241"/>
+      <c r="F77" s="241" t="s">
         <v>388</v>
       </c>
-      <c r="G77" s="253"/>
-      <c r="H77" s="253" t="s">
+      <c r="G77" s="241"/>
+      <c r="H77" s="241" t="s">
         <v>462</v>
       </c>
-      <c r="I77" s="278" t="s">
+      <c r="I77" s="265" t="s">
         <v>469</v>
       </c>
       <c r="J77" s="14"/>
     </row>
     <row r="78" spans="2:10" ht="17.250000">
-      <c r="B78" s="280"/>
-      <c r="C78" s="260" t="s">
+      <c r="B78" s="267"/>
+      <c r="C78" s="248" t="s">
         <v>431</v>
       </c>
-      <c r="D78" s="260" t="s">
+      <c r="D78" s="248" t="s">
         <v>61</v>
       </c>
-      <c r="E78" s="260"/>
-      <c r="F78" s="260" t="s">
+      <c r="E78" s="248"/>
+      <c r="F78" s="248" t="s">
         <v>388</v>
       </c>
-      <c r="G78" s="260"/>
-      <c r="H78" s="260" t="s">
+      <c r="G78" s="248"/>
+      <c r="H78" s="248" t="s">
         <v>463</v>
       </c>
-      <c r="I78" s="385" t="s">
+      <c r="I78" s="369" t="s">
         <v>469</v>
       </c>
       <c r="J78" s="14"/>
     </row>
-    <row r="79" spans="2:10">
-      <c r="B79" s="384" t="s">
+    <row r="79" spans="2:10" ht="17.250000">
+      <c r="B79" s="368" t="s">
         <v>464</v>
       </c>
-      <c r="C79" s="331" t="s">
+      <c r="C79" s="318" t="s">
         <v>468</v>
       </c>
-      <c r="D79" s="331" t="s">
+      <c r="D79" s="318" t="s">
         <v>466</v>
       </c>
-      <c r="E79" s="331"/>
-      <c r="F79" s="331" t="s">
+      <c r="E79" s="318"/>
+      <c r="F79" s="318" t="s">
         <v>388</v>
       </c>
-      <c r="G79" s="331"/>
-      <c r="H79" s="331" t="s">
+      <c r="G79" s="318"/>
+      <c r="H79" s="318" t="s">
         <v>467</v>
       </c>
-      <c r="I79" s="381" t="s">
+      <c r="I79" s="365" t="s">
         <v>469</v>
       </c>
       <c r="J79" s="14"/>
     </row>
     <row r="80" spans="2:10">
-      <c r="B80" s="369" t="s">
+      <c r="B80" s="204" t="s">
         <v>470</v>
       </c>
-      <c r="C80" s="370"/>
-      <c r="D80" s="370"/>
-      <c r="E80" s="370"/>
-      <c r="F80" s="370"/>
-      <c r="G80" s="370"/>
-      <c r="H80" s="370"/>
-      <c r="I80" s="371"/>
+      <c r="C80" s="355"/>
+      <c r="D80" s="355"/>
+      <c r="E80" s="355"/>
+      <c r="F80" s="355"/>
+      <c r="G80" s="355"/>
+      <c r="H80" s="355"/>
+      <c r="I80" s="206"/>
     </row>
     <row r="81" spans="2:10">
-      <c r="B81" s="379" t="s">
+      <c r="B81" s="363" t="s">
         <v>470</v>
       </c>
-      <c r="C81" s="277" t="s">
+      <c r="C81" s="264" t="s">
         <v>471</v>
       </c>
-      <c r="D81" s="277" t="s">
+      <c r="D81" s="264" t="s">
         <v>14</v>
       </c>
-      <c r="E81" s="277"/>
-      <c r="F81" s="277" t="s">
+      <c r="E81" s="264"/>
+      <c r="F81" s="264" t="s">
         <v>494</v>
       </c>
-      <c r="G81" s="277"/>
-      <c r="H81" s="277" t="s">
+      <c r="G81" s="264"/>
+      <c r="H81" s="264" t="s">
         <v>497</v>
       </c>
-      <c r="I81" s="278" t="s">
+      <c r="I81" s="265" t="s">
         <v>496</v>
       </c>
       <c r="J81" s="14"/>
     </row>
     <row r="82" spans="2:10">
-      <c r="B82" s="279"/>
-      <c r="C82" s="253" t="s">
+      <c r="B82" s="266"/>
+      <c r="C82" s="241" t="s">
         <v>472</v>
       </c>
-      <c r="D82" s="253" t="s">
+      <c r="D82" s="241" t="s">
         <v>14</v>
       </c>
-      <c r="E82" s="253"/>
-      <c r="F82" s="253" t="s">
+      <c r="E82" s="241"/>
+      <c r="F82" s="241" t="s">
         <v>494</v>
       </c>
-      <c r="G82" s="253"/>
-      <c r="H82" s="253" t="s">
+      <c r="G82" s="241"/>
+      <c r="H82" s="241" t="s">
         <v>498</v>
       </c>
-      <c r="I82" s="258" t="s">
+      <c r="I82" s="246" t="s">
         <v>496</v>
       </c>
       <c r="J82" s="14"/>
     </row>
     <row r="83" spans="2:10">
-      <c r="B83" s="279"/>
-      <c r="C83" s="253" t="s">
+      <c r="B83" s="266"/>
+      <c r="C83" s="241" t="s">
         <v>473</v>
       </c>
-      <c r="D83" s="253" t="s">
+      <c r="D83" s="241" t="s">
         <v>499</v>
       </c>
-      <c r="E83" s="253"/>
-      <c r="F83" s="253" t="s">
+      <c r="E83" s="241"/>
+      <c r="F83" s="241" t="s">
         <v>494</v>
       </c>
-      <c r="G83" s="253"/>
-      <c r="H83" s="253" t="s">
+      <c r="G83" s="241"/>
+      <c r="H83" s="241" t="s">
         <v>452</v>
       </c>
-      <c r="I83" s="258" t="s">
+      <c r="I83" s="246" t="s">
         <v>496</v>
       </c>
       <c r="J83" s="14"/>
     </row>
     <row r="84" spans="2:10">
-      <c r="B84" s="279"/>
-      <c r="C84" s="253" t="s">
+      <c r="B84" s="266"/>
+      <c r="C84" s="241" t="s">
         <v>474</v>
       </c>
-      <c r="D84" s="253" t="s">
+      <c r="D84" s="241" t="s">
         <v>59</v>
       </c>
-      <c r="E84" s="253"/>
-      <c r="F84" s="253" t="s">
+      <c r="E84" s="241"/>
+      <c r="F84" s="241" t="s">
         <v>494</v>
       </c>
-      <c r="G84" s="253"/>
-      <c r="H84" s="253" t="s">
+      <c r="G84" s="241"/>
+      <c r="H84" s="241" t="s">
         <v>453</v>
       </c>
-      <c r="I84" s="258" t="s">
+      <c r="I84" s="246" t="s">
         <v>496</v>
       </c>
       <c r="J84" s="14"/>
     </row>
     <row r="85" spans="2:10">
-      <c r="B85" s="279"/>
-      <c r="C85" s="253" t="s">
+      <c r="B85" s="266"/>
+      <c r="C85" s="241" t="s">
         <v>475</v>
       </c>
-      <c r="D85" s="253" t="s">
+      <c r="D85" s="241" t="s">
         <v>45</v>
       </c>
-      <c r="E85" s="253"/>
-      <c r="F85" s="253" t="s">
+      <c r="E85" s="241"/>
+      <c r="F85" s="241" t="s">
         <v>494</v>
       </c>
-      <c r="G85" s="253"/>
-      <c r="H85" s="253" t="s">
+      <c r="G85" s="241"/>
+      <c r="H85" s="241" t="s">
         <v>454</v>
       </c>
-      <c r="I85" s="258" t="s">
+      <c r="I85" s="246" t="s">
         <v>496</v>
       </c>
       <c r="J85" s="14"/>
     </row>
     <row r="86" spans="2:10">
-      <c r="B86" s="279"/>
-      <c r="C86" s="253" t="s">
+      <c r="B86" s="266"/>
+      <c r="C86" s="241" t="s">
         <v>476</v>
       </c>
-      <c r="D86" s="253" t="s">
+      <c r="D86" s="241" t="s">
         <v>30</v>
       </c>
-      <c r="E86" s="253"/>
-      <c r="F86" s="253" t="s">
+      <c r="E86" s="241"/>
+      <c r="F86" s="241" t="s">
         <v>494</v>
       </c>
-      <c r="G86" s="253"/>
-      <c r="H86" s="253" t="s">
+      <c r="G86" s="241"/>
+      <c r="H86" s="241" t="s">
         <v>500</v>
       </c>
-      <c r="I86" s="258" t="s">
+      <c r="I86" s="246" t="s">
         <v>496</v>
       </c>
       <c r="J86" s="14"/>
     </row>
     <row r="87" spans="2:10">
-      <c r="B87" s="279"/>
-      <c r="C87" s="253" t="s">
+      <c r="B87" s="266"/>
+      <c r="C87" s="241" t="s">
         <v>477</v>
       </c>
-      <c r="D87" s="253" t="s">
+      <c r="D87" s="241" t="s">
         <v>46</v>
       </c>
-      <c r="E87" s="253"/>
-      <c r="F87" s="253" t="s">
+      <c r="E87" s="241"/>
+      <c r="F87" s="241" t="s">
         <v>494</v>
       </c>
-      <c r="G87" s="253"/>
-      <c r="H87" s="253" t="s">
+      <c r="G87" s="241"/>
+      <c r="H87" s="241" t="s">
         <v>502</v>
       </c>
-      <c r="I87" s="258" t="s">
+      <c r="I87" s="246" t="s">
         <v>496</v>
       </c>
       <c r="J87" s="14"/>
     </row>
     <row r="88" spans="2:10">
-      <c r="B88" s="279"/>
-      <c r="C88" s="253" t="s">
+      <c r="B88" s="266"/>
+      <c r="C88" s="241" t="s">
         <v>478</v>
       </c>
-      <c r="D88" s="253" t="s">
+      <c r="D88" s="241" t="s">
         <v>444</v>
       </c>
-      <c r="E88" s="253"/>
-      <c r="F88" s="253" t="s">
+      <c r="E88" s="241"/>
+      <c r="F88" s="241" t="s">
         <v>494</v>
       </c>
-      <c r="G88" s="253"/>
-      <c r="H88" s="253" t="s">
+      <c r="G88" s="241"/>
+      <c r="H88" s="241" t="s">
         <v>456</v>
       </c>
-      <c r="I88" s="258" t="s">
+      <c r="I88" s="246" t="s">
         <v>496</v>
       </c>
       <c r="J88" s="14"/>
     </row>
     <row r="89" spans="2:10">
-      <c r="B89" s="279"/>
-      <c r="C89" s="253" t="s">
+      <c r="B89" s="266"/>
+      <c r="C89" s="241" t="s">
         <v>479</v>
       </c>
-      <c r="D89" s="253" t="s">
+      <c r="D89" s="241" t="s">
         <v>11</v>
       </c>
-      <c r="E89" s="253"/>
-      <c r="F89" s="253" t="s">
+      <c r="E89" s="241"/>
+      <c r="F89" s="241" t="s">
         <v>494</v>
       </c>
-      <c r="G89" s="253"/>
-      <c r="H89" s="253" t="s">
+      <c r="G89" s="241"/>
+      <c r="H89" s="241" t="s">
         <v>503</v>
       </c>
-      <c r="I89" s="258" t="s">
+      <c r="I89" s="246" t="s">
         <v>496</v>
       </c>
       <c r="J89" s="14"/>
     </row>
     <row r="90" spans="2:10">
-      <c r="B90" s="279"/>
-      <c r="C90" s="253" t="s">
+      <c r="B90" s="266"/>
+      <c r="C90" s="241" t="s">
         <v>480</v>
       </c>
-      <c r="D90" s="253" t="s">
+      <c r="D90" s="241" t="s">
         <v>31</v>
       </c>
-      <c r="E90" s="253"/>
-      <c r="F90" s="253" t="s">
+      <c r="E90" s="241"/>
+      <c r="F90" s="241" t="s">
         <v>494</v>
       </c>
-      <c r="G90" s="253"/>
-      <c r="H90" s="253" t="s">
+      <c r="G90" s="241"/>
+      <c r="H90" s="241" t="s">
         <v>460</v>
       </c>
-      <c r="I90" s="258" t="s">
+      <c r="I90" s="246" t="s">
         <v>496</v>
       </c>
       <c r="J90" s="14"/>
     </row>
     <row r="91" spans="2:10">
-      <c r="B91" s="279"/>
-      <c r="C91" s="253" t="s">
+      <c r="B91" s="266"/>
+      <c r="C91" s="241" t="s">
         <v>481</v>
       </c>
-      <c r="D91" s="253" t="s">
+      <c r="D91" s="241" t="s">
         <v>504</v>
       </c>
-      <c r="E91" s="253"/>
-      <c r="F91" s="253" t="s">
+      <c r="E91" s="241"/>
+      <c r="F91" s="241" t="s">
         <v>494</v>
       </c>
-      <c r="G91" s="253"/>
-      <c r="H91" s="253" t="s">
+      <c r="G91" s="241"/>
+      <c r="H91" s="241" t="s">
         <v>506</v>
       </c>
-      <c r="I91" s="258" t="s">
+      <c r="I91" s="246" t="s">
         <v>496</v>
       </c>
       <c r="J91" s="14"/>
     </row>
     <row r="92" spans="2:10">
-      <c r="B92" s="279"/>
-      <c r="C92" s="253" t="s">
+      <c r="B92" s="266"/>
+      <c r="C92" s="241" t="s">
         <v>482</v>
       </c>
-      <c r="D92" s="253" t="s">
+      <c r="D92" s="241" t="s">
         <v>13</v>
       </c>
-      <c r="E92" s="253"/>
-      <c r="F92" s="253" t="s">
+      <c r="E92" s="241"/>
+      <c r="F92" s="241" t="s">
         <v>494</v>
       </c>
-      <c r="G92" s="253"/>
-      <c r="H92" s="253" t="s">
+      <c r="G92" s="241"/>
+      <c r="H92" s="241" t="s">
         <v>182</v>
       </c>
-      <c r="I92" s="258" t="s">
+      <c r="I92" s="246" t="s">
         <v>496</v>
       </c>
       <c r="J92" s="14"/>
     </row>
     <row r="93" spans="2:10">
-      <c r="B93" s="279"/>
-      <c r="C93" s="253" t="s">
+      <c r="B93" s="266"/>
+      <c r="C93" s="241" t="s">
         <v>483</v>
       </c>
-      <c r="D93" s="253" t="s">
+      <c r="D93" s="241" t="s">
         <v>437</v>
       </c>
-      <c r="E93" s="253"/>
-      <c r="F93" s="253" t="s">
+      <c r="E93" s="241"/>
+      <c r="F93" s="241" t="s">
         <v>494</v>
       </c>
-      <c r="G93" s="253"/>
-      <c r="H93" s="253" t="s">
+      <c r="G93" s="241"/>
+      <c r="H93" s="241" t="s">
         <v>461</v>
       </c>
-      <c r="I93" s="258" t="s">
+      <c r="I93" s="246" t="s">
         <v>496</v>
       </c>
       <c r="J93" s="14"/>
     </row>
     <row r="94" spans="2:10">
-      <c r="B94" s="279"/>
-      <c r="C94" s="253" t="s">
+      <c r="B94" s="266"/>
+      <c r="C94" s="241" t="s">
         <v>484</v>
       </c>
-      <c r="D94" s="253" t="s">
+      <c r="D94" s="241" t="s">
         <v>507</v>
       </c>
-      <c r="E94" s="253"/>
-      <c r="F94" s="253" t="s">
+      <c r="E94" s="241"/>
+      <c r="F94" s="241" t="s">
         <v>494</v>
       </c>
-      <c r="G94" s="253"/>
-      <c r="H94" s="253" t="s">
+      <c r="G94" s="241"/>
+      <c r="H94" s="241" t="s">
         <v>508</v>
       </c>
-      <c r="I94" s="258" t="s">
+      <c r="I94" s="246" t="s">
         <v>496</v>
       </c>
       <c r="J94" s="14"/>
     </row>
     <row r="95" spans="2:10">
-      <c r="B95" s="279"/>
-      <c r="C95" s="253" t="s">
+      <c r="B95" s="266"/>
+      <c r="C95" s="241" t="s">
         <v>485</v>
       </c>
-      <c r="D95" s="253" t="s">
+      <c r="D95" s="241" t="s">
         <v>510</v>
       </c>
-      <c r="E95" s="253"/>
-      <c r="F95" s="253" t="s">
+      <c r="E95" s="241"/>
+      <c r="F95" s="241" t="s">
         <v>494</v>
       </c>
-      <c r="G95" s="253"/>
-      <c r="H95" s="253" t="s">
+      <c r="G95" s="241"/>
+      <c r="H95" s="241" t="s">
         <v>512</v>
       </c>
-      <c r="I95" s="258" t="s">
+      <c r="I95" s="246" t="s">
         <v>496</v>
       </c>
       <c r="J95" s="14"/>
     </row>
     <row r="96" spans="2:10">
-      <c r="B96" s="279"/>
-      <c r="C96" s="253" t="s">
+      <c r="B96" s="266"/>
+      <c r="C96" s="241" t="s">
         <v>486</v>
       </c>
-      <c r="D96" s="253" t="s">
+      <c r="D96" s="241" t="s">
         <v>513</v>
       </c>
-      <c r="E96" s="253"/>
-      <c r="F96" s="253" t="s">
+      <c r="E96" s="241"/>
+      <c r="F96" s="241" t="s">
         <v>494</v>
       </c>
-      <c r="G96" s="253"/>
-      <c r="H96" s="253" t="s">
+      <c r="G96" s="241"/>
+      <c r="H96" s="241" t="s">
         <v>514</v>
       </c>
-      <c r="I96" s="258" t="s">
+      <c r="I96" s="246" t="s">
         <v>496</v>
       </c>
       <c r="J96" s="14"/>
     </row>
     <row r="97" spans="2:10">
-      <c r="B97" s="279"/>
-      <c r="C97" s="253" t="s">
+      <c r="B97" s="266"/>
+      <c r="C97" s="241" t="s">
         <v>487</v>
       </c>
-      <c r="D97" s="253" t="s">
+      <c r="D97" s="241" t="s">
         <v>446</v>
       </c>
-      <c r="E97" s="253"/>
-      <c r="F97" s="253" t="s">
+      <c r="E97" s="241"/>
+      <c r="F97" s="241" t="s">
         <v>494</v>
       </c>
-      <c r="G97" s="253"/>
-      <c r="H97" s="253" t="s">
+      <c r="G97" s="241"/>
+      <c r="H97" s="241" t="s">
         <v>462</v>
       </c>
-      <c r="I97" s="258" t="s">
+      <c r="I97" s="246" t="s">
         <v>496</v>
       </c>
       <c r="J97" s="14"/>
     </row>
     <row r="98" spans="2:10">
-      <c r="B98" s="279"/>
-      <c r="C98" s="253" t="s">
+      <c r="B98" s="266"/>
+      <c r="C98" s="241" t="s">
         <v>488</v>
       </c>
-      <c r="D98" s="253" t="s">
+      <c r="D98" s="241" t="s">
         <v>61</v>
       </c>
-      <c r="E98" s="253"/>
-      <c r="F98" s="253" t="s">
+      <c r="E98" s="241"/>
+      <c r="F98" s="241" t="s">
         <v>494</v>
       </c>
-      <c r="G98" s="253"/>
-      <c r="H98" s="253" t="s">
+      <c r="G98" s="241"/>
+      <c r="H98" s="241" t="s">
         <v>463</v>
       </c>
-      <c r="I98" s="258" t="s">
+      <c r="I98" s="246" t="s">
         <v>496</v>
       </c>
       <c r="J98" s="14"/>
     </row>
-    <row r="99" spans="2:10">
-      <c r="B99" s="280"/>
-      <c r="C99" s="260" t="s">
+    <row r="99" spans="2:10" ht="17.250000">
+      <c r="B99" s="267"/>
+      <c r="C99" s="248" t="s">
         <v>489</v>
       </c>
-      <c r="D99" s="260" t="s">
+      <c r="D99" s="248" t="s">
         <v>515</v>
       </c>
-      <c r="E99" s="260"/>
-      <c r="F99" s="260" t="s">
+      <c r="E99" s="248"/>
+      <c r="F99" s="248" t="s">
         <v>494</v>
       </c>
-      <c r="G99" s="260"/>
-      <c r="H99" s="260" t="s">
+      <c r="G99" s="248"/>
+      <c r="H99" s="248" t="s">
         <v>516</v>
       </c>
-      <c r="I99" s="262" t="s">
+      <c r="I99" s="250" t="s">
         <v>496</v>
       </c>
       <c r="J99" s="14"/>
     </row>
     <row r="100" spans="2:10">
-      <c r="B100" s="369" t="s">
+      <c r="B100" s="204" t="s">
         <v>517</v>
       </c>
-      <c r="C100" s="370"/>
-      <c r="D100" s="370"/>
-      <c r="E100" s="370"/>
-      <c r="F100" s="370"/>
-      <c r="G100" s="370"/>
-      <c r="H100" s="370"/>
-      <c r="I100" s="371"/>
+      <c r="C100" s="355"/>
+      <c r="D100" s="355"/>
+      <c r="E100" s="355"/>
+      <c r="F100" s="355"/>
+      <c r="G100" s="355"/>
+      <c r="H100" s="355"/>
+      <c r="I100" s="206"/>
     </row>
     <row r="101" spans="2:10">
       <c r="B101" s="50"/>
@@ -8281,7 +8135,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
@@ -8297,7 +8151,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>

--- a/잡리스트 0514수정.xlsx
+++ b/잡리스트 0514수정.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="580" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="570" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
-    <sheet name="She123123et1" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
+    <sheet name="She123123et1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="152511"/>
@@ -5789,7 +5790,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -5801,6 +5802,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.500000"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N103"/>
   <sheetViews>
@@ -8135,7 +8152,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
@@ -8151,7 +8168,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>

--- a/잡리스트 0514수정.xlsx
+++ b/잡리스트 0514수정.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="570" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="560" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet4" sheetId="5" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
-    <sheet name="She123123et1" sheetId="1" r:id="rId3"/>
+    <sheet name="joblist" sheetId="1" r:id="rId1"/>
+    <sheet name="메인화면-&gt;로그인" sheetId="5" r:id="rId2"/>
+    <sheet name="로그인완료" sheetId="4" r:id="rId3"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
   </sheets>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="547">
   <si>
     <t>J O B L I S T</t>
   </si>
@@ -1578,6 +1578,93 @@
   </si>
   <si>
     <t>END</t>
+  </si>
+  <si>
+    <t>MM00</t>
+  </si>
+  <si>
+    <t>기능</t>
+  </si>
+  <si>
+    <t>정책</t>
+  </si>
+  <si>
+    <t>History value 1 = login,                                       0 = logout</t>
+  </si>
+  <si>
+    <t>memberManage.jsp에서 히스토리내역 출력 요청</t>
+  </si>
+  <si>
+    <t>aShowMemberlist.ad에서 aShowMemberList으로 이동</t>
+  </si>
+  <si>
+    <t>DAO select 수행 결과를  List&lt;MemberBean&gt;에 담아 return</t>
+  </si>
+  <si>
+    <t>MemberBean 리스트를 html로 작성</t>
+  </si>
+  <si>
+    <t>memberHistory.jsp에 결과 출력</t>
+  </si>
+  <si>
+    <t>회원 히스토리 내역</t>
+  </si>
+  <si>
+    <t>Member - mHistory()</t>
+  </si>
+  <si>
+    <t>작성날짜</t>
+  </si>
+  <si>
+    <t>수정날짜</t>
+  </si>
+  <si>
+    <t>작성자</t>
+  </si>
+  <si>
+    <t>파라미터</t>
+  </si>
+  <si>
+    <t>Return</t>
+  </si>
+  <si>
+    <t>List&lt;&gt;</t>
+  </si>
+  <si>
+    <t>HistoryBean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  하아름, 이수지</t>
+  </si>
+  <si>
+    <t>메인-&gt;로그인</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>memberlist</t>
+  </si>
+  <si>
+    <t>메</t>
+  </si>
+  <si>
+    <t>로그인완료</t>
+  </si>
+  <si>
+    <t>String para</t>
+  </si>
+  <si>
+    <t>Activity act</t>
+  </si>
+  <si>
+    <t>String id</t>
+  </si>
+  <si>
+    <t>String pw</t>
   </si>
 </sst>
 </file>
@@ -1587,7 +1674,7 @@
   <numFmts count="1">
     <numFmt numFmtId="64" formatCode="&quot;₩&quot;#,##0;\\\-&quot;₩&quot;#,##0"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="33">
     <font>
       <sz val="11.0"/>
       <name val="맑은 고딕"/>
@@ -1708,8 +1795,62 @@
       <name val="맑은 고딕"/>
       <color theme="1"/>
     </font>
+    <font>
+      <sz val="20.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <sz val="15.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <sz val="18.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <color rgb="FFFFFFFF"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="16.0"/>
+      <name val="Calibri"/>
+      <color rgb="FFFFFFFF"/>
+    </font>
+    <font>
+      <sz val="13.0"/>
+      <name val="Calibri"/>
+      <color rgb="FFFFFFFF"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FFFFFFFF"/>
+    </font>
+    <font>
+      <sz val="9.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FFFFFFFF"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1883,8 +2024,14 @@
         <fgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="0"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="178">
+  <borders count="183">
     <border>
       <left/>
       <right/>
@@ -4205,6 +4352,71 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4355,7 +4567,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="371">
+  <cellXfs count="416">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5467,6 +5679,141 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="168" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="178" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="174" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="80" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="168" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="178" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="74" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="80" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="179" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="180" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="170" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="169" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="178" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="178" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="75" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="167" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="167" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="74" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="75" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="181" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="171" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="174" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="182" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="179" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="179" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="180" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="74" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="168" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="170" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="74" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="80" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="169" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="170" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="181" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="75" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="167" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="75" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="171" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5522,6 +5869,1309 @@
     <cellStyle name="하이퍼링크" xfId="6" builtinId="8" hidden="1"/>
   </cellStyles>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1" name="다이아몬드 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3436620" y="2120265"/>
+          <a:ext cx="1676400" cy="1076325"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" vertOverflow="clip">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:buFontTx/>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" cap="none" dirty="0" smtClean="0" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="맑은 고딕"/>
+              <a:ea typeface="맑은 고딕"/>
+            </a:rPr>
+            <a:t>String 
+=
+ login</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" dirty="0" smtClean="0" cap="none" b="0">
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:latin typeface="맑은 고딕"/>
+            <a:ea typeface="맑은 고딕"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="직사각형 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1112520" y="2091690"/>
+          <a:ext cx="1162050" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="91440" anchor="ctr" vertOverflow="clip">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:buFontTx/>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" cap="none" dirty="0" smtClean="0" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+            </a:rPr>
+            <a:t>MainActivity</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" dirty="0" smtClean="0" cap="none" b="0">
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="오른쪽 화살표 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2607945" y="2415540"/>
+          <a:ext cx="352425" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="직사각형 4"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1102995" y="2748915"/>
+          <a:ext cx="1181100" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" vertOverflow="clip">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:buFontTx/>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" cap="none" dirty="0" smtClean="0" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="맑은 고딕"/>
+              <a:ea typeface="맑은 고딕"/>
+            </a:rPr>
+            <a:t> login</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" dirty="0" smtClean="0" cap="none" b="0">
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:latin typeface="맑은 고딕"/>
+            <a:ea typeface="맑은 고딕"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="오른쪽 화살표 5"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="2588895" y="2815590"/>
+          <a:ext cx="352425" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="TextBox 16"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5332095" y="2329815"/>
+          <a:ext cx="190500" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="TextBox 17"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4960620" y="2329815"/>
+          <a:ext cx="1219200" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="91440" anchor="t" vertOverflow="clip">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:buFontTx/>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1600" kern="1200" cap="none" dirty="0" smtClean="0" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Member
+DAO</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1600" kern="1200" dirty="0" smtClean="0" cap="none" b="0">
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="TextBox 22"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3427095" y="3177540"/>
+          <a:ext cx="714375" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="91440" anchor="t" vertOverflow="clip">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:buFontTx/>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" cap="none" dirty="0" smtClean="0" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+            </a:rPr>
+            <a:t>mHistory
+html</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" dirty="0" smtClean="0" cap="none" b="0">
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1" name="다이아몬드 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1712595" y="2186940"/>
+          <a:ext cx="1390650" cy="1114425"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" vertOverflow="clip">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:buFontTx/>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" kern="1200" cap="none" dirty="0" smtClean="0" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="맑은 고딕"/>
+              <a:ea typeface="맑은 고딕"/>
+            </a:rPr>
+            <a:t>String 
+=
+ loginjoin</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="900" kern="1200" dirty="0" smtClean="0" cap="none" b="0">
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:latin typeface="맑은 고딕"/>
+            <a:ea typeface="맑은 고딕"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="직사각형 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="55245" y="2929890"/>
+          <a:ext cx="1162050" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="91440" anchor="ctr" vertOverflow="clip">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:buFontTx/>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" cap="none" dirty="0" smtClean="0" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+            </a:rPr>
+            <a:t>MainActivity</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" dirty="0" smtClean="0" cap="none" b="0">
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="오른쪽 화살표 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1341120" y="2367915"/>
+          <a:ext cx="352425" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="직사각형 4"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3846195" y="2167890"/>
+          <a:ext cx="1181100" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" vertOverflow="clip">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:buFontTx/>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" cap="none" dirty="0" smtClean="0" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="맑은 고딕"/>
+              <a:ea typeface="맑은 고딕"/>
+            </a:rPr>
+            <a:t> selectLogin</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" dirty="0" smtClean="0" cap="none" b="0">
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:latin typeface="맑은 고딕"/>
+            <a:ea typeface="맑은 고딕"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="오른쪽 화살표 5"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="1283970" y="3120390"/>
+          <a:ext cx="352425" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 6"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5332095" y="2329815"/>
+          <a:ext cx="190500" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="TextBox 8"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3427095" y="3177540"/>
+          <a:ext cx="714375" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="91440" anchor="t" vertOverflow="clip">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:buFontTx/>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" cap="none" dirty="0" smtClean="0" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+            </a:rPr>
+            <a:t>mHistory
+html</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" dirty="0" smtClean="0" cap="none" b="0">
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="오른쪽 화살표 9"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3255645" y="2215515"/>
+          <a:ext cx="352425" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="t" vertOverflow="clip">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l">
+            <a:buFontTx/>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" dirty="0" smtClean="0" cap="none" b="0">
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:latin typeface="맑은 고딕"/>
+            <a:ea typeface="맑은 고딕"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="오른쪽 화살표 10"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="3208020" y="2539365"/>
+          <a:ext cx="409575" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="t" vertOverflow="clip">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l">
+            <a:buFontTx/>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" dirty="0" smtClean="0" cap="none" b="0">
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:latin typeface="맑은 고딕"/>
+            <a:ea typeface="맑은 고딕"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="직사각형 11"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="36195" y="2244090"/>
+          <a:ext cx="1181100" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" vertOverflow="clip">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:buFontTx/>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" cap="none" dirty="0" smtClean="0" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="맑은 고딕"/>
+              <a:ea typeface="맑은 고딕"/>
+            </a:rPr>
+            <a:t> login</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" dirty="0" smtClean="0" cap="none" b="0">
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:latin typeface="맑은 고딕"/>
+            <a:ea typeface="맑은 고딕"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="오른쪽 화살표 12"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="21600000" flipV="1">
+          <a:off x="3198495" y="3301365"/>
+          <a:ext cx="409575" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="t" vertOverflow="clip">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l">
+            <a:buFontTx/>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" dirty="0" smtClean="0" cap="none" b="0">
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:latin typeface="맑은 고딕"/>
+            <a:ea typeface="맑은 고딕"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="오른쪽 화살표 13"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="3217545" y="2939415"/>
+          <a:ext cx="409575" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 52963"/>
+            <a:gd name="adj2" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="t" vertOverflow="clip">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l">
+            <a:buFontTx/>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" cap="none" dirty="0" smtClean="0" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="맑은 고딕"/>
+              <a:ea typeface="맑은 고딕"/>
+            </a:rPr>
+            <a:t>b</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" dirty="0" smtClean="0" cap="none" b="0">
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:latin typeface="맑은 고딕"/>
+            <a:ea typeface="맑은 고딕"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="직사각형 14"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3827145" y="2920365"/>
+          <a:ext cx="1181100" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" vertOverflow="clip">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:buFontTx/>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" cap="none" dirty="0" smtClean="0" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="맑은 고딕"/>
+              <a:ea typeface="맑은 고딕"/>
+            </a:rPr>
+            <a:t> selectID</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" dirty="0" smtClean="0" cap="none" b="0">
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:latin typeface="맑은 고딕"/>
+            <a:ea typeface="맑은 고딕"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5787,42 +7437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.500000"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:N103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.500000"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N103"/>
-  <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="J92" sqref="J92"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -8152,6 +9770,1120 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:M28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.500000"/>
+  <sheetData>
+    <row r="1" spans="1:13" ht="17.250000">
+      <c r="A1" s="371" t="s">
+        <v>537</v>
+      </c>
+      <c r="B1" s="371"/>
+      <c r="C1" s="371"/>
+      <c r="D1" s="387" t="s">
+        <v>527</v>
+      </c>
+      <c r="E1" s="387"/>
+      <c r="F1" s="387"/>
+      <c r="G1" s="387"/>
+      <c r="H1" s="387"/>
+      <c r="I1" s="387"/>
+      <c r="J1" s="396" t="s">
+        <v>529</v>
+      </c>
+      <c r="K1" s="404"/>
+      <c r="L1" s="410">
+        <v>42312</v>
+      </c>
+      <c r="M1" s="411"/>
+    </row>
+    <row r="2" spans="1:13" ht="17.250000">
+      <c r="A2" s="371"/>
+      <c r="B2" s="371"/>
+      <c r="C2" s="371"/>
+      <c r="D2" s="387"/>
+      <c r="E2" s="387"/>
+      <c r="F2" s="387"/>
+      <c r="G2" s="387"/>
+      <c r="H2" s="387"/>
+      <c r="I2" s="387"/>
+      <c r="J2" s="396" t="s">
+        <v>530</v>
+      </c>
+      <c r="K2" s="404"/>
+      <c r="L2" s="410">
+        <v>42315</v>
+      </c>
+      <c r="M2" s="411"/>
+    </row>
+    <row r="3" spans="1:13" ht="17.250000">
+      <c r="A3" s="371"/>
+      <c r="B3" s="371"/>
+      <c r="C3" s="371"/>
+      <c r="D3" s="388" t="s">
+        <v>528</v>
+      </c>
+      <c r="E3" s="388"/>
+      <c r="F3" s="388"/>
+      <c r="G3" s="388"/>
+      <c r="H3" s="388"/>
+      <c r="I3" s="388"/>
+      <c r="J3" s="396" t="s">
+        <v>531</v>
+      </c>
+      <c r="K3" s="404"/>
+      <c r="L3" s="404" t="s">
+        <v>536</v>
+      </c>
+      <c r="M3" s="411"/>
+    </row>
+    <row r="4" spans="1:13" ht="17.250000">
+      <c r="A4" s="372" t="s">
+        <v>519</v>
+      </c>
+      <c r="B4" s="380"/>
+      <c r="C4" s="380"/>
+      <c r="D4" s="380"/>
+      <c r="E4" s="380"/>
+      <c r="F4" s="380"/>
+      <c r="G4" s="380"/>
+      <c r="H4" s="380"/>
+      <c r="I4" s="394"/>
+      <c r="J4" s="372" t="s">
+        <v>532</v>
+      </c>
+      <c r="K4" s="380"/>
+      <c r="L4" s="380"/>
+      <c r="M4" s="394"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="373">
+        <v>1</v>
+      </c>
+      <c r="B5" s="381"/>
+      <c r="C5" s="382"/>
+      <c r="D5" s="382"/>
+      <c r="E5" s="382"/>
+      <c r="F5" s="382"/>
+      <c r="G5" s="382"/>
+      <c r="H5" s="382"/>
+      <c r="I5" s="382"/>
+      <c r="J5" s="397"/>
+      <c r="K5" s="405" t="s">
+        <v>420</v>
+      </c>
+      <c r="L5" s="409"/>
+      <c r="M5" s="412"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="373">
+        <v>2</v>
+      </c>
+      <c r="B6" s="381"/>
+      <c r="C6" s="382"/>
+      <c r="D6" s="382"/>
+      <c r="E6" s="382"/>
+      <c r="F6" s="382"/>
+      <c r="G6" s="382"/>
+      <c r="H6" s="382"/>
+      <c r="I6" s="382"/>
+      <c r="J6" s="398"/>
+      <c r="K6" s="406" t="s">
+        <v>539</v>
+      </c>
+      <c r="L6" s="382"/>
+      <c r="M6" s="413"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="373">
+        <v>3</v>
+      </c>
+      <c r="B7" s="382"/>
+      <c r="C7" s="382"/>
+      <c r="D7" s="382"/>
+      <c r="E7" s="382"/>
+      <c r="F7" s="382"/>
+      <c r="G7" s="382"/>
+      <c r="H7" s="382"/>
+      <c r="I7" s="382"/>
+      <c r="J7" s="398"/>
+      <c r="K7" s="406"/>
+      <c r="L7" s="382"/>
+      <c r="M7" s="413"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="373">
+        <v>4</v>
+      </c>
+      <c r="B8" s="381"/>
+      <c r="C8" s="382"/>
+      <c r="D8" s="382"/>
+      <c r="E8" s="382"/>
+      <c r="F8" s="382"/>
+      <c r="G8" s="382"/>
+      <c r="H8" s="382"/>
+      <c r="I8" s="382"/>
+      <c r="J8" s="398"/>
+      <c r="K8" s="406"/>
+      <c r="L8" s="382"/>
+      <c r="M8" s="413"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="373">
+        <v>5</v>
+      </c>
+      <c r="B9" s="381"/>
+      <c r="C9" s="382"/>
+      <c r="D9" s="382"/>
+      <c r="E9" s="382"/>
+      <c r="F9" s="382"/>
+      <c r="G9" s="382"/>
+      <c r="H9" s="382"/>
+      <c r="I9" s="382"/>
+      <c r="J9" s="398"/>
+      <c r="K9" s="406"/>
+      <c r="L9" s="382"/>
+      <c r="M9" s="413"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="373"/>
+      <c r="B10" s="383"/>
+      <c r="C10" s="383"/>
+      <c r="D10" s="383"/>
+      <c r="E10" s="383"/>
+      <c r="F10" s="383"/>
+      <c r="G10" s="383"/>
+      <c r="H10" s="383"/>
+      <c r="I10" s="391"/>
+      <c r="J10" s="399"/>
+      <c r="K10" s="382"/>
+      <c r="L10" s="382"/>
+      <c r="M10" s="413"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="373"/>
+      <c r="B11" s="383"/>
+      <c r="C11" s="383"/>
+      <c r="D11" s="383"/>
+      <c r="E11" s="383"/>
+      <c r="F11" s="383"/>
+      <c r="G11" s="383"/>
+      <c r="H11" s="383"/>
+      <c r="I11" s="391"/>
+      <c r="J11" s="399"/>
+      <c r="K11" s="382"/>
+      <c r="L11" s="382"/>
+      <c r="M11" s="413"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="373"/>
+      <c r="B12" s="383"/>
+      <c r="C12" s="383"/>
+      <c r="D12" s="383"/>
+      <c r="E12" s="383"/>
+      <c r="F12" s="383"/>
+      <c r="G12" s="383"/>
+      <c r="H12" s="383"/>
+      <c r="I12" s="391"/>
+      <c r="J12" s="399"/>
+      <c r="K12" s="382"/>
+      <c r="L12" s="382"/>
+      <c r="M12" s="413"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="373"/>
+      <c r="B13" s="383"/>
+      <c r="C13" s="383"/>
+      <c r="D13" s="383"/>
+      <c r="E13" s="383"/>
+      <c r="F13" s="383"/>
+      <c r="G13" s="383"/>
+      <c r="H13" s="383"/>
+      <c r="I13" s="391"/>
+      <c r="J13" s="399"/>
+      <c r="K13" s="382"/>
+      <c r="L13" s="382"/>
+      <c r="M13" s="413"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="373"/>
+      <c r="B14" s="383"/>
+      <c r="C14" s="383"/>
+      <c r="D14" s="383"/>
+      <c r="E14" s="383"/>
+      <c r="F14" s="383"/>
+      <c r="G14" s="383"/>
+      <c r="H14" s="383"/>
+      <c r="I14" s="391"/>
+      <c r="J14" s="399"/>
+      <c r="K14" s="382"/>
+      <c r="L14" s="382"/>
+      <c r="M14" s="413"/>
+    </row>
+    <row r="15" spans="1:13" ht="17.250000">
+      <c r="A15" s="373"/>
+      <c r="B15" s="383"/>
+      <c r="C15" s="383"/>
+      <c r="D15" s="383"/>
+      <c r="E15" s="383"/>
+      <c r="F15" s="383"/>
+      <c r="G15" s="383"/>
+      <c r="H15" s="383"/>
+      <c r="I15" s="391"/>
+      <c r="J15" s="400"/>
+      <c r="K15" s="382"/>
+      <c r="L15" s="382"/>
+      <c r="M15" s="413"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="373"/>
+      <c r="B16" s="383"/>
+      <c r="C16" s="383"/>
+      <c r="D16" s="383"/>
+      <c r="E16" s="383"/>
+      <c r="F16" s="383"/>
+      <c r="G16" s="383"/>
+      <c r="H16" s="383"/>
+      <c r="I16" s="391"/>
+      <c r="J16" s="401" t="s">
+        <v>533</v>
+      </c>
+      <c r="K16" s="407"/>
+      <c r="L16" s="407"/>
+      <c r="M16" s="414"/>
+    </row>
+    <row r="17" spans="1:13" ht="17.250000">
+      <c r="A17" s="373"/>
+      <c r="B17" s="383"/>
+      <c r="C17" s="383"/>
+      <c r="D17" s="383"/>
+      <c r="E17" s="383"/>
+      <c r="F17" s="383"/>
+      <c r="G17" s="383"/>
+      <c r="H17" s="383"/>
+      <c r="I17" s="391"/>
+      <c r="J17" s="402"/>
+      <c r="K17" s="408"/>
+      <c r="L17" s="408"/>
+      <c r="M17" s="415"/>
+    </row>
+    <row r="18" spans="1:13" ht="17.250000">
+      <c r="A18" s="374"/>
+      <c r="B18" s="384"/>
+      <c r="C18" s="384"/>
+      <c r="D18" s="384"/>
+      <c r="E18" s="384"/>
+      <c r="F18" s="384"/>
+      <c r="G18" s="384"/>
+      <c r="H18" s="384"/>
+      <c r="I18" s="395"/>
+      <c r="J18" s="397" t="s">
+        <v>534</v>
+      </c>
+      <c r="K18" s="409" t="s">
+        <v>535</v>
+      </c>
+      <c r="L18" s="409"/>
+      <c r="M18" s="412"/>
+    </row>
+    <row r="19" spans="1:13" ht="17.250000">
+      <c r="A19" s="375" t="s">
+        <v>520</v>
+      </c>
+      <c r="B19" s="375"/>
+      <c r="C19" s="375"/>
+      <c r="D19" s="375"/>
+      <c r="E19" s="375"/>
+      <c r="F19" s="388" t="b">
+        <v>1</v>
+      </c>
+      <c r="G19" s="388"/>
+      <c r="H19" s="388" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" s="388"/>
+      <c r="J19" s="398"/>
+      <c r="K19" s="406"/>
+      <c r="L19" s="382"/>
+      <c r="M19" s="413"/>
+    </row>
+    <row r="20" spans="1:13" ht="17.250000">
+      <c r="A20" s="375"/>
+      <c r="B20" s="375"/>
+      <c r="C20" s="375"/>
+      <c r="D20" s="375"/>
+      <c r="E20" s="375"/>
+      <c r="F20" s="388"/>
+      <c r="G20" s="388"/>
+      <c r="H20" s="388"/>
+      <c r="I20" s="388"/>
+      <c r="J20" s="398"/>
+      <c r="K20" s="382"/>
+      <c r="L20" s="382"/>
+      <c r="M20" s="413"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="376" t="s">
+        <v>521</v>
+      </c>
+      <c r="B21" s="385"/>
+      <c r="C21" s="385"/>
+      <c r="D21" s="385"/>
+      <c r="E21" s="389"/>
+      <c r="F21" s="392"/>
+      <c r="G21" s="393"/>
+      <c r="H21" s="392"/>
+      <c r="I21" s="393"/>
+      <c r="J21" s="399"/>
+      <c r="K21" s="382"/>
+      <c r="L21" s="382"/>
+      <c r="M21" s="413"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="377"/>
+      <c r="B22" s="386"/>
+      <c r="C22" s="386"/>
+      <c r="D22" s="386"/>
+      <c r="E22" s="390"/>
+      <c r="F22" s="373"/>
+      <c r="G22" s="391"/>
+      <c r="H22" s="373"/>
+      <c r="I22" s="391"/>
+      <c r="J22" s="399"/>
+      <c r="K22" s="382"/>
+      <c r="L22" s="382"/>
+      <c r="M22" s="413"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="373"/>
+      <c r="B23" s="383"/>
+      <c r="C23" s="383"/>
+      <c r="D23" s="383"/>
+      <c r="E23" s="391"/>
+      <c r="F23" s="373"/>
+      <c r="G23" s="391"/>
+      <c r="H23" s="373"/>
+      <c r="I23" s="391"/>
+      <c r="J23" s="399"/>
+      <c r="K23" s="382"/>
+      <c r="L23" s="382"/>
+      <c r="M23" s="413"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="373"/>
+      <c r="B24" s="383"/>
+      <c r="C24" s="383"/>
+      <c r="D24" s="383"/>
+      <c r="E24" s="391"/>
+      <c r="F24" s="373"/>
+      <c r="G24" s="391"/>
+      <c r="H24" s="373"/>
+      <c r="I24" s="391"/>
+      <c r="J24" s="399"/>
+      <c r="K24" s="383"/>
+      <c r="L24" s="383"/>
+      <c r="M24" s="391"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="378"/>
+      <c r="B25" s="378"/>
+      <c r="C25" s="378"/>
+      <c r="D25" s="378"/>
+      <c r="E25" s="378"/>
+      <c r="F25" s="378"/>
+      <c r="G25" s="378"/>
+      <c r="H25" s="378"/>
+      <c r="I25" s="378"/>
+      <c r="J25" s="399"/>
+      <c r="K25" s="383"/>
+      <c r="L25" s="383"/>
+      <c r="M25" s="391"/>
+    </row>
+    <row r="26" spans="1:13" ht="17.250000">
+      <c r="A26" s="378"/>
+      <c r="B26" s="378"/>
+      <c r="C26" s="378"/>
+      <c r="D26" s="378"/>
+      <c r="E26" s="378"/>
+      <c r="F26" s="378"/>
+      <c r="G26" s="378"/>
+      <c r="H26" s="378"/>
+      <c r="I26" s="378"/>
+      <c r="J26" s="400"/>
+      <c r="K26" s="383"/>
+      <c r="L26" s="383"/>
+      <c r="M26" s="391"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="378"/>
+      <c r="B27" s="378"/>
+      <c r="C27" s="378"/>
+      <c r="D27" s="378"/>
+      <c r="E27" s="378"/>
+      <c r="F27" s="378"/>
+      <c r="G27" s="378"/>
+      <c r="H27" s="378"/>
+      <c r="I27" s="378"/>
+      <c r="J27" s="403"/>
+      <c r="K27" s="403"/>
+      <c r="L27" s="403"/>
+      <c r="M27" s="393"/>
+    </row>
+    <row r="28" spans="1:13" ht="17.250000">
+      <c r="A28" s="379"/>
+      <c r="B28" s="379"/>
+      <c r="C28" s="379"/>
+      <c r="D28" s="379"/>
+      <c r="E28" s="379"/>
+      <c r="F28" s="379"/>
+      <c r="G28" s="379"/>
+      <c r="H28" s="379"/>
+      <c r="I28" s="379"/>
+      <c r="J28" s="384"/>
+      <c r="K28" s="384"/>
+      <c r="L28" s="384"/>
+      <c r="M28" s="395"/>
+    </row>
+  </sheetData>
+  <mergeCells count="65">
+    <mergeCell ref="A1:C3"/>
+    <mergeCell ref="D1:I2"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="B9:I9"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="A10:I18"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="J16:M17"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="A19:E20"/>
+    <mergeCell ref="F19:G20"/>
+    <mergeCell ref="H19:I20"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="A21:E22"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="K25:M25"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="K26:M26"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:M28"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.500000"/>
+  <sheetData>
+    <row r="1" spans="1:13" ht="17.250000">
+      <c r="A1" s="371" t="s">
+        <v>542</v>
+      </c>
+      <c r="B1" s="371"/>
+      <c r="C1" s="371"/>
+      <c r="D1" s="387" t="s">
+        <v>527</v>
+      </c>
+      <c r="E1" s="387"/>
+      <c r="F1" s="387"/>
+      <c r="G1" s="387"/>
+      <c r="H1" s="387"/>
+      <c r="I1" s="387"/>
+      <c r="J1" s="396" t="s">
+        <v>529</v>
+      </c>
+      <c r="K1" s="404"/>
+      <c r="L1" s="410">
+        <v>42312</v>
+      </c>
+      <c r="M1" s="411"/>
+    </row>
+    <row r="2" spans="1:13" ht="17.250000">
+      <c r="A2" s="371"/>
+      <c r="B2" s="371"/>
+      <c r="C2" s="371"/>
+      <c r="D2" s="387"/>
+      <c r="E2" s="387"/>
+      <c r="F2" s="387"/>
+      <c r="G2" s="387"/>
+      <c r="H2" s="387"/>
+      <c r="I2" s="387"/>
+      <c r="J2" s="396" t="s">
+        <v>530</v>
+      </c>
+      <c r="K2" s="404"/>
+      <c r="L2" s="410">
+        <v>42315</v>
+      </c>
+      <c r="M2" s="411"/>
+    </row>
+    <row r="3" spans="1:13" ht="17.250000">
+      <c r="A3" s="371"/>
+      <c r="B3" s="371"/>
+      <c r="C3" s="371"/>
+      <c r="D3" s="388" t="s">
+        <v>528</v>
+      </c>
+      <c r="E3" s="388"/>
+      <c r="F3" s="388"/>
+      <c r="G3" s="388"/>
+      <c r="H3" s="388"/>
+      <c r="I3" s="388"/>
+      <c r="J3" s="396" t="s">
+        <v>531</v>
+      </c>
+      <c r="K3" s="404"/>
+      <c r="L3" s="404" t="s">
+        <v>536</v>
+      </c>
+      <c r="M3" s="411"/>
+    </row>
+    <row r="4" spans="1:13" ht="17.250000">
+      <c r="A4" s="372" t="s">
+        <v>519</v>
+      </c>
+      <c r="B4" s="380"/>
+      <c r="C4" s="380"/>
+      <c r="D4" s="380"/>
+      <c r="E4" s="380"/>
+      <c r="F4" s="380"/>
+      <c r="G4" s="380"/>
+      <c r="H4" s="380"/>
+      <c r="I4" s="394"/>
+      <c r="J4" s="372" t="s">
+        <v>532</v>
+      </c>
+      <c r="K4" s="380"/>
+      <c r="L4" s="380"/>
+      <c r="M4" s="394"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="373">
+        <v>1</v>
+      </c>
+      <c r="B5" s="381"/>
+      <c r="C5" s="382"/>
+      <c r="D5" s="382"/>
+      <c r="E5" s="382"/>
+      <c r="F5" s="382"/>
+      <c r="G5" s="382"/>
+      <c r="H5" s="382"/>
+      <c r="I5" s="382"/>
+      <c r="J5" s="397"/>
+      <c r="K5" s="405" t="s">
+        <v>544</v>
+      </c>
+      <c r="L5" s="409"/>
+      <c r="M5" s="412"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="373">
+        <v>2</v>
+      </c>
+      <c r="B6" s="381"/>
+      <c r="C6" s="382"/>
+      <c r="D6" s="382"/>
+      <c r="E6" s="382"/>
+      <c r="F6" s="382"/>
+      <c r="G6" s="382"/>
+      <c r="H6" s="382"/>
+      <c r="I6" s="382"/>
+      <c r="J6" s="398"/>
+      <c r="K6" s="406" t="s">
+        <v>543</v>
+      </c>
+      <c r="L6" s="382"/>
+      <c r="M6" s="413"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="373">
+        <v>3</v>
+      </c>
+      <c r="B7" s="382"/>
+      <c r="C7" s="382"/>
+      <c r="D7" s="382"/>
+      <c r="E7" s="382"/>
+      <c r="F7" s="382"/>
+      <c r="G7" s="382"/>
+      <c r="H7" s="382"/>
+      <c r="I7" s="382"/>
+      <c r="J7" s="398"/>
+      <c r="K7" s="406" t="s">
+        <v>545</v>
+      </c>
+      <c r="L7" s="382"/>
+      <c r="M7" s="413"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="373">
+        <v>4</v>
+      </c>
+      <c r="B8" s="381"/>
+      <c r="C8" s="382"/>
+      <c r="D8" s="382"/>
+      <c r="E8" s="382"/>
+      <c r="F8" s="382"/>
+      <c r="G8" s="382"/>
+      <c r="H8" s="382"/>
+      <c r="I8" s="382"/>
+      <c r="J8" s="398"/>
+      <c r="K8" s="406" t="s">
+        <v>546</v>
+      </c>
+      <c r="L8" s="382"/>
+      <c r="M8" s="413"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="373">
+        <v>5</v>
+      </c>
+      <c r="B9" s="381"/>
+      <c r="C9" s="382"/>
+      <c r="D9" s="382"/>
+      <c r="E9" s="382"/>
+      <c r="F9" s="382"/>
+      <c r="G9" s="382"/>
+      <c r="H9" s="382"/>
+      <c r="I9" s="382"/>
+      <c r="J9" s="398"/>
+      <c r="K9" s="406"/>
+      <c r="L9" s="382"/>
+      <c r="M9" s="413"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="373"/>
+      <c r="B10" s="383"/>
+      <c r="C10" s="383"/>
+      <c r="D10" s="383"/>
+      <c r="E10" s="383"/>
+      <c r="F10" s="383"/>
+      <c r="G10" s="383"/>
+      <c r="H10" s="383"/>
+      <c r="I10" s="391"/>
+      <c r="J10" s="399"/>
+      <c r="K10" s="382"/>
+      <c r="L10" s="382"/>
+      <c r="M10" s="413"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="373"/>
+      <c r="B11" s="383"/>
+      <c r="C11" s="383"/>
+      <c r="D11" s="383"/>
+      <c r="E11" s="383"/>
+      <c r="F11" s="383"/>
+      <c r="G11" s="383"/>
+      <c r="H11" s="383"/>
+      <c r="I11" s="391"/>
+      <c r="J11" s="399"/>
+      <c r="K11" s="382"/>
+      <c r="L11" s="382"/>
+      <c r="M11" s="413"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="373"/>
+      <c r="B12" s="383"/>
+      <c r="C12" s="383"/>
+      <c r="D12" s="383"/>
+      <c r="E12" s="383"/>
+      <c r="F12" s="383"/>
+      <c r="G12" s="383"/>
+      <c r="H12" s="383"/>
+      <c r="I12" s="391"/>
+      <c r="J12" s="399"/>
+      <c r="K12" s="382"/>
+      <c r="L12" s="382"/>
+      <c r="M12" s="413"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="373"/>
+      <c r="B13" s="383"/>
+      <c r="C13" s="383"/>
+      <c r="D13" s="383"/>
+      <c r="E13" s="383"/>
+      <c r="F13" s="383"/>
+      <c r="G13" s="383"/>
+      <c r="H13" s="383"/>
+      <c r="I13" s="391"/>
+      <c r="J13" s="399"/>
+      <c r="K13" s="382"/>
+      <c r="L13" s="382"/>
+      <c r="M13" s="413"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="373"/>
+      <c r="B14" s="383"/>
+      <c r="C14" s="383"/>
+      <c r="D14" s="383"/>
+      <c r="E14" s="383"/>
+      <c r="F14" s="383"/>
+      <c r="G14" s="383"/>
+      <c r="H14" s="383"/>
+      <c r="I14" s="391"/>
+      <c r="J14" s="399"/>
+      <c r="K14" s="382"/>
+      <c r="L14" s="382"/>
+      <c r="M14" s="413"/>
+    </row>
+    <row r="15" spans="1:13" ht="17.250000">
+      <c r="A15" s="373"/>
+      <c r="B15" s="383"/>
+      <c r="C15" s="383"/>
+      <c r="D15" s="383"/>
+      <c r="E15" s="383"/>
+      <c r="F15" s="383"/>
+      <c r="G15" s="383"/>
+      <c r="H15" s="383"/>
+      <c r="I15" s="391"/>
+      <c r="J15" s="400"/>
+      <c r="K15" s="382"/>
+      <c r="L15" s="382"/>
+      <c r="M15" s="413"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="373"/>
+      <c r="B16" s="383"/>
+      <c r="C16" s="383"/>
+      <c r="D16" s="383"/>
+      <c r="E16" s="383"/>
+      <c r="F16" s="383"/>
+      <c r="G16" s="383"/>
+      <c r="H16" s="383"/>
+      <c r="I16" s="391"/>
+      <c r="J16" s="401" t="s">
+        <v>533</v>
+      </c>
+      <c r="K16" s="407"/>
+      <c r="L16" s="407"/>
+      <c r="M16" s="414"/>
+    </row>
+    <row r="17" spans="1:13" ht="17.250000">
+      <c r="A17" s="373"/>
+      <c r="B17" s="383"/>
+      <c r="C17" s="383"/>
+      <c r="D17" s="383"/>
+      <c r="E17" s="383"/>
+      <c r="F17" s="383"/>
+      <c r="G17" s="383"/>
+      <c r="H17" s="383"/>
+      <c r="I17" s="391"/>
+      <c r="J17" s="402"/>
+      <c r="K17" s="408"/>
+      <c r="L17" s="408"/>
+      <c r="M17" s="415"/>
+    </row>
+    <row r="18" spans="1:13" ht="17.250000">
+      <c r="A18" s="374"/>
+      <c r="B18" s="384"/>
+      <c r="C18" s="384"/>
+      <c r="D18" s="384"/>
+      <c r="E18" s="384"/>
+      <c r="F18" s="384"/>
+      <c r="G18" s="384"/>
+      <c r="H18" s="384"/>
+      <c r="I18" s="395"/>
+      <c r="J18" s="397" t="s">
+        <v>534</v>
+      </c>
+      <c r="K18" s="409" t="s">
+        <v>535</v>
+      </c>
+      <c r="L18" s="409"/>
+      <c r="M18" s="412"/>
+    </row>
+    <row r="19" spans="1:13" ht="17.250000">
+      <c r="A19" s="375" t="s">
+        <v>520</v>
+      </c>
+      <c r="B19" s="375"/>
+      <c r="C19" s="375"/>
+      <c r="D19" s="375"/>
+      <c r="E19" s="375"/>
+      <c r="F19" s="388" t="b">
+        <v>1</v>
+      </c>
+      <c r="G19" s="388"/>
+      <c r="H19" s="388" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" s="388"/>
+      <c r="J19" s="398"/>
+      <c r="K19" s="406"/>
+      <c r="L19" s="382"/>
+      <c r="M19" s="413"/>
+    </row>
+    <row r="20" spans="1:13" ht="17.250000">
+      <c r="A20" s="375"/>
+      <c r="B20" s="375"/>
+      <c r="C20" s="375"/>
+      <c r="D20" s="375"/>
+      <c r="E20" s="375"/>
+      <c r="F20" s="388"/>
+      <c r="G20" s="388"/>
+      <c r="H20" s="388"/>
+      <c r="I20" s="388"/>
+      <c r="J20" s="398"/>
+      <c r="K20" s="382"/>
+      <c r="L20" s="382"/>
+      <c r="M20" s="413"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="376" t="s">
+        <v>521</v>
+      </c>
+      <c r="B21" s="385"/>
+      <c r="C21" s="385"/>
+      <c r="D21" s="385"/>
+      <c r="E21" s="389"/>
+      <c r="F21" s="392"/>
+      <c r="G21" s="393"/>
+      <c r="H21" s="392"/>
+      <c r="I21" s="393"/>
+      <c r="J21" s="399"/>
+      <c r="K21" s="382"/>
+      <c r="L21" s="382"/>
+      <c r="M21" s="413"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="377"/>
+      <c r="B22" s="386"/>
+      <c r="C22" s="386"/>
+      <c r="D22" s="386"/>
+      <c r="E22" s="390"/>
+      <c r="F22" s="373"/>
+      <c r="G22" s="391"/>
+      <c r="H22" s="373"/>
+      <c r="I22" s="391"/>
+      <c r="J22" s="399"/>
+      <c r="K22" s="382"/>
+      <c r="L22" s="382"/>
+      <c r="M22" s="413"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="373"/>
+      <c r="B23" s="383"/>
+      <c r="C23" s="383"/>
+      <c r="D23" s="383"/>
+      <c r="E23" s="391"/>
+      <c r="F23" s="373"/>
+      <c r="G23" s="391"/>
+      <c r="H23" s="373"/>
+      <c r="I23" s="391"/>
+      <c r="J23" s="399"/>
+      <c r="K23" s="382"/>
+      <c r="L23" s="382"/>
+      <c r="M23" s="413"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="373"/>
+      <c r="B24" s="383"/>
+      <c r="C24" s="383"/>
+      <c r="D24" s="383"/>
+      <c r="E24" s="391"/>
+      <c r="F24" s="373"/>
+      <c r="G24" s="391"/>
+      <c r="H24" s="373"/>
+      <c r="I24" s="391"/>
+      <c r="J24" s="399"/>
+      <c r="K24" s="383"/>
+      <c r="L24" s="383"/>
+      <c r="M24" s="391"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="378"/>
+      <c r="B25" s="378"/>
+      <c r="C25" s="378"/>
+      <c r="D25" s="378"/>
+      <c r="E25" s="378"/>
+      <c r="F25" s="378"/>
+      <c r="G25" s="378"/>
+      <c r="H25" s="378"/>
+      <c r="I25" s="378"/>
+      <c r="J25" s="399"/>
+      <c r="K25" s="383"/>
+      <c r="L25" s="383"/>
+      <c r="M25" s="391"/>
+    </row>
+    <row r="26" spans="1:13" ht="17.250000">
+      <c r="A26" s="378"/>
+      <c r="B26" s="378"/>
+      <c r="C26" s="378"/>
+      <c r="D26" s="378"/>
+      <c r="E26" s="378"/>
+      <c r="F26" s="378"/>
+      <c r="G26" s="378"/>
+      <c r="H26" s="378"/>
+      <c r="I26" s="378"/>
+      <c r="J26" s="400"/>
+      <c r="K26" s="383"/>
+      <c r="L26" s="383"/>
+      <c r="M26" s="391"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="378"/>
+      <c r="B27" s="378"/>
+      <c r="C27" s="378"/>
+      <c r="D27" s="378"/>
+      <c r="E27" s="378"/>
+      <c r="F27" s="378"/>
+      <c r="G27" s="378"/>
+      <c r="H27" s="378"/>
+      <c r="I27" s="378"/>
+      <c r="J27" s="403"/>
+      <c r="K27" s="403"/>
+      <c r="L27" s="403"/>
+      <c r="M27" s="393"/>
+    </row>
+    <row r="28" spans="1:13" ht="17.250000">
+      <c r="A28" s="379"/>
+      <c r="B28" s="379"/>
+      <c r="C28" s="379"/>
+      <c r="D28" s="379"/>
+      <c r="E28" s="379"/>
+      <c r="F28" s="379"/>
+      <c r="G28" s="379"/>
+      <c r="H28" s="379"/>
+      <c r="I28" s="379"/>
+      <c r="J28" s="384"/>
+      <c r="K28" s="384"/>
+      <c r="L28" s="384"/>
+      <c r="M28" s="395"/>
+    </row>
+  </sheetData>
+  <mergeCells count="65">
+    <mergeCell ref="A1:C3"/>
+    <mergeCell ref="D1:I2"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="B9:I9"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="A10:I18"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="J16:M17"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="A19:E20"/>
+    <mergeCell ref="F19:G20"/>
+    <mergeCell ref="H19:I20"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="A21:E22"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="K25:M25"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="K26:M26"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:M28"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>

--- a/잡리스트 0514수정.xlsx
+++ b/잡리스트 0514수정.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="560" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="550" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="joblist" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="567">
   <si>
     <t>J O B L I S T</t>
   </si>
@@ -1665,6 +1665,73 @@
   </si>
   <si>
     <t>String pw</t>
+  </si>
+  <si>
+    <t>MainActivity에 메뉴에서 로그인 버튼을 클릭</t>
+  </si>
+  <si>
+    <t xml:space="preserve">로그인 버튼을 누르면 </t>
+  </si>
+  <si>
+    <t>로그인 버튼을 누르면 controller에 Activity와 Sting = "login"을 보내줌</t>
+  </si>
+  <si>
+    <t>로그인 버튼을 누르면 controller에 Activity와 Sting = "login"을 전달</t>
+  </si>
+  <si>
+    <t xml:space="preserve">받은 데이터가 login이기때문에 controller에서 </t>
+  </si>
+  <si>
+    <t>받은 데이터가 login이기때문에 controller에서 login Activity를 띄워줌</t>
+  </si>
+  <si>
+    <t>받은 데이터가 login이기때문에 controller에서 login Activity를 실행</t>
+  </si>
+  <si>
+    <t>MainActivity -&gt; login</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  최인수</t>
+  </si>
+  <si>
+    <t>String str</t>
+  </si>
+  <si>
+    <t>Login = 1 , logout = 0</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>메인화면 -&gt; 로그인</t>
+    </r>
+  </si>
+  <si>
+    <t>작성날자</t>
+  </si>
+  <si>
+    <t>파라메터</t>
+  </si>
+  <si>
+    <t>parameter</t>
+  </si>
+  <si>
+    <t>retrun</t>
+  </si>
+  <si>
+    <t>method</t>
+  </si>
+  <si>
+    <t>controller</t>
+  </si>
+  <si>
+    <t>특이사항</t>
+  </si>
+  <si>
+    <t>설명</t>
   </si>
 </sst>
 </file>
@@ -1801,11 +1868,6 @@
       <color theme="1"/>
     </font>
     <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <color theme="1"/>
-    </font>
-    <font>
       <sz val="15.0"/>
       <name val="맑은 고딕"/>
       <color theme="1"/>
@@ -1816,6 +1878,8 @@
       <color theme="1"/>
     </font>
     <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FF000000"/>
     </font>
     <font>
@@ -1848,6 +1912,11 @@
       <sz val="9.0"/>
       <name val="맑은 고딕"/>
       <color rgb="FFFFFFFF"/>
+    </font>
+    <font>
+      <sz val="28.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="1"/>
     </font>
   </fonts>
   <fills count="36">
@@ -2031,7 +2100,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="183">
+  <borders count="195">
     <border>
       <left/>
       <right/>
@@ -4417,6 +4486,130 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4567,7 +4760,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="416">
+  <cellXfs count="554">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5684,136 +5877,550 @@
     <xf numFmtId="0" fontId="22" fillId="35" borderId="178" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="174" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="80" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="168" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="174" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="178" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="80" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="179" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="180" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="170" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="35" borderId="178" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="74" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="178" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="80" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="167" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="179" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="180" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="170" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="181" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="174" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="182" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="169" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="178" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="179" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="179" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="180" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="74" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="168" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="80" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="169" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="170" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="181" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="167" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="75" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="171" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="80" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="167" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="80" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="167" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="178" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="178" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="174" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="170" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="170" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="181" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="178" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="174" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="170" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="181" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="80" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="182" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="167" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="74" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="75" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="168" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="169" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="171" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="168" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="169" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="171" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="35" borderId="178" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="75" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="167" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="167" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="74" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="75" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="181" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="171" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="174" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="182" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="179" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="179" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="180" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="74" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="168" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="170" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="74" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="80" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="169" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="170" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="181" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="75" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="167" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="75" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="171" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="180" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="169" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="171" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="179" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="167" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="80" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="178" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="178" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="74" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="75" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="168" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="169" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="171" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="168" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="174" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="170" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="181" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="170" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="181" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="170" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="178" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="178" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="183" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="183" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="183" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="183" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="183" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="183" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="183" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="183" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="184" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="185" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="185" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="185" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="185" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="185" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="185" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="173" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="162" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="186" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="123" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="186" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="186" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="186" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="186" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="187" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="188" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="188" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="115" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="124" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="189" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="189" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="189" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="189" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="189" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="189" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="93" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="189" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="189" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="124" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="153" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="124" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="153" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="162" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="124" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="153" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="162" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="153" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="163" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="163" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="153" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="190" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="190" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="74" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="65" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="167" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="171" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="116" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="117" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="118" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="108" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="122" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="142" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="163" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="108" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="119" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="120" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="119" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="108" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="120" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="122" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="191" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="162" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="140" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="163" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="192" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="193" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="169" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="194" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5873,322 +6480,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1" name="다이아몬드 1"/>
-        <xdr:cNvSpPr>
-          <a:spLocks/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3436620" y="2120265"/>
-          <a:ext cx="1676400" cy="1076325"/>
-        </a:xfrm>
-        <a:prstGeom prst="diamond"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" vertOverflow="clip">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:buFontTx/>
-            <a:buNone/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" cap="none" dirty="0" smtClean="0" b="0">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="맑은 고딕"/>
-              <a:ea typeface="맑은 고딕"/>
-            </a:rPr>
-            <a:t>String 
-=
- login</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" dirty="0" smtClean="0" cap="none" b="0">
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:latin typeface="맑은 고딕"/>
-            <a:ea typeface="맑은 고딕"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="직사각형 2"/>
-        <xdr:cNvSpPr>
-          <a:spLocks/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1112520" y="2091690"/>
-          <a:ext cx="1162050" cy="561975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="91440" anchor="ctr" vertOverflow="clip">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:buFontTx/>
-            <a:buNone/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" cap="none" dirty="0" smtClean="0" b="0">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-            </a:rPr>
-            <a:t>MainActivity</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" dirty="0" smtClean="0" cap="none" b="0">
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="오른쪽 화살표 3"/>
-        <xdr:cNvSpPr>
-          <a:spLocks/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2607945" y="2415540"/>
-          <a:ext cx="352425" cy="133350"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="직사각형 4"/>
-        <xdr:cNvSpPr>
-          <a:spLocks/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1102995" y="2748915"/>
-          <a:ext cx="1181100" cy="561975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" vertOverflow="clip">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:buFontTx/>
-            <a:buNone/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" cap="none" dirty="0" smtClean="0" b="0">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="맑은 고딕"/>
-              <a:ea typeface="맑은 고딕"/>
-            </a:rPr>
-            <a:t> login</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" dirty="0" smtClean="0" cap="none" b="0">
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:latin typeface="맑은 고딕"/>
-            <a:ea typeface="맑은 고딕"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="오른쪽 화살표 5"/>
-        <xdr:cNvSpPr>
-          <a:spLocks/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="2588895" y="2815590"/>
-          <a:ext cx="352425" cy="133350"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
@@ -6211,7 +6502,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5332095" y="2329815"/>
+          <a:off x="5427345" y="2491740"/>
           <a:ext cx="190500" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -6242,7 +6533,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4960620" y="2329815"/>
+          <a:off x="5055870" y="2491740"/>
           <a:ext cx="1219200" cy="590550"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -6302,8 +6593,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3427095" y="3177540"/>
-          <a:ext cx="714375" cy="447675"/>
+          <a:off x="3522345" y="3329940"/>
+          <a:ext cx="714375" cy="438150"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
         <a:noFill/>
@@ -6338,6 +6629,129 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="도형 23"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1760220" y="1691640"/>
+          <a:ext cx="1200150" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="89535" tIns="46355" rIns="89535" bIns="46355" anchor="ctr" vertOverflow="clip">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:buFontTx/>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" cap="none" dirty="0" smtClean="0" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="맑은 고딕"/>
+              <a:ea typeface="맑은 고딕"/>
+            </a:rPr>
+            <a:t>Main Activity</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" dirty="0" smtClean="0" cap="none" b="0">
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:latin typeface="맑은 고딕"/>
+            <a:ea typeface="맑은 고딕"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="도형 24"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3084195" y="1891665"/>
+          <a:ext cx="400050" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1"/>
+        <a:ln w="12700" cap="flat" cmpd="sng">
+          <a:prstDash/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -6795,24 +7209,6 @@
           <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="t" vertOverflow="clip">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:p>
-          <a:pPr algn="l">
-            <a:buFontTx/>
-            <a:buNone/>
-          </a:pPr>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" dirty="0" smtClean="0" cap="none" b="0">
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:latin typeface="맑은 고딕"/>
-            <a:ea typeface="맑은 고딕"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
@@ -6859,24 +7255,6 @@
           <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="t" vertOverflow="clip">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:p>
-          <a:pPr algn="l">
-            <a:buFontTx/>
-            <a:buNone/>
-          </a:pPr>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" dirty="0" smtClean="0" cap="none" b="0">
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:latin typeface="맑은 고딕"/>
-            <a:ea typeface="맑은 고딕"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
@@ -6975,7 +7353,7 @@
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm rot="21600000" flipV="1">
+        <a:xfrm flipV="1">
           <a:off x="3198495" y="3301365"/>
           <a:ext cx="409575" cy="161925"/>
         </a:xfrm>
@@ -6997,24 +7375,6 @@
           <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="t" vertOverflow="clip">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:p>
-          <a:pPr algn="l">
-            <a:buFontTx/>
-            <a:buNone/>
-          </a:pPr>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" dirty="0" smtClean="0" cap="none" b="0">
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:latin typeface="맑은 고딕"/>
-            <a:ea typeface="맑은 고딕"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
@@ -9772,486 +10132,1203 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:T32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:R28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.500000"/>
+  <cols>
+    <col min="2" max="2" width="10.25500011" customWidth="1" outlineLevel="0"/>
+    <col min="18" max="18" width="11.63000011" customWidth="1" outlineLevel="0"/>
+    <col min="19" max="19" width="20.50499916" customWidth="1" outlineLevel="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20">
+      <c r="A1" s="529">
+        <v>1</v>
+      </c>
+      <c r="B1" s="361"/>
+      <c r="C1" s="530" t="s">
+        <v>558</v>
+      </c>
+      <c r="D1" s="361"/>
+      <c r="E1" s="361"/>
+      <c r="F1" s="361"/>
+      <c r="G1" s="361"/>
+      <c r="H1" s="361"/>
+      <c r="I1" s="361"/>
+      <c r="J1" s="361"/>
+      <c r="K1" s="361"/>
+      <c r="L1" s="361"/>
+      <c r="M1" s="361"/>
+      <c r="N1" s="361"/>
+      <c r="O1" s="361"/>
+      <c r="P1" s="361"/>
+      <c r="Q1" s="361"/>
+      <c r="R1" s="531" t="s">
+        <v>529</v>
+      </c>
+      <c r="S1" s="52"/>
+      <c r="T1" s="50"/>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" s="266"/>
+      <c r="B2" s="259"/>
+      <c r="C2" s="259"/>
+      <c r="D2" s="259"/>
+      <c r="E2" s="259"/>
+      <c r="F2" s="259"/>
+      <c r="G2" s="259"/>
+      <c r="H2" s="259"/>
+      <c r="I2" s="259"/>
+      <c r="J2" s="259"/>
+      <c r="K2" s="259"/>
+      <c r="L2" s="259"/>
+      <c r="M2" s="259"/>
+      <c r="N2" s="259"/>
+      <c r="O2" s="259"/>
+      <c r="P2" s="259"/>
+      <c r="Q2" s="259"/>
+      <c r="R2" s="532"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="50"/>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" s="266"/>
+      <c r="B3" s="259"/>
+      <c r="C3" s="259"/>
+      <c r="D3" s="259"/>
+      <c r="E3" s="259"/>
+      <c r="F3" s="259"/>
+      <c r="G3" s="259"/>
+      <c r="H3" s="259"/>
+      <c r="I3" s="259"/>
+      <c r="J3" s="259"/>
+      <c r="K3" s="259"/>
+      <c r="L3" s="259"/>
+      <c r="M3" s="259"/>
+      <c r="N3" s="259"/>
+      <c r="O3" s="259"/>
+      <c r="P3" s="259"/>
+      <c r="Q3" s="259"/>
+      <c r="R3" s="532" t="s">
+        <v>530</v>
+      </c>
+      <c r="S3" s="52"/>
+      <c r="T3" s="50"/>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" s="343"/>
+      <c r="B4" s="241"/>
+      <c r="C4" s="552" t="s">
+        <v>566</v>
+      </c>
+      <c r="D4" s="537"/>
+      <c r="E4" s="552"/>
+      <c r="F4" s="553"/>
+      <c r="G4" s="553"/>
+      <c r="H4" s="553"/>
+      <c r="I4" s="553"/>
+      <c r="J4" s="553"/>
+      <c r="K4" s="553"/>
+      <c r="L4" s="553"/>
+      <c r="M4" s="553"/>
+      <c r="N4" s="553"/>
+      <c r="O4" s="553"/>
+      <c r="P4" s="553"/>
+      <c r="Q4" s="537"/>
+      <c r="R4" s="532"/>
+      <c r="S4" s="52"/>
+      <c r="T4" s="50"/>
+    </row>
+    <row r="5" spans="1:20" ht="24.000000" customHeight="1">
+      <c r="A5" s="343" t="s">
+        <v>561</v>
+      </c>
+      <c r="B5" s="241"/>
+      <c r="C5" s="241"/>
+      <c r="D5" s="241"/>
+      <c r="E5" s="241"/>
+      <c r="F5" s="241"/>
+      <c r="G5" s="241"/>
+      <c r="H5" s="241"/>
+      <c r="I5" s="241" t="s">
+        <v>562</v>
+      </c>
+      <c r="J5" s="241"/>
+      <c r="K5" s="259"/>
+      <c r="L5" s="259"/>
+      <c r="M5" s="259"/>
+      <c r="N5" s="259"/>
+      <c r="O5" s="259"/>
+      <c r="P5" s="241"/>
+      <c r="Q5" s="241"/>
+      <c r="R5" s="538"/>
+    </row>
+    <row r="6" spans="1:20" ht="24.750000" customHeight="1">
+      <c r="A6" s="343" t="s">
+        <v>563</v>
+      </c>
+      <c r="B6" s="241"/>
+      <c r="C6" s="241"/>
+      <c r="D6" s="241"/>
+      <c r="E6" s="241"/>
+      <c r="F6" s="241"/>
+      <c r="G6" s="241"/>
+      <c r="H6" s="241"/>
+      <c r="I6" s="241" t="s">
+        <v>564</v>
+      </c>
+      <c r="J6" s="241"/>
+      <c r="K6" s="241"/>
+      <c r="L6" s="241"/>
+      <c r="M6" s="241"/>
+      <c r="N6" s="241"/>
+      <c r="O6" s="241"/>
+      <c r="P6" s="241"/>
+      <c r="Q6" s="241"/>
+      <c r="R6" s="538"/>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" s="266" t="s">
+        <v>519</v>
+      </c>
+      <c r="B7" s="259"/>
+      <c r="C7" s="241"/>
+      <c r="D7" s="241"/>
+      <c r="E7" s="241"/>
+      <c r="F7" s="241"/>
+      <c r="G7" s="241"/>
+      <c r="H7" s="241"/>
+      <c r="I7" s="241"/>
+      <c r="J7" s="241"/>
+      <c r="K7" s="241"/>
+      <c r="L7" s="241"/>
+      <c r="M7" s="241"/>
+      <c r="N7" s="241"/>
+      <c r="O7" s="241"/>
+      <c r="P7" s="241"/>
+      <c r="Q7" s="241"/>
+      <c r="R7" s="246"/>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" s="266"/>
+      <c r="B8" s="259"/>
+      <c r="C8" s="241"/>
+      <c r="D8" s="241"/>
+      <c r="E8" s="241"/>
+      <c r="F8" s="241"/>
+      <c r="G8" s="241"/>
+      <c r="H8" s="241"/>
+      <c r="I8" s="241"/>
+      <c r="J8" s="241"/>
+      <c r="K8" s="241"/>
+      <c r="L8" s="241"/>
+      <c r="M8" s="241"/>
+      <c r="N8" s="241"/>
+      <c r="O8" s="241"/>
+      <c r="P8" s="241"/>
+      <c r="Q8" s="241"/>
+      <c r="R8" s="246"/>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="266"/>
+      <c r="B9" s="259"/>
+      <c r="C9" s="241"/>
+      <c r="D9" s="241"/>
+      <c r="E9" s="241"/>
+      <c r="F9" s="241"/>
+      <c r="G9" s="241"/>
+      <c r="H9" s="241"/>
+      <c r="I9" s="241"/>
+      <c r="J9" s="241"/>
+      <c r="K9" s="241"/>
+      <c r="L9" s="241"/>
+      <c r="M9" s="241"/>
+      <c r="N9" s="241"/>
+      <c r="O9" s="241"/>
+      <c r="P9" s="241"/>
+      <c r="Q9" s="241"/>
+      <c r="R9" s="246"/>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="266"/>
+      <c r="B10" s="259"/>
+      <c r="C10" s="241"/>
+      <c r="D10" s="241"/>
+      <c r="E10" s="241"/>
+      <c r="F10" s="241"/>
+      <c r="G10" s="241"/>
+      <c r="H10" s="241"/>
+      <c r="I10" s="241"/>
+      <c r="J10" s="241"/>
+      <c r="K10" s="241"/>
+      <c r="L10" s="241"/>
+      <c r="M10" s="241"/>
+      <c r="N10" s="241"/>
+      <c r="O10" s="241"/>
+      <c r="P10" s="241"/>
+      <c r="Q10" s="241"/>
+      <c r="R10" s="246"/>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="266"/>
+      <c r="B11" s="259"/>
+      <c r="C11" s="241"/>
+      <c r="D11" s="241"/>
+      <c r="E11" s="241"/>
+      <c r="F11" s="241"/>
+      <c r="G11" s="241"/>
+      <c r="H11" s="241"/>
+      <c r="I11" s="241"/>
+      <c r="J11" s="241"/>
+      <c r="K11" s="241"/>
+      <c r="L11" s="241"/>
+      <c r="M11" s="241"/>
+      <c r="N11" s="241"/>
+      <c r="O11" s="241"/>
+      <c r="P11" s="241"/>
+      <c r="Q11" s="241"/>
+      <c r="R11" s="246"/>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" s="266"/>
+      <c r="B12" s="259"/>
+      <c r="C12" s="241"/>
+      <c r="D12" s="241"/>
+      <c r="E12" s="241"/>
+      <c r="F12" s="241"/>
+      <c r="G12" s="241"/>
+      <c r="H12" s="241"/>
+      <c r="I12" s="241"/>
+      <c r="J12" s="241"/>
+      <c r="K12" s="241"/>
+      <c r="L12" s="241"/>
+      <c r="M12" s="241"/>
+      <c r="N12" s="241"/>
+      <c r="O12" s="241"/>
+      <c r="P12" s="241"/>
+      <c r="Q12" s="241"/>
+      <c r="R12" s="246"/>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" s="266"/>
+      <c r="B13" s="259"/>
+      <c r="C13" s="241"/>
+      <c r="D13" s="241"/>
+      <c r="E13" s="241"/>
+      <c r="F13" s="241"/>
+      <c r="G13" s="241"/>
+      <c r="H13" s="241"/>
+      <c r="I13" s="241"/>
+      <c r="J13" s="241"/>
+      <c r="K13" s="241"/>
+      <c r="L13" s="241"/>
+      <c r="M13" s="241"/>
+      <c r="N13" s="241"/>
+      <c r="O13" s="241"/>
+      <c r="P13" s="241"/>
+      <c r="Q13" s="241"/>
+      <c r="R13" s="246"/>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" s="266"/>
+      <c r="B14" s="259"/>
+      <c r="C14" s="241"/>
+      <c r="D14" s="241"/>
+      <c r="E14" s="241"/>
+      <c r="F14" s="241"/>
+      <c r="G14" s="241"/>
+      <c r="H14" s="241"/>
+      <c r="I14" s="241"/>
+      <c r="J14" s="241"/>
+      <c r="K14" s="241"/>
+      <c r="L14" s="241"/>
+      <c r="M14" s="241"/>
+      <c r="N14" s="241"/>
+      <c r="O14" s="241"/>
+      <c r="P14" s="241"/>
+      <c r="Q14" s="241"/>
+      <c r="R14" s="246"/>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" s="266"/>
+      <c r="B15" s="259"/>
+      <c r="C15" s="241"/>
+      <c r="D15" s="241"/>
+      <c r="E15" s="241"/>
+      <c r="F15" s="241"/>
+      <c r="G15" s="241"/>
+      <c r="H15" s="241"/>
+      <c r="I15" s="241"/>
+      <c r="J15" s="241"/>
+      <c r="K15" s="241"/>
+      <c r="L15" s="241"/>
+      <c r="M15" s="241"/>
+      <c r="N15" s="241"/>
+      <c r="O15" s="241"/>
+      <c r="P15" s="241"/>
+      <c r="Q15" s="241"/>
+      <c r="R15" s="246"/>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" s="266"/>
+      <c r="B16" s="259"/>
+      <c r="C16" s="241"/>
+      <c r="D16" s="241"/>
+      <c r="E16" s="241"/>
+      <c r="F16" s="241"/>
+      <c r="G16" s="241"/>
+      <c r="H16" s="241"/>
+      <c r="I16" s="241"/>
+      <c r="J16" s="241"/>
+      <c r="K16" s="241"/>
+      <c r="L16" s="241"/>
+      <c r="M16" s="241"/>
+      <c r="N16" s="241"/>
+      <c r="O16" s="241"/>
+      <c r="P16" s="241"/>
+      <c r="Q16" s="241"/>
+      <c r="R16" s="246"/>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17" s="266"/>
+      <c r="B17" s="259"/>
+      <c r="C17" s="241"/>
+      <c r="D17" s="241"/>
+      <c r="E17" s="241"/>
+      <c r="F17" s="241"/>
+      <c r="G17" s="241"/>
+      <c r="H17" s="241"/>
+      <c r="I17" s="241"/>
+      <c r="J17" s="241"/>
+      <c r="K17" s="241"/>
+      <c r="L17" s="241"/>
+      <c r="M17" s="241"/>
+      <c r="N17" s="241"/>
+      <c r="O17" s="241"/>
+      <c r="P17" s="241"/>
+      <c r="Q17" s="241"/>
+      <c r="R17" s="246"/>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18" s="266"/>
+      <c r="B18" s="259"/>
+      <c r="C18" s="241"/>
+      <c r="D18" s="241"/>
+      <c r="E18" s="241"/>
+      <c r="F18" s="241"/>
+      <c r="G18" s="241"/>
+      <c r="H18" s="241"/>
+      <c r="I18" s="241"/>
+      <c r="J18" s="241"/>
+      <c r="K18" s="241"/>
+      <c r="L18" s="241"/>
+      <c r="M18" s="241"/>
+      <c r="N18" s="241"/>
+      <c r="O18" s="241"/>
+      <c r="P18" s="241"/>
+      <c r="Q18" s="241"/>
+      <c r="R18" s="246"/>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19" s="266"/>
+      <c r="B19" s="259"/>
+      <c r="C19" s="241"/>
+      <c r="D19" s="241"/>
+      <c r="E19" s="241"/>
+      <c r="F19" s="241"/>
+      <c r="G19" s="241"/>
+      <c r="H19" s="241"/>
+      <c r="I19" s="241"/>
+      <c r="J19" s="241"/>
+      <c r="K19" s="241"/>
+      <c r="L19" s="241"/>
+      <c r="M19" s="241"/>
+      <c r="N19" s="241"/>
+      <c r="O19" s="241"/>
+      <c r="P19" s="241"/>
+      <c r="Q19" s="241"/>
+      <c r="R19" s="246"/>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20" s="266"/>
+      <c r="B20" s="259"/>
+      <c r="C20" s="241"/>
+      <c r="D20" s="241"/>
+      <c r="E20" s="241"/>
+      <c r="F20" s="241"/>
+      <c r="G20" s="241"/>
+      <c r="H20" s="241"/>
+      <c r="I20" s="241"/>
+      <c r="J20" s="241"/>
+      <c r="K20" s="241"/>
+      <c r="L20" s="241"/>
+      <c r="M20" s="241"/>
+      <c r="N20" s="241"/>
+      <c r="O20" s="241"/>
+      <c r="P20" s="241"/>
+      <c r="Q20" s="241"/>
+      <c r="R20" s="246"/>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21" s="266"/>
+      <c r="B21" s="259"/>
+      <c r="C21" s="241"/>
+      <c r="D21" s="241"/>
+      <c r="E21" s="241"/>
+      <c r="F21" s="241"/>
+      <c r="G21" s="241"/>
+      <c r="H21" s="241"/>
+      <c r="I21" s="241"/>
+      <c r="J21" s="241"/>
+      <c r="K21" s="241"/>
+      <c r="L21" s="241"/>
+      <c r="M21" s="241"/>
+      <c r="N21" s="241"/>
+      <c r="O21" s="241"/>
+      <c r="P21" s="241"/>
+      <c r="Q21" s="241"/>
+      <c r="R21" s="246"/>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22" s="343"/>
+      <c r="B22" s="241"/>
+      <c r="C22" s="241"/>
+      <c r="D22" s="241"/>
+      <c r="E22" s="241"/>
+      <c r="F22" s="241"/>
+      <c r="G22" s="241"/>
+      <c r="H22" s="241"/>
+      <c r="I22" s="241"/>
+      <c r="J22" s="241"/>
+      <c r="K22" s="241"/>
+      <c r="L22" s="241"/>
+      <c r="M22" s="241"/>
+      <c r="N22" s="241"/>
+      <c r="O22" s="241"/>
+      <c r="P22" s="241"/>
+      <c r="Q22" s="241"/>
+      <c r="R22" s="246"/>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23" s="343"/>
+      <c r="B23" s="241"/>
+      <c r="C23" s="241"/>
+      <c r="D23" s="241"/>
+      <c r="E23" s="241"/>
+      <c r="F23" s="241"/>
+      <c r="G23" s="241"/>
+      <c r="H23" s="241"/>
+      <c r="I23" s="241"/>
+      <c r="J23" s="241"/>
+      <c r="K23" s="241"/>
+      <c r="L23" s="241"/>
+      <c r="M23" s="241"/>
+      <c r="N23" s="241"/>
+      <c r="O23" s="241"/>
+      <c r="P23" s="241"/>
+      <c r="Q23" s="241"/>
+      <c r="R23" s="246"/>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24" s="343"/>
+      <c r="B24" s="241"/>
+      <c r="C24" s="241"/>
+      <c r="D24" s="241"/>
+      <c r="E24" s="241"/>
+      <c r="F24" s="241"/>
+      <c r="G24" s="241"/>
+      <c r="H24" s="241"/>
+      <c r="I24" s="241"/>
+      <c r="J24" s="241"/>
+      <c r="K24" s="241"/>
+      <c r="L24" s="241"/>
+      <c r="M24" s="241"/>
+      <c r="N24" s="241"/>
+      <c r="O24" s="241"/>
+      <c r="P24" s="241"/>
+      <c r="Q24" s="241"/>
+      <c r="R24" s="246"/>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="A25" s="343"/>
+      <c r="B25" s="241"/>
+      <c r="C25" s="241"/>
+      <c r="D25" s="241"/>
+      <c r="E25" s="241"/>
+      <c r="F25" s="241"/>
+      <c r="G25" s="241"/>
+      <c r="H25" s="241"/>
+      <c r="I25" s="241"/>
+      <c r="J25" s="241"/>
+      <c r="K25" s="241"/>
+      <c r="L25" s="241"/>
+      <c r="M25" s="241"/>
+      <c r="N25" s="241"/>
+      <c r="O25" s="241"/>
+      <c r="P25" s="241"/>
+      <c r="Q25" s="241"/>
+      <c r="R25" s="246"/>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="A26" s="343"/>
+      <c r="B26" s="241"/>
+      <c r="C26" s="241"/>
+      <c r="D26" s="241"/>
+      <c r="E26" s="241"/>
+      <c r="F26" s="241"/>
+      <c r="G26" s="241"/>
+      <c r="H26" s="241"/>
+      <c r="I26" s="241"/>
+      <c r="J26" s="241"/>
+      <c r="K26" s="241"/>
+      <c r="L26" s="241"/>
+      <c r="M26" s="241"/>
+      <c r="N26" s="241"/>
+      <c r="O26" s="241"/>
+      <c r="P26" s="241"/>
+      <c r="Q26" s="241"/>
+      <c r="R26" s="246"/>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="A27" s="343"/>
+      <c r="B27" s="241"/>
+      <c r="C27" s="241"/>
+      <c r="D27" s="241"/>
+      <c r="E27" s="241"/>
+      <c r="F27" s="241"/>
+      <c r="G27" s="241"/>
+      <c r="H27" s="241"/>
+      <c r="I27" s="241"/>
+      <c r="J27" s="241"/>
+      <c r="K27" s="241"/>
+      <c r="L27" s="241"/>
+      <c r="M27" s="241"/>
+      <c r="N27" s="241"/>
+      <c r="O27" s="241"/>
+      <c r="P27" s="241"/>
+      <c r="Q27" s="241"/>
+      <c r="R27" s="246"/>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="A28" s="343"/>
+      <c r="B28" s="241"/>
+      <c r="C28" s="241"/>
+      <c r="D28" s="241"/>
+      <c r="E28" s="241"/>
+      <c r="F28" s="241"/>
+      <c r="G28" s="241"/>
+      <c r="H28" s="241"/>
+      <c r="I28" s="241"/>
+      <c r="J28" s="241"/>
+      <c r="K28" s="241"/>
+      <c r="L28" s="241"/>
+      <c r="M28" s="241"/>
+      <c r="N28" s="241"/>
+      <c r="O28" s="241"/>
+      <c r="P28" s="241"/>
+      <c r="Q28" s="241"/>
+      <c r="R28" s="246"/>
+    </row>
+    <row r="29" spans="1:18">
+      <c r="A29" s="545" t="s">
+        <v>565</v>
+      </c>
+      <c r="B29" s="546"/>
+      <c r="C29" s="548"/>
+      <c r="D29" s="359"/>
+      <c r="E29" s="359"/>
+      <c r="F29" s="359"/>
+      <c r="G29" s="359"/>
+      <c r="H29" s="359"/>
+      <c r="I29" s="359"/>
+      <c r="J29" s="359"/>
+      <c r="K29" s="359"/>
+      <c r="L29" s="359"/>
+      <c r="M29" s="359"/>
+      <c r="N29" s="359"/>
+      <c r="O29" s="359"/>
+      <c r="P29" s="359"/>
+      <c r="Q29" s="359"/>
+      <c r="R29" s="549"/>
+    </row>
+    <row r="30" spans="1:18">
+      <c r="A30" s="187"/>
+      <c r="B30" s="253"/>
+      <c r="C30" s="523"/>
+      <c r="D30" s="52"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="52"/>
+      <c r="J30" s="52"/>
+      <c r="K30" s="52"/>
+      <c r="L30" s="52"/>
+      <c r="M30" s="52"/>
+      <c r="N30" s="52"/>
+      <c r="O30" s="52"/>
+      <c r="P30" s="52"/>
+      <c r="Q30" s="52"/>
+      <c r="R30" s="527"/>
+    </row>
+    <row r="31" spans="1:18">
+      <c r="A31" s="187"/>
+      <c r="B31" s="253"/>
+      <c r="C31" s="523"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="52"/>
+      <c r="I31" s="52"/>
+      <c r="J31" s="52"/>
+      <c r="K31" s="52"/>
+      <c r="L31" s="52"/>
+      <c r="M31" s="52"/>
+      <c r="N31" s="52"/>
+      <c r="O31" s="52"/>
+      <c r="P31" s="52"/>
+      <c r="Q31" s="52"/>
+      <c r="R31" s="527"/>
+    </row>
+    <row r="32" spans="1:18" ht="17.250000">
+      <c r="A32" s="370"/>
+      <c r="B32" s="547"/>
+      <c r="C32" s="550"/>
+      <c r="D32" s="551"/>
+      <c r="E32" s="551"/>
+      <c r="F32" s="551"/>
+      <c r="G32" s="551"/>
+      <c r="H32" s="551"/>
+      <c r="I32" s="551"/>
+      <c r="J32" s="551"/>
+      <c r="K32" s="551"/>
+      <c r="L32" s="551"/>
+      <c r="M32" s="551"/>
+      <c r="N32" s="551"/>
+      <c r="O32" s="551"/>
+      <c r="P32" s="551"/>
+      <c r="Q32" s="551"/>
+      <c r="R32" s="528"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="A1:B4"/>
+    <mergeCell ref="C1:Q3"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:Q4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:Q6"/>
+    <mergeCell ref="A7:B28"/>
+    <mergeCell ref="C7:R28"/>
+    <mergeCell ref="A29:B32"/>
+    <mergeCell ref="C29:R32"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:M28"/>
+      <selection activeCell="A27" sqref="A27:E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
   <sheetData>
     <row r="1" spans="1:13" ht="17.250000">
       <c r="A1" s="371" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="B1" s="371"/>
       <c r="C1" s="371"/>
-      <c r="D1" s="387" t="s">
+      <c r="D1" s="382" t="s">
         <v>527</v>
       </c>
-      <c r="E1" s="387"/>
-      <c r="F1" s="387"/>
-      <c r="G1" s="387"/>
-      <c r="H1" s="387"/>
-      <c r="I1" s="387"/>
-      <c r="J1" s="396" t="s">
+      <c r="E1" s="382"/>
+      <c r="F1" s="382"/>
+      <c r="G1" s="382"/>
+      <c r="H1" s="382"/>
+      <c r="I1" s="382"/>
+      <c r="J1" s="387" t="s">
         <v>529</v>
       </c>
-      <c r="K1" s="404"/>
-      <c r="L1" s="410">
+      <c r="K1" s="353"/>
+      <c r="L1" s="399">
         <v>42312</v>
       </c>
-      <c r="M1" s="411"/>
+      <c r="M1" s="400"/>
     </row>
     <row r="2" spans="1:13" ht="17.250000">
       <c r="A2" s="371"/>
       <c r="B2" s="371"/>
       <c r="C2" s="371"/>
-      <c r="D2" s="387"/>
-      <c r="E2" s="387"/>
-      <c r="F2" s="387"/>
-      <c r="G2" s="387"/>
-      <c r="H2" s="387"/>
-      <c r="I2" s="387"/>
-      <c r="J2" s="396" t="s">
+      <c r="D2" s="382"/>
+      <c r="E2" s="382"/>
+      <c r="F2" s="382"/>
+      <c r="G2" s="382"/>
+      <c r="H2" s="382"/>
+      <c r="I2" s="382"/>
+      <c r="J2" s="387" t="s">
         <v>530</v>
       </c>
-      <c r="K2" s="404"/>
-      <c r="L2" s="410">
+      <c r="K2" s="353"/>
+      <c r="L2" s="399">
         <v>42315</v>
       </c>
-      <c r="M2" s="411"/>
+      <c r="M2" s="400"/>
     </row>
     <row r="3" spans="1:13" ht="17.250000">
       <c r="A3" s="371"/>
       <c r="B3" s="371"/>
       <c r="C3" s="371"/>
-      <c r="D3" s="388" t="s">
+      <c r="D3" s="383" t="s">
         <v>528</v>
       </c>
-      <c r="E3" s="388"/>
-      <c r="F3" s="388"/>
-      <c r="G3" s="388"/>
-      <c r="H3" s="388"/>
-      <c r="I3" s="388"/>
-      <c r="J3" s="396" t="s">
+      <c r="E3" s="383"/>
+      <c r="F3" s="383"/>
+      <c r="G3" s="383"/>
+      <c r="H3" s="383"/>
+      <c r="I3" s="383"/>
+      <c r="J3" s="387" t="s">
         <v>531</v>
       </c>
-      <c r="K3" s="404"/>
-      <c r="L3" s="404" t="s">
+      <c r="K3" s="353"/>
+      <c r="L3" s="353" t="s">
         <v>536</v>
       </c>
-      <c r="M3" s="411"/>
+      <c r="M3" s="400"/>
     </row>
     <row r="4" spans="1:13" ht="17.250000">
       <c r="A4" s="372" t="s">
         <v>519</v>
       </c>
-      <c r="B4" s="380"/>
-      <c r="C4" s="380"/>
-      <c r="D4" s="380"/>
-      <c r="E4" s="380"/>
-      <c r="F4" s="380"/>
-      <c r="G4" s="380"/>
-      <c r="H4" s="380"/>
-      <c r="I4" s="394"/>
+      <c r="B4" s="378"/>
+      <c r="C4" s="378"/>
+      <c r="D4" s="378"/>
+      <c r="E4" s="378"/>
+      <c r="F4" s="378"/>
+      <c r="G4" s="378"/>
+      <c r="H4" s="378"/>
+      <c r="I4" s="386"/>
       <c r="J4" s="372" t="s">
         <v>532</v>
       </c>
-      <c r="K4" s="380"/>
-      <c r="L4" s="380"/>
-      <c r="M4" s="394"/>
+      <c r="K4" s="378"/>
+      <c r="L4" s="378"/>
+      <c r="M4" s="386"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="373">
+      <c r="A5" s="349">
         <v>1</v>
       </c>
-      <c r="B5" s="381"/>
-      <c r="C5" s="382"/>
-      <c r="D5" s="382"/>
-      <c r="E5" s="382"/>
-      <c r="F5" s="382"/>
-      <c r="G5" s="382"/>
-      <c r="H5" s="382"/>
-      <c r="I5" s="382"/>
-      <c r="J5" s="397"/>
-      <c r="K5" s="405" t="s">
-        <v>420</v>
-      </c>
-      <c r="L5" s="409"/>
-      <c r="M5" s="412"/>
+      <c r="B5" s="379"/>
+      <c r="C5" s="380"/>
+      <c r="D5" s="380"/>
+      <c r="E5" s="380"/>
+      <c r="F5" s="380"/>
+      <c r="G5" s="380"/>
+      <c r="H5" s="380"/>
+      <c r="I5" s="380"/>
+      <c r="J5" s="388"/>
+      <c r="K5" s="394" t="s">
+        <v>544</v>
+      </c>
+      <c r="L5" s="398"/>
+      <c r="M5" s="401"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="373">
+      <c r="A6" s="349">
         <v>2</v>
       </c>
-      <c r="B6" s="381"/>
-      <c r="C6" s="382"/>
-      <c r="D6" s="382"/>
-      <c r="E6" s="382"/>
-      <c r="F6" s="382"/>
-      <c r="G6" s="382"/>
-      <c r="H6" s="382"/>
-      <c r="I6" s="382"/>
-      <c r="J6" s="398"/>
-      <c r="K6" s="406" t="s">
-        <v>539</v>
-      </c>
-      <c r="L6" s="382"/>
-      <c r="M6" s="413"/>
+      <c r="B6" s="379"/>
+      <c r="C6" s="380"/>
+      <c r="D6" s="380"/>
+      <c r="E6" s="380"/>
+      <c r="F6" s="380"/>
+      <c r="G6" s="380"/>
+      <c r="H6" s="380"/>
+      <c r="I6" s="380"/>
+      <c r="J6" s="389"/>
+      <c r="K6" s="395" t="s">
+        <v>543</v>
+      </c>
+      <c r="L6" s="380"/>
+      <c r="M6" s="402"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="373">
+      <c r="A7" s="349">
         <v>3</v>
       </c>
-      <c r="B7" s="382"/>
-      <c r="C7" s="382"/>
-      <c r="D7" s="382"/>
-      <c r="E7" s="382"/>
-      <c r="F7" s="382"/>
-      <c r="G7" s="382"/>
-      <c r="H7" s="382"/>
-      <c r="I7" s="382"/>
-      <c r="J7" s="398"/>
-      <c r="K7" s="406"/>
-      <c r="L7" s="382"/>
-      <c r="M7" s="413"/>
+      <c r="B7" s="380"/>
+      <c r="C7" s="380"/>
+      <c r="D7" s="380"/>
+      <c r="E7" s="380"/>
+      <c r="F7" s="380"/>
+      <c r="G7" s="380"/>
+      <c r="H7" s="380"/>
+      <c r="I7" s="380"/>
+      <c r="J7" s="389"/>
+      <c r="K7" s="395" t="s">
+        <v>545</v>
+      </c>
+      <c r="L7" s="380"/>
+      <c r="M7" s="402"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="373">
+      <c r="A8" s="349">
         <v>4</v>
       </c>
-      <c r="B8" s="381"/>
-      <c r="C8" s="382"/>
-      <c r="D8" s="382"/>
-      <c r="E8" s="382"/>
-      <c r="F8" s="382"/>
-      <c r="G8" s="382"/>
-      <c r="H8" s="382"/>
-      <c r="I8" s="382"/>
-      <c r="J8" s="398"/>
-      <c r="K8" s="406"/>
-      <c r="L8" s="382"/>
-      <c r="M8" s="413"/>
+      <c r="B8" s="379"/>
+      <c r="C8" s="380"/>
+      <c r="D8" s="380"/>
+      <c r="E8" s="380"/>
+      <c r="F8" s="380"/>
+      <c r="G8" s="380"/>
+      <c r="H8" s="380"/>
+      <c r="I8" s="380"/>
+      <c r="J8" s="389"/>
+      <c r="K8" s="395" t="s">
+        <v>546</v>
+      </c>
+      <c r="L8" s="380"/>
+      <c r="M8" s="402"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="373">
+      <c r="A9" s="349">
         <v>5</v>
       </c>
-      <c r="B9" s="381"/>
-      <c r="C9" s="382"/>
-      <c r="D9" s="382"/>
-      <c r="E9" s="382"/>
-      <c r="F9" s="382"/>
-      <c r="G9" s="382"/>
-      <c r="H9" s="382"/>
-      <c r="I9" s="382"/>
-      <c r="J9" s="398"/>
-      <c r="K9" s="406"/>
-      <c r="L9" s="382"/>
-      <c r="M9" s="413"/>
+      <c r="B9" s="379"/>
+      <c r="C9" s="380"/>
+      <c r="D9" s="380"/>
+      <c r="E9" s="380"/>
+      <c r="F9" s="380"/>
+      <c r="G9" s="380"/>
+      <c r="H9" s="380"/>
+      <c r="I9" s="380"/>
+      <c r="J9" s="389"/>
+      <c r="K9" s="395"/>
+      <c r="L9" s="380"/>
+      <c r="M9" s="402"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="373"/>
-      <c r="B10" s="383"/>
-      <c r="C10" s="383"/>
-      <c r="D10" s="383"/>
-      <c r="E10" s="383"/>
-      <c r="F10" s="383"/>
-      <c r="G10" s="383"/>
-      <c r="H10" s="383"/>
-      <c r="I10" s="391"/>
-      <c r="J10" s="399"/>
-      <c r="K10" s="382"/>
-      <c r="L10" s="382"/>
-      <c r="M10" s="413"/>
+      <c r="A10" s="349"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="350"/>
+      <c r="J10" s="390"/>
+      <c r="K10" s="380"/>
+      <c r="L10" s="380"/>
+      <c r="M10" s="402"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="373"/>
-      <c r="B11" s="383"/>
-      <c r="C11" s="383"/>
-      <c r="D11" s="383"/>
-      <c r="E11" s="383"/>
-      <c r="F11" s="383"/>
-      <c r="G11" s="383"/>
-      <c r="H11" s="383"/>
-      <c r="I11" s="391"/>
-      <c r="J11" s="399"/>
-      <c r="K11" s="382"/>
-      <c r="L11" s="382"/>
-      <c r="M11" s="413"/>
+      <c r="A11" s="349"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="350"/>
+      <c r="J11" s="390"/>
+      <c r="K11" s="380"/>
+      <c r="L11" s="380"/>
+      <c r="M11" s="402"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="373"/>
-      <c r="B12" s="383"/>
-      <c r="C12" s="383"/>
-      <c r="D12" s="383"/>
-      <c r="E12" s="383"/>
-      <c r="F12" s="383"/>
-      <c r="G12" s="383"/>
-      <c r="H12" s="383"/>
-      <c r="I12" s="391"/>
-      <c r="J12" s="399"/>
-      <c r="K12" s="382"/>
-      <c r="L12" s="382"/>
-      <c r="M12" s="413"/>
+      <c r="A12" s="349"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="350"/>
+      <c r="J12" s="390"/>
+      <c r="K12" s="380"/>
+      <c r="L12" s="380"/>
+      <c r="M12" s="402"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="373"/>
-      <c r="B13" s="383"/>
-      <c r="C13" s="383"/>
-      <c r="D13" s="383"/>
-      <c r="E13" s="383"/>
-      <c r="F13" s="383"/>
-      <c r="G13" s="383"/>
-      <c r="H13" s="383"/>
-      <c r="I13" s="391"/>
-      <c r="J13" s="399"/>
-      <c r="K13" s="382"/>
-      <c r="L13" s="382"/>
-      <c r="M13" s="413"/>
+      <c r="A13" s="349"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="350"/>
+      <c r="J13" s="390"/>
+      <c r="K13" s="380"/>
+      <c r="L13" s="380"/>
+      <c r="M13" s="402"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="373"/>
-      <c r="B14" s="383"/>
-      <c r="C14" s="383"/>
-      <c r="D14" s="383"/>
-      <c r="E14" s="383"/>
-      <c r="F14" s="383"/>
-      <c r="G14" s="383"/>
-      <c r="H14" s="383"/>
-      <c r="I14" s="391"/>
-      <c r="J14" s="399"/>
-      <c r="K14" s="382"/>
-      <c r="L14" s="382"/>
-      <c r="M14" s="413"/>
+      <c r="A14" s="349"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="350"/>
+      <c r="J14" s="390"/>
+      <c r="K14" s="380"/>
+      <c r="L14" s="380"/>
+      <c r="M14" s="402"/>
     </row>
     <row r="15" spans="1:13" ht="17.250000">
-      <c r="A15" s="373"/>
-      <c r="B15" s="383"/>
-      <c r="C15" s="383"/>
-      <c r="D15" s="383"/>
-      <c r="E15" s="383"/>
-      <c r="F15" s="383"/>
-      <c r="G15" s="383"/>
-      <c r="H15" s="383"/>
-      <c r="I15" s="391"/>
-      <c r="J15" s="400"/>
-      <c r="K15" s="382"/>
-      <c r="L15" s="382"/>
-      <c r="M15" s="413"/>
+      <c r="A15" s="349"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="350"/>
+      <c r="J15" s="391"/>
+      <c r="K15" s="380"/>
+      <c r="L15" s="380"/>
+      <c r="M15" s="402"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="373"/>
-      <c r="B16" s="383"/>
-      <c r="C16" s="383"/>
-      <c r="D16" s="383"/>
-      <c r="E16" s="383"/>
-      <c r="F16" s="383"/>
-      <c r="G16" s="383"/>
-      <c r="H16" s="383"/>
-      <c r="I16" s="391"/>
-      <c r="J16" s="401" t="s">
+      <c r="A16" s="349"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="350"/>
+      <c r="J16" s="392" t="s">
         <v>533</v>
       </c>
-      <c r="K16" s="407"/>
-      <c r="L16" s="407"/>
-      <c r="M16" s="414"/>
+      <c r="K16" s="396"/>
+      <c r="L16" s="396"/>
+      <c r="M16" s="403"/>
     </row>
     <row r="17" spans="1:13" ht="17.250000">
-      <c r="A17" s="373"/>
-      <c r="B17" s="383"/>
-      <c r="C17" s="383"/>
-      <c r="D17" s="383"/>
-      <c r="E17" s="383"/>
-      <c r="F17" s="383"/>
-      <c r="G17" s="383"/>
-      <c r="H17" s="383"/>
-      <c r="I17" s="391"/>
-      <c r="J17" s="402"/>
-      <c r="K17" s="408"/>
-      <c r="L17" s="408"/>
-      <c r="M17" s="415"/>
+      <c r="A17" s="349"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="350"/>
+      <c r="J17" s="393"/>
+      <c r="K17" s="397"/>
+      <c r="L17" s="397"/>
+      <c r="M17" s="404"/>
     </row>
     <row r="18" spans="1:13" ht="17.250000">
-      <c r="A18" s="374"/>
-      <c r="B18" s="384"/>
-      <c r="C18" s="384"/>
-      <c r="D18" s="384"/>
-      <c r="E18" s="384"/>
-      <c r="F18" s="384"/>
-      <c r="G18" s="384"/>
-      <c r="H18" s="384"/>
-      <c r="I18" s="395"/>
-      <c r="J18" s="397" t="s">
+      <c r="A18" s="351"/>
+      <c r="B18" s="352"/>
+      <c r="C18" s="352"/>
+      <c r="D18" s="352"/>
+      <c r="E18" s="352"/>
+      <c r="F18" s="352"/>
+      <c r="G18" s="352"/>
+      <c r="H18" s="352"/>
+      <c r="I18" s="354"/>
+      <c r="J18" s="388" t="s">
         <v>534</v>
       </c>
-      <c r="K18" s="409" t="s">
+      <c r="K18" s="398" t="s">
         <v>535</v>
       </c>
-      <c r="L18" s="409"/>
-      <c r="M18" s="412"/>
+      <c r="L18" s="398"/>
+      <c r="M18" s="401"/>
     </row>
     <row r="19" spans="1:13" ht="17.250000">
-      <c r="A19" s="375" t="s">
+      <c r="A19" s="373" t="s">
         <v>520</v>
       </c>
-      <c r="B19" s="375"/>
-      <c r="C19" s="375"/>
-      <c r="D19" s="375"/>
-      <c r="E19" s="375"/>
-      <c r="F19" s="388" t="b">
+      <c r="B19" s="373"/>
+      <c r="C19" s="373"/>
+      <c r="D19" s="373"/>
+      <c r="E19" s="373"/>
+      <c r="F19" s="383" t="b">
         <v>1</v>
       </c>
-      <c r="G19" s="388"/>
-      <c r="H19" s="388" t="b">
+      <c r="G19" s="383"/>
+      <c r="H19" s="383" t="b">
         <v>0</v>
       </c>
-      <c r="I19" s="388"/>
-      <c r="J19" s="398"/>
-      <c r="K19" s="406"/>
-      <c r="L19" s="382"/>
-      <c r="M19" s="413"/>
+      <c r="I19" s="383"/>
+      <c r="J19" s="389"/>
+      <c r="K19" s="395"/>
+      <c r="L19" s="380"/>
+      <c r="M19" s="402"/>
     </row>
     <row r="20" spans="1:13" ht="17.250000">
-      <c r="A20" s="375"/>
-      <c r="B20" s="375"/>
-      <c r="C20" s="375"/>
-      <c r="D20" s="375"/>
-      <c r="E20" s="375"/>
-      <c r="F20" s="388"/>
-      <c r="G20" s="388"/>
-      <c r="H20" s="388"/>
-      <c r="I20" s="388"/>
-      <c r="J20" s="398"/>
-      <c r="K20" s="382"/>
-      <c r="L20" s="382"/>
-      <c r="M20" s="413"/>
+      <c r="A20" s="373"/>
+      <c r="B20" s="373"/>
+      <c r="C20" s="373"/>
+      <c r="D20" s="373"/>
+      <c r="E20" s="373"/>
+      <c r="F20" s="383"/>
+      <c r="G20" s="383"/>
+      <c r="H20" s="383"/>
+      <c r="I20" s="383"/>
+      <c r="J20" s="389"/>
+      <c r="K20" s="380"/>
+      <c r="L20" s="380"/>
+      <c r="M20" s="402"/>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="376" t="s">
-        <v>521</v>
-      </c>
-      <c r="B21" s="385"/>
-      <c r="C21" s="385"/>
-      <c r="D21" s="385"/>
-      <c r="E21" s="389"/>
-      <c r="F21" s="392"/>
-      <c r="G21" s="393"/>
-      <c r="H21" s="392"/>
-      <c r="I21" s="393"/>
-      <c r="J21" s="399"/>
-      <c r="K21" s="382"/>
-      <c r="L21" s="382"/>
-      <c r="M21" s="413"/>
+      <c r="A21" s="349"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="350"/>
+      <c r="F21" s="348"/>
+      <c r="G21" s="144"/>
+      <c r="H21" s="348"/>
+      <c r="I21" s="144"/>
+      <c r="J21" s="390"/>
+      <c r="K21" s="380"/>
+      <c r="L21" s="380"/>
+      <c r="M21" s="402"/>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="377"/>
-      <c r="B22" s="386"/>
-      <c r="C22" s="386"/>
-      <c r="D22" s="386"/>
-      <c r="E22" s="390"/>
-      <c r="F22" s="373"/>
-      <c r="G22" s="391"/>
-      <c r="H22" s="373"/>
-      <c r="I22" s="391"/>
-      <c r="J22" s="399"/>
-      <c r="K22" s="382"/>
-      <c r="L22" s="382"/>
-      <c r="M22" s="413"/>
+      <c r="A22" s="349"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="350"/>
+      <c r="F22" s="349"/>
+      <c r="G22" s="350"/>
+      <c r="H22" s="349"/>
+      <c r="I22" s="350"/>
+      <c r="J22" s="390"/>
+      <c r="K22" s="380"/>
+      <c r="L22" s="380"/>
+      <c r="M22" s="402"/>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="373"/>
-      <c r="B23" s="383"/>
-      <c r="C23" s="383"/>
-      <c r="D23" s="383"/>
-      <c r="E23" s="391"/>
-      <c r="F23" s="373"/>
-      <c r="G23" s="391"/>
-      <c r="H23" s="373"/>
-      <c r="I23" s="391"/>
-      <c r="J23" s="399"/>
-      <c r="K23" s="382"/>
-      <c r="L23" s="382"/>
-      <c r="M23" s="413"/>
+      <c r="A23" s="349"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="350"/>
+      <c r="F23" s="349"/>
+      <c r="G23" s="350"/>
+      <c r="H23" s="349"/>
+      <c r="I23" s="350"/>
+      <c r="J23" s="390"/>
+      <c r="K23" s="380"/>
+      <c r="L23" s="380"/>
+      <c r="M23" s="402"/>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="373"/>
-      <c r="B24" s="383"/>
-      <c r="C24" s="383"/>
-      <c r="D24" s="383"/>
-      <c r="E24" s="391"/>
-      <c r="F24" s="373"/>
-      <c r="G24" s="391"/>
-      <c r="H24" s="373"/>
-      <c r="I24" s="391"/>
-      <c r="J24" s="399"/>
-      <c r="K24" s="383"/>
-      <c r="L24" s="383"/>
-      <c r="M24" s="391"/>
+      <c r="A24" s="349"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="350"/>
+      <c r="F24" s="349"/>
+      <c r="G24" s="350"/>
+      <c r="H24" s="349"/>
+      <c r="I24" s="350"/>
+      <c r="J24" s="390"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="350"/>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="378"/>
-      <c r="B25" s="378"/>
-      <c r="C25" s="378"/>
-      <c r="D25" s="378"/>
-      <c r="E25" s="378"/>
-      <c r="F25" s="378"/>
-      <c r="G25" s="378"/>
-      <c r="H25" s="378"/>
-      <c r="I25" s="378"/>
-      <c r="J25" s="399"/>
-      <c r="K25" s="383"/>
-      <c r="L25" s="383"/>
-      <c r="M25" s="391"/>
+      <c r="A25" s="376"/>
+      <c r="B25" s="376"/>
+      <c r="C25" s="376"/>
+      <c r="D25" s="376"/>
+      <c r="E25" s="376"/>
+      <c r="F25" s="376"/>
+      <c r="G25" s="376"/>
+      <c r="H25" s="376"/>
+      <c r="I25" s="376"/>
+      <c r="J25" s="390"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="350"/>
     </row>
     <row r="26" spans="1:13" ht="17.250000">
-      <c r="A26" s="378"/>
-      <c r="B26" s="378"/>
-      <c r="C26" s="378"/>
-      <c r="D26" s="378"/>
-      <c r="E26" s="378"/>
-      <c r="F26" s="378"/>
-      <c r="G26" s="378"/>
-      <c r="H26" s="378"/>
-      <c r="I26" s="378"/>
-      <c r="J26" s="400"/>
-      <c r="K26" s="383"/>
-      <c r="L26" s="383"/>
-      <c r="M26" s="391"/>
+      <c r="A26" s="376"/>
+      <c r="B26" s="376"/>
+      <c r="C26" s="376"/>
+      <c r="D26" s="376"/>
+      <c r="E26" s="376"/>
+      <c r="F26" s="376"/>
+      <c r="G26" s="376"/>
+      <c r="H26" s="376"/>
+      <c r="I26" s="376"/>
+      <c r="J26" s="391"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="350"/>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="378"/>
-      <c r="B27" s="378"/>
-      <c r="C27" s="378"/>
-      <c r="D27" s="378"/>
-      <c r="E27" s="378"/>
-      <c r="F27" s="378"/>
-      <c r="G27" s="378"/>
-      <c r="H27" s="378"/>
-      <c r="I27" s="378"/>
-      <c r="J27" s="403"/>
-      <c r="K27" s="403"/>
-      <c r="L27" s="403"/>
-      <c r="M27" s="393"/>
+      <c r="A27" s="376"/>
+      <c r="B27" s="376"/>
+      <c r="C27" s="376"/>
+      <c r="D27" s="376"/>
+      <c r="E27" s="376"/>
+      <c r="F27" s="376"/>
+      <c r="G27" s="376"/>
+      <c r="H27" s="376"/>
+      <c r="I27" s="376"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="144"/>
     </row>
     <row r="28" spans="1:13" ht="17.250000">
-      <c r="A28" s="379"/>
-      <c r="B28" s="379"/>
-      <c r="C28" s="379"/>
-      <c r="D28" s="379"/>
-      <c r="E28" s="379"/>
-      <c r="F28" s="379"/>
-      <c r="G28" s="379"/>
-      <c r="H28" s="379"/>
-      <c r="I28" s="379"/>
-      <c r="J28" s="384"/>
-      <c r="K28" s="384"/>
-      <c r="L28" s="384"/>
-      <c r="M28" s="395"/>
+      <c r="A28" s="377"/>
+      <c r="B28" s="377"/>
+      <c r="C28" s="377"/>
+      <c r="D28" s="377"/>
+      <c r="E28" s="377"/>
+      <c r="F28" s="377"/>
+      <c r="G28" s="377"/>
+      <c r="H28" s="377"/>
+      <c r="I28" s="377"/>
+      <c r="J28" s="352"/>
+      <c r="K28" s="352"/>
+      <c r="L28" s="352"/>
+      <c r="M28" s="354"/>
     </row>
   </sheetData>
-  <mergeCells count="65">
+  <mergeCells count="66">
     <mergeCell ref="A1:C3"/>
     <mergeCell ref="D1:I2"/>
     <mergeCell ref="J1:K1"/>
@@ -10287,569 +11364,11 @@
     <mergeCell ref="H19:I20"/>
     <mergeCell ref="K19:M19"/>
     <mergeCell ref="K20:M20"/>
-    <mergeCell ref="A21:E22"/>
+    <mergeCell ref="A21:E21"/>
     <mergeCell ref="F21:G21"/>
     <mergeCell ref="H21:I21"/>
     <mergeCell ref="K21:M21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="K22:M22"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="K24:M24"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="K25:M25"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="K26:M26"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:M28"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M28"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.500000"/>
-  <sheetData>
-    <row r="1" spans="1:13" ht="17.250000">
-      <c r="A1" s="371" t="s">
-        <v>542</v>
-      </c>
-      <c r="B1" s="371"/>
-      <c r="C1" s="371"/>
-      <c r="D1" s="387" t="s">
-        <v>527</v>
-      </c>
-      <c r="E1" s="387"/>
-      <c r="F1" s="387"/>
-      <c r="G1" s="387"/>
-      <c r="H1" s="387"/>
-      <c r="I1" s="387"/>
-      <c r="J1" s="396" t="s">
-        <v>529</v>
-      </c>
-      <c r="K1" s="404"/>
-      <c r="L1" s="410">
-        <v>42312</v>
-      </c>
-      <c r="M1" s="411"/>
-    </row>
-    <row r="2" spans="1:13" ht="17.250000">
-      <c r="A2" s="371"/>
-      <c r="B2" s="371"/>
-      <c r="C2" s="371"/>
-      <c r="D2" s="387"/>
-      <c r="E2" s="387"/>
-      <c r="F2" s="387"/>
-      <c r="G2" s="387"/>
-      <c r="H2" s="387"/>
-      <c r="I2" s="387"/>
-      <c r="J2" s="396" t="s">
-        <v>530</v>
-      </c>
-      <c r="K2" s="404"/>
-      <c r="L2" s="410">
-        <v>42315</v>
-      </c>
-      <c r="M2" s="411"/>
-    </row>
-    <row r="3" spans="1:13" ht="17.250000">
-      <c r="A3" s="371"/>
-      <c r="B3" s="371"/>
-      <c r="C3" s="371"/>
-      <c r="D3" s="388" t="s">
-        <v>528</v>
-      </c>
-      <c r="E3" s="388"/>
-      <c r="F3" s="388"/>
-      <c r="G3" s="388"/>
-      <c r="H3" s="388"/>
-      <c r="I3" s="388"/>
-      <c r="J3" s="396" t="s">
-        <v>531</v>
-      </c>
-      <c r="K3" s="404"/>
-      <c r="L3" s="404" t="s">
-        <v>536</v>
-      </c>
-      <c r="M3" s="411"/>
-    </row>
-    <row r="4" spans="1:13" ht="17.250000">
-      <c r="A4" s="372" t="s">
-        <v>519</v>
-      </c>
-      <c r="B4" s="380"/>
-      <c r="C4" s="380"/>
-      <c r="D4" s="380"/>
-      <c r="E4" s="380"/>
-      <c r="F4" s="380"/>
-      <c r="G4" s="380"/>
-      <c r="H4" s="380"/>
-      <c r="I4" s="394"/>
-      <c r="J4" s="372" t="s">
-        <v>532</v>
-      </c>
-      <c r="K4" s="380"/>
-      <c r="L4" s="380"/>
-      <c r="M4" s="394"/>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="373">
-        <v>1</v>
-      </c>
-      <c r="B5" s="381"/>
-      <c r="C5" s="382"/>
-      <c r="D5" s="382"/>
-      <c r="E5" s="382"/>
-      <c r="F5" s="382"/>
-      <c r="G5" s="382"/>
-      <c r="H5" s="382"/>
-      <c r="I5" s="382"/>
-      <c r="J5" s="397"/>
-      <c r="K5" s="405" t="s">
-        <v>544</v>
-      </c>
-      <c r="L5" s="409"/>
-      <c r="M5" s="412"/>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="373">
-        <v>2</v>
-      </c>
-      <c r="B6" s="381"/>
-      <c r="C6" s="382"/>
-      <c r="D6" s="382"/>
-      <c r="E6" s="382"/>
-      <c r="F6" s="382"/>
-      <c r="G6" s="382"/>
-      <c r="H6" s="382"/>
-      <c r="I6" s="382"/>
-      <c r="J6" s="398"/>
-      <c r="K6" s="406" t="s">
-        <v>543</v>
-      </c>
-      <c r="L6" s="382"/>
-      <c r="M6" s="413"/>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="373">
-        <v>3</v>
-      </c>
-      <c r="B7" s="382"/>
-      <c r="C7" s="382"/>
-      <c r="D7" s="382"/>
-      <c r="E7" s="382"/>
-      <c r="F7" s="382"/>
-      <c r="G7" s="382"/>
-      <c r="H7" s="382"/>
-      <c r="I7" s="382"/>
-      <c r="J7" s="398"/>
-      <c r="K7" s="406" t="s">
-        <v>545</v>
-      </c>
-      <c r="L7" s="382"/>
-      <c r="M7" s="413"/>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="373">
-        <v>4</v>
-      </c>
-      <c r="B8" s="381"/>
-      <c r="C8" s="382"/>
-      <c r="D8" s="382"/>
-      <c r="E8" s="382"/>
-      <c r="F8" s="382"/>
-      <c r="G8" s="382"/>
-      <c r="H8" s="382"/>
-      <c r="I8" s="382"/>
-      <c r="J8" s="398"/>
-      <c r="K8" s="406" t="s">
-        <v>546</v>
-      </c>
-      <c r="L8" s="382"/>
-      <c r="M8" s="413"/>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="373">
-        <v>5</v>
-      </c>
-      <c r="B9" s="381"/>
-      <c r="C9" s="382"/>
-      <c r="D9" s="382"/>
-      <c r="E9" s="382"/>
-      <c r="F9" s="382"/>
-      <c r="G9" s="382"/>
-      <c r="H9" s="382"/>
-      <c r="I9" s="382"/>
-      <c r="J9" s="398"/>
-      <c r="K9" s="406"/>
-      <c r="L9" s="382"/>
-      <c r="M9" s="413"/>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="373"/>
-      <c r="B10" s="383"/>
-      <c r="C10" s="383"/>
-      <c r="D10" s="383"/>
-      <c r="E10" s="383"/>
-      <c r="F10" s="383"/>
-      <c r="G10" s="383"/>
-      <c r="H10" s="383"/>
-      <c r="I10" s="391"/>
-      <c r="J10" s="399"/>
-      <c r="K10" s="382"/>
-      <c r="L10" s="382"/>
-      <c r="M10" s="413"/>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="373"/>
-      <c r="B11" s="383"/>
-      <c r="C11" s="383"/>
-      <c r="D11" s="383"/>
-      <c r="E11" s="383"/>
-      <c r="F11" s="383"/>
-      <c r="G11" s="383"/>
-      <c r="H11" s="383"/>
-      <c r="I11" s="391"/>
-      <c r="J11" s="399"/>
-      <c r="K11" s="382"/>
-      <c r="L11" s="382"/>
-      <c r="M11" s="413"/>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="373"/>
-      <c r="B12" s="383"/>
-      <c r="C12" s="383"/>
-      <c r="D12" s="383"/>
-      <c r="E12" s="383"/>
-      <c r="F12" s="383"/>
-      <c r="G12" s="383"/>
-      <c r="H12" s="383"/>
-      <c r="I12" s="391"/>
-      <c r="J12" s="399"/>
-      <c r="K12" s="382"/>
-      <c r="L12" s="382"/>
-      <c r="M12" s="413"/>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="373"/>
-      <c r="B13" s="383"/>
-      <c r="C13" s="383"/>
-      <c r="D13" s="383"/>
-      <c r="E13" s="383"/>
-      <c r="F13" s="383"/>
-      <c r="G13" s="383"/>
-      <c r="H13" s="383"/>
-      <c r="I13" s="391"/>
-      <c r="J13" s="399"/>
-      <c r="K13" s="382"/>
-      <c r="L13" s="382"/>
-      <c r="M13" s="413"/>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="373"/>
-      <c r="B14" s="383"/>
-      <c r="C14" s="383"/>
-      <c r="D14" s="383"/>
-      <c r="E14" s="383"/>
-      <c r="F14" s="383"/>
-      <c r="G14" s="383"/>
-      <c r="H14" s="383"/>
-      <c r="I14" s="391"/>
-      <c r="J14" s="399"/>
-      <c r="K14" s="382"/>
-      <c r="L14" s="382"/>
-      <c r="M14" s="413"/>
-    </row>
-    <row r="15" spans="1:13" ht="17.250000">
-      <c r="A15" s="373"/>
-      <c r="B15" s="383"/>
-      <c r="C15" s="383"/>
-      <c r="D15" s="383"/>
-      <c r="E15" s="383"/>
-      <c r="F15" s="383"/>
-      <c r="G15" s="383"/>
-      <c r="H15" s="383"/>
-      <c r="I15" s="391"/>
-      <c r="J15" s="400"/>
-      <c r="K15" s="382"/>
-      <c r="L15" s="382"/>
-      <c r="M15" s="413"/>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="373"/>
-      <c r="B16" s="383"/>
-      <c r="C16" s="383"/>
-      <c r="D16" s="383"/>
-      <c r="E16" s="383"/>
-      <c r="F16" s="383"/>
-      <c r="G16" s="383"/>
-      <c r="H16" s="383"/>
-      <c r="I16" s="391"/>
-      <c r="J16" s="401" t="s">
-        <v>533</v>
-      </c>
-      <c r="K16" s="407"/>
-      <c r="L16" s="407"/>
-      <c r="M16" s="414"/>
-    </row>
-    <row r="17" spans="1:13" ht="17.250000">
-      <c r="A17" s="373"/>
-      <c r="B17" s="383"/>
-      <c r="C17" s="383"/>
-      <c r="D17" s="383"/>
-      <c r="E17" s="383"/>
-      <c r="F17" s="383"/>
-      <c r="G17" s="383"/>
-      <c r="H17" s="383"/>
-      <c r="I17" s="391"/>
-      <c r="J17" s="402"/>
-      <c r="K17" s="408"/>
-      <c r="L17" s="408"/>
-      <c r="M17" s="415"/>
-    </row>
-    <row r="18" spans="1:13" ht="17.250000">
-      <c r="A18" s="374"/>
-      <c r="B18" s="384"/>
-      <c r="C18" s="384"/>
-      <c r="D18" s="384"/>
-      <c r="E18" s="384"/>
-      <c r="F18" s="384"/>
-      <c r="G18" s="384"/>
-      <c r="H18" s="384"/>
-      <c r="I18" s="395"/>
-      <c r="J18" s="397" t="s">
-        <v>534</v>
-      </c>
-      <c r="K18" s="409" t="s">
-        <v>535</v>
-      </c>
-      <c r="L18" s="409"/>
-      <c r="M18" s="412"/>
-    </row>
-    <row r="19" spans="1:13" ht="17.250000">
-      <c r="A19" s="375" t="s">
-        <v>520</v>
-      </c>
-      <c r="B19" s="375"/>
-      <c r="C19" s="375"/>
-      <c r="D19" s="375"/>
-      <c r="E19" s="375"/>
-      <c r="F19" s="388" t="b">
-        <v>1</v>
-      </c>
-      <c r="G19" s="388"/>
-      <c r="H19" s="388" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" s="388"/>
-      <c r="J19" s="398"/>
-      <c r="K19" s="406"/>
-      <c r="L19" s="382"/>
-      <c r="M19" s="413"/>
-    </row>
-    <row r="20" spans="1:13" ht="17.250000">
-      <c r="A20" s="375"/>
-      <c r="B20" s="375"/>
-      <c r="C20" s="375"/>
-      <c r="D20" s="375"/>
-      <c r="E20" s="375"/>
-      <c r="F20" s="388"/>
-      <c r="G20" s="388"/>
-      <c r="H20" s="388"/>
-      <c r="I20" s="388"/>
-      <c r="J20" s="398"/>
-      <c r="K20" s="382"/>
-      <c r="L20" s="382"/>
-      <c r="M20" s="413"/>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="376" t="s">
-        <v>521</v>
-      </c>
-      <c r="B21" s="385"/>
-      <c r="C21" s="385"/>
-      <c r="D21" s="385"/>
-      <c r="E21" s="389"/>
-      <c r="F21" s="392"/>
-      <c r="G21" s="393"/>
-      <c r="H21" s="392"/>
-      <c r="I21" s="393"/>
-      <c r="J21" s="399"/>
-      <c r="K21" s="382"/>
-      <c r="L21" s="382"/>
-      <c r="M21" s="413"/>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="377"/>
-      <c r="B22" s="386"/>
-      <c r="C22" s="386"/>
-      <c r="D22" s="386"/>
-      <c r="E22" s="390"/>
-      <c r="F22" s="373"/>
-      <c r="G22" s="391"/>
-      <c r="H22" s="373"/>
-      <c r="I22" s="391"/>
-      <c r="J22" s="399"/>
-      <c r="K22" s="382"/>
-      <c r="L22" s="382"/>
-      <c r="M22" s="413"/>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="373"/>
-      <c r="B23" s="383"/>
-      <c r="C23" s="383"/>
-      <c r="D23" s="383"/>
-      <c r="E23" s="391"/>
-      <c r="F23" s="373"/>
-      <c r="G23" s="391"/>
-      <c r="H23" s="373"/>
-      <c r="I23" s="391"/>
-      <c r="J23" s="399"/>
-      <c r="K23" s="382"/>
-      <c r="L23" s="382"/>
-      <c r="M23" s="413"/>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="373"/>
-      <c r="B24" s="383"/>
-      <c r="C24" s="383"/>
-      <c r="D24" s="383"/>
-      <c r="E24" s="391"/>
-      <c r="F24" s="373"/>
-      <c r="G24" s="391"/>
-      <c r="H24" s="373"/>
-      <c r="I24" s="391"/>
-      <c r="J24" s="399"/>
-      <c r="K24" s="383"/>
-      <c r="L24" s="383"/>
-      <c r="M24" s="391"/>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="A25" s="378"/>
-      <c r="B25" s="378"/>
-      <c r="C25" s="378"/>
-      <c r="D25" s="378"/>
-      <c r="E25" s="378"/>
-      <c r="F25" s="378"/>
-      <c r="G25" s="378"/>
-      <c r="H25" s="378"/>
-      <c r="I25" s="378"/>
-      <c r="J25" s="399"/>
-      <c r="K25" s="383"/>
-      <c r="L25" s="383"/>
-      <c r="M25" s="391"/>
-    </row>
-    <row r="26" spans="1:13" ht="17.250000">
-      <c r="A26" s="378"/>
-      <c r="B26" s="378"/>
-      <c r="C26" s="378"/>
-      <c r="D26" s="378"/>
-      <c r="E26" s="378"/>
-      <c r="F26" s="378"/>
-      <c r="G26" s="378"/>
-      <c r="H26" s="378"/>
-      <c r="I26" s="378"/>
-      <c r="J26" s="400"/>
-      <c r="K26" s="383"/>
-      <c r="L26" s="383"/>
-      <c r="M26" s="391"/>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="A27" s="378"/>
-      <c r="B27" s="378"/>
-      <c r="C27" s="378"/>
-      <c r="D27" s="378"/>
-      <c r="E27" s="378"/>
-      <c r="F27" s="378"/>
-      <c r="G27" s="378"/>
-      <c r="H27" s="378"/>
-      <c r="I27" s="378"/>
-      <c r="J27" s="403"/>
-      <c r="K27" s="403"/>
-      <c r="L27" s="403"/>
-      <c r="M27" s="393"/>
-    </row>
-    <row r="28" spans="1:13" ht="17.250000">
-      <c r="A28" s="379"/>
-      <c r="B28" s="379"/>
-      <c r="C28" s="379"/>
-      <c r="D28" s="379"/>
-      <c r="E28" s="379"/>
-      <c r="F28" s="379"/>
-      <c r="G28" s="379"/>
-      <c r="H28" s="379"/>
-      <c r="I28" s="379"/>
-      <c r="J28" s="384"/>
-      <c r="K28" s="384"/>
-      <c r="L28" s="384"/>
-      <c r="M28" s="395"/>
-    </row>
-  </sheetData>
-  <mergeCells count="65">
-    <mergeCell ref="A1:C3"/>
-    <mergeCell ref="D1:I2"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="B9:I9"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="A10:I18"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="K11:M11"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="K15:M15"/>
-    <mergeCell ref="J16:M17"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="A19:E20"/>
-    <mergeCell ref="F19:G20"/>
-    <mergeCell ref="H19:I20"/>
-    <mergeCell ref="K19:M19"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="A21:E22"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="A22:E22"/>
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="H22:I22"/>
     <mergeCell ref="K22:M22"/>

--- a/잡리스트 0514수정.xlsx
+++ b/잡리스트 0514수정.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="550" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="540" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="joblist" sheetId="1" r:id="rId1"/>
     <sheet name="메인화면-&gt;로그인" sheetId="5" r:id="rId2"/>
     <sheet name="로그인완료" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
+    <sheet name="로그인 전체 공정" sheetId="2" r:id="rId4"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="579">
   <si>
     <t>J O B L I S T</t>
   </si>
@@ -1732,6 +1732,42 @@
   </si>
   <si>
     <t>설명</t>
+  </si>
+  <si>
+    <t>membermanagment</t>
+  </si>
+  <si>
+    <t>AC01</t>
+  </si>
+  <si>
+    <t>Toast 처리 메서드</t>
+  </si>
+  <si>
+    <t>Toasts</t>
+  </si>
+  <si>
+    <t>Tos</t>
+  </si>
+  <si>
+    <t>D01</t>
+  </si>
+  <si>
+    <t>D02</t>
+  </si>
+  <si>
+    <t>D03</t>
+  </si>
+  <si>
+    <t>D04</t>
+  </si>
+  <si>
+    <t>addTimeDialog</t>
+  </si>
+  <si>
+    <t>적립시간 추가</t>
+  </si>
+  <si>
+    <t>적립시간 추가 대화상자</t>
   </si>
 </sst>
 </file>
@@ -1741,7 +1777,7 @@
   <numFmts count="1">
     <numFmt numFmtId="64" formatCode="&quot;₩&quot;#,##0;\\\-&quot;₩&quot;#,##0"/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="35">
     <font>
       <sz val="11.0"/>
       <name val="맑은 고딕"/>
@@ -1917,6 +1953,16 @@
       <sz val="28.0"/>
       <name val="맑은 고딕"/>
       <color theme="1"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FFFFFFFF"/>
+    </font>
+    <font>
+      <sz val="8.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FFFFFFFF"/>
     </font>
   </fonts>
   <fills count="36">
@@ -2100,7 +2146,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="195">
+  <borders count="191">
     <border>
       <left/>
       <right/>
@@ -4487,7 +4533,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -4497,11 +4545,48 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
       <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -4510,89 +4595,18 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
       <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
@@ -4600,12 +4614,14 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
@@ -4760,7 +4776,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="554">
+  <cellXfs count="549">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6156,271 +6172,256 @@
     <xf numFmtId="0" fontId="22" fillId="35" borderId="178" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="163" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="173" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="173" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="173" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="173" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="173" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="162" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="35" borderId="183" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="183" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="123" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="183" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="183" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="183" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="183" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="183" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="183" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="115" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="115" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="115" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="124" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="184" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="184" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="184" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="184" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="184" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="184" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="93" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="184" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="184" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="124" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="153" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="124" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="153" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="162" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="124" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="153" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="162" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="153" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="163" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="163" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="153" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="183" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="183" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="183" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="184" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="185" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="185" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="185" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="74" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="65" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="167" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="171" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="116" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="117" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="118" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="108" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="122" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="142" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="163" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="108" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="119" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="120" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="119" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="108" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="120" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="122" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="185" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="185" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="185" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="173" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="162" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="186" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="123" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="186" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="186" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="162" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="140" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="163" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="186" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="186" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="187" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="169" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="188" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="188" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="115" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="124" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="189" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="189" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="189" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="189" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="189" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="189" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="93" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="189" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="189" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="124" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="153" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="124" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="153" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="162" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="124" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="153" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="162" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="153" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="163" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="163" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="153" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="190" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="190" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="74" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="65" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="167" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="171" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="116" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="117" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="118" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="108" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="122" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="142" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="163" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="108" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="119" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="120" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="119" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="108" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="120" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="122" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="191" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="162" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="140" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="163" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="192" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="193" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="169" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="194" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="190" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6508,66 +6509,6 @@
         <a:prstGeom prst="rect"/>
         <a:noFill/>
       </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="TextBox 17"/>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5055870" y="2491740"/>
-          <a:ext cx="1219200" cy="590550"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect"/>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="91440" anchor="t" vertOverflow="clip">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:buFontTx/>
-            <a:buNone/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1600" kern="1200" cap="none" dirty="0" smtClean="0" b="0">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-            </a:rPr>
-            <a:t>Member
-DAO</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1600" kern="1200" dirty="0" smtClean="0" cap="none" b="0">
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
@@ -6730,6 +6671,132 @@
         </a:xfrm>
         <a:prstGeom prst="straightConnector1"/>
         <a:ln w="12700" cap="flat" cmpd="sng">
+          <a:prstDash val="solid"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="도형 25"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3598545" y="1663065"/>
+          <a:ext cx="1419225" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond"/>
+        <a:ln w="12700" cap="flat" cmpd="sng">
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="89535" tIns="46355" rIns="89535" bIns="46355" anchor="ctr" vertOverflow="clip">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:buFontTx/>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" kern="1200" cap="none" dirty="0" smtClean="0" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="맑은 고딕"/>
+              <a:ea typeface="맑은 고딕"/>
+            </a:rPr>
+            <a:t>Menu클릭</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="900" kern="1200" dirty="0" smtClean="0" cap="none" b="0">
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:latin typeface="맑은 고딕"/>
+            <a:ea typeface="맑은 고딕"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="도형 26"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2350770" y="2101215"/>
+          <a:ext cx="0" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1"/>
+        <a:ln w="12700" cap="flat" cmpd="sng">
           <a:prstDash/>
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="triangle" w="med" len="med"/>
@@ -6752,6 +6819,1192 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>60325</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="도형 27"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2360295" y="2552065"/>
+          <a:ext cx="1955800" cy="6350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="도형 28"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4312920" y="2120265"/>
+          <a:ext cx="0" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="도형 29"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4493895" y="2072640"/>
+          <a:ext cx="838200" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="D5D5D5">
+              <a:alpha val="100000"/>
+            </a:srgbClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="89535" tIns="46355" rIns="89535" bIns="46355" anchor="t" vertOverflow="clip">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l">
+            <a:buFontTx/>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" cap="none" dirty="0" smtClean="0" b="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="맑은 고딕"/>
+              <a:ea typeface="맑은 고딕"/>
+            </a:rPr>
+            <a:t>false
+</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" dirty="0" smtClean="0" cap="none" b="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="맑은 고딕"/>
+            <a:ea typeface="맑은 고딕"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="도형 30"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4865370" y="1472565"/>
+          <a:ext cx="857250" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="D5D5D5">
+              <a:alpha val="100000"/>
+            </a:srgbClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="89535" tIns="46355" rIns="89535" bIns="46355" anchor="t" vertOverflow="clip">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l">
+            <a:buFontTx/>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" cap="none" dirty="0" smtClean="0" b="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="맑은 고딕"/>
+              <a:ea typeface="맑은 고딕"/>
+            </a:rPr>
+            <a:t>true
+</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" dirty="0" smtClean="0" cap="none" b="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="맑은 고딕"/>
+            <a:ea typeface="맑은 고딕"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="도형 31"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5160645" y="1872615"/>
+          <a:ext cx="400050" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1"/>
+        <a:ln w="12700" cap="flat" cmpd="sng">
+          <a:prstDash val="solid"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="도형 32"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5674995" y="1682115"/>
+          <a:ext cx="1200150" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="89535" tIns="46355" rIns="89535" bIns="46355" anchor="ctr" vertOverflow="clip">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:buFontTx/>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" cap="none" dirty="0" smtClean="0" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="맑은 고딕"/>
+              <a:ea typeface="맑은 고딕"/>
+            </a:rPr>
+            <a:t>Menu를 띄워줌</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" dirty="0" smtClean="0" cap="none" b="0">
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:latin typeface="맑은 고딕"/>
+            <a:ea typeface="맑은 고딕"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="도형 33"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6989445" y="1834515"/>
+          <a:ext cx="400050" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1"/>
+        <a:ln w="12700" cap="flat" cmpd="sng">
+          <a:prstDash val="solid"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="도형 34"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7446645" y="1596390"/>
+          <a:ext cx="1419225" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond"/>
+        <a:ln w="12700" cap="flat" cmpd="sng">
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="89535" tIns="46355" rIns="89535" bIns="46355" anchor="ctr" vertOverflow="clip">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:buFontTx/>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" kern="1200" cap="none" dirty="0" smtClean="0" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="맑은 고딕"/>
+              <a:ea typeface="맑은 고딕"/>
+            </a:rPr>
+            <a:t>로그인클릭</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800" kern="1200" dirty="0" smtClean="0" cap="none" b="0">
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:latin typeface="맑은 고딕"/>
+            <a:ea typeface="맑은 고딕"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>530225</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>187325</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="도형 36"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8148320" y="2050415"/>
+          <a:ext cx="3175" cy="454025"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="도형 37"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8218170" y="2120265"/>
+          <a:ext cx="838200" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="D5D5D5">
+              <a:alpha val="100000"/>
+            </a:srgbClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="89535" tIns="46355" rIns="89535" bIns="46355" anchor="t" vertOverflow="clip">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l">
+            <a:buFontTx/>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" cap="none" dirty="0" smtClean="0" b="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="맑은 고딕"/>
+              <a:ea typeface="맑은 고딕"/>
+            </a:rPr>
+            <a:t>false
+</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" dirty="0" smtClean="0" cap="none" b="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="맑은 고딕"/>
+            <a:ea typeface="맑은 고딕"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="도형 38"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8789670" y="1472565"/>
+          <a:ext cx="857250" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="D5D5D5">
+              <a:alpha val="100000"/>
+            </a:srgbClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="89535" tIns="46355" rIns="89535" bIns="46355" anchor="t" vertOverflow="clip">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l">
+            <a:buFontTx/>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" cap="none" dirty="0" smtClean="0" b="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="맑은 고딕"/>
+              <a:ea typeface="맑은 고딕"/>
+            </a:rPr>
+            <a:t>true
+</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" dirty="0" smtClean="0" cap="none" b="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="맑은 고딕"/>
+            <a:ea typeface="맑은 고딕"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="도형 39"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8980170" y="1824990"/>
+          <a:ext cx="1152525" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1"/>
+        <a:ln w="12700" cap="flat" cmpd="sng">
+          <a:prstDash val="solid"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="도형 40"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6265545" y="2082165"/>
+          <a:ext cx="0" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1"/>
+        <a:ln w="12700" cap="flat" cmpd="sng">
+          <a:prstDash/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>15875</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>8255</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>539750</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="도형 41"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6262370" y="2499995"/>
+          <a:ext cx="1895475" cy="39370"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>484505</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>309880</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>151130</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="도형 42"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10160000" y="1653540"/>
+          <a:ext cx="1196975" cy="360680"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="89535" tIns="46355" rIns="89535" bIns="46355" anchor="ctr" vertOverflow="clip">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:buFontTx/>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" kern="1200" cap="none" dirty="0" smtClean="0" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="맑은 고딕"/>
+              <a:ea typeface="맑은 고딕"/>
+            </a:rPr>
+            <a:t>controller 값을 보냄</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800" kern="1200" dirty="0" smtClean="0" cap="none" b="0">
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:latin typeface="맑은 고딕"/>
+            <a:ea typeface="맑은 고딕"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>405130</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>167005</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>412750</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>55880</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="도형 43"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10766425" y="2030095"/>
+          <a:ext cx="7620" cy="727075"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1"/>
+        <a:ln w="12700" cap="flat" cmpd="sng">
+          <a:prstDash/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>349250</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>484505</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="도형 44"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10024745" y="2844165"/>
+          <a:ext cx="1506855" cy="676275"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond"/>
+        <a:ln w="12700" cap="flat" cmpd="sng">
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="89535" tIns="46355" rIns="89535" bIns="46355" anchor="ctr" vertOverflow="clip">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:buFontTx/>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" kern="1200" cap="none" dirty="0" smtClean="0" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="맑은 고딕"/>
+              <a:ea typeface="맑은 고딕"/>
+            </a:rPr>
+            <a:t>para = "login"</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800" kern="1200" dirty="0" smtClean="0" cap="none" b="0">
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:latin typeface="맑은 고딕"/>
+            <a:ea typeface="맑은 고딕"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>325755</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="도형 45"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="9053195" y="3199765"/>
+          <a:ext cx="948055" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1"/>
+        <a:ln w="12700" cap="flat" cmpd="sng">
+          <a:prstDash/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>174625</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>135255</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="도형 46"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7792720" y="3046095"/>
+          <a:ext cx="1196975" cy="363220"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="89535" tIns="46355" rIns="89535" bIns="46355" anchor="ctr" vertOverflow="clip">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:buFontTx/>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" cap="none" dirty="0" smtClean="0" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="맑은 고딕"/>
+              <a:ea typeface="맑은 고딕"/>
+            </a:rPr>
+            <a:t>login화면 출력</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" dirty="0" smtClean="0" cap="none" b="0">
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:latin typeface="맑은 고딕"/>
+            <a:ea typeface="맑은 고딕"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -7534,6 +8787,55 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="그림 1"/>
+        <xdr:cNvPicPr preferRelativeResize="0">
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26670" y="0"/>
+          <a:ext cx="11001375" cy="6943725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office theme">
   <a:themeElements>
@@ -7797,10 +9099,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N103"/>
+  <dimension ref="A1:N105"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView topLeftCell="A22" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31:E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -8249,7 +9551,7 @@
         <v>242</v>
       </c>
       <c r="I22" s="246" t="s">
-        <v>80</v>
+        <v>469</v>
       </c>
       <c r="J22" s="14"/>
       <c r="N22" s="14"/>
@@ -8294,7 +9596,7 @@
         <v>304</v>
       </c>
       <c r="I24" s="265" t="s">
-        <v>80</v>
+        <v>469</v>
       </c>
       <c r="J24" s="14"/>
     </row>
@@ -8486,7 +9788,7 @@
         <v>305</v>
       </c>
       <c r="I33" s="246" t="s">
-        <v>80</v>
+        <v>469</v>
       </c>
       <c r="J33" s="14"/>
     </row>
@@ -8679,7 +9981,7 @@
         <v>333</v>
       </c>
       <c r="I42" s="246" t="s">
-        <v>80</v>
+        <v>469</v>
       </c>
       <c r="J42" s="14"/>
       <c r="N42" s="14"/>
@@ -8810,7 +10112,7 @@
         <v>369</v>
       </c>
       <c r="I48" s="246" t="s">
-        <v>80</v>
+        <v>469</v>
       </c>
       <c r="J48" s="14"/>
     </row>
@@ -8959,7 +10261,7 @@
         <v>378</v>
       </c>
       <c r="I55" s="246" t="s">
-        <v>80</v>
+        <v>469</v>
       </c>
       <c r="J55" s="14"/>
     </row>
@@ -9022,7 +10324,7 @@
     <row r="59" spans="2:10">
       <c r="B59" s="343"/>
       <c r="C59" s="241" t="s">
-        <v>237</v>
+        <v>572</v>
       </c>
       <c r="D59" s="241" t="s">
         <v>392</v>
@@ -9043,7 +10345,7 @@
     <row r="60" spans="2:10">
       <c r="B60" s="343"/>
       <c r="C60" s="241" t="s">
-        <v>237</v>
+        <v>573</v>
       </c>
       <c r="D60" s="241" t="s">
         <v>393</v>
@@ -9061,78 +10363,77 @@
       </c>
       <c r="J60" s="14"/>
     </row>
-    <row r="61" spans="2:10" ht="17.250000">
-      <c r="B61" s="344"/>
-      <c r="C61" s="248" t="s">
-        <v>237</v>
-      </c>
-      <c r="D61" s="248" t="s">
+    <row r="61" spans="2:10">
+      <c r="B61" s="343"/>
+      <c r="C61" s="241" t="s">
+        <v>574</v>
+      </c>
+      <c r="D61" s="241" t="s">
+        <v>578</v>
+      </c>
+      <c r="E61" s="241"/>
+      <c r="F61" s="241" t="s">
+        <v>388</v>
+      </c>
+      <c r="G61" s="241"/>
+      <c r="H61" s="241" t="s">
+        <v>395</v>
+      </c>
+      <c r="I61" s="246" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10" ht="17.250000">
+      <c r="B62" s="344"/>
+      <c r="C62" s="248" t="s">
+        <v>575</v>
+      </c>
+      <c r="D62" s="248" t="s">
         <v>394</v>
       </c>
-      <c r="E61" s="248"/>
-      <c r="F61" s="248" t="s">
+      <c r="E62" s="248"/>
+      <c r="F62" s="248" t="s">
         <v>388</v>
       </c>
-      <c r="G61" s="248"/>
-      <c r="H61" s="248" t="s">
+      <c r="G62" s="248"/>
+      <c r="H62" s="248" t="s">
         <v>395</v>
       </c>
-      <c r="I61" s="250" t="s">
+      <c r="I62" s="250" t="s">
         <v>396</v>
       </c>
-      <c r="J61" s="14"/>
-    </row>
-    <row r="62" spans="2:10">
-      <c r="B62" s="242" t="s">
+      <c r="J62" s="14"/>
+    </row>
+    <row r="63" spans="2:10">
+      <c r="B63" s="242" t="s">
         <v>402</v>
       </c>
-      <c r="C62" s="264" t="s">
+      <c r="C63" s="264" t="s">
         <v>403</v>
       </c>
-      <c r="D62" s="361" t="s">
+      <c r="D63" s="361" t="s">
         <v>408</v>
       </c>
-      <c r="E62" s="361"/>
-      <c r="F62" s="264" t="s">
+      <c r="E63" s="361"/>
+      <c r="F63" s="264" t="s">
         <v>388</v>
       </c>
-      <c r="G62" s="264"/>
-      <c r="H62" s="264" t="s">
+      <c r="G63" s="264"/>
+      <c r="H63" s="264" t="s">
         <v>407</v>
       </c>
-      <c r="I62" s="265" t="s">
+      <c r="I63" s="265" t="s">
         <v>414</v>
-      </c>
-      <c r="J62" s="14"/>
-    </row>
-    <row r="63" spans="2:10">
-      <c r="B63" s="266"/>
-      <c r="C63" s="241" t="s">
-        <v>404</v>
-      </c>
-      <c r="D63" s="241" t="s">
-        <v>410</v>
-      </c>
-      <c r="E63" s="241"/>
-      <c r="F63" s="241" t="s">
-        <v>388</v>
-      </c>
-      <c r="G63" s="241"/>
-      <c r="H63" s="241" t="s">
-        <v>407</v>
-      </c>
-      <c r="I63" s="246" t="s">
-        <v>415</v>
       </c>
       <c r="J63" s="14"/>
     </row>
     <row r="64" spans="2:10">
       <c r="B64" s="266"/>
       <c r="C64" s="241" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D64" s="241" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E64" s="241"/>
       <c r="F64" s="241" t="s">
@@ -9143,81 +10444,81 @@
         <v>407</v>
       </c>
       <c r="I64" s="246" t="s">
+        <v>415</v>
+      </c>
+      <c r="J64" s="14"/>
+    </row>
+    <row r="65" spans="2:10">
+      <c r="B65" s="266"/>
+      <c r="C65" s="241" t="s">
+        <v>405</v>
+      </c>
+      <c r="D65" s="241" t="s">
+        <v>411</v>
+      </c>
+      <c r="E65" s="241"/>
+      <c r="F65" s="241" t="s">
+        <v>388</v>
+      </c>
+      <c r="G65" s="241"/>
+      <c r="H65" s="241" t="s">
+        <v>407</v>
+      </c>
+      <c r="I65" s="246" t="s">
         <v>416</v>
       </c>
-      <c r="J64" s="14"/>
-    </row>
-    <row r="65" spans="2:10" ht="17.250000">
-      <c r="B65" s="267"/>
-      <c r="C65" s="248" t="s">
+      <c r="J65" s="14"/>
+    </row>
+    <row r="66" spans="2:10" ht="17.250000">
+      <c r="B66" s="267"/>
+      <c r="C66" s="248" t="s">
         <v>406</v>
       </c>
-      <c r="D65" s="248" t="s">
+      <c r="D66" s="248" t="s">
         <v>412</v>
       </c>
-      <c r="E65" s="248"/>
-      <c r="F65" s="248" t="s">
+      <c r="E66" s="248"/>
+      <c r="F66" s="248" t="s">
         <v>388</v>
       </c>
-      <c r="G65" s="248"/>
-      <c r="H65" s="248" t="s">
+      <c r="G66" s="248"/>
+      <c r="H66" s="248" t="s">
         <v>407</v>
       </c>
-      <c r="I65" s="250" t="s">
+      <c r="I66" s="250" t="s">
         <v>418</v>
       </c>
-      <c r="J65" s="14"/>
-    </row>
-    <row r="66" spans="2:10">
-      <c r="B66" s="204" t="s">
+      <c r="J66" s="14"/>
+    </row>
+    <row r="67" spans="2:10">
+      <c r="B67" s="204" t="s">
         <v>420</v>
       </c>
-      <c r="C66" s="355"/>
-      <c r="D66" s="355"/>
-      <c r="E66" s="355"/>
-      <c r="F66" s="355"/>
-      <c r="G66" s="355"/>
-      <c r="H66" s="355"/>
-      <c r="I66" s="206"/>
-    </row>
-    <row r="67" spans="2:10">
-      <c r="B67" s="363" t="s">
+      <c r="C67" s="355"/>
+      <c r="D67" s="355"/>
+      <c r="E67" s="355"/>
+      <c r="F67" s="355"/>
+      <c r="G67" s="355"/>
+      <c r="H67" s="355"/>
+      <c r="I67" s="206"/>
+    </row>
+    <row r="68" spans="2:10">
+      <c r="B68" s="363" t="s">
         <v>420</v>
       </c>
-      <c r="C67" s="264" t="s">
+      <c r="C68" s="264" t="s">
         <v>9</v>
       </c>
-      <c r="D67" s="361" t="s">
+      <c r="D68" s="361" t="s">
         <v>14</v>
       </c>
-      <c r="E67" s="361"/>
-      <c r="F67" s="264" t="s">
+      <c r="E68" s="361"/>
+      <c r="F68" s="264" t="s">
         <v>388</v>
       </c>
-      <c r="G67" s="264"/>
-      <c r="H67" s="264" t="s">
+      <c r="G68" s="264"/>
+      <c r="H68" s="264" t="s">
         <v>183</v>
-      </c>
-      <c r="I67" s="265" t="s">
-        <v>469</v>
-      </c>
-      <c r="J67" s="14"/>
-    </row>
-    <row r="68" spans="2:10">
-      <c r="B68" s="266"/>
-      <c r="C68" s="241" t="s">
-        <v>421</v>
-      </c>
-      <c r="D68" s="241" t="s">
-        <v>439</v>
-      </c>
-      <c r="E68" s="241"/>
-      <c r="F68" s="241" t="s">
-        <v>388</v>
-      </c>
-      <c r="G68" s="241"/>
-      <c r="H68" s="241" t="s">
-        <v>452</v>
       </c>
       <c r="I68" s="265" t="s">
         <v>469</v>
@@ -9227,10 +10528,10 @@
     <row r="69" spans="2:10">
       <c r="B69" s="266"/>
       <c r="C69" s="241" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D69" s="241" t="s">
-        <v>59</v>
+        <v>439</v>
       </c>
       <c r="E69" s="241"/>
       <c r="F69" s="241" t="s">
@@ -9238,7 +10539,7 @@
       </c>
       <c r="G69" s="241"/>
       <c r="H69" s="241" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="I69" s="265" t="s">
         <v>469</v>
@@ -9248,10 +10549,10 @@
     <row r="70" spans="2:10">
       <c r="B70" s="266"/>
       <c r="C70" s="241" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D70" s="241" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="E70" s="241"/>
       <c r="F70" s="241" t="s">
@@ -9259,7 +10560,7 @@
       </c>
       <c r="G70" s="241"/>
       <c r="H70" s="241" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="I70" s="265" t="s">
         <v>469</v>
@@ -9269,10 +10570,10 @@
     <row r="71" spans="2:10">
       <c r="B71" s="266"/>
       <c r="C71" s="241" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D71" s="241" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="E71" s="241"/>
       <c r="F71" s="241" t="s">
@@ -9280,7 +10581,7 @@
       </c>
       <c r="G71" s="241"/>
       <c r="H71" s="241" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="I71" s="265" t="s">
         <v>469</v>
@@ -9290,10 +10591,10 @@
     <row r="72" spans="2:10">
       <c r="B72" s="266"/>
       <c r="C72" s="241" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D72" s="241" t="s">
-        <v>444</v>
+        <v>30</v>
       </c>
       <c r="E72" s="241"/>
       <c r="F72" s="241" t="s">
@@ -9301,7 +10602,7 @@
       </c>
       <c r="G72" s="241"/>
       <c r="H72" s="241" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="I72" s="265" t="s">
         <v>469</v>
@@ -9311,10 +10612,10 @@
     <row r="73" spans="2:10">
       <c r="B73" s="266"/>
       <c r="C73" s="241" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D73" s="241" t="s">
-        <v>11</v>
+        <v>444</v>
       </c>
       <c r="E73" s="241"/>
       <c r="F73" s="241" t="s">
@@ -9322,7 +10623,7 @@
       </c>
       <c r="G73" s="241"/>
       <c r="H73" s="241" t="s">
-        <v>180</v>
+        <v>456</v>
       </c>
       <c r="I73" s="265" t="s">
         <v>469</v>
@@ -9332,10 +10633,10 @@
     <row r="74" spans="2:10">
       <c r="B74" s="266"/>
       <c r="C74" s="241" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D74" s="241" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="E74" s="241"/>
       <c r="F74" s="241" t="s">
@@ -9343,7 +10644,7 @@
       </c>
       <c r="G74" s="241"/>
       <c r="H74" s="241" t="s">
-        <v>460</v>
+        <v>180</v>
       </c>
       <c r="I74" s="265" t="s">
         <v>469</v>
@@ -9353,10 +10654,10 @@
     <row r="75" spans="2:10">
       <c r="B75" s="266"/>
       <c r="C75" s="241" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D75" s="241" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="E75" s="241"/>
       <c r="F75" s="241" t="s">
@@ -9364,7 +10665,7 @@
       </c>
       <c r="G75" s="241"/>
       <c r="H75" s="241" t="s">
-        <v>182</v>
+        <v>567</v>
       </c>
       <c r="I75" s="265" t="s">
         <v>469</v>
@@ -9374,10 +10675,10 @@
     <row r="76" spans="2:10">
       <c r="B76" s="266"/>
       <c r="C76" s="241" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D76" s="241" t="s">
-        <v>445</v>
+        <v>13</v>
       </c>
       <c r="E76" s="241"/>
       <c r="F76" s="241" t="s">
@@ -9385,7 +10686,7 @@
       </c>
       <c r="G76" s="241"/>
       <c r="H76" s="241" t="s">
-        <v>461</v>
+        <v>182</v>
       </c>
       <c r="I76" s="265" t="s">
         <v>469</v>
@@ -9395,10 +10696,10 @@
     <row r="77" spans="2:10">
       <c r="B77" s="266"/>
       <c r="C77" s="241" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D77" s="241" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E77" s="241"/>
       <c r="F77" s="241" t="s">
@@ -9406,130 +10707,129 @@
       </c>
       <c r="G77" s="241"/>
       <c r="H77" s="241" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="I77" s="265" t="s">
         <v>469</v>
       </c>
       <c r="J77" s="14"/>
     </row>
-    <row r="78" spans="2:10" ht="17.250000">
-      <c r="B78" s="267"/>
-      <c r="C78" s="248" t="s">
+    <row r="78" spans="2:10">
+      <c r="B78" s="266"/>
+      <c r="C78" s="241" t="s">
+        <v>430</v>
+      </c>
+      <c r="D78" s="241" t="s">
+        <v>446</v>
+      </c>
+      <c r="E78" s="241"/>
+      <c r="F78" s="241" t="s">
+        <v>388</v>
+      </c>
+      <c r="G78" s="241"/>
+      <c r="H78" s="241" t="s">
+        <v>462</v>
+      </c>
+      <c r="I78" s="265" t="s">
+        <v>469</v>
+      </c>
+      <c r="J78" s="14"/>
+    </row>
+    <row r="79" spans="2:10" ht="17.250000">
+      <c r="B79" s="267"/>
+      <c r="C79" s="248" t="s">
         <v>431</v>
       </c>
-      <c r="D78" s="248" t="s">
+      <c r="D79" s="248" t="s">
         <v>61</v>
       </c>
-      <c r="E78" s="248"/>
-      <c r="F78" s="248" t="s">
+      <c r="E79" s="248"/>
+      <c r="F79" s="248" t="s">
         <v>388</v>
       </c>
-      <c r="G78" s="248"/>
-      <c r="H78" s="248" t="s">
+      <c r="G79" s="248"/>
+      <c r="H79" s="248" t="s">
         <v>463</v>
       </c>
-      <c r="I78" s="369" t="s">
+      <c r="I79" s="369" t="s">
         <v>469</v>
       </c>
-      <c r="J78" s="14"/>
-    </row>
-    <row r="79" spans="2:10" ht="17.250000">
-      <c r="B79" s="368" t="s">
+      <c r="J79" s="14"/>
+    </row>
+    <row r="80" spans="2:10">
+      <c r="B80" s="107" t="s">
         <v>464</v>
       </c>
-      <c r="C79" s="318" t="s">
+      <c r="C80" s="264" t="s">
         <v>468</v>
       </c>
-      <c r="D79" s="318" t="s">
+      <c r="D80" s="264" t="s">
+        <v>569</v>
+      </c>
+      <c r="E80" s="264"/>
+      <c r="F80" s="264" t="s">
+        <v>388</v>
+      </c>
+      <c r="G80" s="264"/>
+      <c r="H80" s="264" t="s">
+        <v>570</v>
+      </c>
+      <c r="I80" s="265" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="81" spans="2:10" ht="17.250000">
+      <c r="B81" s="106"/>
+      <c r="C81" s="547" t="s">
+        <v>568</v>
+      </c>
+      <c r="D81" s="547" t="s">
         <v>466</v>
       </c>
-      <c r="E79" s="318"/>
-      <c r="F79" s="318" t="s">
+      <c r="E81" s="547"/>
+      <c r="F81" s="547" t="s">
         <v>388</v>
       </c>
-      <c r="G79" s="318"/>
-      <c r="H79" s="318" t="s">
+      <c r="G81" s="547"/>
+      <c r="H81" s="547" t="s">
         <v>467</v>
       </c>
-      <c r="I79" s="365" t="s">
+      <c r="I81" s="548" t="s">
         <v>469</v>
       </c>
-      <c r="J79" s="14"/>
-    </row>
-    <row r="80" spans="2:10">
-      <c r="B80" s="204" t="s">
+      <c r="J81" s="14"/>
+    </row>
+    <row r="82" spans="2:10">
+      <c r="B82" s="204" t="s">
         <v>470</v>
       </c>
-      <c r="C80" s="355"/>
-      <c r="D80" s="355"/>
-      <c r="E80" s="355"/>
-      <c r="F80" s="355"/>
-      <c r="G80" s="355"/>
-      <c r="H80" s="355"/>
-      <c r="I80" s="206"/>
-    </row>
-    <row r="81" spans="2:10">
-      <c r="B81" s="363" t="s">
+      <c r="C82" s="355"/>
+      <c r="D82" s="355"/>
+      <c r="E82" s="355"/>
+      <c r="F82" s="355"/>
+      <c r="G82" s="355"/>
+      <c r="H82" s="355"/>
+      <c r="I82" s="206"/>
+    </row>
+    <row r="83" spans="2:10">
+      <c r="B83" s="363" t="s">
         <v>470</v>
       </c>
-      <c r="C81" s="264" t="s">
+      <c r="C83" s="264" t="s">
         <v>471</v>
       </c>
-      <c r="D81" s="264" t="s">
+      <c r="D83" s="264" t="s">
         <v>14</v>
       </c>
-      <c r="E81" s="264"/>
-      <c r="F81" s="264" t="s">
+      <c r="E83" s="264"/>
+      <c r="F83" s="264" t="s">
         <v>494</v>
       </c>
-      <c r="G81" s="264"/>
-      <c r="H81" s="264" t="s">
+      <c r="G83" s="264"/>
+      <c r="H83" s="264" t="s">
         <v>497</v>
       </c>
-      <c r="I81" s="265" t="s">
-        <v>496</v>
-      </c>
-      <c r="J81" s="14"/>
-    </row>
-    <row r="82" spans="2:10">
-      <c r="B82" s="266"/>
-      <c r="C82" s="241" t="s">
-        <v>472</v>
-      </c>
-      <c r="D82" s="241" t="s">
-        <v>14</v>
-      </c>
-      <c r="E82" s="241"/>
-      <c r="F82" s="241" t="s">
-        <v>494</v>
-      </c>
-      <c r="G82" s="241"/>
-      <c r="H82" s="241" t="s">
-        <v>498</v>
-      </c>
-      <c r="I82" s="246" t="s">
-        <v>496</v>
-      </c>
-      <c r="J82" s="14"/>
-    </row>
-    <row r="83" spans="2:10">
-      <c r="B83" s="266"/>
-      <c r="C83" s="241" t="s">
-        <v>473</v>
-      </c>
-      <c r="D83" s="241" t="s">
-        <v>499</v>
-      </c>
-      <c r="E83" s="241"/>
-      <c r="F83" s="241" t="s">
-        <v>494</v>
-      </c>
-      <c r="G83" s="241"/>
-      <c r="H83" s="241" t="s">
-        <v>452</v>
-      </c>
-      <c r="I83" s="246" t="s">
+      <c r="I83" s="265" t="s">
         <v>496</v>
       </c>
       <c r="J83" s="14"/>
@@ -9537,10 +10837,10 @@
     <row r="84" spans="2:10">
       <c r="B84" s="266"/>
       <c r="C84" s="241" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D84" s="241" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="E84" s="241"/>
       <c r="F84" s="241" t="s">
@@ -9548,7 +10848,7 @@
       </c>
       <c r="G84" s="241"/>
       <c r="H84" s="241" t="s">
-        <v>453</v>
+        <v>498</v>
       </c>
       <c r="I84" s="246" t="s">
         <v>496</v>
@@ -9558,10 +10858,10 @@
     <row r="85" spans="2:10">
       <c r="B85" s="266"/>
       <c r="C85" s="241" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D85" s="241" t="s">
-        <v>45</v>
+        <v>499</v>
       </c>
       <c r="E85" s="241"/>
       <c r="F85" s="241" t="s">
@@ -9569,7 +10869,7 @@
       </c>
       <c r="G85" s="241"/>
       <c r="H85" s="241" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="I85" s="246" t="s">
         <v>496</v>
@@ -9579,10 +10879,10 @@
     <row r="86" spans="2:10">
       <c r="B86" s="266"/>
       <c r="C86" s="241" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D86" s="241" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="E86" s="241"/>
       <c r="F86" s="241" t="s">
@@ -9590,7 +10890,7 @@
       </c>
       <c r="G86" s="241"/>
       <c r="H86" s="241" t="s">
-        <v>500</v>
+        <v>453</v>
       </c>
       <c r="I86" s="246" t="s">
         <v>496</v>
@@ -9600,10 +10900,10 @@
     <row r="87" spans="2:10">
       <c r="B87" s="266"/>
       <c r="C87" s="241" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D87" s="241" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E87" s="241"/>
       <c r="F87" s="241" t="s">
@@ -9611,7 +10911,7 @@
       </c>
       <c r="G87" s="241"/>
       <c r="H87" s="241" t="s">
-        <v>502</v>
+        <v>454</v>
       </c>
       <c r="I87" s="246" t="s">
         <v>496</v>
@@ -9621,10 +10921,10 @@
     <row r="88" spans="2:10">
       <c r="B88" s="266"/>
       <c r="C88" s="241" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D88" s="241" t="s">
-        <v>444</v>
+        <v>30</v>
       </c>
       <c r="E88" s="241"/>
       <c r="F88" s="241" t="s">
@@ -9632,7 +10932,7 @@
       </c>
       <c r="G88" s="241"/>
       <c r="H88" s="241" t="s">
-        <v>456</v>
+        <v>500</v>
       </c>
       <c r="I88" s="246" t="s">
         <v>496</v>
@@ -9642,10 +10942,10 @@
     <row r="89" spans="2:10">
       <c r="B89" s="266"/>
       <c r="C89" s="241" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D89" s="241" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="E89" s="241"/>
       <c r="F89" s="241" t="s">
@@ -9653,7 +10953,7 @@
       </c>
       <c r="G89" s="241"/>
       <c r="H89" s="241" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="I89" s="246" t="s">
         <v>496</v>
@@ -9663,10 +10963,10 @@
     <row r="90" spans="2:10">
       <c r="B90" s="266"/>
       <c r="C90" s="241" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D90" s="241" t="s">
-        <v>31</v>
+        <v>444</v>
       </c>
       <c r="E90" s="241"/>
       <c r="F90" s="241" t="s">
@@ -9674,7 +10974,7 @@
       </c>
       <c r="G90" s="241"/>
       <c r="H90" s="241" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="I90" s="246" t="s">
         <v>496</v>
@@ -9684,10 +10984,10 @@
     <row r="91" spans="2:10">
       <c r="B91" s="266"/>
       <c r="C91" s="241" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D91" s="241" t="s">
-        <v>504</v>
+        <v>11</v>
       </c>
       <c r="E91" s="241"/>
       <c r="F91" s="241" t="s">
@@ -9695,7 +10995,7 @@
       </c>
       <c r="G91" s="241"/>
       <c r="H91" s="241" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="I91" s="246" t="s">
         <v>496</v>
@@ -9705,10 +11005,10 @@
     <row r="92" spans="2:10">
       <c r="B92" s="266"/>
       <c r="C92" s="241" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D92" s="241" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="E92" s="241"/>
       <c r="F92" s="241" t="s">
@@ -9716,7 +11016,7 @@
       </c>
       <c r="G92" s="241"/>
       <c r="H92" s="241" t="s">
-        <v>182</v>
+        <v>567</v>
       </c>
       <c r="I92" s="246" t="s">
         <v>496</v>
@@ -9726,10 +11026,10 @@
     <row r="93" spans="2:10">
       <c r="B93" s="266"/>
       <c r="C93" s="241" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D93" s="241" t="s">
-        <v>437</v>
+        <v>504</v>
       </c>
       <c r="E93" s="241"/>
       <c r="F93" s="241" t="s">
@@ -9737,7 +11037,7 @@
       </c>
       <c r="G93" s="241"/>
       <c r="H93" s="241" t="s">
-        <v>461</v>
+        <v>506</v>
       </c>
       <c r="I93" s="246" t="s">
         <v>496</v>
@@ -9747,10 +11047,10 @@
     <row r="94" spans="2:10">
       <c r="B94" s="266"/>
       <c r="C94" s="241" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D94" s="241" t="s">
-        <v>507</v>
+        <v>13</v>
       </c>
       <c r="E94" s="241"/>
       <c r="F94" s="241" t="s">
@@ -9758,7 +11058,7 @@
       </c>
       <c r="G94" s="241"/>
       <c r="H94" s="241" t="s">
-        <v>508</v>
+        <v>182</v>
       </c>
       <c r="I94" s="246" t="s">
         <v>496</v>
@@ -9768,10 +11068,10 @@
     <row r="95" spans="2:10">
       <c r="B95" s="266"/>
       <c r="C95" s="241" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D95" s="241" t="s">
-        <v>510</v>
+        <v>437</v>
       </c>
       <c r="E95" s="241"/>
       <c r="F95" s="241" t="s">
@@ -9779,7 +11079,7 @@
       </c>
       <c r="G95" s="241"/>
       <c r="H95" s="241" t="s">
-        <v>512</v>
+        <v>461</v>
       </c>
       <c r="I95" s="246" t="s">
         <v>496</v>
@@ -9789,10 +11089,10 @@
     <row r="96" spans="2:10">
       <c r="B96" s="266"/>
       <c r="C96" s="241" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D96" s="241" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="E96" s="241"/>
       <c r="F96" s="241" t="s">
@@ -9800,7 +11100,7 @@
       </c>
       <c r="G96" s="241"/>
       <c r="H96" s="241" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="I96" s="246" t="s">
         <v>496</v>
@@ -9810,10 +11110,10 @@
     <row r="97" spans="2:10">
       <c r="B97" s="266"/>
       <c r="C97" s="241" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D97" s="241" t="s">
-        <v>446</v>
+        <v>510</v>
       </c>
       <c r="E97" s="241"/>
       <c r="F97" s="241" t="s">
@@ -9821,7 +11121,7 @@
       </c>
       <c r="G97" s="241"/>
       <c r="H97" s="241" t="s">
-        <v>462</v>
+        <v>512</v>
       </c>
       <c r="I97" s="246" t="s">
         <v>496</v>
@@ -9831,10 +11131,10 @@
     <row r="98" spans="2:10">
       <c r="B98" s="266"/>
       <c r="C98" s="241" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D98" s="241" t="s">
-        <v>61</v>
+        <v>513</v>
       </c>
       <c r="E98" s="241"/>
       <c r="F98" s="241" t="s">
@@ -9842,65 +11142,87 @@
       </c>
       <c r="G98" s="241"/>
       <c r="H98" s="241" t="s">
-        <v>463</v>
+        <v>514</v>
       </c>
       <c r="I98" s="246" t="s">
         <v>496</v>
       </c>
       <c r="J98" s="14"/>
     </row>
-    <row r="99" spans="2:10" ht="17.250000">
-      <c r="B99" s="267"/>
-      <c r="C99" s="248" t="s">
+    <row r="99" spans="2:10">
+      <c r="B99" s="266"/>
+      <c r="C99" s="241" t="s">
+        <v>487</v>
+      </c>
+      <c r="D99" s="241" t="s">
+        <v>446</v>
+      </c>
+      <c r="E99" s="241"/>
+      <c r="F99" s="241" t="s">
+        <v>494</v>
+      </c>
+      <c r="G99" s="241"/>
+      <c r="H99" s="241" t="s">
+        <v>462</v>
+      </c>
+      <c r="I99" s="246" t="s">
+        <v>496</v>
+      </c>
+      <c r="J99" s="14"/>
+    </row>
+    <row r="100" spans="2:10">
+      <c r="B100" s="266"/>
+      <c r="C100" s="241" t="s">
+        <v>488</v>
+      </c>
+      <c r="D100" s="241" t="s">
+        <v>61</v>
+      </c>
+      <c r="E100" s="241"/>
+      <c r="F100" s="241" t="s">
+        <v>494</v>
+      </c>
+      <c r="G100" s="241"/>
+      <c r="H100" s="241" t="s">
+        <v>463</v>
+      </c>
+      <c r="I100" s="246" t="s">
+        <v>496</v>
+      </c>
+      <c r="J100" s="14"/>
+    </row>
+    <row r="101" spans="2:10" ht="17.250000">
+      <c r="B101" s="267"/>
+      <c r="C101" s="248" t="s">
         <v>489</v>
       </c>
-      <c r="D99" s="248" t="s">
+      <c r="D101" s="248" t="s">
         <v>515</v>
       </c>
-      <c r="E99" s="248"/>
-      <c r="F99" s="248" t="s">
+      <c r="E101" s="248"/>
+      <c r="F101" s="248" t="s">
         <v>494</v>
       </c>
-      <c r="G99" s="248"/>
-      <c r="H99" s="248" t="s">
+      <c r="G101" s="248"/>
+      <c r="H101" s="248" t="s">
         <v>516</v>
       </c>
-      <c r="I99" s="250" t="s">
+      <c r="I101" s="250" t="s">
         <v>496</v>
       </c>
-      <c r="J99" s="14"/>
-    </row>
-    <row r="100" spans="2:10">
-      <c r="B100" s="204" t="s">
+      <c r="J101" s="14"/>
+    </row>
+    <row r="102" spans="2:10">
+      <c r="B102" s="204" t="s">
         <v>517</v>
       </c>
-      <c r="C100" s="355"/>
-      <c r="D100" s="355"/>
-      <c r="E100" s="355"/>
-      <c r="F100" s="355"/>
-      <c r="G100" s="355"/>
-      <c r="H100" s="355"/>
-      <c r="I100" s="206"/>
-    </row>
-    <row r="101" spans="2:10">
-      <c r="B101" s="50"/>
-      <c r="C101" s="14"/>
-      <c r="D101" s="16"/>
-      <c r="E101" s="16"/>
-      <c r="F101" s="16"/>
-      <c r="G101" s="16"/>
-      <c r="H101" s="14"/>
-      <c r="I101" s="14"/>
-    </row>
-    <row r="102" spans="2:10">
-      <c r="B102" s="50"/>
-      <c r="C102" s="14"/>
-      <c r="D102" s="16"/>
-      <c r="E102" s="16"/>
-      <c r="F102" s="16"/>
-      <c r="G102" s="16"/>
-      <c r="H102" s="14"/>
-      <c r="I102" s="14"/>
+      <c r="C102" s="355"/>
+      <c r="D102" s="355"/>
+      <c r="E102" s="355"/>
+      <c r="F102" s="355"/>
+      <c r="G102" s="355"/>
+      <c r="H102" s="355"/>
+      <c r="I102" s="206"/>
     </row>
     <row r="103" spans="2:10">
       <c r="B103" s="50"/>
@@ -9912,8 +11234,28 @@
       <c r="H103" s="14"/>
       <c r="I103" s="14"/>
     </row>
+    <row r="104" spans="2:10">
+      <c r="B104" s="50"/>
+      <c r="C104" s="14"/>
+      <c r="D104" s="16"/>
+      <c r="E104" s="16"/>
+      <c r="F104" s="16"/>
+      <c r="G104" s="16"/>
+      <c r="H104" s="14"/>
+      <c r="I104" s="14"/>
+    </row>
+    <row r="105" spans="2:10">
+      <c r="B105" s="50"/>
+      <c r="C105" s="14"/>
+      <c r="D105" s="16"/>
+      <c r="E105" s="16"/>
+      <c r="F105" s="16"/>
+      <c r="G105" s="16"/>
+      <c r="H105" s="14"/>
+      <c r="I105" s="14"/>
+    </row>
   </sheetData>
-  <mergeCells count="209">
+  <mergeCells count="214">
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
@@ -10030,7 +11372,7 @@
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="F56:G56"/>
     <mergeCell ref="B57:I57"/>
-    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="B58:B62"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="F58:G58"/>
     <mergeCell ref="D59:E59"/>
@@ -10039,19 +11381,19 @@
     <mergeCell ref="F60:G60"/>
     <mergeCell ref="D61:E61"/>
     <mergeCell ref="F61:G61"/>
-    <mergeCell ref="B62:B65"/>
     <mergeCell ref="D62:E62"/>
     <mergeCell ref="F62:G62"/>
+    <mergeCell ref="B63:B66"/>
     <mergeCell ref="D63:E63"/>
     <mergeCell ref="F63:G63"/>
     <mergeCell ref="D64:E64"/>
     <mergeCell ref="F64:G64"/>
     <mergeCell ref="D65:E65"/>
     <mergeCell ref="F65:G65"/>
-    <mergeCell ref="B66:I66"/>
-    <mergeCell ref="B67:B78"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="B67:I67"/>
+    <mergeCell ref="B68:B79"/>
     <mergeCell ref="D68:E68"/>
     <mergeCell ref="F68:G68"/>
     <mergeCell ref="D69:E69"/>
@@ -10076,12 +11418,13 @@
     <mergeCell ref="F78:G78"/>
     <mergeCell ref="D79:E79"/>
     <mergeCell ref="F79:G79"/>
-    <mergeCell ref="B80:I80"/>
-    <mergeCell ref="B81:B99"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="F80:G80"/>
     <mergeCell ref="D81:E81"/>
     <mergeCell ref="F81:G81"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="B82:I82"/>
+    <mergeCell ref="B83:B101"/>
     <mergeCell ref="D83:E83"/>
     <mergeCell ref="F83:G83"/>
     <mergeCell ref="D84:E84"/>
@@ -10116,13 +11459,17 @@
     <mergeCell ref="F98:G98"/>
     <mergeCell ref="D99:E99"/>
     <mergeCell ref="F99:G99"/>
-    <mergeCell ref="B100:I100"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="F100:G100"/>
     <mergeCell ref="D101:E101"/>
     <mergeCell ref="F101:G101"/>
-    <mergeCell ref="D102:E102"/>
-    <mergeCell ref="F102:G102"/>
+    <mergeCell ref="B102:I102"/>
     <mergeCell ref="D103:E103"/>
     <mergeCell ref="F103:G103"/>
+    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="F104:G104"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="F105:G105"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
@@ -10134,7 +11481,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="120" workbookViewId="0">
       <selection activeCell="C7" sqref="C7:R28"/>
     </sheetView>
   </sheetViews>
@@ -10146,11 +11493,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="529">
+      <c r="A1" s="522">
         <v>1</v>
       </c>
       <c r="B1" s="361"/>
-      <c r="C1" s="530" t="s">
+      <c r="C1" s="523" t="s">
         <v>558</v>
       </c>
       <c r="D1" s="361"/>
@@ -10167,7 +11514,7 @@
       <c r="O1" s="361"/>
       <c r="P1" s="361"/>
       <c r="Q1" s="361"/>
-      <c r="R1" s="531" t="s">
+      <c r="R1" s="524" t="s">
         <v>529</v>
       </c>
       <c r="S1" s="52"/>
@@ -10191,7 +11538,7 @@
       <c r="O2" s="259"/>
       <c r="P2" s="259"/>
       <c r="Q2" s="259"/>
-      <c r="R2" s="532"/>
+      <c r="R2" s="525"/>
       <c r="S2" s="52"/>
       <c r="T2" s="50"/>
     </row>
@@ -10213,7 +11560,7 @@
       <c r="O3" s="259"/>
       <c r="P3" s="259"/>
       <c r="Q3" s="259"/>
-      <c r="R3" s="532" t="s">
+      <c r="R3" s="525" t="s">
         <v>530</v>
       </c>
       <c r="S3" s="52"/>
@@ -10222,24 +11569,24 @@
     <row r="4" spans="1:20">
       <c r="A4" s="343"/>
       <c r="B4" s="241"/>
-      <c r="C4" s="552" t="s">
+      <c r="C4" s="545" t="s">
         <v>566</v>
       </c>
-      <c r="D4" s="537"/>
-      <c r="E4" s="552"/>
-      <c r="F4" s="553"/>
-      <c r="G4" s="553"/>
-      <c r="H4" s="553"/>
-      <c r="I4" s="553"/>
-      <c r="J4" s="553"/>
-      <c r="K4" s="553"/>
-      <c r="L4" s="553"/>
-      <c r="M4" s="553"/>
-      <c r="N4" s="553"/>
-      <c r="O4" s="553"/>
-      <c r="P4" s="553"/>
-      <c r="Q4" s="537"/>
-      <c r="R4" s="532"/>
+      <c r="D4" s="530"/>
+      <c r="E4" s="545"/>
+      <c r="F4" s="546"/>
+      <c r="G4" s="546"/>
+      <c r="H4" s="546"/>
+      <c r="I4" s="546"/>
+      <c r="J4" s="546"/>
+      <c r="K4" s="546"/>
+      <c r="L4" s="546"/>
+      <c r="M4" s="546"/>
+      <c r="N4" s="546"/>
+      <c r="O4" s="546"/>
+      <c r="P4" s="546"/>
+      <c r="Q4" s="530"/>
+      <c r="R4" s="525"/>
       <c r="S4" s="52"/>
       <c r="T4" s="50"/>
     </row>
@@ -10265,7 +11612,7 @@
       <c r="O5" s="259"/>
       <c r="P5" s="241"/>
       <c r="Q5" s="241"/>
-      <c r="R5" s="538"/>
+      <c r="R5" s="531"/>
     </row>
     <row r="6" spans="1:20" ht="24.750000" customHeight="1">
       <c r="A6" s="343" t="s">
@@ -10289,7 +11636,7 @@
       <c r="O6" s="241"/>
       <c r="P6" s="241"/>
       <c r="Q6" s="241"/>
-      <c r="R6" s="538"/>
+      <c r="R6" s="531"/>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" s="266" t="s">
@@ -10734,11 +12081,11 @@
       <c r="R28" s="246"/>
     </row>
     <row r="29" spans="1:18">
-      <c r="A29" s="545" t="s">
+      <c r="A29" s="538" t="s">
         <v>565</v>
       </c>
-      <c r="B29" s="546"/>
-      <c r="C29" s="548"/>
+      <c r="B29" s="539"/>
+      <c r="C29" s="541"/>
       <c r="D29" s="359"/>
       <c r="E29" s="359"/>
       <c r="F29" s="359"/>
@@ -10753,12 +12100,12 @@
       <c r="O29" s="359"/>
       <c r="P29" s="359"/>
       <c r="Q29" s="359"/>
-      <c r="R29" s="549"/>
+      <c r="R29" s="542"/>
     </row>
     <row r="30" spans="1:18">
       <c r="A30" s="187"/>
       <c r="B30" s="253"/>
-      <c r="C30" s="523"/>
+      <c r="C30" s="516"/>
       <c r="D30" s="52"/>
       <c r="E30" s="52"/>
       <c r="F30" s="52"/>
@@ -10773,12 +12120,12 @@
       <c r="O30" s="52"/>
       <c r="P30" s="52"/>
       <c r="Q30" s="52"/>
-      <c r="R30" s="527"/>
+      <c r="R30" s="520"/>
     </row>
     <row r="31" spans="1:18">
       <c r="A31" s="187"/>
       <c r="B31" s="253"/>
-      <c r="C31" s="523"/>
+      <c r="C31" s="516"/>
       <c r="D31" s="52"/>
       <c r="E31" s="52"/>
       <c r="F31" s="52"/>
@@ -10793,27 +12140,27 @@
       <c r="O31" s="52"/>
       <c r="P31" s="52"/>
       <c r="Q31" s="52"/>
-      <c r="R31" s="527"/>
+      <c r="R31" s="520"/>
     </row>
     <row r="32" spans="1:18" ht="17.250000">
       <c r="A32" s="370"/>
-      <c r="B32" s="547"/>
-      <c r="C32" s="550"/>
-      <c r="D32" s="551"/>
-      <c r="E32" s="551"/>
-      <c r="F32" s="551"/>
-      <c r="G32" s="551"/>
-      <c r="H32" s="551"/>
-      <c r="I32" s="551"/>
-      <c r="J32" s="551"/>
-      <c r="K32" s="551"/>
-      <c r="L32" s="551"/>
-      <c r="M32" s="551"/>
-      <c r="N32" s="551"/>
-      <c r="O32" s="551"/>
-      <c r="P32" s="551"/>
-      <c r="Q32" s="551"/>
-      <c r="R32" s="528"/>
+      <c r="B32" s="540"/>
+      <c r="C32" s="543"/>
+      <c r="D32" s="544"/>
+      <c r="E32" s="544"/>
+      <c r="F32" s="544"/>
+      <c r="G32" s="544"/>
+      <c r="H32" s="544"/>
+      <c r="I32" s="544"/>
+      <c r="J32" s="544"/>
+      <c r="K32" s="544"/>
+      <c r="L32" s="544"/>
+      <c r="M32" s="544"/>
+      <c r="N32" s="544"/>
+      <c r="O32" s="544"/>
+      <c r="P32" s="544"/>
+      <c r="Q32" s="544"/>
+      <c r="R32" s="521"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -11408,7 +12755,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -11416,6 +12763,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/잡리스트 0514수정.xlsx
+++ b/잡리스트 0514수정.xlsx
@@ -4,14 +4,16 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="540" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="530" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="joblist" sheetId="1" r:id="rId1"/>
-    <sheet name="메인화면-&gt;로그인" sheetId="5" r:id="rId2"/>
-    <sheet name="로그인완료" sheetId="4" r:id="rId3"/>
-    <sheet name="로그인 전체 공정" sheetId="2" r:id="rId4"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
+    <sheet name="로그인버튼" sheetId="5" r:id="rId2"/>
+    <sheet name="로그인 화면처리" sheetId="7" r:id="rId3"/>
+    <sheet name="로그인처리" sheetId="6" r:id="rId4"/>
+    <sheet name="로그인 전체 공정" sheetId="2" r:id="rId5"/>
+    <sheet name="로그인버튼 (2)" sheetId="8" r:id="rId6"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="152511"/>
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="603">
   <si>
     <t>J O B L I S T</t>
   </si>
@@ -1768,6 +1770,114 @@
   </si>
   <si>
     <t>적립시간 추가 대화상자</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>로그인 버튼</t>
+    </r>
+  </si>
+  <si>
+    <t>메인 화면에서 로그인 버튼 처리</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>controller 값</t>
+  </si>
+  <si>
+    <t>Activity act , String str</t>
+  </si>
+  <si>
+    <t>최인수</t>
+  </si>
+  <si>
+    <t>프로세스</t>
+  </si>
+  <si>
+    <t>1. menu 버튼을 누르면 메뉴 출려ㅛㄱ</t>
+  </si>
+  <si>
+    <t>1. menu 버튼을 누르면 메뉴 출력
+2. 메뉴중 로그인 버튼을 클릭
+3. 컨트롤러로 현재 Acivity와 string 값을 컨트롤러에 전달</t>
+  </si>
+  <si>
+    <t>selLogin</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>로그인화면처리</t>
+    </r>
+  </si>
+  <si>
+    <t>로그인 화면 불러오기 및 로그인 화면 처리</t>
+  </si>
+  <si>
+    <t>String ID , String Pw</t>
+  </si>
+  <si>
+    <t>컨트롤러에서 Login</t>
+  </si>
+  <si>
+    <t>1.컨트롤러에서 Login값을 받았을 경우 login 액티비티를 출력
+2. 로그인 버튼을 눌렀을 경우 id텍스트나 pw텍스트가 공백일 경우 아무것도 동작 안함
+3. 두 값이 모두 있는 경우 id , pw 및 Activity및 String 값을 controller에 전달</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>로그인처리</t>
+    </r>
+  </si>
+  <si>
+    <t>ArrayList or X</t>
+  </si>
+  <si>
+    <t>ClearLogin or adminLogin</t>
+  </si>
+  <si>
+    <t>Member.selectLogin</t>
+  </si>
+  <si>
+    <t>로그인 시도 했을 경우 로그인 처리 프로세스</t>
+  </si>
+  <si>
+    <t>1.컨트롤러에서 selLogin값을 받았을 경우 
+2. 로그인 버튼을 눌렀을 경우 id텍스트나 pw텍스트가 공백일 경우 아무것도 동작 안함
+3. 두 값이 모두 있는 경우 id , pw 및 Activity및 String 값을 controller에 전달</t>
+  </si>
+  <si>
+    <t>1.컨트롤러에서 selLogin값을 받았을 경우 
+2. 로그인을 처리하기 위한 selectLogin메서드를 실행
+3. 출력값이 0일 경우 Ac.Toasts를 실행해</t>
+  </si>
+  <si>
+    <t>1.컨트롤러에서 selLogin값을 받았을 경우 
+2. 로그인을 처리하기 위한 selectLogin메서드를 실행
+3. 출력값이 0일 경우 Ac.Toasts를 실행해 Login화며넹 Toast출력
+4.1일 경우에는 selectID메서드 실행 후 컨트롤러로 값 전달</t>
+  </si>
+  <si>
+    <t>1.컨트롤러에서 selLogin값을 받았을 경우 
+2. 로그인을 처리하기 위한 selectLogin메서드를 실행
+3. 출력값이 0일 경우 Ac.Toasts를 실행해 Login화며넹 Toast출력
+4.1일 경우에는 selectID메서드 실행 후 controller로 값 전달
+5. 2일 경우에는 controller에 adminLogin값을 전달</t>
   </si>
 </sst>
 </file>
@@ -2146,7 +2256,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="191">
+  <borders count="192">
     <border>
       <left/>
       <right/>
@@ -4626,6 +4736,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4776,7 +4897,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="549">
+  <cellXfs count="564">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6423,6 +6544,51 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="190" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="117" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="128" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="126" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="128" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="126" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="128" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="126" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="191" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="185" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="123" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="191" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="183" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="186" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="187" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -6572,1439 +6738,48 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>294005</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>24130</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>646430</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>71755</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="도형 23"/>
-        <xdr:cNvSpPr>
-          <a:spLocks/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="그림 23"/>
+        <xdr:cNvPicPr preferRelativeResize="0">
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1760220" y="1691640"/>
-          <a:ext cx="1200150" cy="361950"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" lIns="89535" tIns="46355" rIns="89535" bIns="46355" anchor="ctr" vertOverflow="clip">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:buFontTx/>
-            <a:buNone/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" cap="none" dirty="0" smtClean="0" b="0">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="맑은 고딕"/>
-              <a:ea typeface="맑은 고딕"/>
-            </a:rPr>
-            <a:t>Main Activity</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" dirty="0" smtClean="0" cap="none" b="0">
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:latin typeface="맑은 고딕"/>
-            <a:ea typeface="맑은 고딕"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp>
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="24" name="도형 24"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3084195" y="1891665"/>
-          <a:ext cx="400050" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1"/>
-        <a:ln w="12700" cap="flat" cmpd="sng">
-          <a:prstDash val="solid"/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="도형 25"/>
-        <xdr:cNvSpPr>
-          <a:spLocks/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3598545" y="1663065"/>
-          <a:ext cx="1419225" cy="447675"/>
-        </a:xfrm>
-        <a:prstGeom prst="diamond"/>
-        <a:ln w="12700" cap="flat" cmpd="sng">
-          <a:prstDash/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" lIns="89535" tIns="46355" rIns="89535" bIns="46355" anchor="ctr" vertOverflow="clip">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:buFontTx/>
-            <a:buNone/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="900" kern="1200" cap="none" dirty="0" smtClean="0" b="0">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="맑은 고딕"/>
-              <a:ea typeface="맑은 고딕"/>
-            </a:rPr>
-            <a:t>Menu클릭</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="900" kern="1200" dirty="0" smtClean="0" cap="none" b="0">
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:latin typeface="맑은 고딕"/>
-            <a:ea typeface="맑은 고딕"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp>
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="26" name="도형 26"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="2350770" y="2101215"/>
-          <a:ext cx="0" cy="466725"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1"/>
-        <a:ln w="12700" cap="flat" cmpd="sng">
-          <a:prstDash/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>60325</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp>
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="27" name="도형 27"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2360295" y="2552065"/>
-          <a:ext cx="1955800" cy="6350"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp>
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="28" name="도형 28"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4312920" y="2120265"/>
-          <a:ext cx="0" cy="428625"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="도형 29"/>
-        <xdr:cNvSpPr>
-          <a:spLocks/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4493895" y="2072640"/>
-          <a:ext cx="838200" cy="361950"/>
+          <a:off x="2425700" y="3773170"/>
+          <a:ext cx="9953625" cy="1304925"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="12700" cap="flat" cmpd="sng">
-          <a:solidFill>
-            <a:srgbClr val="D5D5D5">
-              <a:alpha val="100000"/>
-            </a:srgbClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
+        <a:noFill/>
       </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" lIns="89535" tIns="46355" rIns="89535" bIns="46355" anchor="t" vertOverflow="clip">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:p>
-          <a:pPr algn="l">
-            <a:buFontTx/>
-            <a:buNone/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" cap="none" dirty="0" smtClean="0" b="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="맑은 고딕"/>
-              <a:ea typeface="맑은 고딕"/>
-            </a:rPr>
-            <a:t>false
-</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" dirty="0" smtClean="0" cap="none" b="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="맑은 고딕"/>
-            <a:ea typeface="맑은 고딕"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="도형 30"/>
-        <xdr:cNvSpPr>
-          <a:spLocks/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4865370" y="1472565"/>
-          <a:ext cx="857250" cy="257175"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect"/>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="12700" cap="flat" cmpd="sng">
-          <a:solidFill>
-            <a:srgbClr val="D5D5D5">
-              <a:alpha val="100000"/>
-            </a:srgbClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" lIns="89535" tIns="46355" rIns="89535" bIns="46355" anchor="t" vertOverflow="clip">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:p>
-          <a:pPr algn="l">
-            <a:buFontTx/>
-            <a:buNone/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" cap="none" dirty="0" smtClean="0" b="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="맑은 고딕"/>
-              <a:ea typeface="맑은 고딕"/>
-            </a:rPr>
-            <a:t>true
-</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" dirty="0" smtClean="0" cap="none" b="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="맑은 고딕"/>
-            <a:ea typeface="맑은 고딕"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp>
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="31" name="도형 31"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="5160645" y="1872615"/>
-          <a:ext cx="400050" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1"/>
-        <a:ln w="12700" cap="flat" cmpd="sng">
-          <a:prstDash val="solid"/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="도형 32"/>
-        <xdr:cNvSpPr>
-          <a:spLocks/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5674995" y="1682115"/>
-          <a:ext cx="1200150" cy="361950"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" lIns="89535" tIns="46355" rIns="89535" bIns="46355" anchor="ctr" vertOverflow="clip">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:buFontTx/>
-            <a:buNone/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" cap="none" dirty="0" smtClean="0" b="0">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="맑은 고딕"/>
-              <a:ea typeface="맑은 고딕"/>
-            </a:rPr>
-            <a:t>Menu를 띄워줌</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" dirty="0" smtClean="0" cap="none" b="0">
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:latin typeface="맑은 고딕"/>
-            <a:ea typeface="맑은 고딕"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp>
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="33" name="도형 33"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6989445" y="1834515"/>
-          <a:ext cx="400050" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1"/>
-        <a:ln w="12700" cap="flat" cmpd="sng">
-          <a:prstDash val="solid"/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="도형 34"/>
-        <xdr:cNvSpPr>
-          <a:spLocks/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7446645" y="1596390"/>
-          <a:ext cx="1419225" cy="447675"/>
-        </a:xfrm>
-        <a:prstGeom prst="diamond"/>
-        <a:ln w="12700" cap="flat" cmpd="sng">
-          <a:prstDash/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" lIns="89535" tIns="46355" rIns="89535" bIns="46355" anchor="ctr" vertOverflow="clip">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:buFontTx/>
-            <a:buNone/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" kern="1200" cap="none" dirty="0" smtClean="0" b="0">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="맑은 고딕"/>
-              <a:ea typeface="맑은 고딕"/>
-            </a:rPr>
-            <a:t>로그인클릭</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800" kern="1200" dirty="0" smtClean="0" cap="none" b="0">
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:latin typeface="맑은 고딕"/>
-            <a:ea typeface="맑은 고딕"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>530225</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>187325</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp>
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="36" name="도형 36"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="8148320" y="2050415"/>
-          <a:ext cx="3175" cy="454025"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="도형 37"/>
-        <xdr:cNvSpPr>
-          <a:spLocks/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8218170" y="2120265"/>
-          <a:ext cx="838200" cy="361950"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect"/>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="12700" cap="flat" cmpd="sng">
-          <a:solidFill>
-            <a:srgbClr val="D5D5D5">
-              <a:alpha val="100000"/>
-            </a:srgbClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" lIns="89535" tIns="46355" rIns="89535" bIns="46355" anchor="t" vertOverflow="clip">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:p>
-          <a:pPr algn="l">
-            <a:buFontTx/>
-            <a:buNone/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" cap="none" dirty="0" smtClean="0" b="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="맑은 고딕"/>
-              <a:ea typeface="맑은 고딕"/>
-            </a:rPr>
-            <a:t>false
-</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" dirty="0" smtClean="0" cap="none" b="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="맑은 고딕"/>
-            <a:ea typeface="맑은 고딕"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="도형 38"/>
-        <xdr:cNvSpPr>
-          <a:spLocks/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8789670" y="1472565"/>
-          <a:ext cx="857250" cy="257175"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect"/>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="12700" cap="flat" cmpd="sng">
-          <a:solidFill>
-            <a:srgbClr val="D5D5D5">
-              <a:alpha val="100000"/>
-            </a:srgbClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" lIns="89535" tIns="46355" rIns="89535" bIns="46355" anchor="t" vertOverflow="clip">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:p>
-          <a:pPr algn="l">
-            <a:buFontTx/>
-            <a:buNone/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" cap="none" dirty="0" smtClean="0" b="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="맑은 고딕"/>
-              <a:ea typeface="맑은 고딕"/>
-            </a:rPr>
-            <a:t>true
-</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" dirty="0" smtClean="0" cap="none" b="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="맑은 고딕"/>
-            <a:ea typeface="맑은 고딕"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp>
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="39" name="도형 39"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="8980170" y="1824990"/>
-          <a:ext cx="1152525" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1"/>
-        <a:ln w="12700" cap="flat" cmpd="sng">
-          <a:prstDash val="solid"/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp>
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="40" name="도형 40"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="6265545" y="2082165"/>
-          <a:ext cx="0" cy="466725"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1"/>
-        <a:ln w="12700" cap="flat" cmpd="sng">
-          <a:prstDash/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>15875</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>8255</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>539750</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp>
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="41" name="도형 41"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="6262370" y="2499995"/>
-          <a:ext cx="1895475" cy="39370"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>484505</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>309880</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>151130</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="도형 42"/>
-        <xdr:cNvSpPr>
-          <a:spLocks/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10160000" y="1653540"/>
-          <a:ext cx="1196975" cy="360680"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" lIns="89535" tIns="46355" rIns="89535" bIns="46355" anchor="ctr" vertOverflow="clip">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:buFontTx/>
-            <a:buNone/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" kern="1200" cap="none" dirty="0" smtClean="0" b="0">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="맑은 고딕"/>
-              <a:ea typeface="맑은 고딕"/>
-            </a:rPr>
-            <a:t>controller 값을 보냄</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800" kern="1200" dirty="0" smtClean="0" cap="none" b="0">
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:latin typeface="맑은 고딕"/>
-            <a:ea typeface="맑은 고딕"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>405130</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>167005</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>412750</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>55880</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp>
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="43" name="도형 43"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10766425" y="2030095"/>
-          <a:ext cx="7620" cy="727075"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1"/>
-        <a:ln w="12700" cap="flat" cmpd="sng">
-          <a:prstDash/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>349250</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>484505</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="도형 44"/>
-        <xdr:cNvSpPr>
-          <a:spLocks/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10024745" y="2844165"/>
-          <a:ext cx="1506855" cy="676275"/>
-        </a:xfrm>
-        <a:prstGeom prst="diamond"/>
-        <a:ln w="12700" cap="flat" cmpd="sng">
-          <a:prstDash/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" lIns="89535" tIns="46355" rIns="89535" bIns="46355" anchor="ctr" vertOverflow="clip">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:buFontTx/>
-            <a:buNone/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" kern="1200" cap="none" dirty="0" smtClean="0" b="0">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="맑은 고딕"/>
-              <a:ea typeface="맑은 고딕"/>
-            </a:rPr>
-            <a:t>para = "login"</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800" kern="1200" dirty="0" smtClean="0" cap="none" b="0">
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:latin typeface="맑은 고딕"/>
-            <a:ea typeface="맑은 고딕"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>79375</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>325755</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>79375</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp>
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="45" name="도형 45"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="9053195" y="3199765"/>
-          <a:ext cx="948055" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1"/>
-        <a:ln w="12700" cap="flat" cmpd="sng">
-          <a:prstDash/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>174625</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>135255</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>79375</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="도형 46"/>
-        <xdr:cNvSpPr>
-          <a:spLocks/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7792720" y="3046095"/>
-          <a:ext cx="1196975" cy="363220"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" lIns="89535" tIns="46355" rIns="89535" bIns="46355" anchor="ctr" vertOverflow="clip">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:buFontTx/>
-            <a:buNone/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" cap="none" dirty="0" smtClean="0" b="0">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="맑은 고딕"/>
-              <a:ea typeface="맑은 고딕"/>
-            </a:rPr>
-            <a:t>login화면 출력</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" dirty="0" smtClean="0" cap="none" b="0">
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:latin typeface="맑은 고딕"/>
-            <a:ea typeface="맑은 고딕"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -8012,322 +6787,6 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1" name="다이아몬드 1"/>
-        <xdr:cNvSpPr>
-          <a:spLocks/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1712595" y="2186940"/>
-          <a:ext cx="1390650" cy="1114425"/>
-        </a:xfrm>
-        <a:prstGeom prst="diamond"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" vertOverflow="clip">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:buFontTx/>
-            <a:buNone/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="900" kern="1200" cap="none" dirty="0" smtClean="0" b="0">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="맑은 고딕"/>
-              <a:ea typeface="맑은 고딕"/>
-            </a:rPr>
-            <a:t>String 
-=
- loginjoin</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="900" kern="1200" dirty="0" smtClean="0" cap="none" b="0">
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:latin typeface="맑은 고딕"/>
-            <a:ea typeface="맑은 고딕"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="직사각형 2"/>
-        <xdr:cNvSpPr>
-          <a:spLocks/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="55245" y="2929890"/>
-          <a:ext cx="1162050" cy="561975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="91440" anchor="ctr" vertOverflow="clip">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:buFontTx/>
-            <a:buNone/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" cap="none" dirty="0" smtClean="0" b="0">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-            </a:rPr>
-            <a:t>MainActivity</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" dirty="0" smtClean="0" cap="none" b="0">
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="오른쪽 화살표 3"/>
-        <xdr:cNvSpPr>
-          <a:spLocks/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1341120" y="2367915"/>
-          <a:ext cx="352425" cy="133350"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="직사각형 4"/>
-        <xdr:cNvSpPr>
-          <a:spLocks/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3846195" y="2167890"/>
-          <a:ext cx="1181100" cy="561975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" vertOverflow="clip">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:buFontTx/>
-            <a:buNone/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" cap="none" dirty="0" smtClean="0" b="0">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="맑은 고딕"/>
-              <a:ea typeface="맑은 고딕"/>
-            </a:rPr>
-            <a:t> selectLogin</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" dirty="0" smtClean="0" cap="none" b="0">
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:latin typeface="맑은 고딕"/>
-            <a:ea typeface="맑은 고딕"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="오른쪽 화살표 5"/>
-        <xdr:cNvSpPr>
-          <a:spLocks/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="1283970" y="3120390"/>
-          <a:ext cx="352425" cy="133350"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
@@ -8343,14 +6802,14 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="TextBox 6"/>
+        <xdr:cNvPr id="16" name="TextBox 16"/>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5332095" y="2329815"/>
+          <a:off x="5427345" y="2491740"/>
           <a:ext cx="190500" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -8374,15 +6833,15 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="TextBox 8"/>
+        <xdr:cNvPr id="22" name="TextBox 22"/>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3427095" y="3177540"/>
-          <a:ext cx="714375" cy="447675"/>
+          <a:off x="3522345" y="3329940"/>
+          <a:ext cx="714375" cy="438150"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
         <a:noFill/>
@@ -8419,143 +6878,116 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>15875</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>174625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="그림 23"/>
+        <xdr:cNvPicPr preferRelativeResize="0">
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1461770" y="3345815"/>
+          <a:ext cx="12719050" cy="2673350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="오른쪽 화살표 9"/>
-        <xdr:cNvSpPr>
+        <xdr:cNvPr id="16" name="TextBox 16"/>
+        <xdr:cNvSpPr txBox="1">
           <a:spLocks/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3255645" y="2215515"/>
-          <a:ext cx="352425" cy="190500"/>
+          <a:off x="5427345" y="2491740"/>
+          <a:ext cx="190500" cy="257175"/>
         </a:xfrm>
-        <a:prstGeom prst="rightArrow"/>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
       </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="오른쪽 화살표 10"/>
-        <xdr:cNvSpPr>
-          <a:spLocks/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000" flipV="1">
-          <a:off x="3208020" y="2539365"/>
-          <a:ext cx="409575" cy="152400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="직사각형 11"/>
-        <xdr:cNvSpPr>
+        <xdr:cNvPr id="22" name="TextBox 22"/>
+        <xdr:cNvSpPr txBox="1">
           <a:spLocks/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="36195" y="2244090"/>
-          <a:ext cx="1181100" cy="561975"/>
+          <a:off x="3522345" y="3329940"/>
+          <a:ext cx="714375" cy="438150"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
+        <a:noFill/>
       </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
       <xdr:txBody>
-        <a:bodyPr wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" vertOverflow="clip">
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="91440" anchor="t" vertOverflow="clip">
           <a:noAutofit/>
         </a:bodyPr>
         <a:p>
@@ -8568,226 +7000,72 @@
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
-              <a:latin typeface="맑은 고딕"/>
-              <a:ea typeface="맑은 고딕"/>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
             </a:rPr>
-            <a:t> login</a:t>
+            <a:t>mHistory
+html</a:t>
           </a:r>
           <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" dirty="0" smtClean="0" cap="none" b="0">
             <a:solidFill>
               <a:srgbClr val="FFFFFF"/>
             </a:solidFill>
-            <a:latin typeface="맑은 고딕"/>
-            <a:ea typeface="맑은 고딕"/>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>15875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>396875</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>8255</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="오른쪽 화살표 12"/>
-        <xdr:cNvSpPr>
-          <a:spLocks/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3198495" y="3301365"/>
-          <a:ext cx="409575" cy="161925"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="오른쪽 화살표 13"/>
-        <xdr:cNvSpPr>
-          <a:spLocks/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000" flipV="1">
-          <a:off x="3217545" y="2939415"/>
-          <a:ext cx="409575" cy="161925"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 52963"/>
-            <a:gd name="adj2" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="t" vertOverflow="clip">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:p>
-          <a:pPr algn="l">
-            <a:buFontTx/>
-            <a:buNone/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" cap="none" dirty="0" smtClean="0" b="0">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="맑은 고딕"/>
-              <a:ea typeface="맑은 고딕"/>
-            </a:rPr>
-            <a:t>b</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" dirty="0" smtClean="0" cap="none" b="0">
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:latin typeface="맑은 고딕"/>
-            <a:ea typeface="맑은 고딕"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="직사각형 14"/>
-        <xdr:cNvSpPr>
-          <a:spLocks/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="그림 23"/>
+        <xdr:cNvPicPr preferRelativeResize="0">
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3827145" y="2920365"/>
-          <a:ext cx="1181100" cy="561975"/>
+          <a:off x="3757294" y="3345815"/>
+          <a:ext cx="7686676" cy="2716530"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
+        <a:noFill/>
       </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" vertOverflow="clip">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:buFontTx/>
-            <a:buNone/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" cap="none" dirty="0" smtClean="0" b="0">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="맑은 고딕"/>
-              <a:ea typeface="맑은 고딕"/>
-            </a:rPr>
-            <a:t> selectID</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" dirty="0" smtClean="0" cap="none" b="0">
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:latin typeface="맑은 고딕"/>
-            <a:ea typeface="맑은 고딕"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -8804,7 +7082,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="그림 1"/>
+        <xdr:cNvPr id="1" name="그림 1" descr="xl/media/OImage2932675050.png"/>
         <xdr:cNvPicPr preferRelativeResize="0">
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -8826,6 +7104,146 @@
         <a:xfrm>
           <a:off x="26670" y="0"/>
           <a:ext cx="11001375" cy="6943725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="TextBox 16"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5427345" y="2491740"/>
+          <a:ext cx="190500" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="TextBox 22"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3522345" y="3329940"/>
+          <a:ext cx="714375" cy="438150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="91440" anchor="t" vertOverflow="clip">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:buFontTx/>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" cap="none" dirty="0" smtClean="0" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+            </a:rPr>
+            <a:t>mHistory
+html</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" dirty="0" smtClean="0" cap="none" b="0">
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>294005</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>24130</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>646430</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>71755</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="그림 23"/>
+        <xdr:cNvPicPr preferRelativeResize="0">
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2425700" y="3773170"/>
+          <a:ext cx="9953625" cy="1304925"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
         <a:noFill/>
@@ -9101,8 +7519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N105"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31:E31"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="B102" sqref="B102:I102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -11481,8 +9899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T32"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="120" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:R28"/>
+    <sheetView zoomScale="120" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16:S28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -11497,8 +9915,8 @@
         <v>1</v>
       </c>
       <c r="B1" s="361"/>
-      <c r="C1" s="523" t="s">
-        <v>558</v>
+      <c r="C1" s="549" t="s">
+        <v>579</v>
       </c>
       <c r="D1" s="361"/>
       <c r="E1" s="361"/>
@@ -11517,7 +9935,9 @@
       <c r="R1" s="524" t="s">
         <v>529</v>
       </c>
-      <c r="S1" s="52"/>
+      <c r="S1" s="556">
+        <v>43601</v>
+      </c>
       <c r="T1" s="50"/>
     </row>
     <row r="2" spans="1:20">
@@ -11563,7 +9983,9 @@
       <c r="R3" s="525" t="s">
         <v>530</v>
       </c>
-      <c r="S3" s="52"/>
+      <c r="S3" s="556">
+        <v>43601</v>
+      </c>
       <c r="T3" s="50"/>
     </row>
     <row r="4" spans="1:20">
@@ -11573,7 +9995,9 @@
         <v>566</v>
       </c>
       <c r="D4" s="530"/>
-      <c r="E4" s="545"/>
+      <c r="E4" s="545" t="s">
+        <v>580</v>
+      </c>
       <c r="F4" s="546"/>
       <c r="G4" s="546"/>
       <c r="H4" s="546"/>
@@ -11595,7 +10019,9 @@
         <v>561</v>
       </c>
       <c r="B5" s="241"/>
-      <c r="C5" s="241"/>
+      <c r="C5" s="241" t="s">
+        <v>583</v>
+      </c>
       <c r="D5" s="241"/>
       <c r="E5" s="241"/>
       <c r="F5" s="241"/>
@@ -11605,504 +10031,556 @@
         <v>562</v>
       </c>
       <c r="J5" s="241"/>
-      <c r="K5" s="259"/>
+      <c r="K5" s="259" t="s">
+        <v>581</v>
+      </c>
       <c r="L5" s="259"/>
       <c r="M5" s="259"/>
       <c r="N5" s="259"/>
       <c r="O5" s="259"/>
       <c r="P5" s="241"/>
       <c r="Q5" s="241"/>
-      <c r="R5" s="531"/>
+      <c r="R5" s="554" t="s">
+        <v>531</v>
+      </c>
+      <c r="S5" s="349" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="6" spans="1:20" ht="24.750000" customHeight="1">
       <c r="A6" s="343" t="s">
         <v>563</v>
       </c>
       <c r="B6" s="241"/>
-      <c r="C6" s="241"/>
+      <c r="C6" s="241" t="s">
+        <v>469</v>
+      </c>
       <c r="D6" s="241"/>
       <c r="E6" s="241"/>
       <c r="F6" s="241"/>
       <c r="G6" s="241"/>
       <c r="H6" s="241"/>
       <c r="I6" s="241" t="s">
-        <v>564</v>
+        <v>582</v>
       </c>
       <c r="J6" s="241"/>
-      <c r="K6" s="241"/>
+      <c r="K6" s="241" t="s">
+        <v>180</v>
+      </c>
       <c r="L6" s="241"/>
       <c r="M6" s="241"/>
       <c r="N6" s="241"/>
       <c r="O6" s="241"/>
       <c r="P6" s="241"/>
       <c r="Q6" s="241"/>
-      <c r="R6" s="531"/>
+      <c r="R6" s="555"/>
+      <c r="S6" s="349"/>
     </row>
     <row r="7" spans="1:20">
-      <c r="A7" s="266" t="s">
+      <c r="A7" s="538" t="s">
         <v>519</v>
       </c>
-      <c r="B7" s="259"/>
-      <c r="C7" s="241"/>
-      <c r="D7" s="241"/>
-      <c r="E7" s="241"/>
-      <c r="F7" s="241"/>
-      <c r="G7" s="241"/>
-      <c r="H7" s="241"/>
-      <c r="I7" s="241"/>
-      <c r="J7" s="241"/>
-      <c r="K7" s="241"/>
-      <c r="L7" s="241"/>
-      <c r="M7" s="241"/>
-      <c r="N7" s="241"/>
-      <c r="O7" s="241"/>
-      <c r="P7" s="241"/>
-      <c r="Q7" s="241"/>
-      <c r="R7" s="246"/>
+      <c r="B7" s="539"/>
+      <c r="C7" s="561" t="s">
+        <v>587</v>
+      </c>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="52"/>
+      <c r="O7" s="52"/>
+      <c r="P7" s="52"/>
+      <c r="Q7" s="52"/>
+      <c r="R7" s="52"/>
+      <c r="S7" s="52"/>
     </row>
     <row r="8" spans="1:20">
-      <c r="A8" s="266"/>
-      <c r="B8" s="259"/>
-      <c r="C8" s="241"/>
-      <c r="D8" s="241"/>
-      <c r="E8" s="241"/>
-      <c r="F8" s="241"/>
-      <c r="G8" s="241"/>
-      <c r="H8" s="241"/>
-      <c r="I8" s="241"/>
-      <c r="J8" s="241"/>
-      <c r="K8" s="241"/>
-      <c r="L8" s="241"/>
-      <c r="M8" s="241"/>
-      <c r="N8" s="241"/>
-      <c r="O8" s="241"/>
-      <c r="P8" s="241"/>
-      <c r="Q8" s="241"/>
-      <c r="R8" s="246"/>
+      <c r="A8" s="187"/>
+      <c r="B8" s="253"/>
+      <c r="C8" s="516"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="52"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="52"/>
+      <c r="Q8" s="52"/>
+      <c r="R8" s="52"/>
+      <c r="S8" s="52"/>
     </row>
     <row r="9" spans="1:20">
-      <c r="A9" s="266"/>
-      <c r="B9" s="259"/>
-      <c r="C9" s="241"/>
-      <c r="D9" s="241"/>
-      <c r="E9" s="241"/>
-      <c r="F9" s="241"/>
-      <c r="G9" s="241"/>
-      <c r="H9" s="241"/>
-      <c r="I9" s="241"/>
-      <c r="J9" s="241"/>
-      <c r="K9" s="241"/>
-      <c r="L9" s="241"/>
-      <c r="M9" s="241"/>
-      <c r="N9" s="241"/>
-      <c r="O9" s="241"/>
-      <c r="P9" s="241"/>
-      <c r="Q9" s="241"/>
-      <c r="R9" s="246"/>
+      <c r="A9" s="187"/>
+      <c r="B9" s="253"/>
+      <c r="C9" s="516"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="52"/>
+      <c r="O9" s="52"/>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="52"/>
+      <c r="R9" s="52"/>
+      <c r="S9" s="52"/>
     </row>
     <row r="10" spans="1:20">
-      <c r="A10" s="266"/>
-      <c r="B10" s="259"/>
-      <c r="C10" s="241"/>
-      <c r="D10" s="241"/>
-      <c r="E10" s="241"/>
-      <c r="F10" s="241"/>
-      <c r="G10" s="241"/>
-      <c r="H10" s="241"/>
-      <c r="I10" s="241"/>
-      <c r="J10" s="241"/>
-      <c r="K10" s="241"/>
-      <c r="L10" s="241"/>
-      <c r="M10" s="241"/>
-      <c r="N10" s="241"/>
-      <c r="O10" s="241"/>
-      <c r="P10" s="241"/>
-      <c r="Q10" s="241"/>
-      <c r="R10" s="246"/>
+      <c r="A10" s="187"/>
+      <c r="B10" s="253"/>
+      <c r="C10" s="516"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="52"/>
+      <c r="O10" s="52"/>
+      <c r="P10" s="52"/>
+      <c r="Q10" s="52"/>
+      <c r="R10" s="52"/>
+      <c r="S10" s="52"/>
     </row>
     <row r="11" spans="1:20">
-      <c r="A11" s="266"/>
-      <c r="B11" s="259"/>
-      <c r="C11" s="241"/>
-      <c r="D11" s="241"/>
-      <c r="E11" s="241"/>
-      <c r="F11" s="241"/>
-      <c r="G11" s="241"/>
-      <c r="H11" s="241"/>
-      <c r="I11" s="241"/>
-      <c r="J11" s="241"/>
-      <c r="K11" s="241"/>
-      <c r="L11" s="241"/>
-      <c r="M11" s="241"/>
-      <c r="N11" s="241"/>
-      <c r="O11" s="241"/>
-      <c r="P11" s="241"/>
-      <c r="Q11" s="241"/>
-      <c r="R11" s="246"/>
+      <c r="A11" s="187"/>
+      <c r="B11" s="253"/>
+      <c r="C11" s="516"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="52"/>
+      <c r="O11" s="52"/>
+      <c r="P11" s="52"/>
+      <c r="Q11" s="52"/>
+      <c r="R11" s="52"/>
+      <c r="S11" s="52"/>
     </row>
     <row r="12" spans="1:20">
-      <c r="A12" s="266"/>
-      <c r="B12" s="259"/>
-      <c r="C12" s="241"/>
-      <c r="D12" s="241"/>
-      <c r="E12" s="241"/>
-      <c r="F12" s="241"/>
-      <c r="G12" s="241"/>
-      <c r="H12" s="241"/>
-      <c r="I12" s="241"/>
-      <c r="J12" s="241"/>
-      <c r="K12" s="241"/>
-      <c r="L12" s="241"/>
-      <c r="M12" s="241"/>
-      <c r="N12" s="241"/>
-      <c r="O12" s="241"/>
-      <c r="P12" s="241"/>
-      <c r="Q12" s="241"/>
-      <c r="R12" s="246"/>
+      <c r="A12" s="187"/>
+      <c r="B12" s="253"/>
+      <c r="C12" s="516"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="52"/>
+      <c r="O12" s="52"/>
+      <c r="P12" s="52"/>
+      <c r="Q12" s="52"/>
+      <c r="R12" s="52"/>
+      <c r="S12" s="52"/>
     </row>
     <row r="13" spans="1:20">
-      <c r="A13" s="266"/>
-      <c r="B13" s="259"/>
-      <c r="C13" s="241"/>
-      <c r="D13" s="241"/>
-      <c r="E13" s="241"/>
-      <c r="F13" s="241"/>
-      <c r="G13" s="241"/>
-      <c r="H13" s="241"/>
-      <c r="I13" s="241"/>
-      <c r="J13" s="241"/>
-      <c r="K13" s="241"/>
-      <c r="L13" s="241"/>
-      <c r="M13" s="241"/>
-      <c r="N13" s="241"/>
-      <c r="O13" s="241"/>
-      <c r="P13" s="241"/>
-      <c r="Q13" s="241"/>
-      <c r="R13" s="246"/>
+      <c r="A13" s="187"/>
+      <c r="B13" s="253"/>
+      <c r="C13" s="516"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="52"/>
+      <c r="O13" s="52"/>
+      <c r="P13" s="52"/>
+      <c r="Q13" s="52"/>
+      <c r="R13" s="52"/>
+      <c r="S13" s="52"/>
     </row>
     <row r="14" spans="1:20">
-      <c r="A14" s="266"/>
-      <c r="B14" s="259"/>
-      <c r="C14" s="241"/>
-      <c r="D14" s="241"/>
-      <c r="E14" s="241"/>
-      <c r="F14" s="241"/>
-      <c r="G14" s="241"/>
-      <c r="H14" s="241"/>
-      <c r="I14" s="241"/>
-      <c r="J14" s="241"/>
-      <c r="K14" s="241"/>
-      <c r="L14" s="241"/>
-      <c r="M14" s="241"/>
-      <c r="N14" s="241"/>
-      <c r="O14" s="241"/>
-      <c r="P14" s="241"/>
-      <c r="Q14" s="241"/>
-      <c r="R14" s="246"/>
+      <c r="A14" s="187"/>
+      <c r="B14" s="253"/>
+      <c r="C14" s="516"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="52"/>
+      <c r="O14" s="52"/>
+      <c r="P14" s="52"/>
+      <c r="Q14" s="52"/>
+      <c r="R14" s="52"/>
+      <c r="S14" s="52"/>
     </row>
     <row r="15" spans="1:20">
-      <c r="A15" s="266"/>
-      <c r="B15" s="259"/>
-      <c r="C15" s="241"/>
-      <c r="D15" s="241"/>
-      <c r="E15" s="241"/>
-      <c r="F15" s="241"/>
-      <c r="G15" s="241"/>
-      <c r="H15" s="241"/>
-      <c r="I15" s="241"/>
-      <c r="J15" s="241"/>
-      <c r="K15" s="241"/>
-      <c r="L15" s="241"/>
-      <c r="M15" s="241"/>
-      <c r="N15" s="241"/>
-      <c r="O15" s="241"/>
-      <c r="P15" s="241"/>
-      <c r="Q15" s="241"/>
-      <c r="R15" s="246"/>
+      <c r="A15" s="557"/>
+      <c r="B15" s="254"/>
+      <c r="C15" s="516"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="52"/>
+      <c r="N15" s="52"/>
+      <c r="O15" s="52"/>
+      <c r="P15" s="52"/>
+      <c r="Q15" s="52"/>
+      <c r="R15" s="52"/>
+      <c r="S15" s="52"/>
     </row>
     <row r="16" spans="1:20">
-      <c r="A16" s="266"/>
-      <c r="B16" s="259"/>
-      <c r="C16" s="241"/>
-      <c r="D16" s="241"/>
-      <c r="E16" s="241"/>
-      <c r="F16" s="241"/>
-      <c r="G16" s="241"/>
-      <c r="H16" s="241"/>
-      <c r="I16" s="241"/>
-      <c r="J16" s="241"/>
-      <c r="K16" s="241"/>
-      <c r="L16" s="241"/>
-      <c r="M16" s="241"/>
-      <c r="N16" s="241"/>
-      <c r="O16" s="241"/>
-      <c r="P16" s="241"/>
-      <c r="Q16" s="241"/>
-      <c r="R16" s="246"/>
-    </row>
-    <row r="17" spans="1:18">
-      <c r="A17" s="266"/>
-      <c r="B17" s="259"/>
-      <c r="C17" s="241"/>
-      <c r="D17" s="241"/>
-      <c r="E17" s="241"/>
-      <c r="F17" s="241"/>
-      <c r="G17" s="241"/>
-      <c r="H17" s="241"/>
-      <c r="I17" s="241"/>
-      <c r="J17" s="241"/>
-      <c r="K17" s="241"/>
-      <c r="L17" s="241"/>
-      <c r="M17" s="241"/>
-      <c r="N17" s="241"/>
-      <c r="O17" s="241"/>
-      <c r="P17" s="241"/>
-      <c r="Q17" s="241"/>
-      <c r="R17" s="246"/>
-    </row>
-    <row r="18" spans="1:18">
-      <c r="A18" s="266"/>
-      <c r="B18" s="259"/>
-      <c r="C18" s="241"/>
-      <c r="D18" s="241"/>
-      <c r="E18" s="241"/>
-      <c r="F18" s="241"/>
-      <c r="G18" s="241"/>
-      <c r="H18" s="241"/>
-      <c r="I18" s="241"/>
-      <c r="J18" s="241"/>
-      <c r="K18" s="241"/>
-      <c r="L18" s="241"/>
-      <c r="M18" s="241"/>
-      <c r="N18" s="241"/>
-      <c r="O18" s="241"/>
-      <c r="P18" s="241"/>
-      <c r="Q18" s="241"/>
-      <c r="R18" s="246"/>
-    </row>
-    <row r="19" spans="1:18">
-      <c r="A19" s="266"/>
-      <c r="B19" s="259"/>
-      <c r="C19" s="241"/>
-      <c r="D19" s="241"/>
-      <c r="E19" s="241"/>
-      <c r="F19" s="241"/>
-      <c r="G19" s="241"/>
-      <c r="H19" s="241"/>
-      <c r="I19" s="241"/>
-      <c r="J19" s="241"/>
-      <c r="K19" s="241"/>
-      <c r="L19" s="241"/>
-      <c r="M19" s="241"/>
-      <c r="N19" s="241"/>
-      <c r="O19" s="241"/>
-      <c r="P19" s="241"/>
-      <c r="Q19" s="241"/>
-      <c r="R19" s="246"/>
-    </row>
-    <row r="20" spans="1:18">
-      <c r="A20" s="266"/>
-      <c r="B20" s="259"/>
-      <c r="C20" s="241"/>
-      <c r="D20" s="241"/>
-      <c r="E20" s="241"/>
-      <c r="F20" s="241"/>
-      <c r="G20" s="241"/>
-      <c r="H20" s="241"/>
-      <c r="I20" s="241"/>
-      <c r="J20" s="241"/>
-      <c r="K20" s="241"/>
-      <c r="L20" s="241"/>
-      <c r="M20" s="241"/>
-      <c r="N20" s="241"/>
-      <c r="O20" s="241"/>
-      <c r="P20" s="241"/>
-      <c r="Q20" s="241"/>
-      <c r="R20" s="246"/>
-    </row>
-    <row r="21" spans="1:18">
-      <c r="A21" s="266"/>
-      <c r="B21" s="259"/>
-      <c r="C21" s="241"/>
-      <c r="D21" s="241"/>
-      <c r="E21" s="241"/>
-      <c r="F21" s="241"/>
-      <c r="G21" s="241"/>
-      <c r="H21" s="241"/>
-      <c r="I21" s="241"/>
-      <c r="J21" s="241"/>
-      <c r="K21" s="241"/>
-      <c r="L21" s="241"/>
-      <c r="M21" s="241"/>
-      <c r="N21" s="241"/>
-      <c r="O21" s="241"/>
-      <c r="P21" s="241"/>
-      <c r="Q21" s="241"/>
-      <c r="R21" s="246"/>
-    </row>
-    <row r="22" spans="1:18">
-      <c r="A22" s="343"/>
-      <c r="B22" s="241"/>
-      <c r="C22" s="241"/>
-      <c r="D22" s="241"/>
-      <c r="E22" s="241"/>
-      <c r="F22" s="241"/>
-      <c r="G22" s="241"/>
-      <c r="H22" s="241"/>
-      <c r="I22" s="241"/>
-      <c r="J22" s="241"/>
-      <c r="K22" s="241"/>
-      <c r="L22" s="241"/>
-      <c r="M22" s="241"/>
-      <c r="N22" s="241"/>
-      <c r="O22" s="241"/>
-      <c r="P22" s="241"/>
-      <c r="Q22" s="241"/>
-      <c r="R22" s="246"/>
-    </row>
-    <row r="23" spans="1:18">
-      <c r="A23" s="343"/>
-      <c r="B23" s="241"/>
-      <c r="C23" s="241"/>
-      <c r="D23" s="241"/>
-      <c r="E23" s="241"/>
-      <c r="F23" s="241"/>
-      <c r="G23" s="241"/>
-      <c r="H23" s="241"/>
-      <c r="I23" s="241"/>
-      <c r="J23" s="241"/>
-      <c r="K23" s="241"/>
-      <c r="L23" s="241"/>
-      <c r="M23" s="241"/>
-      <c r="N23" s="241"/>
-      <c r="O23" s="241"/>
-      <c r="P23" s="241"/>
-      <c r="Q23" s="241"/>
-      <c r="R23" s="246"/>
-    </row>
-    <row r="24" spans="1:18">
-      <c r="A24" s="343"/>
-      <c r="B24" s="241"/>
-      <c r="C24" s="241"/>
-      <c r="D24" s="241"/>
-      <c r="E24" s="241"/>
-      <c r="F24" s="241"/>
-      <c r="G24" s="241"/>
-      <c r="H24" s="241"/>
-      <c r="I24" s="241"/>
-      <c r="J24" s="241"/>
-      <c r="K24" s="241"/>
-      <c r="L24" s="241"/>
-      <c r="M24" s="241"/>
-      <c r="N24" s="241"/>
-      <c r="O24" s="241"/>
-      <c r="P24" s="241"/>
-      <c r="Q24" s="241"/>
-      <c r="R24" s="246"/>
-    </row>
-    <row r="25" spans="1:18">
-      <c r="A25" s="343"/>
-      <c r="B25" s="241"/>
-      <c r="C25" s="241"/>
-      <c r="D25" s="241"/>
-      <c r="E25" s="241"/>
-      <c r="F25" s="241"/>
-      <c r="G25" s="241"/>
-      <c r="H25" s="241"/>
-      <c r="I25" s="241"/>
-      <c r="J25" s="241"/>
-      <c r="K25" s="241"/>
-      <c r="L25" s="241"/>
-      <c r="M25" s="241"/>
-      <c r="N25" s="241"/>
-      <c r="O25" s="241"/>
-      <c r="P25" s="241"/>
-      <c r="Q25" s="241"/>
-      <c r="R25" s="246"/>
-    </row>
-    <row r="26" spans="1:18">
-      <c r="A26" s="343"/>
-      <c r="B26" s="241"/>
-      <c r="C26" s="241"/>
-      <c r="D26" s="241"/>
-      <c r="E26" s="241"/>
-      <c r="F26" s="241"/>
-      <c r="G26" s="241"/>
-      <c r="H26" s="241"/>
-      <c r="I26" s="241"/>
-      <c r="J26" s="241"/>
-      <c r="K26" s="241"/>
-      <c r="L26" s="241"/>
-      <c r="M26" s="241"/>
-      <c r="N26" s="241"/>
-      <c r="O26" s="241"/>
-      <c r="P26" s="241"/>
-      <c r="Q26" s="241"/>
-      <c r="R26" s="246"/>
-    </row>
-    <row r="27" spans="1:18">
-      <c r="A27" s="343"/>
-      <c r="B27" s="241"/>
-      <c r="C27" s="241"/>
-      <c r="D27" s="241"/>
-      <c r="E27" s="241"/>
-      <c r="F27" s="241"/>
-      <c r="G27" s="241"/>
-      <c r="H27" s="241"/>
-      <c r="I27" s="241"/>
-      <c r="J27" s="241"/>
-      <c r="K27" s="241"/>
-      <c r="L27" s="241"/>
-      <c r="M27" s="241"/>
-      <c r="N27" s="241"/>
-      <c r="O27" s="241"/>
-      <c r="P27" s="241"/>
-      <c r="Q27" s="241"/>
-      <c r="R27" s="246"/>
-    </row>
-    <row r="28" spans="1:18">
-      <c r="A28" s="343"/>
-      <c r="B28" s="241"/>
-      <c r="C28" s="241"/>
-      <c r="D28" s="241"/>
-      <c r="E28" s="241"/>
-      <c r="F28" s="241"/>
-      <c r="G28" s="241"/>
-      <c r="H28" s="241"/>
-      <c r="I28" s="241"/>
-      <c r="J28" s="241"/>
-      <c r="K28" s="241"/>
-      <c r="L28" s="241"/>
-      <c r="M28" s="241"/>
-      <c r="N28" s="241"/>
-      <c r="O28" s="241"/>
-      <c r="P28" s="241"/>
-      <c r="Q28" s="241"/>
-      <c r="R28" s="246"/>
-    </row>
-    <row r="29" spans="1:18">
+      <c r="A16" s="538" t="s">
+        <v>585</v>
+      </c>
+      <c r="B16" s="539"/>
+      <c r="C16" s="516"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="52"/>
+      <c r="M16" s="52"/>
+      <c r="N16" s="52"/>
+      <c r="O16" s="52"/>
+      <c r="P16" s="52"/>
+      <c r="Q16" s="52"/>
+      <c r="R16" s="52"/>
+      <c r="S16" s="52"/>
+      <c r="T16" s="50"/>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" s="187"/>
+      <c r="B17" s="253"/>
+      <c r="C17" s="516"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="52"/>
+      <c r="O17" s="52"/>
+      <c r="P17" s="52"/>
+      <c r="Q17" s="52"/>
+      <c r="R17" s="52"/>
+      <c r="S17" s="52"/>
+      <c r="T17" s="50"/>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" s="187"/>
+      <c r="B18" s="253"/>
+      <c r="C18" s="516"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="52"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="52"/>
+      <c r="O18" s="52"/>
+      <c r="P18" s="52"/>
+      <c r="Q18" s="52"/>
+      <c r="R18" s="52"/>
+      <c r="S18" s="52"/>
+      <c r="T18" s="50"/>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" s="187"/>
+      <c r="B19" s="253"/>
+      <c r="C19" s="516"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="52"/>
+      <c r="O19" s="52"/>
+      <c r="P19" s="52"/>
+      <c r="Q19" s="52"/>
+      <c r="R19" s="52"/>
+      <c r="S19" s="52"/>
+      <c r="T19" s="50"/>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="187"/>
+      <c r="B20" s="253"/>
+      <c r="C20" s="516"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="52"/>
+      <c r="O20" s="52"/>
+      <c r="P20" s="52"/>
+      <c r="Q20" s="52"/>
+      <c r="R20" s="52"/>
+      <c r="S20" s="52"/>
+      <c r="T20" s="50"/>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="187"/>
+      <c r="B21" s="253"/>
+      <c r="C21" s="516"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="52"/>
+      <c r="N21" s="52"/>
+      <c r="O21" s="52"/>
+      <c r="P21" s="52"/>
+      <c r="Q21" s="52"/>
+      <c r="R21" s="52"/>
+      <c r="S21" s="52"/>
+      <c r="T21" s="50"/>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="187"/>
+      <c r="B22" s="253"/>
+      <c r="C22" s="516"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="52"/>
+      <c r="N22" s="52"/>
+      <c r="O22" s="52"/>
+      <c r="P22" s="52"/>
+      <c r="Q22" s="52"/>
+      <c r="R22" s="52"/>
+      <c r="S22" s="52"/>
+      <c r="T22" s="50"/>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="187"/>
+      <c r="B23" s="253"/>
+      <c r="C23" s="516"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="52"/>
+      <c r="N23" s="52"/>
+      <c r="O23" s="52"/>
+      <c r="P23" s="52"/>
+      <c r="Q23" s="52"/>
+      <c r="R23" s="52"/>
+      <c r="S23" s="52"/>
+      <c r="T23" s="50"/>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="187"/>
+      <c r="B24" s="253"/>
+      <c r="C24" s="516"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="52"/>
+      <c r="M24" s="52"/>
+      <c r="N24" s="52"/>
+      <c r="O24" s="52"/>
+      <c r="P24" s="52"/>
+      <c r="Q24" s="52"/>
+      <c r="R24" s="52"/>
+      <c r="S24" s="52"/>
+      <c r="T24" s="50"/>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="187"/>
+      <c r="B25" s="253"/>
+      <c r="C25" s="516"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="52"/>
+      <c r="M25" s="52"/>
+      <c r="N25" s="52"/>
+      <c r="O25" s="52"/>
+      <c r="P25" s="52"/>
+      <c r="Q25" s="52"/>
+      <c r="R25" s="52"/>
+      <c r="S25" s="52"/>
+      <c r="T25" s="50"/>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="187"/>
+      <c r="B26" s="253"/>
+      <c r="C26" s="516"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="52"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="52"/>
+      <c r="L26" s="52"/>
+      <c r="M26" s="52"/>
+      <c r="N26" s="52"/>
+      <c r="O26" s="52"/>
+      <c r="P26" s="52"/>
+      <c r="Q26" s="52"/>
+      <c r="R26" s="52"/>
+      <c r="S26" s="52"/>
+      <c r="T26" s="50"/>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="187"/>
+      <c r="B27" s="253"/>
+      <c r="C27" s="516"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="52"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="52"/>
+      <c r="L27" s="52"/>
+      <c r="M27" s="52"/>
+      <c r="N27" s="52"/>
+      <c r="O27" s="52"/>
+      <c r="P27" s="52"/>
+      <c r="Q27" s="52"/>
+      <c r="R27" s="52"/>
+      <c r="S27" s="52"/>
+      <c r="T27" s="50"/>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="557"/>
+      <c r="B28" s="254"/>
+      <c r="C28" s="516"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="52"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="52"/>
+      <c r="L28" s="52"/>
+      <c r="M28" s="52"/>
+      <c r="N28" s="52"/>
+      <c r="O28" s="52"/>
+      <c r="P28" s="52"/>
+      <c r="Q28" s="52"/>
+      <c r="R28" s="52"/>
+      <c r="S28" s="52"/>
+      <c r="T28" s="50"/>
+    </row>
+    <row r="29" spans="1:20">
       <c r="A29" s="538" t="s">
         <v>565</v>
       </c>
       <c r="B29" s="539"/>
-      <c r="C29" s="541"/>
-      <c r="D29" s="359"/>
-      <c r="E29" s="359"/>
-      <c r="F29" s="359"/>
-      <c r="G29" s="359"/>
-      <c r="H29" s="359"/>
-      <c r="I29" s="359"/>
-      <c r="J29" s="359"/>
-      <c r="K29" s="359"/>
-      <c r="L29" s="359"/>
-      <c r="M29" s="359"/>
-      <c r="N29" s="359"/>
-      <c r="O29" s="359"/>
-      <c r="P29" s="359"/>
-      <c r="Q29" s="359"/>
-      <c r="R29" s="542"/>
-    </row>
-    <row r="30" spans="1:18">
+      <c r="C29" s="516"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="52"/>
+      <c r="J29" s="52"/>
+      <c r="K29" s="52"/>
+      <c r="L29" s="52"/>
+      <c r="M29" s="52"/>
+      <c r="N29" s="52"/>
+      <c r="O29" s="52"/>
+      <c r="P29" s="52"/>
+      <c r="Q29" s="52"/>
+      <c r="R29" s="52"/>
+      <c r="S29" s="16"/>
+    </row>
+    <row r="30" spans="1:20">
       <c r="A30" s="187"/>
       <c r="B30" s="253"/>
       <c r="C30" s="516"/>
@@ -12120,9 +10598,10 @@
       <c r="O30" s="52"/>
       <c r="P30" s="52"/>
       <c r="Q30" s="52"/>
-      <c r="R30" s="520"/>
-    </row>
-    <row r="31" spans="1:18">
+      <c r="R30" s="52"/>
+      <c r="S30" s="16"/>
+    </row>
+    <row r="31" spans="1:20">
       <c r="A31" s="187"/>
       <c r="B31" s="253"/>
       <c r="C31" s="516"/>
@@ -12140,30 +10619,32 @@
       <c r="O31" s="52"/>
       <c r="P31" s="52"/>
       <c r="Q31" s="52"/>
-      <c r="R31" s="520"/>
-    </row>
-    <row r="32" spans="1:18" ht="17.250000">
+      <c r="R31" s="52"/>
+      <c r="S31" s="16"/>
+    </row>
+    <row r="32" spans="1:20">
       <c r="A32" s="370"/>
       <c r="B32" s="540"/>
-      <c r="C32" s="543"/>
-      <c r="D32" s="544"/>
-      <c r="E32" s="544"/>
-      <c r="F32" s="544"/>
-      <c r="G32" s="544"/>
-      <c r="H32" s="544"/>
-      <c r="I32" s="544"/>
-      <c r="J32" s="544"/>
-      <c r="K32" s="544"/>
-      <c r="L32" s="544"/>
-      <c r="M32" s="544"/>
-      <c r="N32" s="544"/>
-      <c r="O32" s="544"/>
-      <c r="P32" s="544"/>
-      <c r="Q32" s="544"/>
-      <c r="R32" s="521"/>
+      <c r="C32" s="516"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="52"/>
+      <c r="I32" s="52"/>
+      <c r="J32" s="52"/>
+      <c r="K32" s="52"/>
+      <c r="L32" s="52"/>
+      <c r="M32" s="52"/>
+      <c r="N32" s="52"/>
+      <c r="O32" s="52"/>
+      <c r="P32" s="52"/>
+      <c r="Q32" s="52"/>
+      <c r="R32" s="52"/>
+      <c r="S32" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="24">
     <mergeCell ref="A1:B4"/>
     <mergeCell ref="C1:Q3"/>
     <mergeCell ref="R1:R2"/>
@@ -12176,14 +10657,18 @@
     <mergeCell ref="C5:H5"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="S5:S6"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:H6"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="K6:Q6"/>
-    <mergeCell ref="A7:B28"/>
-    <mergeCell ref="C7:R28"/>
+    <mergeCell ref="A7:B15"/>
+    <mergeCell ref="C7:S15"/>
+    <mergeCell ref="A16:B28"/>
+    <mergeCell ref="C16:S28"/>
     <mergeCell ref="A29:B32"/>
-    <mergeCell ref="C29:R32"/>
+    <mergeCell ref="C29:S32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
@@ -12194,554 +10679,776 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M28"/>
+  <dimension ref="A1:T32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:E27"/>
+    <sheetView zoomScale="120" workbookViewId="0">
+      <selection activeCell="S5" sqref="S5:S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
+  <cols>
+    <col min="2" max="2" width="10.25500011" customWidth="1" outlineLevel="0"/>
+    <col min="18" max="18" width="11.63000011" customWidth="1" outlineLevel="0"/>
+    <col min="19" max="19" width="20.50499916" customWidth="1" outlineLevel="0"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17.250000">
-      <c r="A1" s="371" t="s">
-        <v>542</v>
-      </c>
-      <c r="B1" s="371"/>
-      <c r="C1" s="371"/>
-      <c r="D1" s="382" t="s">
-        <v>527</v>
-      </c>
-      <c r="E1" s="382"/>
-      <c r="F1" s="382"/>
-      <c r="G1" s="382"/>
-      <c r="H1" s="382"/>
-      <c r="I1" s="382"/>
-      <c r="J1" s="387" t="s">
+    <row r="1" spans="1:20">
+      <c r="A1" s="522">
+        <v>1</v>
+      </c>
+      <c r="B1" s="361"/>
+      <c r="C1" s="549" t="s">
+        <v>589</v>
+      </c>
+      <c r="D1" s="361"/>
+      <c r="E1" s="361"/>
+      <c r="F1" s="361"/>
+      <c r="G1" s="361"/>
+      <c r="H1" s="361"/>
+      <c r="I1" s="361"/>
+      <c r="J1" s="361"/>
+      <c r="K1" s="361"/>
+      <c r="L1" s="361"/>
+      <c r="M1" s="361"/>
+      <c r="N1" s="361"/>
+      <c r="O1" s="361"/>
+      <c r="P1" s="361"/>
+      <c r="Q1" s="361"/>
+      <c r="R1" s="524" t="s">
         <v>529</v>
       </c>
-      <c r="K1" s="353"/>
-      <c r="L1" s="399">
-        <v>42312</v>
-      </c>
-      <c r="M1" s="400"/>
-    </row>
-    <row r="2" spans="1:13" ht="17.250000">
-      <c r="A2" s="371"/>
-      <c r="B2" s="371"/>
-      <c r="C2" s="371"/>
-      <c r="D2" s="382"/>
-      <c r="E2" s="382"/>
-      <c r="F2" s="382"/>
-      <c r="G2" s="382"/>
-      <c r="H2" s="382"/>
-      <c r="I2" s="382"/>
-      <c r="J2" s="387" t="s">
+      <c r="S1" s="556">
+        <v>43601</v>
+      </c>
+      <c r="T1" s="50"/>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" s="266"/>
+      <c r="B2" s="259"/>
+      <c r="C2" s="259"/>
+      <c r="D2" s="259"/>
+      <c r="E2" s="259"/>
+      <c r="F2" s="259"/>
+      <c r="G2" s="259"/>
+      <c r="H2" s="259"/>
+      <c r="I2" s="259"/>
+      <c r="J2" s="259"/>
+      <c r="K2" s="259"/>
+      <c r="L2" s="259"/>
+      <c r="M2" s="259"/>
+      <c r="N2" s="259"/>
+      <c r="O2" s="259"/>
+      <c r="P2" s="259"/>
+      <c r="Q2" s="259"/>
+      <c r="R2" s="525"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="50"/>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" s="266"/>
+      <c r="B3" s="259"/>
+      <c r="C3" s="259"/>
+      <c r="D3" s="259"/>
+      <c r="E3" s="259"/>
+      <c r="F3" s="259"/>
+      <c r="G3" s="259"/>
+      <c r="H3" s="259"/>
+      <c r="I3" s="259"/>
+      <c r="J3" s="259"/>
+      <c r="K3" s="259"/>
+      <c r="L3" s="259"/>
+      <c r="M3" s="259"/>
+      <c r="N3" s="259"/>
+      <c r="O3" s="259"/>
+      <c r="P3" s="259"/>
+      <c r="Q3" s="259"/>
+      <c r="R3" s="525" t="s">
         <v>530</v>
       </c>
-      <c r="K2" s="353"/>
-      <c r="L2" s="399">
-        <v>42315</v>
-      </c>
-      <c r="M2" s="400"/>
-    </row>
-    <row r="3" spans="1:13" ht="17.250000">
-      <c r="A3" s="371"/>
-      <c r="B3" s="371"/>
-      <c r="C3" s="371"/>
-      <c r="D3" s="383" t="s">
-        <v>528</v>
-      </c>
-      <c r="E3" s="383"/>
-      <c r="F3" s="383"/>
-      <c r="G3" s="383"/>
-      <c r="H3" s="383"/>
-      <c r="I3" s="383"/>
-      <c r="J3" s="387" t="s">
+      <c r="S3" s="556">
+        <v>43601</v>
+      </c>
+      <c r="T3" s="50"/>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" s="343"/>
+      <c r="B4" s="241"/>
+      <c r="C4" s="545" t="s">
+        <v>566</v>
+      </c>
+      <c r="D4" s="530"/>
+      <c r="E4" s="545" t="s">
+        <v>590</v>
+      </c>
+      <c r="F4" s="546"/>
+      <c r="G4" s="546"/>
+      <c r="H4" s="546"/>
+      <c r="I4" s="546"/>
+      <c r="J4" s="546"/>
+      <c r="K4" s="546"/>
+      <c r="L4" s="546"/>
+      <c r="M4" s="546"/>
+      <c r="N4" s="546"/>
+      <c r="O4" s="546"/>
+      <c r="P4" s="546"/>
+      <c r="Q4" s="530"/>
+      <c r="R4" s="525"/>
+      <c r="S4" s="52"/>
+      <c r="T4" s="50"/>
+    </row>
+    <row r="5" spans="1:20" ht="24.000000" customHeight="1">
+      <c r="A5" s="343" t="s">
+        <v>561</v>
+      </c>
+      <c r="B5" s="241"/>
+      <c r="C5" s="241" t="s">
+        <v>583</v>
+      </c>
+      <c r="D5" s="241"/>
+      <c r="E5" s="241"/>
+      <c r="F5" s="241"/>
+      <c r="G5" s="241"/>
+      <c r="H5" s="241"/>
+      <c r="I5" s="241" t="s">
+        <v>562</v>
+      </c>
+      <c r="J5" s="241"/>
+      <c r="K5" s="259" t="s">
+        <v>591</v>
+      </c>
+      <c r="L5" s="259"/>
+      <c r="M5" s="259"/>
+      <c r="N5" s="259"/>
+      <c r="O5" s="259"/>
+      <c r="P5" s="241"/>
+      <c r="Q5" s="241"/>
+      <c r="R5" s="554" t="s">
         <v>531</v>
       </c>
-      <c r="K3" s="353"/>
-      <c r="L3" s="353" t="s">
-        <v>536</v>
-      </c>
-      <c r="M3" s="400"/>
-    </row>
-    <row r="4" spans="1:13" ht="17.250000">
-      <c r="A4" s="372" t="s">
+      <c r="S5" s="349" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="24.750000" customHeight="1">
+      <c r="A6" s="343" t="s">
+        <v>563</v>
+      </c>
+      <c r="B6" s="241"/>
+      <c r="C6" s="241" t="s">
+        <v>469</v>
+      </c>
+      <c r="D6" s="241"/>
+      <c r="E6" s="241"/>
+      <c r="F6" s="241"/>
+      <c r="G6" s="241"/>
+      <c r="H6" s="241"/>
+      <c r="I6" s="241" t="s">
+        <v>582</v>
+      </c>
+      <c r="J6" s="241"/>
+      <c r="K6" s="241" t="s">
+        <v>588</v>
+      </c>
+      <c r="L6" s="241"/>
+      <c r="M6" s="241"/>
+      <c r="N6" s="241"/>
+      <c r="O6" s="241"/>
+      <c r="P6" s="241"/>
+      <c r="Q6" s="241"/>
+      <c r="R6" s="555"/>
+      <c r="S6" s="349"/>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" s="538" t="s">
         <v>519</v>
       </c>
-      <c r="B4" s="378"/>
-      <c r="C4" s="378"/>
-      <c r="D4" s="378"/>
-      <c r="E4" s="378"/>
-      <c r="F4" s="378"/>
-      <c r="G4" s="378"/>
-      <c r="H4" s="378"/>
-      <c r="I4" s="386"/>
-      <c r="J4" s="372" t="s">
-        <v>532</v>
-      </c>
-      <c r="K4" s="378"/>
-      <c r="L4" s="378"/>
-      <c r="M4" s="386"/>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="349">
-        <v>1</v>
-      </c>
-      <c r="B5" s="379"/>
-      <c r="C5" s="380"/>
-      <c r="D5" s="380"/>
-      <c r="E5" s="380"/>
-      <c r="F5" s="380"/>
-      <c r="G5" s="380"/>
-      <c r="H5" s="380"/>
-      <c r="I5" s="380"/>
-      <c r="J5" s="388"/>
-      <c r="K5" s="394" t="s">
-        <v>544</v>
-      </c>
-      <c r="L5" s="398"/>
-      <c r="M5" s="401"/>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="349">
-        <v>2</v>
-      </c>
-      <c r="B6" s="379"/>
-      <c r="C6" s="380"/>
-      <c r="D6" s="380"/>
-      <c r="E6" s="380"/>
-      <c r="F6" s="380"/>
-      <c r="G6" s="380"/>
-      <c r="H6" s="380"/>
-      <c r="I6" s="380"/>
-      <c r="J6" s="389"/>
-      <c r="K6" s="395" t="s">
-        <v>543</v>
-      </c>
-      <c r="L6" s="380"/>
-      <c r="M6" s="402"/>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="349">
-        <v>3</v>
-      </c>
-      <c r="B7" s="380"/>
-      <c r="C7" s="380"/>
-      <c r="D7" s="380"/>
-      <c r="E7" s="380"/>
-      <c r="F7" s="380"/>
-      <c r="G7" s="380"/>
-      <c r="H7" s="380"/>
-      <c r="I7" s="380"/>
-      <c r="J7" s="389"/>
-      <c r="K7" s="395" t="s">
-        <v>545</v>
-      </c>
-      <c r="L7" s="380"/>
-      <c r="M7" s="402"/>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="349">
-        <v>4</v>
-      </c>
-      <c r="B8" s="379"/>
-      <c r="C8" s="380"/>
-      <c r="D8" s="380"/>
-      <c r="E8" s="380"/>
-      <c r="F8" s="380"/>
-      <c r="G8" s="380"/>
-      <c r="H8" s="380"/>
-      <c r="I8" s="380"/>
-      <c r="J8" s="389"/>
-      <c r="K8" s="395" t="s">
-        <v>546</v>
-      </c>
-      <c r="L8" s="380"/>
-      <c r="M8" s="402"/>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="349">
-        <v>5</v>
-      </c>
-      <c r="B9" s="379"/>
-      <c r="C9" s="380"/>
-      <c r="D9" s="380"/>
-      <c r="E9" s="380"/>
-      <c r="F9" s="380"/>
-      <c r="G9" s="380"/>
-      <c r="H9" s="380"/>
-      <c r="I9" s="380"/>
-      <c r="J9" s="389"/>
-      <c r="K9" s="395"/>
-      <c r="L9" s="380"/>
-      <c r="M9" s="402"/>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="349"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="350"/>
-      <c r="J10" s="390"/>
-      <c r="K10" s="380"/>
-      <c r="L10" s="380"/>
-      <c r="M10" s="402"/>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="349"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="350"/>
-      <c r="J11" s="390"/>
-      <c r="K11" s="380"/>
-      <c r="L11" s="380"/>
-      <c r="M11" s="402"/>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="349"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="350"/>
-      <c r="J12" s="390"/>
-      <c r="K12" s="380"/>
-      <c r="L12" s="380"/>
-      <c r="M12" s="402"/>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="349"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="350"/>
-      <c r="J13" s="390"/>
-      <c r="K13" s="380"/>
-      <c r="L13" s="380"/>
-      <c r="M13" s="402"/>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="349"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="350"/>
-      <c r="J14" s="390"/>
-      <c r="K14" s="380"/>
-      <c r="L14" s="380"/>
-      <c r="M14" s="402"/>
-    </row>
-    <row r="15" spans="1:13" ht="17.250000">
-      <c r="A15" s="349"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="350"/>
-      <c r="J15" s="391"/>
-      <c r="K15" s="380"/>
-      <c r="L15" s="380"/>
-      <c r="M15" s="402"/>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="349"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="350"/>
-      <c r="J16" s="392" t="s">
-        <v>533</v>
-      </c>
-      <c r="K16" s="396"/>
-      <c r="L16" s="396"/>
-      <c r="M16" s="403"/>
-    </row>
-    <row r="17" spans="1:13" ht="17.250000">
-      <c r="A17" s="349"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="350"/>
-      <c r="J17" s="393"/>
-      <c r="K17" s="397"/>
-      <c r="L17" s="397"/>
-      <c r="M17" s="404"/>
-    </row>
-    <row r="18" spans="1:13" ht="17.250000">
-      <c r="A18" s="351"/>
-      <c r="B18" s="352"/>
-      <c r="C18" s="352"/>
-      <c r="D18" s="352"/>
-      <c r="E18" s="352"/>
-      <c r="F18" s="352"/>
-      <c r="G18" s="352"/>
-      <c r="H18" s="352"/>
-      <c r="I18" s="354"/>
-      <c r="J18" s="388" t="s">
-        <v>534</v>
-      </c>
-      <c r="K18" s="398" t="s">
-        <v>535</v>
-      </c>
-      <c r="L18" s="398"/>
-      <c r="M18" s="401"/>
-    </row>
-    <row r="19" spans="1:13" ht="17.250000">
-      <c r="A19" s="373" t="s">
-        <v>520</v>
-      </c>
-      <c r="B19" s="373"/>
-      <c r="C19" s="373"/>
-      <c r="D19" s="373"/>
-      <c r="E19" s="373"/>
-      <c r="F19" s="383" t="b">
-        <v>1</v>
-      </c>
-      <c r="G19" s="383"/>
-      <c r="H19" s="383" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" s="383"/>
-      <c r="J19" s="389"/>
-      <c r="K19" s="395"/>
-      <c r="L19" s="380"/>
-      <c r="M19" s="402"/>
-    </row>
-    <row r="20" spans="1:13" ht="17.250000">
-      <c r="A20" s="373"/>
-      <c r="B20" s="373"/>
-      <c r="C20" s="373"/>
-      <c r="D20" s="373"/>
-      <c r="E20" s="373"/>
-      <c r="F20" s="383"/>
-      <c r="G20" s="383"/>
-      <c r="H20" s="383"/>
-      <c r="I20" s="383"/>
-      <c r="J20" s="389"/>
-      <c r="K20" s="380"/>
-      <c r="L20" s="380"/>
-      <c r="M20" s="402"/>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="349"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="350"/>
-      <c r="F21" s="348"/>
-      <c r="G21" s="144"/>
-      <c r="H21" s="348"/>
-      <c r="I21" s="144"/>
-      <c r="J21" s="390"/>
-      <c r="K21" s="380"/>
-      <c r="L21" s="380"/>
-      <c r="M21" s="402"/>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="349"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="350"/>
-      <c r="F22" s="349"/>
-      <c r="G22" s="350"/>
-      <c r="H22" s="349"/>
-      <c r="I22" s="350"/>
-      <c r="J22" s="390"/>
-      <c r="K22" s="380"/>
-      <c r="L22" s="380"/>
-      <c r="M22" s="402"/>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="349"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="350"/>
-      <c r="F23" s="349"/>
-      <c r="G23" s="350"/>
-      <c r="H23" s="349"/>
-      <c r="I23" s="350"/>
-      <c r="J23" s="390"/>
-      <c r="K23" s="380"/>
-      <c r="L23" s="380"/>
-      <c r="M23" s="402"/>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="349"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="350"/>
-      <c r="F24" s="349"/>
-      <c r="G24" s="350"/>
-      <c r="H24" s="349"/>
-      <c r="I24" s="350"/>
-      <c r="J24" s="390"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="350"/>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="A25" s="376"/>
-      <c r="B25" s="376"/>
-      <c r="C25" s="376"/>
-      <c r="D25" s="376"/>
-      <c r="E25" s="376"/>
-      <c r="F25" s="376"/>
-      <c r="G25" s="376"/>
-      <c r="H25" s="376"/>
-      <c r="I25" s="376"/>
-      <c r="J25" s="390"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="350"/>
-    </row>
-    <row r="26" spans="1:13" ht="17.250000">
-      <c r="A26" s="376"/>
-      <c r="B26" s="376"/>
-      <c r="C26" s="376"/>
-      <c r="D26" s="376"/>
-      <c r="E26" s="376"/>
-      <c r="F26" s="376"/>
-      <c r="G26" s="376"/>
-      <c r="H26" s="376"/>
-      <c r="I26" s="376"/>
-      <c r="J26" s="391"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="350"/>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="A27" s="376"/>
-      <c r="B27" s="376"/>
-      <c r="C27" s="376"/>
-      <c r="D27" s="376"/>
-      <c r="E27" s="376"/>
-      <c r="F27" s="376"/>
-      <c r="G27" s="376"/>
-      <c r="H27" s="376"/>
-      <c r="I27" s="376"/>
-      <c r="J27" s="35"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="35"/>
-      <c r="M27" s="144"/>
-    </row>
-    <row r="28" spans="1:13" ht="17.250000">
-      <c r="A28" s="377"/>
-      <c r="B28" s="377"/>
-      <c r="C28" s="377"/>
-      <c r="D28" s="377"/>
-      <c r="E28" s="377"/>
-      <c r="F28" s="377"/>
-      <c r="G28" s="377"/>
-      <c r="H28" s="377"/>
-      <c r="I28" s="377"/>
-      <c r="J28" s="352"/>
-      <c r="K28" s="352"/>
-      <c r="L28" s="352"/>
-      <c r="M28" s="354"/>
+      <c r="B7" s="539"/>
+      <c r="C7" s="561" t="s">
+        <v>593</v>
+      </c>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="52"/>
+      <c r="O7" s="52"/>
+      <c r="P7" s="52"/>
+      <c r="Q7" s="52"/>
+      <c r="R7" s="52"/>
+      <c r="S7" s="52"/>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" s="187"/>
+      <c r="B8" s="253"/>
+      <c r="C8" s="516"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="52"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="52"/>
+      <c r="Q8" s="52"/>
+      <c r="R8" s="52"/>
+      <c r="S8" s="52"/>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="187"/>
+      <c r="B9" s="253"/>
+      <c r="C9" s="516"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="52"/>
+      <c r="O9" s="52"/>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="52"/>
+      <c r="R9" s="52"/>
+      <c r="S9" s="52"/>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="187"/>
+      <c r="B10" s="253"/>
+      <c r="C10" s="516"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="52"/>
+      <c r="O10" s="52"/>
+      <c r="P10" s="52"/>
+      <c r="Q10" s="52"/>
+      <c r="R10" s="52"/>
+      <c r="S10" s="52"/>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="187"/>
+      <c r="B11" s="253"/>
+      <c r="C11" s="516"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="52"/>
+      <c r="O11" s="52"/>
+      <c r="P11" s="52"/>
+      <c r="Q11" s="52"/>
+      <c r="R11" s="52"/>
+      <c r="S11" s="52"/>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" s="187"/>
+      <c r="B12" s="253"/>
+      <c r="C12" s="516"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="52"/>
+      <c r="O12" s="52"/>
+      <c r="P12" s="52"/>
+      <c r="Q12" s="52"/>
+      <c r="R12" s="52"/>
+      <c r="S12" s="52"/>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" s="187"/>
+      <c r="B13" s="253"/>
+      <c r="C13" s="516"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="52"/>
+      <c r="O13" s="52"/>
+      <c r="P13" s="52"/>
+      <c r="Q13" s="52"/>
+      <c r="R13" s="52"/>
+      <c r="S13" s="52"/>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" s="187"/>
+      <c r="B14" s="253"/>
+      <c r="C14" s="516"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="52"/>
+      <c r="O14" s="52"/>
+      <c r="P14" s="52"/>
+      <c r="Q14" s="52"/>
+      <c r="R14" s="52"/>
+      <c r="S14" s="52"/>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" s="557"/>
+      <c r="B15" s="254"/>
+      <c r="C15" s="516"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="52"/>
+      <c r="N15" s="52"/>
+      <c r="O15" s="52"/>
+      <c r="P15" s="52"/>
+      <c r="Q15" s="52"/>
+      <c r="R15" s="52"/>
+      <c r="S15" s="52"/>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" s="538" t="s">
+        <v>585</v>
+      </c>
+      <c r="B16" s="539"/>
+      <c r="C16" s="516"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="52"/>
+      <c r="M16" s="52"/>
+      <c r="N16" s="52"/>
+      <c r="O16" s="52"/>
+      <c r="P16" s="52"/>
+      <c r="Q16" s="52"/>
+      <c r="R16" s="52"/>
+      <c r="S16" s="52"/>
+      <c r="T16" s="50"/>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" s="187"/>
+      <c r="B17" s="253"/>
+      <c r="C17" s="516"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="52"/>
+      <c r="O17" s="52"/>
+      <c r="P17" s="52"/>
+      <c r="Q17" s="52"/>
+      <c r="R17" s="52"/>
+      <c r="S17" s="52"/>
+      <c r="T17" s="50"/>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" s="187"/>
+      <c r="B18" s="253"/>
+      <c r="C18" s="516"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="52"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="52"/>
+      <c r="O18" s="52"/>
+      <c r="P18" s="52"/>
+      <c r="Q18" s="52"/>
+      <c r="R18" s="52"/>
+      <c r="S18" s="52"/>
+      <c r="T18" s="50"/>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" s="187"/>
+      <c r="B19" s="253"/>
+      <c r="C19" s="516"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="52"/>
+      <c r="O19" s="52"/>
+      <c r="P19" s="52"/>
+      <c r="Q19" s="52"/>
+      <c r="R19" s="52"/>
+      <c r="S19" s="52"/>
+      <c r="T19" s="50"/>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="187"/>
+      <c r="B20" s="253"/>
+      <c r="C20" s="516"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="52"/>
+      <c r="O20" s="52"/>
+      <c r="P20" s="52"/>
+      <c r="Q20" s="52"/>
+      <c r="R20" s="52"/>
+      <c r="S20" s="52"/>
+      <c r="T20" s="50"/>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="187"/>
+      <c r="B21" s="253"/>
+      <c r="C21" s="516"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="52"/>
+      <c r="N21" s="52"/>
+      <c r="O21" s="52"/>
+      <c r="P21" s="52"/>
+      <c r="Q21" s="52"/>
+      <c r="R21" s="52"/>
+      <c r="S21" s="52"/>
+      <c r="T21" s="50"/>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="187"/>
+      <c r="B22" s="253"/>
+      <c r="C22" s="516"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="52"/>
+      <c r="N22" s="52"/>
+      <c r="O22" s="52"/>
+      <c r="P22" s="52"/>
+      <c r="Q22" s="52"/>
+      <c r="R22" s="52"/>
+      <c r="S22" s="52"/>
+      <c r="T22" s="50"/>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="187"/>
+      <c r="B23" s="253"/>
+      <c r="C23" s="516"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="52"/>
+      <c r="N23" s="52"/>
+      <c r="O23" s="52"/>
+      <c r="P23" s="52"/>
+      <c r="Q23" s="52"/>
+      <c r="R23" s="52"/>
+      <c r="S23" s="52"/>
+      <c r="T23" s="50"/>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="187"/>
+      <c r="B24" s="253"/>
+      <c r="C24" s="516"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="52"/>
+      <c r="M24" s="52"/>
+      <c r="N24" s="52"/>
+      <c r="O24" s="52"/>
+      <c r="P24" s="52"/>
+      <c r="Q24" s="52"/>
+      <c r="R24" s="52"/>
+      <c r="S24" s="52"/>
+      <c r="T24" s="50"/>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="187"/>
+      <c r="B25" s="253"/>
+      <c r="C25" s="516"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="52"/>
+      <c r="M25" s="52"/>
+      <c r="N25" s="52"/>
+      <c r="O25" s="52"/>
+      <c r="P25" s="52"/>
+      <c r="Q25" s="52"/>
+      <c r="R25" s="52"/>
+      <c r="S25" s="52"/>
+      <c r="T25" s="50"/>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="187"/>
+      <c r="B26" s="253"/>
+      <c r="C26" s="516"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="52"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="52"/>
+      <c r="L26" s="52"/>
+      <c r="M26" s="52"/>
+      <c r="N26" s="52"/>
+      <c r="O26" s="52"/>
+      <c r="P26" s="52"/>
+      <c r="Q26" s="52"/>
+      <c r="R26" s="52"/>
+      <c r="S26" s="52"/>
+      <c r="T26" s="50"/>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="187"/>
+      <c r="B27" s="253"/>
+      <c r="C27" s="516"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="52"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="52"/>
+      <c r="L27" s="52"/>
+      <c r="M27" s="52"/>
+      <c r="N27" s="52"/>
+      <c r="O27" s="52"/>
+      <c r="P27" s="52"/>
+      <c r="Q27" s="52"/>
+      <c r="R27" s="52"/>
+      <c r="S27" s="52"/>
+      <c r="T27" s="50"/>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="557"/>
+      <c r="B28" s="254"/>
+      <c r="C28" s="516"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="52"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="52"/>
+      <c r="L28" s="52"/>
+      <c r="M28" s="52"/>
+      <c r="N28" s="52"/>
+      <c r="O28" s="52"/>
+      <c r="P28" s="52"/>
+      <c r="Q28" s="52"/>
+      <c r="R28" s="52"/>
+      <c r="S28" s="52"/>
+      <c r="T28" s="50"/>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="538"/>
+      <c r="B29" s="539"/>
+      <c r="C29" s="516"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="52"/>
+      <c r="J29" s="52"/>
+      <c r="K29" s="52"/>
+      <c r="L29" s="52"/>
+      <c r="M29" s="52"/>
+      <c r="N29" s="52"/>
+      <c r="O29" s="52"/>
+      <c r="P29" s="52"/>
+      <c r="Q29" s="52"/>
+      <c r="R29" s="52"/>
+      <c r="S29" s="16"/>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="187"/>
+      <c r="B30" s="253"/>
+      <c r="C30" s="516"/>
+      <c r="D30" s="52"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="52"/>
+      <c r="J30" s="52"/>
+      <c r="K30" s="52"/>
+      <c r="L30" s="52"/>
+      <c r="M30" s="52"/>
+      <c r="N30" s="52"/>
+      <c r="O30" s="52"/>
+      <c r="P30" s="52"/>
+      <c r="Q30" s="52"/>
+      <c r="R30" s="52"/>
+      <c r="S30" s="16"/>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="187"/>
+      <c r="B31" s="253"/>
+      <c r="C31" s="516"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="52"/>
+      <c r="I31" s="52"/>
+      <c r="J31" s="52"/>
+      <c r="K31" s="52"/>
+      <c r="L31" s="52"/>
+      <c r="M31" s="52"/>
+      <c r="N31" s="52"/>
+      <c r="O31" s="52"/>
+      <c r="P31" s="52"/>
+      <c r="Q31" s="52"/>
+      <c r="R31" s="52"/>
+      <c r="S31" s="16"/>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="370"/>
+      <c r="B32" s="540"/>
+      <c r="C32" s="516"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="52"/>
+      <c r="I32" s="52"/>
+      <c r="J32" s="52"/>
+      <c r="K32" s="52"/>
+      <c r="L32" s="52"/>
+      <c r="M32" s="52"/>
+      <c r="N32" s="52"/>
+      <c r="O32" s="52"/>
+      <c r="P32" s="52"/>
+      <c r="Q32" s="52"/>
+      <c r="R32" s="52"/>
+      <c r="S32" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="66">
-    <mergeCell ref="A1:C3"/>
-    <mergeCell ref="D1:I2"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="B9:I9"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="A10:I18"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="K11:M11"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="K15:M15"/>
-    <mergeCell ref="J16:M17"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="A19:E20"/>
-    <mergeCell ref="F19:G20"/>
-    <mergeCell ref="H19:I20"/>
-    <mergeCell ref="K19:M19"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="K22:M22"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="K24:M24"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="K25:M25"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="K26:M26"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:M28"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
+  <mergeCells count="24">
+    <mergeCell ref="A1:B4"/>
+    <mergeCell ref="C1:Q3"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:Q4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:Q6"/>
+    <mergeCell ref="A7:B15"/>
+    <mergeCell ref="C7:S15"/>
+    <mergeCell ref="A16:B28"/>
+    <mergeCell ref="C16:S28"/>
+    <mergeCell ref="A29:B32"/>
+    <mergeCell ref="C29:S32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
@@ -12751,6 +11458,786 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:T32"/>
+  <sheetViews>
+    <sheetView zoomScale="120" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16:S28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.500000"/>
+  <cols>
+    <col min="2" max="2" width="10.25500011" customWidth="1" outlineLevel="0"/>
+    <col min="18" max="18" width="11.63000011" customWidth="1" outlineLevel="0"/>
+    <col min="19" max="19" width="20.50499916" customWidth="1" outlineLevel="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20">
+      <c r="A1" s="522">
+        <v>1</v>
+      </c>
+      <c r="B1" s="361"/>
+      <c r="C1" s="549" t="s">
+        <v>594</v>
+      </c>
+      <c r="D1" s="361"/>
+      <c r="E1" s="361"/>
+      <c r="F1" s="361"/>
+      <c r="G1" s="361"/>
+      <c r="H1" s="361"/>
+      <c r="I1" s="361"/>
+      <c r="J1" s="361"/>
+      <c r="K1" s="361"/>
+      <c r="L1" s="361"/>
+      <c r="M1" s="361"/>
+      <c r="N1" s="361"/>
+      <c r="O1" s="361"/>
+      <c r="P1" s="361"/>
+      <c r="Q1" s="361"/>
+      <c r="R1" s="524" t="s">
+        <v>529</v>
+      </c>
+      <c r="S1" s="556">
+        <v>43601</v>
+      </c>
+      <c r="T1" s="50"/>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" s="266"/>
+      <c r="B2" s="259"/>
+      <c r="C2" s="259"/>
+      <c r="D2" s="259"/>
+      <c r="E2" s="259"/>
+      <c r="F2" s="259"/>
+      <c r="G2" s="259"/>
+      <c r="H2" s="259"/>
+      <c r="I2" s="259"/>
+      <c r="J2" s="259"/>
+      <c r="K2" s="259"/>
+      <c r="L2" s="259"/>
+      <c r="M2" s="259"/>
+      <c r="N2" s="259"/>
+      <c r="O2" s="259"/>
+      <c r="P2" s="259"/>
+      <c r="Q2" s="259"/>
+      <c r="R2" s="525"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="50"/>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" s="266"/>
+      <c r="B3" s="259"/>
+      <c r="C3" s="259"/>
+      <c r="D3" s="259"/>
+      <c r="E3" s="259"/>
+      <c r="F3" s="259"/>
+      <c r="G3" s="259"/>
+      <c r="H3" s="259"/>
+      <c r="I3" s="259"/>
+      <c r="J3" s="259"/>
+      <c r="K3" s="259"/>
+      <c r="L3" s="259"/>
+      <c r="M3" s="259"/>
+      <c r="N3" s="259"/>
+      <c r="O3" s="259"/>
+      <c r="P3" s="259"/>
+      <c r="Q3" s="259"/>
+      <c r="R3" s="525" t="s">
+        <v>530</v>
+      </c>
+      <c r="S3" s="556">
+        <v>43601</v>
+      </c>
+      <c r="T3" s="50"/>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" s="343"/>
+      <c r="B4" s="241"/>
+      <c r="C4" s="545" t="s">
+        <v>566</v>
+      </c>
+      <c r="D4" s="530"/>
+      <c r="E4" s="545" t="s">
+        <v>598</v>
+      </c>
+      <c r="F4" s="546"/>
+      <c r="G4" s="546"/>
+      <c r="H4" s="546"/>
+      <c r="I4" s="546"/>
+      <c r="J4" s="546"/>
+      <c r="K4" s="546"/>
+      <c r="L4" s="546"/>
+      <c r="M4" s="546"/>
+      <c r="N4" s="546"/>
+      <c r="O4" s="546"/>
+      <c r="P4" s="546"/>
+      <c r="Q4" s="530"/>
+      <c r="R4" s="525"/>
+      <c r="S4" s="52"/>
+      <c r="T4" s="50"/>
+    </row>
+    <row r="5" spans="1:20" ht="24.000000" customHeight="1">
+      <c r="A5" s="343" t="s">
+        <v>561</v>
+      </c>
+      <c r="B5" s="241"/>
+      <c r="C5" s="241" t="s">
+        <v>583</v>
+      </c>
+      <c r="D5" s="241"/>
+      <c r="E5" s="241"/>
+      <c r="F5" s="241"/>
+      <c r="G5" s="241"/>
+      <c r="H5" s="241"/>
+      <c r="I5" s="241" t="s">
+        <v>562</v>
+      </c>
+      <c r="J5" s="241"/>
+      <c r="K5" s="259" t="s">
+        <v>595</v>
+      </c>
+      <c r="L5" s="259"/>
+      <c r="M5" s="259"/>
+      <c r="N5" s="259"/>
+      <c r="O5" s="259"/>
+      <c r="P5" s="241"/>
+      <c r="Q5" s="241"/>
+      <c r="R5" s="554" t="s">
+        <v>531</v>
+      </c>
+      <c r="S5" s="349" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="24.750000" customHeight="1">
+      <c r="A6" s="343" t="s">
+        <v>563</v>
+      </c>
+      <c r="B6" s="241"/>
+      <c r="C6" s="241" t="s">
+        <v>597</v>
+      </c>
+      <c r="D6" s="241"/>
+      <c r="E6" s="241"/>
+      <c r="F6" s="241"/>
+      <c r="G6" s="241"/>
+      <c r="H6" s="241"/>
+      <c r="I6" s="241" t="s">
+        <v>582</v>
+      </c>
+      <c r="J6" s="241"/>
+      <c r="K6" s="241" t="s">
+        <v>596</v>
+      </c>
+      <c r="L6" s="241"/>
+      <c r="M6" s="241"/>
+      <c r="N6" s="241"/>
+      <c r="O6" s="241"/>
+      <c r="P6" s="241"/>
+      <c r="Q6" s="241"/>
+      <c r="R6" s="555"/>
+      <c r="S6" s="349"/>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" s="538" t="s">
+        <v>519</v>
+      </c>
+      <c r="B7" s="539"/>
+      <c r="C7" s="561" t="s">
+        <v>602</v>
+      </c>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="52"/>
+      <c r="O7" s="52"/>
+      <c r="P7" s="52"/>
+      <c r="Q7" s="52"/>
+      <c r="R7" s="52"/>
+      <c r="S7" s="52"/>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" s="187"/>
+      <c r="B8" s="253"/>
+      <c r="C8" s="516"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="52"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="52"/>
+      <c r="Q8" s="52"/>
+      <c r="R8" s="52"/>
+      <c r="S8" s="52"/>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="187"/>
+      <c r="B9" s="253"/>
+      <c r="C9" s="516"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="52"/>
+      <c r="O9" s="52"/>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="52"/>
+      <c r="R9" s="52"/>
+      <c r="S9" s="52"/>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="187"/>
+      <c r="B10" s="253"/>
+      <c r="C10" s="516"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="52"/>
+      <c r="O10" s="52"/>
+      <c r="P10" s="52"/>
+      <c r="Q10" s="52"/>
+      <c r="R10" s="52"/>
+      <c r="S10" s="52"/>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="187"/>
+      <c r="B11" s="253"/>
+      <c r="C11" s="516"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="52"/>
+      <c r="O11" s="52"/>
+      <c r="P11" s="52"/>
+      <c r="Q11" s="52"/>
+      <c r="R11" s="52"/>
+      <c r="S11" s="52"/>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" s="187"/>
+      <c r="B12" s="253"/>
+      <c r="C12" s="516"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="52"/>
+      <c r="O12" s="52"/>
+      <c r="P12" s="52"/>
+      <c r="Q12" s="52"/>
+      <c r="R12" s="52"/>
+      <c r="S12" s="52"/>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" s="187"/>
+      <c r="B13" s="253"/>
+      <c r="C13" s="516"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="52"/>
+      <c r="O13" s="52"/>
+      <c r="P13" s="52"/>
+      <c r="Q13" s="52"/>
+      <c r="R13" s="52"/>
+      <c r="S13" s="52"/>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" s="187"/>
+      <c r="B14" s="253"/>
+      <c r="C14" s="516"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="52"/>
+      <c r="O14" s="52"/>
+      <c r="P14" s="52"/>
+      <c r="Q14" s="52"/>
+      <c r="R14" s="52"/>
+      <c r="S14" s="52"/>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" s="557"/>
+      <c r="B15" s="254"/>
+      <c r="C15" s="516"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="52"/>
+      <c r="N15" s="52"/>
+      <c r="O15" s="52"/>
+      <c r="P15" s="52"/>
+      <c r="Q15" s="52"/>
+      <c r="R15" s="52"/>
+      <c r="S15" s="52"/>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" s="538" t="s">
+        <v>585</v>
+      </c>
+      <c r="B16" s="539"/>
+      <c r="C16" s="516"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="52"/>
+      <c r="M16" s="52"/>
+      <c r="N16" s="52"/>
+      <c r="O16" s="52"/>
+      <c r="P16" s="52"/>
+      <c r="Q16" s="52"/>
+      <c r="R16" s="52"/>
+      <c r="S16" s="52"/>
+      <c r="T16" s="50"/>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" s="187"/>
+      <c r="B17" s="253"/>
+      <c r="C17" s="516"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="52"/>
+      <c r="O17" s="52"/>
+      <c r="P17" s="52"/>
+      <c r="Q17" s="52"/>
+      <c r="R17" s="52"/>
+      <c r="S17" s="52"/>
+      <c r="T17" s="50"/>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" s="187"/>
+      <c r="B18" s="253"/>
+      <c r="C18" s="516"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="52"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="52"/>
+      <c r="O18" s="52"/>
+      <c r="P18" s="52"/>
+      <c r="Q18" s="52"/>
+      <c r="R18" s="52"/>
+      <c r="S18" s="52"/>
+      <c r="T18" s="50"/>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" s="187"/>
+      <c r="B19" s="253"/>
+      <c r="C19" s="516"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="52"/>
+      <c r="O19" s="52"/>
+      <c r="P19" s="52"/>
+      <c r="Q19" s="52"/>
+      <c r="R19" s="52"/>
+      <c r="S19" s="52"/>
+      <c r="T19" s="50"/>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="187"/>
+      <c r="B20" s="253"/>
+      <c r="C20" s="516"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="52"/>
+      <c r="O20" s="52"/>
+      <c r="P20" s="52"/>
+      <c r="Q20" s="52"/>
+      <c r="R20" s="52"/>
+      <c r="S20" s="52"/>
+      <c r="T20" s="50"/>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="187"/>
+      <c r="B21" s="253"/>
+      <c r="C21" s="516"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="52"/>
+      <c r="N21" s="52"/>
+      <c r="O21" s="52"/>
+      <c r="P21" s="52"/>
+      <c r="Q21" s="52"/>
+      <c r="R21" s="52"/>
+      <c r="S21" s="52"/>
+      <c r="T21" s="50"/>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="187"/>
+      <c r="B22" s="253"/>
+      <c r="C22" s="516"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="52"/>
+      <c r="N22" s="52"/>
+      <c r="O22" s="52"/>
+      <c r="P22" s="52"/>
+      <c r="Q22" s="52"/>
+      <c r="R22" s="52"/>
+      <c r="S22" s="52"/>
+      <c r="T22" s="50"/>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="187"/>
+      <c r="B23" s="253"/>
+      <c r="C23" s="516"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="52"/>
+      <c r="N23" s="52"/>
+      <c r="O23" s="52"/>
+      <c r="P23" s="52"/>
+      <c r="Q23" s="52"/>
+      <c r="R23" s="52"/>
+      <c r="S23" s="52"/>
+      <c r="T23" s="50"/>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="187"/>
+      <c r="B24" s="253"/>
+      <c r="C24" s="516"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="52"/>
+      <c r="M24" s="52"/>
+      <c r="N24" s="52"/>
+      <c r="O24" s="52"/>
+      <c r="P24" s="52"/>
+      <c r="Q24" s="52"/>
+      <c r="R24" s="52"/>
+      <c r="S24" s="52"/>
+      <c r="T24" s="50"/>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="187"/>
+      <c r="B25" s="253"/>
+      <c r="C25" s="516"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="52"/>
+      <c r="M25" s="52"/>
+      <c r="N25" s="52"/>
+      <c r="O25" s="52"/>
+      <c r="P25" s="52"/>
+      <c r="Q25" s="52"/>
+      <c r="R25" s="52"/>
+      <c r="S25" s="52"/>
+      <c r="T25" s="50"/>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="187"/>
+      <c r="B26" s="253"/>
+      <c r="C26" s="516"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="52"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="52"/>
+      <c r="L26" s="52"/>
+      <c r="M26" s="52"/>
+      <c r="N26" s="52"/>
+      <c r="O26" s="52"/>
+      <c r="P26" s="52"/>
+      <c r="Q26" s="52"/>
+      <c r="R26" s="52"/>
+      <c r="S26" s="52"/>
+      <c r="T26" s="50"/>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="187"/>
+      <c r="B27" s="253"/>
+      <c r="C27" s="516"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="52"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="52"/>
+      <c r="L27" s="52"/>
+      <c r="M27" s="52"/>
+      <c r="N27" s="52"/>
+      <c r="O27" s="52"/>
+      <c r="P27" s="52"/>
+      <c r="Q27" s="52"/>
+      <c r="R27" s="52"/>
+      <c r="S27" s="52"/>
+      <c r="T27" s="50"/>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="557"/>
+      <c r="B28" s="254"/>
+      <c r="C28" s="516"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="52"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="52"/>
+      <c r="L28" s="52"/>
+      <c r="M28" s="52"/>
+      <c r="N28" s="52"/>
+      <c r="O28" s="52"/>
+      <c r="P28" s="52"/>
+      <c r="Q28" s="52"/>
+      <c r="R28" s="52"/>
+      <c r="S28" s="52"/>
+      <c r="T28" s="50"/>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="538"/>
+      <c r="B29" s="539"/>
+      <c r="C29" s="516"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="52"/>
+      <c r="J29" s="52"/>
+      <c r="K29" s="52"/>
+      <c r="L29" s="52"/>
+      <c r="M29" s="52"/>
+      <c r="N29" s="52"/>
+      <c r="O29" s="52"/>
+      <c r="P29" s="52"/>
+      <c r="Q29" s="52"/>
+      <c r="R29" s="52"/>
+      <c r="S29" s="16"/>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="187"/>
+      <c r="B30" s="253"/>
+      <c r="C30" s="516"/>
+      <c r="D30" s="52"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="52"/>
+      <c r="J30" s="52"/>
+      <c r="K30" s="52"/>
+      <c r="L30" s="52"/>
+      <c r="M30" s="52"/>
+      <c r="N30" s="52"/>
+      <c r="O30" s="52"/>
+      <c r="P30" s="52"/>
+      <c r="Q30" s="52"/>
+      <c r="R30" s="52"/>
+      <c r="S30" s="16"/>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="187"/>
+      <c r="B31" s="253"/>
+      <c r="C31" s="516"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="52"/>
+      <c r="I31" s="52"/>
+      <c r="J31" s="52"/>
+      <c r="K31" s="52"/>
+      <c r="L31" s="52"/>
+      <c r="M31" s="52"/>
+      <c r="N31" s="52"/>
+      <c r="O31" s="52"/>
+      <c r="P31" s="52"/>
+      <c r="Q31" s="52"/>
+      <c r="R31" s="52"/>
+      <c r="S31" s="16"/>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="370"/>
+      <c r="B32" s="540"/>
+      <c r="C32" s="516"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="52"/>
+      <c r="I32" s="52"/>
+      <c r="J32" s="52"/>
+      <c r="K32" s="52"/>
+      <c r="L32" s="52"/>
+      <c r="M32" s="52"/>
+      <c r="N32" s="52"/>
+      <c r="O32" s="52"/>
+      <c r="P32" s="52"/>
+      <c r="Q32" s="52"/>
+      <c r="R32" s="52"/>
+      <c r="S32" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="A1:B4"/>
+    <mergeCell ref="C1:Q3"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:Q4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:Q6"/>
+    <mergeCell ref="A7:B15"/>
+    <mergeCell ref="C7:S15"/>
+    <mergeCell ref="A16:B28"/>
+    <mergeCell ref="C16:S28"/>
+    <mergeCell ref="A29:B32"/>
+    <mergeCell ref="C29:S32"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
@@ -12767,7 +12254,789 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:T32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="120" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16:S28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.500000"/>
+  <cols>
+    <col min="2" max="2" width="10.25500011" customWidth="1" outlineLevel="0"/>
+    <col min="18" max="18" width="11.63000011" customWidth="1" outlineLevel="0"/>
+    <col min="19" max="19" width="20.50499916" customWidth="1" outlineLevel="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20">
+      <c r="A1" s="522">
+        <v>1</v>
+      </c>
+      <c r="B1" s="361"/>
+      <c r="C1" s="549" t="s">
+        <v>579</v>
+      </c>
+      <c r="D1" s="361"/>
+      <c r="E1" s="361"/>
+      <c r="F1" s="361"/>
+      <c r="G1" s="361"/>
+      <c r="H1" s="361"/>
+      <c r="I1" s="361"/>
+      <c r="J1" s="361"/>
+      <c r="K1" s="361"/>
+      <c r="L1" s="361"/>
+      <c r="M1" s="361"/>
+      <c r="N1" s="361"/>
+      <c r="O1" s="361"/>
+      <c r="P1" s="361"/>
+      <c r="Q1" s="361"/>
+      <c r="R1" s="524" t="s">
+        <v>529</v>
+      </c>
+      <c r="S1" s="556">
+        <v>43601</v>
+      </c>
+      <c r="T1" s="50"/>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" s="266"/>
+      <c r="B2" s="259"/>
+      <c r="C2" s="259"/>
+      <c r="D2" s="259"/>
+      <c r="E2" s="259"/>
+      <c r="F2" s="259"/>
+      <c r="G2" s="259"/>
+      <c r="H2" s="259"/>
+      <c r="I2" s="259"/>
+      <c r="J2" s="259"/>
+      <c r="K2" s="259"/>
+      <c r="L2" s="259"/>
+      <c r="M2" s="259"/>
+      <c r="N2" s="259"/>
+      <c r="O2" s="259"/>
+      <c r="P2" s="259"/>
+      <c r="Q2" s="259"/>
+      <c r="R2" s="525"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="50"/>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" s="266"/>
+      <c r="B3" s="259"/>
+      <c r="C3" s="259"/>
+      <c r="D3" s="259"/>
+      <c r="E3" s="259"/>
+      <c r="F3" s="259"/>
+      <c r="G3" s="259"/>
+      <c r="H3" s="259"/>
+      <c r="I3" s="259"/>
+      <c r="J3" s="259"/>
+      <c r="K3" s="259"/>
+      <c r="L3" s="259"/>
+      <c r="M3" s="259"/>
+      <c r="N3" s="259"/>
+      <c r="O3" s="259"/>
+      <c r="P3" s="259"/>
+      <c r="Q3" s="259"/>
+      <c r="R3" s="525" t="s">
+        <v>530</v>
+      </c>
+      <c r="S3" s="556">
+        <v>43601</v>
+      </c>
+      <c r="T3" s="50"/>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" s="343"/>
+      <c r="B4" s="241"/>
+      <c r="C4" s="545" t="s">
+        <v>566</v>
+      </c>
+      <c r="D4" s="530"/>
+      <c r="E4" s="545" t="s">
+        <v>580</v>
+      </c>
+      <c r="F4" s="546"/>
+      <c r="G4" s="546"/>
+      <c r="H4" s="546"/>
+      <c r="I4" s="546"/>
+      <c r="J4" s="546"/>
+      <c r="K4" s="546"/>
+      <c r="L4" s="546"/>
+      <c r="M4" s="546"/>
+      <c r="N4" s="546"/>
+      <c r="O4" s="546"/>
+      <c r="P4" s="546"/>
+      <c r="Q4" s="530"/>
+      <c r="R4" s="525"/>
+      <c r="S4" s="52"/>
+      <c r="T4" s="50"/>
+    </row>
+    <row r="5" spans="1:20" ht="24.000000" customHeight="1">
+      <c r="A5" s="343" t="s">
+        <v>561</v>
+      </c>
+      <c r="B5" s="241"/>
+      <c r="C5" s="241" t="s">
+        <v>583</v>
+      </c>
+      <c r="D5" s="241"/>
+      <c r="E5" s="241"/>
+      <c r="F5" s="241"/>
+      <c r="G5" s="241"/>
+      <c r="H5" s="241"/>
+      <c r="I5" s="241" t="s">
+        <v>562</v>
+      </c>
+      <c r="J5" s="241"/>
+      <c r="K5" s="259" t="s">
+        <v>581</v>
+      </c>
+      <c r="L5" s="259"/>
+      <c r="M5" s="259"/>
+      <c r="N5" s="259"/>
+      <c r="O5" s="259"/>
+      <c r="P5" s="241"/>
+      <c r="Q5" s="241"/>
+      <c r="R5" s="554" t="s">
+        <v>531</v>
+      </c>
+      <c r="S5" s="349" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="24.750000" customHeight="1">
+      <c r="A6" s="343" t="s">
+        <v>563</v>
+      </c>
+      <c r="B6" s="241"/>
+      <c r="C6" s="241" t="s">
+        <v>469</v>
+      </c>
+      <c r="D6" s="241"/>
+      <c r="E6" s="241"/>
+      <c r="F6" s="241"/>
+      <c r="G6" s="241"/>
+      <c r="H6" s="241"/>
+      <c r="I6" s="241" t="s">
+        <v>582</v>
+      </c>
+      <c r="J6" s="241"/>
+      <c r="K6" s="241" t="s">
+        <v>180</v>
+      </c>
+      <c r="L6" s="241"/>
+      <c r="M6" s="241"/>
+      <c r="N6" s="241"/>
+      <c r="O6" s="241"/>
+      <c r="P6" s="241"/>
+      <c r="Q6" s="241"/>
+      <c r="R6" s="555"/>
+      <c r="S6" s="349"/>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" s="538" t="s">
+        <v>519</v>
+      </c>
+      <c r="B7" s="539"/>
+      <c r="C7" s="561" t="s">
+        <v>587</v>
+      </c>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="52"/>
+      <c r="O7" s="52"/>
+      <c r="P7" s="52"/>
+      <c r="Q7" s="52"/>
+      <c r="R7" s="52"/>
+      <c r="S7" s="52"/>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" s="187"/>
+      <c r="B8" s="253"/>
+      <c r="C8" s="516"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="52"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="52"/>
+      <c r="Q8" s="52"/>
+      <c r="R8" s="52"/>
+      <c r="S8" s="52"/>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="187"/>
+      <c r="B9" s="253"/>
+      <c r="C9" s="516"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="52"/>
+      <c r="O9" s="52"/>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="52"/>
+      <c r="R9" s="52"/>
+      <c r="S9" s="52"/>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="187"/>
+      <c r="B10" s="253"/>
+      <c r="C10" s="516"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="52"/>
+      <c r="O10" s="52"/>
+      <c r="P10" s="52"/>
+      <c r="Q10" s="52"/>
+      <c r="R10" s="52"/>
+      <c r="S10" s="52"/>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="187"/>
+      <c r="B11" s="253"/>
+      <c r="C11" s="516"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="52"/>
+      <c r="O11" s="52"/>
+      <c r="P11" s="52"/>
+      <c r="Q11" s="52"/>
+      <c r="R11" s="52"/>
+      <c r="S11" s="52"/>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" s="187"/>
+      <c r="B12" s="253"/>
+      <c r="C12" s="516"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="52"/>
+      <c r="O12" s="52"/>
+      <c r="P12" s="52"/>
+      <c r="Q12" s="52"/>
+      <c r="R12" s="52"/>
+      <c r="S12" s="52"/>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" s="187"/>
+      <c r="B13" s="253"/>
+      <c r="C13" s="516"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="52"/>
+      <c r="O13" s="52"/>
+      <c r="P13" s="52"/>
+      <c r="Q13" s="52"/>
+      <c r="R13" s="52"/>
+      <c r="S13" s="52"/>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" s="187"/>
+      <c r="B14" s="253"/>
+      <c r="C14" s="516"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="52"/>
+      <c r="O14" s="52"/>
+      <c r="P14" s="52"/>
+      <c r="Q14" s="52"/>
+      <c r="R14" s="52"/>
+      <c r="S14" s="52"/>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" s="557"/>
+      <c r="B15" s="254"/>
+      <c r="C15" s="516"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="52"/>
+      <c r="N15" s="52"/>
+      <c r="O15" s="52"/>
+      <c r="P15" s="52"/>
+      <c r="Q15" s="52"/>
+      <c r="R15" s="52"/>
+      <c r="S15" s="52"/>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" s="538" t="s">
+        <v>585</v>
+      </c>
+      <c r="B16" s="539"/>
+      <c r="C16" s="516"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="52"/>
+      <c r="M16" s="52"/>
+      <c r="N16" s="52"/>
+      <c r="O16" s="52"/>
+      <c r="P16" s="52"/>
+      <c r="Q16" s="52"/>
+      <c r="R16" s="52"/>
+      <c r="S16" s="52"/>
+      <c r="T16" s="50"/>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" s="187"/>
+      <c r="B17" s="253"/>
+      <c r="C17" s="516"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="52"/>
+      <c r="O17" s="52"/>
+      <c r="P17" s="52"/>
+      <c r="Q17" s="52"/>
+      <c r="R17" s="52"/>
+      <c r="S17" s="52"/>
+      <c r="T17" s="50"/>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" s="187"/>
+      <c r="B18" s="253"/>
+      <c r="C18" s="516"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="52"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="52"/>
+      <c r="O18" s="52"/>
+      <c r="P18" s="52"/>
+      <c r="Q18" s="52"/>
+      <c r="R18" s="52"/>
+      <c r="S18" s="52"/>
+      <c r="T18" s="50"/>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" s="187"/>
+      <c r="B19" s="253"/>
+      <c r="C19" s="516"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="52"/>
+      <c r="O19" s="52"/>
+      <c r="P19" s="52"/>
+      <c r="Q19" s="52"/>
+      <c r="R19" s="52"/>
+      <c r="S19" s="52"/>
+      <c r="T19" s="50"/>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="187"/>
+      <c r="B20" s="253"/>
+      <c r="C20" s="516"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="52"/>
+      <c r="O20" s="52"/>
+      <c r="P20" s="52"/>
+      <c r="Q20" s="52"/>
+      <c r="R20" s="52"/>
+      <c r="S20" s="52"/>
+      <c r="T20" s="50"/>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="187"/>
+      <c r="B21" s="253"/>
+      <c r="C21" s="516"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="52"/>
+      <c r="N21" s="52"/>
+      <c r="O21" s="52"/>
+      <c r="P21" s="52"/>
+      <c r="Q21" s="52"/>
+      <c r="R21" s="52"/>
+      <c r="S21" s="52"/>
+      <c r="T21" s="50"/>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="187"/>
+      <c r="B22" s="253"/>
+      <c r="C22" s="516"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="52"/>
+      <c r="N22" s="52"/>
+      <c r="O22" s="52"/>
+      <c r="P22" s="52"/>
+      <c r="Q22" s="52"/>
+      <c r="R22" s="52"/>
+      <c r="S22" s="52"/>
+      <c r="T22" s="50"/>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="187"/>
+      <c r="B23" s="253"/>
+      <c r="C23" s="516"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="52"/>
+      <c r="N23" s="52"/>
+      <c r="O23" s="52"/>
+      <c r="P23" s="52"/>
+      <c r="Q23" s="52"/>
+      <c r="R23" s="52"/>
+      <c r="S23" s="52"/>
+      <c r="T23" s="50"/>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="187"/>
+      <c r="B24" s="253"/>
+      <c r="C24" s="516"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="52"/>
+      <c r="M24" s="52"/>
+      <c r="N24" s="52"/>
+      <c r="O24" s="52"/>
+      <c r="P24" s="52"/>
+      <c r="Q24" s="52"/>
+      <c r="R24" s="52"/>
+      <c r="S24" s="52"/>
+      <c r="T24" s="50"/>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="187"/>
+      <c r="B25" s="253"/>
+      <c r="C25" s="516"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="52"/>
+      <c r="M25" s="52"/>
+      <c r="N25" s="52"/>
+      <c r="O25" s="52"/>
+      <c r="P25" s="52"/>
+      <c r="Q25" s="52"/>
+      <c r="R25" s="52"/>
+      <c r="S25" s="52"/>
+      <c r="T25" s="50"/>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="187"/>
+      <c r="B26" s="253"/>
+      <c r="C26" s="516"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="52"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="52"/>
+      <c r="L26" s="52"/>
+      <c r="M26" s="52"/>
+      <c r="N26" s="52"/>
+      <c r="O26" s="52"/>
+      <c r="P26" s="52"/>
+      <c r="Q26" s="52"/>
+      <c r="R26" s="52"/>
+      <c r="S26" s="52"/>
+      <c r="T26" s="50"/>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="187"/>
+      <c r="B27" s="253"/>
+      <c r="C27" s="516"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="52"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="52"/>
+      <c r="L27" s="52"/>
+      <c r="M27" s="52"/>
+      <c r="N27" s="52"/>
+      <c r="O27" s="52"/>
+      <c r="P27" s="52"/>
+      <c r="Q27" s="52"/>
+      <c r="R27" s="52"/>
+      <c r="S27" s="52"/>
+      <c r="T27" s="50"/>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="557"/>
+      <c r="B28" s="254"/>
+      <c r="C28" s="516"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="52"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="52"/>
+      <c r="L28" s="52"/>
+      <c r="M28" s="52"/>
+      <c r="N28" s="52"/>
+      <c r="O28" s="52"/>
+      <c r="P28" s="52"/>
+      <c r="Q28" s="52"/>
+      <c r="R28" s="52"/>
+      <c r="S28" s="52"/>
+      <c r="T28" s="50"/>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="538" t="s">
+        <v>565</v>
+      </c>
+      <c r="B29" s="539"/>
+      <c r="C29" s="516"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="52"/>
+      <c r="J29" s="52"/>
+      <c r="K29" s="52"/>
+      <c r="L29" s="52"/>
+      <c r="M29" s="52"/>
+      <c r="N29" s="52"/>
+      <c r="O29" s="52"/>
+      <c r="P29" s="52"/>
+      <c r="Q29" s="52"/>
+      <c r="R29" s="52"/>
+      <c r="S29" s="16"/>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="187"/>
+      <c r="B30" s="253"/>
+      <c r="C30" s="516"/>
+      <c r="D30" s="52"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="52"/>
+      <c r="J30" s="52"/>
+      <c r="K30" s="52"/>
+      <c r="L30" s="52"/>
+      <c r="M30" s="52"/>
+      <c r="N30" s="52"/>
+      <c r="O30" s="52"/>
+      <c r="P30" s="52"/>
+      <c r="Q30" s="52"/>
+      <c r="R30" s="52"/>
+      <c r="S30" s="16"/>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="187"/>
+      <c r="B31" s="253"/>
+      <c r="C31" s="516"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="52"/>
+      <c r="I31" s="52"/>
+      <c r="J31" s="52"/>
+      <c r="K31" s="52"/>
+      <c r="L31" s="52"/>
+      <c r="M31" s="52"/>
+      <c r="N31" s="52"/>
+      <c r="O31" s="52"/>
+      <c r="P31" s="52"/>
+      <c r="Q31" s="52"/>
+      <c r="R31" s="52"/>
+      <c r="S31" s="16"/>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="370"/>
+      <c r="B32" s="540"/>
+      <c r="C32" s="516"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="52"/>
+      <c r="I32" s="52"/>
+      <c r="J32" s="52"/>
+      <c r="K32" s="52"/>
+      <c r="L32" s="52"/>
+      <c r="M32" s="52"/>
+      <c r="N32" s="52"/>
+      <c r="O32" s="52"/>
+      <c r="P32" s="52"/>
+      <c r="Q32" s="52"/>
+      <c r="R32" s="52"/>
+      <c r="S32" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="A1:B4"/>
+    <mergeCell ref="C1:Q3"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:Q4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:Q6"/>
+    <mergeCell ref="A7:B15"/>
+    <mergeCell ref="C7:S15"/>
+    <mergeCell ref="A16:B28"/>
+    <mergeCell ref="C16:S28"/>
+    <mergeCell ref="A29:B32"/>
+    <mergeCell ref="C29:S32"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>

--- a/잡리스트 0514수정.xlsx
+++ b/잡리스트 0514수정.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="540" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="530" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="joblist" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="582">
   <si>
     <t>J O B L I S T</t>
   </si>
@@ -1768,6 +1768,15 @@
   </si>
   <si>
     <t>적립시간 추가 대화상자</t>
+  </si>
+  <si>
+    <t>SsP05</t>
+  </si>
+  <si>
+    <t>주문리스트 추가</t>
+  </si>
+  <si>
+    <t>insertPay</t>
   </si>
 </sst>
 </file>
@@ -6722,7 +6731,7 @@
         </a:xfrm>
         <a:prstGeom prst="diamond"/>
         <a:ln w="12700" cap="flat" cmpd="sng">
-          <a:prstDash/>
+          <a:prstDash val="solid"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -6797,7 +6806,7 @@
         </a:xfrm>
         <a:prstGeom prst="straightConnector1"/>
         <a:ln w="12700" cap="flat" cmpd="sng">
-          <a:prstDash/>
+          <a:prstDash val="solid"/>
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
@@ -7278,7 +7287,7 @@
         </a:xfrm>
         <a:prstGeom prst="diamond"/>
         <a:ln w="12700" cap="flat" cmpd="sng">
-          <a:prstDash/>
+          <a:prstDash val="solid"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -7616,7 +7625,7 @@
         </a:xfrm>
         <a:prstGeom prst="straightConnector1"/>
         <a:ln w="12700" cap="flat" cmpd="sng">
-          <a:prstDash/>
+          <a:prstDash val="solid"/>
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
@@ -7783,7 +7792,7 @@
         </a:xfrm>
         <a:prstGeom prst="straightConnector1"/>
         <a:ln w="12700" cap="flat" cmpd="sng">
-          <a:prstDash/>
+          <a:prstDash val="solid"/>
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
@@ -7834,7 +7843,7 @@
         </a:xfrm>
         <a:prstGeom prst="diamond"/>
         <a:ln w="12700" cap="flat" cmpd="sng">
-          <a:prstDash/>
+          <a:prstDash val="solid"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -7909,7 +7918,7 @@
         </a:xfrm>
         <a:prstGeom prst="straightConnector1"/>
         <a:ln w="12700" cap="flat" cmpd="sng">
-          <a:prstDash/>
+          <a:prstDash val="solid"/>
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
@@ -8804,7 +8813,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="그림 1"/>
+        <xdr:cNvPr id="1" name="그림 1" descr="xl/media/OImage2932675050.png"/>
         <xdr:cNvPicPr preferRelativeResize="0">
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -9099,10 +9108,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N105"/>
+  <dimension ref="A1:N106"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31:E31"/>
+    <sheetView topLeftCell="A34" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -10101,7 +10110,7 @@
         <v>354</v>
       </c>
       <c r="D48" s="241" t="s">
-        <v>272</v>
+        <v>580</v>
       </c>
       <c r="E48" s="241"/>
       <c r="F48" s="241" t="s">
@@ -10112,82 +10121,81 @@
         <v>369</v>
       </c>
       <c r="I48" s="246" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10">
+      <c r="B49" s="266"/>
+      <c r="C49" s="241" t="s">
+        <v>367</v>
+      </c>
+      <c r="D49" s="241" t="s">
+        <v>272</v>
+      </c>
+      <c r="E49" s="241"/>
+      <c r="F49" s="241" t="s">
+        <v>131</v>
+      </c>
+      <c r="G49" s="241"/>
+      <c r="H49" s="207" t="s">
+        <v>369</v>
+      </c>
+      <c r="I49" s="246" t="s">
         <v>469</v>
       </c>
-      <c r="J48" s="14"/>
-    </row>
-    <row r="49" spans="2:10" ht="17.250000">
-      <c r="B49" s="267"/>
-      <c r="C49" s="248" t="s">
-        <v>367</v>
-      </c>
-      <c r="D49" s="248" t="s">
+      <c r="J49" s="14"/>
+    </row>
+    <row r="50" spans="2:10" ht="17.250000">
+      <c r="B50" s="267"/>
+      <c r="C50" s="241" t="s">
+        <v>579</v>
+      </c>
+      <c r="D50" s="248" t="s">
         <v>273</v>
       </c>
-      <c r="E49" s="248"/>
-      <c r="F49" s="248" t="s">
+      <c r="E50" s="248"/>
+      <c r="F50" s="248" t="s">
         <v>131</v>
       </c>
-      <c r="G49" s="248"/>
-      <c r="H49" s="261" t="s">
+      <c r="G50" s="248"/>
+      <c r="H50" s="261" t="s">
         <v>369</v>
       </c>
-      <c r="I49" s="250" t="s">
+      <c r="I50" s="250" t="s">
         <v>274</v>
       </c>
-      <c r="J49" s="14"/>
-    </row>
-    <row r="50" spans="2:10">
-      <c r="B50" s="342" t="s">
+      <c r="J50" s="14"/>
+    </row>
+    <row r="51" spans="2:10">
+      <c r="B51" s="342" t="s">
         <v>370</v>
       </c>
-      <c r="C50" s="264" t="s">
+      <c r="C51" s="264" t="s">
         <v>371</v>
       </c>
-      <c r="D50" s="264" t="s">
+      <c r="D51" s="264" t="s">
         <v>379</v>
       </c>
-      <c r="E50" s="264"/>
-      <c r="F50" s="264" t="s">
+      <c r="E51" s="264"/>
+      <c r="F51" s="264" t="s">
         <v>131</v>
       </c>
-      <c r="G50" s="264"/>
-      <c r="H50" s="243" t="s">
+      <c r="G51" s="264"/>
+      <c r="H51" s="243" t="s">
         <v>378</v>
       </c>
-      <c r="I50" s="265" t="s">
+      <c r="I51" s="265" t="s">
         <v>243</v>
-      </c>
-      <c r="J50" s="14"/>
-    </row>
-    <row r="51" spans="2:10">
-      <c r="B51" s="343"/>
-      <c r="C51" s="241" t="s">
-        <v>372</v>
-      </c>
-      <c r="D51" s="241" t="s">
-        <v>380</v>
-      </c>
-      <c r="E51" s="241"/>
-      <c r="F51" s="241" t="s">
-        <v>131</v>
-      </c>
-      <c r="G51" s="241"/>
-      <c r="H51" s="207" t="s">
-        <v>378</v>
-      </c>
-      <c r="I51" s="246" t="s">
-        <v>381</v>
       </c>
       <c r="J51" s="14"/>
     </row>
     <row r="52" spans="2:10">
       <c r="B52" s="343"/>
       <c r="C52" s="241" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D52" s="241" t="s">
-        <v>335</v>
+        <v>380</v>
       </c>
       <c r="E52" s="241"/>
       <c r="F52" s="241" t="s">
@@ -10198,17 +10206,17 @@
         <v>378</v>
       </c>
       <c r="I52" s="246" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J52" s="14"/>
     </row>
     <row r="53" spans="2:10">
       <c r="B53" s="343"/>
       <c r="C53" s="241" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D53" s="241" t="s">
-        <v>383</v>
+        <v>335</v>
       </c>
       <c r="E53" s="241"/>
       <c r="F53" s="241" t="s">
@@ -10219,17 +10227,17 @@
         <v>378</v>
       </c>
       <c r="I53" s="246" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="J53" s="14"/>
     </row>
     <row r="54" spans="2:10">
       <c r="B54" s="343"/>
       <c r="C54" s="241" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D54" s="241" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E54" s="241"/>
       <c r="F54" s="241" t="s">
@@ -10240,17 +10248,17 @@
         <v>378</v>
       </c>
       <c r="I54" s="246" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J54" s="14"/>
     </row>
     <row r="55" spans="2:10">
       <c r="B55" s="343"/>
       <c r="C55" s="241" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D55" s="241" t="s">
-        <v>272</v>
+        <v>384</v>
       </c>
       <c r="E55" s="241"/>
       <c r="F55" s="241" t="s">
@@ -10261,94 +10269,94 @@
         <v>378</v>
       </c>
       <c r="I55" s="246" t="s">
-        <v>469</v>
+        <v>386</v>
       </c>
       <c r="J55" s="14"/>
     </row>
-    <row r="56" spans="2:10" ht="17.250000">
-      <c r="B56" s="344"/>
-      <c r="C56" s="248" t="s">
-        <v>377</v>
-      </c>
-      <c r="D56" s="248" t="s">
-        <v>273</v>
-      </c>
-      <c r="E56" s="248"/>
-      <c r="F56" s="248" t="s">
+    <row r="56" spans="2:10">
+      <c r="B56" s="343"/>
+      <c r="C56" s="241" t="s">
+        <v>376</v>
+      </c>
+      <c r="D56" s="241" t="s">
+        <v>272</v>
+      </c>
+      <c r="E56" s="241"/>
+      <c r="F56" s="241" t="s">
         <v>131</v>
       </c>
-      <c r="G56" s="248"/>
+      <c r="G56" s="241"/>
       <c r="H56" s="207" t="s">
         <v>378</v>
       </c>
-      <c r="I56" s="250" t="s">
+      <c r="I56" s="246" t="s">
+        <v>469</v>
+      </c>
+      <c r="J56" s="14"/>
+    </row>
+    <row r="57" spans="2:10" ht="17.250000">
+      <c r="B57" s="344"/>
+      <c r="C57" s="248" t="s">
+        <v>377</v>
+      </c>
+      <c r="D57" s="248" t="s">
+        <v>273</v>
+      </c>
+      <c r="E57" s="248"/>
+      <c r="F57" s="248" t="s">
+        <v>131</v>
+      </c>
+      <c r="G57" s="248"/>
+      <c r="H57" s="207" t="s">
+        <v>378</v>
+      </c>
+      <c r="I57" s="250" t="s">
         <v>274</v>
       </c>
-      <c r="J56" s="14"/>
-    </row>
-    <row r="57" spans="2:10">
-      <c r="B57" s="204" t="s">
+      <c r="J57" s="14"/>
+    </row>
+    <row r="58" spans="2:10">
+      <c r="B58" s="204" t="s">
         <v>388</v>
       </c>
-      <c r="C57" s="355"/>
-      <c r="D57" s="355"/>
-      <c r="E57" s="355"/>
-      <c r="F57" s="355"/>
-      <c r="G57" s="355"/>
-      <c r="H57" s="355"/>
-      <c r="I57" s="206"/>
-    </row>
-    <row r="58" spans="2:10">
-      <c r="B58" s="362" t="s">
+      <c r="C58" s="355"/>
+      <c r="D58" s="355"/>
+      <c r="E58" s="355"/>
+      <c r="F58" s="355"/>
+      <c r="G58" s="355"/>
+      <c r="H58" s="355"/>
+      <c r="I58" s="206"/>
+    </row>
+    <row r="59" spans="2:10">
+      <c r="B59" s="362" t="s">
         <v>390</v>
       </c>
-      <c r="C58" s="264" t="s">
+      <c r="C59" s="264" t="s">
         <v>237</v>
       </c>
-      <c r="D58" s="264" t="s">
+      <c r="D59" s="264" t="s">
         <v>391</v>
       </c>
-      <c r="E58" s="264"/>
-      <c r="F58" s="264" t="s">
+      <c r="E59" s="264"/>
+      <c r="F59" s="264" t="s">
         <v>388</v>
       </c>
-      <c r="G58" s="264"/>
-      <c r="H58" s="264" t="s">
+      <c r="G59" s="264"/>
+      <c r="H59" s="264" t="s">
         <v>395</v>
       </c>
-      <c r="I58" s="265" t="s">
+      <c r="I59" s="265" t="s">
         <v>399</v>
-      </c>
-      <c r="J58" s="14"/>
-    </row>
-    <row r="59" spans="2:10">
-      <c r="B59" s="343"/>
-      <c r="C59" s="241" t="s">
-        <v>572</v>
-      </c>
-      <c r="D59" s="241" t="s">
-        <v>392</v>
-      </c>
-      <c r="E59" s="241"/>
-      <c r="F59" s="241" t="s">
-        <v>388</v>
-      </c>
-      <c r="G59" s="241"/>
-      <c r="H59" s="241" t="s">
-        <v>395</v>
-      </c>
-      <c r="I59" s="246" t="s">
-        <v>401</v>
       </c>
       <c r="J59" s="14"/>
     </row>
     <row r="60" spans="2:10">
       <c r="B60" s="343"/>
       <c r="C60" s="241" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D60" s="241" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E60" s="241"/>
       <c r="F60" s="241" t="s">
@@ -10359,17 +10367,17 @@
         <v>395</v>
       </c>
       <c r="I60" s="246" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="J60" s="14"/>
     </row>
     <row r="61" spans="2:10">
       <c r="B61" s="343"/>
       <c r="C61" s="241" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D61" s="241" t="s">
-        <v>578</v>
+        <v>393</v>
       </c>
       <c r="E61" s="241"/>
       <c r="F61" s="241" t="s">
@@ -10380,81 +10388,81 @@
         <v>395</v>
       </c>
       <c r="I61" s="246" t="s">
+        <v>397</v>
+      </c>
+      <c r="J61" s="14"/>
+    </row>
+    <row r="62" spans="2:10">
+      <c r="B62" s="343"/>
+      <c r="C62" s="241" t="s">
+        <v>574</v>
+      </c>
+      <c r="D62" s="241" t="s">
+        <v>578</v>
+      </c>
+      <c r="E62" s="241"/>
+      <c r="F62" s="241" t="s">
+        <v>388</v>
+      </c>
+      <c r="G62" s="241"/>
+      <c r="H62" s="241" t="s">
+        <v>395</v>
+      </c>
+      <c r="I62" s="246" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="62" spans="2:10" ht="17.250000">
-      <c r="B62" s="344"/>
-      <c r="C62" s="248" t="s">
+    <row r="63" spans="2:10" ht="17.250000">
+      <c r="B63" s="344"/>
+      <c r="C63" s="248" t="s">
         <v>575</v>
       </c>
-      <c r="D62" s="248" t="s">
+      <c r="D63" s="248" t="s">
         <v>394</v>
       </c>
-      <c r="E62" s="248"/>
-      <c r="F62" s="248" t="s">
+      <c r="E63" s="248"/>
+      <c r="F63" s="248" t="s">
         <v>388</v>
       </c>
-      <c r="G62" s="248"/>
-      <c r="H62" s="248" t="s">
+      <c r="G63" s="248"/>
+      <c r="H63" s="248" t="s">
         <v>395</v>
       </c>
-      <c r="I62" s="250" t="s">
+      <c r="I63" s="250" t="s">
         <v>396</v>
       </c>
-      <c r="J62" s="14"/>
-    </row>
-    <row r="63" spans="2:10">
-      <c r="B63" s="242" t="s">
+      <c r="J63" s="14"/>
+    </row>
+    <row r="64" spans="2:10">
+      <c r="B64" s="242" t="s">
         <v>402</v>
       </c>
-      <c r="C63" s="264" t="s">
+      <c r="C64" s="264" t="s">
         <v>403</v>
       </c>
-      <c r="D63" s="361" t="s">
+      <c r="D64" s="361" t="s">
         <v>408</v>
       </c>
-      <c r="E63" s="361"/>
-      <c r="F63" s="264" t="s">
+      <c r="E64" s="361"/>
+      <c r="F64" s="264" t="s">
         <v>388</v>
       </c>
-      <c r="G63" s="264"/>
-      <c r="H63" s="264" t="s">
+      <c r="G64" s="264"/>
+      <c r="H64" s="264" t="s">
         <v>407</v>
       </c>
-      <c r="I63" s="265" t="s">
+      <c r="I64" s="265" t="s">
         <v>414</v>
-      </c>
-      <c r="J63" s="14"/>
-    </row>
-    <row r="64" spans="2:10">
-      <c r="B64" s="266"/>
-      <c r="C64" s="241" t="s">
-        <v>404</v>
-      </c>
-      <c r="D64" s="241" t="s">
-        <v>410</v>
-      </c>
-      <c r="E64" s="241"/>
-      <c r="F64" s="241" t="s">
-        <v>388</v>
-      </c>
-      <c r="G64" s="241"/>
-      <c r="H64" s="241" t="s">
-        <v>407</v>
-      </c>
-      <c r="I64" s="246" t="s">
-        <v>415</v>
       </c>
       <c r="J64" s="14"/>
     </row>
     <row r="65" spans="2:10">
       <c r="B65" s="266"/>
       <c r="C65" s="241" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D65" s="241" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E65" s="241"/>
       <c r="F65" s="241" t="s">
@@ -10465,81 +10473,81 @@
         <v>407</v>
       </c>
       <c r="I65" s="246" t="s">
+        <v>415</v>
+      </c>
+      <c r="J65" s="14"/>
+    </row>
+    <row r="66" spans="2:10">
+      <c r="B66" s="266"/>
+      <c r="C66" s="241" t="s">
+        <v>405</v>
+      </c>
+      <c r="D66" s="241" t="s">
+        <v>411</v>
+      </c>
+      <c r="E66" s="241"/>
+      <c r="F66" s="241" t="s">
+        <v>388</v>
+      </c>
+      <c r="G66" s="241"/>
+      <c r="H66" s="241" t="s">
+        <v>407</v>
+      </c>
+      <c r="I66" s="246" t="s">
         <v>416</v>
       </c>
-      <c r="J65" s="14"/>
-    </row>
-    <row r="66" spans="2:10" ht="17.250000">
-      <c r="B66" s="267"/>
-      <c r="C66" s="248" t="s">
+      <c r="J66" s="14"/>
+    </row>
+    <row r="67" spans="2:10" ht="17.250000">
+      <c r="B67" s="267"/>
+      <c r="C67" s="248" t="s">
         <v>406</v>
       </c>
-      <c r="D66" s="248" t="s">
+      <c r="D67" s="248" t="s">
         <v>412</v>
       </c>
-      <c r="E66" s="248"/>
-      <c r="F66" s="248" t="s">
+      <c r="E67" s="248"/>
+      <c r="F67" s="248" t="s">
         <v>388</v>
       </c>
-      <c r="G66" s="248"/>
-      <c r="H66" s="248" t="s">
+      <c r="G67" s="248"/>
+      <c r="H67" s="248" t="s">
         <v>407</v>
       </c>
-      <c r="I66" s="250" t="s">
+      <c r="I67" s="250" t="s">
         <v>418</v>
       </c>
-      <c r="J66" s="14"/>
-    </row>
-    <row r="67" spans="2:10">
-      <c r="B67" s="204" t="s">
+      <c r="J67" s="14"/>
+    </row>
+    <row r="68" spans="2:10">
+      <c r="B68" s="204" t="s">
         <v>420</v>
       </c>
-      <c r="C67" s="355"/>
-      <c r="D67" s="355"/>
-      <c r="E67" s="355"/>
-      <c r="F67" s="355"/>
-      <c r="G67" s="355"/>
-      <c r="H67" s="355"/>
-      <c r="I67" s="206"/>
-    </row>
-    <row r="68" spans="2:10">
-      <c r="B68" s="363" t="s">
+      <c r="C68" s="355"/>
+      <c r="D68" s="355"/>
+      <c r="E68" s="355"/>
+      <c r="F68" s="355"/>
+      <c r="G68" s="355"/>
+      <c r="H68" s="355"/>
+      <c r="I68" s="206"/>
+    </row>
+    <row r="69" spans="2:10">
+      <c r="B69" s="363" t="s">
         <v>420</v>
       </c>
-      <c r="C68" s="264" t="s">
+      <c r="C69" s="264" t="s">
         <v>9</v>
       </c>
-      <c r="D68" s="361" t="s">
+      <c r="D69" s="361" t="s">
         <v>14</v>
       </c>
-      <c r="E68" s="361"/>
-      <c r="F68" s="264" t="s">
+      <c r="E69" s="361"/>
+      <c r="F69" s="264" t="s">
         <v>388</v>
       </c>
-      <c r="G68" s="264"/>
-      <c r="H68" s="264" t="s">
+      <c r="G69" s="264"/>
+      <c r="H69" s="264" t="s">
         <v>183</v>
-      </c>
-      <c r="I68" s="265" t="s">
-        <v>469</v>
-      </c>
-      <c r="J68" s="14"/>
-    </row>
-    <row r="69" spans="2:10">
-      <c r="B69" s="266"/>
-      <c r="C69" s="241" t="s">
-        <v>421</v>
-      </c>
-      <c r="D69" s="241" t="s">
-        <v>439</v>
-      </c>
-      <c r="E69" s="241"/>
-      <c r="F69" s="241" t="s">
-        <v>388</v>
-      </c>
-      <c r="G69" s="241"/>
-      <c r="H69" s="241" t="s">
-        <v>452</v>
       </c>
       <c r="I69" s="265" t="s">
         <v>469</v>
@@ -10549,10 +10557,10 @@
     <row r="70" spans="2:10">
       <c r="B70" s="266"/>
       <c r="C70" s="241" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D70" s="241" t="s">
-        <v>59</v>
+        <v>439</v>
       </c>
       <c r="E70" s="241"/>
       <c r="F70" s="241" t="s">
@@ -10560,7 +10568,7 @@
       </c>
       <c r="G70" s="241"/>
       <c r="H70" s="241" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="I70" s="265" t="s">
         <v>469</v>
@@ -10570,10 +10578,10 @@
     <row r="71" spans="2:10">
       <c r="B71" s="266"/>
       <c r="C71" s="241" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D71" s="241" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="E71" s="241"/>
       <c r="F71" s="241" t="s">
@@ -10581,7 +10589,7 @@
       </c>
       <c r="G71" s="241"/>
       <c r="H71" s="241" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="I71" s="265" t="s">
         <v>469</v>
@@ -10591,10 +10599,10 @@
     <row r="72" spans="2:10">
       <c r="B72" s="266"/>
       <c r="C72" s="241" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D72" s="241" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="E72" s="241"/>
       <c r="F72" s="241" t="s">
@@ -10602,7 +10610,7 @@
       </c>
       <c r="G72" s="241"/>
       <c r="H72" s="241" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="I72" s="265" t="s">
         <v>469</v>
@@ -10612,10 +10620,10 @@
     <row r="73" spans="2:10">
       <c r="B73" s="266"/>
       <c r="C73" s="241" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D73" s="241" t="s">
-        <v>444</v>
+        <v>30</v>
       </c>
       <c r="E73" s="241"/>
       <c r="F73" s="241" t="s">
@@ -10623,7 +10631,7 @@
       </c>
       <c r="G73" s="241"/>
       <c r="H73" s="241" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="I73" s="265" t="s">
         <v>469</v>
@@ -10633,10 +10641,10 @@
     <row r="74" spans="2:10">
       <c r="B74" s="266"/>
       <c r="C74" s="241" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D74" s="241" t="s">
-        <v>11</v>
+        <v>444</v>
       </c>
       <c r="E74" s="241"/>
       <c r="F74" s="241" t="s">
@@ -10644,7 +10652,7 @@
       </c>
       <c r="G74" s="241"/>
       <c r="H74" s="241" t="s">
-        <v>180</v>
+        <v>456</v>
       </c>
       <c r="I74" s="265" t="s">
         <v>469</v>
@@ -10654,10 +10662,10 @@
     <row r="75" spans="2:10">
       <c r="B75" s="266"/>
       <c r="C75" s="241" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D75" s="241" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="E75" s="241"/>
       <c r="F75" s="241" t="s">
@@ -10665,7 +10673,7 @@
       </c>
       <c r="G75" s="241"/>
       <c r="H75" s="241" t="s">
-        <v>567</v>
+        <v>180</v>
       </c>
       <c r="I75" s="265" t="s">
         <v>469</v>
@@ -10675,10 +10683,10 @@
     <row r="76" spans="2:10">
       <c r="B76" s="266"/>
       <c r="C76" s="241" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D76" s="241" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="E76" s="241"/>
       <c r="F76" s="241" t="s">
@@ -10686,7 +10694,7 @@
       </c>
       <c r="G76" s="241"/>
       <c r="H76" s="241" t="s">
-        <v>182</v>
+        <v>567</v>
       </c>
       <c r="I76" s="265" t="s">
         <v>469</v>
@@ -10696,10 +10704,10 @@
     <row r="77" spans="2:10">
       <c r="B77" s="266"/>
       <c r="C77" s="241" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D77" s="241" t="s">
-        <v>445</v>
+        <v>13</v>
       </c>
       <c r="E77" s="241"/>
       <c r="F77" s="241" t="s">
@@ -10707,7 +10715,7 @@
       </c>
       <c r="G77" s="241"/>
       <c r="H77" s="241" t="s">
-        <v>461</v>
+        <v>182</v>
       </c>
       <c r="I77" s="265" t="s">
         <v>469</v>
@@ -10717,10 +10725,10 @@
     <row r="78" spans="2:10">
       <c r="B78" s="266"/>
       <c r="C78" s="241" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D78" s="241" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E78" s="241"/>
       <c r="F78" s="241" t="s">
@@ -10728,129 +10736,129 @@
       </c>
       <c r="G78" s="241"/>
       <c r="H78" s="241" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="I78" s="265" t="s">
         <v>469</v>
       </c>
       <c r="J78" s="14"/>
     </row>
-    <row r="79" spans="2:10" ht="17.250000">
-      <c r="B79" s="267"/>
-      <c r="C79" s="248" t="s">
+    <row r="79" spans="2:10">
+      <c r="B79" s="266"/>
+      <c r="C79" s="241" t="s">
+        <v>430</v>
+      </c>
+      <c r="D79" s="241" t="s">
+        <v>446</v>
+      </c>
+      <c r="E79" s="241"/>
+      <c r="F79" s="241" t="s">
+        <v>388</v>
+      </c>
+      <c r="G79" s="241"/>
+      <c r="H79" s="241" t="s">
+        <v>462</v>
+      </c>
+      <c r="I79" s="265" t="s">
+        <v>469</v>
+      </c>
+      <c r="J79" s="14"/>
+    </row>
+    <row r="80" spans="2:10" ht="17.250000">
+      <c r="B80" s="267"/>
+      <c r="C80" s="248" t="s">
         <v>431</v>
       </c>
-      <c r="D79" s="248" t="s">
+      <c r="D80" s="248" t="s">
         <v>61</v>
       </c>
-      <c r="E79" s="248"/>
-      <c r="F79" s="248" t="s">
+      <c r="E80" s="248"/>
+      <c r="F80" s="248" t="s">
         <v>388</v>
       </c>
-      <c r="G79" s="248"/>
-      <c r="H79" s="248" t="s">
+      <c r="G80" s="248"/>
+      <c r="H80" s="248" t="s">
         <v>463</v>
       </c>
-      <c r="I79" s="369" t="s">
+      <c r="I80" s="369" t="s">
         <v>469</v>
       </c>
-      <c r="J79" s="14"/>
-    </row>
-    <row r="80" spans="2:10">
-      <c r="B80" s="107" t="s">
+      <c r="J80" s="14"/>
+    </row>
+    <row r="81" spans="2:10">
+      <c r="B81" s="107" t="s">
         <v>464</v>
       </c>
-      <c r="C80" s="264" t="s">
+      <c r="C81" s="264" t="s">
         <v>468</v>
       </c>
-      <c r="D80" s="264" t="s">
+      <c r="D81" s="264" t="s">
         <v>569</v>
       </c>
-      <c r="E80" s="264"/>
-      <c r="F80" s="264" t="s">
+      <c r="E81" s="264"/>
+      <c r="F81" s="264" t="s">
         <v>388</v>
       </c>
-      <c r="G80" s="264"/>
-      <c r="H80" s="264" t="s">
+      <c r="G81" s="264"/>
+      <c r="H81" s="264" t="s">
         <v>570</v>
       </c>
-      <c r="I80" s="265" t="s">
+      <c r="I81" s="265" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="81" spans="2:10" ht="17.250000">
-      <c r="B81" s="106"/>
-      <c r="C81" s="547" t="s">
+    <row r="82" spans="2:10" ht="17.250000">
+      <c r="B82" s="106"/>
+      <c r="C82" s="547" t="s">
         <v>568</v>
       </c>
-      <c r="D81" s="547" t="s">
+      <c r="D82" s="547" t="s">
         <v>466</v>
       </c>
-      <c r="E81" s="547"/>
-      <c r="F81" s="547" t="s">
+      <c r="E82" s="547"/>
+      <c r="F82" s="547" t="s">
         <v>388</v>
       </c>
-      <c r="G81" s="547"/>
-      <c r="H81" s="547" t="s">
+      <c r="G82" s="547"/>
+      <c r="H82" s="547" t="s">
         <v>467</v>
       </c>
-      <c r="I81" s="548" t="s">
+      <c r="I82" s="548" t="s">
         <v>469</v>
       </c>
-      <c r="J81" s="14"/>
-    </row>
-    <row r="82" spans="2:10">
-      <c r="B82" s="204" t="s">
+      <c r="J82" s="14"/>
+    </row>
+    <row r="83" spans="2:10">
+      <c r="B83" s="204" t="s">
         <v>470</v>
       </c>
-      <c r="C82" s="355"/>
-      <c r="D82" s="355"/>
-      <c r="E82" s="355"/>
-      <c r="F82" s="355"/>
-      <c r="G82" s="355"/>
-      <c r="H82" s="355"/>
-      <c r="I82" s="206"/>
-    </row>
-    <row r="83" spans="2:10">
-      <c r="B83" s="363" t="s">
+      <c r="C83" s="355"/>
+      <c r="D83" s="355"/>
+      <c r="E83" s="355"/>
+      <c r="F83" s="355"/>
+      <c r="G83" s="355"/>
+      <c r="H83" s="355"/>
+      <c r="I83" s="206"/>
+    </row>
+    <row r="84" spans="2:10">
+      <c r="B84" s="363" t="s">
         <v>470</v>
       </c>
-      <c r="C83" s="264" t="s">
+      <c r="C84" s="264" t="s">
         <v>471</v>
       </c>
-      <c r="D83" s="264" t="s">
+      <c r="D84" s="264" t="s">
         <v>14</v>
       </c>
-      <c r="E83" s="264"/>
-      <c r="F83" s="264" t="s">
+      <c r="E84" s="264"/>
+      <c r="F84" s="264" t="s">
         <v>494</v>
       </c>
-      <c r="G83" s="264"/>
-      <c r="H83" s="264" t="s">
+      <c r="G84" s="264"/>
+      <c r="H84" s="264" t="s">
         <v>497</v>
       </c>
-      <c r="I83" s="265" t="s">
-        <v>496</v>
-      </c>
-      <c r="J83" s="14"/>
-    </row>
-    <row r="84" spans="2:10">
-      <c r="B84" s="266"/>
-      <c r="C84" s="241" t="s">
-        <v>472</v>
-      </c>
-      <c r="D84" s="241" t="s">
-        <v>14</v>
-      </c>
-      <c r="E84" s="241"/>
-      <c r="F84" s="241" t="s">
-        <v>494</v>
-      </c>
-      <c r="G84" s="241"/>
-      <c r="H84" s="241" t="s">
-        <v>498</v>
-      </c>
-      <c r="I84" s="246" t="s">
+      <c r="I84" s="265" t="s">
         <v>496</v>
       </c>
       <c r="J84" s="14"/>
@@ -10858,10 +10866,10 @@
     <row r="85" spans="2:10">
       <c r="B85" s="266"/>
       <c r="C85" s="241" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D85" s="241" t="s">
-        <v>499</v>
+        <v>14</v>
       </c>
       <c r="E85" s="241"/>
       <c r="F85" s="241" t="s">
@@ -10869,7 +10877,7 @@
       </c>
       <c r="G85" s="241"/>
       <c r="H85" s="241" t="s">
-        <v>452</v>
+        <v>498</v>
       </c>
       <c r="I85" s="246" t="s">
         <v>496</v>
@@ -10879,10 +10887,10 @@
     <row r="86" spans="2:10">
       <c r="B86" s="266"/>
       <c r="C86" s="241" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D86" s="241" t="s">
-        <v>59</v>
+        <v>499</v>
       </c>
       <c r="E86" s="241"/>
       <c r="F86" s="241" t="s">
@@ -10890,7 +10898,7 @@
       </c>
       <c r="G86" s="241"/>
       <c r="H86" s="241" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="I86" s="246" t="s">
         <v>496</v>
@@ -10900,10 +10908,10 @@
     <row r="87" spans="2:10">
       <c r="B87" s="266"/>
       <c r="C87" s="241" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D87" s="241" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="E87" s="241"/>
       <c r="F87" s="241" t="s">
@@ -10911,7 +10919,7 @@
       </c>
       <c r="G87" s="241"/>
       <c r="H87" s="241" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="I87" s="246" t="s">
         <v>496</v>
@@ -10921,10 +10929,10 @@
     <row r="88" spans="2:10">
       <c r="B88" s="266"/>
       <c r="C88" s="241" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D88" s="241" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="E88" s="241"/>
       <c r="F88" s="241" t="s">
@@ -10932,7 +10940,7 @@
       </c>
       <c r="G88" s="241"/>
       <c r="H88" s="241" t="s">
-        <v>500</v>
+        <v>454</v>
       </c>
       <c r="I88" s="246" t="s">
         <v>496</v>
@@ -10942,10 +10950,10 @@
     <row r="89" spans="2:10">
       <c r="B89" s="266"/>
       <c r="C89" s="241" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D89" s="241" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="E89" s="241"/>
       <c r="F89" s="241" t="s">
@@ -10953,7 +10961,7 @@
       </c>
       <c r="G89" s="241"/>
       <c r="H89" s="241" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="I89" s="246" t="s">
         <v>496</v>
@@ -10963,10 +10971,10 @@
     <row r="90" spans="2:10">
       <c r="B90" s="266"/>
       <c r="C90" s="241" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D90" s="241" t="s">
-        <v>444</v>
+        <v>46</v>
       </c>
       <c r="E90" s="241"/>
       <c r="F90" s="241" t="s">
@@ -10974,7 +10982,7 @@
       </c>
       <c r="G90" s="241"/>
       <c r="H90" s="241" t="s">
-        <v>456</v>
+        <v>502</v>
       </c>
       <c r="I90" s="246" t="s">
         <v>496</v>
@@ -10984,10 +10992,10 @@
     <row r="91" spans="2:10">
       <c r="B91" s="266"/>
       <c r="C91" s="241" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D91" s="241" t="s">
-        <v>11</v>
+        <v>444</v>
       </c>
       <c r="E91" s="241"/>
       <c r="F91" s="241" t="s">
@@ -10995,7 +11003,7 @@
       </c>
       <c r="G91" s="241"/>
       <c r="H91" s="241" t="s">
-        <v>503</v>
+        <v>456</v>
       </c>
       <c r="I91" s="246" t="s">
         <v>496</v>
@@ -11005,10 +11013,10 @@
     <row r="92" spans="2:10">
       <c r="B92" s="266"/>
       <c r="C92" s="241" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D92" s="241" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="E92" s="241"/>
       <c r="F92" s="241" t="s">
@@ -11016,7 +11024,7 @@
       </c>
       <c r="G92" s="241"/>
       <c r="H92" s="241" t="s">
-        <v>567</v>
+        <v>503</v>
       </c>
       <c r="I92" s="246" t="s">
         <v>496</v>
@@ -11026,10 +11034,10 @@
     <row r="93" spans="2:10">
       <c r="B93" s="266"/>
       <c r="C93" s="241" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D93" s="241" t="s">
-        <v>504</v>
+        <v>31</v>
       </c>
       <c r="E93" s="241"/>
       <c r="F93" s="241" t="s">
@@ -11037,7 +11045,7 @@
       </c>
       <c r="G93" s="241"/>
       <c r="H93" s="241" t="s">
-        <v>506</v>
+        <v>567</v>
       </c>
       <c r="I93" s="246" t="s">
         <v>496</v>
@@ -11047,10 +11055,10 @@
     <row r="94" spans="2:10">
       <c r="B94" s="266"/>
       <c r="C94" s="241" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D94" s="241" t="s">
-        <v>13</v>
+        <v>504</v>
       </c>
       <c r="E94" s="241"/>
       <c r="F94" s="241" t="s">
@@ -11058,7 +11066,7 @@
       </c>
       <c r="G94" s="241"/>
       <c r="H94" s="241" t="s">
-        <v>182</v>
+        <v>506</v>
       </c>
       <c r="I94" s="246" t="s">
         <v>496</v>
@@ -11068,10 +11076,10 @@
     <row r="95" spans="2:10">
       <c r="B95" s="266"/>
       <c r="C95" s="241" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D95" s="241" t="s">
-        <v>437</v>
+        <v>13</v>
       </c>
       <c r="E95" s="241"/>
       <c r="F95" s="241" t="s">
@@ -11079,7 +11087,7 @@
       </c>
       <c r="G95" s="241"/>
       <c r="H95" s="241" t="s">
-        <v>461</v>
+        <v>182</v>
       </c>
       <c r="I95" s="246" t="s">
         <v>496</v>
@@ -11089,10 +11097,10 @@
     <row r="96" spans="2:10">
       <c r="B96" s="266"/>
       <c r="C96" s="241" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D96" s="241" t="s">
-        <v>507</v>
+        <v>437</v>
       </c>
       <c r="E96" s="241"/>
       <c r="F96" s="241" t="s">
@@ -11100,7 +11108,7 @@
       </c>
       <c r="G96" s="241"/>
       <c r="H96" s="241" t="s">
-        <v>508</v>
+        <v>461</v>
       </c>
       <c r="I96" s="246" t="s">
         <v>496</v>
@@ -11110,10 +11118,10 @@
     <row r="97" spans="2:10">
       <c r="B97" s="266"/>
       <c r="C97" s="241" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D97" s="241" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="E97" s="241"/>
       <c r="F97" s="241" t="s">
@@ -11121,7 +11129,7 @@
       </c>
       <c r="G97" s="241"/>
       <c r="H97" s="241" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="I97" s="246" t="s">
         <v>496</v>
@@ -11131,10 +11139,10 @@
     <row r="98" spans="2:10">
       <c r="B98" s="266"/>
       <c r="C98" s="241" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D98" s="241" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="E98" s="241"/>
       <c r="F98" s="241" t="s">
@@ -11142,7 +11150,7 @@
       </c>
       <c r="G98" s="241"/>
       <c r="H98" s="241" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="I98" s="246" t="s">
         <v>496</v>
@@ -11152,10 +11160,10 @@
     <row r="99" spans="2:10">
       <c r="B99" s="266"/>
       <c r="C99" s="241" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D99" s="241" t="s">
-        <v>446</v>
+        <v>513</v>
       </c>
       <c r="E99" s="241"/>
       <c r="F99" s="241" t="s">
@@ -11163,7 +11171,7 @@
       </c>
       <c r="G99" s="241"/>
       <c r="H99" s="241" t="s">
-        <v>462</v>
+        <v>514</v>
       </c>
       <c r="I99" s="246" t="s">
         <v>496</v>
@@ -11173,10 +11181,10 @@
     <row r="100" spans="2:10">
       <c r="B100" s="266"/>
       <c r="C100" s="241" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D100" s="241" t="s">
-        <v>61</v>
+        <v>446</v>
       </c>
       <c r="E100" s="241"/>
       <c r="F100" s="241" t="s">
@@ -11184,55 +11192,67 @@
       </c>
       <c r="G100" s="241"/>
       <c r="H100" s="241" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="I100" s="246" t="s">
         <v>496</v>
       </c>
       <c r="J100" s="14"/>
     </row>
-    <row r="101" spans="2:10" ht="17.250000">
-      <c r="B101" s="267"/>
-      <c r="C101" s="248" t="s">
+    <row r="101" spans="2:10">
+      <c r="B101" s="266"/>
+      <c r="C101" s="241" t="s">
+        <v>488</v>
+      </c>
+      <c r="D101" s="241" t="s">
+        <v>61</v>
+      </c>
+      <c r="E101" s="241"/>
+      <c r="F101" s="241" t="s">
+        <v>494</v>
+      </c>
+      <c r="G101" s="241"/>
+      <c r="H101" s="241" t="s">
+        <v>463</v>
+      </c>
+      <c r="I101" s="246" t="s">
+        <v>496</v>
+      </c>
+      <c r="J101" s="14"/>
+    </row>
+    <row r="102" spans="2:10" ht="17.250000">
+      <c r="B102" s="267"/>
+      <c r="C102" s="248" t="s">
         <v>489</v>
       </c>
-      <c r="D101" s="248" t="s">
+      <c r="D102" s="248" t="s">
         <v>515</v>
       </c>
-      <c r="E101" s="248"/>
-      <c r="F101" s="248" t="s">
+      <c r="E102" s="248"/>
+      <c r="F102" s="248" t="s">
         <v>494</v>
       </c>
-      <c r="G101" s="248"/>
-      <c r="H101" s="248" t="s">
+      <c r="G102" s="248"/>
+      <c r="H102" s="248" t="s">
         <v>516</v>
       </c>
-      <c r="I101" s="250" t="s">
+      <c r="I102" s="250" t="s">
         <v>496</v>
       </c>
-      <c r="J101" s="14"/>
-    </row>
-    <row r="102" spans="2:10">
-      <c r="B102" s="204" t="s">
+      <c r="J102" s="14"/>
+    </row>
+    <row r="103" spans="2:10">
+      <c r="B103" s="204" t="s">
         <v>517</v>
       </c>
-      <c r="C102" s="355"/>
-      <c r="D102" s="355"/>
-      <c r="E102" s="355"/>
-      <c r="F102" s="355"/>
-      <c r="G102" s="355"/>
-      <c r="H102" s="355"/>
-      <c r="I102" s="206"/>
-    </row>
-    <row r="103" spans="2:10">
-      <c r="B103" s="50"/>
-      <c r="C103" s="14"/>
-      <c r="D103" s="16"/>
-      <c r="E103" s="16"/>
-      <c r="F103" s="16"/>
-      <c r="G103" s="16"/>
-      <c r="H103" s="14"/>
-      <c r="I103" s="14"/>
+      <c r="C103" s="355"/>
+      <c r="D103" s="355"/>
+      <c r="E103" s="355"/>
+      <c r="F103" s="355"/>
+      <c r="G103" s="355"/>
+      <c r="H103" s="355"/>
+      <c r="I103" s="206"/>
+      <c r="J103" s="14"/>
     </row>
     <row r="104" spans="2:10">
       <c r="B104" s="50"/>
@@ -11254,8 +11274,18 @@
       <c r="H105" s="14"/>
       <c r="I105" s="14"/>
     </row>
+    <row r="106" spans="2:10">
+      <c r="B106" s="50"/>
+      <c r="C106" s="14"/>
+      <c r="D106" s="16"/>
+      <c r="E106" s="16"/>
+      <c r="F106" s="16"/>
+      <c r="G106" s="16"/>
+      <c r="H106" s="14"/>
+      <c r="I106" s="14"/>
+    </row>
   </sheetData>
-  <mergeCells count="214">
+  <mergeCells count="216">
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
@@ -11343,7 +11373,7 @@
     <mergeCell ref="F42:G42"/>
     <mergeCell ref="D43:E43"/>
     <mergeCell ref="F43:G43"/>
-    <mergeCell ref="B44:B49"/>
+    <mergeCell ref="B44:B50"/>
     <mergeCell ref="D44:E44"/>
     <mergeCell ref="F44:G44"/>
     <mergeCell ref="D45:E45"/>
@@ -11356,9 +11386,9 @@
     <mergeCell ref="F48:G48"/>
     <mergeCell ref="D49:E49"/>
     <mergeCell ref="F49:G49"/>
-    <mergeCell ref="B50:B56"/>
     <mergeCell ref="D50:E50"/>
     <mergeCell ref="F50:G50"/>
+    <mergeCell ref="B51:B57"/>
     <mergeCell ref="D51:E51"/>
     <mergeCell ref="F51:G51"/>
     <mergeCell ref="D52:E52"/>
@@ -11371,10 +11401,10 @@
     <mergeCell ref="F55:G55"/>
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="F56:G56"/>
-    <mergeCell ref="B57:I57"/>
-    <mergeCell ref="B58:B62"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="B58:I58"/>
+    <mergeCell ref="B59:B63"/>
     <mergeCell ref="D59:E59"/>
     <mergeCell ref="F59:G59"/>
     <mergeCell ref="D60:E60"/>
@@ -11383,19 +11413,19 @@
     <mergeCell ref="F61:G61"/>
     <mergeCell ref="D62:E62"/>
     <mergeCell ref="F62:G62"/>
-    <mergeCell ref="B63:B66"/>
     <mergeCell ref="D63:E63"/>
     <mergeCell ref="F63:G63"/>
+    <mergeCell ref="B64:B67"/>
     <mergeCell ref="D64:E64"/>
     <mergeCell ref="F64:G64"/>
     <mergeCell ref="D65:E65"/>
     <mergeCell ref="F65:G65"/>
     <mergeCell ref="D66:E66"/>
     <mergeCell ref="F66:G66"/>
-    <mergeCell ref="B67:I67"/>
-    <mergeCell ref="B68:B79"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="B68:I68"/>
+    <mergeCell ref="B69:B80"/>
     <mergeCell ref="D69:E69"/>
     <mergeCell ref="F69:G69"/>
     <mergeCell ref="D70:E70"/>
@@ -11418,15 +11448,15 @@
     <mergeCell ref="F78:G78"/>
     <mergeCell ref="D79:E79"/>
     <mergeCell ref="F79:G79"/>
-    <mergeCell ref="B80:B81"/>
     <mergeCell ref="D80:E80"/>
     <mergeCell ref="F80:G80"/>
+    <mergeCell ref="B81:B82"/>
     <mergeCell ref="D81:E81"/>
     <mergeCell ref="F81:G81"/>
-    <mergeCell ref="B82:I82"/>
-    <mergeCell ref="B83:B101"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="B83:I83"/>
+    <mergeCell ref="B84:B102"/>
     <mergeCell ref="D84:E84"/>
     <mergeCell ref="F84:G84"/>
     <mergeCell ref="D85:E85"/>
@@ -11463,13 +11493,15 @@
     <mergeCell ref="F100:G100"/>
     <mergeCell ref="D101:E101"/>
     <mergeCell ref="F101:G101"/>
-    <mergeCell ref="B102:I102"/>
-    <mergeCell ref="D103:E103"/>
-    <mergeCell ref="F103:G103"/>
+    <mergeCell ref="D102:E102"/>
+    <mergeCell ref="F102:G102"/>
+    <mergeCell ref="B103:I103"/>
     <mergeCell ref="D104:E104"/>
     <mergeCell ref="F104:G104"/>
     <mergeCell ref="D105:E105"/>
     <mergeCell ref="F105:G105"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="F106:G106"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>

--- a/잡리스트 0514수정.xlsx
+++ b/잡리스트 0514수정.xlsx
@@ -4,16 +4,18 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="530" activeTab="5"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="530" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="joblist" sheetId="1" r:id="rId1"/>
     <sheet name="로그인버튼" sheetId="5" r:id="rId2"/>
     <sheet name="로그인 화면처리" sheetId="7" r:id="rId3"/>
     <sheet name="로그인처리" sheetId="6" r:id="rId4"/>
-    <sheet name="로그인 전체 공정" sheetId="2" r:id="rId5"/>
-    <sheet name="로그인버튼 (2)" sheetId="8" r:id="rId6"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId7"/>
+    <sheet name="로그인 최종 처리" sheetId="8" r:id="rId5"/>
+    <sheet name="내정보버튼" sheetId="9" r:id="rId6"/>
+    <sheet name="적립시간추가처리" sheetId="3" r:id="rId7"/>
+    <sheet name="내정보수정처리" sheetId="10" r:id="rId8"/>
+    <sheet name="로그인 전체 공정" sheetId="2" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="152511"/>
@@ -21,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="628">
   <si>
     <t>J O B L I S T</t>
   </si>
@@ -1878,6 +1880,152 @@
 3. 출력값이 0일 경우 Ac.Toasts를 실행해 Login화며넹 Toast출력
 4.1일 경우에는 selectID메서드 실행 후 controller로 값 전달
 5. 2일 경우에는 controller에 adminLogin값을 전달</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>로그인 최종 처리</t>
+    </r>
+  </si>
+  <si>
+    <t>ClearLogin</t>
+  </si>
+  <si>
+    <t>1. controller에 ClearLogin값을 받았을 경우
+2. login액티비티를 종료
+3. select한 회원정보를 member에 전달</t>
+  </si>
+  <si>
+    <t>1. menu 버튼을 누르면 메뉴 출력
+2. 메뉴중 내정보 버튼을 클릭
+3. 컨트롤러로 현재 Acivity와 string 값을 컨트롤러에 전달</t>
+  </si>
+  <si>
+    <t>로그인이 되어있는 상태라고 가정하에 프로세스 진행</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>내정보 버튼</t>
+    </r>
+  </si>
+  <si>
+    <t>메인 화면에서 내정보 버튼 처리</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>내정보 버튼</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>적립시간 추가 처리</t>
+    </r>
+  </si>
+  <si>
+    <t>addtime</t>
+  </si>
+  <si>
+    <t>내정보에 적립시간 추가 처리</t>
+  </si>
+  <si>
+    <t>1. controller에서 addtime값이 들어 왔을 경우</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. controller에서 addtime값이 들어 왔을 경우
+2. </t>
+  </si>
+  <si>
+    <t>1. controller에서 addtime값이 들어 왔을 경우
+2. addTimeDialog 메소드 실행</t>
+  </si>
+  <si>
+    <t>1. controller에서 addtime값이 들어 왔을 경우
+2. addTimeDialog 메소드 실행
+3. 내정보에 추가할 시간을 설정후 버튼클릭</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. controller에서 addtime값이 들어 왔을 경우
+2. addTimeDialog 메소드 실행
+3. 내정보에 추가할 시간을 설정후 버튼클릭
+4.updateTime메소드 실행 </t>
+  </si>
+  <si>
+    <t>1. controller에서 addtime값이 들어 왔을 경우
+2. addTimeDialog 메소드 실행
+3. 내정보에 추가할 시간을 설정후 버튼클릭
+4.updateTime메소드 실행 
+5. 내정보에 시간값변경
+6.ac.toasts 메소드 실행후 메소드 출력</t>
+  </si>
+  <si>
+    <t>sub</t>
+  </si>
+  <si>
+    <t>myinfoupdate</t>
+  </si>
+  <si>
+    <t>내정보에 수정 처리</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>내정보 수정 처리</t>
+    </r>
+  </si>
+  <si>
+    <t>1. controller에서 myinfoupdate 값 들어 왔을 경우
+2. addTimeDialog 메소드 실행
+3. 내정보에 추가할 시간을 설정후 버튼클릭
+4.updateTime메소드 실행 
+5. 내정보에 시간값변경
+6.ac.toasts 메소드 실행후 메소드 출력</t>
+  </si>
+  <si>
+    <t>1. controller에서 myinfoupdate 값 들어 왔을 경우
+2. myinfoupdate 메소드 실행
+3. 내정보에 추가할 시간을 설정후 버튼클릭
+4.updateTime메소드 실행 
+5. 내정보에 시간값변경
+6.ac.toasts 메소드 실행후 메소드 출력</t>
+  </si>
+  <si>
+    <t>1. controller에서 myinfoupdate 값 들어 왔을 경우
+2. myinfoDialog 메소드 실행
+3. 내정보에 수정할 정보 입력후 버튼클릭
+4.updateTime메소드 실행 
+5. 내정보에 시간값변경
+6.ac.toasts 메소드 실행후 메소드 출력</t>
+  </si>
+  <si>
+    <t>1. controller에서 myinfoupdate 값 들어 왔을 경우
+2. myinfoDialog 메소드 실행
+3. 내정보에 수정할 정보 입력후 버튼클릭
+4.updateUser메소드 실행 
+5. 내정보를 수정된 정보로 변경
+6.ac.toasts 메소드 실행후 메소드 출력</t>
   </si>
 </sst>
 </file>
@@ -6545,9 +6693,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="190" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="117" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="128" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -6589,6 +6734,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="187" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="117" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -6753,7 +6901,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="그림 23"/>
+        <xdr:cNvPr id="23" name="그림 23" descr="xl/media/OImage2169619530.png"/>
         <xdr:cNvPicPr preferRelativeResize="0">
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6893,7 +7041,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="그림 23"/>
+        <xdr:cNvPr id="23" name="그림 23" descr="xl/media/OImage2182488651.png"/>
         <xdr:cNvPicPr preferRelativeResize="0">
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7033,7 +7181,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="그림 23"/>
+        <xdr:cNvPr id="23" name="그림 23" descr="xl/media/OImage1762063052.png"/>
         <xdr:cNvPicPr preferRelativeResize="0">
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7067,22 +7215,113 @@
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="TextBox 16"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5427345" y="2491740"/>
+          <a:ext cx="190500" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="TextBox 22"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3522345" y="3329940"/>
+          <a:ext cx="714375" cy="438150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="91440" anchor="t" vertOverflow="clip">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:buFontTx/>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" cap="none" dirty="0" smtClean="0" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+            </a:rPr>
+            <a:t>mHistory
+html</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" dirty="0" smtClean="0" cap="none" b="0">
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>1325880</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="그림 1" descr="xl/media/OImage2932675050.png"/>
+        <xdr:cNvPr id="23" name="그림 23"/>
         <xdr:cNvPicPr preferRelativeResize="0">
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7102,8 +7341,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="26670" y="0"/>
-          <a:ext cx="11001375" cy="6943725"/>
+          <a:off x="1509395" y="3974465"/>
+          <a:ext cx="12435205" cy="1336675"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
         <a:noFill/>
@@ -7209,16 +7448,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>294005</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>24130</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>555625</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>646430</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>71755</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>817880</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7242,8 +7481,337 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2425700" y="3773170"/>
-          <a:ext cx="9953625" cy="1304925"/>
+          <a:off x="2001520" y="4046220"/>
+          <a:ext cx="11435080" cy="1217295"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5332095" y="2291715"/>
+          <a:ext cx="190500" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 2"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3427095" y="3129915"/>
+          <a:ext cx="714375" cy="438150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="91440" anchor="t" vertOverflow="clip">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:buFontTx/>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" cap="none" dirty="0" smtClean="0" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+            </a:rPr>
+            <a:t>mHistory
+html</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" dirty="0" smtClean="0" cap="none" b="0">
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 3"/>
+        <xdr:cNvPicPr preferRelativeResize="0">
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1922145" y="3225165"/>
+          <a:ext cx="10810875" cy="2543175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5332095" y="2291715"/>
+          <a:ext cx="190500" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 2"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3427095" y="3129915"/>
+          <a:ext cx="714375" cy="438150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="91440" anchor="t" vertOverflow="clip">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:buFontTx/>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" cap="none" dirty="0" smtClean="0" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+            </a:rPr>
+            <a:t>mHistory
+html</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" dirty="0" smtClean="0" cap="none" b="0">
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 3"/>
+        <xdr:cNvPicPr preferRelativeResize="0">
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1369695" y="3396615"/>
+          <a:ext cx="12011025" cy="2266950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="그림 1" descr="xl/media/OImage2932675050.png"/>
+        <xdr:cNvPicPr preferRelativeResize="0">
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26670" y="0"/>
+          <a:ext cx="11001375" cy="6943725"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
         <a:noFill/>
@@ -7519,8 +8087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N105"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="B102" sqref="B102:I102"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -9915,7 +10483,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="361"/>
-      <c r="C1" s="549" t="s">
+      <c r="C1" s="523" t="s">
         <v>579</v>
       </c>
       <c r="D1" s="361"/>
@@ -9935,7 +10503,7 @@
       <c r="R1" s="524" t="s">
         <v>529</v>
       </c>
-      <c r="S1" s="556">
+      <c r="S1" s="555">
         <v>43601</v>
       </c>
       <c r="T1" s="50"/>
@@ -9983,7 +10551,7 @@
       <c r="R3" s="525" t="s">
         <v>530</v>
       </c>
-      <c r="S3" s="556">
+      <c r="S3" s="555">
         <v>43601</v>
       </c>
       <c r="T3" s="50"/>
@@ -10040,7 +10608,7 @@
       <c r="O5" s="259"/>
       <c r="P5" s="241"/>
       <c r="Q5" s="241"/>
-      <c r="R5" s="554" t="s">
+      <c r="R5" s="553" t="s">
         <v>531</v>
       </c>
       <c r="S5" s="349" t="s">
@@ -10073,7 +10641,7 @@
       <c r="O6" s="241"/>
       <c r="P6" s="241"/>
       <c r="Q6" s="241"/>
-      <c r="R6" s="555"/>
+      <c r="R6" s="554"/>
       <c r="S6" s="349"/>
     </row>
     <row r="7" spans="1:20">
@@ -10081,7 +10649,7 @@
         <v>519</v>
       </c>
       <c r="B7" s="539"/>
-      <c r="C7" s="561" t="s">
+      <c r="C7" s="560" t="s">
         <v>587</v>
       </c>
       <c r="D7" s="52"/>
@@ -10249,7 +10817,7 @@
       <c r="S14" s="52"/>
     </row>
     <row r="15" spans="1:20">
-      <c r="A15" s="557"/>
+      <c r="A15" s="556"/>
       <c r="B15" s="254"/>
       <c r="C15" s="516"/>
       <c r="D15" s="52"/>
@@ -10536,7 +11104,7 @@
       <c r="T27" s="50"/>
     </row>
     <row r="28" spans="1:20">
-      <c r="A28" s="557"/>
+      <c r="A28" s="556"/>
       <c r="B28" s="254"/>
       <c r="C28" s="516"/>
       <c r="D28" s="52"/>
@@ -10697,7 +11265,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="361"/>
-      <c r="C1" s="549" t="s">
+      <c r="C1" s="523" t="s">
         <v>589</v>
       </c>
       <c r="D1" s="361"/>
@@ -10717,7 +11285,7 @@
       <c r="R1" s="524" t="s">
         <v>529</v>
       </c>
-      <c r="S1" s="556">
+      <c r="S1" s="555">
         <v>43601</v>
       </c>
       <c r="T1" s="50"/>
@@ -10765,7 +11333,7 @@
       <c r="R3" s="525" t="s">
         <v>530</v>
       </c>
-      <c r="S3" s="556">
+      <c r="S3" s="555">
         <v>43601</v>
       </c>
       <c r="T3" s="50"/>
@@ -10822,7 +11390,7 @@
       <c r="O5" s="259"/>
       <c r="P5" s="241"/>
       <c r="Q5" s="241"/>
-      <c r="R5" s="554" t="s">
+      <c r="R5" s="553" t="s">
         <v>531</v>
       </c>
       <c r="S5" s="349" t="s">
@@ -10855,7 +11423,7 @@
       <c r="O6" s="241"/>
       <c r="P6" s="241"/>
       <c r="Q6" s="241"/>
-      <c r="R6" s="555"/>
+      <c r="R6" s="554"/>
       <c r="S6" s="349"/>
     </row>
     <row r="7" spans="1:20">
@@ -10863,7 +11431,7 @@
         <v>519</v>
       </c>
       <c r="B7" s="539"/>
-      <c r="C7" s="561" t="s">
+      <c r="C7" s="560" t="s">
         <v>593</v>
       </c>
       <c r="D7" s="52"/>
@@ -11031,7 +11599,7 @@
       <c r="S14" s="52"/>
     </row>
     <row r="15" spans="1:20">
-      <c r="A15" s="557"/>
+      <c r="A15" s="556"/>
       <c r="B15" s="254"/>
       <c r="C15" s="516"/>
       <c r="D15" s="52"/>
@@ -11318,7 +11886,7 @@
       <c r="T27" s="50"/>
     </row>
     <row r="28" spans="1:20">
-      <c r="A28" s="557"/>
+      <c r="A28" s="556"/>
       <c r="B28" s="254"/>
       <c r="C28" s="516"/>
       <c r="D28" s="52"/>
@@ -11477,7 +12045,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="361"/>
-      <c r="C1" s="549" t="s">
+      <c r="C1" s="523" t="s">
         <v>594</v>
       </c>
       <c r="D1" s="361"/>
@@ -11497,7 +12065,7 @@
       <c r="R1" s="524" t="s">
         <v>529</v>
       </c>
-      <c r="S1" s="556">
+      <c r="S1" s="555">
         <v>43601</v>
       </c>
       <c r="T1" s="50"/>
@@ -11545,7 +12113,7 @@
       <c r="R3" s="525" t="s">
         <v>530</v>
       </c>
-      <c r="S3" s="556">
+      <c r="S3" s="555">
         <v>43601</v>
       </c>
       <c r="T3" s="50"/>
@@ -11602,7 +12170,7 @@
       <c r="O5" s="259"/>
       <c r="P5" s="241"/>
       <c r="Q5" s="241"/>
-      <c r="R5" s="554" t="s">
+      <c r="R5" s="553" t="s">
         <v>531</v>
       </c>
       <c r="S5" s="349" t="s">
@@ -11635,7 +12203,7 @@
       <c r="O6" s="241"/>
       <c r="P6" s="241"/>
       <c r="Q6" s="241"/>
-      <c r="R6" s="555"/>
+      <c r="R6" s="554"/>
       <c r="S6" s="349"/>
     </row>
     <row r="7" spans="1:20">
@@ -11643,7 +12211,7 @@
         <v>519</v>
       </c>
       <c r="B7" s="539"/>
-      <c r="C7" s="561" t="s">
+      <c r="C7" s="560" t="s">
         <v>602</v>
       </c>
       <c r="D7" s="52"/>
@@ -11811,7 +12379,7 @@
       <c r="S14" s="52"/>
     </row>
     <row r="15" spans="1:20">
-      <c r="A15" s="557"/>
+      <c r="A15" s="556"/>
       <c r="B15" s="254"/>
       <c r="C15" s="516"/>
       <c r="D15" s="52"/>
@@ -12098,7 +12666,7 @@
       <c r="T27" s="50"/>
     </row>
     <row r="28" spans="1:20">
-      <c r="A28" s="557"/>
+      <c r="A28" s="556"/>
       <c r="B28" s="254"/>
       <c r="C28" s="516"/>
       <c r="D28" s="52"/>
@@ -12239,27 +12807,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.500000"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16:S28"/>
+    <sheetView topLeftCell="A10" zoomScale="120" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6:Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -12274,8 +12825,8 @@
         <v>1</v>
       </c>
       <c r="B1" s="361"/>
-      <c r="C1" s="549" t="s">
-        <v>579</v>
+      <c r="C1" s="563" t="s">
+        <v>603</v>
       </c>
       <c r="D1" s="361"/>
       <c r="E1" s="361"/>
@@ -12294,7 +12845,7 @@
       <c r="R1" s="524" t="s">
         <v>529</v>
       </c>
-      <c r="S1" s="556">
+      <c r="S1" s="555">
         <v>43601</v>
       </c>
       <c r="T1" s="50"/>
@@ -12342,7 +12893,7 @@
       <c r="R3" s="525" t="s">
         <v>530</v>
       </c>
-      <c r="S3" s="556">
+      <c r="S3" s="555">
         <v>43601</v>
       </c>
       <c r="T3" s="50"/>
@@ -12399,7 +12950,7 @@
       <c r="O5" s="259"/>
       <c r="P5" s="241"/>
       <c r="Q5" s="241"/>
-      <c r="R5" s="554" t="s">
+      <c r="R5" s="553" t="s">
         <v>531</v>
       </c>
       <c r="S5" s="349" t="s">
@@ -12424,7 +12975,7 @@
       </c>
       <c r="J6" s="241"/>
       <c r="K6" s="241" t="s">
-        <v>180</v>
+        <v>604</v>
       </c>
       <c r="L6" s="241"/>
       <c r="M6" s="241"/>
@@ -12432,7 +12983,7 @@
       <c r="O6" s="241"/>
       <c r="P6" s="241"/>
       <c r="Q6" s="241"/>
-      <c r="R6" s="555"/>
+      <c r="R6" s="554"/>
       <c r="S6" s="349"/>
     </row>
     <row r="7" spans="1:20">
@@ -12440,8 +12991,8 @@
         <v>519</v>
       </c>
       <c r="B7" s="539"/>
-      <c r="C7" s="561" t="s">
-        <v>587</v>
+      <c r="C7" s="560" t="s">
+        <v>605</v>
       </c>
       <c r="D7" s="52"/>
       <c r="E7" s="52"/>
@@ -12608,7 +13159,7 @@
       <c r="S14" s="52"/>
     </row>
     <row r="15" spans="1:20">
-      <c r="A15" s="557"/>
+      <c r="A15" s="556"/>
       <c r="B15" s="254"/>
       <c r="C15" s="516"/>
       <c r="D15" s="52"/>
@@ -12895,7 +13446,7 @@
       <c r="T27" s="50"/>
     </row>
     <row r="28" spans="1:20">
-      <c r="A28" s="557"/>
+      <c r="A28" s="556"/>
       <c r="B28" s="254"/>
       <c r="C28" s="516"/>
       <c r="D28" s="52"/>
@@ -12922,6 +13473,790 @@
       </c>
       <c r="B29" s="539"/>
       <c r="C29" s="516"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="52"/>
+      <c r="J29" s="52"/>
+      <c r="K29" s="52"/>
+      <c r="L29" s="52"/>
+      <c r="M29" s="52"/>
+      <c r="N29" s="52"/>
+      <c r="O29" s="52"/>
+      <c r="P29" s="52"/>
+      <c r="Q29" s="52"/>
+      <c r="R29" s="52"/>
+      <c r="S29" s="16"/>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="187"/>
+      <c r="B30" s="253"/>
+      <c r="C30" s="516"/>
+      <c r="D30" s="52"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="52"/>
+      <c r="J30" s="52"/>
+      <c r="K30" s="52"/>
+      <c r="L30" s="52"/>
+      <c r="M30" s="52"/>
+      <c r="N30" s="52"/>
+      <c r="O30" s="52"/>
+      <c r="P30" s="52"/>
+      <c r="Q30" s="52"/>
+      <c r="R30" s="52"/>
+      <c r="S30" s="16"/>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="187"/>
+      <c r="B31" s="253"/>
+      <c r="C31" s="516"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="52"/>
+      <c r="I31" s="52"/>
+      <c r="J31" s="52"/>
+      <c r="K31" s="52"/>
+      <c r="L31" s="52"/>
+      <c r="M31" s="52"/>
+      <c r="N31" s="52"/>
+      <c r="O31" s="52"/>
+      <c r="P31" s="52"/>
+      <c r="Q31" s="52"/>
+      <c r="R31" s="52"/>
+      <c r="S31" s="16"/>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="370"/>
+      <c r="B32" s="540"/>
+      <c r="C32" s="516"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="52"/>
+      <c r="I32" s="52"/>
+      <c r="J32" s="52"/>
+      <c r="K32" s="52"/>
+      <c r="L32" s="52"/>
+      <c r="M32" s="52"/>
+      <c r="N32" s="52"/>
+      <c r="O32" s="52"/>
+      <c r="P32" s="52"/>
+      <c r="Q32" s="52"/>
+      <c r="R32" s="52"/>
+      <c r="S32" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="A1:B4"/>
+    <mergeCell ref="C1:Q3"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:Q4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:Q6"/>
+    <mergeCell ref="A7:B15"/>
+    <mergeCell ref="C7:S15"/>
+    <mergeCell ref="A16:B28"/>
+    <mergeCell ref="C16:S28"/>
+    <mergeCell ref="A29:B32"/>
+    <mergeCell ref="C29:S32"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:T32"/>
+  <sheetViews>
+    <sheetView topLeftCell="A17" zoomScale="120" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:S32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.500000"/>
+  <cols>
+    <col min="2" max="2" width="10.25500011" customWidth="1" outlineLevel="0"/>
+    <col min="18" max="18" width="11.63000011" customWidth="1" outlineLevel="0"/>
+    <col min="19" max="19" width="20.50499916" customWidth="1" outlineLevel="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20">
+      <c r="A1" s="522">
+        <v>1</v>
+      </c>
+      <c r="B1" s="361"/>
+      <c r="C1" s="563" t="s">
+        <v>608</v>
+      </c>
+      <c r="D1" s="361"/>
+      <c r="E1" s="361"/>
+      <c r="F1" s="361"/>
+      <c r="G1" s="361"/>
+      <c r="H1" s="361"/>
+      <c r="I1" s="361"/>
+      <c r="J1" s="361"/>
+      <c r="K1" s="361"/>
+      <c r="L1" s="361"/>
+      <c r="M1" s="361"/>
+      <c r="N1" s="361"/>
+      <c r="O1" s="361"/>
+      <c r="P1" s="361"/>
+      <c r="Q1" s="361"/>
+      <c r="R1" s="524" t="s">
+        <v>529</v>
+      </c>
+      <c r="S1" s="555">
+        <v>43601</v>
+      </c>
+      <c r="T1" s="50"/>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" s="266"/>
+      <c r="B2" s="259"/>
+      <c r="C2" s="259"/>
+      <c r="D2" s="259"/>
+      <c r="E2" s="259"/>
+      <c r="F2" s="259"/>
+      <c r="G2" s="259"/>
+      <c r="H2" s="259"/>
+      <c r="I2" s="259"/>
+      <c r="J2" s="259"/>
+      <c r="K2" s="259"/>
+      <c r="L2" s="259"/>
+      <c r="M2" s="259"/>
+      <c r="N2" s="259"/>
+      <c r="O2" s="259"/>
+      <c r="P2" s="259"/>
+      <c r="Q2" s="259"/>
+      <c r="R2" s="525"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="50"/>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" s="266"/>
+      <c r="B3" s="259"/>
+      <c r="C3" s="259"/>
+      <c r="D3" s="259"/>
+      <c r="E3" s="259"/>
+      <c r="F3" s="259"/>
+      <c r="G3" s="259"/>
+      <c r="H3" s="259"/>
+      <c r="I3" s="259"/>
+      <c r="J3" s="259"/>
+      <c r="K3" s="259"/>
+      <c r="L3" s="259"/>
+      <c r="M3" s="259"/>
+      <c r="N3" s="259"/>
+      <c r="O3" s="259"/>
+      <c r="P3" s="259"/>
+      <c r="Q3" s="259"/>
+      <c r="R3" s="525" t="s">
+        <v>530</v>
+      </c>
+      <c r="S3" s="555">
+        <v>43601</v>
+      </c>
+      <c r="T3" s="50"/>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" s="343"/>
+      <c r="B4" s="241"/>
+      <c r="C4" s="545" t="s">
+        <v>566</v>
+      </c>
+      <c r="D4" s="530"/>
+      <c r="E4" s="545" t="s">
+        <v>609</v>
+      </c>
+      <c r="F4" s="546"/>
+      <c r="G4" s="546"/>
+      <c r="H4" s="546"/>
+      <c r="I4" s="546"/>
+      <c r="J4" s="546"/>
+      <c r="K4" s="546"/>
+      <c r="L4" s="546"/>
+      <c r="M4" s="546"/>
+      <c r="N4" s="546"/>
+      <c r="O4" s="546"/>
+      <c r="P4" s="546"/>
+      <c r="Q4" s="530"/>
+      <c r="R4" s="525"/>
+      <c r="S4" s="52"/>
+      <c r="T4" s="50"/>
+    </row>
+    <row r="5" spans="1:20" ht="24.000000" customHeight="1">
+      <c r="A5" s="343" t="s">
+        <v>561</v>
+      </c>
+      <c r="B5" s="241"/>
+      <c r="C5" s="241" t="s">
+        <v>583</v>
+      </c>
+      <c r="D5" s="241"/>
+      <c r="E5" s="241"/>
+      <c r="F5" s="241"/>
+      <c r="G5" s="241"/>
+      <c r="H5" s="241"/>
+      <c r="I5" s="241" t="s">
+        <v>562</v>
+      </c>
+      <c r="J5" s="241"/>
+      <c r="K5" s="259" t="s">
+        <v>581</v>
+      </c>
+      <c r="L5" s="259"/>
+      <c r="M5" s="259"/>
+      <c r="N5" s="259"/>
+      <c r="O5" s="259"/>
+      <c r="P5" s="241"/>
+      <c r="Q5" s="241"/>
+      <c r="R5" s="553" t="s">
+        <v>531</v>
+      </c>
+      <c r="S5" s="349" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="24.750000" customHeight="1">
+      <c r="A6" s="343" t="s">
+        <v>563</v>
+      </c>
+      <c r="B6" s="241"/>
+      <c r="C6" s="241" t="s">
+        <v>469</v>
+      </c>
+      <c r="D6" s="241"/>
+      <c r="E6" s="241"/>
+      <c r="F6" s="241"/>
+      <c r="G6" s="241"/>
+      <c r="H6" s="241"/>
+      <c r="I6" s="241" t="s">
+        <v>582</v>
+      </c>
+      <c r="J6" s="241"/>
+      <c r="K6" s="241" t="s">
+        <v>180</v>
+      </c>
+      <c r="L6" s="241"/>
+      <c r="M6" s="241"/>
+      <c r="N6" s="241"/>
+      <c r="O6" s="241"/>
+      <c r="P6" s="241"/>
+      <c r="Q6" s="241"/>
+      <c r="R6" s="554"/>
+      <c r="S6" s="349"/>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" s="538" t="s">
+        <v>519</v>
+      </c>
+      <c r="B7" s="539"/>
+      <c r="C7" s="560" t="s">
+        <v>606</v>
+      </c>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="52"/>
+      <c r="O7" s="52"/>
+      <c r="P7" s="52"/>
+      <c r="Q7" s="52"/>
+      <c r="R7" s="52"/>
+      <c r="S7" s="52"/>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" s="187"/>
+      <c r="B8" s="253"/>
+      <c r="C8" s="516"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="52"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="52"/>
+      <c r="Q8" s="52"/>
+      <c r="R8" s="52"/>
+      <c r="S8" s="52"/>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="187"/>
+      <c r="B9" s="253"/>
+      <c r="C9" s="516"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="52"/>
+      <c r="O9" s="52"/>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="52"/>
+      <c r="R9" s="52"/>
+      <c r="S9" s="52"/>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="187"/>
+      <c r="B10" s="253"/>
+      <c r="C10" s="516"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="52"/>
+      <c r="O10" s="52"/>
+      <c r="P10" s="52"/>
+      <c r="Q10" s="52"/>
+      <c r="R10" s="52"/>
+      <c r="S10" s="52"/>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="187"/>
+      <c r="B11" s="253"/>
+      <c r="C11" s="516"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="52"/>
+      <c r="O11" s="52"/>
+      <c r="P11" s="52"/>
+      <c r="Q11" s="52"/>
+      <c r="R11" s="52"/>
+      <c r="S11" s="52"/>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" s="187"/>
+      <c r="B12" s="253"/>
+      <c r="C12" s="516"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="52"/>
+      <c r="O12" s="52"/>
+      <c r="P12" s="52"/>
+      <c r="Q12" s="52"/>
+      <c r="R12" s="52"/>
+      <c r="S12" s="52"/>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" s="187"/>
+      <c r="B13" s="253"/>
+      <c r="C13" s="516"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="52"/>
+      <c r="O13" s="52"/>
+      <c r="P13" s="52"/>
+      <c r="Q13" s="52"/>
+      <c r="R13" s="52"/>
+      <c r="S13" s="52"/>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" s="187"/>
+      <c r="B14" s="253"/>
+      <c r="C14" s="516"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="52"/>
+      <c r="O14" s="52"/>
+      <c r="P14" s="52"/>
+      <c r="Q14" s="52"/>
+      <c r="R14" s="52"/>
+      <c r="S14" s="52"/>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" s="556"/>
+      <c r="B15" s="254"/>
+      <c r="C15" s="516"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="52"/>
+      <c r="N15" s="52"/>
+      <c r="O15" s="52"/>
+      <c r="P15" s="52"/>
+      <c r="Q15" s="52"/>
+      <c r="R15" s="52"/>
+      <c r="S15" s="52"/>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" s="538" t="s">
+        <v>585</v>
+      </c>
+      <c r="B16" s="539"/>
+      <c r="C16" s="516"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="52"/>
+      <c r="M16" s="52"/>
+      <c r="N16" s="52"/>
+      <c r="O16" s="52"/>
+      <c r="P16" s="52"/>
+      <c r="Q16" s="52"/>
+      <c r="R16" s="52"/>
+      <c r="S16" s="52"/>
+      <c r="T16" s="50"/>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" s="187"/>
+      <c r="B17" s="253"/>
+      <c r="C17" s="516"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="52"/>
+      <c r="O17" s="52"/>
+      <c r="P17" s="52"/>
+      <c r="Q17" s="52"/>
+      <c r="R17" s="52"/>
+      <c r="S17" s="52"/>
+      <c r="T17" s="50"/>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" s="187"/>
+      <c r="B18" s="253"/>
+      <c r="C18" s="516"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="52"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="52"/>
+      <c r="O18" s="52"/>
+      <c r="P18" s="52"/>
+      <c r="Q18" s="52"/>
+      <c r="R18" s="52"/>
+      <c r="S18" s="52"/>
+      <c r="T18" s="50"/>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" s="187"/>
+      <c r="B19" s="253"/>
+      <c r="C19" s="516"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="52"/>
+      <c r="O19" s="52"/>
+      <c r="P19" s="52"/>
+      <c r="Q19" s="52"/>
+      <c r="R19" s="52"/>
+      <c r="S19" s="52"/>
+      <c r="T19" s="50"/>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="187"/>
+      <c r="B20" s="253"/>
+      <c r="C20" s="516"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="52"/>
+      <c r="O20" s="52"/>
+      <c r="P20" s="52"/>
+      <c r="Q20" s="52"/>
+      <c r="R20" s="52"/>
+      <c r="S20" s="52"/>
+      <c r="T20" s="50"/>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="187"/>
+      <c r="B21" s="253"/>
+      <c r="C21" s="516"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="52"/>
+      <c r="N21" s="52"/>
+      <c r="O21" s="52"/>
+      <c r="P21" s="52"/>
+      <c r="Q21" s="52"/>
+      <c r="R21" s="52"/>
+      <c r="S21" s="52"/>
+      <c r="T21" s="50"/>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="187"/>
+      <c r="B22" s="253"/>
+      <c r="C22" s="516"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="52"/>
+      <c r="N22" s="52"/>
+      <c r="O22" s="52"/>
+      <c r="P22" s="52"/>
+      <c r="Q22" s="52"/>
+      <c r="R22" s="52"/>
+      <c r="S22" s="52"/>
+      <c r="T22" s="50"/>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="187"/>
+      <c r="B23" s="253"/>
+      <c r="C23" s="516"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="52"/>
+      <c r="N23" s="52"/>
+      <c r="O23" s="52"/>
+      <c r="P23" s="52"/>
+      <c r="Q23" s="52"/>
+      <c r="R23" s="52"/>
+      <c r="S23" s="52"/>
+      <c r="T23" s="50"/>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="187"/>
+      <c r="B24" s="253"/>
+      <c r="C24" s="516"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="52"/>
+      <c r="M24" s="52"/>
+      <c r="N24" s="52"/>
+      <c r="O24" s="52"/>
+      <c r="P24" s="52"/>
+      <c r="Q24" s="52"/>
+      <c r="R24" s="52"/>
+      <c r="S24" s="52"/>
+      <c r="T24" s="50"/>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="187"/>
+      <c r="B25" s="253"/>
+      <c r="C25" s="516"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="52"/>
+      <c r="M25" s="52"/>
+      <c r="N25" s="52"/>
+      <c r="O25" s="52"/>
+      <c r="P25" s="52"/>
+      <c r="Q25" s="52"/>
+      <c r="R25" s="52"/>
+      <c r="S25" s="52"/>
+      <c r="T25" s="50"/>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="187"/>
+      <c r="B26" s="253"/>
+      <c r="C26" s="516"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="52"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="52"/>
+      <c r="L26" s="52"/>
+      <c r="M26" s="52"/>
+      <c r="N26" s="52"/>
+      <c r="O26" s="52"/>
+      <c r="P26" s="52"/>
+      <c r="Q26" s="52"/>
+      <c r="R26" s="52"/>
+      <c r="S26" s="52"/>
+      <c r="T26" s="50"/>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="187"/>
+      <c r="B27" s="253"/>
+      <c r="C27" s="516"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="52"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="52"/>
+      <c r="L27" s="52"/>
+      <c r="M27" s="52"/>
+      <c r="N27" s="52"/>
+      <c r="O27" s="52"/>
+      <c r="P27" s="52"/>
+      <c r="Q27" s="52"/>
+      <c r="R27" s="52"/>
+      <c r="S27" s="52"/>
+      <c r="T27" s="50"/>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="556"/>
+      <c r="B28" s="254"/>
+      <c r="C28" s="516"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="52"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="52"/>
+      <c r="L28" s="52"/>
+      <c r="M28" s="52"/>
+      <c r="N28" s="52"/>
+      <c r="O28" s="52"/>
+      <c r="P28" s="52"/>
+      <c r="Q28" s="52"/>
+      <c r="R28" s="52"/>
+      <c r="S28" s="52"/>
+      <c r="T28" s="50"/>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="538" t="s">
+        <v>565</v>
+      </c>
+      <c r="B29" s="539"/>
+      <c r="C29" s="516" t="s">
+        <v>607</v>
+      </c>
       <c r="D29" s="52"/>
       <c r="E29" s="52"/>
       <c r="F29" s="52"/>
@@ -13038,10 +14373,1540 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:S15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.500000"/>
+  <cols>
+    <col min="19" max="19" width="13.88000011" customWidth="1" outlineLevel="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19">
+      <c r="A1" s="522">
+        <v>1</v>
+      </c>
+      <c r="B1" s="361"/>
+      <c r="C1" s="563" t="s">
+        <v>611</v>
+      </c>
+      <c r="D1" s="361"/>
+      <c r="E1" s="361"/>
+      <c r="F1" s="361"/>
+      <c r="G1" s="361"/>
+      <c r="H1" s="361"/>
+      <c r="I1" s="361"/>
+      <c r="J1" s="361"/>
+      <c r="K1" s="361"/>
+      <c r="L1" s="361"/>
+      <c r="M1" s="361"/>
+      <c r="N1" s="361"/>
+      <c r="O1" s="361"/>
+      <c r="P1" s="361"/>
+      <c r="Q1" s="361"/>
+      <c r="R1" s="524" t="s">
+        <v>529</v>
+      </c>
+      <c r="S1" s="555">
+        <v>43601</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="266"/>
+      <c r="B2" s="259"/>
+      <c r="C2" s="259"/>
+      <c r="D2" s="259"/>
+      <c r="E2" s="259"/>
+      <c r="F2" s="259"/>
+      <c r="G2" s="259"/>
+      <c r="H2" s="259"/>
+      <c r="I2" s="259"/>
+      <c r="J2" s="259"/>
+      <c r="K2" s="259"/>
+      <c r="L2" s="259"/>
+      <c r="M2" s="259"/>
+      <c r="N2" s="259"/>
+      <c r="O2" s="259"/>
+      <c r="P2" s="259"/>
+      <c r="Q2" s="259"/>
+      <c r="R2" s="525"/>
+      <c r="S2" s="52"/>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" s="266"/>
+      <c r="B3" s="259"/>
+      <c r="C3" s="259"/>
+      <c r="D3" s="259"/>
+      <c r="E3" s="259"/>
+      <c r="F3" s="259"/>
+      <c r="G3" s="259"/>
+      <c r="H3" s="259"/>
+      <c r="I3" s="259"/>
+      <c r="J3" s="259"/>
+      <c r="K3" s="259"/>
+      <c r="L3" s="259"/>
+      <c r="M3" s="259"/>
+      <c r="N3" s="259"/>
+      <c r="O3" s="259"/>
+      <c r="P3" s="259"/>
+      <c r="Q3" s="259"/>
+      <c r="R3" s="525" t="s">
+        <v>530</v>
+      </c>
+      <c r="S3" s="555">
+        <v>43601</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="343"/>
+      <c r="B4" s="241"/>
+      <c r="C4" s="545" t="s">
+        <v>566</v>
+      </c>
+      <c r="D4" s="530"/>
+      <c r="E4" s="545" t="s">
+        <v>613</v>
+      </c>
+      <c r="F4" s="546"/>
+      <c r="G4" s="546"/>
+      <c r="H4" s="546"/>
+      <c r="I4" s="546"/>
+      <c r="J4" s="546"/>
+      <c r="K4" s="546"/>
+      <c r="L4" s="546"/>
+      <c r="M4" s="546"/>
+      <c r="N4" s="546"/>
+      <c r="O4" s="546"/>
+      <c r="P4" s="546"/>
+      <c r="Q4" s="530"/>
+      <c r="R4" s="525"/>
+      <c r="S4" s="52"/>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="343" t="s">
+        <v>561</v>
+      </c>
+      <c r="B5" s="241"/>
+      <c r="C5" s="241" t="s">
+        <v>583</v>
+      </c>
+      <c r="D5" s="241"/>
+      <c r="E5" s="241"/>
+      <c r="F5" s="241"/>
+      <c r="G5" s="241"/>
+      <c r="H5" s="241"/>
+      <c r="I5" s="241" t="s">
+        <v>562</v>
+      </c>
+      <c r="J5" s="241"/>
+      <c r="K5" s="259" t="s">
+        <v>581</v>
+      </c>
+      <c r="L5" s="259"/>
+      <c r="M5" s="259"/>
+      <c r="N5" s="259"/>
+      <c r="O5" s="259"/>
+      <c r="P5" s="241"/>
+      <c r="Q5" s="241"/>
+      <c r="R5" s="553" t="s">
+        <v>531</v>
+      </c>
+      <c r="S5" s="349" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="343" t="s">
+        <v>563</v>
+      </c>
+      <c r="B6" s="241"/>
+      <c r="C6" s="241" t="s">
+        <v>469</v>
+      </c>
+      <c r="D6" s="241"/>
+      <c r="E6" s="241"/>
+      <c r="F6" s="241"/>
+      <c r="G6" s="241"/>
+      <c r="H6" s="241"/>
+      <c r="I6" s="241" t="s">
+        <v>582</v>
+      </c>
+      <c r="J6" s="241"/>
+      <c r="K6" s="241" t="s">
+        <v>612</v>
+      </c>
+      <c r="L6" s="241"/>
+      <c r="M6" s="241"/>
+      <c r="N6" s="241"/>
+      <c r="O6" s="241"/>
+      <c r="P6" s="241"/>
+      <c r="Q6" s="241"/>
+      <c r="R6" s="554"/>
+      <c r="S6" s="349"/>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="538" t="s">
+        <v>519</v>
+      </c>
+      <c r="B7" s="539"/>
+      <c r="C7" s="560" t="s">
+        <v>619</v>
+      </c>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="52"/>
+      <c r="O7" s="52"/>
+      <c r="P7" s="52"/>
+      <c r="Q7" s="52"/>
+      <c r="R7" s="52"/>
+      <c r="S7" s="52"/>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="187"/>
+      <c r="B8" s="253"/>
+      <c r="C8" s="516"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="52"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="52"/>
+      <c r="Q8" s="52"/>
+      <c r="R8" s="52"/>
+      <c r="S8" s="52"/>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" s="187"/>
+      <c r="B9" s="253"/>
+      <c r="C9" s="516"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="52"/>
+      <c r="O9" s="52"/>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="52"/>
+      <c r="R9" s="52"/>
+      <c r="S9" s="52"/>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" s="187"/>
+      <c r="B10" s="253"/>
+      <c r="C10" s="516"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="52"/>
+      <c r="O10" s="52"/>
+      <c r="P10" s="52"/>
+      <c r="Q10" s="52"/>
+      <c r="R10" s="52"/>
+      <c r="S10" s="52"/>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="187"/>
+      <c r="B11" s="253"/>
+      <c r="C11" s="516"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="52"/>
+      <c r="O11" s="52"/>
+      <c r="P11" s="52"/>
+      <c r="Q11" s="52"/>
+      <c r="R11" s="52"/>
+      <c r="S11" s="52"/>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="187"/>
+      <c r="B12" s="253"/>
+      <c r="C12" s="516"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="52"/>
+      <c r="O12" s="52"/>
+      <c r="P12" s="52"/>
+      <c r="Q12" s="52"/>
+      <c r="R12" s="52"/>
+      <c r="S12" s="52"/>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="187"/>
+      <c r="B13" s="253"/>
+      <c r="C13" s="516"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="52"/>
+      <c r="O13" s="52"/>
+      <c r="P13" s="52"/>
+      <c r="Q13" s="52"/>
+      <c r="R13" s="52"/>
+      <c r="S13" s="52"/>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" s="187"/>
+      <c r="B14" s="253"/>
+      <c r="C14" s="516"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="52"/>
+      <c r="O14" s="52"/>
+      <c r="P14" s="52"/>
+      <c r="Q14" s="52"/>
+      <c r="R14" s="52"/>
+      <c r="S14" s="52"/>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" s="556"/>
+      <c r="B15" s="254"/>
+      <c r="C15" s="516"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="52"/>
+      <c r="N15" s="52"/>
+      <c r="O15" s="52"/>
+      <c r="P15" s="52"/>
+      <c r="Q15" s="52"/>
+      <c r="R15" s="52"/>
+      <c r="S15" s="52"/>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" s="538" t="s">
+        <v>585</v>
+      </c>
+      <c r="B16" s="539"/>
+      <c r="C16" s="516"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="52"/>
+      <c r="M16" s="52"/>
+      <c r="N16" s="52"/>
+      <c r="O16" s="52"/>
+      <c r="P16" s="52"/>
+      <c r="Q16" s="52"/>
+      <c r="R16" s="52"/>
+      <c r="S16" s="52"/>
+    </row>
+    <row r="17" spans="1:19">
+      <c r="A17" s="187"/>
+      <c r="B17" s="253"/>
+      <c r="C17" s="516"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="52"/>
+      <c r="O17" s="52"/>
+      <c r="P17" s="52"/>
+      <c r="Q17" s="52"/>
+      <c r="R17" s="52"/>
+      <c r="S17" s="52"/>
+    </row>
+    <row r="18" spans="1:19">
+      <c r="A18" s="187"/>
+      <c r="B18" s="253"/>
+      <c r="C18" s="516"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="52"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="52"/>
+      <c r="O18" s="52"/>
+      <c r="P18" s="52"/>
+      <c r="Q18" s="52"/>
+      <c r="R18" s="52"/>
+      <c r="S18" s="52"/>
+    </row>
+    <row r="19" spans="1:19">
+      <c r="A19" s="187"/>
+      <c r="B19" s="253"/>
+      <c r="C19" s="516"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="52"/>
+      <c r="O19" s="52"/>
+      <c r="P19" s="52"/>
+      <c r="Q19" s="52"/>
+      <c r="R19" s="52"/>
+      <c r="S19" s="52"/>
+    </row>
+    <row r="20" spans="1:19">
+      <c r="A20" s="187"/>
+      <c r="B20" s="253"/>
+      <c r="C20" s="516"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="52"/>
+      <c r="O20" s="52"/>
+      <c r="P20" s="52"/>
+      <c r="Q20" s="52"/>
+      <c r="R20" s="52"/>
+      <c r="S20" s="52"/>
+    </row>
+    <row r="21" spans="1:19">
+      <c r="A21" s="187"/>
+      <c r="B21" s="253"/>
+      <c r="C21" s="516"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="52"/>
+      <c r="N21" s="52"/>
+      <c r="O21" s="52"/>
+      <c r="P21" s="52"/>
+      <c r="Q21" s="52"/>
+      <c r="R21" s="52"/>
+      <c r="S21" s="52"/>
+    </row>
+    <row r="22" spans="1:19">
+      <c r="A22" s="187"/>
+      <c r="B22" s="253"/>
+      <c r="C22" s="516"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="52"/>
+      <c r="N22" s="52"/>
+      <c r="O22" s="52"/>
+      <c r="P22" s="52"/>
+      <c r="Q22" s="52"/>
+      <c r="R22" s="52"/>
+      <c r="S22" s="52"/>
+    </row>
+    <row r="23" spans="1:19">
+      <c r="A23" s="187"/>
+      <c r="B23" s="253"/>
+      <c r="C23" s="516"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="52"/>
+      <c r="N23" s="52"/>
+      <c r="O23" s="52"/>
+      <c r="P23" s="52"/>
+      <c r="Q23" s="52"/>
+      <c r="R23" s="52"/>
+      <c r="S23" s="52"/>
+    </row>
+    <row r="24" spans="1:19">
+      <c r="A24" s="187"/>
+      <c r="B24" s="253"/>
+      <c r="C24" s="516"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="52"/>
+      <c r="M24" s="52"/>
+      <c r="N24" s="52"/>
+      <c r="O24" s="52"/>
+      <c r="P24" s="52"/>
+      <c r="Q24" s="52"/>
+      <c r="R24" s="52"/>
+      <c r="S24" s="52"/>
+    </row>
+    <row r="25" spans="1:19">
+      <c r="A25" s="187"/>
+      <c r="B25" s="253"/>
+      <c r="C25" s="516"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="52"/>
+      <c r="M25" s="52"/>
+      <c r="N25" s="52"/>
+      <c r="O25" s="52"/>
+      <c r="P25" s="52"/>
+      <c r="Q25" s="52"/>
+      <c r="R25" s="52"/>
+      <c r="S25" s="52"/>
+    </row>
+    <row r="26" spans="1:19">
+      <c r="A26" s="187"/>
+      <c r="B26" s="253"/>
+      <c r="C26" s="516"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="52"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="52"/>
+      <c r="L26" s="52"/>
+      <c r="M26" s="52"/>
+      <c r="N26" s="52"/>
+      <c r="O26" s="52"/>
+      <c r="P26" s="52"/>
+      <c r="Q26" s="52"/>
+      <c r="R26" s="52"/>
+      <c r="S26" s="52"/>
+    </row>
+    <row r="27" spans="1:19">
+      <c r="A27" s="187"/>
+      <c r="B27" s="253"/>
+      <c r="C27" s="516"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="52"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="52"/>
+      <c r="L27" s="52"/>
+      <c r="M27" s="52"/>
+      <c r="N27" s="52"/>
+      <c r="O27" s="52"/>
+      <c r="P27" s="52"/>
+      <c r="Q27" s="52"/>
+      <c r="R27" s="52"/>
+      <c r="S27" s="52"/>
+    </row>
+    <row r="28" spans="1:19">
+      <c r="A28" s="556"/>
+      <c r="B28" s="254"/>
+      <c r="C28" s="516"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="52"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="52"/>
+      <c r="L28" s="52"/>
+      <c r="M28" s="52"/>
+      <c r="N28" s="52"/>
+      <c r="O28" s="52"/>
+      <c r="P28" s="52"/>
+      <c r="Q28" s="52"/>
+      <c r="R28" s="52"/>
+      <c r="S28" s="52"/>
+    </row>
+    <row r="29" spans="1:19">
+      <c r="A29" s="538" t="s">
+        <v>565</v>
+      </c>
+      <c r="B29" s="539"/>
+      <c r="C29" s="516" t="s">
+        <v>607</v>
+      </c>
+      <c r="D29" s="52"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="52"/>
+      <c r="J29" s="52"/>
+      <c r="K29" s="52"/>
+      <c r="L29" s="52"/>
+      <c r="M29" s="52"/>
+      <c r="N29" s="52"/>
+      <c r="O29" s="52"/>
+      <c r="P29" s="52"/>
+      <c r="Q29" s="52"/>
+      <c r="R29" s="52"/>
+      <c r="S29" s="16"/>
+    </row>
+    <row r="30" spans="1:19">
+      <c r="A30" s="187"/>
+      <c r="B30" s="253"/>
+      <c r="C30" s="516"/>
+      <c r="D30" s="52"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="52"/>
+      <c r="J30" s="52"/>
+      <c r="K30" s="52"/>
+      <c r="L30" s="52"/>
+      <c r="M30" s="52"/>
+      <c r="N30" s="52"/>
+      <c r="O30" s="52"/>
+      <c r="P30" s="52"/>
+      <c r="Q30" s="52"/>
+      <c r="R30" s="52"/>
+      <c r="S30" s="16"/>
+    </row>
+    <row r="31" spans="1:19">
+      <c r="A31" s="187"/>
+      <c r="B31" s="253"/>
+      <c r="C31" s="516"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="52"/>
+      <c r="I31" s="52"/>
+      <c r="J31" s="52"/>
+      <c r="K31" s="52"/>
+      <c r="L31" s="52"/>
+      <c r="M31" s="52"/>
+      <c r="N31" s="52"/>
+      <c r="O31" s="52"/>
+      <c r="P31" s="52"/>
+      <c r="Q31" s="52"/>
+      <c r="R31" s="52"/>
+      <c r="S31" s="16"/>
+    </row>
+    <row r="32" spans="1:19">
+      <c r="A32" s="370"/>
+      <c r="B32" s="540"/>
+      <c r="C32" s="516"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="52"/>
+      <c r="I32" s="52"/>
+      <c r="J32" s="52"/>
+      <c r="K32" s="52"/>
+      <c r="L32" s="52"/>
+      <c r="M32" s="52"/>
+      <c r="N32" s="52"/>
+      <c r="O32" s="52"/>
+      <c r="P32" s="52"/>
+      <c r="Q32" s="52"/>
+      <c r="R32" s="52"/>
+      <c r="S32" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="A1:B4"/>
+    <mergeCell ref="C1:Q3"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:Q4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:Q6"/>
+    <mergeCell ref="A7:B15"/>
+    <mergeCell ref="C7:S15"/>
+    <mergeCell ref="A16:B28"/>
+    <mergeCell ref="C16:S28"/>
+    <mergeCell ref="A29:B32"/>
+    <mergeCell ref="C29:S32"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:S15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.500000"/>
+  <cols>
+    <col min="19" max="19" width="13.88000011" customWidth="1" outlineLevel="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19">
+      <c r="A1" s="522">
+        <v>1</v>
+      </c>
+      <c r="B1" s="361"/>
+      <c r="C1" s="563" t="s">
+        <v>623</v>
+      </c>
+      <c r="D1" s="361"/>
+      <c r="E1" s="361"/>
+      <c r="F1" s="361"/>
+      <c r="G1" s="361"/>
+      <c r="H1" s="361"/>
+      <c r="I1" s="361"/>
+      <c r="J1" s="361"/>
+      <c r="K1" s="361"/>
+      <c r="L1" s="361"/>
+      <c r="M1" s="361"/>
+      <c r="N1" s="361"/>
+      <c r="O1" s="361"/>
+      <c r="P1" s="361"/>
+      <c r="Q1" s="361"/>
+      <c r="R1" s="524" t="s">
+        <v>529</v>
+      </c>
+      <c r="S1" s="555">
+        <v>43601</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="266"/>
+      <c r="B2" s="259"/>
+      <c r="C2" s="259"/>
+      <c r="D2" s="259"/>
+      <c r="E2" s="259"/>
+      <c r="F2" s="259"/>
+      <c r="G2" s="259"/>
+      <c r="H2" s="259"/>
+      <c r="I2" s="259"/>
+      <c r="J2" s="259"/>
+      <c r="K2" s="259"/>
+      <c r="L2" s="259"/>
+      <c r="M2" s="259"/>
+      <c r="N2" s="259"/>
+      <c r="O2" s="259"/>
+      <c r="P2" s="259"/>
+      <c r="Q2" s="259"/>
+      <c r="R2" s="525"/>
+      <c r="S2" s="52"/>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" s="266"/>
+      <c r="B3" s="259"/>
+      <c r="C3" s="259"/>
+      <c r="D3" s="259"/>
+      <c r="E3" s="259"/>
+      <c r="F3" s="259"/>
+      <c r="G3" s="259"/>
+      <c r="H3" s="259"/>
+      <c r="I3" s="259"/>
+      <c r="J3" s="259"/>
+      <c r="K3" s="259"/>
+      <c r="L3" s="259"/>
+      <c r="M3" s="259"/>
+      <c r="N3" s="259"/>
+      <c r="O3" s="259"/>
+      <c r="P3" s="259"/>
+      <c r="Q3" s="259"/>
+      <c r="R3" s="525" t="s">
+        <v>530</v>
+      </c>
+      <c r="S3" s="555">
+        <v>43601</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="343"/>
+      <c r="B4" s="241"/>
+      <c r="C4" s="545" t="s">
+        <v>566</v>
+      </c>
+      <c r="D4" s="530"/>
+      <c r="E4" s="545" t="s">
+        <v>622</v>
+      </c>
+      <c r="F4" s="546"/>
+      <c r="G4" s="546"/>
+      <c r="H4" s="546"/>
+      <c r="I4" s="546"/>
+      <c r="J4" s="546"/>
+      <c r="K4" s="546"/>
+      <c r="L4" s="546"/>
+      <c r="M4" s="546"/>
+      <c r="N4" s="546"/>
+      <c r="O4" s="546"/>
+      <c r="P4" s="546"/>
+      <c r="Q4" s="530"/>
+      <c r="R4" s="525"/>
+      <c r="S4" s="52"/>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="343" t="s">
+        <v>561</v>
+      </c>
+      <c r="B5" s="241"/>
+      <c r="C5" s="241" t="s">
+        <v>583</v>
+      </c>
+      <c r="D5" s="241"/>
+      <c r="E5" s="241"/>
+      <c r="F5" s="241"/>
+      <c r="G5" s="241"/>
+      <c r="H5" s="241"/>
+      <c r="I5" s="241" t="s">
+        <v>562</v>
+      </c>
+      <c r="J5" s="241"/>
+      <c r="K5" s="259" t="s">
+        <v>581</v>
+      </c>
+      <c r="L5" s="259"/>
+      <c r="M5" s="259"/>
+      <c r="N5" s="259"/>
+      <c r="O5" s="259"/>
+      <c r="P5" s="241"/>
+      <c r="Q5" s="241"/>
+      <c r="R5" s="553" t="s">
+        <v>531</v>
+      </c>
+      <c r="S5" s="349" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="343" t="s">
+        <v>563</v>
+      </c>
+      <c r="B6" s="241"/>
+      <c r="C6" s="241" t="s">
+        <v>620</v>
+      </c>
+      <c r="D6" s="241"/>
+      <c r="E6" s="241"/>
+      <c r="F6" s="241"/>
+      <c r="G6" s="241"/>
+      <c r="H6" s="241"/>
+      <c r="I6" s="241" t="s">
+        <v>582</v>
+      </c>
+      <c r="J6" s="241"/>
+      <c r="K6" s="241" t="s">
+        <v>621</v>
+      </c>
+      <c r="L6" s="241"/>
+      <c r="M6" s="241"/>
+      <c r="N6" s="241"/>
+      <c r="O6" s="241"/>
+      <c r="P6" s="241"/>
+      <c r="Q6" s="241"/>
+      <c r="R6" s="554"/>
+      <c r="S6" s="349"/>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="538" t="s">
+        <v>519</v>
+      </c>
+      <c r="B7" s="539"/>
+      <c r="C7" s="560" t="s">
+        <v>627</v>
+      </c>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="52"/>
+      <c r="O7" s="52"/>
+      <c r="P7" s="52"/>
+      <c r="Q7" s="52"/>
+      <c r="R7" s="52"/>
+      <c r="S7" s="52"/>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="187"/>
+      <c r="B8" s="253"/>
+      <c r="C8" s="516"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="52"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="52"/>
+      <c r="Q8" s="52"/>
+      <c r="R8" s="52"/>
+      <c r="S8" s="52"/>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" s="187"/>
+      <c r="B9" s="253"/>
+      <c r="C9" s="516"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="52"/>
+      <c r="O9" s="52"/>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="52"/>
+      <c r="R9" s="52"/>
+      <c r="S9" s="52"/>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" s="187"/>
+      <c r="B10" s="253"/>
+      <c r="C10" s="516"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="52"/>
+      <c r="O10" s="52"/>
+      <c r="P10" s="52"/>
+      <c r="Q10" s="52"/>
+      <c r="R10" s="52"/>
+      <c r="S10" s="52"/>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="187"/>
+      <c r="B11" s="253"/>
+      <c r="C11" s="516"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="52"/>
+      <c r="O11" s="52"/>
+      <c r="P11" s="52"/>
+      <c r="Q11" s="52"/>
+      <c r="R11" s="52"/>
+      <c r="S11" s="52"/>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="187"/>
+      <c r="B12" s="253"/>
+      <c r="C12" s="516"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="52"/>
+      <c r="O12" s="52"/>
+      <c r="P12" s="52"/>
+      <c r="Q12" s="52"/>
+      <c r="R12" s="52"/>
+      <c r="S12" s="52"/>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="187"/>
+      <c r="B13" s="253"/>
+      <c r="C13" s="516"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="52"/>
+      <c r="O13" s="52"/>
+      <c r="P13" s="52"/>
+      <c r="Q13" s="52"/>
+      <c r="R13" s="52"/>
+      <c r="S13" s="52"/>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" s="187"/>
+      <c r="B14" s="253"/>
+      <c r="C14" s="516"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="52"/>
+      <c r="O14" s="52"/>
+      <c r="P14" s="52"/>
+      <c r="Q14" s="52"/>
+      <c r="R14" s="52"/>
+      <c r="S14" s="52"/>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" s="556"/>
+      <c r="B15" s="254"/>
+      <c r="C15" s="516"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="52"/>
+      <c r="N15" s="52"/>
+      <c r="O15" s="52"/>
+      <c r="P15" s="52"/>
+      <c r="Q15" s="52"/>
+      <c r="R15" s="52"/>
+      <c r="S15" s="52"/>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" s="538" t="s">
+        <v>585</v>
+      </c>
+      <c r="B16" s="539"/>
+      <c r="C16" s="516"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="52"/>
+      <c r="M16" s="52"/>
+      <c r="N16" s="52"/>
+      <c r="O16" s="52"/>
+      <c r="P16" s="52"/>
+      <c r="Q16" s="52"/>
+      <c r="R16" s="52"/>
+      <c r="S16" s="52"/>
+    </row>
+    <row r="17" spans="1:19">
+      <c r="A17" s="187"/>
+      <c r="B17" s="253"/>
+      <c r="C17" s="516"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="52"/>
+      <c r="O17" s="52"/>
+      <c r="P17" s="52"/>
+      <c r="Q17" s="52"/>
+      <c r="R17" s="52"/>
+      <c r="S17" s="52"/>
+    </row>
+    <row r="18" spans="1:19">
+      <c r="A18" s="187"/>
+      <c r="B18" s="253"/>
+      <c r="C18" s="516"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="52"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="52"/>
+      <c r="O18" s="52"/>
+      <c r="P18" s="52"/>
+      <c r="Q18" s="52"/>
+      <c r="R18" s="52"/>
+      <c r="S18" s="52"/>
+    </row>
+    <row r="19" spans="1:19">
+      <c r="A19" s="187"/>
+      <c r="B19" s="253"/>
+      <c r="C19" s="516"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="52"/>
+      <c r="O19" s="52"/>
+      <c r="P19" s="52"/>
+      <c r="Q19" s="52"/>
+      <c r="R19" s="52"/>
+      <c r="S19" s="52"/>
+    </row>
+    <row r="20" spans="1:19">
+      <c r="A20" s="187"/>
+      <c r="B20" s="253"/>
+      <c r="C20" s="516"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="52"/>
+      <c r="O20" s="52"/>
+      <c r="P20" s="52"/>
+      <c r="Q20" s="52"/>
+      <c r="R20" s="52"/>
+      <c r="S20" s="52"/>
+    </row>
+    <row r="21" spans="1:19">
+      <c r="A21" s="187"/>
+      <c r="B21" s="253"/>
+      <c r="C21" s="516"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="52"/>
+      <c r="N21" s="52"/>
+      <c r="O21" s="52"/>
+      <c r="P21" s="52"/>
+      <c r="Q21" s="52"/>
+      <c r="R21" s="52"/>
+      <c r="S21" s="52"/>
+    </row>
+    <row r="22" spans="1:19">
+      <c r="A22" s="187"/>
+      <c r="B22" s="253"/>
+      <c r="C22" s="516"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="52"/>
+      <c r="N22" s="52"/>
+      <c r="O22" s="52"/>
+      <c r="P22" s="52"/>
+      <c r="Q22" s="52"/>
+      <c r="R22" s="52"/>
+      <c r="S22" s="52"/>
+    </row>
+    <row r="23" spans="1:19">
+      <c r="A23" s="187"/>
+      <c r="B23" s="253"/>
+      <c r="C23" s="516"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="52"/>
+      <c r="N23" s="52"/>
+      <c r="O23" s="52"/>
+      <c r="P23" s="52"/>
+      <c r="Q23" s="52"/>
+      <c r="R23" s="52"/>
+      <c r="S23" s="52"/>
+    </row>
+    <row r="24" spans="1:19">
+      <c r="A24" s="187"/>
+      <c r="B24" s="253"/>
+      <c r="C24" s="516"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="52"/>
+      <c r="M24" s="52"/>
+      <c r="N24" s="52"/>
+      <c r="O24" s="52"/>
+      <c r="P24" s="52"/>
+      <c r="Q24" s="52"/>
+      <c r="R24" s="52"/>
+      <c r="S24" s="52"/>
+    </row>
+    <row r="25" spans="1:19">
+      <c r="A25" s="187"/>
+      <c r="B25" s="253"/>
+      <c r="C25" s="516"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="52"/>
+      <c r="M25" s="52"/>
+      <c r="N25" s="52"/>
+      <c r="O25" s="52"/>
+      <c r="P25" s="52"/>
+      <c r="Q25" s="52"/>
+      <c r="R25" s="52"/>
+      <c r="S25" s="52"/>
+    </row>
+    <row r="26" spans="1:19">
+      <c r="A26" s="187"/>
+      <c r="B26" s="253"/>
+      <c r="C26" s="516"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="52"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="52"/>
+      <c r="L26" s="52"/>
+      <c r="M26" s="52"/>
+      <c r="N26" s="52"/>
+      <c r="O26" s="52"/>
+      <c r="P26" s="52"/>
+      <c r="Q26" s="52"/>
+      <c r="R26" s="52"/>
+      <c r="S26" s="52"/>
+    </row>
+    <row r="27" spans="1:19">
+      <c r="A27" s="187"/>
+      <c r="B27" s="253"/>
+      <c r="C27" s="516"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="52"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="52"/>
+      <c r="L27" s="52"/>
+      <c r="M27" s="52"/>
+      <c r="N27" s="52"/>
+      <c r="O27" s="52"/>
+      <c r="P27" s="52"/>
+      <c r="Q27" s="52"/>
+      <c r="R27" s="52"/>
+      <c r="S27" s="52"/>
+    </row>
+    <row r="28" spans="1:19">
+      <c r="A28" s="556"/>
+      <c r="B28" s="254"/>
+      <c r="C28" s="516"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="52"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="52"/>
+      <c r="L28" s="52"/>
+      <c r="M28" s="52"/>
+      <c r="N28" s="52"/>
+      <c r="O28" s="52"/>
+      <c r="P28" s="52"/>
+      <c r="Q28" s="52"/>
+      <c r="R28" s="52"/>
+      <c r="S28" s="52"/>
+    </row>
+    <row r="29" spans="1:19">
+      <c r="A29" s="538" t="s">
+        <v>565</v>
+      </c>
+      <c r="B29" s="539"/>
+      <c r="C29" s="516" t="s">
+        <v>607</v>
+      </c>
+      <c r="D29" s="52"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="52"/>
+      <c r="J29" s="52"/>
+      <c r="K29" s="52"/>
+      <c r="L29" s="52"/>
+      <c r="M29" s="52"/>
+      <c r="N29" s="52"/>
+      <c r="O29" s="52"/>
+      <c r="P29" s="52"/>
+      <c r="Q29" s="52"/>
+      <c r="R29" s="52"/>
+      <c r="S29" s="16"/>
+    </row>
+    <row r="30" spans="1:19">
+      <c r="A30" s="187"/>
+      <c r="B30" s="253"/>
+      <c r="C30" s="516"/>
+      <c r="D30" s="52"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="52"/>
+      <c r="J30" s="52"/>
+      <c r="K30" s="52"/>
+      <c r="L30" s="52"/>
+      <c r="M30" s="52"/>
+      <c r="N30" s="52"/>
+      <c r="O30" s="52"/>
+      <c r="P30" s="52"/>
+      <c r="Q30" s="52"/>
+      <c r="R30" s="52"/>
+      <c r="S30" s="16"/>
+    </row>
+    <row r="31" spans="1:19">
+      <c r="A31" s="187"/>
+      <c r="B31" s="253"/>
+      <c r="C31" s="516"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="52"/>
+      <c r="I31" s="52"/>
+      <c r="J31" s="52"/>
+      <c r="K31" s="52"/>
+      <c r="L31" s="52"/>
+      <c r="M31" s="52"/>
+      <c r="N31" s="52"/>
+      <c r="O31" s="52"/>
+      <c r="P31" s="52"/>
+      <c r="Q31" s="52"/>
+      <c r="R31" s="52"/>
+      <c r="S31" s="16"/>
+    </row>
+    <row r="32" spans="1:19">
+      <c r="A32" s="370"/>
+      <c r="B32" s="540"/>
+      <c r="C32" s="516"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="52"/>
+      <c r="I32" s="52"/>
+      <c r="J32" s="52"/>
+      <c r="K32" s="52"/>
+      <c r="L32" s="52"/>
+      <c r="M32" s="52"/>
+      <c r="N32" s="52"/>
+      <c r="O32" s="52"/>
+      <c r="P32" s="52"/>
+      <c r="Q32" s="52"/>
+      <c r="R32" s="52"/>
+      <c r="S32" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="A1:B4"/>
+    <mergeCell ref="C1:Q3"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:Q4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:Q6"/>
+    <mergeCell ref="A7:B15"/>
+    <mergeCell ref="C7:S15"/>
+    <mergeCell ref="A16:B28"/>
+    <mergeCell ref="C16:S28"/>
+    <mergeCell ref="A29:B32"/>
+    <mergeCell ref="C29:S32"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -13049,5 +15914,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/잡리스트 0514수정.xlsx
+++ b/잡리스트 0514수정.xlsx
@@ -4,18 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="530" activeTab="7"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="630" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="joblist" sheetId="1" r:id="rId1"/>
     <sheet name="로그인버튼" sheetId="5" r:id="rId2"/>
     <sheet name="로그인 화면처리" sheetId="7" r:id="rId3"/>
-    <sheet name="로그인처리" sheetId="6" r:id="rId4"/>
-    <sheet name="로그인 최종 처리" sheetId="8" r:id="rId5"/>
-    <sheet name="내정보버튼" sheetId="9" r:id="rId6"/>
-    <sheet name="적립시간추가처리" sheetId="3" r:id="rId7"/>
-    <sheet name="내정보수정처리" sheetId="10" r:id="rId8"/>
-    <sheet name="로그인 전체 공정" sheetId="2" r:id="rId9"/>
+    <sheet name="상품리스트 처리" sheetId="11" r:id="rId4"/>
+    <sheet name="로그인처리" sheetId="6" r:id="rId5"/>
+    <sheet name="로그인 최종 처리" sheetId="8" r:id="rId6"/>
+    <sheet name="내정보버튼" sheetId="9" r:id="rId7"/>
+    <sheet name="적립시간추가처리" sheetId="3" r:id="rId8"/>
+    <sheet name="내정보수정처리" sheetId="10" r:id="rId9"/>
+    <sheet name="리스트뷰 셋팅" sheetId="12" r:id="rId10"/>
+    <sheet name="로그인 전체 공정" sheetId="2" r:id="rId11"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="152511"/>
@@ -23,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="643">
   <si>
     <t>J O B L I S T</t>
   </si>
@@ -2026,6 +2028,99 @@
 4.updateUser메소드 실행 
 5. 내정보를 수정된 정보로 변경
 6.ac.toasts 메소드 실행후 메소드 출력</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>상품 주문리스트 처리</t>
+    </r>
+  </si>
+  <si>
+    <t>상품주문리스트 화면 처리</t>
+  </si>
+  <si>
+    <t>받는값 = order 전달값 = lisetset or jang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. controller에서 order 값 들어 왔을 경우
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. controller에서 order 값 들어 왔을 경우
+2. 상품주문리스트화면 출력
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. controller에서 order 값 들어 왔을 경우
+2. 상품주문리스트화면 출력
+3. listview가 null일 경우 아이템 리스트가 나오지 않느니 카테고리를 눌름
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. controller에서 order 값 들어 왔을 경우
+2. 상품주문리스트화면 출력
+3. listview가 null일 경우 카테고리 클릭시 listset을 controller에 전달
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. controller에서 order 값 들어 왔을 경우
+2. 상품주문리스트화면 출력
+3. listview가 null일 경우 카테고리 클릭시 listset을 controller에 전달
+4. null이 아닌경우 원한은 아이템을 선택할수 있음.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. controller에서 order 값 들어 왔을 경우
+2. 상품주문리스트화면 출력
+3. listview가 null일 경우 카테고리 클릭시 listset을 controller에 전달
+4. null이 아닌경우 원한은 아이템을 선택할수 있음.
+5. 아이템을 선택하면 selectName메소드실행 후 arraylist에 추가
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. controller에서 order 값 들어 왔을 경우
+2. 상품주문리스트화면 출력
+3. listview가 null일 경우 카테고리 클릭시 listset을 controller에 전달
+4. null이 아닌경우 원한은 아이템을 선택할수 있음.
+5. 아이템을 선택하면 selectName메소드실행 후 arraylist에 추가
+6.결재버튼을 눌렀을 경우 controller에 jang값을 전달
+</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>내정보 수정 처리</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>상품정보리스트뷰 셋팅</t>
+    </r>
+  </si>
+  <si>
+    <t>listset</t>
+  </si>
+  <si>
+    <t>1. controller에서 listset 값 들어 왔을 경우
+2. selectCate메소드 실행
+3. productlistset메소드 실행
+4. 두메소드로 리스트뷰 셋팅이 끝나면 상품리스트 화면출력</t>
+  </si>
+  <si>
+    <t>상품정보리스트뷰 셋팅</t>
   </si>
 </sst>
 </file>
@@ -6933,6 +7028,55 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="그림 1" descr="xl/media/OImage2932675050.png"/>
+        <xdr:cNvPicPr preferRelativeResize="0">
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26670" y="0"/>
+          <a:ext cx="11001375" cy="6943725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="twoCell">
@@ -7090,6 +7234,146 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
+        <xdr:cNvPr id="1" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5332095" y="2291715"/>
+          <a:ext cx="190500" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 2"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3427095" y="3129915"/>
+          <a:ext cx="714375" cy="438150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="91440" anchor="t" vertOverflow="clip">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:buFontTx/>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" cap="none" dirty="0" smtClean="0" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+            </a:rPr>
+            <a:t>mHistory
+html</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" dirty="0" smtClean="0" cap="none" b="0">
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 3" descr="xl/media/OImage2491907376.png"/>
+        <xdr:cNvPicPr preferRelativeResize="0">
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1369695" y="3396615"/>
+          <a:ext cx="12011025" cy="2266950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
         <xdr:cNvPr id="16" name="TextBox 16"/>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks/>
@@ -7213,7 +7497,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
@@ -7321,7 +7605,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="그림 23"/>
+        <xdr:cNvPr id="23" name="그림 23" descr="xl/media/OImage2462498573.png"/>
         <xdr:cNvPicPr preferRelativeResize="0">
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7353,7 +7637,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
@@ -7461,7 +7745,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="그림 23"/>
+        <xdr:cNvPr id="23" name="그림 23" descr="xl/media/OImage1884848494.png"/>
         <xdr:cNvPicPr preferRelativeResize="0">
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7493,7 +7777,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
@@ -7601,7 +7885,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="그림 3"/>
+        <xdr:cNvPr id="3" name="그림 3" descr="xl/media/OImage2489995695.png"/>
         <xdr:cNvPicPr preferRelativeResize="0">
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7633,7 +7917,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
@@ -7729,15 +8013,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>962025</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7761,8 +8045,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1369695" y="3396615"/>
-          <a:ext cx="12011025" cy="2266950"/>
+          <a:off x="1445895" y="3215640"/>
+          <a:ext cx="11839575" cy="2638425"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
         <a:noFill/>
@@ -7773,24 +8057,115 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5332095" y="2291715"/>
+          <a:ext cx="190500" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 2"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3427095" y="3129915"/>
+          <a:ext cx="714375" cy="438150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="91440" anchor="t" vertOverflow="clip">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:buFontTx/>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" cap="none" dirty="0" smtClean="0" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+            </a:rPr>
+            <a:t>mHistory
+html</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" dirty="0" smtClean="0" cap="none" b="0">
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="그림 1" descr="xl/media/OImage2932675050.png"/>
+        <xdr:cNvPr id="3" name="그림 3"/>
         <xdr:cNvPicPr preferRelativeResize="0">
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7810,8 +8185,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="26670" y="0"/>
-          <a:ext cx="11001375" cy="6943725"/>
+          <a:off x="1226820" y="3749040"/>
+          <a:ext cx="11382375" cy="1409700"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
         <a:noFill/>
@@ -10463,6 +10838,785 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:S15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.500000"/>
+  <sheetData>
+    <row r="1" spans="1:19">
+      <c r="A1" s="522">
+        <v>1</v>
+      </c>
+      <c r="B1" s="361"/>
+      <c r="C1" s="563" t="s">
+        <v>639</v>
+      </c>
+      <c r="D1" s="361"/>
+      <c r="E1" s="361"/>
+      <c r="F1" s="361"/>
+      <c r="G1" s="361"/>
+      <c r="H1" s="361"/>
+      <c r="I1" s="361"/>
+      <c r="J1" s="361"/>
+      <c r="K1" s="361"/>
+      <c r="L1" s="361"/>
+      <c r="M1" s="361"/>
+      <c r="N1" s="361"/>
+      <c r="O1" s="361"/>
+      <c r="P1" s="361"/>
+      <c r="Q1" s="361"/>
+      <c r="R1" s="524" t="s">
+        <v>529</v>
+      </c>
+      <c r="S1" s="555">
+        <v>43601</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="266"/>
+      <c r="B2" s="259"/>
+      <c r="C2" s="259"/>
+      <c r="D2" s="259"/>
+      <c r="E2" s="259"/>
+      <c r="F2" s="259"/>
+      <c r="G2" s="259"/>
+      <c r="H2" s="259"/>
+      <c r="I2" s="259"/>
+      <c r="J2" s="259"/>
+      <c r="K2" s="259"/>
+      <c r="L2" s="259"/>
+      <c r="M2" s="259"/>
+      <c r="N2" s="259"/>
+      <c r="O2" s="259"/>
+      <c r="P2" s="259"/>
+      <c r="Q2" s="259"/>
+      <c r="R2" s="525"/>
+      <c r="S2" s="52"/>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" s="266"/>
+      <c r="B3" s="259"/>
+      <c r="C3" s="259"/>
+      <c r="D3" s="259"/>
+      <c r="E3" s="259"/>
+      <c r="F3" s="259"/>
+      <c r="G3" s="259"/>
+      <c r="H3" s="259"/>
+      <c r="I3" s="259"/>
+      <c r="J3" s="259"/>
+      <c r="K3" s="259"/>
+      <c r="L3" s="259"/>
+      <c r="M3" s="259"/>
+      <c r="N3" s="259"/>
+      <c r="O3" s="259"/>
+      <c r="P3" s="259"/>
+      <c r="Q3" s="259"/>
+      <c r="R3" s="525" t="s">
+        <v>530</v>
+      </c>
+      <c r="S3" s="555">
+        <v>43601</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="343"/>
+      <c r="B4" s="241"/>
+      <c r="C4" s="545" t="s">
+        <v>566</v>
+      </c>
+      <c r="D4" s="530"/>
+      <c r="E4" s="545" t="s">
+        <v>642</v>
+      </c>
+      <c r="F4" s="546"/>
+      <c r="G4" s="546"/>
+      <c r="H4" s="546"/>
+      <c r="I4" s="546"/>
+      <c r="J4" s="546"/>
+      <c r="K4" s="546"/>
+      <c r="L4" s="546"/>
+      <c r="M4" s="546"/>
+      <c r="N4" s="546"/>
+      <c r="O4" s="546"/>
+      <c r="P4" s="546"/>
+      <c r="Q4" s="530"/>
+      <c r="R4" s="525"/>
+      <c r="S4" s="52"/>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="343" t="s">
+        <v>561</v>
+      </c>
+      <c r="B5" s="241"/>
+      <c r="C5" s="241" t="s">
+        <v>583</v>
+      </c>
+      <c r="D5" s="241"/>
+      <c r="E5" s="241"/>
+      <c r="F5" s="241"/>
+      <c r="G5" s="241"/>
+      <c r="H5" s="241"/>
+      <c r="I5" s="241" t="s">
+        <v>562</v>
+      </c>
+      <c r="J5" s="241"/>
+      <c r="K5" s="259" t="s">
+        <v>581</v>
+      </c>
+      <c r="L5" s="259"/>
+      <c r="M5" s="259"/>
+      <c r="N5" s="259"/>
+      <c r="O5" s="259"/>
+      <c r="P5" s="241"/>
+      <c r="Q5" s="241"/>
+      <c r="R5" s="553" t="s">
+        <v>531</v>
+      </c>
+      <c r="S5" s="349" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="343" t="s">
+        <v>563</v>
+      </c>
+      <c r="B6" s="241"/>
+      <c r="C6" s="241" t="s">
+        <v>620</v>
+      </c>
+      <c r="D6" s="241"/>
+      <c r="E6" s="241"/>
+      <c r="F6" s="241"/>
+      <c r="G6" s="241"/>
+      <c r="H6" s="241"/>
+      <c r="I6" s="241" t="s">
+        <v>582</v>
+      </c>
+      <c r="J6" s="241"/>
+      <c r="K6" s="241" t="s">
+        <v>640</v>
+      </c>
+      <c r="L6" s="241"/>
+      <c r="M6" s="241"/>
+      <c r="N6" s="241"/>
+      <c r="O6" s="241"/>
+      <c r="P6" s="241"/>
+      <c r="Q6" s="241"/>
+      <c r="R6" s="554"/>
+      <c r="S6" s="349"/>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="538" t="s">
+        <v>519</v>
+      </c>
+      <c r="B7" s="539"/>
+      <c r="C7" s="560" t="s">
+        <v>641</v>
+      </c>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="52"/>
+      <c r="O7" s="52"/>
+      <c r="P7" s="52"/>
+      <c r="Q7" s="52"/>
+      <c r="R7" s="52"/>
+      <c r="S7" s="52"/>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="187"/>
+      <c r="B8" s="253"/>
+      <c r="C8" s="516"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="52"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="52"/>
+      <c r="Q8" s="52"/>
+      <c r="R8" s="52"/>
+      <c r="S8" s="52"/>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" s="187"/>
+      <c r="B9" s="253"/>
+      <c r="C9" s="516"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="52"/>
+      <c r="O9" s="52"/>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="52"/>
+      <c r="R9" s="52"/>
+      <c r="S9" s="52"/>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" s="187"/>
+      <c r="B10" s="253"/>
+      <c r="C10" s="516"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="52"/>
+      <c r="O10" s="52"/>
+      <c r="P10" s="52"/>
+      <c r="Q10" s="52"/>
+      <c r="R10" s="52"/>
+      <c r="S10" s="52"/>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="187"/>
+      <c r="B11" s="253"/>
+      <c r="C11" s="516"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="52"/>
+      <c r="O11" s="52"/>
+      <c r="P11" s="52"/>
+      <c r="Q11" s="52"/>
+      <c r="R11" s="52"/>
+      <c r="S11" s="52"/>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="187"/>
+      <c r="B12" s="253"/>
+      <c r="C12" s="516"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="52"/>
+      <c r="O12" s="52"/>
+      <c r="P12" s="52"/>
+      <c r="Q12" s="52"/>
+      <c r="R12" s="52"/>
+      <c r="S12" s="52"/>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="187"/>
+      <c r="B13" s="253"/>
+      <c r="C13" s="516"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="52"/>
+      <c r="O13" s="52"/>
+      <c r="P13" s="52"/>
+      <c r="Q13" s="52"/>
+      <c r="R13" s="52"/>
+      <c r="S13" s="52"/>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" s="187"/>
+      <c r="B14" s="253"/>
+      <c r="C14" s="516"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="52"/>
+      <c r="O14" s="52"/>
+      <c r="P14" s="52"/>
+      <c r="Q14" s="52"/>
+      <c r="R14" s="52"/>
+      <c r="S14" s="52"/>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" s="556"/>
+      <c r="B15" s="254"/>
+      <c r="C15" s="516"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="52"/>
+      <c r="N15" s="52"/>
+      <c r="O15" s="52"/>
+      <c r="P15" s="52"/>
+      <c r="Q15" s="52"/>
+      <c r="R15" s="52"/>
+      <c r="S15" s="52"/>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" s="538" t="s">
+        <v>585</v>
+      </c>
+      <c r="B16" s="539"/>
+      <c r="C16" s="516"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="52"/>
+      <c r="M16" s="52"/>
+      <c r="N16" s="52"/>
+      <c r="O16" s="52"/>
+      <c r="P16" s="52"/>
+      <c r="Q16" s="52"/>
+      <c r="R16" s="52"/>
+      <c r="S16" s="52"/>
+    </row>
+    <row r="17" spans="1:19">
+      <c r="A17" s="187"/>
+      <c r="B17" s="253"/>
+      <c r="C17" s="516"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="52"/>
+      <c r="O17" s="52"/>
+      <c r="P17" s="52"/>
+      <c r="Q17" s="52"/>
+      <c r="R17" s="52"/>
+      <c r="S17" s="52"/>
+    </row>
+    <row r="18" spans="1:19">
+      <c r="A18" s="187"/>
+      <c r="B18" s="253"/>
+      <c r="C18" s="516"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="52"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="52"/>
+      <c r="O18" s="52"/>
+      <c r="P18" s="52"/>
+      <c r="Q18" s="52"/>
+      <c r="R18" s="52"/>
+      <c r="S18" s="52"/>
+    </row>
+    <row r="19" spans="1:19">
+      <c r="A19" s="187"/>
+      <c r="B19" s="253"/>
+      <c r="C19" s="516"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="52"/>
+      <c r="O19" s="52"/>
+      <c r="P19" s="52"/>
+      <c r="Q19" s="52"/>
+      <c r="R19" s="52"/>
+      <c r="S19" s="52"/>
+    </row>
+    <row r="20" spans="1:19">
+      <c r="A20" s="187"/>
+      <c r="B20" s="253"/>
+      <c r="C20" s="516"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="52"/>
+      <c r="O20" s="52"/>
+      <c r="P20" s="52"/>
+      <c r="Q20" s="52"/>
+      <c r="R20" s="52"/>
+      <c r="S20" s="52"/>
+    </row>
+    <row r="21" spans="1:19">
+      <c r="A21" s="187"/>
+      <c r="B21" s="253"/>
+      <c r="C21" s="516"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="52"/>
+      <c r="N21" s="52"/>
+      <c r="O21" s="52"/>
+      <c r="P21" s="52"/>
+      <c r="Q21" s="52"/>
+      <c r="R21" s="52"/>
+      <c r="S21" s="52"/>
+    </row>
+    <row r="22" spans="1:19">
+      <c r="A22" s="187"/>
+      <c r="B22" s="253"/>
+      <c r="C22" s="516"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="52"/>
+      <c r="N22" s="52"/>
+      <c r="O22" s="52"/>
+      <c r="P22" s="52"/>
+      <c r="Q22" s="52"/>
+      <c r="R22" s="52"/>
+      <c r="S22" s="52"/>
+    </row>
+    <row r="23" spans="1:19">
+      <c r="A23" s="187"/>
+      <c r="B23" s="253"/>
+      <c r="C23" s="516"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="52"/>
+      <c r="N23" s="52"/>
+      <c r="O23" s="52"/>
+      <c r="P23" s="52"/>
+      <c r="Q23" s="52"/>
+      <c r="R23" s="52"/>
+      <c r="S23" s="52"/>
+    </row>
+    <row r="24" spans="1:19">
+      <c r="A24" s="187"/>
+      <c r="B24" s="253"/>
+      <c r="C24" s="516"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="52"/>
+      <c r="M24" s="52"/>
+      <c r="N24" s="52"/>
+      <c r="O24" s="52"/>
+      <c r="P24" s="52"/>
+      <c r="Q24" s="52"/>
+      <c r="R24" s="52"/>
+      <c r="S24" s="52"/>
+    </row>
+    <row r="25" spans="1:19">
+      <c r="A25" s="187"/>
+      <c r="B25" s="253"/>
+      <c r="C25" s="516"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="52"/>
+      <c r="M25" s="52"/>
+      <c r="N25" s="52"/>
+      <c r="O25" s="52"/>
+      <c r="P25" s="52"/>
+      <c r="Q25" s="52"/>
+      <c r="R25" s="52"/>
+      <c r="S25" s="52"/>
+    </row>
+    <row r="26" spans="1:19">
+      <c r="A26" s="187"/>
+      <c r="B26" s="253"/>
+      <c r="C26" s="516"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="52"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="52"/>
+      <c r="L26" s="52"/>
+      <c r="M26" s="52"/>
+      <c r="N26" s="52"/>
+      <c r="O26" s="52"/>
+      <c r="P26" s="52"/>
+      <c r="Q26" s="52"/>
+      <c r="R26" s="52"/>
+      <c r="S26" s="52"/>
+    </row>
+    <row r="27" spans="1:19">
+      <c r="A27" s="187"/>
+      <c r="B27" s="253"/>
+      <c r="C27" s="516"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="52"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="52"/>
+      <c r="L27" s="52"/>
+      <c r="M27" s="52"/>
+      <c r="N27" s="52"/>
+      <c r="O27" s="52"/>
+      <c r="P27" s="52"/>
+      <c r="Q27" s="52"/>
+      <c r="R27" s="52"/>
+      <c r="S27" s="52"/>
+    </row>
+    <row r="28" spans="1:19">
+      <c r="A28" s="556"/>
+      <c r="B28" s="254"/>
+      <c r="C28" s="516"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="52"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="52"/>
+      <c r="L28" s="52"/>
+      <c r="M28" s="52"/>
+      <c r="N28" s="52"/>
+      <c r="O28" s="52"/>
+      <c r="P28" s="52"/>
+      <c r="Q28" s="52"/>
+      <c r="R28" s="52"/>
+      <c r="S28" s="52"/>
+    </row>
+    <row r="29" spans="1:19">
+      <c r="A29" s="538" t="s">
+        <v>565</v>
+      </c>
+      <c r="B29" s="539"/>
+      <c r="C29" s="516" t="s">
+        <v>607</v>
+      </c>
+      <c r="D29" s="52"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="52"/>
+      <c r="J29" s="52"/>
+      <c r="K29" s="52"/>
+      <c r="L29" s="52"/>
+      <c r="M29" s="52"/>
+      <c r="N29" s="52"/>
+      <c r="O29" s="52"/>
+      <c r="P29" s="52"/>
+      <c r="Q29" s="52"/>
+      <c r="R29" s="52"/>
+      <c r="S29" s="16"/>
+    </row>
+    <row r="30" spans="1:19">
+      <c r="A30" s="187"/>
+      <c r="B30" s="253"/>
+      <c r="C30" s="516"/>
+      <c r="D30" s="52"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="52"/>
+      <c r="J30" s="52"/>
+      <c r="K30" s="52"/>
+      <c r="L30" s="52"/>
+      <c r="M30" s="52"/>
+      <c r="N30" s="52"/>
+      <c r="O30" s="52"/>
+      <c r="P30" s="52"/>
+      <c r="Q30" s="52"/>
+      <c r="R30" s="52"/>
+      <c r="S30" s="16"/>
+    </row>
+    <row r="31" spans="1:19">
+      <c r="A31" s="187"/>
+      <c r="B31" s="253"/>
+      <c r="C31" s="516"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="52"/>
+      <c r="I31" s="52"/>
+      <c r="J31" s="52"/>
+      <c r="K31" s="52"/>
+      <c r="L31" s="52"/>
+      <c r="M31" s="52"/>
+      <c r="N31" s="52"/>
+      <c r="O31" s="52"/>
+      <c r="P31" s="52"/>
+      <c r="Q31" s="52"/>
+      <c r="R31" s="52"/>
+      <c r="S31" s="16"/>
+    </row>
+    <row r="32" spans="1:19">
+      <c r="A32" s="370"/>
+      <c r="B32" s="540"/>
+      <c r="C32" s="516"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="52"/>
+      <c r="I32" s="52"/>
+      <c r="J32" s="52"/>
+      <c r="K32" s="52"/>
+      <c r="L32" s="52"/>
+      <c r="M32" s="52"/>
+      <c r="N32" s="52"/>
+      <c r="O32" s="52"/>
+      <c r="P32" s="52"/>
+      <c r="Q32" s="52"/>
+      <c r="R32" s="52"/>
+      <c r="S32" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="A1:B4"/>
+    <mergeCell ref="C1:Q3"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:Q4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:Q6"/>
+    <mergeCell ref="A7:B15"/>
+    <mergeCell ref="C7:S15"/>
+    <mergeCell ref="A16:B28"/>
+    <mergeCell ref="C16:S28"/>
+    <mergeCell ref="A29:B32"/>
+    <mergeCell ref="C29:S32"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.500000"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T32"/>
@@ -12027,26 +13181,24 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T32"/>
+  <dimension ref="A1:S32"/>
   <sheetViews>
-    <sheetView zoomScale="120" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16:S28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
   <cols>
-    <col min="2" max="2" width="10.25500011" customWidth="1" outlineLevel="0"/>
-    <col min="18" max="18" width="11.63000011" customWidth="1" outlineLevel="0"/>
-    <col min="19" max="19" width="20.50499916" customWidth="1" outlineLevel="0"/>
+    <col min="19" max="19" width="13.88000011" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:19">
       <c r="A1" s="522">
         <v>1</v>
       </c>
       <c r="B1" s="361"/>
-      <c r="C1" s="523" t="s">
-        <v>594</v>
+      <c r="C1" s="563" t="s">
+        <v>628</v>
       </c>
       <c r="D1" s="361"/>
       <c r="E1" s="361"/>
@@ -12068,9 +13220,8 @@
       <c r="S1" s="555">
         <v>43601</v>
       </c>
-      <c r="T1" s="50"/>
-    </row>
-    <row r="2" spans="1:20">
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="266"/>
       <c r="B2" s="259"/>
       <c r="C2" s="259"/>
@@ -12090,9 +13241,8 @@
       <c r="Q2" s="259"/>
       <c r="R2" s="525"/>
       <c r="S2" s="52"/>
-      <c r="T2" s="50"/>
-    </row>
-    <row r="3" spans="1:20">
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="266"/>
       <c r="B3" s="259"/>
       <c r="C3" s="259"/>
@@ -12116,9 +13266,8 @@
       <c r="S3" s="555">
         <v>43601</v>
       </c>
-      <c r="T3" s="50"/>
-    </row>
-    <row r="4" spans="1:20">
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="343"/>
       <c r="B4" s="241"/>
       <c r="C4" s="545" t="s">
@@ -12126,7 +13275,7 @@
       </c>
       <c r="D4" s="530"/>
       <c r="E4" s="545" t="s">
-        <v>598</v>
+        <v>629</v>
       </c>
       <c r="F4" s="546"/>
       <c r="G4" s="546"/>
@@ -12142,9 +13291,8 @@
       <c r="Q4" s="530"/>
       <c r="R4" s="525"/>
       <c r="S4" s="52"/>
-      <c r="T4" s="50"/>
-    </row>
-    <row r="5" spans="1:20" ht="24.000000" customHeight="1">
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="343" t="s">
         <v>561</v>
       </c>
@@ -12162,7 +13310,7 @@
       </c>
       <c r="J5" s="241"/>
       <c r="K5" s="259" t="s">
-        <v>595</v>
+        <v>581</v>
       </c>
       <c r="L5" s="259"/>
       <c r="M5" s="259"/>
@@ -12177,13 +13325,13 @@
         <v>584</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="24.750000" customHeight="1">
+    <row r="6" spans="1:19">
       <c r="A6" s="343" t="s">
         <v>563</v>
       </c>
       <c r="B6" s="241"/>
       <c r="C6" s="241" t="s">
-        <v>597</v>
+        <v>620</v>
       </c>
       <c r="D6" s="241"/>
       <c r="E6" s="241"/>
@@ -12195,7 +13343,7 @@
       </c>
       <c r="J6" s="241"/>
       <c r="K6" s="241" t="s">
-        <v>596</v>
+        <v>621</v>
       </c>
       <c r="L6" s="241"/>
       <c r="M6" s="241"/>
@@ -12206,13 +13354,13 @@
       <c r="R6" s="554"/>
       <c r="S6" s="349"/>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:19">
       <c r="A7" s="538" t="s">
         <v>519</v>
       </c>
       <c r="B7" s="539"/>
       <c r="C7" s="560" t="s">
-        <v>602</v>
+        <v>627</v>
       </c>
       <c r="D7" s="52"/>
       <c r="E7" s="52"/>
@@ -12231,7 +13379,7 @@
       <c r="R7" s="52"/>
       <c r="S7" s="52"/>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:19">
       <c r="A8" s="187"/>
       <c r="B8" s="253"/>
       <c r="C8" s="516"/>
@@ -12252,7 +13400,7 @@
       <c r="R8" s="52"/>
       <c r="S8" s="52"/>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:19">
       <c r="A9" s="187"/>
       <c r="B9" s="253"/>
       <c r="C9" s="516"/>
@@ -12273,7 +13421,7 @@
       <c r="R9" s="52"/>
       <c r="S9" s="52"/>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:19">
       <c r="A10" s="187"/>
       <c r="B10" s="253"/>
       <c r="C10" s="516"/>
@@ -12294,7 +13442,7 @@
       <c r="R10" s="52"/>
       <c r="S10" s="52"/>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:19">
       <c r="A11" s="187"/>
       <c r="B11" s="253"/>
       <c r="C11" s="516"/>
@@ -12315,7 +13463,7 @@
       <c r="R11" s="52"/>
       <c r="S11" s="52"/>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:19">
       <c r="A12" s="187"/>
       <c r="B12" s="253"/>
       <c r="C12" s="516"/>
@@ -12336,7 +13484,7 @@
       <c r="R12" s="52"/>
       <c r="S12" s="52"/>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:19">
       <c r="A13" s="187"/>
       <c r="B13" s="253"/>
       <c r="C13" s="516"/>
@@ -12357,7 +13505,7 @@
       <c r="R13" s="52"/>
       <c r="S13" s="52"/>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:19">
       <c r="A14" s="187"/>
       <c r="B14" s="253"/>
       <c r="C14" s="516"/>
@@ -12378,7 +13526,7 @@
       <c r="R14" s="52"/>
       <c r="S14" s="52"/>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:19">
       <c r="A15" s="556"/>
       <c r="B15" s="254"/>
       <c r="C15" s="516"/>
@@ -12399,7 +13547,7 @@
       <c r="R15" s="52"/>
       <c r="S15" s="52"/>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:19">
       <c r="A16" s="538" t="s">
         <v>585</v>
       </c>
@@ -12421,9 +13569,8 @@
       <c r="Q16" s="52"/>
       <c r="R16" s="52"/>
       <c r="S16" s="52"/>
-      <c r="T16" s="50"/>
-    </row>
-    <row r="17" spans="1:20">
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="187"/>
       <c r="B17" s="253"/>
       <c r="C17" s="516"/>
@@ -12443,9 +13590,8 @@
       <c r="Q17" s="52"/>
       <c r="R17" s="52"/>
       <c r="S17" s="52"/>
-      <c r="T17" s="50"/>
-    </row>
-    <row r="18" spans="1:20">
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="187"/>
       <c r="B18" s="253"/>
       <c r="C18" s="516"/>
@@ -12465,9 +13611,8 @@
       <c r="Q18" s="52"/>
       <c r="R18" s="52"/>
       <c r="S18" s="52"/>
-      <c r="T18" s="50"/>
-    </row>
-    <row r="19" spans="1:20">
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="187"/>
       <c r="B19" s="253"/>
       <c r="C19" s="516"/>
@@ -12487,9 +13632,8 @@
       <c r="Q19" s="52"/>
       <c r="R19" s="52"/>
       <c r="S19" s="52"/>
-      <c r="T19" s="50"/>
-    </row>
-    <row r="20" spans="1:20">
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="187"/>
       <c r="B20" s="253"/>
       <c r="C20" s="516"/>
@@ -12509,9 +13653,8 @@
       <c r="Q20" s="52"/>
       <c r="R20" s="52"/>
       <c r="S20" s="52"/>
-      <c r="T20" s="50"/>
-    </row>
-    <row r="21" spans="1:20">
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="187"/>
       <c r="B21" s="253"/>
       <c r="C21" s="516"/>
@@ -12531,9 +13674,8 @@
       <c r="Q21" s="52"/>
       <c r="R21" s="52"/>
       <c r="S21" s="52"/>
-      <c r="T21" s="50"/>
-    </row>
-    <row r="22" spans="1:20">
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="187"/>
       <c r="B22" s="253"/>
       <c r="C22" s="516"/>
@@ -12553,9 +13695,8 @@
       <c r="Q22" s="52"/>
       <c r="R22" s="52"/>
       <c r="S22" s="52"/>
-      <c r="T22" s="50"/>
-    </row>
-    <row r="23" spans="1:20">
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="187"/>
       <c r="B23" s="253"/>
       <c r="C23" s="516"/>
@@ -12575,9 +13716,8 @@
       <c r="Q23" s="52"/>
       <c r="R23" s="52"/>
       <c r="S23" s="52"/>
-      <c r="T23" s="50"/>
-    </row>
-    <row r="24" spans="1:20">
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="187"/>
       <c r="B24" s="253"/>
       <c r="C24" s="516"/>
@@ -12597,9 +13737,8 @@
       <c r="Q24" s="52"/>
       <c r="R24" s="52"/>
       <c r="S24" s="52"/>
-      <c r="T24" s="50"/>
-    </row>
-    <row r="25" spans="1:20">
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="187"/>
       <c r="B25" s="253"/>
       <c r="C25" s="516"/>
@@ -12619,9 +13758,8 @@
       <c r="Q25" s="52"/>
       <c r="R25" s="52"/>
       <c r="S25" s="52"/>
-      <c r="T25" s="50"/>
-    </row>
-    <row r="26" spans="1:20">
+    </row>
+    <row r="26" spans="1:19">
       <c r="A26" s="187"/>
       <c r="B26" s="253"/>
       <c r="C26" s="516"/>
@@ -12641,9 +13779,8 @@
       <c r="Q26" s="52"/>
       <c r="R26" s="52"/>
       <c r="S26" s="52"/>
-      <c r="T26" s="50"/>
-    </row>
-    <row r="27" spans="1:20">
+    </row>
+    <row r="27" spans="1:19">
       <c r="A27" s="187"/>
       <c r="B27" s="253"/>
       <c r="C27" s="516"/>
@@ -12663,9 +13800,8 @@
       <c r="Q27" s="52"/>
       <c r="R27" s="52"/>
       <c r="S27" s="52"/>
-      <c r="T27" s="50"/>
-    </row>
-    <row r="28" spans="1:20">
+    </row>
+    <row r="28" spans="1:19">
       <c r="A28" s="556"/>
       <c r="B28" s="254"/>
       <c r="C28" s="516"/>
@@ -12685,12 +13821,15 @@
       <c r="Q28" s="52"/>
       <c r="R28" s="52"/>
       <c r="S28" s="52"/>
-      <c r="T28" s="50"/>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" s="538"/>
+    </row>
+    <row r="29" spans="1:19">
+      <c r="A29" s="538" t="s">
+        <v>565</v>
+      </c>
       <c r="B29" s="539"/>
-      <c r="C29" s="516"/>
+      <c r="C29" s="516" t="s">
+        <v>607</v>
+      </c>
       <c r="D29" s="52"/>
       <c r="E29" s="52"/>
       <c r="F29" s="52"/>
@@ -12708,7 +13847,7 @@
       <c r="R29" s="52"/>
       <c r="S29" s="16"/>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:19">
       <c r="A30" s="187"/>
       <c r="B30" s="253"/>
       <c r="C30" s="516"/>
@@ -12729,7 +13868,7 @@
       <c r="R30" s="52"/>
       <c r="S30" s="16"/>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:19">
       <c r="A31" s="187"/>
       <c r="B31" s="253"/>
       <c r="C31" s="516"/>
@@ -12750,7 +13889,7 @@
       <c r="R31" s="52"/>
       <c r="S31" s="16"/>
     </row>
-    <row r="32" spans="1:20">
+    <row r="32" spans="1:19">
       <c r="A32" s="370"/>
       <c r="B32" s="540"/>
       <c r="C32" s="516"/>
@@ -12809,8 +13948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T32"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="120" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6:Q6"/>
+    <sheetView zoomScale="120" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16:S28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -12825,8 +13964,8 @@
         <v>1</v>
       </c>
       <c r="B1" s="361"/>
-      <c r="C1" s="563" t="s">
-        <v>603</v>
+      <c r="C1" s="523" t="s">
+        <v>594</v>
       </c>
       <c r="D1" s="361"/>
       <c r="E1" s="361"/>
@@ -12906,7 +14045,7 @@
       </c>
       <c r="D4" s="530"/>
       <c r="E4" s="545" t="s">
-        <v>580</v>
+        <v>598</v>
       </c>
       <c r="F4" s="546"/>
       <c r="G4" s="546"/>
@@ -12942,7 +14081,7 @@
       </c>
       <c r="J5" s="241"/>
       <c r="K5" s="259" t="s">
-        <v>581</v>
+        <v>595</v>
       </c>
       <c r="L5" s="259"/>
       <c r="M5" s="259"/>
@@ -12963,7 +14102,7 @@
       </c>
       <c r="B6" s="241"/>
       <c r="C6" s="241" t="s">
-        <v>469</v>
+        <v>597</v>
       </c>
       <c r="D6" s="241"/>
       <c r="E6" s="241"/>
@@ -12975,7 +14114,7 @@
       </c>
       <c r="J6" s="241"/>
       <c r="K6" s="241" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="L6" s="241"/>
       <c r="M6" s="241"/>
@@ -12992,7 +14131,7 @@
       </c>
       <c r="B7" s="539"/>
       <c r="C7" s="560" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="D7" s="52"/>
       <c r="E7" s="52"/>
@@ -13468,9 +14607,7 @@
       <c r="T28" s="50"/>
     </row>
     <row r="29" spans="1:20">
-      <c r="A29" s="538" t="s">
-        <v>565</v>
-      </c>
+      <c r="A29" s="538"/>
       <c r="B29" s="539"/>
       <c r="C29" s="516"/>
       <c r="D29" s="52"/>
@@ -13591,8 +14728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T32"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="120" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:S32"/>
+    <sheetView topLeftCell="A10" zoomScale="120" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6:Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -13607,8 +14744,8 @@
         <v>1</v>
       </c>
       <c r="B1" s="361"/>
-      <c r="C1" s="563" t="s">
-        <v>608</v>
+      <c r="C1" s="523" t="s">
+        <v>603</v>
       </c>
       <c r="D1" s="361"/>
       <c r="E1" s="361"/>
@@ -13688,7 +14825,7 @@
       </c>
       <c r="D4" s="530"/>
       <c r="E4" s="545" t="s">
-        <v>609</v>
+        <v>580</v>
       </c>
       <c r="F4" s="546"/>
       <c r="G4" s="546"/>
@@ -13757,7 +14894,7 @@
       </c>
       <c r="J6" s="241"/>
       <c r="K6" s="241" t="s">
-        <v>180</v>
+        <v>604</v>
       </c>
       <c r="L6" s="241"/>
       <c r="M6" s="241"/>
@@ -13774,7 +14911,7 @@
       </c>
       <c r="B7" s="539"/>
       <c r="C7" s="560" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D7" s="52"/>
       <c r="E7" s="52"/>
@@ -14254,9 +15391,7 @@
         <v>565</v>
       </c>
       <c r="B29" s="539"/>
-      <c r="C29" s="516" t="s">
-        <v>607</v>
-      </c>
+      <c r="C29" s="516"/>
       <c r="D29" s="52"/>
       <c r="E29" s="52"/>
       <c r="F29" s="52"/>
@@ -14373,24 +15508,26 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S32"/>
+  <dimension ref="A1:T32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:S15"/>
+    <sheetView topLeftCell="A17" zoomScale="120" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:S32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
   <cols>
-    <col min="19" max="19" width="13.88000011" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" width="10.25500011" customWidth="1" outlineLevel="0"/>
+    <col min="18" max="18" width="11.63000011" customWidth="1" outlineLevel="0"/>
+    <col min="19" max="19" width="20.50499916" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:20">
       <c r="A1" s="522">
         <v>1</v>
       </c>
       <c r="B1" s="361"/>
-      <c r="C1" s="563" t="s">
-        <v>611</v>
+      <c r="C1" s="523" t="s">
+        <v>608</v>
       </c>
       <c r="D1" s="361"/>
       <c r="E1" s="361"/>
@@ -14412,8 +15549,9 @@
       <c r="S1" s="555">
         <v>43601</v>
       </c>
-    </row>
-    <row r="2" spans="1:19">
+      <c r="T1" s="50"/>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="266"/>
       <c r="B2" s="259"/>
       <c r="C2" s="259"/>
@@ -14433,8 +15571,9 @@
       <c r="Q2" s="259"/>
       <c r="R2" s="525"/>
       <c r="S2" s="52"/>
-    </row>
-    <row r="3" spans="1:19">
+      <c r="T2" s="50"/>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="266"/>
       <c r="B3" s="259"/>
       <c r="C3" s="259"/>
@@ -14458,8 +15597,9 @@
       <c r="S3" s="555">
         <v>43601</v>
       </c>
-    </row>
-    <row r="4" spans="1:19">
+      <c r="T3" s="50"/>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="343"/>
       <c r="B4" s="241"/>
       <c r="C4" s="545" t="s">
@@ -14467,7 +15607,7 @@
       </c>
       <c r="D4" s="530"/>
       <c r="E4" s="545" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="F4" s="546"/>
       <c r="G4" s="546"/>
@@ -14483,8 +15623,9 @@
       <c r="Q4" s="530"/>
       <c r="R4" s="525"/>
       <c r="S4" s="52"/>
-    </row>
-    <row r="5" spans="1:19">
+      <c r="T4" s="50"/>
+    </row>
+    <row r="5" spans="1:20" ht="24.000000" customHeight="1">
       <c r="A5" s="343" t="s">
         <v>561</v>
       </c>
@@ -14517,7 +15658,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:20" ht="24.750000" customHeight="1">
       <c r="A6" s="343" t="s">
         <v>563</v>
       </c>
@@ -14535,7 +15676,7 @@
       </c>
       <c r="J6" s="241"/>
       <c r="K6" s="241" t="s">
-        <v>612</v>
+        <v>180</v>
       </c>
       <c r="L6" s="241"/>
       <c r="M6" s="241"/>
@@ -14546,13 +15687,13 @@
       <c r="R6" s="554"/>
       <c r="S6" s="349"/>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:20">
       <c r="A7" s="538" t="s">
         <v>519</v>
       </c>
       <c r="B7" s="539"/>
       <c r="C7" s="560" t="s">
-        <v>619</v>
+        <v>606</v>
       </c>
       <c r="D7" s="52"/>
       <c r="E7" s="52"/>
@@ -14571,7 +15712,7 @@
       <c r="R7" s="52"/>
       <c r="S7" s="52"/>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:20">
       <c r="A8" s="187"/>
       <c r="B8" s="253"/>
       <c r="C8" s="516"/>
@@ -14592,7 +15733,7 @@
       <c r="R8" s="52"/>
       <c r="S8" s="52"/>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:20">
       <c r="A9" s="187"/>
       <c r="B9" s="253"/>
       <c r="C9" s="516"/>
@@ -14613,7 +15754,7 @@
       <c r="R9" s="52"/>
       <c r="S9" s="52"/>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:20">
       <c r="A10" s="187"/>
       <c r="B10" s="253"/>
       <c r="C10" s="516"/>
@@ -14634,7 +15775,7 @@
       <c r="R10" s="52"/>
       <c r="S10" s="52"/>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:20">
       <c r="A11" s="187"/>
       <c r="B11" s="253"/>
       <c r="C11" s="516"/>
@@ -14655,7 +15796,7 @@
       <c r="R11" s="52"/>
       <c r="S11" s="52"/>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:20">
       <c r="A12" s="187"/>
       <c r="B12" s="253"/>
       <c r="C12" s="516"/>
@@ -14676,7 +15817,7 @@
       <c r="R12" s="52"/>
       <c r="S12" s="52"/>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:20">
       <c r="A13" s="187"/>
       <c r="B13" s="253"/>
       <c r="C13" s="516"/>
@@ -14697,7 +15838,7 @@
       <c r="R13" s="52"/>
       <c r="S13" s="52"/>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:20">
       <c r="A14" s="187"/>
       <c r="B14" s="253"/>
       <c r="C14" s="516"/>
@@ -14718,7 +15859,7 @@
       <c r="R14" s="52"/>
       <c r="S14" s="52"/>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:20">
       <c r="A15" s="556"/>
       <c r="B15" s="254"/>
       <c r="C15" s="516"/>
@@ -14739,7 +15880,7 @@
       <c r="R15" s="52"/>
       <c r="S15" s="52"/>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:20">
       <c r="A16" s="538" t="s">
         <v>585</v>
       </c>
@@ -14761,8 +15902,9 @@
       <c r="Q16" s="52"/>
       <c r="R16" s="52"/>
       <c r="S16" s="52"/>
-    </row>
-    <row r="17" spans="1:19">
+      <c r="T16" s="50"/>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="187"/>
       <c r="B17" s="253"/>
       <c r="C17" s="516"/>
@@ -14782,8 +15924,9 @@
       <c r="Q17" s="52"/>
       <c r="R17" s="52"/>
       <c r="S17" s="52"/>
-    </row>
-    <row r="18" spans="1:19">
+      <c r="T17" s="50"/>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="187"/>
       <c r="B18" s="253"/>
       <c r="C18" s="516"/>
@@ -14803,8 +15946,9 @@
       <c r="Q18" s="52"/>
       <c r="R18" s="52"/>
       <c r="S18" s="52"/>
-    </row>
-    <row r="19" spans="1:19">
+      <c r="T18" s="50"/>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="187"/>
       <c r="B19" s="253"/>
       <c r="C19" s="516"/>
@@ -14824,8 +15968,9 @@
       <c r="Q19" s="52"/>
       <c r="R19" s="52"/>
       <c r="S19" s="52"/>
-    </row>
-    <row r="20" spans="1:19">
+      <c r="T19" s="50"/>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="187"/>
       <c r="B20" s="253"/>
       <c r="C20" s="516"/>
@@ -14845,8 +15990,9 @@
       <c r="Q20" s="52"/>
       <c r="R20" s="52"/>
       <c r="S20" s="52"/>
-    </row>
-    <row r="21" spans="1:19">
+      <c r="T20" s="50"/>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="187"/>
       <c r="B21" s="253"/>
       <c r="C21" s="516"/>
@@ -14866,8 +16012,9 @@
       <c r="Q21" s="52"/>
       <c r="R21" s="52"/>
       <c r="S21" s="52"/>
-    </row>
-    <row r="22" spans="1:19">
+      <c r="T21" s="50"/>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="187"/>
       <c r="B22" s="253"/>
       <c r="C22" s="516"/>
@@ -14887,8 +16034,9 @@
       <c r="Q22" s="52"/>
       <c r="R22" s="52"/>
       <c r="S22" s="52"/>
-    </row>
-    <row r="23" spans="1:19">
+      <c r="T22" s="50"/>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="187"/>
       <c r="B23" s="253"/>
       <c r="C23" s="516"/>
@@ -14908,8 +16056,9 @@
       <c r="Q23" s="52"/>
       <c r="R23" s="52"/>
       <c r="S23" s="52"/>
-    </row>
-    <row r="24" spans="1:19">
+      <c r="T23" s="50"/>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="187"/>
       <c r="B24" s="253"/>
       <c r="C24" s="516"/>
@@ -14929,8 +16078,9 @@
       <c r="Q24" s="52"/>
       <c r="R24" s="52"/>
       <c r="S24" s="52"/>
-    </row>
-    <row r="25" spans="1:19">
+      <c r="T24" s="50"/>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="187"/>
       <c r="B25" s="253"/>
       <c r="C25" s="516"/>
@@ -14950,8 +16100,9 @@
       <c r="Q25" s="52"/>
       <c r="R25" s="52"/>
       <c r="S25" s="52"/>
-    </row>
-    <row r="26" spans="1:19">
+      <c r="T25" s="50"/>
+    </row>
+    <row r="26" spans="1:20">
       <c r="A26" s="187"/>
       <c r="B26" s="253"/>
       <c r="C26" s="516"/>
@@ -14971,8 +16122,9 @@
       <c r="Q26" s="52"/>
       <c r="R26" s="52"/>
       <c r="S26" s="52"/>
-    </row>
-    <row r="27" spans="1:19">
+      <c r="T26" s="50"/>
+    </row>
+    <row r="27" spans="1:20">
       <c r="A27" s="187"/>
       <c r="B27" s="253"/>
       <c r="C27" s="516"/>
@@ -14992,8 +16144,9 @@
       <c r="Q27" s="52"/>
       <c r="R27" s="52"/>
       <c r="S27" s="52"/>
-    </row>
-    <row r="28" spans="1:19">
+      <c r="T27" s="50"/>
+    </row>
+    <row r="28" spans="1:20">
       <c r="A28" s="556"/>
       <c r="B28" s="254"/>
       <c r="C28" s="516"/>
@@ -15013,8 +16166,9 @@
       <c r="Q28" s="52"/>
       <c r="R28" s="52"/>
       <c r="S28" s="52"/>
-    </row>
-    <row r="29" spans="1:19">
+      <c r="T28" s="50"/>
+    </row>
+    <row r="29" spans="1:20">
       <c r="A29" s="538" t="s">
         <v>565</v>
       </c>
@@ -15039,7 +16193,7 @@
       <c r="R29" s="52"/>
       <c r="S29" s="16"/>
     </row>
-    <row r="30" spans="1:19">
+    <row r="30" spans="1:20">
       <c r="A30" s="187"/>
       <c r="B30" s="253"/>
       <c r="C30" s="516"/>
@@ -15060,7 +16214,7 @@
       <c r="R30" s="52"/>
       <c r="S30" s="16"/>
     </row>
-    <row r="31" spans="1:19">
+    <row r="31" spans="1:20">
       <c r="A31" s="187"/>
       <c r="B31" s="253"/>
       <c r="C31" s="516"/>
@@ -15081,7 +16235,7 @@
       <c r="R31" s="52"/>
       <c r="S31" s="16"/>
     </row>
-    <row r="32" spans="1:19">
+    <row r="32" spans="1:20">
       <c r="A32" s="370"/>
       <c r="B32" s="540"/>
       <c r="C32" s="516"/>
@@ -15140,8 +16294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:S15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -15154,8 +16308,8 @@
         <v>1</v>
       </c>
       <c r="B1" s="361"/>
-      <c r="C1" s="563" t="s">
-        <v>623</v>
+      <c r="C1" s="523" t="s">
+        <v>611</v>
       </c>
       <c r="D1" s="361"/>
       <c r="E1" s="361"/>
@@ -15232,7 +16386,7 @@
       </c>
       <c r="D4" s="530"/>
       <c r="E4" s="545" t="s">
-        <v>622</v>
+        <v>613</v>
       </c>
       <c r="F4" s="546"/>
       <c r="G4" s="546"/>
@@ -15288,7 +16442,7 @@
       </c>
       <c r="B6" s="241"/>
       <c r="C6" s="241" t="s">
-        <v>620</v>
+        <v>469</v>
       </c>
       <c r="D6" s="241"/>
       <c r="E6" s="241"/>
@@ -15300,7 +16454,7 @@
       </c>
       <c r="J6" s="241"/>
       <c r="K6" s="241" t="s">
-        <v>621</v>
+        <v>612</v>
       </c>
       <c r="L6" s="241"/>
       <c r="M6" s="241"/>
@@ -15317,7 +16471,7 @@
       </c>
       <c r="B7" s="539"/>
       <c r="C7" s="560" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="D7" s="52"/>
       <c r="E7" s="52"/>
@@ -15903,14 +17057,762 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:S32"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:S32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
-  <sheetData/>
+  <cols>
+    <col min="19" max="19" width="13.88000011" customWidth="1" outlineLevel="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19">
+      <c r="A1" s="522">
+        <v>1</v>
+      </c>
+      <c r="B1" s="361"/>
+      <c r="C1" s="523" t="s">
+        <v>623</v>
+      </c>
+      <c r="D1" s="361"/>
+      <c r="E1" s="361"/>
+      <c r="F1" s="361"/>
+      <c r="G1" s="361"/>
+      <c r="H1" s="361"/>
+      <c r="I1" s="361"/>
+      <c r="J1" s="361"/>
+      <c r="K1" s="361"/>
+      <c r="L1" s="361"/>
+      <c r="M1" s="361"/>
+      <c r="N1" s="361"/>
+      <c r="O1" s="361"/>
+      <c r="P1" s="361"/>
+      <c r="Q1" s="361"/>
+      <c r="R1" s="524" t="s">
+        <v>529</v>
+      </c>
+      <c r="S1" s="555">
+        <v>43601</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="266"/>
+      <c r="B2" s="259"/>
+      <c r="C2" s="259"/>
+      <c r="D2" s="259"/>
+      <c r="E2" s="259"/>
+      <c r="F2" s="259"/>
+      <c r="G2" s="259"/>
+      <c r="H2" s="259"/>
+      <c r="I2" s="259"/>
+      <c r="J2" s="259"/>
+      <c r="K2" s="259"/>
+      <c r="L2" s="259"/>
+      <c r="M2" s="259"/>
+      <c r="N2" s="259"/>
+      <c r="O2" s="259"/>
+      <c r="P2" s="259"/>
+      <c r="Q2" s="259"/>
+      <c r="R2" s="525"/>
+      <c r="S2" s="52"/>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" s="266"/>
+      <c r="B3" s="259"/>
+      <c r="C3" s="259"/>
+      <c r="D3" s="259"/>
+      <c r="E3" s="259"/>
+      <c r="F3" s="259"/>
+      <c r="G3" s="259"/>
+      <c r="H3" s="259"/>
+      <c r="I3" s="259"/>
+      <c r="J3" s="259"/>
+      <c r="K3" s="259"/>
+      <c r="L3" s="259"/>
+      <c r="M3" s="259"/>
+      <c r="N3" s="259"/>
+      <c r="O3" s="259"/>
+      <c r="P3" s="259"/>
+      <c r="Q3" s="259"/>
+      <c r="R3" s="525" t="s">
+        <v>530</v>
+      </c>
+      <c r="S3" s="555">
+        <v>43601</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="343"/>
+      <c r="B4" s="241"/>
+      <c r="C4" s="545" t="s">
+        <v>566</v>
+      </c>
+      <c r="D4" s="530"/>
+      <c r="E4" s="545" t="s">
+        <v>622</v>
+      </c>
+      <c r="F4" s="546"/>
+      <c r="G4" s="546"/>
+      <c r="H4" s="546"/>
+      <c r="I4" s="546"/>
+      <c r="J4" s="546"/>
+      <c r="K4" s="546"/>
+      <c r="L4" s="546"/>
+      <c r="M4" s="546"/>
+      <c r="N4" s="546"/>
+      <c r="O4" s="546"/>
+      <c r="P4" s="546"/>
+      <c r="Q4" s="530"/>
+      <c r="R4" s="525"/>
+      <c r="S4" s="52"/>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="343" t="s">
+        <v>561</v>
+      </c>
+      <c r="B5" s="241"/>
+      <c r="C5" s="241" t="s">
+        <v>583</v>
+      </c>
+      <c r="D5" s="241"/>
+      <c r="E5" s="241"/>
+      <c r="F5" s="241"/>
+      <c r="G5" s="241"/>
+      <c r="H5" s="241"/>
+      <c r="I5" s="241" t="s">
+        <v>562</v>
+      </c>
+      <c r="J5" s="241"/>
+      <c r="K5" s="259" t="s">
+        <v>581</v>
+      </c>
+      <c r="L5" s="259"/>
+      <c r="M5" s="259"/>
+      <c r="N5" s="259"/>
+      <c r="O5" s="259"/>
+      <c r="P5" s="241"/>
+      <c r="Q5" s="241"/>
+      <c r="R5" s="553" t="s">
+        <v>531</v>
+      </c>
+      <c r="S5" s="349" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="343" t="s">
+        <v>563</v>
+      </c>
+      <c r="B6" s="241"/>
+      <c r="C6" s="241" t="s">
+        <v>469</v>
+      </c>
+      <c r="D6" s="241"/>
+      <c r="E6" s="241"/>
+      <c r="F6" s="241"/>
+      <c r="G6" s="241"/>
+      <c r="H6" s="241"/>
+      <c r="I6" s="241" t="s">
+        <v>582</v>
+      </c>
+      <c r="J6" s="241"/>
+      <c r="K6" s="241" t="s">
+        <v>630</v>
+      </c>
+      <c r="L6" s="241"/>
+      <c r="M6" s="241"/>
+      <c r="N6" s="241"/>
+      <c r="O6" s="241"/>
+      <c r="P6" s="241"/>
+      <c r="Q6" s="241"/>
+      <c r="R6" s="554"/>
+      <c r="S6" s="349"/>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="538" t="s">
+        <v>519</v>
+      </c>
+      <c r="B7" s="539"/>
+      <c r="C7" s="560" t="s">
+        <v>637</v>
+      </c>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="52"/>
+      <c r="O7" s="52"/>
+      <c r="P7" s="52"/>
+      <c r="Q7" s="52"/>
+      <c r="R7" s="52"/>
+      <c r="S7" s="52"/>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="187"/>
+      <c r="B8" s="253"/>
+      <c r="C8" s="516"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="52"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="52"/>
+      <c r="Q8" s="52"/>
+      <c r="R8" s="52"/>
+      <c r="S8" s="52"/>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" s="187"/>
+      <c r="B9" s="253"/>
+      <c r="C9" s="516"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="52"/>
+      <c r="O9" s="52"/>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="52"/>
+      <c r="R9" s="52"/>
+      <c r="S9" s="52"/>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" s="187"/>
+      <c r="B10" s="253"/>
+      <c r="C10" s="516"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="52"/>
+      <c r="O10" s="52"/>
+      <c r="P10" s="52"/>
+      <c r="Q10" s="52"/>
+      <c r="R10" s="52"/>
+      <c r="S10" s="52"/>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="187"/>
+      <c r="B11" s="253"/>
+      <c r="C11" s="516"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="52"/>
+      <c r="O11" s="52"/>
+      <c r="P11" s="52"/>
+      <c r="Q11" s="52"/>
+      <c r="R11" s="52"/>
+      <c r="S11" s="52"/>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="187"/>
+      <c r="B12" s="253"/>
+      <c r="C12" s="516"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="52"/>
+      <c r="O12" s="52"/>
+      <c r="P12" s="52"/>
+      <c r="Q12" s="52"/>
+      <c r="R12" s="52"/>
+      <c r="S12" s="52"/>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="187"/>
+      <c r="B13" s="253"/>
+      <c r="C13" s="516"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="52"/>
+      <c r="O13" s="52"/>
+      <c r="P13" s="52"/>
+      <c r="Q13" s="52"/>
+      <c r="R13" s="52"/>
+      <c r="S13" s="52"/>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" s="187"/>
+      <c r="B14" s="253"/>
+      <c r="C14" s="516"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="52"/>
+      <c r="O14" s="52"/>
+      <c r="P14" s="52"/>
+      <c r="Q14" s="52"/>
+      <c r="R14" s="52"/>
+      <c r="S14" s="52"/>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" s="556"/>
+      <c r="B15" s="254"/>
+      <c r="C15" s="516"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="52"/>
+      <c r="N15" s="52"/>
+      <c r="O15" s="52"/>
+      <c r="P15" s="52"/>
+      <c r="Q15" s="52"/>
+      <c r="R15" s="52"/>
+      <c r="S15" s="52"/>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" s="538" t="s">
+        <v>585</v>
+      </c>
+      <c r="B16" s="539"/>
+      <c r="C16" s="516"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="52"/>
+      <c r="M16" s="52"/>
+      <c r="N16" s="52"/>
+      <c r="O16" s="52"/>
+      <c r="P16" s="52"/>
+      <c r="Q16" s="52"/>
+      <c r="R16" s="52"/>
+      <c r="S16" s="52"/>
+    </row>
+    <row r="17" spans="1:19">
+      <c r="A17" s="187"/>
+      <c r="B17" s="253"/>
+      <c r="C17" s="516"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="52"/>
+      <c r="O17" s="52"/>
+      <c r="P17" s="52"/>
+      <c r="Q17" s="52"/>
+      <c r="R17" s="52"/>
+      <c r="S17" s="52"/>
+    </row>
+    <row r="18" spans="1:19">
+      <c r="A18" s="187"/>
+      <c r="B18" s="253"/>
+      <c r="C18" s="516"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="52"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="52"/>
+      <c r="O18" s="52"/>
+      <c r="P18" s="52"/>
+      <c r="Q18" s="52"/>
+      <c r="R18" s="52"/>
+      <c r="S18" s="52"/>
+    </row>
+    <row r="19" spans="1:19">
+      <c r="A19" s="187"/>
+      <c r="B19" s="253"/>
+      <c r="C19" s="516"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="52"/>
+      <c r="O19" s="52"/>
+      <c r="P19" s="52"/>
+      <c r="Q19" s="52"/>
+      <c r="R19" s="52"/>
+      <c r="S19" s="52"/>
+    </row>
+    <row r="20" spans="1:19">
+      <c r="A20" s="187"/>
+      <c r="B20" s="253"/>
+      <c r="C20" s="516"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="52"/>
+      <c r="O20" s="52"/>
+      <c r="P20" s="52"/>
+      <c r="Q20" s="52"/>
+      <c r="R20" s="52"/>
+      <c r="S20" s="52"/>
+    </row>
+    <row r="21" spans="1:19">
+      <c r="A21" s="187"/>
+      <c r="B21" s="253"/>
+      <c r="C21" s="516"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="52"/>
+      <c r="N21" s="52"/>
+      <c r="O21" s="52"/>
+      <c r="P21" s="52"/>
+      <c r="Q21" s="52"/>
+      <c r="R21" s="52"/>
+      <c r="S21" s="52"/>
+    </row>
+    <row r="22" spans="1:19">
+      <c r="A22" s="187"/>
+      <c r="B22" s="253"/>
+      <c r="C22" s="516"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="52"/>
+      <c r="N22" s="52"/>
+      <c r="O22" s="52"/>
+      <c r="P22" s="52"/>
+      <c r="Q22" s="52"/>
+      <c r="R22" s="52"/>
+      <c r="S22" s="52"/>
+    </row>
+    <row r="23" spans="1:19">
+      <c r="A23" s="187"/>
+      <c r="B23" s="253"/>
+      <c r="C23" s="516"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="52"/>
+      <c r="N23" s="52"/>
+      <c r="O23" s="52"/>
+      <c r="P23" s="52"/>
+      <c r="Q23" s="52"/>
+      <c r="R23" s="52"/>
+      <c r="S23" s="52"/>
+    </row>
+    <row r="24" spans="1:19">
+      <c r="A24" s="187"/>
+      <c r="B24" s="253"/>
+      <c r="C24" s="516"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="52"/>
+      <c r="M24" s="52"/>
+      <c r="N24" s="52"/>
+      <c r="O24" s="52"/>
+      <c r="P24" s="52"/>
+      <c r="Q24" s="52"/>
+      <c r="R24" s="52"/>
+      <c r="S24" s="52"/>
+    </row>
+    <row r="25" spans="1:19">
+      <c r="A25" s="187"/>
+      <c r="B25" s="253"/>
+      <c r="C25" s="516"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="52"/>
+      <c r="M25" s="52"/>
+      <c r="N25" s="52"/>
+      <c r="O25" s="52"/>
+      <c r="P25" s="52"/>
+      <c r="Q25" s="52"/>
+      <c r="R25" s="52"/>
+      <c r="S25" s="52"/>
+    </row>
+    <row r="26" spans="1:19">
+      <c r="A26" s="187"/>
+      <c r="B26" s="253"/>
+      <c r="C26" s="516"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="52"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="52"/>
+      <c r="L26" s="52"/>
+      <c r="M26" s="52"/>
+      <c r="N26" s="52"/>
+      <c r="O26" s="52"/>
+      <c r="P26" s="52"/>
+      <c r="Q26" s="52"/>
+      <c r="R26" s="52"/>
+      <c r="S26" s="52"/>
+    </row>
+    <row r="27" spans="1:19">
+      <c r="A27" s="187"/>
+      <c r="B27" s="253"/>
+      <c r="C27" s="516"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="52"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="52"/>
+      <c r="L27" s="52"/>
+      <c r="M27" s="52"/>
+      <c r="N27" s="52"/>
+      <c r="O27" s="52"/>
+      <c r="P27" s="52"/>
+      <c r="Q27" s="52"/>
+      <c r="R27" s="52"/>
+      <c r="S27" s="52"/>
+    </row>
+    <row r="28" spans="1:19">
+      <c r="A28" s="556"/>
+      <c r="B28" s="254"/>
+      <c r="C28" s="516"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="52"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="52"/>
+      <c r="L28" s="52"/>
+      <c r="M28" s="52"/>
+      <c r="N28" s="52"/>
+      <c r="O28" s="52"/>
+      <c r="P28" s="52"/>
+      <c r="Q28" s="52"/>
+      <c r="R28" s="52"/>
+      <c r="S28" s="52"/>
+    </row>
+    <row r="29" spans="1:19">
+      <c r="A29" s="538" t="s">
+        <v>565</v>
+      </c>
+      <c r="B29" s="539"/>
+      <c r="C29" s="516" t="s">
+        <v>607</v>
+      </c>
+      <c r="D29" s="52"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="52"/>
+      <c r="J29" s="52"/>
+      <c r="K29" s="52"/>
+      <c r="L29" s="52"/>
+      <c r="M29" s="52"/>
+      <c r="N29" s="52"/>
+      <c r="O29" s="52"/>
+      <c r="P29" s="52"/>
+      <c r="Q29" s="52"/>
+      <c r="R29" s="52"/>
+      <c r="S29" s="16"/>
+    </row>
+    <row r="30" spans="1:19">
+      <c r="A30" s="187"/>
+      <c r="B30" s="253"/>
+      <c r="C30" s="516"/>
+      <c r="D30" s="52"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="52"/>
+      <c r="J30" s="52"/>
+      <c r="K30" s="52"/>
+      <c r="L30" s="52"/>
+      <c r="M30" s="52"/>
+      <c r="N30" s="52"/>
+      <c r="O30" s="52"/>
+      <c r="P30" s="52"/>
+      <c r="Q30" s="52"/>
+      <c r="R30" s="52"/>
+      <c r="S30" s="16"/>
+    </row>
+    <row r="31" spans="1:19">
+      <c r="A31" s="187"/>
+      <c r="B31" s="253"/>
+      <c r="C31" s="516"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="52"/>
+      <c r="I31" s="52"/>
+      <c r="J31" s="52"/>
+      <c r="K31" s="52"/>
+      <c r="L31" s="52"/>
+      <c r="M31" s="52"/>
+      <c r="N31" s="52"/>
+      <c r="O31" s="52"/>
+      <c r="P31" s="52"/>
+      <c r="Q31" s="52"/>
+      <c r="R31" s="52"/>
+      <c r="S31" s="16"/>
+    </row>
+    <row r="32" spans="1:19">
+      <c r="A32" s="370"/>
+      <c r="B32" s="540"/>
+      <c r="C32" s="516"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="52"/>
+      <c r="I32" s="52"/>
+      <c r="J32" s="52"/>
+      <c r="K32" s="52"/>
+      <c r="L32" s="52"/>
+      <c r="M32" s="52"/>
+      <c r="N32" s="52"/>
+      <c r="O32" s="52"/>
+      <c r="P32" s="52"/>
+      <c r="Q32" s="52"/>
+      <c r="R32" s="52"/>
+      <c r="S32" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="A1:B4"/>
+    <mergeCell ref="C1:Q3"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:Q4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:Q6"/>
+    <mergeCell ref="A7:B15"/>
+    <mergeCell ref="C7:S15"/>
+    <mergeCell ref="A16:B28"/>
+    <mergeCell ref="C16:S28"/>
+    <mergeCell ref="A29:B32"/>
+    <mergeCell ref="C29:S32"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/잡리스트 0514수정.xlsx
+++ b/잡리스트 0514수정.xlsx
@@ -4,20 +4,23 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="630" activeTab="9"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="630" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="joblist" sheetId="1" r:id="rId1"/>
     <sheet name="로그인버튼" sheetId="5" r:id="rId2"/>
-    <sheet name="로그인 화면처리" sheetId="7" r:id="rId3"/>
-    <sheet name="상품리스트 처리" sheetId="11" r:id="rId4"/>
-    <sheet name="로그인처리" sheetId="6" r:id="rId5"/>
-    <sheet name="로그인 최종 처리" sheetId="8" r:id="rId6"/>
-    <sheet name="내정보버튼" sheetId="9" r:id="rId7"/>
-    <sheet name="적립시간추가처리" sheetId="3" r:id="rId8"/>
-    <sheet name="내정보수정처리" sheetId="10" r:id="rId9"/>
-    <sheet name="리스트뷰 셋팅" sheetId="12" r:id="rId10"/>
-    <sheet name="로그인 전체 공정" sheetId="2" r:id="rId11"/>
+    <sheet name="회원가입버튼" sheetId="13" r:id="rId3"/>
+    <sheet name="회원가입 화면처리" sheetId="14" r:id="rId4"/>
+    <sheet name="회원가입 최종처리" sheetId="15" r:id="rId5"/>
+    <sheet name="로그인 화면처리" sheetId="7" r:id="rId6"/>
+    <sheet name="로그인처리" sheetId="6" r:id="rId7"/>
+    <sheet name="로그인 최종 처리" sheetId="8" r:id="rId8"/>
+    <sheet name="내정보버튼" sheetId="9" r:id="rId9"/>
+    <sheet name="상품리스트 처리" sheetId="11" r:id="rId10"/>
+    <sheet name="적립시간추가처리" sheetId="3" r:id="rId11"/>
+    <sheet name="내정보수정처리" sheetId="10" r:id="rId12"/>
+    <sheet name="리스트뷰 셋팅" sheetId="12" r:id="rId13"/>
+    <sheet name="로그인 전체 공정" sheetId="2" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="152511"/>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="661">
   <si>
     <t>J O B L I S T</t>
   </si>
@@ -2121,6 +2124,94 @@
   </si>
   <si>
     <t>상품정보리스트뷰 셋팅</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>회원가입버튼처리</t>
+    </r>
+  </si>
+  <si>
+    <t>singup</t>
+  </si>
+  <si>
+    <t>로그인창에서 회원가입 버튼을 눌렀을때 처리</t>
+  </si>
+  <si>
+    <t>로그인창에서 회원가입 버튼을 눌렀을때 처리 프로세스</t>
+  </si>
+  <si>
+    <t>1. 로그인 화면에서 회원가입 버튼을 클릭
+2. controller에 signup값을 controller에 전달</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>회원가입 화면처리</t>
+    </r>
+  </si>
+  <si>
+    <t>받는 값 : signup 전달값 : singing</t>
+  </si>
+  <si>
+    <t>받는 값 : signup 전달값 : signing</t>
+  </si>
+  <si>
+    <t>1. controller에서 전달 받은 값 signup일 경우 회원가입 창을 출력</t>
+  </si>
+  <si>
+    <t>1. controller에서 전달 받은 값 signup일 경우 회원가입 창을 출력
+2. 회원가입 창의 정보를 모두 입력후 회원가입 버튼을 클릭
+3. signing값을 controller에 전달</t>
+  </si>
+  <si>
+    <t>회원가입 화면 처리 프로세스</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>회원가입 최종 처리</t>
+    </r>
+  </si>
+  <si>
+    <t>DB에 데이터 삽입 처리 프로세스</t>
+  </si>
+  <si>
+    <t>받는 값 :  signing 전달값 : ending</t>
+  </si>
+  <si>
+    <t>1. controller에서 전달 받은 값 signing 경우 selectoverlap메소드 실행
+2. 실행값이 0 일 경우 insertMember메소드 실행
+3. signing값을 controller에 전달</t>
+  </si>
+  <si>
+    <t>1. controller에서 전달 받은 값 signing 경우 selectoverlap메소드 실행
+2. 실행값이 0 일 경우 insertMember메소드 실행
+3.회원가입 액티비티 finish
+4. Ac.Toast실행 Toast출력 내용 : 회원가입 완료되었습니다.</t>
+  </si>
+  <si>
+    <t>1. controller에서 전달 받은 값 signing 경우 selectoverlap메소드 실행
+2. 실행값이 0 일 경우 insertMember메소드 실행
+3.회원가입 액티비티 finish
+4. Ac.Toast실행 Toast출력 내용 : 회원가입 완료되었습니다.
+5.실행값이 1일 경우 Ac.Toast출력 내용: 아이디가 중복되었습니다.
+6. 회원가입화면 출력</t>
+  </si>
+  <si>
+    <t>ending 출력은 로그인 화면 출력이라 생략</t>
   </si>
 </sst>
 </file>
@@ -7030,6 +7121,426 @@
 
 <file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5332095" y="2291715"/>
+          <a:ext cx="190500" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 2"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3427095" y="3129915"/>
+          <a:ext cx="714375" cy="438150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="91440" anchor="t" vertOverflow="clip">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:buFontTx/>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" cap="none" dirty="0" smtClean="0" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+            </a:rPr>
+            <a:t>mHistory
+html</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" dirty="0" smtClean="0" cap="none" b="0">
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 3"/>
+        <xdr:cNvPicPr preferRelativeResize="0">
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3255645" y="3139440"/>
+          <a:ext cx="8582025" cy="2733675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5332095" y="2291715"/>
+          <a:ext cx="190500" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 2"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3427095" y="3129915"/>
+          <a:ext cx="714375" cy="438150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="91440" anchor="t" vertOverflow="clip">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:buFontTx/>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" cap="none" dirty="0" smtClean="0" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+            </a:rPr>
+            <a:t>mHistory
+html</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" dirty="0" smtClean="0" cap="none" b="0">
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>962025</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 3"/>
+        <xdr:cNvPicPr preferRelativeResize="0">
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1445895" y="3215640"/>
+          <a:ext cx="11839575" cy="2638425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5332095" y="2291715"/>
+          <a:ext cx="190500" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 2"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3427095" y="3129915"/>
+          <a:ext cx="714375" cy="438150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="91440" anchor="t" vertOverflow="clip">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:buFontTx/>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" cap="none" dirty="0" smtClean="0" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+            </a:rPr>
+            <a:t>mHistory
+html</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" dirty="0" smtClean="0" cap="none" b="0">
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 3"/>
+        <xdr:cNvPicPr preferRelativeResize="0">
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1226820" y="3749040"/>
+          <a:ext cx="11382375" cy="1409700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -7172,6 +7683,426 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>492125</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="그림 23"/>
+        <xdr:cNvPicPr preferRelativeResize="0">
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2960370" y="4149090"/>
+          <a:ext cx="8578850" cy="1098550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="TextBox 16"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5427345" y="2491740"/>
+          <a:ext cx="190500" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="TextBox 22"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3522345" y="3329940"/>
+          <a:ext cx="714375" cy="438150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="91440" anchor="t" vertOverflow="clip">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:buFontTx/>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" cap="none" dirty="0" smtClean="0" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+            </a:rPr>
+            <a:t>mHistory
+html</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" dirty="0" smtClean="0" cap="none" b="0">
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>555625</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>167005</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>825500</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="그림 23"/>
+        <xdr:cNvPicPr preferRelativeResize="0">
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4058920" y="3496945"/>
+          <a:ext cx="8499475" cy="2379345"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="TextBox 16"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5427345" y="2491740"/>
+          <a:ext cx="190500" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="TextBox 22"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3522345" y="3329940"/>
+          <a:ext cx="714375" cy="438150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="91440" anchor="t" vertOverflow="clip">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:buFontTx/>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" cap="none" dirty="0" smtClean="0" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+            </a:rPr>
+            <a:t>mHistory
+html</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" dirty="0" smtClean="0" cap="none" b="0">
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>119380</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>151130</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>167005</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="그림 23"/>
+        <xdr:cNvPicPr preferRelativeResize="0">
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3622675" y="3329940"/>
+          <a:ext cx="9147175" cy="2681605"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="TextBox 16"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5427345" y="2491740"/>
+          <a:ext cx="190500" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="TextBox 22"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3522345" y="3329940"/>
+          <a:ext cx="714375" cy="438150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="91440" anchor="t" vertOverflow="clip">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:buFontTx/>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" cap="none" dirty="0" smtClean="0" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+            </a:rPr>
+            <a:t>mHistory
+html</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" dirty="0" smtClean="0" cap="none" b="0">
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>15875</xdr:colOff>
       <xdr:row>15</xdr:row>
@@ -7217,147 +8148,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="twoCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1" name="TextBox 1"/>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5332095" y="2291715"/>
-          <a:ext cx="190500" cy="257175"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect"/>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 2"/>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3427095" y="3129915"/>
-          <a:ext cx="714375" cy="438150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect"/>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="91440" anchor="t" vertOverflow="clip">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:buFontTx/>
-            <a:buNone/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" cap="none" dirty="0" smtClean="0" b="0">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-            </a:rPr>
-            <a:t>mHistory
-html</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" dirty="0" smtClean="0" cap="none" b="0">
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="그림 3" descr="xl/media/OImage2491907376.png"/>
-        <xdr:cNvPicPr preferRelativeResize="0">
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1369695" y="3396615"/>
-          <a:ext cx="12011025" cy="2266950"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect"/>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
@@ -7497,7 +8288,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
@@ -7592,20 +8383,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>15875</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>15875</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>1325880</xdr:colOff>
+      <xdr:colOff>412750</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="그림 23" descr="xl/media/OImage2462498573.png"/>
+        <xdr:cNvPr id="23" name="그림 23"/>
         <xdr:cNvPicPr preferRelativeResize="0">
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7625,8 +8416,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1509395" y="3974465"/>
-          <a:ext cx="12435205" cy="1336675"/>
+          <a:off x="2833370" y="4101465"/>
+          <a:ext cx="10198100" cy="1202055"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
         <a:noFill/>
@@ -7637,7 +8428,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
@@ -7777,7 +8568,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
@@ -7873,19 +8664,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="그림 3" descr="xl/media/OImage2489995695.png"/>
+        <xdr:cNvPr id="3" name="그림 3" descr="xl/media/OImage2491907376.png"/>
         <xdr:cNvPicPr preferRelativeResize="0">
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7905,288 +8696,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1922145" y="3225165"/>
-          <a:ext cx="10810875" cy="2543175"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect"/>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="twoCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1" name="TextBox 1"/>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5332095" y="2291715"/>
-          <a:ext cx="190500" cy="257175"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect"/>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 2"/>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3427095" y="3129915"/>
-          <a:ext cx="714375" cy="438150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect"/>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="91440" anchor="t" vertOverflow="clip">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:buFontTx/>
-            <a:buNone/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" cap="none" dirty="0" smtClean="0" b="0">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-            </a:rPr>
-            <a:t>mHistory
-html</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" dirty="0" smtClean="0" cap="none" b="0">
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>962025</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="그림 3"/>
-        <xdr:cNvPicPr preferRelativeResize="0">
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1445895" y="3215640"/>
-          <a:ext cx="11839575" cy="2638425"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect"/>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="twoCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1" name="TextBox 1"/>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5332095" y="2291715"/>
-          <a:ext cx="190500" cy="257175"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect"/>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 2"/>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3427095" y="3129915"/>
-          <a:ext cx="714375" cy="438150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect"/>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="91440" anchor="t" vertOverflow="clip">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:buFontTx/>
-            <a:buNone/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" cap="none" dirty="0" smtClean="0" b="0">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-            </a:rPr>
-            <a:t>mHistory
-html</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" dirty="0" smtClean="0" cap="none" b="0">
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="그림 3"/>
-        <xdr:cNvPicPr preferRelativeResize="0">
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1226820" y="3749040"/>
-          <a:ext cx="11382375" cy="1409700"/>
+          <a:off x="1369695" y="3396615"/>
+          <a:ext cx="12011025" cy="2266950"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
         <a:noFill/>
@@ -10842,11 +11353,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:S15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
+  <cols>
+    <col min="19" max="19" width="13.88000011" customWidth="1" outlineLevel="0"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" s="522">
@@ -10854,7 +11368,7 @@
       </c>
       <c r="B1" s="361"/>
       <c r="C1" s="563" t="s">
-        <v>639</v>
+        <v>628</v>
       </c>
       <c r="D1" s="361"/>
       <c r="E1" s="361"/>
@@ -10931,7 +11445,7 @@
       </c>
       <c r="D4" s="530"/>
       <c r="E4" s="545" t="s">
-        <v>642</v>
+        <v>629</v>
       </c>
       <c r="F4" s="546"/>
       <c r="G4" s="546"/>
@@ -10999,7 +11513,7 @@
       </c>
       <c r="J6" s="241"/>
       <c r="K6" s="241" t="s">
-        <v>640</v>
+        <v>621</v>
       </c>
       <c r="L6" s="241"/>
       <c r="M6" s="241"/>
@@ -11016,7 +11530,7 @@
       </c>
       <c r="B7" s="539"/>
       <c r="C7" s="560" t="s">
-        <v>641</v>
+        <v>627</v>
       </c>
       <c r="D7" s="52"/>
       <c r="E7" s="52"/>
@@ -11601,6 +12115,2298 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16:S28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.500000"/>
+  <cols>
+    <col min="19" max="19" width="13.88000011" customWidth="1" outlineLevel="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19">
+      <c r="A1" s="522">
+        <v>1</v>
+      </c>
+      <c r="B1" s="361"/>
+      <c r="C1" s="523" t="s">
+        <v>611</v>
+      </c>
+      <c r="D1" s="361"/>
+      <c r="E1" s="361"/>
+      <c r="F1" s="361"/>
+      <c r="G1" s="361"/>
+      <c r="H1" s="361"/>
+      <c r="I1" s="361"/>
+      <c r="J1" s="361"/>
+      <c r="K1" s="361"/>
+      <c r="L1" s="361"/>
+      <c r="M1" s="361"/>
+      <c r="N1" s="361"/>
+      <c r="O1" s="361"/>
+      <c r="P1" s="361"/>
+      <c r="Q1" s="361"/>
+      <c r="R1" s="524" t="s">
+        <v>529</v>
+      </c>
+      <c r="S1" s="555">
+        <v>43601</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="266"/>
+      <c r="B2" s="259"/>
+      <c r="C2" s="259"/>
+      <c r="D2" s="259"/>
+      <c r="E2" s="259"/>
+      <c r="F2" s="259"/>
+      <c r="G2" s="259"/>
+      <c r="H2" s="259"/>
+      <c r="I2" s="259"/>
+      <c r="J2" s="259"/>
+      <c r="K2" s="259"/>
+      <c r="L2" s="259"/>
+      <c r="M2" s="259"/>
+      <c r="N2" s="259"/>
+      <c r="O2" s="259"/>
+      <c r="P2" s="259"/>
+      <c r="Q2" s="259"/>
+      <c r="R2" s="525"/>
+      <c r="S2" s="52"/>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" s="266"/>
+      <c r="B3" s="259"/>
+      <c r="C3" s="259"/>
+      <c r="D3" s="259"/>
+      <c r="E3" s="259"/>
+      <c r="F3" s="259"/>
+      <c r="G3" s="259"/>
+      <c r="H3" s="259"/>
+      <c r="I3" s="259"/>
+      <c r="J3" s="259"/>
+      <c r="K3" s="259"/>
+      <c r="L3" s="259"/>
+      <c r="M3" s="259"/>
+      <c r="N3" s="259"/>
+      <c r="O3" s="259"/>
+      <c r="P3" s="259"/>
+      <c r="Q3" s="259"/>
+      <c r="R3" s="525" t="s">
+        <v>530</v>
+      </c>
+      <c r="S3" s="555">
+        <v>43601</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="343"/>
+      <c r="B4" s="241"/>
+      <c r="C4" s="545" t="s">
+        <v>566</v>
+      </c>
+      <c r="D4" s="530"/>
+      <c r="E4" s="545" t="s">
+        <v>613</v>
+      </c>
+      <c r="F4" s="546"/>
+      <c r="G4" s="546"/>
+      <c r="H4" s="546"/>
+      <c r="I4" s="546"/>
+      <c r="J4" s="546"/>
+      <c r="K4" s="546"/>
+      <c r="L4" s="546"/>
+      <c r="M4" s="546"/>
+      <c r="N4" s="546"/>
+      <c r="O4" s="546"/>
+      <c r="P4" s="546"/>
+      <c r="Q4" s="530"/>
+      <c r="R4" s="525"/>
+      <c r="S4" s="52"/>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="343" t="s">
+        <v>561</v>
+      </c>
+      <c r="B5" s="241"/>
+      <c r="C5" s="241" t="s">
+        <v>583</v>
+      </c>
+      <c r="D5" s="241"/>
+      <c r="E5" s="241"/>
+      <c r="F5" s="241"/>
+      <c r="G5" s="241"/>
+      <c r="H5" s="241"/>
+      <c r="I5" s="241" t="s">
+        <v>562</v>
+      </c>
+      <c r="J5" s="241"/>
+      <c r="K5" s="259" t="s">
+        <v>581</v>
+      </c>
+      <c r="L5" s="259"/>
+      <c r="M5" s="259"/>
+      <c r="N5" s="259"/>
+      <c r="O5" s="259"/>
+      <c r="P5" s="241"/>
+      <c r="Q5" s="241"/>
+      <c r="R5" s="553" t="s">
+        <v>531</v>
+      </c>
+      <c r="S5" s="349" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="343" t="s">
+        <v>563</v>
+      </c>
+      <c r="B6" s="241"/>
+      <c r="C6" s="241" t="s">
+        <v>469</v>
+      </c>
+      <c r="D6" s="241"/>
+      <c r="E6" s="241"/>
+      <c r="F6" s="241"/>
+      <c r="G6" s="241"/>
+      <c r="H6" s="241"/>
+      <c r="I6" s="241" t="s">
+        <v>582</v>
+      </c>
+      <c r="J6" s="241"/>
+      <c r="K6" s="241" t="s">
+        <v>612</v>
+      </c>
+      <c r="L6" s="241"/>
+      <c r="M6" s="241"/>
+      <c r="N6" s="241"/>
+      <c r="O6" s="241"/>
+      <c r="P6" s="241"/>
+      <c r="Q6" s="241"/>
+      <c r="R6" s="554"/>
+      <c r="S6" s="349"/>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="538" t="s">
+        <v>519</v>
+      </c>
+      <c r="B7" s="539"/>
+      <c r="C7" s="560" t="s">
+        <v>619</v>
+      </c>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="52"/>
+      <c r="O7" s="52"/>
+      <c r="P7" s="52"/>
+      <c r="Q7" s="52"/>
+      <c r="R7" s="52"/>
+      <c r="S7" s="52"/>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="187"/>
+      <c r="B8" s="253"/>
+      <c r="C8" s="516"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="52"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="52"/>
+      <c r="Q8" s="52"/>
+      <c r="R8" s="52"/>
+      <c r="S8" s="52"/>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" s="187"/>
+      <c r="B9" s="253"/>
+      <c r="C9" s="516"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="52"/>
+      <c r="O9" s="52"/>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="52"/>
+      <c r="R9" s="52"/>
+      <c r="S9" s="52"/>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" s="187"/>
+      <c r="B10" s="253"/>
+      <c r="C10" s="516"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="52"/>
+      <c r="O10" s="52"/>
+      <c r="P10" s="52"/>
+      <c r="Q10" s="52"/>
+      <c r="R10" s="52"/>
+      <c r="S10" s="52"/>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="187"/>
+      <c r="B11" s="253"/>
+      <c r="C11" s="516"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="52"/>
+      <c r="O11" s="52"/>
+      <c r="P11" s="52"/>
+      <c r="Q11" s="52"/>
+      <c r="R11" s="52"/>
+      <c r="S11" s="52"/>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="187"/>
+      <c r="B12" s="253"/>
+      <c r="C12" s="516"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="52"/>
+      <c r="O12" s="52"/>
+      <c r="P12" s="52"/>
+      <c r="Q12" s="52"/>
+      <c r="R12" s="52"/>
+      <c r="S12" s="52"/>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="187"/>
+      <c r="B13" s="253"/>
+      <c r="C13" s="516"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="52"/>
+      <c r="O13" s="52"/>
+      <c r="P13" s="52"/>
+      <c r="Q13" s="52"/>
+      <c r="R13" s="52"/>
+      <c r="S13" s="52"/>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" s="187"/>
+      <c r="B14" s="253"/>
+      <c r="C14" s="516"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="52"/>
+      <c r="O14" s="52"/>
+      <c r="P14" s="52"/>
+      <c r="Q14" s="52"/>
+      <c r="R14" s="52"/>
+      <c r="S14" s="52"/>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" s="556"/>
+      <c r="B15" s="254"/>
+      <c r="C15" s="516"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="52"/>
+      <c r="N15" s="52"/>
+      <c r="O15" s="52"/>
+      <c r="P15" s="52"/>
+      <c r="Q15" s="52"/>
+      <c r="R15" s="52"/>
+      <c r="S15" s="52"/>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" s="538" t="s">
+        <v>585</v>
+      </c>
+      <c r="B16" s="539"/>
+      <c r="C16" s="516"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="52"/>
+      <c r="M16" s="52"/>
+      <c r="N16" s="52"/>
+      <c r="O16" s="52"/>
+      <c r="P16" s="52"/>
+      <c r="Q16" s="52"/>
+      <c r="R16" s="52"/>
+      <c r="S16" s="52"/>
+    </row>
+    <row r="17" spans="1:19">
+      <c r="A17" s="187"/>
+      <c r="B17" s="253"/>
+      <c r="C17" s="516"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="52"/>
+      <c r="O17" s="52"/>
+      <c r="P17" s="52"/>
+      <c r="Q17" s="52"/>
+      <c r="R17" s="52"/>
+      <c r="S17" s="52"/>
+    </row>
+    <row r="18" spans="1:19">
+      <c r="A18" s="187"/>
+      <c r="B18" s="253"/>
+      <c r="C18" s="516"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="52"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="52"/>
+      <c r="O18" s="52"/>
+      <c r="P18" s="52"/>
+      <c r="Q18" s="52"/>
+      <c r="R18" s="52"/>
+      <c r="S18" s="52"/>
+    </row>
+    <row r="19" spans="1:19">
+      <c r="A19" s="187"/>
+      <c r="B19" s="253"/>
+      <c r="C19" s="516"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="52"/>
+      <c r="O19" s="52"/>
+      <c r="P19" s="52"/>
+      <c r="Q19" s="52"/>
+      <c r="R19" s="52"/>
+      <c r="S19" s="52"/>
+    </row>
+    <row r="20" spans="1:19">
+      <c r="A20" s="187"/>
+      <c r="B20" s="253"/>
+      <c r="C20" s="516"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="52"/>
+      <c r="O20" s="52"/>
+      <c r="P20" s="52"/>
+      <c r="Q20" s="52"/>
+      <c r="R20" s="52"/>
+      <c r="S20" s="52"/>
+    </row>
+    <row r="21" spans="1:19">
+      <c r="A21" s="187"/>
+      <c r="B21" s="253"/>
+      <c r="C21" s="516"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="52"/>
+      <c r="N21" s="52"/>
+      <c r="O21" s="52"/>
+      <c r="P21" s="52"/>
+      <c r="Q21" s="52"/>
+      <c r="R21" s="52"/>
+      <c r="S21" s="52"/>
+    </row>
+    <row r="22" spans="1:19">
+      <c r="A22" s="187"/>
+      <c r="B22" s="253"/>
+      <c r="C22" s="516"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="52"/>
+      <c r="N22" s="52"/>
+      <c r="O22" s="52"/>
+      <c r="P22" s="52"/>
+      <c r="Q22" s="52"/>
+      <c r="R22" s="52"/>
+      <c r="S22" s="52"/>
+    </row>
+    <row r="23" spans="1:19">
+      <c r="A23" s="187"/>
+      <c r="B23" s="253"/>
+      <c r="C23" s="516"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="52"/>
+      <c r="N23" s="52"/>
+      <c r="O23" s="52"/>
+      <c r="P23" s="52"/>
+      <c r="Q23" s="52"/>
+      <c r="R23" s="52"/>
+      <c r="S23" s="52"/>
+    </row>
+    <row r="24" spans="1:19">
+      <c r="A24" s="187"/>
+      <c r="B24" s="253"/>
+      <c r="C24" s="516"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="52"/>
+      <c r="M24" s="52"/>
+      <c r="N24" s="52"/>
+      <c r="O24" s="52"/>
+      <c r="P24" s="52"/>
+      <c r="Q24" s="52"/>
+      <c r="R24" s="52"/>
+      <c r="S24" s="52"/>
+    </row>
+    <row r="25" spans="1:19">
+      <c r="A25" s="187"/>
+      <c r="B25" s="253"/>
+      <c r="C25" s="516"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="52"/>
+      <c r="M25" s="52"/>
+      <c r="N25" s="52"/>
+      <c r="O25" s="52"/>
+      <c r="P25" s="52"/>
+      <c r="Q25" s="52"/>
+      <c r="R25" s="52"/>
+      <c r="S25" s="52"/>
+    </row>
+    <row r="26" spans="1:19">
+      <c r="A26" s="187"/>
+      <c r="B26" s="253"/>
+      <c r="C26" s="516"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="52"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="52"/>
+      <c r="L26" s="52"/>
+      <c r="M26" s="52"/>
+      <c r="N26" s="52"/>
+      <c r="O26" s="52"/>
+      <c r="P26" s="52"/>
+      <c r="Q26" s="52"/>
+      <c r="R26" s="52"/>
+      <c r="S26" s="52"/>
+    </row>
+    <row r="27" spans="1:19">
+      <c r="A27" s="187"/>
+      <c r="B27" s="253"/>
+      <c r="C27" s="516"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="52"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="52"/>
+      <c r="L27" s="52"/>
+      <c r="M27" s="52"/>
+      <c r="N27" s="52"/>
+      <c r="O27" s="52"/>
+      <c r="P27" s="52"/>
+      <c r="Q27" s="52"/>
+      <c r="R27" s="52"/>
+      <c r="S27" s="52"/>
+    </row>
+    <row r="28" spans="1:19">
+      <c r="A28" s="556"/>
+      <c r="B28" s="254"/>
+      <c r="C28" s="516"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="52"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="52"/>
+      <c r="L28" s="52"/>
+      <c r="M28" s="52"/>
+      <c r="N28" s="52"/>
+      <c r="O28" s="52"/>
+      <c r="P28" s="52"/>
+      <c r="Q28" s="52"/>
+      <c r="R28" s="52"/>
+      <c r="S28" s="52"/>
+    </row>
+    <row r="29" spans="1:19">
+      <c r="A29" s="538" t="s">
+        <v>565</v>
+      </c>
+      <c r="B29" s="539"/>
+      <c r="C29" s="516" t="s">
+        <v>607</v>
+      </c>
+      <c r="D29" s="52"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="52"/>
+      <c r="J29" s="52"/>
+      <c r="K29" s="52"/>
+      <c r="L29" s="52"/>
+      <c r="M29" s="52"/>
+      <c r="N29" s="52"/>
+      <c r="O29" s="52"/>
+      <c r="P29" s="52"/>
+      <c r="Q29" s="52"/>
+      <c r="R29" s="52"/>
+      <c r="S29" s="16"/>
+    </row>
+    <row r="30" spans="1:19">
+      <c r="A30" s="187"/>
+      <c r="B30" s="253"/>
+      <c r="C30" s="516"/>
+      <c r="D30" s="52"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="52"/>
+      <c r="J30" s="52"/>
+      <c r="K30" s="52"/>
+      <c r="L30" s="52"/>
+      <c r="M30" s="52"/>
+      <c r="N30" s="52"/>
+      <c r="O30" s="52"/>
+      <c r="P30" s="52"/>
+      <c r="Q30" s="52"/>
+      <c r="R30" s="52"/>
+      <c r="S30" s="16"/>
+    </row>
+    <row r="31" spans="1:19">
+      <c r="A31" s="187"/>
+      <c r="B31" s="253"/>
+      <c r="C31" s="516"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="52"/>
+      <c r="I31" s="52"/>
+      <c r="J31" s="52"/>
+      <c r="K31" s="52"/>
+      <c r="L31" s="52"/>
+      <c r="M31" s="52"/>
+      <c r="N31" s="52"/>
+      <c r="O31" s="52"/>
+      <c r="P31" s="52"/>
+      <c r="Q31" s="52"/>
+      <c r="R31" s="52"/>
+      <c r="S31" s="16"/>
+    </row>
+    <row r="32" spans="1:19">
+      <c r="A32" s="370"/>
+      <c r="B32" s="540"/>
+      <c r="C32" s="516"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="52"/>
+      <c r="I32" s="52"/>
+      <c r="J32" s="52"/>
+      <c r="K32" s="52"/>
+      <c r="L32" s="52"/>
+      <c r="M32" s="52"/>
+      <c r="N32" s="52"/>
+      <c r="O32" s="52"/>
+      <c r="P32" s="52"/>
+      <c r="Q32" s="52"/>
+      <c r="R32" s="52"/>
+      <c r="S32" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="A1:B4"/>
+    <mergeCell ref="C1:Q3"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:Q4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:Q6"/>
+    <mergeCell ref="A7:B15"/>
+    <mergeCell ref="C7:S15"/>
+    <mergeCell ref="A16:B28"/>
+    <mergeCell ref="C16:S28"/>
+    <mergeCell ref="A29:B32"/>
+    <mergeCell ref="C29:S32"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:S32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.500000"/>
+  <cols>
+    <col min="19" max="19" width="13.88000011" customWidth="1" outlineLevel="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19">
+      <c r="A1" s="522">
+        <v>1</v>
+      </c>
+      <c r="B1" s="361"/>
+      <c r="C1" s="523" t="s">
+        <v>623</v>
+      </c>
+      <c r="D1" s="361"/>
+      <c r="E1" s="361"/>
+      <c r="F1" s="361"/>
+      <c r="G1" s="361"/>
+      <c r="H1" s="361"/>
+      <c r="I1" s="361"/>
+      <c r="J1" s="361"/>
+      <c r="K1" s="361"/>
+      <c r="L1" s="361"/>
+      <c r="M1" s="361"/>
+      <c r="N1" s="361"/>
+      <c r="O1" s="361"/>
+      <c r="P1" s="361"/>
+      <c r="Q1" s="361"/>
+      <c r="R1" s="524" t="s">
+        <v>529</v>
+      </c>
+      <c r="S1" s="555">
+        <v>43601</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="266"/>
+      <c r="B2" s="259"/>
+      <c r="C2" s="259"/>
+      <c r="D2" s="259"/>
+      <c r="E2" s="259"/>
+      <c r="F2" s="259"/>
+      <c r="G2" s="259"/>
+      <c r="H2" s="259"/>
+      <c r="I2" s="259"/>
+      <c r="J2" s="259"/>
+      <c r="K2" s="259"/>
+      <c r="L2" s="259"/>
+      <c r="M2" s="259"/>
+      <c r="N2" s="259"/>
+      <c r="O2" s="259"/>
+      <c r="P2" s="259"/>
+      <c r="Q2" s="259"/>
+      <c r="R2" s="525"/>
+      <c r="S2" s="52"/>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" s="266"/>
+      <c r="B3" s="259"/>
+      <c r="C3" s="259"/>
+      <c r="D3" s="259"/>
+      <c r="E3" s="259"/>
+      <c r="F3" s="259"/>
+      <c r="G3" s="259"/>
+      <c r="H3" s="259"/>
+      <c r="I3" s="259"/>
+      <c r="J3" s="259"/>
+      <c r="K3" s="259"/>
+      <c r="L3" s="259"/>
+      <c r="M3" s="259"/>
+      <c r="N3" s="259"/>
+      <c r="O3" s="259"/>
+      <c r="P3" s="259"/>
+      <c r="Q3" s="259"/>
+      <c r="R3" s="525" t="s">
+        <v>530</v>
+      </c>
+      <c r="S3" s="555">
+        <v>43601</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="343"/>
+      <c r="B4" s="241"/>
+      <c r="C4" s="545" t="s">
+        <v>566</v>
+      </c>
+      <c r="D4" s="530"/>
+      <c r="E4" s="545" t="s">
+        <v>622</v>
+      </c>
+      <c r="F4" s="546"/>
+      <c r="G4" s="546"/>
+      <c r="H4" s="546"/>
+      <c r="I4" s="546"/>
+      <c r="J4" s="546"/>
+      <c r="K4" s="546"/>
+      <c r="L4" s="546"/>
+      <c r="M4" s="546"/>
+      <c r="N4" s="546"/>
+      <c r="O4" s="546"/>
+      <c r="P4" s="546"/>
+      <c r="Q4" s="530"/>
+      <c r="R4" s="525"/>
+      <c r="S4" s="52"/>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="343" t="s">
+        <v>561</v>
+      </c>
+      <c r="B5" s="241"/>
+      <c r="C5" s="241" t="s">
+        <v>583</v>
+      </c>
+      <c r="D5" s="241"/>
+      <c r="E5" s="241"/>
+      <c r="F5" s="241"/>
+      <c r="G5" s="241"/>
+      <c r="H5" s="241"/>
+      <c r="I5" s="241" t="s">
+        <v>562</v>
+      </c>
+      <c r="J5" s="241"/>
+      <c r="K5" s="259" t="s">
+        <v>581</v>
+      </c>
+      <c r="L5" s="259"/>
+      <c r="M5" s="259"/>
+      <c r="N5" s="259"/>
+      <c r="O5" s="259"/>
+      <c r="P5" s="241"/>
+      <c r="Q5" s="241"/>
+      <c r="R5" s="553" t="s">
+        <v>531</v>
+      </c>
+      <c r="S5" s="349" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="343" t="s">
+        <v>563</v>
+      </c>
+      <c r="B6" s="241"/>
+      <c r="C6" s="241" t="s">
+        <v>469</v>
+      </c>
+      <c r="D6" s="241"/>
+      <c r="E6" s="241"/>
+      <c r="F6" s="241"/>
+      <c r="G6" s="241"/>
+      <c r="H6" s="241"/>
+      <c r="I6" s="241" t="s">
+        <v>582</v>
+      </c>
+      <c r="J6" s="241"/>
+      <c r="K6" s="241" t="s">
+        <v>630</v>
+      </c>
+      <c r="L6" s="241"/>
+      <c r="M6" s="241"/>
+      <c r="N6" s="241"/>
+      <c r="O6" s="241"/>
+      <c r="P6" s="241"/>
+      <c r="Q6" s="241"/>
+      <c r="R6" s="554"/>
+      <c r="S6" s="349"/>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="538" t="s">
+        <v>519</v>
+      </c>
+      <c r="B7" s="539"/>
+      <c r="C7" s="560" t="s">
+        <v>637</v>
+      </c>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="52"/>
+      <c r="O7" s="52"/>
+      <c r="P7" s="52"/>
+      <c r="Q7" s="52"/>
+      <c r="R7" s="52"/>
+      <c r="S7" s="52"/>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="187"/>
+      <c r="B8" s="253"/>
+      <c r="C8" s="516"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="52"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="52"/>
+      <c r="Q8" s="52"/>
+      <c r="R8" s="52"/>
+      <c r="S8" s="52"/>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" s="187"/>
+      <c r="B9" s="253"/>
+      <c r="C9" s="516"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="52"/>
+      <c r="O9" s="52"/>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="52"/>
+      <c r="R9" s="52"/>
+      <c r="S9" s="52"/>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" s="187"/>
+      <c r="B10" s="253"/>
+      <c r="C10" s="516"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="52"/>
+      <c r="O10" s="52"/>
+      <c r="P10" s="52"/>
+      <c r="Q10" s="52"/>
+      <c r="R10" s="52"/>
+      <c r="S10" s="52"/>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="187"/>
+      <c r="B11" s="253"/>
+      <c r="C11" s="516"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="52"/>
+      <c r="O11" s="52"/>
+      <c r="P11" s="52"/>
+      <c r="Q11" s="52"/>
+      <c r="R11" s="52"/>
+      <c r="S11" s="52"/>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="187"/>
+      <c r="B12" s="253"/>
+      <c r="C12" s="516"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="52"/>
+      <c r="O12" s="52"/>
+      <c r="P12" s="52"/>
+      <c r="Q12" s="52"/>
+      <c r="R12" s="52"/>
+      <c r="S12" s="52"/>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="187"/>
+      <c r="B13" s="253"/>
+      <c r="C13" s="516"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="52"/>
+      <c r="O13" s="52"/>
+      <c r="P13" s="52"/>
+      <c r="Q13" s="52"/>
+      <c r="R13" s="52"/>
+      <c r="S13" s="52"/>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" s="187"/>
+      <c r="B14" s="253"/>
+      <c r="C14" s="516"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="52"/>
+      <c r="O14" s="52"/>
+      <c r="P14" s="52"/>
+      <c r="Q14" s="52"/>
+      <c r="R14" s="52"/>
+      <c r="S14" s="52"/>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" s="556"/>
+      <c r="B15" s="254"/>
+      <c r="C15" s="516"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="52"/>
+      <c r="N15" s="52"/>
+      <c r="O15" s="52"/>
+      <c r="P15" s="52"/>
+      <c r="Q15" s="52"/>
+      <c r="R15" s="52"/>
+      <c r="S15" s="52"/>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" s="538" t="s">
+        <v>585</v>
+      </c>
+      <c r="B16" s="539"/>
+      <c r="C16" s="516"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="52"/>
+      <c r="M16" s="52"/>
+      <c r="N16" s="52"/>
+      <c r="O16" s="52"/>
+      <c r="P16" s="52"/>
+      <c r="Q16" s="52"/>
+      <c r="R16" s="52"/>
+      <c r="S16" s="52"/>
+    </row>
+    <row r="17" spans="1:19">
+      <c r="A17" s="187"/>
+      <c r="B17" s="253"/>
+      <c r="C17" s="516"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="52"/>
+      <c r="O17" s="52"/>
+      <c r="P17" s="52"/>
+      <c r="Q17" s="52"/>
+      <c r="R17" s="52"/>
+      <c r="S17" s="52"/>
+    </row>
+    <row r="18" spans="1:19">
+      <c r="A18" s="187"/>
+      <c r="B18" s="253"/>
+      <c r="C18" s="516"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="52"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="52"/>
+      <c r="O18" s="52"/>
+      <c r="P18" s="52"/>
+      <c r="Q18" s="52"/>
+      <c r="R18" s="52"/>
+      <c r="S18" s="52"/>
+    </row>
+    <row r="19" spans="1:19">
+      <c r="A19" s="187"/>
+      <c r="B19" s="253"/>
+      <c r="C19" s="516"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="52"/>
+      <c r="O19" s="52"/>
+      <c r="P19" s="52"/>
+      <c r="Q19" s="52"/>
+      <c r="R19" s="52"/>
+      <c r="S19" s="52"/>
+    </row>
+    <row r="20" spans="1:19">
+      <c r="A20" s="187"/>
+      <c r="B20" s="253"/>
+      <c r="C20" s="516"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="52"/>
+      <c r="O20" s="52"/>
+      <c r="P20" s="52"/>
+      <c r="Q20" s="52"/>
+      <c r="R20" s="52"/>
+      <c r="S20" s="52"/>
+    </row>
+    <row r="21" spans="1:19">
+      <c r="A21" s="187"/>
+      <c r="B21" s="253"/>
+      <c r="C21" s="516"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="52"/>
+      <c r="N21" s="52"/>
+      <c r="O21" s="52"/>
+      <c r="P21" s="52"/>
+      <c r="Q21" s="52"/>
+      <c r="R21" s="52"/>
+      <c r="S21" s="52"/>
+    </row>
+    <row r="22" spans="1:19">
+      <c r="A22" s="187"/>
+      <c r="B22" s="253"/>
+      <c r="C22" s="516"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="52"/>
+      <c r="N22" s="52"/>
+      <c r="O22" s="52"/>
+      <c r="P22" s="52"/>
+      <c r="Q22" s="52"/>
+      <c r="R22" s="52"/>
+      <c r="S22" s="52"/>
+    </row>
+    <row r="23" spans="1:19">
+      <c r="A23" s="187"/>
+      <c r="B23" s="253"/>
+      <c r="C23" s="516"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="52"/>
+      <c r="N23" s="52"/>
+      <c r="O23" s="52"/>
+      <c r="P23" s="52"/>
+      <c r="Q23" s="52"/>
+      <c r="R23" s="52"/>
+      <c r="S23" s="52"/>
+    </row>
+    <row r="24" spans="1:19">
+      <c r="A24" s="187"/>
+      <c r="B24" s="253"/>
+      <c r="C24" s="516"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="52"/>
+      <c r="M24" s="52"/>
+      <c r="N24" s="52"/>
+      <c r="O24" s="52"/>
+      <c r="P24" s="52"/>
+      <c r="Q24" s="52"/>
+      <c r="R24" s="52"/>
+      <c r="S24" s="52"/>
+    </row>
+    <row r="25" spans="1:19">
+      <c r="A25" s="187"/>
+      <c r="B25" s="253"/>
+      <c r="C25" s="516"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="52"/>
+      <c r="M25" s="52"/>
+      <c r="N25" s="52"/>
+      <c r="O25" s="52"/>
+      <c r="P25" s="52"/>
+      <c r="Q25" s="52"/>
+      <c r="R25" s="52"/>
+      <c r="S25" s="52"/>
+    </row>
+    <row r="26" spans="1:19">
+      <c r="A26" s="187"/>
+      <c r="B26" s="253"/>
+      <c r="C26" s="516"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="52"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="52"/>
+      <c r="L26" s="52"/>
+      <c r="M26" s="52"/>
+      <c r="N26" s="52"/>
+      <c r="O26" s="52"/>
+      <c r="P26" s="52"/>
+      <c r="Q26" s="52"/>
+      <c r="R26" s="52"/>
+      <c r="S26" s="52"/>
+    </row>
+    <row r="27" spans="1:19">
+      <c r="A27" s="187"/>
+      <c r="B27" s="253"/>
+      <c r="C27" s="516"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="52"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="52"/>
+      <c r="L27" s="52"/>
+      <c r="M27" s="52"/>
+      <c r="N27" s="52"/>
+      <c r="O27" s="52"/>
+      <c r="P27" s="52"/>
+      <c r="Q27" s="52"/>
+      <c r="R27" s="52"/>
+      <c r="S27" s="52"/>
+    </row>
+    <row r="28" spans="1:19">
+      <c r="A28" s="556"/>
+      <c r="B28" s="254"/>
+      <c r="C28" s="516"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="52"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="52"/>
+      <c r="L28" s="52"/>
+      <c r="M28" s="52"/>
+      <c r="N28" s="52"/>
+      <c r="O28" s="52"/>
+      <c r="P28" s="52"/>
+      <c r="Q28" s="52"/>
+      <c r="R28" s="52"/>
+      <c r="S28" s="52"/>
+    </row>
+    <row r="29" spans="1:19">
+      <c r="A29" s="538" t="s">
+        <v>565</v>
+      </c>
+      <c r="B29" s="539"/>
+      <c r="C29" s="516" t="s">
+        <v>607</v>
+      </c>
+      <c r="D29" s="52"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="52"/>
+      <c r="J29" s="52"/>
+      <c r="K29" s="52"/>
+      <c r="L29" s="52"/>
+      <c r="M29" s="52"/>
+      <c r="N29" s="52"/>
+      <c r="O29" s="52"/>
+      <c r="P29" s="52"/>
+      <c r="Q29" s="52"/>
+      <c r="R29" s="52"/>
+      <c r="S29" s="16"/>
+    </row>
+    <row r="30" spans="1:19">
+      <c r="A30" s="187"/>
+      <c r="B30" s="253"/>
+      <c r="C30" s="516"/>
+      <c r="D30" s="52"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="52"/>
+      <c r="J30" s="52"/>
+      <c r="K30" s="52"/>
+      <c r="L30" s="52"/>
+      <c r="M30" s="52"/>
+      <c r="N30" s="52"/>
+      <c r="O30" s="52"/>
+      <c r="P30" s="52"/>
+      <c r="Q30" s="52"/>
+      <c r="R30" s="52"/>
+      <c r="S30" s="16"/>
+    </row>
+    <row r="31" spans="1:19">
+      <c r="A31" s="187"/>
+      <c r="B31" s="253"/>
+      <c r="C31" s="516"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="52"/>
+      <c r="I31" s="52"/>
+      <c r="J31" s="52"/>
+      <c r="K31" s="52"/>
+      <c r="L31" s="52"/>
+      <c r="M31" s="52"/>
+      <c r="N31" s="52"/>
+      <c r="O31" s="52"/>
+      <c r="P31" s="52"/>
+      <c r="Q31" s="52"/>
+      <c r="R31" s="52"/>
+      <c r="S31" s="16"/>
+    </row>
+    <row r="32" spans="1:19">
+      <c r="A32" s="370"/>
+      <c r="B32" s="540"/>
+      <c r="C32" s="516"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="52"/>
+      <c r="I32" s="52"/>
+      <c r="J32" s="52"/>
+      <c r="K32" s="52"/>
+      <c r="L32" s="52"/>
+      <c r="M32" s="52"/>
+      <c r="N32" s="52"/>
+      <c r="O32" s="52"/>
+      <c r="P32" s="52"/>
+      <c r="Q32" s="52"/>
+      <c r="R32" s="52"/>
+      <c r="S32" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="A1:B4"/>
+    <mergeCell ref="C1:Q3"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:Q4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:Q6"/>
+    <mergeCell ref="A7:B15"/>
+    <mergeCell ref="C7:S15"/>
+    <mergeCell ref="A16:B28"/>
+    <mergeCell ref="C16:S28"/>
+    <mergeCell ref="A29:B32"/>
+    <mergeCell ref="C29:S32"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:S15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.500000"/>
+  <sheetData>
+    <row r="1" spans="1:19">
+      <c r="A1" s="522">
+        <v>1</v>
+      </c>
+      <c r="B1" s="361"/>
+      <c r="C1" s="563" t="s">
+        <v>639</v>
+      </c>
+      <c r="D1" s="361"/>
+      <c r="E1" s="361"/>
+      <c r="F1" s="361"/>
+      <c r="G1" s="361"/>
+      <c r="H1" s="361"/>
+      <c r="I1" s="361"/>
+      <c r="J1" s="361"/>
+      <c r="K1" s="361"/>
+      <c r="L1" s="361"/>
+      <c r="M1" s="361"/>
+      <c r="N1" s="361"/>
+      <c r="O1" s="361"/>
+      <c r="P1" s="361"/>
+      <c r="Q1" s="361"/>
+      <c r="R1" s="524" t="s">
+        <v>529</v>
+      </c>
+      <c r="S1" s="555">
+        <v>43601</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="266"/>
+      <c r="B2" s="259"/>
+      <c r="C2" s="259"/>
+      <c r="D2" s="259"/>
+      <c r="E2" s="259"/>
+      <c r="F2" s="259"/>
+      <c r="G2" s="259"/>
+      <c r="H2" s="259"/>
+      <c r="I2" s="259"/>
+      <c r="J2" s="259"/>
+      <c r="K2" s="259"/>
+      <c r="L2" s="259"/>
+      <c r="M2" s="259"/>
+      <c r="N2" s="259"/>
+      <c r="O2" s="259"/>
+      <c r="P2" s="259"/>
+      <c r="Q2" s="259"/>
+      <c r="R2" s="525"/>
+      <c r="S2" s="52"/>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" s="266"/>
+      <c r="B3" s="259"/>
+      <c r="C3" s="259"/>
+      <c r="D3" s="259"/>
+      <c r="E3" s="259"/>
+      <c r="F3" s="259"/>
+      <c r="G3" s="259"/>
+      <c r="H3" s="259"/>
+      <c r="I3" s="259"/>
+      <c r="J3" s="259"/>
+      <c r="K3" s="259"/>
+      <c r="L3" s="259"/>
+      <c r="M3" s="259"/>
+      <c r="N3" s="259"/>
+      <c r="O3" s="259"/>
+      <c r="P3" s="259"/>
+      <c r="Q3" s="259"/>
+      <c r="R3" s="525" t="s">
+        <v>530</v>
+      </c>
+      <c r="S3" s="555">
+        <v>43601</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="343"/>
+      <c r="B4" s="241"/>
+      <c r="C4" s="545" t="s">
+        <v>566</v>
+      </c>
+      <c r="D4" s="530"/>
+      <c r="E4" s="545" t="s">
+        <v>642</v>
+      </c>
+      <c r="F4" s="546"/>
+      <c r="G4" s="546"/>
+      <c r="H4" s="546"/>
+      <c r="I4" s="546"/>
+      <c r="J4" s="546"/>
+      <c r="K4" s="546"/>
+      <c r="L4" s="546"/>
+      <c r="M4" s="546"/>
+      <c r="N4" s="546"/>
+      <c r="O4" s="546"/>
+      <c r="P4" s="546"/>
+      <c r="Q4" s="530"/>
+      <c r="R4" s="525"/>
+      <c r="S4" s="52"/>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="343" t="s">
+        <v>561</v>
+      </c>
+      <c r="B5" s="241"/>
+      <c r="C5" s="241" t="s">
+        <v>583</v>
+      </c>
+      <c r="D5" s="241"/>
+      <c r="E5" s="241"/>
+      <c r="F5" s="241"/>
+      <c r="G5" s="241"/>
+      <c r="H5" s="241"/>
+      <c r="I5" s="241" t="s">
+        <v>562</v>
+      </c>
+      <c r="J5" s="241"/>
+      <c r="K5" s="259" t="s">
+        <v>581</v>
+      </c>
+      <c r="L5" s="259"/>
+      <c r="M5" s="259"/>
+      <c r="N5" s="259"/>
+      <c r="O5" s="259"/>
+      <c r="P5" s="241"/>
+      <c r="Q5" s="241"/>
+      <c r="R5" s="553" t="s">
+        <v>531</v>
+      </c>
+      <c r="S5" s="349" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="343" t="s">
+        <v>563</v>
+      </c>
+      <c r="B6" s="241"/>
+      <c r="C6" s="241" t="s">
+        <v>620</v>
+      </c>
+      <c r="D6" s="241"/>
+      <c r="E6" s="241"/>
+      <c r="F6" s="241"/>
+      <c r="G6" s="241"/>
+      <c r="H6" s="241"/>
+      <c r="I6" s="241" t="s">
+        <v>582</v>
+      </c>
+      <c r="J6" s="241"/>
+      <c r="K6" s="241" t="s">
+        <v>640</v>
+      </c>
+      <c r="L6" s="241"/>
+      <c r="M6" s="241"/>
+      <c r="N6" s="241"/>
+      <c r="O6" s="241"/>
+      <c r="P6" s="241"/>
+      <c r="Q6" s="241"/>
+      <c r="R6" s="554"/>
+      <c r="S6" s="349"/>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="538" t="s">
+        <v>519</v>
+      </c>
+      <c r="B7" s="539"/>
+      <c r="C7" s="560" t="s">
+        <v>641</v>
+      </c>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="52"/>
+      <c r="O7" s="52"/>
+      <c r="P7" s="52"/>
+      <c r="Q7" s="52"/>
+      <c r="R7" s="52"/>
+      <c r="S7" s="52"/>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="187"/>
+      <c r="B8" s="253"/>
+      <c r="C8" s="516"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="52"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="52"/>
+      <c r="Q8" s="52"/>
+      <c r="R8" s="52"/>
+      <c r="S8" s="52"/>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" s="187"/>
+      <c r="B9" s="253"/>
+      <c r="C9" s="516"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="52"/>
+      <c r="O9" s="52"/>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="52"/>
+      <c r="R9" s="52"/>
+      <c r="S9" s="52"/>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" s="187"/>
+      <c r="B10" s="253"/>
+      <c r="C10" s="516"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="52"/>
+      <c r="O10" s="52"/>
+      <c r="P10" s="52"/>
+      <c r="Q10" s="52"/>
+      <c r="R10" s="52"/>
+      <c r="S10" s="52"/>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="187"/>
+      <c r="B11" s="253"/>
+      <c r="C11" s="516"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="52"/>
+      <c r="O11" s="52"/>
+      <c r="P11" s="52"/>
+      <c r="Q11" s="52"/>
+      <c r="R11" s="52"/>
+      <c r="S11" s="52"/>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="187"/>
+      <c r="B12" s="253"/>
+      <c r="C12" s="516"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="52"/>
+      <c r="O12" s="52"/>
+      <c r="P12" s="52"/>
+      <c r="Q12" s="52"/>
+      <c r="R12" s="52"/>
+      <c r="S12" s="52"/>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="187"/>
+      <c r="B13" s="253"/>
+      <c r="C13" s="516"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="52"/>
+      <c r="O13" s="52"/>
+      <c r="P13" s="52"/>
+      <c r="Q13" s="52"/>
+      <c r="R13" s="52"/>
+      <c r="S13" s="52"/>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" s="187"/>
+      <c r="B14" s="253"/>
+      <c r="C14" s="516"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="52"/>
+      <c r="O14" s="52"/>
+      <c r="P14" s="52"/>
+      <c r="Q14" s="52"/>
+      <c r="R14" s="52"/>
+      <c r="S14" s="52"/>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" s="556"/>
+      <c r="B15" s="254"/>
+      <c r="C15" s="516"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="52"/>
+      <c r="N15" s="52"/>
+      <c r="O15" s="52"/>
+      <c r="P15" s="52"/>
+      <c r="Q15" s="52"/>
+      <c r="R15" s="52"/>
+      <c r="S15" s="52"/>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" s="538" t="s">
+        <v>585</v>
+      </c>
+      <c r="B16" s="539"/>
+      <c r="C16" s="516"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="52"/>
+      <c r="M16" s="52"/>
+      <c r="N16" s="52"/>
+      <c r="O16" s="52"/>
+      <c r="P16" s="52"/>
+      <c r="Q16" s="52"/>
+      <c r="R16" s="52"/>
+      <c r="S16" s="52"/>
+    </row>
+    <row r="17" spans="1:19">
+      <c r="A17" s="187"/>
+      <c r="B17" s="253"/>
+      <c r="C17" s="516"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="52"/>
+      <c r="O17" s="52"/>
+      <c r="P17" s="52"/>
+      <c r="Q17" s="52"/>
+      <c r="R17" s="52"/>
+      <c r="S17" s="52"/>
+    </row>
+    <row r="18" spans="1:19">
+      <c r="A18" s="187"/>
+      <c r="B18" s="253"/>
+      <c r="C18" s="516"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="52"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="52"/>
+      <c r="O18" s="52"/>
+      <c r="P18" s="52"/>
+      <c r="Q18" s="52"/>
+      <c r="R18" s="52"/>
+      <c r="S18" s="52"/>
+    </row>
+    <row r="19" spans="1:19">
+      <c r="A19" s="187"/>
+      <c r="B19" s="253"/>
+      <c r="C19" s="516"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="52"/>
+      <c r="O19" s="52"/>
+      <c r="P19" s="52"/>
+      <c r="Q19" s="52"/>
+      <c r="R19" s="52"/>
+      <c r="S19" s="52"/>
+    </row>
+    <row r="20" spans="1:19">
+      <c r="A20" s="187"/>
+      <c r="B20" s="253"/>
+      <c r="C20" s="516"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="52"/>
+      <c r="O20" s="52"/>
+      <c r="P20" s="52"/>
+      <c r="Q20" s="52"/>
+      <c r="R20" s="52"/>
+      <c r="S20" s="52"/>
+    </row>
+    <row r="21" spans="1:19">
+      <c r="A21" s="187"/>
+      <c r="B21" s="253"/>
+      <c r="C21" s="516"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="52"/>
+      <c r="N21" s="52"/>
+      <c r="O21" s="52"/>
+      <c r="P21" s="52"/>
+      <c r="Q21" s="52"/>
+      <c r="R21" s="52"/>
+      <c r="S21" s="52"/>
+    </row>
+    <row r="22" spans="1:19">
+      <c r="A22" s="187"/>
+      <c r="B22" s="253"/>
+      <c r="C22" s="516"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="52"/>
+      <c r="N22" s="52"/>
+      <c r="O22" s="52"/>
+      <c r="P22" s="52"/>
+      <c r="Q22" s="52"/>
+      <c r="R22" s="52"/>
+      <c r="S22" s="52"/>
+    </row>
+    <row r="23" spans="1:19">
+      <c r="A23" s="187"/>
+      <c r="B23" s="253"/>
+      <c r="C23" s="516"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="52"/>
+      <c r="N23" s="52"/>
+      <c r="O23" s="52"/>
+      <c r="P23" s="52"/>
+      <c r="Q23" s="52"/>
+      <c r="R23" s="52"/>
+      <c r="S23" s="52"/>
+    </row>
+    <row r="24" spans="1:19">
+      <c r="A24" s="187"/>
+      <c r="B24" s="253"/>
+      <c r="C24" s="516"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="52"/>
+      <c r="M24" s="52"/>
+      <c r="N24" s="52"/>
+      <c r="O24" s="52"/>
+      <c r="P24" s="52"/>
+      <c r="Q24" s="52"/>
+      <c r="R24" s="52"/>
+      <c r="S24" s="52"/>
+    </row>
+    <row r="25" spans="1:19">
+      <c r="A25" s="187"/>
+      <c r="B25" s="253"/>
+      <c r="C25" s="516"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="52"/>
+      <c r="M25" s="52"/>
+      <c r="N25" s="52"/>
+      <c r="O25" s="52"/>
+      <c r="P25" s="52"/>
+      <c r="Q25" s="52"/>
+      <c r="R25" s="52"/>
+      <c r="S25" s="52"/>
+    </row>
+    <row r="26" spans="1:19">
+      <c r="A26" s="187"/>
+      <c r="B26" s="253"/>
+      <c r="C26" s="516"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="52"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="52"/>
+      <c r="L26" s="52"/>
+      <c r="M26" s="52"/>
+      <c r="N26" s="52"/>
+      <c r="O26" s="52"/>
+      <c r="P26" s="52"/>
+      <c r="Q26" s="52"/>
+      <c r="R26" s="52"/>
+      <c r="S26" s="52"/>
+    </row>
+    <row r="27" spans="1:19">
+      <c r="A27" s="187"/>
+      <c r="B27" s="253"/>
+      <c r="C27" s="516"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="52"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="52"/>
+      <c r="L27" s="52"/>
+      <c r="M27" s="52"/>
+      <c r="N27" s="52"/>
+      <c r="O27" s="52"/>
+      <c r="P27" s="52"/>
+      <c r="Q27" s="52"/>
+      <c r="R27" s="52"/>
+      <c r="S27" s="52"/>
+    </row>
+    <row r="28" spans="1:19">
+      <c r="A28" s="556"/>
+      <c r="B28" s="254"/>
+      <c r="C28" s="516"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="52"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="52"/>
+      <c r="L28" s="52"/>
+      <c r="M28" s="52"/>
+      <c r="N28" s="52"/>
+      <c r="O28" s="52"/>
+      <c r="P28" s="52"/>
+      <c r="Q28" s="52"/>
+      <c r="R28" s="52"/>
+      <c r="S28" s="52"/>
+    </row>
+    <row r="29" spans="1:19">
+      <c r="A29" s="538" t="s">
+        <v>565</v>
+      </c>
+      <c r="B29" s="539"/>
+      <c r="C29" s="516" t="s">
+        <v>607</v>
+      </c>
+      <c r="D29" s="52"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="52"/>
+      <c r="J29" s="52"/>
+      <c r="K29" s="52"/>
+      <c r="L29" s="52"/>
+      <c r="M29" s="52"/>
+      <c r="N29" s="52"/>
+      <c r="O29" s="52"/>
+      <c r="P29" s="52"/>
+      <c r="Q29" s="52"/>
+      <c r="R29" s="52"/>
+      <c r="S29" s="16"/>
+    </row>
+    <row r="30" spans="1:19">
+      <c r="A30" s="187"/>
+      <c r="B30" s="253"/>
+      <c r="C30" s="516"/>
+      <c r="D30" s="52"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="52"/>
+      <c r="J30" s="52"/>
+      <c r="K30" s="52"/>
+      <c r="L30" s="52"/>
+      <c r="M30" s="52"/>
+      <c r="N30" s="52"/>
+      <c r="O30" s="52"/>
+      <c r="P30" s="52"/>
+      <c r="Q30" s="52"/>
+      <c r="R30" s="52"/>
+      <c r="S30" s="16"/>
+    </row>
+    <row r="31" spans="1:19">
+      <c r="A31" s="187"/>
+      <c r="B31" s="253"/>
+      <c r="C31" s="516"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="52"/>
+      <c r="I31" s="52"/>
+      <c r="J31" s="52"/>
+      <c r="K31" s="52"/>
+      <c r="L31" s="52"/>
+      <c r="M31" s="52"/>
+      <c r="N31" s="52"/>
+      <c r="O31" s="52"/>
+      <c r="P31" s="52"/>
+      <c r="Q31" s="52"/>
+      <c r="R31" s="52"/>
+      <c r="S31" s="16"/>
+    </row>
+    <row r="32" spans="1:19">
+      <c r="A32" s="370"/>
+      <c r="B32" s="540"/>
+      <c r="C32" s="516"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="52"/>
+      <c r="I32" s="52"/>
+      <c r="J32" s="52"/>
+      <c r="K32" s="52"/>
+      <c r="L32" s="52"/>
+      <c r="M32" s="52"/>
+      <c r="N32" s="52"/>
+      <c r="O32" s="52"/>
+      <c r="P32" s="52"/>
+      <c r="Q32" s="52"/>
+      <c r="R32" s="52"/>
+      <c r="S32" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="A1:B4"/>
+    <mergeCell ref="C1:Q3"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:Q4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:Q6"/>
+    <mergeCell ref="A7:B15"/>
+    <mergeCell ref="C7:S15"/>
+    <mergeCell ref="A16:B28"/>
+    <mergeCell ref="C16:S28"/>
+    <mergeCell ref="A29:B32"/>
+    <mergeCell ref="C29:S32"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
@@ -12404,7 +15210,7 @@
   <dimension ref="A1:T32"/>
   <sheetViews>
     <sheetView zoomScale="120" workbookViewId="0">
-      <selection activeCell="S5" sqref="S5:S6"/>
+      <selection activeCell="A1" sqref="A1:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -12416,11 +15222,11 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" s="522">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1" s="361"/>
-      <c r="C1" s="523" t="s">
-        <v>589</v>
+      <c r="C1" s="563" t="s">
+        <v>643</v>
       </c>
       <c r="D1" s="361"/>
       <c r="E1" s="361"/>
@@ -12500,7 +15306,7 @@
       </c>
       <c r="D4" s="530"/>
       <c r="E4" s="545" t="s">
-        <v>590</v>
+        <v>646</v>
       </c>
       <c r="F4" s="546"/>
       <c r="G4" s="546"/>
@@ -12536,7 +15342,7 @@
       </c>
       <c r="J5" s="241"/>
       <c r="K5" s="259" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="L5" s="259"/>
       <c r="M5" s="259"/>
@@ -12569,7 +15375,7 @@
       </c>
       <c r="J6" s="241"/>
       <c r="K6" s="241" t="s">
-        <v>588</v>
+        <v>644</v>
       </c>
       <c r="L6" s="241"/>
       <c r="M6" s="241"/>
@@ -12586,7 +15392,7 @@
       </c>
       <c r="B7" s="539"/>
       <c r="C7" s="560" t="s">
-        <v>593</v>
+        <v>647</v>
       </c>
       <c r="D7" s="52"/>
       <c r="E7" s="52"/>
@@ -13062,7 +15868,9 @@
       <c r="T28" s="50"/>
     </row>
     <row r="29" spans="1:20">
-      <c r="A29" s="538"/>
+      <c r="A29" s="538" t="s">
+        <v>565</v>
+      </c>
       <c r="B29" s="539"/>
       <c r="C29" s="516"/>
       <c r="D29" s="52"/>
@@ -13181,24 +15989,26 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S32"/>
+  <dimension ref="A1:T32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:Q4"/>
+    <sheetView zoomScale="120" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
   <cols>
-    <col min="19" max="19" width="13.88000011" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" width="10.25500011" customWidth="1" outlineLevel="0"/>
+    <col min="18" max="18" width="11.63000011" customWidth="1" outlineLevel="0"/>
+    <col min="19" max="19" width="20.50499916" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:20">
       <c r="A1" s="522">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B1" s="361"/>
       <c r="C1" s="563" t="s">
-        <v>628</v>
+        <v>648</v>
       </c>
       <c r="D1" s="361"/>
       <c r="E1" s="361"/>
@@ -13220,8 +16030,9 @@
       <c r="S1" s="555">
         <v>43601</v>
       </c>
-    </row>
-    <row r="2" spans="1:19">
+      <c r="T1" s="50"/>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="266"/>
       <c r="B2" s="259"/>
       <c r="C2" s="259"/>
@@ -13241,8 +16052,9 @@
       <c r="Q2" s="259"/>
       <c r="R2" s="525"/>
       <c r="S2" s="52"/>
-    </row>
-    <row r="3" spans="1:19">
+      <c r="T2" s="50"/>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="266"/>
       <c r="B3" s="259"/>
       <c r="C3" s="259"/>
@@ -13266,8 +16078,9 @@
       <c r="S3" s="555">
         <v>43601</v>
       </c>
-    </row>
-    <row r="4" spans="1:19">
+      <c r="T3" s="50"/>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="343"/>
       <c r="B4" s="241"/>
       <c r="C4" s="545" t="s">
@@ -13275,7 +16088,7 @@
       </c>
       <c r="D4" s="530"/>
       <c r="E4" s="545" t="s">
-        <v>629</v>
+        <v>653</v>
       </c>
       <c r="F4" s="546"/>
       <c r="G4" s="546"/>
@@ -13291,8 +16104,9 @@
       <c r="Q4" s="530"/>
       <c r="R4" s="525"/>
       <c r="S4" s="52"/>
-    </row>
-    <row r="5" spans="1:19">
+      <c r="T4" s="50"/>
+    </row>
+    <row r="5" spans="1:20" ht="24.000000" customHeight="1">
       <c r="A5" s="343" t="s">
         <v>561</v>
       </c>
@@ -13325,13 +16139,13 @@
         <v>584</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:20" ht="24.750000" customHeight="1">
       <c r="A6" s="343" t="s">
         <v>563</v>
       </c>
       <c r="B6" s="241"/>
       <c r="C6" s="241" t="s">
-        <v>620</v>
+        <v>469</v>
       </c>
       <c r="D6" s="241"/>
       <c r="E6" s="241"/>
@@ -13343,7 +16157,7 @@
       </c>
       <c r="J6" s="241"/>
       <c r="K6" s="241" t="s">
-        <v>621</v>
+        <v>650</v>
       </c>
       <c r="L6" s="241"/>
       <c r="M6" s="241"/>
@@ -13354,13 +16168,13 @@
       <c r="R6" s="554"/>
       <c r="S6" s="349"/>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:20">
       <c r="A7" s="538" t="s">
         <v>519</v>
       </c>
       <c r="B7" s="539"/>
       <c r="C7" s="560" t="s">
-        <v>627</v>
+        <v>652</v>
       </c>
       <c r="D7" s="52"/>
       <c r="E7" s="52"/>
@@ -13379,7 +16193,7 @@
       <c r="R7" s="52"/>
       <c r="S7" s="52"/>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:20">
       <c r="A8" s="187"/>
       <c r="B8" s="253"/>
       <c r="C8" s="516"/>
@@ -13400,7 +16214,7 @@
       <c r="R8" s="52"/>
       <c r="S8" s="52"/>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:20">
       <c r="A9" s="187"/>
       <c r="B9" s="253"/>
       <c r="C9" s="516"/>
@@ -13421,7 +16235,7 @@
       <c r="R9" s="52"/>
       <c r="S9" s="52"/>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:20">
       <c r="A10" s="187"/>
       <c r="B10" s="253"/>
       <c r="C10" s="516"/>
@@ -13442,7 +16256,7 @@
       <c r="R10" s="52"/>
       <c r="S10" s="52"/>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:20">
       <c r="A11" s="187"/>
       <c r="B11" s="253"/>
       <c r="C11" s="516"/>
@@ -13463,7 +16277,7 @@
       <c r="R11" s="52"/>
       <c r="S11" s="52"/>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:20">
       <c r="A12" s="187"/>
       <c r="B12" s="253"/>
       <c r="C12" s="516"/>
@@ -13484,7 +16298,7 @@
       <c r="R12" s="52"/>
       <c r="S12" s="52"/>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:20">
       <c r="A13" s="187"/>
       <c r="B13" s="253"/>
       <c r="C13" s="516"/>
@@ -13505,7 +16319,7 @@
       <c r="R13" s="52"/>
       <c r="S13" s="52"/>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:20">
       <c r="A14" s="187"/>
       <c r="B14" s="253"/>
       <c r="C14" s="516"/>
@@ -13526,7 +16340,7 @@
       <c r="R14" s="52"/>
       <c r="S14" s="52"/>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:20">
       <c r="A15" s="556"/>
       <c r="B15" s="254"/>
       <c r="C15" s="516"/>
@@ -13547,7 +16361,7 @@
       <c r="R15" s="52"/>
       <c r="S15" s="52"/>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:20">
       <c r="A16" s="538" t="s">
         <v>585</v>
       </c>
@@ -13569,8 +16383,9 @@
       <c r="Q16" s="52"/>
       <c r="R16" s="52"/>
       <c r="S16" s="52"/>
-    </row>
-    <row r="17" spans="1:19">
+      <c r="T16" s="50"/>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="187"/>
       <c r="B17" s="253"/>
       <c r="C17" s="516"/>
@@ -13590,8 +16405,9 @@
       <c r="Q17" s="52"/>
       <c r="R17" s="52"/>
       <c r="S17" s="52"/>
-    </row>
-    <row r="18" spans="1:19">
+      <c r="T17" s="50"/>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="187"/>
       <c r="B18" s="253"/>
       <c r="C18" s="516"/>
@@ -13611,8 +16427,9 @@
       <c r="Q18" s="52"/>
       <c r="R18" s="52"/>
       <c r="S18" s="52"/>
-    </row>
-    <row r="19" spans="1:19">
+      <c r="T18" s="50"/>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="187"/>
       <c r="B19" s="253"/>
       <c r="C19" s="516"/>
@@ -13632,8 +16449,9 @@
       <c r="Q19" s="52"/>
       <c r="R19" s="52"/>
       <c r="S19" s="52"/>
-    </row>
-    <row r="20" spans="1:19">
+      <c r="T19" s="50"/>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="187"/>
       <c r="B20" s="253"/>
       <c r="C20" s="516"/>
@@ -13653,8 +16471,9 @@
       <c r="Q20" s="52"/>
       <c r="R20" s="52"/>
       <c r="S20" s="52"/>
-    </row>
-    <row r="21" spans="1:19">
+      <c r="T20" s="50"/>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="187"/>
       <c r="B21" s="253"/>
       <c r="C21" s="516"/>
@@ -13674,8 +16493,9 @@
       <c r="Q21" s="52"/>
       <c r="R21" s="52"/>
       <c r="S21" s="52"/>
-    </row>
-    <row r="22" spans="1:19">
+      <c r="T21" s="50"/>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="187"/>
       <c r="B22" s="253"/>
       <c r="C22" s="516"/>
@@ -13695,8 +16515,9 @@
       <c r="Q22" s="52"/>
       <c r="R22" s="52"/>
       <c r="S22" s="52"/>
-    </row>
-    <row r="23" spans="1:19">
+      <c r="T22" s="50"/>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="187"/>
       <c r="B23" s="253"/>
       <c r="C23" s="516"/>
@@ -13716,8 +16537,9 @@
       <c r="Q23" s="52"/>
       <c r="R23" s="52"/>
       <c r="S23" s="52"/>
-    </row>
-    <row r="24" spans="1:19">
+      <c r="T23" s="50"/>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="187"/>
       <c r="B24" s="253"/>
       <c r="C24" s="516"/>
@@ -13737,8 +16559,9 @@
       <c r="Q24" s="52"/>
       <c r="R24" s="52"/>
       <c r="S24" s="52"/>
-    </row>
-    <row r="25" spans="1:19">
+      <c r="T24" s="50"/>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="187"/>
       <c r="B25" s="253"/>
       <c r="C25" s="516"/>
@@ -13758,8 +16581,9 @@
       <c r="Q25" s="52"/>
       <c r="R25" s="52"/>
       <c r="S25" s="52"/>
-    </row>
-    <row r="26" spans="1:19">
+      <c r="T25" s="50"/>
+    </row>
+    <row r="26" spans="1:20">
       <c r="A26" s="187"/>
       <c r="B26" s="253"/>
       <c r="C26" s="516"/>
@@ -13779,8 +16603,9 @@
       <c r="Q26" s="52"/>
       <c r="R26" s="52"/>
       <c r="S26" s="52"/>
-    </row>
-    <row r="27" spans="1:19">
+      <c r="T26" s="50"/>
+    </row>
+    <row r="27" spans="1:20">
       <c r="A27" s="187"/>
       <c r="B27" s="253"/>
       <c r="C27" s="516"/>
@@ -13800,8 +16625,9 @@
       <c r="Q27" s="52"/>
       <c r="R27" s="52"/>
       <c r="S27" s="52"/>
-    </row>
-    <row r="28" spans="1:19">
+      <c r="T27" s="50"/>
+    </row>
+    <row r="28" spans="1:20">
       <c r="A28" s="556"/>
       <c r="B28" s="254"/>
       <c r="C28" s="516"/>
@@ -13821,15 +16647,14 @@
       <c r="Q28" s="52"/>
       <c r="R28" s="52"/>
       <c r="S28" s="52"/>
-    </row>
-    <row r="29" spans="1:19">
+      <c r="T28" s="50"/>
+    </row>
+    <row r="29" spans="1:20">
       <c r="A29" s="538" t="s">
         <v>565</v>
       </c>
       <c r="B29" s="539"/>
-      <c r="C29" s="516" t="s">
-        <v>607</v>
-      </c>
+      <c r="C29" s="516"/>
       <c r="D29" s="52"/>
       <c r="E29" s="52"/>
       <c r="F29" s="52"/>
@@ -13847,7 +16672,7 @@
       <c r="R29" s="52"/>
       <c r="S29" s="16"/>
     </row>
-    <row r="30" spans="1:19">
+    <row r="30" spans="1:20">
       <c r="A30" s="187"/>
       <c r="B30" s="253"/>
       <c r="C30" s="516"/>
@@ -13868,7 +16693,7 @@
       <c r="R30" s="52"/>
       <c r="S30" s="16"/>
     </row>
-    <row r="31" spans="1:19">
+    <row r="31" spans="1:20">
       <c r="A31" s="187"/>
       <c r="B31" s="253"/>
       <c r="C31" s="516"/>
@@ -13889,7 +16714,7 @@
       <c r="R31" s="52"/>
       <c r="S31" s="16"/>
     </row>
-    <row r="32" spans="1:19">
+    <row r="32" spans="1:20">
       <c r="A32" s="370"/>
       <c r="B32" s="540"/>
       <c r="C32" s="516"/>
@@ -13949,7 +16774,7 @@
   <dimension ref="A1:T32"/>
   <sheetViews>
     <sheetView zoomScale="120" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16:S28"/>
+      <selection activeCell="A1" sqref="A1:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -13961,11 +16786,11 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" s="522">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B1" s="361"/>
-      <c r="C1" s="523" t="s">
-        <v>594</v>
+      <c r="C1" s="563" t="s">
+        <v>654</v>
       </c>
       <c r="D1" s="361"/>
       <c r="E1" s="361"/>
@@ -14045,7 +16870,7 @@
       </c>
       <c r="D4" s="530"/>
       <c r="E4" s="545" t="s">
-        <v>598</v>
+        <v>655</v>
       </c>
       <c r="F4" s="546"/>
       <c r="G4" s="546"/>
@@ -14081,7 +16906,7 @@
       </c>
       <c r="J5" s="241"/>
       <c r="K5" s="259" t="s">
-        <v>595</v>
+        <v>581</v>
       </c>
       <c r="L5" s="259"/>
       <c r="M5" s="259"/>
@@ -14102,7 +16927,7 @@
       </c>
       <c r="B6" s="241"/>
       <c r="C6" s="241" t="s">
-        <v>597</v>
+        <v>469</v>
       </c>
       <c r="D6" s="241"/>
       <c r="E6" s="241"/>
@@ -14114,7 +16939,7 @@
       </c>
       <c r="J6" s="241"/>
       <c r="K6" s="241" t="s">
-        <v>596</v>
+        <v>656</v>
       </c>
       <c r="L6" s="241"/>
       <c r="M6" s="241"/>
@@ -14131,7 +16956,7 @@
       </c>
       <c r="B7" s="539"/>
       <c r="C7" s="560" t="s">
-        <v>602</v>
+        <v>659</v>
       </c>
       <c r="D7" s="52"/>
       <c r="E7" s="52"/>
@@ -14607,9 +17432,13 @@
       <c r="T28" s="50"/>
     </row>
     <row r="29" spans="1:20">
-      <c r="A29" s="538"/>
+      <c r="A29" s="538" t="s">
+        <v>565</v>
+      </c>
       <c r="B29" s="539"/>
-      <c r="C29" s="516"/>
+      <c r="C29" s="516" t="s">
+        <v>660</v>
+      </c>
       <c r="D29" s="52"/>
       <c r="E29" s="52"/>
       <c r="F29" s="52"/>
@@ -14728,8 +17557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T32"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="120" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6:Q6"/>
+    <sheetView zoomScale="120" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -14741,11 +17570,11 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" s="522">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B1" s="361"/>
       <c r="C1" s="523" t="s">
-        <v>603</v>
+        <v>589</v>
       </c>
       <c r="D1" s="361"/>
       <c r="E1" s="361"/>
@@ -14825,7 +17654,7 @@
       </c>
       <c r="D4" s="530"/>
       <c r="E4" s="545" t="s">
-        <v>580</v>
+        <v>590</v>
       </c>
       <c r="F4" s="546"/>
       <c r="G4" s="546"/>
@@ -14861,7 +17690,7 @@
       </c>
       <c r="J5" s="241"/>
       <c r="K5" s="259" t="s">
-        <v>581</v>
+        <v>591</v>
       </c>
       <c r="L5" s="259"/>
       <c r="M5" s="259"/>
@@ -14894,7 +17723,7 @@
       </c>
       <c r="J6" s="241"/>
       <c r="K6" s="241" t="s">
-        <v>604</v>
+        <v>588</v>
       </c>
       <c r="L6" s="241"/>
       <c r="M6" s="241"/>
@@ -14911,7 +17740,7 @@
       </c>
       <c r="B7" s="539"/>
       <c r="C7" s="560" t="s">
-        <v>605</v>
+        <v>593</v>
       </c>
       <c r="D7" s="52"/>
       <c r="E7" s="52"/>
@@ -15387,9 +18216,7 @@
       <c r="T28" s="50"/>
     </row>
     <row r="29" spans="1:20">
-      <c r="A29" s="538" t="s">
-        <v>565</v>
-      </c>
+      <c r="A29" s="538"/>
       <c r="B29" s="539"/>
       <c r="C29" s="516"/>
       <c r="D29" s="52"/>
@@ -15510,8 +18337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T32"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="120" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:S32"/>
+    <sheetView zoomScale="120" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -15523,11 +18350,11 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" s="522">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B1" s="361"/>
       <c r="C1" s="523" t="s">
-        <v>608</v>
+        <v>594</v>
       </c>
       <c r="D1" s="361"/>
       <c r="E1" s="361"/>
@@ -15607,7 +18434,7 @@
       </c>
       <c r="D4" s="530"/>
       <c r="E4" s="545" t="s">
-        <v>609</v>
+        <v>598</v>
       </c>
       <c r="F4" s="546"/>
       <c r="G4" s="546"/>
@@ -15643,7 +18470,7 @@
       </c>
       <c r="J5" s="241"/>
       <c r="K5" s="259" t="s">
-        <v>581</v>
+        <v>595</v>
       </c>
       <c r="L5" s="259"/>
       <c r="M5" s="259"/>
@@ -15664,7 +18491,7 @@
       </c>
       <c r="B6" s="241"/>
       <c r="C6" s="241" t="s">
-        <v>469</v>
+        <v>597</v>
       </c>
       <c r="D6" s="241"/>
       <c r="E6" s="241"/>
@@ -15676,7 +18503,7 @@
       </c>
       <c r="J6" s="241"/>
       <c r="K6" s="241" t="s">
-        <v>180</v>
+        <v>596</v>
       </c>
       <c r="L6" s="241"/>
       <c r="M6" s="241"/>
@@ -15693,7 +18520,7 @@
       </c>
       <c r="B7" s="539"/>
       <c r="C7" s="560" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="D7" s="52"/>
       <c r="E7" s="52"/>
@@ -16169,13 +18996,9 @@
       <c r="T28" s="50"/>
     </row>
     <row r="29" spans="1:20">
-      <c r="A29" s="538" t="s">
-        <v>565</v>
-      </c>
+      <c r="A29" s="538"/>
       <c r="B29" s="539"/>
-      <c r="C29" s="516" t="s">
-        <v>607</v>
-      </c>
+      <c r="C29" s="516"/>
       <c r="D29" s="52"/>
       <c r="E29" s="52"/>
       <c r="F29" s="52"/>
@@ -16292,24 +19115,26 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S32"/>
+  <dimension ref="A1:T32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:Q6"/>
+    <sheetView topLeftCell="A7" zoomScale="120" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
   <cols>
-    <col min="19" max="19" width="13.88000011" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" width="10.25500011" customWidth="1" outlineLevel="0"/>
+    <col min="18" max="18" width="11.63000011" customWidth="1" outlineLevel="0"/>
+    <col min="19" max="19" width="20.50499916" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:20">
       <c r="A1" s="522">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B1" s="361"/>
       <c r="C1" s="523" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="D1" s="361"/>
       <c r="E1" s="361"/>
@@ -16331,8 +19156,9 @@
       <c r="S1" s="555">
         <v>43601</v>
       </c>
-    </row>
-    <row r="2" spans="1:19">
+      <c r="T1" s="50"/>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="266"/>
       <c r="B2" s="259"/>
       <c r="C2" s="259"/>
@@ -16352,8 +19178,9 @@
       <c r="Q2" s="259"/>
       <c r="R2" s="525"/>
       <c r="S2" s="52"/>
-    </row>
-    <row r="3" spans="1:19">
+      <c r="T2" s="50"/>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="266"/>
       <c r="B3" s="259"/>
       <c r="C3" s="259"/>
@@ -16377,8 +19204,9 @@
       <c r="S3" s="555">
         <v>43601</v>
       </c>
-    </row>
-    <row r="4" spans="1:19">
+      <c r="T3" s="50"/>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="343"/>
       <c r="B4" s="241"/>
       <c r="C4" s="545" t="s">
@@ -16386,7 +19214,7 @@
       </c>
       <c r="D4" s="530"/>
       <c r="E4" s="545" t="s">
-        <v>613</v>
+        <v>580</v>
       </c>
       <c r="F4" s="546"/>
       <c r="G4" s="546"/>
@@ -16402,8 +19230,9 @@
       <c r="Q4" s="530"/>
       <c r="R4" s="525"/>
       <c r="S4" s="52"/>
-    </row>
-    <row r="5" spans="1:19">
+      <c r="T4" s="50"/>
+    </row>
+    <row r="5" spans="1:20" ht="24.000000" customHeight="1">
       <c r="A5" s="343" t="s">
         <v>561</v>
       </c>
@@ -16436,7 +19265,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:20" ht="24.750000" customHeight="1">
       <c r="A6" s="343" t="s">
         <v>563</v>
       </c>
@@ -16454,7 +19283,7 @@
       </c>
       <c r="J6" s="241"/>
       <c r="K6" s="241" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="L6" s="241"/>
       <c r="M6" s="241"/>
@@ -16465,13 +19294,13 @@
       <c r="R6" s="554"/>
       <c r="S6" s="349"/>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:20">
       <c r="A7" s="538" t="s">
         <v>519</v>
       </c>
       <c r="B7" s="539"/>
       <c r="C7" s="560" t="s">
-        <v>619</v>
+        <v>605</v>
       </c>
       <c r="D7" s="52"/>
       <c r="E7" s="52"/>
@@ -16490,7 +19319,7 @@
       <c r="R7" s="52"/>
       <c r="S7" s="52"/>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:20">
       <c r="A8" s="187"/>
       <c r="B8" s="253"/>
       <c r="C8" s="516"/>
@@ -16511,7 +19340,7 @@
       <c r="R8" s="52"/>
       <c r="S8" s="52"/>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:20">
       <c r="A9" s="187"/>
       <c r="B9" s="253"/>
       <c r="C9" s="516"/>
@@ -16532,7 +19361,7 @@
       <c r="R9" s="52"/>
       <c r="S9" s="52"/>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:20">
       <c r="A10" s="187"/>
       <c r="B10" s="253"/>
       <c r="C10" s="516"/>
@@ -16553,7 +19382,7 @@
       <c r="R10" s="52"/>
       <c r="S10" s="52"/>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:20">
       <c r="A11" s="187"/>
       <c r="B11" s="253"/>
       <c r="C11" s="516"/>
@@ -16574,7 +19403,7 @@
       <c r="R11" s="52"/>
       <c r="S11" s="52"/>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:20">
       <c r="A12" s="187"/>
       <c r="B12" s="253"/>
       <c r="C12" s="516"/>
@@ -16595,7 +19424,7 @@
       <c r="R12" s="52"/>
       <c r="S12" s="52"/>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:20">
       <c r="A13" s="187"/>
       <c r="B13" s="253"/>
       <c r="C13" s="516"/>
@@ -16616,7 +19445,7 @@
       <c r="R13" s="52"/>
       <c r="S13" s="52"/>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:20">
       <c r="A14" s="187"/>
       <c r="B14" s="253"/>
       <c r="C14" s="516"/>
@@ -16637,7 +19466,7 @@
       <c r="R14" s="52"/>
       <c r="S14" s="52"/>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:20">
       <c r="A15" s="556"/>
       <c r="B15" s="254"/>
       <c r="C15" s="516"/>
@@ -16658,7 +19487,7 @@
       <c r="R15" s="52"/>
       <c r="S15" s="52"/>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:20">
       <c r="A16" s="538" t="s">
         <v>585</v>
       </c>
@@ -16680,8 +19509,9 @@
       <c r="Q16" s="52"/>
       <c r="R16" s="52"/>
       <c r="S16" s="52"/>
-    </row>
-    <row r="17" spans="1:19">
+      <c r="T16" s="50"/>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="187"/>
       <c r="B17" s="253"/>
       <c r="C17" s="516"/>
@@ -16701,8 +19531,9 @@
       <c r="Q17" s="52"/>
       <c r="R17" s="52"/>
       <c r="S17" s="52"/>
-    </row>
-    <row r="18" spans="1:19">
+      <c r="T17" s="50"/>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="187"/>
       <c r="B18" s="253"/>
       <c r="C18" s="516"/>
@@ -16722,8 +19553,9 @@
       <c r="Q18" s="52"/>
       <c r="R18" s="52"/>
       <c r="S18" s="52"/>
-    </row>
-    <row r="19" spans="1:19">
+      <c r="T18" s="50"/>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="187"/>
       <c r="B19" s="253"/>
       <c r="C19" s="516"/>
@@ -16743,8 +19575,9 @@
       <c r="Q19" s="52"/>
       <c r="R19" s="52"/>
       <c r="S19" s="52"/>
-    </row>
-    <row r="20" spans="1:19">
+      <c r="T19" s="50"/>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="187"/>
       <c r="B20" s="253"/>
       <c r="C20" s="516"/>
@@ -16764,8 +19597,9 @@
       <c r="Q20" s="52"/>
       <c r="R20" s="52"/>
       <c r="S20" s="52"/>
-    </row>
-    <row r="21" spans="1:19">
+      <c r="T20" s="50"/>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="187"/>
       <c r="B21" s="253"/>
       <c r="C21" s="516"/>
@@ -16785,8 +19619,9 @@
       <c r="Q21" s="52"/>
       <c r="R21" s="52"/>
       <c r="S21" s="52"/>
-    </row>
-    <row r="22" spans="1:19">
+      <c r="T21" s="50"/>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="187"/>
       <c r="B22" s="253"/>
       <c r="C22" s="516"/>
@@ -16806,8 +19641,9 @@
       <c r="Q22" s="52"/>
       <c r="R22" s="52"/>
       <c r="S22" s="52"/>
-    </row>
-    <row r="23" spans="1:19">
+      <c r="T22" s="50"/>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="187"/>
       <c r="B23" s="253"/>
       <c r="C23" s="516"/>
@@ -16827,8 +19663,9 @@
       <c r="Q23" s="52"/>
       <c r="R23" s="52"/>
       <c r="S23" s="52"/>
-    </row>
-    <row r="24" spans="1:19">
+      <c r="T23" s="50"/>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="187"/>
       <c r="B24" s="253"/>
       <c r="C24" s="516"/>
@@ -16848,8 +19685,9 @@
       <c r="Q24" s="52"/>
       <c r="R24" s="52"/>
       <c r="S24" s="52"/>
-    </row>
-    <row r="25" spans="1:19">
+      <c r="T24" s="50"/>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="187"/>
       <c r="B25" s="253"/>
       <c r="C25" s="516"/>
@@ -16869,8 +19707,9 @@
       <c r="Q25" s="52"/>
       <c r="R25" s="52"/>
       <c r="S25" s="52"/>
-    </row>
-    <row r="26" spans="1:19">
+      <c r="T25" s="50"/>
+    </row>
+    <row r="26" spans="1:20">
       <c r="A26" s="187"/>
       <c r="B26" s="253"/>
       <c r="C26" s="516"/>
@@ -16890,8 +19729,9 @@
       <c r="Q26" s="52"/>
       <c r="R26" s="52"/>
       <c r="S26" s="52"/>
-    </row>
-    <row r="27" spans="1:19">
+      <c r="T26" s="50"/>
+    </row>
+    <row r="27" spans="1:20">
       <c r="A27" s="187"/>
       <c r="B27" s="253"/>
       <c r="C27" s="516"/>
@@ -16911,8 +19751,9 @@
       <c r="Q27" s="52"/>
       <c r="R27" s="52"/>
       <c r="S27" s="52"/>
-    </row>
-    <row r="28" spans="1:19">
+      <c r="T27" s="50"/>
+    </row>
+    <row r="28" spans="1:20">
       <c r="A28" s="556"/>
       <c r="B28" s="254"/>
       <c r="C28" s="516"/>
@@ -16932,15 +19773,14 @@
       <c r="Q28" s="52"/>
       <c r="R28" s="52"/>
       <c r="S28" s="52"/>
-    </row>
-    <row r="29" spans="1:19">
+      <c r="T28" s="50"/>
+    </row>
+    <row r="29" spans="1:20">
       <c r="A29" s="538" t="s">
         <v>565</v>
       </c>
       <c r="B29" s="539"/>
-      <c r="C29" s="516" t="s">
-        <v>607</v>
-      </c>
+      <c r="C29" s="516"/>
       <c r="D29" s="52"/>
       <c r="E29" s="52"/>
       <c r="F29" s="52"/>
@@ -16958,7 +19798,7 @@
       <c r="R29" s="52"/>
       <c r="S29" s="16"/>
     </row>
-    <row r="30" spans="1:19">
+    <row r="30" spans="1:20">
       <c r="A30" s="187"/>
       <c r="B30" s="253"/>
       <c r="C30" s="516"/>
@@ -16979,7 +19819,7 @@
       <c r="R30" s="52"/>
       <c r="S30" s="16"/>
     </row>
-    <row r="31" spans="1:19">
+    <row r="31" spans="1:20">
       <c r="A31" s="187"/>
       <c r="B31" s="253"/>
       <c r="C31" s="516"/>
@@ -17000,7 +19840,7 @@
       <c r="R31" s="52"/>
       <c r="S31" s="16"/>
     </row>
-    <row r="32" spans="1:19">
+    <row r="32" spans="1:20">
       <c r="A32" s="370"/>
       <c r="B32" s="540"/>
       <c r="C32" s="516"/>
@@ -17057,24 +19897,26 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S32"/>
+  <dimension ref="A1:T32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:S32"/>
+    <sheetView zoomScale="120" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
   <cols>
-    <col min="19" max="19" width="13.88000011" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" width="10.25500011" customWidth="1" outlineLevel="0"/>
+    <col min="18" max="18" width="11.63000011" customWidth="1" outlineLevel="0"/>
+    <col min="19" max="19" width="20.50499916" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:20">
       <c r="A1" s="522">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B1" s="361"/>
       <c r="C1" s="523" t="s">
-        <v>623</v>
+        <v>608</v>
       </c>
       <c r="D1" s="361"/>
       <c r="E1" s="361"/>
@@ -17096,8 +19938,9 @@
       <c r="S1" s="555">
         <v>43601</v>
       </c>
-    </row>
-    <row r="2" spans="1:19">
+      <c r="T1" s="50"/>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="266"/>
       <c r="B2" s="259"/>
       <c r="C2" s="259"/>
@@ -17117,8 +19960,9 @@
       <c r="Q2" s="259"/>
       <c r="R2" s="525"/>
       <c r="S2" s="52"/>
-    </row>
-    <row r="3" spans="1:19">
+      <c r="T2" s="50"/>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="266"/>
       <c r="B3" s="259"/>
       <c r="C3" s="259"/>
@@ -17142,8 +19986,9 @@
       <c r="S3" s="555">
         <v>43601</v>
       </c>
-    </row>
-    <row r="4" spans="1:19">
+      <c r="T3" s="50"/>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="343"/>
       <c r="B4" s="241"/>
       <c r="C4" s="545" t="s">
@@ -17151,7 +19996,7 @@
       </c>
       <c r="D4" s="530"/>
       <c r="E4" s="545" t="s">
-        <v>622</v>
+        <v>609</v>
       </c>
       <c r="F4" s="546"/>
       <c r="G4" s="546"/>
@@ -17167,8 +20012,9 @@
       <c r="Q4" s="530"/>
       <c r="R4" s="525"/>
       <c r="S4" s="52"/>
-    </row>
-    <row r="5" spans="1:19">
+      <c r="T4" s="50"/>
+    </row>
+    <row r="5" spans="1:20" ht="24.000000" customHeight="1">
       <c r="A5" s="343" t="s">
         <v>561</v>
       </c>
@@ -17201,7 +20047,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:20" ht="24.750000" customHeight="1">
       <c r="A6" s="343" t="s">
         <v>563</v>
       </c>
@@ -17219,7 +20065,7 @@
       </c>
       <c r="J6" s="241"/>
       <c r="K6" s="241" t="s">
-        <v>630</v>
+        <v>180</v>
       </c>
       <c r="L6" s="241"/>
       <c r="M6" s="241"/>
@@ -17230,13 +20076,13 @@
       <c r="R6" s="554"/>
       <c r="S6" s="349"/>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:20">
       <c r="A7" s="538" t="s">
         <v>519</v>
       </c>
       <c r="B7" s="539"/>
       <c r="C7" s="560" t="s">
-        <v>637</v>
+        <v>606</v>
       </c>
       <c r="D7" s="52"/>
       <c r="E7" s="52"/>
@@ -17255,7 +20101,7 @@
       <c r="R7" s="52"/>
       <c r="S7" s="52"/>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:20">
       <c r="A8" s="187"/>
       <c r="B8" s="253"/>
       <c r="C8" s="516"/>
@@ -17276,7 +20122,7 @@
       <c r="R8" s="52"/>
       <c r="S8" s="52"/>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:20">
       <c r="A9" s="187"/>
       <c r="B9" s="253"/>
       <c r="C9" s="516"/>
@@ -17297,7 +20143,7 @@
       <c r="R9" s="52"/>
       <c r="S9" s="52"/>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:20">
       <c r="A10" s="187"/>
       <c r="B10" s="253"/>
       <c r="C10" s="516"/>
@@ -17318,7 +20164,7 @@
       <c r="R10" s="52"/>
       <c r="S10" s="52"/>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:20">
       <c r="A11" s="187"/>
       <c r="B11" s="253"/>
       <c r="C11" s="516"/>
@@ -17339,7 +20185,7 @@
       <c r="R11" s="52"/>
       <c r="S11" s="52"/>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:20">
       <c r="A12" s="187"/>
       <c r="B12" s="253"/>
       <c r="C12" s="516"/>
@@ -17360,7 +20206,7 @@
       <c r="R12" s="52"/>
       <c r="S12" s="52"/>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:20">
       <c r="A13" s="187"/>
       <c r="B13" s="253"/>
       <c r="C13" s="516"/>
@@ -17381,7 +20227,7 @@
       <c r="R13" s="52"/>
       <c r="S13" s="52"/>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:20">
       <c r="A14" s="187"/>
       <c r="B14" s="253"/>
       <c r="C14" s="516"/>
@@ -17402,7 +20248,7 @@
       <c r="R14" s="52"/>
       <c r="S14" s="52"/>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:20">
       <c r="A15" s="556"/>
       <c r="B15" s="254"/>
       <c r="C15" s="516"/>
@@ -17423,7 +20269,7 @@
       <c r="R15" s="52"/>
       <c r="S15" s="52"/>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:20">
       <c r="A16" s="538" t="s">
         <v>585</v>
       </c>
@@ -17445,8 +20291,9 @@
       <c r="Q16" s="52"/>
       <c r="R16" s="52"/>
       <c r="S16" s="52"/>
-    </row>
-    <row r="17" spans="1:19">
+      <c r="T16" s="50"/>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="187"/>
       <c r="B17" s="253"/>
       <c r="C17" s="516"/>
@@ -17466,8 +20313,9 @@
       <c r="Q17" s="52"/>
       <c r="R17" s="52"/>
       <c r="S17" s="52"/>
-    </row>
-    <row r="18" spans="1:19">
+      <c r="T17" s="50"/>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="187"/>
       <c r="B18" s="253"/>
       <c r="C18" s="516"/>
@@ -17487,8 +20335,9 @@
       <c r="Q18" s="52"/>
       <c r="R18" s="52"/>
       <c r="S18" s="52"/>
-    </row>
-    <row r="19" spans="1:19">
+      <c r="T18" s="50"/>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="187"/>
       <c r="B19" s="253"/>
       <c r="C19" s="516"/>
@@ -17508,8 +20357,9 @@
       <c r="Q19" s="52"/>
       <c r="R19" s="52"/>
       <c r="S19" s="52"/>
-    </row>
-    <row r="20" spans="1:19">
+      <c r="T19" s="50"/>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="187"/>
       <c r="B20" s="253"/>
       <c r="C20" s="516"/>
@@ -17529,8 +20379,9 @@
       <c r="Q20" s="52"/>
       <c r="R20" s="52"/>
       <c r="S20" s="52"/>
-    </row>
-    <row r="21" spans="1:19">
+      <c r="T20" s="50"/>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="187"/>
       <c r="B21" s="253"/>
       <c r="C21" s="516"/>
@@ -17550,8 +20401,9 @@
       <c r="Q21" s="52"/>
       <c r="R21" s="52"/>
       <c r="S21" s="52"/>
-    </row>
-    <row r="22" spans="1:19">
+      <c r="T21" s="50"/>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="187"/>
       <c r="B22" s="253"/>
       <c r="C22" s="516"/>
@@ -17571,8 +20423,9 @@
       <c r="Q22" s="52"/>
       <c r="R22" s="52"/>
       <c r="S22" s="52"/>
-    </row>
-    <row r="23" spans="1:19">
+      <c r="T22" s="50"/>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="187"/>
       <c r="B23" s="253"/>
       <c r="C23" s="516"/>
@@ -17592,8 +20445,9 @@
       <c r="Q23" s="52"/>
       <c r="R23" s="52"/>
       <c r="S23" s="52"/>
-    </row>
-    <row r="24" spans="1:19">
+      <c r="T23" s="50"/>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="187"/>
       <c r="B24" s="253"/>
       <c r="C24" s="516"/>
@@ -17613,8 +20467,9 @@
       <c r="Q24" s="52"/>
       <c r="R24" s="52"/>
       <c r="S24" s="52"/>
-    </row>
-    <row r="25" spans="1:19">
+      <c r="T24" s="50"/>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="187"/>
       <c r="B25" s="253"/>
       <c r="C25" s="516"/>
@@ -17634,8 +20489,9 @@
       <c r="Q25" s="52"/>
       <c r="R25" s="52"/>
       <c r="S25" s="52"/>
-    </row>
-    <row r="26" spans="1:19">
+      <c r="T25" s="50"/>
+    </row>
+    <row r="26" spans="1:20">
       <c r="A26" s="187"/>
       <c r="B26" s="253"/>
       <c r="C26" s="516"/>
@@ -17655,8 +20511,9 @@
       <c r="Q26" s="52"/>
       <c r="R26" s="52"/>
       <c r="S26" s="52"/>
-    </row>
-    <row r="27" spans="1:19">
+      <c r="T26" s="50"/>
+    </row>
+    <row r="27" spans="1:20">
       <c r="A27" s="187"/>
       <c r="B27" s="253"/>
       <c r="C27" s="516"/>
@@ -17676,8 +20533,9 @@
       <c r="Q27" s="52"/>
       <c r="R27" s="52"/>
       <c r="S27" s="52"/>
-    </row>
-    <row r="28" spans="1:19">
+      <c r="T27" s="50"/>
+    </row>
+    <row r="28" spans="1:20">
       <c r="A28" s="556"/>
       <c r="B28" s="254"/>
       <c r="C28" s="516"/>
@@ -17697,8 +20555,9 @@
       <c r="Q28" s="52"/>
       <c r="R28" s="52"/>
       <c r="S28" s="52"/>
-    </row>
-    <row r="29" spans="1:19">
+      <c r="T28" s="50"/>
+    </row>
+    <row r="29" spans="1:20">
       <c r="A29" s="538" t="s">
         <v>565</v>
       </c>
@@ -17723,7 +20582,7 @@
       <c r="R29" s="52"/>
       <c r="S29" s="16"/>
     </row>
-    <row r="30" spans="1:19">
+    <row r="30" spans="1:20">
       <c r="A30" s="187"/>
       <c r="B30" s="253"/>
       <c r="C30" s="516"/>
@@ -17744,7 +20603,7 @@
       <c r="R30" s="52"/>
       <c r="S30" s="16"/>
     </row>
-    <row r="31" spans="1:19">
+    <row r="31" spans="1:20">
       <c r="A31" s="187"/>
       <c r="B31" s="253"/>
       <c r="C31" s="516"/>
@@ -17765,7 +20624,7 @@
       <c r="R31" s="52"/>
       <c r="S31" s="16"/>
     </row>
-    <row r="32" spans="1:19">
+    <row r="32" spans="1:20">
       <c r="A32" s="370"/>
       <c r="B32" s="540"/>
       <c r="C32" s="516"/>

--- a/잡리스트 0514수정.xlsx
+++ b/잡리스트 0514수정.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="930" activeTab="23"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="920" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="joblist" sheetId="1" r:id="rId1"/>
@@ -1729,7 +1729,7 @@
   <numFmts count="1">
     <numFmt numFmtId="64" formatCode="&quot;₩&quot;#,##0;\\\-&quot;₩&quot;#,##0"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="26">
     <font>
       <sz val="11.0"/>
       <name val="맑은 고딕"/>
@@ -1855,11 +1855,6 @@
       <color theme="0"/>
     </font>
     <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <color theme="1"/>
-    </font>
-    <font>
       <i/>
       <sz val="11.0"/>
       <name val="맑은 고딕"/>
@@ -1871,20 +1866,12 @@
       <color rgb="FFFFFFFF"/>
     </font>
     <font>
-      <sz val="20.0"/>
+      <sz val="11.0"/>
       <name val="맑은 고딕"/>
-      <color theme="1"/>
-    </font>
-    <font>
-      <sz val="28.0"/>
-      <name val="맑은 고딕"/>
-      <color theme="1"/>
-    </font>
-    <font>
       <color rgb="FF000000"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1931,11 +1918,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
       </patternFill>
     </fill>
     <fill>
@@ -2855,83 +2837,83 @@
     <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3232,88 +3214,37 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3894,8 +3825,8 @@
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>139065</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>210820</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>1270</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5567,7 +5498,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="그림 11"/>
+        <xdr:cNvPr id="11" name="그림 11" descr="xl/media/OImage24130267321.png"/>
         <xdr:cNvPicPr preferRelativeResize="0">
           <a:picLocks/>
         </xdr:cNvPicPr>
@@ -5707,7 +5638,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="그림 3"/>
+        <xdr:cNvPr id="3" name="그림 3" descr="xl/media/OImage24178042522.png"/>
         <xdr:cNvPicPr preferRelativeResize="0">
           <a:picLocks/>
         </xdr:cNvPicPr>
@@ -5847,7 +5778,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="그림 3"/>
+        <xdr:cNvPr id="3" name="그림 3" descr="xl/media/OImage24120640123.png"/>
         <xdr:cNvPicPr preferRelativeResize="0">
           <a:picLocks/>
         </xdr:cNvPicPr>
@@ -5987,7 +5918,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="그림 3"/>
+        <xdr:cNvPr id="3" name="그림 3" descr="xl/media/OImage23888115324.png"/>
         <xdr:cNvPicPr preferRelativeResize="0">
           <a:picLocks/>
         </xdr:cNvPicPr>
@@ -6127,7 +6058,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="그림 3"/>
+        <xdr:cNvPr id="3" name="그림 3" descr="xl/media/OImage23900504925.png"/>
         <xdr:cNvPicPr preferRelativeResize="0">
           <a:picLocks/>
         </xdr:cNvPicPr>
@@ -6171,7 +6102,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="그림 4"/>
+        <xdr:cNvPr id="4" name="그림 4" descr="xl/media/OImage24029020126.png"/>
         <xdr:cNvPicPr preferRelativeResize="0">
           <a:picLocks/>
         </xdr:cNvPicPr>
@@ -6208,15 +6139,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>674370</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>146685</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6240,8 +6171,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="26670" y="0"/>
-          <a:ext cx="11001375" cy="6943725"/>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10961370" cy="6852285"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
         <a:noFill/>
@@ -10456,7 +10387,7 @@
       <c r="R31" s="90"/>
       <c r="S31" s="90"/>
     </row>
-    <row r="32" spans="1:19" ht="18.000000">
+    <row r="32" spans="1:19">
       <c r="A32" s="78"/>
       <c r="B32" s="79"/>
       <c r="C32" s="76"/>
@@ -11281,7 +11212,7 @@
   <dimension ref="A1:S32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:Q3"/>
+      <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -11983,7 +11914,7 @@
       <c r="R31" s="90"/>
       <c r="S31" s="90"/>
     </row>
-    <row r="32" spans="1:19" ht="18.000000">
+    <row r="32" spans="1:19">
       <c r="A32" s="78"/>
       <c r="B32" s="79"/>
       <c r="C32" s="76"/>
@@ -12042,7 +11973,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="170" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:B3"/>
     </sheetView>
   </sheetViews>
@@ -12725,8 +12656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:B4"/>
+    <sheetView zoomScale="140" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21:S28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -13428,7 +13359,7 @@
       <c r="R31" s="90"/>
       <c r="S31" s="90"/>
     </row>
-    <row r="32" spans="1:19" ht="18.000000">
+    <row r="32" spans="1:19">
       <c r="A32" s="78"/>
       <c r="B32" s="79"/>
       <c r="C32" s="76"/>
@@ -14190,7 +14121,7 @@
       <c r="R31" s="90"/>
       <c r="S31" s="90"/>
     </row>
-    <row r="32" spans="1:19" ht="18.000000">
+    <row r="32" spans="1:19">
       <c r="A32" s="78"/>
       <c r="B32" s="79"/>
       <c r="C32" s="76"/>
@@ -15779,8 +15710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Y14" sqref="Y14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -19619,719 +19550,719 @@
       <c r="A1" s="100">
         <v>21</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="114" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="105" t="s">
         <v>409</v>
       </c>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
-      <c r="J1" s="107"/>
-      <c r="K1" s="107"/>
-      <c r="L1" s="107"/>
-      <c r="M1" s="107"/>
-      <c r="N1" s="107"/>
-      <c r="O1" s="107"/>
-      <c r="P1" s="107"/>
-      <c r="Q1" s="107"/>
-      <c r="R1" s="121" t="s">
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="24" t="s">
         <v>254</v>
       </c>
-      <c r="S1" s="125">
+      <c r="S1" s="110">
         <v>43601</v>
       </c>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="101"/>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="108"/>
-      <c r="K2" s="108"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="108"/>
-      <c r="N2" s="108"/>
-      <c r="O2" s="108"/>
-      <c r="P2" s="108"/>
-      <c r="Q2" s="108"/>
-      <c r="R2" s="122"/>
-      <c r="S2" s="119"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="56"/>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="101"/>
-      <c r="B3" s="108"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
-      <c r="G3" s="108"/>
-      <c r="H3" s="108"/>
-      <c r="I3" s="108"/>
-      <c r="J3" s="108"/>
-      <c r="K3" s="108"/>
-      <c r="L3" s="108"/>
-      <c r="M3" s="108"/>
-      <c r="N3" s="108"/>
-      <c r="O3" s="108"/>
-      <c r="P3" s="108"/>
-      <c r="Q3" s="108"/>
-      <c r="R3" s="122" t="s">
+      <c r="A3" s="51"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="16" t="s">
         <v>255</v>
       </c>
-      <c r="S3" s="125">
+      <c r="S3" s="110">
         <v>43601</v>
       </c>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="102"/>
-      <c r="B4" s="109"/>
-      <c r="C4" s="115" t="s">
+      <c r="A4" s="51"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="106" t="s">
         <v>262</v>
       </c>
-      <c r="D4" s="118"/>
-      <c r="E4" s="115" t="s">
+      <c r="D4" s="107"/>
+      <c r="E4" s="106" t="s">
         <v>412</v>
       </c>
-      <c r="F4" s="120"/>
-      <c r="G4" s="120"/>
-      <c r="H4" s="120"/>
-      <c r="I4" s="120"/>
-      <c r="J4" s="120"/>
-      <c r="K4" s="120"/>
-      <c r="L4" s="120"/>
-      <c r="M4" s="120"/>
-      <c r="N4" s="120"/>
-      <c r="O4" s="120"/>
-      <c r="P4" s="120"/>
-      <c r="Q4" s="118"/>
-      <c r="R4" s="122"/>
-      <c r="S4" s="119"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="108"/>
+      <c r="H4" s="108"/>
+      <c r="I4" s="108"/>
+      <c r="J4" s="108"/>
+      <c r="K4" s="108"/>
+      <c r="L4" s="108"/>
+      <c r="M4" s="108"/>
+      <c r="N4" s="108"/>
+      <c r="O4" s="108"/>
+      <c r="P4" s="108"/>
+      <c r="Q4" s="107"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="56"/>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="102" t="s">
+      <c r="A5" s="51" t="s">
         <v>257</v>
       </c>
-      <c r="B5" s="109"/>
-      <c r="C5" s="109" t="s">
+      <c r="B5" s="13"/>
+      <c r="C5" s="13" t="s">
         <v>278</v>
       </c>
-      <c r="D5" s="109"/>
-      <c r="E5" s="109"/>
-      <c r="F5" s="109"/>
-      <c r="G5" s="109"/>
-      <c r="H5" s="109"/>
-      <c r="I5" s="109" t="s">
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13" t="s">
         <v>258</v>
       </c>
-      <c r="J5" s="109"/>
-      <c r="K5" s="108" t="s">
+      <c r="J5" s="13"/>
+      <c r="K5" s="13" t="s">
         <v>394</v>
       </c>
-      <c r="L5" s="108"/>
-      <c r="M5" s="108"/>
-      <c r="N5" s="108"/>
-      <c r="O5" s="108"/>
-      <c r="P5" s="109"/>
-      <c r="Q5" s="109"/>
-      <c r="R5" s="123" t="s">
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="22" t="s">
         <v>403</v>
       </c>
-      <c r="S5" s="126" t="s">
+      <c r="S5" s="69" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="102" t="s">
+      <c r="A6" s="51" t="s">
         <v>259</v>
       </c>
-      <c r="B6" s="109"/>
-      <c r="C6" s="109" t="s">
+      <c r="B6" s="13"/>
+      <c r="C6" s="13" t="s">
         <v>304</v>
       </c>
-      <c r="D6" s="109"/>
-      <c r="E6" s="109"/>
-      <c r="F6" s="109"/>
-      <c r="G6" s="109"/>
-      <c r="H6" s="109"/>
-      <c r="I6" s="109" t="s">
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13" t="s">
         <v>277</v>
       </c>
-      <c r="J6" s="109"/>
-      <c r="K6" s="109" t="s">
+      <c r="J6" s="13"/>
+      <c r="K6" s="13" t="s">
         <v>413</v>
       </c>
-      <c r="L6" s="109"/>
-      <c r="M6" s="109"/>
-      <c r="N6" s="109"/>
-      <c r="O6" s="109"/>
-      <c r="P6" s="109"/>
-      <c r="Q6" s="109"/>
-      <c r="R6" s="124"/>
-      <c r="S6" s="126"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="109"/>
+      <c r="S6" s="69"/>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="103" t="s">
+      <c r="A7" s="101" t="s">
         <v>388</v>
       </c>
-      <c r="B7" s="110"/>
-      <c r="C7" s="116" t="s">
+      <c r="B7" s="83"/>
+      <c r="C7" s="88" t="s">
         <v>410</v>
       </c>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="119"/>
-      <c r="K7" s="119"/>
-      <c r="L7" s="119"/>
-      <c r="M7" s="119"/>
-      <c r="N7" s="119"/>
-      <c r="O7" s="119"/>
-      <c r="P7" s="119"/>
-      <c r="Q7" s="119"/>
-      <c r="R7" s="119"/>
-      <c r="S7" s="119"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="56"/>
+      <c r="O7" s="56"/>
+      <c r="P7" s="56"/>
+      <c r="Q7" s="56"/>
+      <c r="R7" s="56"/>
+      <c r="S7" s="56"/>
     </row>
     <row r="8" spans="1:19">
-      <c r="A8" s="104"/>
-      <c r="B8" s="111"/>
-      <c r="C8" s="117"/>
-      <c r="D8" s="119"/>
-      <c r="E8" s="119"/>
-      <c r="F8" s="119"/>
-      <c r="G8" s="119"/>
-      <c r="H8" s="119"/>
-      <c r="I8" s="119"/>
-      <c r="J8" s="119"/>
-      <c r="K8" s="119"/>
-      <c r="L8" s="119"/>
-      <c r="M8" s="119"/>
-      <c r="N8" s="119"/>
-      <c r="O8" s="119"/>
-      <c r="P8" s="119"/>
-      <c r="Q8" s="119"/>
-      <c r="R8" s="119"/>
-      <c r="S8" s="119"/>
+      <c r="A8" s="69"/>
+      <c r="B8" s="85"/>
+      <c r="C8" s="84"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="56"/>
+      <c r="M8" s="56"/>
+      <c r="N8" s="56"/>
+      <c r="O8" s="56"/>
+      <c r="P8" s="56"/>
+      <c r="Q8" s="56"/>
+      <c r="R8" s="56"/>
+      <c r="S8" s="56"/>
     </row>
     <row r="9" spans="1:19">
-      <c r="A9" s="104"/>
-      <c r="B9" s="111"/>
-      <c r="C9" s="117"/>
-      <c r="D9" s="119"/>
-      <c r="E9" s="119"/>
-      <c r="F9" s="119"/>
-      <c r="G9" s="119"/>
-      <c r="H9" s="119"/>
-      <c r="I9" s="119"/>
-      <c r="J9" s="119"/>
-      <c r="K9" s="119"/>
-      <c r="L9" s="119"/>
-      <c r="M9" s="119"/>
-      <c r="N9" s="119"/>
-      <c r="O9" s="119"/>
-      <c r="P9" s="119"/>
-      <c r="Q9" s="119"/>
-      <c r="R9" s="119"/>
-      <c r="S9" s="119"/>
+      <c r="A9" s="69"/>
+      <c r="B9" s="85"/>
+      <c r="C9" s="84"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="56"/>
+      <c r="O9" s="56"/>
+      <c r="P9" s="56"/>
+      <c r="Q9" s="56"/>
+      <c r="R9" s="56"/>
+      <c r="S9" s="56"/>
     </row>
     <row r="10" spans="1:19">
-      <c r="A10" s="104"/>
-      <c r="B10" s="111"/>
-      <c r="C10" s="117"/>
-      <c r="D10" s="119"/>
-      <c r="E10" s="119"/>
-      <c r="F10" s="119"/>
-      <c r="G10" s="119"/>
-      <c r="H10" s="119"/>
-      <c r="I10" s="119"/>
-      <c r="J10" s="119"/>
-      <c r="K10" s="119"/>
-      <c r="L10" s="119"/>
-      <c r="M10" s="119"/>
-      <c r="N10" s="119"/>
-      <c r="O10" s="119"/>
-      <c r="P10" s="119"/>
-      <c r="Q10" s="119"/>
-      <c r="R10" s="119"/>
-      <c r="S10" s="119"/>
+      <c r="A10" s="69"/>
+      <c r="B10" s="85"/>
+      <c r="C10" s="84"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="56"/>
+      <c r="M10" s="56"/>
+      <c r="N10" s="56"/>
+      <c r="O10" s="56"/>
+      <c r="P10" s="56"/>
+      <c r="Q10" s="56"/>
+      <c r="R10" s="56"/>
+      <c r="S10" s="56"/>
     </row>
     <row r="11" spans="1:19">
-      <c r="A11" s="104"/>
-      <c r="B11" s="111"/>
-      <c r="C11" s="117"/>
-      <c r="D11" s="119"/>
-      <c r="E11" s="119"/>
-      <c r="F11" s="119"/>
-      <c r="G11" s="119"/>
-      <c r="H11" s="119"/>
-      <c r="I11" s="119"/>
-      <c r="J11" s="119"/>
-      <c r="K11" s="119"/>
-      <c r="L11" s="119"/>
-      <c r="M11" s="119"/>
-      <c r="N11" s="119"/>
-      <c r="O11" s="119"/>
-      <c r="P11" s="119"/>
-      <c r="Q11" s="119"/>
-      <c r="R11" s="119"/>
-      <c r="S11" s="119"/>
+      <c r="A11" s="69"/>
+      <c r="B11" s="85"/>
+      <c r="C11" s="84"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="56"/>
+      <c r="P11" s="56"/>
+      <c r="Q11" s="56"/>
+      <c r="R11" s="56"/>
+      <c r="S11" s="56"/>
     </row>
     <row r="12" spans="1:19">
-      <c r="A12" s="104"/>
-      <c r="B12" s="111"/>
-      <c r="C12" s="117"/>
-      <c r="D12" s="119"/>
-      <c r="E12" s="119"/>
-      <c r="F12" s="119"/>
-      <c r="G12" s="119"/>
-      <c r="H12" s="119"/>
-      <c r="I12" s="119"/>
-      <c r="J12" s="119"/>
-      <c r="K12" s="119"/>
-      <c r="L12" s="119"/>
-      <c r="M12" s="119"/>
-      <c r="N12" s="119"/>
-      <c r="O12" s="119"/>
-      <c r="P12" s="119"/>
-      <c r="Q12" s="119"/>
-      <c r="R12" s="119"/>
-      <c r="S12" s="119"/>
+      <c r="A12" s="69"/>
+      <c r="B12" s="85"/>
+      <c r="C12" s="84"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="56"/>
+      <c r="O12" s="56"/>
+      <c r="P12" s="56"/>
+      <c r="Q12" s="56"/>
+      <c r="R12" s="56"/>
+      <c r="S12" s="56"/>
     </row>
     <row r="13" spans="1:19">
-      <c r="A13" s="104"/>
-      <c r="B13" s="111"/>
-      <c r="C13" s="117"/>
-      <c r="D13" s="119"/>
-      <c r="E13" s="119"/>
-      <c r="F13" s="119"/>
-      <c r="G13" s="119"/>
-      <c r="H13" s="119"/>
-      <c r="I13" s="119"/>
-      <c r="J13" s="119"/>
-      <c r="K13" s="119"/>
-      <c r="L13" s="119"/>
-      <c r="M13" s="119"/>
-      <c r="N13" s="119"/>
-      <c r="O13" s="119"/>
-      <c r="P13" s="119"/>
-      <c r="Q13" s="119"/>
-      <c r="R13" s="119"/>
-      <c r="S13" s="119"/>
+      <c r="A13" s="69"/>
+      <c r="B13" s="85"/>
+      <c r="C13" s="84"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="56"/>
+      <c r="M13" s="56"/>
+      <c r="N13" s="56"/>
+      <c r="O13" s="56"/>
+      <c r="P13" s="56"/>
+      <c r="Q13" s="56"/>
+      <c r="R13" s="56"/>
+      <c r="S13" s="56"/>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14" s="104"/>
-      <c r="B14" s="111"/>
-      <c r="C14" s="117"/>
-      <c r="D14" s="119"/>
-      <c r="E14" s="119"/>
-      <c r="F14" s="119"/>
-      <c r="G14" s="119"/>
-      <c r="H14" s="119"/>
-      <c r="I14" s="119"/>
-      <c r="J14" s="119"/>
-      <c r="K14" s="119"/>
-      <c r="L14" s="119"/>
-      <c r="M14" s="119"/>
-      <c r="N14" s="119"/>
-      <c r="O14" s="119"/>
-      <c r="P14" s="119"/>
-      <c r="Q14" s="119"/>
-      <c r="R14" s="119"/>
-      <c r="S14" s="119"/>
+      <c r="A14" s="69"/>
+      <c r="B14" s="85"/>
+      <c r="C14" s="84"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="56"/>
+      <c r="O14" s="56"/>
+      <c r="P14" s="56"/>
+      <c r="Q14" s="56"/>
+      <c r="R14" s="56"/>
+      <c r="S14" s="56"/>
     </row>
     <row r="15" spans="1:19">
-      <c r="A15" s="105"/>
-      <c r="B15" s="112"/>
-      <c r="C15" s="117"/>
-      <c r="D15" s="119"/>
-      <c r="E15" s="119"/>
-      <c r="F15" s="119"/>
-      <c r="G15" s="119"/>
-      <c r="H15" s="119"/>
-      <c r="I15" s="119"/>
-      <c r="J15" s="119"/>
-      <c r="K15" s="119"/>
-      <c r="L15" s="119"/>
-      <c r="M15" s="119"/>
-      <c r="N15" s="119"/>
-      <c r="O15" s="119"/>
-      <c r="P15" s="119"/>
-      <c r="Q15" s="119"/>
-      <c r="R15" s="119"/>
-      <c r="S15" s="119"/>
+      <c r="A15" s="102"/>
+      <c r="B15" s="87"/>
+      <c r="C15" s="84"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="56"/>
+      <c r="M15" s="56"/>
+      <c r="N15" s="56"/>
+      <c r="O15" s="56"/>
+      <c r="P15" s="56"/>
+      <c r="Q15" s="56"/>
+      <c r="R15" s="56"/>
+      <c r="S15" s="56"/>
     </row>
     <row r="16" spans="1:19">
-      <c r="A16" s="103" t="s">
+      <c r="A16" s="101" t="s">
         <v>406</v>
       </c>
-      <c r="B16" s="110"/>
-      <c r="C16" s="117"/>
-      <c r="D16" s="119"/>
-      <c r="E16" s="119"/>
-      <c r="F16" s="119"/>
-      <c r="G16" s="119"/>
-      <c r="H16" s="119"/>
-      <c r="I16" s="119"/>
-      <c r="J16" s="119"/>
-      <c r="K16" s="119"/>
-      <c r="L16" s="119"/>
-      <c r="M16" s="119"/>
-      <c r="N16" s="119"/>
-      <c r="O16" s="119"/>
-      <c r="P16" s="119"/>
-      <c r="Q16" s="119"/>
-      <c r="R16" s="119"/>
-      <c r="S16" s="119"/>
+      <c r="B16" s="83"/>
+      <c r="C16" s="84"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="56"/>
+      <c r="O16" s="56"/>
+      <c r="P16" s="56"/>
+      <c r="Q16" s="56"/>
+      <c r="R16" s="56"/>
+      <c r="S16" s="56"/>
     </row>
     <row r="17" spans="1:19">
-      <c r="A17" s="104"/>
-      <c r="B17" s="111"/>
-      <c r="C17" s="117"/>
-      <c r="D17" s="119"/>
-      <c r="E17" s="119"/>
-      <c r="F17" s="119"/>
-      <c r="G17" s="119"/>
-      <c r="H17" s="119"/>
-      <c r="I17" s="119"/>
-      <c r="J17" s="119"/>
-      <c r="K17" s="119"/>
-      <c r="L17" s="119"/>
-      <c r="M17" s="119"/>
-      <c r="N17" s="119"/>
-      <c r="O17" s="119"/>
-      <c r="P17" s="119"/>
-      <c r="Q17" s="119"/>
-      <c r="R17" s="119"/>
-      <c r="S17" s="119"/>
+      <c r="A17" s="69"/>
+      <c r="B17" s="85"/>
+      <c r="C17" s="84"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="56"/>
+      <c r="O17" s="56"/>
+      <c r="P17" s="56"/>
+      <c r="Q17" s="56"/>
+      <c r="R17" s="56"/>
+      <c r="S17" s="56"/>
     </row>
     <row r="18" spans="1:19">
-      <c r="A18" s="104"/>
-      <c r="B18" s="111"/>
-      <c r="C18" s="117"/>
-      <c r="D18" s="119"/>
-      <c r="E18" s="119"/>
-      <c r="F18" s="119"/>
-      <c r="G18" s="119"/>
-      <c r="H18" s="119"/>
-      <c r="I18" s="119"/>
-      <c r="J18" s="119"/>
-      <c r="K18" s="119"/>
-      <c r="L18" s="119"/>
-      <c r="M18" s="119"/>
-      <c r="N18" s="119"/>
-      <c r="O18" s="119"/>
-      <c r="P18" s="119"/>
-      <c r="Q18" s="119"/>
-      <c r="R18" s="119"/>
-      <c r="S18" s="119"/>
+      <c r="A18" s="69"/>
+      <c r="B18" s="85"/>
+      <c r="C18" s="84"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="56"/>
+      <c r="O18" s="56"/>
+      <c r="P18" s="56"/>
+      <c r="Q18" s="56"/>
+      <c r="R18" s="56"/>
+      <c r="S18" s="56"/>
     </row>
     <row r="19" spans="1:19">
-      <c r="A19" s="104"/>
-      <c r="B19" s="111"/>
-      <c r="C19" s="117"/>
-      <c r="D19" s="119"/>
-      <c r="E19" s="119"/>
-      <c r="F19" s="119"/>
-      <c r="G19" s="119"/>
-      <c r="H19" s="119"/>
-      <c r="I19" s="119"/>
-      <c r="J19" s="119"/>
-      <c r="K19" s="119"/>
-      <c r="L19" s="119"/>
-      <c r="M19" s="119"/>
-      <c r="N19" s="119"/>
-      <c r="O19" s="119"/>
-      <c r="P19" s="119"/>
-      <c r="Q19" s="119"/>
-      <c r="R19" s="119"/>
-      <c r="S19" s="119"/>
+      <c r="A19" s="69"/>
+      <c r="B19" s="85"/>
+      <c r="C19" s="84"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="56"/>
+      <c r="M19" s="56"/>
+      <c r="N19" s="56"/>
+      <c r="O19" s="56"/>
+      <c r="P19" s="56"/>
+      <c r="Q19" s="56"/>
+      <c r="R19" s="56"/>
+      <c r="S19" s="56"/>
     </row>
     <row r="20" spans="1:19">
-      <c r="A20" s="104"/>
-      <c r="B20" s="111"/>
-      <c r="C20" s="117"/>
-      <c r="D20" s="119"/>
-      <c r="E20" s="119"/>
-      <c r="F20" s="119"/>
-      <c r="G20" s="119"/>
-      <c r="H20" s="119"/>
-      <c r="I20" s="119"/>
-      <c r="J20" s="119"/>
-      <c r="K20" s="119"/>
-      <c r="L20" s="119"/>
-      <c r="M20" s="119"/>
-      <c r="N20" s="119"/>
-      <c r="O20" s="119"/>
-      <c r="P20" s="119"/>
-      <c r="Q20" s="119"/>
-      <c r="R20" s="119"/>
-      <c r="S20" s="119"/>
+      <c r="A20" s="69"/>
+      <c r="B20" s="85"/>
+      <c r="C20" s="84"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="56"/>
+      <c r="O20" s="56"/>
+      <c r="P20" s="56"/>
+      <c r="Q20" s="56"/>
+      <c r="R20" s="56"/>
+      <c r="S20" s="56"/>
     </row>
     <row r="21" spans="1:19">
-      <c r="A21" s="104"/>
-      <c r="B21" s="111"/>
-      <c r="C21" s="117"/>
-      <c r="D21" s="119"/>
-      <c r="E21" s="119"/>
-      <c r="F21" s="119"/>
-      <c r="G21" s="119"/>
-      <c r="H21" s="119"/>
-      <c r="I21" s="119"/>
-      <c r="J21" s="119"/>
-      <c r="K21" s="119"/>
-      <c r="L21" s="119"/>
-      <c r="M21" s="119"/>
-      <c r="N21" s="119"/>
-      <c r="O21" s="119"/>
-      <c r="P21" s="119"/>
-      <c r="Q21" s="119"/>
-      <c r="R21" s="119"/>
-      <c r="S21" s="119"/>
+      <c r="A21" s="69"/>
+      <c r="B21" s="85"/>
+      <c r="C21" s="84"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="56"/>
+      <c r="L21" s="56"/>
+      <c r="M21" s="56"/>
+      <c r="N21" s="56"/>
+      <c r="O21" s="56"/>
+      <c r="P21" s="56"/>
+      <c r="Q21" s="56"/>
+      <c r="R21" s="56"/>
+      <c r="S21" s="56"/>
     </row>
     <row r="22" spans="1:19">
-      <c r="A22" s="104"/>
-      <c r="B22" s="111"/>
-      <c r="C22" s="117"/>
-      <c r="D22" s="119"/>
-      <c r="E22" s="119"/>
-      <c r="F22" s="119"/>
-      <c r="G22" s="119"/>
-      <c r="H22" s="119"/>
-      <c r="I22" s="119"/>
-      <c r="J22" s="119"/>
-      <c r="K22" s="119"/>
-      <c r="L22" s="119"/>
-      <c r="M22" s="119"/>
-      <c r="N22" s="119"/>
-      <c r="O22" s="119"/>
-      <c r="P22" s="119"/>
-      <c r="Q22" s="119"/>
-      <c r="R22" s="119"/>
-      <c r="S22" s="119"/>
+      <c r="A22" s="69"/>
+      <c r="B22" s="85"/>
+      <c r="C22" s="84"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="56"/>
+      <c r="M22" s="56"/>
+      <c r="N22" s="56"/>
+      <c r="O22" s="56"/>
+      <c r="P22" s="56"/>
+      <c r="Q22" s="56"/>
+      <c r="R22" s="56"/>
+      <c r="S22" s="56"/>
     </row>
     <row r="23" spans="1:19">
-      <c r="A23" s="104"/>
-      <c r="B23" s="111"/>
-      <c r="C23" s="117"/>
-      <c r="D23" s="119"/>
-      <c r="E23" s="119"/>
-      <c r="F23" s="119"/>
-      <c r="G23" s="119"/>
-      <c r="H23" s="119"/>
-      <c r="I23" s="119"/>
-      <c r="J23" s="119"/>
-      <c r="K23" s="119"/>
-      <c r="L23" s="119"/>
-      <c r="M23" s="119"/>
-      <c r="N23" s="119"/>
-      <c r="O23" s="119"/>
-      <c r="P23" s="119"/>
-      <c r="Q23" s="119"/>
-      <c r="R23" s="119"/>
-      <c r="S23" s="119"/>
+      <c r="A23" s="69"/>
+      <c r="B23" s="85"/>
+      <c r="C23" s="84"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="56"/>
+      <c r="L23" s="56"/>
+      <c r="M23" s="56"/>
+      <c r="N23" s="56"/>
+      <c r="O23" s="56"/>
+      <c r="P23" s="56"/>
+      <c r="Q23" s="56"/>
+      <c r="R23" s="56"/>
+      <c r="S23" s="56"/>
     </row>
     <row r="24" spans="1:19">
-      <c r="A24" s="104"/>
-      <c r="B24" s="111"/>
-      <c r="C24" s="117"/>
-      <c r="D24" s="119"/>
-      <c r="E24" s="119"/>
-      <c r="F24" s="119"/>
-      <c r="G24" s="119"/>
-      <c r="H24" s="119"/>
-      <c r="I24" s="119"/>
-      <c r="J24" s="119"/>
-      <c r="K24" s="119"/>
-      <c r="L24" s="119"/>
-      <c r="M24" s="119"/>
-      <c r="N24" s="119"/>
-      <c r="O24" s="119"/>
-      <c r="P24" s="119"/>
-      <c r="Q24" s="119"/>
-      <c r="R24" s="119"/>
-      <c r="S24" s="119"/>
+      <c r="A24" s="69"/>
+      <c r="B24" s="85"/>
+      <c r="C24" s="84"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="56"/>
+      <c r="K24" s="56"/>
+      <c r="L24" s="56"/>
+      <c r="M24" s="56"/>
+      <c r="N24" s="56"/>
+      <c r="O24" s="56"/>
+      <c r="P24" s="56"/>
+      <c r="Q24" s="56"/>
+      <c r="R24" s="56"/>
+      <c r="S24" s="56"/>
     </row>
     <row r="25" spans="1:19">
-      <c r="A25" s="104"/>
-      <c r="B25" s="111"/>
-      <c r="C25" s="117"/>
-      <c r="D25" s="119"/>
-      <c r="E25" s="119"/>
-      <c r="F25" s="119"/>
-      <c r="G25" s="119"/>
-      <c r="H25" s="119"/>
-      <c r="I25" s="119"/>
-      <c r="J25" s="119"/>
-      <c r="K25" s="119"/>
-      <c r="L25" s="119"/>
-      <c r="M25" s="119"/>
-      <c r="N25" s="119"/>
-      <c r="O25" s="119"/>
-      <c r="P25" s="119"/>
-      <c r="Q25" s="119"/>
-      <c r="R25" s="119"/>
-      <c r="S25" s="119"/>
+      <c r="A25" s="69"/>
+      <c r="B25" s="85"/>
+      <c r="C25" s="84"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="56"/>
+      <c r="H25" s="56"/>
+      <c r="I25" s="56"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="56"/>
+      <c r="L25" s="56"/>
+      <c r="M25" s="56"/>
+      <c r="N25" s="56"/>
+      <c r="O25" s="56"/>
+      <c r="P25" s="56"/>
+      <c r="Q25" s="56"/>
+      <c r="R25" s="56"/>
+      <c r="S25" s="56"/>
     </row>
     <row r="26" spans="1:19">
-      <c r="A26" s="104"/>
-      <c r="B26" s="111"/>
-      <c r="C26" s="117"/>
-      <c r="D26" s="119"/>
-      <c r="E26" s="119"/>
-      <c r="F26" s="119"/>
-      <c r="G26" s="119"/>
-      <c r="H26" s="119"/>
-      <c r="I26" s="119"/>
-      <c r="J26" s="119"/>
-      <c r="K26" s="119"/>
-      <c r="L26" s="119"/>
-      <c r="M26" s="119"/>
-      <c r="N26" s="119"/>
-      <c r="O26" s="119"/>
-      <c r="P26" s="119"/>
-      <c r="Q26" s="119"/>
-      <c r="R26" s="119"/>
-      <c r="S26" s="119"/>
+      <c r="A26" s="69"/>
+      <c r="B26" s="85"/>
+      <c r="C26" s="84"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="56"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="56"/>
+      <c r="K26" s="56"/>
+      <c r="L26" s="56"/>
+      <c r="M26" s="56"/>
+      <c r="N26" s="56"/>
+      <c r="O26" s="56"/>
+      <c r="P26" s="56"/>
+      <c r="Q26" s="56"/>
+      <c r="R26" s="56"/>
+      <c r="S26" s="56"/>
     </row>
     <row r="27" spans="1:19">
-      <c r="A27" s="104"/>
-      <c r="B27" s="111"/>
-      <c r="C27" s="117"/>
-      <c r="D27" s="119"/>
-      <c r="E27" s="119"/>
-      <c r="F27" s="119"/>
-      <c r="G27" s="119"/>
-      <c r="H27" s="119"/>
-      <c r="I27" s="119"/>
-      <c r="J27" s="119"/>
-      <c r="K27" s="119"/>
-      <c r="L27" s="119"/>
-      <c r="M27" s="119"/>
-      <c r="N27" s="119"/>
-      <c r="O27" s="119"/>
-      <c r="P27" s="119"/>
-      <c r="Q27" s="119"/>
-      <c r="R27" s="119"/>
-      <c r="S27" s="119"/>
+      <c r="A27" s="69"/>
+      <c r="B27" s="85"/>
+      <c r="C27" s="84"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="56"/>
+      <c r="L27" s="56"/>
+      <c r="M27" s="56"/>
+      <c r="N27" s="56"/>
+      <c r="O27" s="56"/>
+      <c r="P27" s="56"/>
+      <c r="Q27" s="56"/>
+      <c r="R27" s="56"/>
+      <c r="S27" s="56"/>
     </row>
     <row r="28" spans="1:19">
-      <c r="A28" s="105"/>
-      <c r="B28" s="112"/>
-      <c r="C28" s="117"/>
-      <c r="D28" s="119"/>
-      <c r="E28" s="119"/>
-      <c r="F28" s="119"/>
-      <c r="G28" s="119"/>
-      <c r="H28" s="119"/>
-      <c r="I28" s="119"/>
-      <c r="J28" s="119"/>
-      <c r="K28" s="119"/>
-      <c r="L28" s="119"/>
-      <c r="M28" s="119"/>
-      <c r="N28" s="119"/>
-      <c r="O28" s="119"/>
-      <c r="P28" s="119"/>
-      <c r="Q28" s="119"/>
-      <c r="R28" s="119"/>
-      <c r="S28" s="119"/>
+      <c r="A28" s="102"/>
+      <c r="B28" s="87"/>
+      <c r="C28" s="84"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="56"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="56"/>
+      <c r="K28" s="56"/>
+      <c r="L28" s="56"/>
+      <c r="M28" s="56"/>
+      <c r="N28" s="56"/>
+      <c r="O28" s="56"/>
+      <c r="P28" s="56"/>
+      <c r="Q28" s="56"/>
+      <c r="R28" s="56"/>
+      <c r="S28" s="56"/>
     </row>
     <row r="29" spans="1:19">
-      <c r="A29" s="103" t="s">
+      <c r="A29" s="101" t="s">
         <v>261</v>
       </c>
-      <c r="B29" s="110"/>
-      <c r="C29" s="117" t="s">
+      <c r="B29" s="83"/>
+      <c r="C29" s="84" t="s">
         <v>411</v>
       </c>
-      <c r="D29" s="119"/>
-      <c r="E29" s="119"/>
-      <c r="F29" s="119"/>
-      <c r="G29" s="119"/>
-      <c r="H29" s="119"/>
-      <c r="I29" s="119"/>
-      <c r="J29" s="119"/>
-      <c r="K29" s="119"/>
-      <c r="L29" s="119"/>
-      <c r="M29" s="119"/>
-      <c r="N29" s="119"/>
-      <c r="O29" s="119"/>
-      <c r="P29" s="119"/>
-      <c r="Q29" s="119"/>
-      <c r="R29" s="119"/>
-      <c r="S29" s="127"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="56"/>
+      <c r="I29" s="56"/>
+      <c r="J29" s="56"/>
+      <c r="K29" s="56"/>
+      <c r="L29" s="56"/>
+      <c r="M29" s="56"/>
+      <c r="N29" s="56"/>
+      <c r="O29" s="56"/>
+      <c r="P29" s="56"/>
+      <c r="Q29" s="56"/>
+      <c r="R29" s="56"/>
+      <c r="S29" s="56"/>
     </row>
     <row r="30" spans="1:19">
-      <c r="A30" s="104"/>
-      <c r="B30" s="111"/>
-      <c r="C30" s="117"/>
-      <c r="D30" s="119"/>
-      <c r="E30" s="119"/>
-      <c r="F30" s="119"/>
-      <c r="G30" s="119"/>
-      <c r="H30" s="119"/>
-      <c r="I30" s="119"/>
-      <c r="J30" s="119"/>
-      <c r="K30" s="119"/>
-      <c r="L30" s="119"/>
-      <c r="M30" s="119"/>
-      <c r="N30" s="119"/>
-      <c r="O30" s="119"/>
-      <c r="P30" s="119"/>
-      <c r="Q30" s="119"/>
-      <c r="R30" s="119"/>
-      <c r="S30" s="127"/>
+      <c r="A30" s="69"/>
+      <c r="B30" s="85"/>
+      <c r="C30" s="84"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="56"/>
+      <c r="H30" s="56"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="56"/>
+      <c r="K30" s="56"/>
+      <c r="L30" s="56"/>
+      <c r="M30" s="56"/>
+      <c r="N30" s="56"/>
+      <c r="O30" s="56"/>
+      <c r="P30" s="56"/>
+      <c r="Q30" s="56"/>
+      <c r="R30" s="56"/>
+      <c r="S30" s="56"/>
     </row>
     <row r="31" spans="1:19">
-      <c r="A31" s="104"/>
-      <c r="B31" s="111"/>
-      <c r="C31" s="117"/>
-      <c r="D31" s="119"/>
-      <c r="E31" s="119"/>
-      <c r="F31" s="119"/>
-      <c r="G31" s="119"/>
-      <c r="H31" s="119"/>
-      <c r="I31" s="119"/>
-      <c r="J31" s="119"/>
-      <c r="K31" s="119"/>
-      <c r="L31" s="119"/>
-      <c r="M31" s="119"/>
-      <c r="N31" s="119"/>
-      <c r="O31" s="119"/>
-      <c r="P31" s="119"/>
-      <c r="Q31" s="119"/>
-      <c r="R31" s="119"/>
-      <c r="S31" s="127"/>
+      <c r="A31" s="69"/>
+      <c r="B31" s="85"/>
+      <c r="C31" s="84"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="56"/>
+      <c r="H31" s="56"/>
+      <c r="I31" s="56"/>
+      <c r="J31" s="56"/>
+      <c r="K31" s="56"/>
+      <c r="L31" s="56"/>
+      <c r="M31" s="56"/>
+      <c r="N31" s="56"/>
+      <c r="O31" s="56"/>
+      <c r="P31" s="56"/>
+      <c r="Q31" s="56"/>
+      <c r="R31" s="56"/>
+      <c r="S31" s="56"/>
     </row>
     <row r="32" spans="1:19">
-      <c r="A32" s="106"/>
-      <c r="B32" s="113"/>
-      <c r="C32" s="117"/>
-      <c r="D32" s="119"/>
-      <c r="E32" s="119"/>
-      <c r="F32" s="119"/>
-      <c r="G32" s="119"/>
-      <c r="H32" s="119"/>
-      <c r="I32" s="119"/>
-      <c r="J32" s="119"/>
-      <c r="K32" s="119"/>
-      <c r="L32" s="119"/>
-      <c r="M32" s="119"/>
-      <c r="N32" s="119"/>
-      <c r="O32" s="119"/>
-      <c r="P32" s="119"/>
-      <c r="Q32" s="119"/>
-      <c r="R32" s="119"/>
-      <c r="S32" s="127"/>
+      <c r="A32" s="103"/>
+      <c r="B32" s="104"/>
+      <c r="C32" s="84"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="56"/>
+      <c r="H32" s="56"/>
+      <c r="I32" s="56"/>
+      <c r="J32" s="56"/>
+      <c r="K32" s="56"/>
+      <c r="L32" s="56"/>
+      <c r="M32" s="56"/>
+      <c r="N32" s="56"/>
+      <c r="O32" s="56"/>
+      <c r="P32" s="56"/>
+      <c r="Q32" s="56"/>
+      <c r="R32" s="56"/>
+      <c r="S32" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="24">
@@ -20381,719 +20312,719 @@
       <c r="A1" s="100">
         <v>22</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="114" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="105" t="s">
         <v>414</v>
       </c>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
-      <c r="J1" s="107"/>
-      <c r="K1" s="107"/>
-      <c r="L1" s="107"/>
-      <c r="M1" s="107"/>
-      <c r="N1" s="107"/>
-      <c r="O1" s="107"/>
-      <c r="P1" s="107"/>
-      <c r="Q1" s="107"/>
-      <c r="R1" s="121" t="s">
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="24" t="s">
         <v>254</v>
       </c>
-      <c r="S1" s="125">
+      <c r="S1" s="110">
         <v>43601</v>
       </c>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="101"/>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="108"/>
-      <c r="K2" s="108"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="108"/>
-      <c r="N2" s="108"/>
-      <c r="O2" s="108"/>
-      <c r="P2" s="108"/>
-      <c r="Q2" s="108"/>
-      <c r="R2" s="122"/>
-      <c r="S2" s="119"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="56"/>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="101"/>
-      <c r="B3" s="108"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
-      <c r="G3" s="108"/>
-      <c r="H3" s="108"/>
-      <c r="I3" s="108"/>
-      <c r="J3" s="108"/>
-      <c r="K3" s="108"/>
-      <c r="L3" s="108"/>
-      <c r="M3" s="108"/>
-      <c r="N3" s="108"/>
-      <c r="O3" s="108"/>
-      <c r="P3" s="108"/>
-      <c r="Q3" s="108"/>
-      <c r="R3" s="122" t="s">
+      <c r="A3" s="51"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="16" t="s">
         <v>255</v>
       </c>
-      <c r="S3" s="125">
+      <c r="S3" s="110">
         <v>43601</v>
       </c>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="101"/>
-      <c r="B4" s="108"/>
-      <c r="C4" s="115" t="s">
+      <c r="A4" s="51"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="106" t="s">
         <v>262</v>
       </c>
-      <c r="D4" s="118"/>
-      <c r="E4" s="115" t="s">
+      <c r="D4" s="107"/>
+      <c r="E4" s="106" t="s">
         <v>416</v>
       </c>
-      <c r="F4" s="120"/>
-      <c r="G4" s="120"/>
-      <c r="H4" s="120"/>
-      <c r="I4" s="120"/>
-      <c r="J4" s="120"/>
-      <c r="K4" s="120"/>
-      <c r="L4" s="120"/>
-      <c r="M4" s="120"/>
-      <c r="N4" s="120"/>
-      <c r="O4" s="120"/>
-      <c r="P4" s="120"/>
-      <c r="Q4" s="118"/>
-      <c r="R4" s="122"/>
-      <c r="S4" s="119"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="108"/>
+      <c r="H4" s="108"/>
+      <c r="I4" s="108"/>
+      <c r="J4" s="108"/>
+      <c r="K4" s="108"/>
+      <c r="L4" s="108"/>
+      <c r="M4" s="108"/>
+      <c r="N4" s="108"/>
+      <c r="O4" s="108"/>
+      <c r="P4" s="108"/>
+      <c r="Q4" s="107"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="56"/>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="101" t="s">
+      <c r="A5" s="51" t="s">
         <v>257</v>
       </c>
-      <c r="B5" s="108"/>
-      <c r="C5" s="108" t="s">
+      <c r="B5" s="13"/>
+      <c r="C5" s="13" t="s">
         <v>278</v>
       </c>
-      <c r="D5" s="108"/>
-      <c r="E5" s="108"/>
-      <c r="F5" s="108"/>
-      <c r="G5" s="108"/>
-      <c r="H5" s="108"/>
-      <c r="I5" s="108" t="s">
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13" t="s">
         <v>258</v>
       </c>
-      <c r="J5" s="108"/>
-      <c r="K5" s="108" t="s">
+      <c r="J5" s="13"/>
+      <c r="K5" s="13" t="s">
         <v>394</v>
       </c>
-      <c r="L5" s="108"/>
-      <c r="M5" s="108"/>
-      <c r="N5" s="108"/>
-      <c r="O5" s="108"/>
-      <c r="P5" s="108"/>
-      <c r="Q5" s="108"/>
-      <c r="R5" s="123" t="s">
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="22" t="s">
         <v>403</v>
       </c>
-      <c r="S5" s="104" t="s">
+      <c r="S5" s="69" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="101" t="s">
+      <c r="A6" s="51" t="s">
         <v>259</v>
       </c>
-      <c r="B6" s="108"/>
-      <c r="C6" s="108" t="s">
+      <c r="B6" s="13"/>
+      <c r="C6" s="13" t="s">
         <v>304</v>
       </c>
-      <c r="D6" s="108"/>
-      <c r="E6" s="108"/>
-      <c r="F6" s="108"/>
-      <c r="G6" s="108"/>
-      <c r="H6" s="108"/>
-      <c r="I6" s="108" t="s">
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13" t="s">
         <v>277</v>
       </c>
-      <c r="J6" s="108"/>
-      <c r="K6" s="108" t="s">
+      <c r="J6" s="13"/>
+      <c r="K6" s="13" t="s">
         <v>413</v>
       </c>
-      <c r="L6" s="108"/>
-      <c r="M6" s="108"/>
-      <c r="N6" s="108"/>
-      <c r="O6" s="108"/>
-      <c r="P6" s="108"/>
-      <c r="Q6" s="108"/>
-      <c r="R6" s="124"/>
-      <c r="S6" s="104"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="109"/>
+      <c r="S6" s="69"/>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="103" t="s">
+      <c r="A7" s="101" t="s">
         <v>388</v>
       </c>
-      <c r="B7" s="110"/>
-      <c r="C7" s="116" t="s">
+      <c r="B7" s="83"/>
+      <c r="C7" s="88" t="s">
         <v>415</v>
       </c>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="119"/>
-      <c r="K7" s="119"/>
-      <c r="L7" s="119"/>
-      <c r="M7" s="119"/>
-      <c r="N7" s="119"/>
-      <c r="O7" s="119"/>
-      <c r="P7" s="119"/>
-      <c r="Q7" s="119"/>
-      <c r="R7" s="119"/>
-      <c r="S7" s="119"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="56"/>
+      <c r="O7" s="56"/>
+      <c r="P7" s="56"/>
+      <c r="Q7" s="56"/>
+      <c r="R7" s="56"/>
+      <c r="S7" s="56"/>
     </row>
     <row r="8" spans="1:19">
-      <c r="A8" s="104"/>
-      <c r="B8" s="111"/>
-      <c r="C8" s="117"/>
-      <c r="D8" s="119"/>
-      <c r="E8" s="119"/>
-      <c r="F8" s="119"/>
-      <c r="G8" s="119"/>
-      <c r="H8" s="119"/>
-      <c r="I8" s="119"/>
-      <c r="J8" s="119"/>
-      <c r="K8" s="119"/>
-      <c r="L8" s="119"/>
-      <c r="M8" s="119"/>
-      <c r="N8" s="119"/>
-      <c r="O8" s="119"/>
-      <c r="P8" s="119"/>
-      <c r="Q8" s="119"/>
-      <c r="R8" s="119"/>
-      <c r="S8" s="119"/>
+      <c r="A8" s="69"/>
+      <c r="B8" s="85"/>
+      <c r="C8" s="84"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="56"/>
+      <c r="M8" s="56"/>
+      <c r="N8" s="56"/>
+      <c r="O8" s="56"/>
+      <c r="P8" s="56"/>
+      <c r="Q8" s="56"/>
+      <c r="R8" s="56"/>
+      <c r="S8" s="56"/>
     </row>
     <row r="9" spans="1:19">
-      <c r="A9" s="104"/>
-      <c r="B9" s="111"/>
-      <c r="C9" s="117"/>
-      <c r="D9" s="119"/>
-      <c r="E9" s="119"/>
-      <c r="F9" s="119"/>
-      <c r="G9" s="119"/>
-      <c r="H9" s="119"/>
-      <c r="I9" s="119"/>
-      <c r="J9" s="119"/>
-      <c r="K9" s="119"/>
-      <c r="L9" s="119"/>
-      <c r="M9" s="119"/>
-      <c r="N9" s="119"/>
-      <c r="O9" s="119"/>
-      <c r="P9" s="119"/>
-      <c r="Q9" s="119"/>
-      <c r="R9" s="119"/>
-      <c r="S9" s="119"/>
+      <c r="A9" s="69"/>
+      <c r="B9" s="85"/>
+      <c r="C9" s="84"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="56"/>
+      <c r="O9" s="56"/>
+      <c r="P9" s="56"/>
+      <c r="Q9" s="56"/>
+      <c r="R9" s="56"/>
+      <c r="S9" s="56"/>
     </row>
     <row r="10" spans="1:19">
-      <c r="A10" s="104"/>
-      <c r="B10" s="111"/>
-      <c r="C10" s="117"/>
-      <c r="D10" s="119"/>
-      <c r="E10" s="119"/>
-      <c r="F10" s="119"/>
-      <c r="G10" s="119"/>
-      <c r="H10" s="119"/>
-      <c r="I10" s="119"/>
-      <c r="J10" s="119"/>
-      <c r="K10" s="119"/>
-      <c r="L10" s="119"/>
-      <c r="M10" s="119"/>
-      <c r="N10" s="119"/>
-      <c r="O10" s="119"/>
-      <c r="P10" s="119"/>
-      <c r="Q10" s="119"/>
-      <c r="R10" s="119"/>
-      <c r="S10" s="119"/>
+      <c r="A10" s="69"/>
+      <c r="B10" s="85"/>
+      <c r="C10" s="84"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="56"/>
+      <c r="M10" s="56"/>
+      <c r="N10" s="56"/>
+      <c r="O10" s="56"/>
+      <c r="P10" s="56"/>
+      <c r="Q10" s="56"/>
+      <c r="R10" s="56"/>
+      <c r="S10" s="56"/>
     </row>
     <row r="11" spans="1:19">
-      <c r="A11" s="104"/>
-      <c r="B11" s="111"/>
-      <c r="C11" s="117"/>
-      <c r="D11" s="119"/>
-      <c r="E11" s="119"/>
-      <c r="F11" s="119"/>
-      <c r="G11" s="119"/>
-      <c r="H11" s="119"/>
-      <c r="I11" s="119"/>
-      <c r="J11" s="119"/>
-      <c r="K11" s="119"/>
-      <c r="L11" s="119"/>
-      <c r="M11" s="119"/>
-      <c r="N11" s="119"/>
-      <c r="O11" s="119"/>
-      <c r="P11" s="119"/>
-      <c r="Q11" s="119"/>
-      <c r="R11" s="119"/>
-      <c r="S11" s="119"/>
+      <c r="A11" s="69"/>
+      <c r="B11" s="85"/>
+      <c r="C11" s="84"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="56"/>
+      <c r="P11" s="56"/>
+      <c r="Q11" s="56"/>
+      <c r="R11" s="56"/>
+      <c r="S11" s="56"/>
     </row>
     <row r="12" spans="1:19">
-      <c r="A12" s="104"/>
-      <c r="B12" s="111"/>
-      <c r="C12" s="117"/>
-      <c r="D12" s="119"/>
-      <c r="E12" s="119"/>
-      <c r="F12" s="119"/>
-      <c r="G12" s="119"/>
-      <c r="H12" s="119"/>
-      <c r="I12" s="119"/>
-      <c r="J12" s="119"/>
-      <c r="K12" s="119"/>
-      <c r="L12" s="119"/>
-      <c r="M12" s="119"/>
-      <c r="N12" s="119"/>
-      <c r="O12" s="119"/>
-      <c r="P12" s="119"/>
-      <c r="Q12" s="119"/>
-      <c r="R12" s="119"/>
-      <c r="S12" s="119"/>
+      <c r="A12" s="69"/>
+      <c r="B12" s="85"/>
+      <c r="C12" s="84"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="56"/>
+      <c r="O12" s="56"/>
+      <c r="P12" s="56"/>
+      <c r="Q12" s="56"/>
+      <c r="R12" s="56"/>
+      <c r="S12" s="56"/>
     </row>
     <row r="13" spans="1:19">
-      <c r="A13" s="104"/>
-      <c r="B13" s="111"/>
-      <c r="C13" s="117"/>
-      <c r="D13" s="119"/>
-      <c r="E13" s="119"/>
-      <c r="F13" s="119"/>
-      <c r="G13" s="119"/>
-      <c r="H13" s="119"/>
-      <c r="I13" s="119"/>
-      <c r="J13" s="119"/>
-      <c r="K13" s="119"/>
-      <c r="L13" s="119"/>
-      <c r="M13" s="119"/>
-      <c r="N13" s="119"/>
-      <c r="O13" s="119"/>
-      <c r="P13" s="119"/>
-      <c r="Q13" s="119"/>
-      <c r="R13" s="119"/>
-      <c r="S13" s="119"/>
+      <c r="A13" s="69"/>
+      <c r="B13" s="85"/>
+      <c r="C13" s="84"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="56"/>
+      <c r="M13" s="56"/>
+      <c r="N13" s="56"/>
+      <c r="O13" s="56"/>
+      <c r="P13" s="56"/>
+      <c r="Q13" s="56"/>
+      <c r="R13" s="56"/>
+      <c r="S13" s="56"/>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14" s="104"/>
-      <c r="B14" s="111"/>
-      <c r="C14" s="117"/>
-      <c r="D14" s="119"/>
-      <c r="E14" s="119"/>
-      <c r="F14" s="119"/>
-      <c r="G14" s="119"/>
-      <c r="H14" s="119"/>
-      <c r="I14" s="119"/>
-      <c r="J14" s="119"/>
-      <c r="K14" s="119"/>
-      <c r="L14" s="119"/>
-      <c r="M14" s="119"/>
-      <c r="N14" s="119"/>
-      <c r="O14" s="119"/>
-      <c r="P14" s="119"/>
-      <c r="Q14" s="119"/>
-      <c r="R14" s="119"/>
-      <c r="S14" s="119"/>
+      <c r="A14" s="69"/>
+      <c r="B14" s="85"/>
+      <c r="C14" s="84"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="56"/>
+      <c r="O14" s="56"/>
+      <c r="P14" s="56"/>
+      <c r="Q14" s="56"/>
+      <c r="R14" s="56"/>
+      <c r="S14" s="56"/>
     </row>
     <row r="15" spans="1:19">
-      <c r="A15" s="105"/>
-      <c r="B15" s="112"/>
-      <c r="C15" s="117"/>
-      <c r="D15" s="119"/>
-      <c r="E15" s="119"/>
-      <c r="F15" s="119"/>
-      <c r="G15" s="119"/>
-      <c r="H15" s="119"/>
-      <c r="I15" s="119"/>
-      <c r="J15" s="119"/>
-      <c r="K15" s="119"/>
-      <c r="L15" s="119"/>
-      <c r="M15" s="119"/>
-      <c r="N15" s="119"/>
-      <c r="O15" s="119"/>
-      <c r="P15" s="119"/>
-      <c r="Q15" s="119"/>
-      <c r="R15" s="119"/>
-      <c r="S15" s="119"/>
+      <c r="A15" s="102"/>
+      <c r="B15" s="87"/>
+      <c r="C15" s="84"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="56"/>
+      <c r="M15" s="56"/>
+      <c r="N15" s="56"/>
+      <c r="O15" s="56"/>
+      <c r="P15" s="56"/>
+      <c r="Q15" s="56"/>
+      <c r="R15" s="56"/>
+      <c r="S15" s="56"/>
     </row>
     <row r="16" spans="1:19">
-      <c r="A16" s="103" t="s">
+      <c r="A16" s="101" t="s">
         <v>406</v>
       </c>
-      <c r="B16" s="110"/>
-      <c r="C16" s="117"/>
-      <c r="D16" s="119"/>
-      <c r="E16" s="119"/>
-      <c r="F16" s="119"/>
-      <c r="G16" s="119"/>
-      <c r="H16" s="119"/>
-      <c r="I16" s="119"/>
-      <c r="J16" s="119"/>
-      <c r="K16" s="119"/>
-      <c r="L16" s="119"/>
-      <c r="M16" s="119"/>
-      <c r="N16" s="119"/>
-      <c r="O16" s="119"/>
-      <c r="P16" s="119"/>
-      <c r="Q16" s="119"/>
-      <c r="R16" s="119"/>
-      <c r="S16" s="119"/>
+      <c r="B16" s="83"/>
+      <c r="C16" s="84"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="56"/>
+      <c r="O16" s="56"/>
+      <c r="P16" s="56"/>
+      <c r="Q16" s="56"/>
+      <c r="R16" s="56"/>
+      <c r="S16" s="56"/>
     </row>
     <row r="17" spans="1:19">
-      <c r="A17" s="104"/>
-      <c r="B17" s="111"/>
-      <c r="C17" s="117"/>
-      <c r="D17" s="119"/>
-      <c r="E17" s="119"/>
-      <c r="F17" s="119"/>
-      <c r="G17" s="119"/>
-      <c r="H17" s="119"/>
-      <c r="I17" s="119"/>
-      <c r="J17" s="119"/>
-      <c r="K17" s="119"/>
-      <c r="L17" s="119"/>
-      <c r="M17" s="119"/>
-      <c r="N17" s="119"/>
-      <c r="O17" s="119"/>
-      <c r="P17" s="119"/>
-      <c r="Q17" s="119"/>
-      <c r="R17" s="119"/>
-      <c r="S17" s="119"/>
+      <c r="A17" s="69"/>
+      <c r="B17" s="85"/>
+      <c r="C17" s="84"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="56"/>
+      <c r="O17" s="56"/>
+      <c r="P17" s="56"/>
+      <c r="Q17" s="56"/>
+      <c r="R17" s="56"/>
+      <c r="S17" s="56"/>
     </row>
     <row r="18" spans="1:19">
-      <c r="A18" s="104"/>
-      <c r="B18" s="111"/>
-      <c r="C18" s="117"/>
-      <c r="D18" s="119"/>
-      <c r="E18" s="119"/>
-      <c r="F18" s="119"/>
-      <c r="G18" s="119"/>
-      <c r="H18" s="119"/>
-      <c r="I18" s="119"/>
-      <c r="J18" s="119"/>
-      <c r="K18" s="119"/>
-      <c r="L18" s="119"/>
-      <c r="M18" s="119"/>
-      <c r="N18" s="119"/>
-      <c r="O18" s="119"/>
-      <c r="P18" s="119"/>
-      <c r="Q18" s="119"/>
-      <c r="R18" s="119"/>
-      <c r="S18" s="119"/>
+      <c r="A18" s="69"/>
+      <c r="B18" s="85"/>
+      <c r="C18" s="84"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="56"/>
+      <c r="O18" s="56"/>
+      <c r="P18" s="56"/>
+      <c r="Q18" s="56"/>
+      <c r="R18" s="56"/>
+      <c r="S18" s="56"/>
     </row>
     <row r="19" spans="1:19">
-      <c r="A19" s="104"/>
-      <c r="B19" s="111"/>
-      <c r="C19" s="117"/>
-      <c r="D19" s="119"/>
-      <c r="E19" s="119"/>
-      <c r="F19" s="119"/>
-      <c r="G19" s="119"/>
-      <c r="H19" s="119"/>
-      <c r="I19" s="119"/>
-      <c r="J19" s="119"/>
-      <c r="K19" s="119"/>
-      <c r="L19" s="119"/>
-      <c r="M19" s="119"/>
-      <c r="N19" s="119"/>
-      <c r="O19" s="119"/>
-      <c r="P19" s="119"/>
-      <c r="Q19" s="119"/>
-      <c r="R19" s="119"/>
-      <c r="S19" s="119"/>
+      <c r="A19" s="69"/>
+      <c r="B19" s="85"/>
+      <c r="C19" s="84"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="56"/>
+      <c r="M19" s="56"/>
+      <c r="N19" s="56"/>
+      <c r="O19" s="56"/>
+      <c r="P19" s="56"/>
+      <c r="Q19" s="56"/>
+      <c r="R19" s="56"/>
+      <c r="S19" s="56"/>
     </row>
     <row r="20" spans="1:19">
-      <c r="A20" s="104"/>
-      <c r="B20" s="111"/>
-      <c r="C20" s="117"/>
-      <c r="D20" s="119"/>
-      <c r="E20" s="119"/>
-      <c r="F20" s="119"/>
-      <c r="G20" s="119"/>
-      <c r="H20" s="119"/>
-      <c r="I20" s="119"/>
-      <c r="J20" s="119"/>
-      <c r="K20" s="119"/>
-      <c r="L20" s="119"/>
-      <c r="M20" s="119"/>
-      <c r="N20" s="119"/>
-      <c r="O20" s="119"/>
-      <c r="P20" s="119"/>
-      <c r="Q20" s="119"/>
-      <c r="R20" s="119"/>
-      <c r="S20" s="119"/>
+      <c r="A20" s="69"/>
+      <c r="B20" s="85"/>
+      <c r="C20" s="84"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="56"/>
+      <c r="O20" s="56"/>
+      <c r="P20" s="56"/>
+      <c r="Q20" s="56"/>
+      <c r="R20" s="56"/>
+      <c r="S20" s="56"/>
     </row>
     <row r="21" spans="1:19">
-      <c r="A21" s="104"/>
-      <c r="B21" s="111"/>
-      <c r="C21" s="117"/>
-      <c r="D21" s="119"/>
-      <c r="E21" s="119"/>
-      <c r="F21" s="119"/>
-      <c r="G21" s="119"/>
-      <c r="H21" s="119"/>
-      <c r="I21" s="119"/>
-      <c r="J21" s="119"/>
-      <c r="K21" s="119"/>
-      <c r="L21" s="119"/>
-      <c r="M21" s="119"/>
-      <c r="N21" s="119"/>
-      <c r="O21" s="119"/>
-      <c r="P21" s="119"/>
-      <c r="Q21" s="119"/>
-      <c r="R21" s="119"/>
-      <c r="S21" s="119"/>
+      <c r="A21" s="69"/>
+      <c r="B21" s="85"/>
+      <c r="C21" s="84"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="56"/>
+      <c r="L21" s="56"/>
+      <c r="M21" s="56"/>
+      <c r="N21" s="56"/>
+      <c r="O21" s="56"/>
+      <c r="P21" s="56"/>
+      <c r="Q21" s="56"/>
+      <c r="R21" s="56"/>
+      <c r="S21" s="56"/>
     </row>
     <row r="22" spans="1:19">
-      <c r="A22" s="104"/>
-      <c r="B22" s="111"/>
-      <c r="C22" s="117"/>
-      <c r="D22" s="119"/>
-      <c r="E22" s="119"/>
-      <c r="F22" s="119"/>
-      <c r="G22" s="119"/>
-      <c r="H22" s="119"/>
-      <c r="I22" s="119"/>
-      <c r="J22" s="119"/>
-      <c r="K22" s="119"/>
-      <c r="L22" s="119"/>
-      <c r="M22" s="119"/>
-      <c r="N22" s="119"/>
-      <c r="O22" s="119"/>
-      <c r="P22" s="119"/>
-      <c r="Q22" s="119"/>
-      <c r="R22" s="119"/>
-      <c r="S22" s="119"/>
+      <c r="A22" s="69"/>
+      <c r="B22" s="85"/>
+      <c r="C22" s="84"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="56"/>
+      <c r="M22" s="56"/>
+      <c r="N22" s="56"/>
+      <c r="O22" s="56"/>
+      <c r="P22" s="56"/>
+      <c r="Q22" s="56"/>
+      <c r="R22" s="56"/>
+      <c r="S22" s="56"/>
     </row>
     <row r="23" spans="1:19">
-      <c r="A23" s="104"/>
-      <c r="B23" s="111"/>
-      <c r="C23" s="117"/>
-      <c r="D23" s="119"/>
-      <c r="E23" s="119"/>
-      <c r="F23" s="119"/>
-      <c r="G23" s="119"/>
-      <c r="H23" s="119"/>
-      <c r="I23" s="119"/>
-      <c r="J23" s="119"/>
-      <c r="K23" s="119"/>
-      <c r="L23" s="119"/>
-      <c r="M23" s="119"/>
-      <c r="N23" s="119"/>
-      <c r="O23" s="119"/>
-      <c r="P23" s="119"/>
-      <c r="Q23" s="119"/>
-      <c r="R23" s="119"/>
-      <c r="S23" s="119"/>
+      <c r="A23" s="69"/>
+      <c r="B23" s="85"/>
+      <c r="C23" s="84"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="56"/>
+      <c r="L23" s="56"/>
+      <c r="M23" s="56"/>
+      <c r="N23" s="56"/>
+      <c r="O23" s="56"/>
+      <c r="P23" s="56"/>
+      <c r="Q23" s="56"/>
+      <c r="R23" s="56"/>
+      <c r="S23" s="56"/>
     </row>
     <row r="24" spans="1:19">
-      <c r="A24" s="104"/>
-      <c r="B24" s="111"/>
-      <c r="C24" s="117"/>
-      <c r="D24" s="119"/>
-      <c r="E24" s="119"/>
-      <c r="F24" s="119"/>
-      <c r="G24" s="119"/>
-      <c r="H24" s="119"/>
-      <c r="I24" s="119"/>
-      <c r="J24" s="119"/>
-      <c r="K24" s="119"/>
-      <c r="L24" s="119"/>
-      <c r="M24" s="119"/>
-      <c r="N24" s="119"/>
-      <c r="O24" s="119"/>
-      <c r="P24" s="119"/>
-      <c r="Q24" s="119"/>
-      <c r="R24" s="119"/>
-      <c r="S24" s="119"/>
+      <c r="A24" s="69"/>
+      <c r="B24" s="85"/>
+      <c r="C24" s="84"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="56"/>
+      <c r="K24" s="56"/>
+      <c r="L24" s="56"/>
+      <c r="M24" s="56"/>
+      <c r="N24" s="56"/>
+      <c r="O24" s="56"/>
+      <c r="P24" s="56"/>
+      <c r="Q24" s="56"/>
+      <c r="R24" s="56"/>
+      <c r="S24" s="56"/>
     </row>
     <row r="25" spans="1:19">
-      <c r="A25" s="104"/>
-      <c r="B25" s="111"/>
-      <c r="C25" s="117"/>
-      <c r="D25" s="119"/>
-      <c r="E25" s="119"/>
-      <c r="F25" s="119"/>
-      <c r="G25" s="119"/>
-      <c r="H25" s="119"/>
-      <c r="I25" s="119"/>
-      <c r="J25" s="119"/>
-      <c r="K25" s="119"/>
-      <c r="L25" s="119"/>
-      <c r="M25" s="119"/>
-      <c r="N25" s="119"/>
-      <c r="O25" s="119"/>
-      <c r="P25" s="119"/>
-      <c r="Q25" s="119"/>
-      <c r="R25" s="119"/>
-      <c r="S25" s="119"/>
+      <c r="A25" s="69"/>
+      <c r="B25" s="85"/>
+      <c r="C25" s="84"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="56"/>
+      <c r="H25" s="56"/>
+      <c r="I25" s="56"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="56"/>
+      <c r="L25" s="56"/>
+      <c r="M25" s="56"/>
+      <c r="N25" s="56"/>
+      <c r="O25" s="56"/>
+      <c r="P25" s="56"/>
+      <c r="Q25" s="56"/>
+      <c r="R25" s="56"/>
+      <c r="S25" s="56"/>
     </row>
     <row r="26" spans="1:19">
-      <c r="A26" s="104"/>
-      <c r="B26" s="111"/>
-      <c r="C26" s="117"/>
-      <c r="D26" s="119"/>
-      <c r="E26" s="119"/>
-      <c r="F26" s="119"/>
-      <c r="G26" s="119"/>
-      <c r="H26" s="119"/>
-      <c r="I26" s="119"/>
-      <c r="J26" s="119"/>
-      <c r="K26" s="119"/>
-      <c r="L26" s="119"/>
-      <c r="M26" s="119"/>
-      <c r="N26" s="119"/>
-      <c r="O26" s="119"/>
-      <c r="P26" s="119"/>
-      <c r="Q26" s="119"/>
-      <c r="R26" s="119"/>
-      <c r="S26" s="119"/>
+      <c r="A26" s="69"/>
+      <c r="B26" s="85"/>
+      <c r="C26" s="84"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="56"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="56"/>
+      <c r="K26" s="56"/>
+      <c r="L26" s="56"/>
+      <c r="M26" s="56"/>
+      <c r="N26" s="56"/>
+      <c r="O26" s="56"/>
+      <c r="P26" s="56"/>
+      <c r="Q26" s="56"/>
+      <c r="R26" s="56"/>
+      <c r="S26" s="56"/>
     </row>
     <row r="27" spans="1:19">
-      <c r="A27" s="104"/>
-      <c r="B27" s="111"/>
-      <c r="C27" s="117"/>
-      <c r="D27" s="119"/>
-      <c r="E27" s="119"/>
-      <c r="F27" s="119"/>
-      <c r="G27" s="119"/>
-      <c r="H27" s="119"/>
-      <c r="I27" s="119"/>
-      <c r="J27" s="119"/>
-      <c r="K27" s="119"/>
-      <c r="L27" s="119"/>
-      <c r="M27" s="119"/>
-      <c r="N27" s="119"/>
-      <c r="O27" s="119"/>
-      <c r="P27" s="119"/>
-      <c r="Q27" s="119"/>
-      <c r="R27" s="119"/>
-      <c r="S27" s="119"/>
+      <c r="A27" s="69"/>
+      <c r="B27" s="85"/>
+      <c r="C27" s="84"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="56"/>
+      <c r="L27" s="56"/>
+      <c r="M27" s="56"/>
+      <c r="N27" s="56"/>
+      <c r="O27" s="56"/>
+      <c r="P27" s="56"/>
+      <c r="Q27" s="56"/>
+      <c r="R27" s="56"/>
+      <c r="S27" s="56"/>
     </row>
     <row r="28" spans="1:19">
-      <c r="A28" s="105"/>
-      <c r="B28" s="112"/>
-      <c r="C28" s="117"/>
-      <c r="D28" s="119"/>
-      <c r="E28" s="119"/>
-      <c r="F28" s="119"/>
-      <c r="G28" s="119"/>
-      <c r="H28" s="119"/>
-      <c r="I28" s="119"/>
-      <c r="J28" s="119"/>
-      <c r="K28" s="119"/>
-      <c r="L28" s="119"/>
-      <c r="M28" s="119"/>
-      <c r="N28" s="119"/>
-      <c r="O28" s="119"/>
-      <c r="P28" s="119"/>
-      <c r="Q28" s="119"/>
-      <c r="R28" s="119"/>
-      <c r="S28" s="119"/>
+      <c r="A28" s="102"/>
+      <c r="B28" s="87"/>
+      <c r="C28" s="84"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="56"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="56"/>
+      <c r="K28" s="56"/>
+      <c r="L28" s="56"/>
+      <c r="M28" s="56"/>
+      <c r="N28" s="56"/>
+      <c r="O28" s="56"/>
+      <c r="P28" s="56"/>
+      <c r="Q28" s="56"/>
+      <c r="R28" s="56"/>
+      <c r="S28" s="56"/>
     </row>
     <row r="29" spans="1:19">
-      <c r="A29" s="103" t="s">
+      <c r="A29" s="101" t="s">
         <v>261</v>
       </c>
-      <c r="B29" s="110"/>
-      <c r="C29" s="117" t="s">
+      <c r="B29" s="83"/>
+      <c r="C29" s="84" t="s">
         <v>297</v>
       </c>
-      <c r="D29" s="119"/>
-      <c r="E29" s="119"/>
-      <c r="F29" s="119"/>
-      <c r="G29" s="119"/>
-      <c r="H29" s="119"/>
-      <c r="I29" s="119"/>
-      <c r="J29" s="119"/>
-      <c r="K29" s="119"/>
-      <c r="L29" s="119"/>
-      <c r="M29" s="119"/>
-      <c r="N29" s="119"/>
-      <c r="O29" s="119"/>
-      <c r="P29" s="119"/>
-      <c r="Q29" s="119"/>
-      <c r="R29" s="119"/>
-      <c r="S29" s="119"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="56"/>
+      <c r="I29" s="56"/>
+      <c r="J29" s="56"/>
+      <c r="K29" s="56"/>
+      <c r="L29" s="56"/>
+      <c r="M29" s="56"/>
+      <c r="N29" s="56"/>
+      <c r="O29" s="56"/>
+      <c r="P29" s="56"/>
+      <c r="Q29" s="56"/>
+      <c r="R29" s="56"/>
+      <c r="S29" s="56"/>
     </row>
     <row r="30" spans="1:19">
-      <c r="A30" s="104"/>
-      <c r="B30" s="111"/>
-      <c r="C30" s="117"/>
-      <c r="D30" s="119"/>
-      <c r="E30" s="119"/>
-      <c r="F30" s="119"/>
-      <c r="G30" s="119"/>
-      <c r="H30" s="119"/>
-      <c r="I30" s="119"/>
-      <c r="J30" s="119"/>
-      <c r="K30" s="119"/>
-      <c r="L30" s="119"/>
-      <c r="M30" s="119"/>
-      <c r="N30" s="119"/>
-      <c r="O30" s="119"/>
-      <c r="P30" s="119"/>
-      <c r="Q30" s="119"/>
-      <c r="R30" s="119"/>
-      <c r="S30" s="119"/>
+      <c r="A30" s="69"/>
+      <c r="B30" s="85"/>
+      <c r="C30" s="84"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="56"/>
+      <c r="H30" s="56"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="56"/>
+      <c r="K30" s="56"/>
+      <c r="L30" s="56"/>
+      <c r="M30" s="56"/>
+      <c r="N30" s="56"/>
+      <c r="O30" s="56"/>
+      <c r="P30" s="56"/>
+      <c r="Q30" s="56"/>
+      <c r="R30" s="56"/>
+      <c r="S30" s="56"/>
     </row>
     <row r="31" spans="1:19">
-      <c r="A31" s="104"/>
-      <c r="B31" s="111"/>
-      <c r="C31" s="117"/>
-      <c r="D31" s="119"/>
-      <c r="E31" s="119"/>
-      <c r="F31" s="119"/>
-      <c r="G31" s="119"/>
-      <c r="H31" s="119"/>
-      <c r="I31" s="119"/>
-      <c r="J31" s="119"/>
-      <c r="K31" s="119"/>
-      <c r="L31" s="119"/>
-      <c r="M31" s="119"/>
-      <c r="N31" s="119"/>
-      <c r="O31" s="119"/>
-      <c r="P31" s="119"/>
-      <c r="Q31" s="119"/>
-      <c r="R31" s="119"/>
-      <c r="S31" s="119"/>
+      <c r="A31" s="69"/>
+      <c r="B31" s="85"/>
+      <c r="C31" s="84"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="56"/>
+      <c r="H31" s="56"/>
+      <c r="I31" s="56"/>
+      <c r="J31" s="56"/>
+      <c r="K31" s="56"/>
+      <c r="L31" s="56"/>
+      <c r="M31" s="56"/>
+      <c r="N31" s="56"/>
+      <c r="O31" s="56"/>
+      <c r="P31" s="56"/>
+      <c r="Q31" s="56"/>
+      <c r="R31" s="56"/>
+      <c r="S31" s="56"/>
     </row>
     <row r="32" spans="1:19">
-      <c r="A32" s="106"/>
-      <c r="B32" s="113"/>
-      <c r="C32" s="117"/>
-      <c r="D32" s="119"/>
-      <c r="E32" s="119"/>
-      <c r="F32" s="119"/>
-      <c r="G32" s="119"/>
-      <c r="H32" s="119"/>
-      <c r="I32" s="119"/>
-      <c r="J32" s="119"/>
-      <c r="K32" s="119"/>
-      <c r="L32" s="119"/>
-      <c r="M32" s="119"/>
-      <c r="N32" s="119"/>
-      <c r="O32" s="119"/>
-      <c r="P32" s="119"/>
-      <c r="Q32" s="119"/>
-      <c r="R32" s="119"/>
-      <c r="S32" s="119"/>
+      <c r="A32" s="103"/>
+      <c r="B32" s="104"/>
+      <c r="C32" s="84"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="56"/>
+      <c r="H32" s="56"/>
+      <c r="I32" s="56"/>
+      <c r="J32" s="56"/>
+      <c r="K32" s="56"/>
+      <c r="L32" s="56"/>
+      <c r="M32" s="56"/>
+      <c r="N32" s="56"/>
+      <c r="O32" s="56"/>
+      <c r="P32" s="56"/>
+      <c r="Q32" s="56"/>
+      <c r="R32" s="56"/>
+      <c r="S32" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="24">
@@ -21133,7 +21064,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7:S15"/>
     </sheetView>
   </sheetViews>
@@ -21143,719 +21074,719 @@
       <c r="A1" s="100">
         <v>24</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="114" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="105" t="s">
         <v>426</v>
       </c>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
-      <c r="J1" s="107"/>
-      <c r="K1" s="107"/>
-      <c r="L1" s="107"/>
-      <c r="M1" s="107"/>
-      <c r="N1" s="107"/>
-      <c r="O1" s="107"/>
-      <c r="P1" s="107"/>
-      <c r="Q1" s="107"/>
-      <c r="R1" s="121" t="s">
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="24" t="s">
         <v>254</v>
       </c>
-      <c r="S1" s="125">
+      <c r="S1" s="110">
         <v>43601</v>
       </c>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="101"/>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="108"/>
-      <c r="K2" s="108"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="108"/>
-      <c r="N2" s="108"/>
-      <c r="O2" s="108"/>
-      <c r="P2" s="108"/>
-      <c r="Q2" s="108"/>
-      <c r="R2" s="122"/>
-      <c r="S2" s="119"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="56"/>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="101"/>
-      <c r="B3" s="108"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
-      <c r="G3" s="108"/>
-      <c r="H3" s="108"/>
-      <c r="I3" s="108"/>
-      <c r="J3" s="108"/>
-      <c r="K3" s="108"/>
-      <c r="L3" s="108"/>
-      <c r="M3" s="108"/>
-      <c r="N3" s="108"/>
-      <c r="O3" s="108"/>
-      <c r="P3" s="108"/>
-      <c r="Q3" s="108"/>
-      <c r="R3" s="122" t="s">
+      <c r="A3" s="51"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="16" t="s">
         <v>255</v>
       </c>
-      <c r="S3" s="125">
+      <c r="S3" s="110">
         <v>43601</v>
       </c>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="101"/>
-      <c r="B4" s="108"/>
-      <c r="C4" s="115" t="s">
+      <c r="A4" s="51"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="106" t="s">
         <v>262</v>
       </c>
-      <c r="D4" s="118"/>
-      <c r="E4" s="115" t="s">
+      <c r="D4" s="107"/>
+      <c r="E4" s="106" t="s">
         <v>428</v>
       </c>
-      <c r="F4" s="120"/>
-      <c r="G4" s="120"/>
-      <c r="H4" s="120"/>
-      <c r="I4" s="120"/>
-      <c r="J4" s="120"/>
-      <c r="K4" s="120"/>
-      <c r="L4" s="120"/>
-      <c r="M4" s="120"/>
-      <c r="N4" s="120"/>
-      <c r="O4" s="120"/>
-      <c r="P4" s="120"/>
-      <c r="Q4" s="118"/>
-      <c r="R4" s="122"/>
-      <c r="S4" s="119"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="108"/>
+      <c r="H4" s="108"/>
+      <c r="I4" s="108"/>
+      <c r="J4" s="108"/>
+      <c r="K4" s="108"/>
+      <c r="L4" s="108"/>
+      <c r="M4" s="108"/>
+      <c r="N4" s="108"/>
+      <c r="O4" s="108"/>
+      <c r="P4" s="108"/>
+      <c r="Q4" s="107"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="56"/>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="101" t="s">
+      <c r="A5" s="51" t="s">
         <v>257</v>
       </c>
-      <c r="B5" s="108"/>
-      <c r="C5" s="108" t="s">
+      <c r="B5" s="13"/>
+      <c r="C5" s="13" t="s">
         <v>278</v>
       </c>
-      <c r="D5" s="108"/>
-      <c r="E5" s="108"/>
-      <c r="F5" s="108"/>
-      <c r="G5" s="108"/>
-      <c r="H5" s="108"/>
-      <c r="I5" s="108" t="s">
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13" t="s">
         <v>258</v>
       </c>
-      <c r="J5" s="108"/>
-      <c r="K5" s="108" t="s">
+      <c r="J5" s="13"/>
+      <c r="K5" s="13" t="s">
         <v>394</v>
       </c>
-      <c r="L5" s="108"/>
-      <c r="M5" s="108"/>
-      <c r="N5" s="108"/>
-      <c r="O5" s="108"/>
-      <c r="P5" s="108"/>
-      <c r="Q5" s="108"/>
-      <c r="R5" s="123" t="s">
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="22" t="s">
         <v>403</v>
       </c>
-      <c r="S5" s="104" t="s">
+      <c r="S5" s="69" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="101" t="s">
+      <c r="A6" s="51" t="s">
         <v>259</v>
       </c>
-      <c r="B6" s="108"/>
-      <c r="C6" s="108" t="s">
+      <c r="B6" s="13"/>
+      <c r="C6" s="13" t="s">
         <v>304</v>
       </c>
-      <c r="D6" s="108"/>
-      <c r="E6" s="108"/>
-      <c r="F6" s="108"/>
-      <c r="G6" s="108"/>
-      <c r="H6" s="108"/>
-      <c r="I6" s="108" t="s">
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13" t="s">
         <v>277</v>
       </c>
-      <c r="J6" s="108"/>
-      <c r="K6" s="108" t="s">
+      <c r="J6" s="13"/>
+      <c r="K6" s="13" t="s">
         <v>424</v>
       </c>
-      <c r="L6" s="108"/>
-      <c r="M6" s="108"/>
-      <c r="N6" s="108"/>
-      <c r="O6" s="108"/>
-      <c r="P6" s="108"/>
-      <c r="Q6" s="108"/>
-      <c r="R6" s="124"/>
-      <c r="S6" s="104"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="109"/>
+      <c r="S6" s="69"/>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="103" t="s">
+      <c r="A7" s="101" t="s">
         <v>388</v>
       </c>
-      <c r="B7" s="110"/>
-      <c r="C7" s="116" t="s">
+      <c r="B7" s="83"/>
+      <c r="C7" s="88" t="s">
         <v>427</v>
       </c>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="119"/>
-      <c r="K7" s="119"/>
-      <c r="L7" s="119"/>
-      <c r="M7" s="119"/>
-      <c r="N7" s="119"/>
-      <c r="O7" s="119"/>
-      <c r="P7" s="119"/>
-      <c r="Q7" s="119"/>
-      <c r="R7" s="119"/>
-      <c r="S7" s="119"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="56"/>
+      <c r="O7" s="56"/>
+      <c r="P7" s="56"/>
+      <c r="Q7" s="56"/>
+      <c r="R7" s="56"/>
+      <c r="S7" s="56"/>
     </row>
     <row r="8" spans="1:19">
-      <c r="A8" s="104"/>
-      <c r="B8" s="111"/>
-      <c r="C8" s="117"/>
-      <c r="D8" s="119"/>
-      <c r="E8" s="119"/>
-      <c r="F8" s="119"/>
-      <c r="G8" s="119"/>
-      <c r="H8" s="119"/>
-      <c r="I8" s="119"/>
-      <c r="J8" s="119"/>
-      <c r="K8" s="119"/>
-      <c r="L8" s="119"/>
-      <c r="M8" s="119"/>
-      <c r="N8" s="119"/>
-      <c r="O8" s="119"/>
-      <c r="P8" s="119"/>
-      <c r="Q8" s="119"/>
-      <c r="R8" s="119"/>
-      <c r="S8" s="119"/>
+      <c r="A8" s="69"/>
+      <c r="B8" s="85"/>
+      <c r="C8" s="84"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="56"/>
+      <c r="M8" s="56"/>
+      <c r="N8" s="56"/>
+      <c r="O8" s="56"/>
+      <c r="P8" s="56"/>
+      <c r="Q8" s="56"/>
+      <c r="R8" s="56"/>
+      <c r="S8" s="56"/>
     </row>
     <row r="9" spans="1:19">
-      <c r="A9" s="104"/>
-      <c r="B9" s="111"/>
-      <c r="C9" s="117"/>
-      <c r="D9" s="119"/>
-      <c r="E9" s="119"/>
-      <c r="F9" s="119"/>
-      <c r="G9" s="119"/>
-      <c r="H9" s="119"/>
-      <c r="I9" s="119"/>
-      <c r="J9" s="119"/>
-      <c r="K9" s="119"/>
-      <c r="L9" s="119"/>
-      <c r="M9" s="119"/>
-      <c r="N9" s="119"/>
-      <c r="O9" s="119"/>
-      <c r="P9" s="119"/>
-      <c r="Q9" s="119"/>
-      <c r="R9" s="119"/>
-      <c r="S9" s="119"/>
+      <c r="A9" s="69"/>
+      <c r="B9" s="85"/>
+      <c r="C9" s="84"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="56"/>
+      <c r="O9" s="56"/>
+      <c r="P9" s="56"/>
+      <c r="Q9" s="56"/>
+      <c r="R9" s="56"/>
+      <c r="S9" s="56"/>
     </row>
     <row r="10" spans="1:19">
-      <c r="A10" s="104"/>
-      <c r="B10" s="111"/>
-      <c r="C10" s="117"/>
-      <c r="D10" s="119"/>
-      <c r="E10" s="119"/>
-      <c r="F10" s="119"/>
-      <c r="G10" s="119"/>
-      <c r="H10" s="119"/>
-      <c r="I10" s="119"/>
-      <c r="J10" s="119"/>
-      <c r="K10" s="119"/>
-      <c r="L10" s="119"/>
-      <c r="M10" s="119"/>
-      <c r="N10" s="119"/>
-      <c r="O10" s="119"/>
-      <c r="P10" s="119"/>
-      <c r="Q10" s="119"/>
-      <c r="R10" s="119"/>
-      <c r="S10" s="119"/>
+      <c r="A10" s="69"/>
+      <c r="B10" s="85"/>
+      <c r="C10" s="84"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="56"/>
+      <c r="M10" s="56"/>
+      <c r="N10" s="56"/>
+      <c r="O10" s="56"/>
+      <c r="P10" s="56"/>
+      <c r="Q10" s="56"/>
+      <c r="R10" s="56"/>
+      <c r="S10" s="56"/>
     </row>
     <row r="11" spans="1:19">
-      <c r="A11" s="104"/>
-      <c r="B11" s="111"/>
-      <c r="C11" s="117"/>
-      <c r="D11" s="119"/>
-      <c r="E11" s="119"/>
-      <c r="F11" s="119"/>
-      <c r="G11" s="119"/>
-      <c r="H11" s="119"/>
-      <c r="I11" s="119"/>
-      <c r="J11" s="119"/>
-      <c r="K11" s="119"/>
-      <c r="L11" s="119"/>
-      <c r="M11" s="119"/>
-      <c r="N11" s="119"/>
-      <c r="O11" s="119"/>
-      <c r="P11" s="119"/>
-      <c r="Q11" s="119"/>
-      <c r="R11" s="119"/>
-      <c r="S11" s="119"/>
+      <c r="A11" s="69"/>
+      <c r="B11" s="85"/>
+      <c r="C11" s="84"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="56"/>
+      <c r="P11" s="56"/>
+      <c r="Q11" s="56"/>
+      <c r="R11" s="56"/>
+      <c r="S11" s="56"/>
     </row>
     <row r="12" spans="1:19">
-      <c r="A12" s="104"/>
-      <c r="B12" s="111"/>
-      <c r="C12" s="117"/>
-      <c r="D12" s="119"/>
-      <c r="E12" s="119"/>
-      <c r="F12" s="119"/>
-      <c r="G12" s="119"/>
-      <c r="H12" s="119"/>
-      <c r="I12" s="119"/>
-      <c r="J12" s="119"/>
-      <c r="K12" s="119"/>
-      <c r="L12" s="119"/>
-      <c r="M12" s="119"/>
-      <c r="N12" s="119"/>
-      <c r="O12" s="119"/>
-      <c r="P12" s="119"/>
-      <c r="Q12" s="119"/>
-      <c r="R12" s="119"/>
-      <c r="S12" s="119"/>
+      <c r="A12" s="69"/>
+      <c r="B12" s="85"/>
+      <c r="C12" s="84"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="56"/>
+      <c r="O12" s="56"/>
+      <c r="P12" s="56"/>
+      <c r="Q12" s="56"/>
+      <c r="R12" s="56"/>
+      <c r="S12" s="56"/>
     </row>
     <row r="13" spans="1:19">
-      <c r="A13" s="104"/>
-      <c r="B13" s="111"/>
-      <c r="C13" s="117"/>
-      <c r="D13" s="119"/>
-      <c r="E13" s="119"/>
-      <c r="F13" s="119"/>
-      <c r="G13" s="119"/>
-      <c r="H13" s="119"/>
-      <c r="I13" s="119"/>
-      <c r="J13" s="119"/>
-      <c r="K13" s="119"/>
-      <c r="L13" s="119"/>
-      <c r="M13" s="119"/>
-      <c r="N13" s="119"/>
-      <c r="O13" s="119"/>
-      <c r="P13" s="119"/>
-      <c r="Q13" s="119"/>
-      <c r="R13" s="119"/>
-      <c r="S13" s="119"/>
+      <c r="A13" s="69"/>
+      <c r="B13" s="85"/>
+      <c r="C13" s="84"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="56"/>
+      <c r="M13" s="56"/>
+      <c r="N13" s="56"/>
+      <c r="O13" s="56"/>
+      <c r="P13" s="56"/>
+      <c r="Q13" s="56"/>
+      <c r="R13" s="56"/>
+      <c r="S13" s="56"/>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14" s="104"/>
-      <c r="B14" s="111"/>
-      <c r="C14" s="117"/>
-      <c r="D14" s="119"/>
-      <c r="E14" s="119"/>
-      <c r="F14" s="119"/>
-      <c r="G14" s="119"/>
-      <c r="H14" s="119"/>
-      <c r="I14" s="119"/>
-      <c r="J14" s="119"/>
-      <c r="K14" s="119"/>
-      <c r="L14" s="119"/>
-      <c r="M14" s="119"/>
-      <c r="N14" s="119"/>
-      <c r="O14" s="119"/>
-      <c r="P14" s="119"/>
-      <c r="Q14" s="119"/>
-      <c r="R14" s="119"/>
-      <c r="S14" s="119"/>
+      <c r="A14" s="69"/>
+      <c r="B14" s="85"/>
+      <c r="C14" s="84"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="56"/>
+      <c r="O14" s="56"/>
+      <c r="P14" s="56"/>
+      <c r="Q14" s="56"/>
+      <c r="R14" s="56"/>
+      <c r="S14" s="56"/>
     </row>
     <row r="15" spans="1:19">
-      <c r="A15" s="105"/>
-      <c r="B15" s="112"/>
-      <c r="C15" s="117"/>
-      <c r="D15" s="119"/>
-      <c r="E15" s="119"/>
-      <c r="F15" s="119"/>
-      <c r="G15" s="119"/>
-      <c r="H15" s="119"/>
-      <c r="I15" s="119"/>
-      <c r="J15" s="119"/>
-      <c r="K15" s="119"/>
-      <c r="L15" s="119"/>
-      <c r="M15" s="119"/>
-      <c r="N15" s="119"/>
-      <c r="O15" s="119"/>
-      <c r="P15" s="119"/>
-      <c r="Q15" s="119"/>
-      <c r="R15" s="119"/>
-      <c r="S15" s="119"/>
+      <c r="A15" s="102"/>
+      <c r="B15" s="87"/>
+      <c r="C15" s="84"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="56"/>
+      <c r="M15" s="56"/>
+      <c r="N15" s="56"/>
+      <c r="O15" s="56"/>
+      <c r="P15" s="56"/>
+      <c r="Q15" s="56"/>
+      <c r="R15" s="56"/>
+      <c r="S15" s="56"/>
     </row>
     <row r="16" spans="1:19">
-      <c r="A16" s="103" t="s">
+      <c r="A16" s="101" t="s">
         <v>406</v>
       </c>
-      <c r="B16" s="110"/>
-      <c r="C16" s="117"/>
-      <c r="D16" s="119"/>
-      <c r="E16" s="119"/>
-      <c r="F16" s="119"/>
-      <c r="G16" s="119"/>
-      <c r="H16" s="119"/>
-      <c r="I16" s="119"/>
-      <c r="J16" s="119"/>
-      <c r="K16" s="119"/>
-      <c r="L16" s="119"/>
-      <c r="M16" s="119"/>
-      <c r="N16" s="119"/>
-      <c r="O16" s="119"/>
-      <c r="P16" s="119"/>
-      <c r="Q16" s="119"/>
-      <c r="R16" s="119"/>
-      <c r="S16" s="119"/>
+      <c r="B16" s="83"/>
+      <c r="C16" s="84"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="56"/>
+      <c r="O16" s="56"/>
+      <c r="P16" s="56"/>
+      <c r="Q16" s="56"/>
+      <c r="R16" s="56"/>
+      <c r="S16" s="56"/>
     </row>
     <row r="17" spans="1:19">
-      <c r="A17" s="104"/>
-      <c r="B17" s="111"/>
-      <c r="C17" s="117"/>
-      <c r="D17" s="119"/>
-      <c r="E17" s="119"/>
-      <c r="F17" s="119"/>
-      <c r="G17" s="119"/>
-      <c r="H17" s="119"/>
-      <c r="I17" s="119"/>
-      <c r="J17" s="119"/>
-      <c r="K17" s="119"/>
-      <c r="L17" s="119"/>
-      <c r="M17" s="119"/>
-      <c r="N17" s="119"/>
-      <c r="O17" s="119"/>
-      <c r="P17" s="119"/>
-      <c r="Q17" s="119"/>
-      <c r="R17" s="119"/>
-      <c r="S17" s="119"/>
+      <c r="A17" s="69"/>
+      <c r="B17" s="85"/>
+      <c r="C17" s="84"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="56"/>
+      <c r="O17" s="56"/>
+      <c r="P17" s="56"/>
+      <c r="Q17" s="56"/>
+      <c r="R17" s="56"/>
+      <c r="S17" s="56"/>
     </row>
     <row r="18" spans="1:19">
-      <c r="A18" s="104"/>
-      <c r="B18" s="111"/>
-      <c r="C18" s="117"/>
-      <c r="D18" s="119"/>
-      <c r="E18" s="119"/>
-      <c r="F18" s="119"/>
-      <c r="G18" s="119"/>
-      <c r="H18" s="119"/>
-      <c r="I18" s="119"/>
-      <c r="J18" s="119"/>
-      <c r="K18" s="119"/>
-      <c r="L18" s="119"/>
-      <c r="M18" s="119"/>
-      <c r="N18" s="119"/>
-      <c r="O18" s="119"/>
-      <c r="P18" s="119"/>
-      <c r="Q18" s="119"/>
-      <c r="R18" s="119"/>
-      <c r="S18" s="119"/>
+      <c r="A18" s="69"/>
+      <c r="B18" s="85"/>
+      <c r="C18" s="84"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="56"/>
+      <c r="O18" s="56"/>
+      <c r="P18" s="56"/>
+      <c r="Q18" s="56"/>
+      <c r="R18" s="56"/>
+      <c r="S18" s="56"/>
     </row>
     <row r="19" spans="1:19">
-      <c r="A19" s="104"/>
-      <c r="B19" s="111"/>
-      <c r="C19" s="117"/>
-      <c r="D19" s="119"/>
-      <c r="E19" s="119"/>
-      <c r="F19" s="119"/>
-      <c r="G19" s="119"/>
-      <c r="H19" s="119"/>
-      <c r="I19" s="119"/>
-      <c r="J19" s="119"/>
-      <c r="K19" s="119"/>
-      <c r="L19" s="119"/>
-      <c r="M19" s="119"/>
-      <c r="N19" s="119"/>
-      <c r="O19" s="119"/>
-      <c r="P19" s="119"/>
-      <c r="Q19" s="119"/>
-      <c r="R19" s="119"/>
-      <c r="S19" s="119"/>
+      <c r="A19" s="69"/>
+      <c r="B19" s="85"/>
+      <c r="C19" s="84"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="56"/>
+      <c r="M19" s="56"/>
+      <c r="N19" s="56"/>
+      <c r="O19" s="56"/>
+      <c r="P19" s="56"/>
+      <c r="Q19" s="56"/>
+      <c r="R19" s="56"/>
+      <c r="S19" s="56"/>
     </row>
     <row r="20" spans="1:19">
-      <c r="A20" s="104"/>
-      <c r="B20" s="111"/>
-      <c r="C20" s="117"/>
-      <c r="D20" s="119"/>
-      <c r="E20" s="119"/>
-      <c r="F20" s="119"/>
-      <c r="G20" s="119"/>
-      <c r="H20" s="119"/>
-      <c r="I20" s="119"/>
-      <c r="J20" s="119"/>
-      <c r="K20" s="119"/>
-      <c r="L20" s="119"/>
-      <c r="M20" s="119"/>
-      <c r="N20" s="119"/>
-      <c r="O20" s="119"/>
-      <c r="P20" s="119"/>
-      <c r="Q20" s="119"/>
-      <c r="R20" s="119"/>
-      <c r="S20" s="119"/>
+      <c r="A20" s="69"/>
+      <c r="B20" s="85"/>
+      <c r="C20" s="84"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="56"/>
+      <c r="O20" s="56"/>
+      <c r="P20" s="56"/>
+      <c r="Q20" s="56"/>
+      <c r="R20" s="56"/>
+      <c r="S20" s="56"/>
     </row>
     <row r="21" spans="1:19">
-      <c r="A21" s="104"/>
-      <c r="B21" s="111"/>
-      <c r="C21" s="117"/>
-      <c r="D21" s="119"/>
-      <c r="E21" s="119"/>
-      <c r="F21" s="119"/>
-      <c r="G21" s="119"/>
-      <c r="H21" s="119"/>
-      <c r="I21" s="119"/>
-      <c r="J21" s="119"/>
-      <c r="K21" s="119"/>
-      <c r="L21" s="119"/>
-      <c r="M21" s="119"/>
-      <c r="N21" s="119"/>
-      <c r="O21" s="119"/>
-      <c r="P21" s="119"/>
-      <c r="Q21" s="119"/>
-      <c r="R21" s="119"/>
-      <c r="S21" s="119"/>
+      <c r="A21" s="69"/>
+      <c r="B21" s="85"/>
+      <c r="C21" s="84"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="56"/>
+      <c r="L21" s="56"/>
+      <c r="M21" s="56"/>
+      <c r="N21" s="56"/>
+      <c r="O21" s="56"/>
+      <c r="P21" s="56"/>
+      <c r="Q21" s="56"/>
+      <c r="R21" s="56"/>
+      <c r="S21" s="56"/>
     </row>
     <row r="22" spans="1:19">
-      <c r="A22" s="104"/>
-      <c r="B22" s="111"/>
-      <c r="C22" s="117"/>
-      <c r="D22" s="119"/>
-      <c r="E22" s="119"/>
-      <c r="F22" s="119"/>
-      <c r="G22" s="119"/>
-      <c r="H22" s="119"/>
-      <c r="I22" s="119"/>
-      <c r="J22" s="119"/>
-      <c r="K22" s="119"/>
-      <c r="L22" s="119"/>
-      <c r="M22" s="119"/>
-      <c r="N22" s="119"/>
-      <c r="O22" s="119"/>
-      <c r="P22" s="119"/>
-      <c r="Q22" s="119"/>
-      <c r="R22" s="119"/>
-      <c r="S22" s="119"/>
+      <c r="A22" s="69"/>
+      <c r="B22" s="85"/>
+      <c r="C22" s="84"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="56"/>
+      <c r="M22" s="56"/>
+      <c r="N22" s="56"/>
+      <c r="O22" s="56"/>
+      <c r="P22" s="56"/>
+      <c r="Q22" s="56"/>
+      <c r="R22" s="56"/>
+      <c r="S22" s="56"/>
     </row>
     <row r="23" spans="1:19">
-      <c r="A23" s="104"/>
-      <c r="B23" s="111"/>
-      <c r="C23" s="117"/>
-      <c r="D23" s="119"/>
-      <c r="E23" s="119"/>
-      <c r="F23" s="119"/>
-      <c r="G23" s="119"/>
-      <c r="H23" s="119"/>
-      <c r="I23" s="119"/>
-      <c r="J23" s="119"/>
-      <c r="K23" s="119"/>
-      <c r="L23" s="119"/>
-      <c r="M23" s="119"/>
-      <c r="N23" s="119"/>
-      <c r="O23" s="119"/>
-      <c r="P23" s="119"/>
-      <c r="Q23" s="119"/>
-      <c r="R23" s="119"/>
-      <c r="S23" s="119"/>
+      <c r="A23" s="69"/>
+      <c r="B23" s="85"/>
+      <c r="C23" s="84"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="56"/>
+      <c r="L23" s="56"/>
+      <c r="M23" s="56"/>
+      <c r="N23" s="56"/>
+      <c r="O23" s="56"/>
+      <c r="P23" s="56"/>
+      <c r="Q23" s="56"/>
+      <c r="R23" s="56"/>
+      <c r="S23" s="56"/>
     </row>
     <row r="24" spans="1:19">
-      <c r="A24" s="104"/>
-      <c r="B24" s="111"/>
-      <c r="C24" s="117"/>
-      <c r="D24" s="119"/>
-      <c r="E24" s="119"/>
-      <c r="F24" s="119"/>
-      <c r="G24" s="119"/>
-      <c r="H24" s="119"/>
-      <c r="I24" s="119"/>
-      <c r="J24" s="119"/>
-      <c r="K24" s="119"/>
-      <c r="L24" s="119"/>
-      <c r="M24" s="119"/>
-      <c r="N24" s="119"/>
-      <c r="O24" s="119"/>
-      <c r="P24" s="119"/>
-      <c r="Q24" s="119"/>
-      <c r="R24" s="119"/>
-      <c r="S24" s="119"/>
+      <c r="A24" s="69"/>
+      <c r="B24" s="85"/>
+      <c r="C24" s="84"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="56"/>
+      <c r="K24" s="56"/>
+      <c r="L24" s="56"/>
+      <c r="M24" s="56"/>
+      <c r="N24" s="56"/>
+      <c r="O24" s="56"/>
+      <c r="P24" s="56"/>
+      <c r="Q24" s="56"/>
+      <c r="R24" s="56"/>
+      <c r="S24" s="56"/>
     </row>
     <row r="25" spans="1:19">
-      <c r="A25" s="104"/>
-      <c r="B25" s="111"/>
-      <c r="C25" s="117"/>
-      <c r="D25" s="119"/>
-      <c r="E25" s="119"/>
-      <c r="F25" s="119"/>
-      <c r="G25" s="119"/>
-      <c r="H25" s="119"/>
-      <c r="I25" s="119"/>
-      <c r="J25" s="119"/>
-      <c r="K25" s="119"/>
-      <c r="L25" s="119"/>
-      <c r="M25" s="119"/>
-      <c r="N25" s="119"/>
-      <c r="O25" s="119"/>
-      <c r="P25" s="119"/>
-      <c r="Q25" s="119"/>
-      <c r="R25" s="119"/>
-      <c r="S25" s="119"/>
+      <c r="A25" s="69"/>
+      <c r="B25" s="85"/>
+      <c r="C25" s="84"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="56"/>
+      <c r="H25" s="56"/>
+      <c r="I25" s="56"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="56"/>
+      <c r="L25" s="56"/>
+      <c r="M25" s="56"/>
+      <c r="N25" s="56"/>
+      <c r="O25" s="56"/>
+      <c r="P25" s="56"/>
+      <c r="Q25" s="56"/>
+      <c r="R25" s="56"/>
+      <c r="S25" s="56"/>
     </row>
     <row r="26" spans="1:19">
-      <c r="A26" s="104"/>
-      <c r="B26" s="111"/>
-      <c r="C26" s="117"/>
-      <c r="D26" s="119"/>
-      <c r="E26" s="119"/>
-      <c r="F26" s="119"/>
-      <c r="G26" s="119"/>
-      <c r="H26" s="119"/>
-      <c r="I26" s="119"/>
-      <c r="J26" s="119"/>
-      <c r="K26" s="119"/>
-      <c r="L26" s="119"/>
-      <c r="M26" s="119"/>
-      <c r="N26" s="119"/>
-      <c r="O26" s="119"/>
-      <c r="P26" s="119"/>
-      <c r="Q26" s="119"/>
-      <c r="R26" s="119"/>
-      <c r="S26" s="119"/>
+      <c r="A26" s="69"/>
+      <c r="B26" s="85"/>
+      <c r="C26" s="84"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="56"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="56"/>
+      <c r="K26" s="56"/>
+      <c r="L26" s="56"/>
+      <c r="M26" s="56"/>
+      <c r="N26" s="56"/>
+      <c r="O26" s="56"/>
+      <c r="P26" s="56"/>
+      <c r="Q26" s="56"/>
+      <c r="R26" s="56"/>
+      <c r="S26" s="56"/>
     </row>
     <row r="27" spans="1:19">
-      <c r="A27" s="104"/>
-      <c r="B27" s="111"/>
-      <c r="C27" s="117"/>
-      <c r="D27" s="119"/>
-      <c r="E27" s="119"/>
-      <c r="F27" s="119"/>
-      <c r="G27" s="119"/>
-      <c r="H27" s="119"/>
-      <c r="I27" s="119"/>
-      <c r="J27" s="119"/>
-      <c r="K27" s="119"/>
-      <c r="L27" s="119"/>
-      <c r="M27" s="119"/>
-      <c r="N27" s="119"/>
-      <c r="O27" s="119"/>
-      <c r="P27" s="119"/>
-      <c r="Q27" s="119"/>
-      <c r="R27" s="119"/>
-      <c r="S27" s="119"/>
+      <c r="A27" s="69"/>
+      <c r="B27" s="85"/>
+      <c r="C27" s="84"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="56"/>
+      <c r="L27" s="56"/>
+      <c r="M27" s="56"/>
+      <c r="N27" s="56"/>
+      <c r="O27" s="56"/>
+      <c r="P27" s="56"/>
+      <c r="Q27" s="56"/>
+      <c r="R27" s="56"/>
+      <c r="S27" s="56"/>
     </row>
     <row r="28" spans="1:19">
-      <c r="A28" s="105"/>
-      <c r="B28" s="112"/>
-      <c r="C28" s="117"/>
-      <c r="D28" s="119"/>
-      <c r="E28" s="119"/>
-      <c r="F28" s="119"/>
-      <c r="G28" s="119"/>
-      <c r="H28" s="119"/>
-      <c r="I28" s="119"/>
-      <c r="J28" s="119"/>
-      <c r="K28" s="119"/>
-      <c r="L28" s="119"/>
-      <c r="M28" s="119"/>
-      <c r="N28" s="119"/>
-      <c r="O28" s="119"/>
-      <c r="P28" s="119"/>
-      <c r="Q28" s="119"/>
-      <c r="R28" s="119"/>
-      <c r="S28" s="119"/>
+      <c r="A28" s="102"/>
+      <c r="B28" s="87"/>
+      <c r="C28" s="84"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="56"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="56"/>
+      <c r="K28" s="56"/>
+      <c r="L28" s="56"/>
+      <c r="M28" s="56"/>
+      <c r="N28" s="56"/>
+      <c r="O28" s="56"/>
+      <c r="P28" s="56"/>
+      <c r="Q28" s="56"/>
+      <c r="R28" s="56"/>
+      <c r="S28" s="56"/>
     </row>
     <row r="29" spans="1:19">
-      <c r="A29" s="103" t="s">
+      <c r="A29" s="101" t="s">
         <v>261</v>
       </c>
-      <c r="B29" s="110"/>
-      <c r="C29" s="117" t="s">
+      <c r="B29" s="83"/>
+      <c r="C29" s="84" t="s">
         <v>297</v>
       </c>
-      <c r="D29" s="119"/>
-      <c r="E29" s="119"/>
-      <c r="F29" s="119"/>
-      <c r="G29" s="119"/>
-      <c r="H29" s="119"/>
-      <c r="I29" s="119"/>
-      <c r="J29" s="119"/>
-      <c r="K29" s="119"/>
-      <c r="L29" s="119"/>
-      <c r="M29" s="119"/>
-      <c r="N29" s="119"/>
-      <c r="O29" s="119"/>
-      <c r="P29" s="119"/>
-      <c r="Q29" s="119"/>
-      <c r="R29" s="119"/>
-      <c r="S29" s="119"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="56"/>
+      <c r="I29" s="56"/>
+      <c r="J29" s="56"/>
+      <c r="K29" s="56"/>
+      <c r="L29" s="56"/>
+      <c r="M29" s="56"/>
+      <c r="N29" s="56"/>
+      <c r="O29" s="56"/>
+      <c r="P29" s="56"/>
+      <c r="Q29" s="56"/>
+      <c r="R29" s="56"/>
+      <c r="S29" s="56"/>
     </row>
     <row r="30" spans="1:19">
-      <c r="A30" s="104"/>
-      <c r="B30" s="111"/>
-      <c r="C30" s="117"/>
-      <c r="D30" s="119"/>
-      <c r="E30" s="119"/>
-      <c r="F30" s="119"/>
-      <c r="G30" s="119"/>
-      <c r="H30" s="119"/>
-      <c r="I30" s="119"/>
-      <c r="J30" s="119"/>
-      <c r="K30" s="119"/>
-      <c r="L30" s="119"/>
-      <c r="M30" s="119"/>
-      <c r="N30" s="119"/>
-      <c r="O30" s="119"/>
-      <c r="P30" s="119"/>
-      <c r="Q30" s="119"/>
-      <c r="R30" s="119"/>
-      <c r="S30" s="119"/>
+      <c r="A30" s="69"/>
+      <c r="B30" s="85"/>
+      <c r="C30" s="84"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="56"/>
+      <c r="H30" s="56"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="56"/>
+      <c r="K30" s="56"/>
+      <c r="L30" s="56"/>
+      <c r="M30" s="56"/>
+      <c r="N30" s="56"/>
+      <c r="O30" s="56"/>
+      <c r="P30" s="56"/>
+      <c r="Q30" s="56"/>
+      <c r="R30" s="56"/>
+      <c r="S30" s="56"/>
     </row>
     <row r="31" spans="1:19">
-      <c r="A31" s="104"/>
-      <c r="B31" s="111"/>
-      <c r="C31" s="117"/>
-      <c r="D31" s="119"/>
-      <c r="E31" s="119"/>
-      <c r="F31" s="119"/>
-      <c r="G31" s="119"/>
-      <c r="H31" s="119"/>
-      <c r="I31" s="119"/>
-      <c r="J31" s="119"/>
-      <c r="K31" s="119"/>
-      <c r="L31" s="119"/>
-      <c r="M31" s="119"/>
-      <c r="N31" s="119"/>
-      <c r="O31" s="119"/>
-      <c r="P31" s="119"/>
-      <c r="Q31" s="119"/>
-      <c r="R31" s="119"/>
-      <c r="S31" s="119"/>
+      <c r="A31" s="69"/>
+      <c r="B31" s="85"/>
+      <c r="C31" s="84"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="56"/>
+      <c r="H31" s="56"/>
+      <c r="I31" s="56"/>
+      <c r="J31" s="56"/>
+      <c r="K31" s="56"/>
+      <c r="L31" s="56"/>
+      <c r="M31" s="56"/>
+      <c r="N31" s="56"/>
+      <c r="O31" s="56"/>
+      <c r="P31" s="56"/>
+      <c r="Q31" s="56"/>
+      <c r="R31" s="56"/>
+      <c r="S31" s="56"/>
     </row>
     <row r="32" spans="1:19">
-      <c r="A32" s="106"/>
-      <c r="B32" s="113"/>
-      <c r="C32" s="117"/>
-      <c r="D32" s="119"/>
-      <c r="E32" s="119"/>
-      <c r="F32" s="119"/>
-      <c r="G32" s="119"/>
-      <c r="H32" s="119"/>
-      <c r="I32" s="119"/>
-      <c r="J32" s="119"/>
-      <c r="K32" s="119"/>
-      <c r="L32" s="119"/>
-      <c r="M32" s="119"/>
-      <c r="N32" s="119"/>
-      <c r="O32" s="119"/>
-      <c r="P32" s="119"/>
-      <c r="Q32" s="119"/>
-      <c r="R32" s="119"/>
-      <c r="S32" s="119"/>
+      <c r="A32" s="103"/>
+      <c r="B32" s="104"/>
+      <c r="C32" s="84"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="56"/>
+      <c r="H32" s="56"/>
+      <c r="I32" s="56"/>
+      <c r="J32" s="56"/>
+      <c r="K32" s="56"/>
+      <c r="L32" s="56"/>
+      <c r="M32" s="56"/>
+      <c r="N32" s="56"/>
+      <c r="O32" s="56"/>
+      <c r="P32" s="56"/>
+      <c r="Q32" s="56"/>
+      <c r="R32" s="56"/>
+      <c r="S32" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="24">
@@ -21905,719 +21836,719 @@
       <c r="A1" s="100">
         <v>23</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="114" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="105" t="s">
         <v>425</v>
       </c>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
-      <c r="J1" s="107"/>
-      <c r="K1" s="107"/>
-      <c r="L1" s="107"/>
-      <c r="M1" s="107"/>
-      <c r="N1" s="107"/>
-      <c r="O1" s="107"/>
-      <c r="P1" s="107"/>
-      <c r="Q1" s="107"/>
-      <c r="R1" s="121" t="s">
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="24" t="s">
         <v>254</v>
       </c>
-      <c r="S1" s="125">
+      <c r="S1" s="110">
         <v>43601</v>
       </c>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="101"/>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="108"/>
-      <c r="K2" s="108"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="108"/>
-      <c r="N2" s="108"/>
-      <c r="O2" s="108"/>
-      <c r="P2" s="108"/>
-      <c r="Q2" s="108"/>
-      <c r="R2" s="122"/>
-      <c r="S2" s="119"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="56"/>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="101"/>
-      <c r="B3" s="108"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
-      <c r="G3" s="108"/>
-      <c r="H3" s="108"/>
-      <c r="I3" s="108"/>
-      <c r="J3" s="108"/>
-      <c r="K3" s="108"/>
-      <c r="L3" s="108"/>
-      <c r="M3" s="108"/>
-      <c r="N3" s="108"/>
-      <c r="O3" s="108"/>
-      <c r="P3" s="108"/>
-      <c r="Q3" s="108"/>
-      <c r="R3" s="122" t="s">
+      <c r="A3" s="51"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="16" t="s">
         <v>255</v>
       </c>
-      <c r="S3" s="125">
+      <c r="S3" s="110">
         <v>43601</v>
       </c>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="101"/>
-      <c r="B4" s="108"/>
-      <c r="C4" s="115" t="s">
+      <c r="A4" s="51"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="106" t="s">
         <v>262</v>
       </c>
-      <c r="D4" s="118"/>
-      <c r="E4" s="115" t="s">
+      <c r="D4" s="107"/>
+      <c r="E4" s="106" t="s">
         <v>423</v>
       </c>
-      <c r="F4" s="120"/>
-      <c r="G4" s="120"/>
-      <c r="H4" s="120"/>
-      <c r="I4" s="120"/>
-      <c r="J4" s="120"/>
-      <c r="K4" s="120"/>
-      <c r="L4" s="120"/>
-      <c r="M4" s="120"/>
-      <c r="N4" s="120"/>
-      <c r="O4" s="120"/>
-      <c r="P4" s="120"/>
-      <c r="Q4" s="118"/>
-      <c r="R4" s="122"/>
-      <c r="S4" s="119"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="108"/>
+      <c r="H4" s="108"/>
+      <c r="I4" s="108"/>
+      <c r="J4" s="108"/>
+      <c r="K4" s="108"/>
+      <c r="L4" s="108"/>
+      <c r="M4" s="108"/>
+      <c r="N4" s="108"/>
+      <c r="O4" s="108"/>
+      <c r="P4" s="108"/>
+      <c r="Q4" s="107"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="56"/>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="101" t="s">
+      <c r="A5" s="51" t="s">
         <v>257</v>
       </c>
-      <c r="B5" s="108"/>
-      <c r="C5" s="108" t="s">
+      <c r="B5" s="13"/>
+      <c r="C5" s="13" t="s">
         <v>278</v>
       </c>
-      <c r="D5" s="108"/>
-      <c r="E5" s="108"/>
-      <c r="F5" s="108"/>
-      <c r="G5" s="108"/>
-      <c r="H5" s="108"/>
-      <c r="I5" s="108" t="s">
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13" t="s">
         <v>258</v>
       </c>
-      <c r="J5" s="108"/>
-      <c r="K5" s="108" t="s">
+      <c r="J5" s="13"/>
+      <c r="K5" s="13" t="s">
         <v>394</v>
       </c>
-      <c r="L5" s="108"/>
-      <c r="M5" s="108"/>
-      <c r="N5" s="108"/>
-      <c r="O5" s="108"/>
-      <c r="P5" s="108"/>
-      <c r="Q5" s="108"/>
-      <c r="R5" s="123" t="s">
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="22" t="s">
         <v>403</v>
       </c>
-      <c r="S5" s="104" t="s">
+      <c r="S5" s="69" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="101" t="s">
+      <c r="A6" s="51" t="s">
         <v>259</v>
       </c>
-      <c r="B6" s="108"/>
-      <c r="C6" s="108" t="s">
+      <c r="B6" s="13"/>
+      <c r="C6" s="13" t="s">
         <v>304</v>
       </c>
-      <c r="D6" s="108"/>
-      <c r="E6" s="108"/>
-      <c r="F6" s="108"/>
-      <c r="G6" s="108"/>
-      <c r="H6" s="108"/>
-      <c r="I6" s="108" t="s">
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13" t="s">
         <v>277</v>
       </c>
-      <c r="J6" s="108"/>
-      <c r="K6" s="108" t="s">
+      <c r="J6" s="13"/>
+      <c r="K6" s="13" t="s">
         <v>424</v>
       </c>
-      <c r="L6" s="108"/>
-      <c r="M6" s="108"/>
-      <c r="N6" s="108"/>
-      <c r="O6" s="108"/>
-      <c r="P6" s="108"/>
-      <c r="Q6" s="108"/>
-      <c r="R6" s="124"/>
-      <c r="S6" s="104"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="109"/>
+      <c r="S6" s="69"/>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="103" t="s">
+      <c r="A7" s="101" t="s">
         <v>388</v>
       </c>
-      <c r="B7" s="110"/>
-      <c r="C7" s="116" t="s">
+      <c r="B7" s="83"/>
+      <c r="C7" s="88" t="s">
         <v>422</v>
       </c>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="119"/>
-      <c r="K7" s="119"/>
-      <c r="L7" s="119"/>
-      <c r="M7" s="119"/>
-      <c r="N7" s="119"/>
-      <c r="O7" s="119"/>
-      <c r="P7" s="119"/>
-      <c r="Q7" s="119"/>
-      <c r="R7" s="119"/>
-      <c r="S7" s="119"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="56"/>
+      <c r="O7" s="56"/>
+      <c r="P7" s="56"/>
+      <c r="Q7" s="56"/>
+      <c r="R7" s="56"/>
+      <c r="S7" s="56"/>
     </row>
     <row r="8" spans="1:19">
-      <c r="A8" s="104"/>
-      <c r="B8" s="111"/>
-      <c r="C8" s="117"/>
-      <c r="D8" s="119"/>
-      <c r="E8" s="119"/>
-      <c r="F8" s="119"/>
-      <c r="G8" s="119"/>
-      <c r="H8" s="119"/>
-      <c r="I8" s="119"/>
-      <c r="J8" s="119"/>
-      <c r="K8" s="119"/>
-      <c r="L8" s="119"/>
-      <c r="M8" s="119"/>
-      <c r="N8" s="119"/>
-      <c r="O8" s="119"/>
-      <c r="P8" s="119"/>
-      <c r="Q8" s="119"/>
-      <c r="R8" s="119"/>
-      <c r="S8" s="119"/>
+      <c r="A8" s="69"/>
+      <c r="B8" s="85"/>
+      <c r="C8" s="84"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="56"/>
+      <c r="M8" s="56"/>
+      <c r="N8" s="56"/>
+      <c r="O8" s="56"/>
+      <c r="P8" s="56"/>
+      <c r="Q8" s="56"/>
+      <c r="R8" s="56"/>
+      <c r="S8" s="56"/>
     </row>
     <row r="9" spans="1:19">
-      <c r="A9" s="104"/>
-      <c r="B9" s="111"/>
-      <c r="C9" s="117"/>
-      <c r="D9" s="119"/>
-      <c r="E9" s="119"/>
-      <c r="F9" s="119"/>
-      <c r="G9" s="119"/>
-      <c r="H9" s="119"/>
-      <c r="I9" s="119"/>
-      <c r="J9" s="119"/>
-      <c r="K9" s="119"/>
-      <c r="L9" s="119"/>
-      <c r="M9" s="119"/>
-      <c r="N9" s="119"/>
-      <c r="O9" s="119"/>
-      <c r="P9" s="119"/>
-      <c r="Q9" s="119"/>
-      <c r="R9" s="119"/>
-      <c r="S9" s="119"/>
+      <c r="A9" s="69"/>
+      <c r="B9" s="85"/>
+      <c r="C9" s="84"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="56"/>
+      <c r="O9" s="56"/>
+      <c r="P9" s="56"/>
+      <c r="Q9" s="56"/>
+      <c r="R9" s="56"/>
+      <c r="S9" s="56"/>
     </row>
     <row r="10" spans="1:19">
-      <c r="A10" s="104"/>
-      <c r="B10" s="111"/>
-      <c r="C10" s="117"/>
-      <c r="D10" s="119"/>
-      <c r="E10" s="119"/>
-      <c r="F10" s="119"/>
-      <c r="G10" s="119"/>
-      <c r="H10" s="119"/>
-      <c r="I10" s="119"/>
-      <c r="J10" s="119"/>
-      <c r="K10" s="119"/>
-      <c r="L10" s="119"/>
-      <c r="M10" s="119"/>
-      <c r="N10" s="119"/>
-      <c r="O10" s="119"/>
-      <c r="P10" s="119"/>
-      <c r="Q10" s="119"/>
-      <c r="R10" s="119"/>
-      <c r="S10" s="119"/>
+      <c r="A10" s="69"/>
+      <c r="B10" s="85"/>
+      <c r="C10" s="84"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="56"/>
+      <c r="M10" s="56"/>
+      <c r="N10" s="56"/>
+      <c r="O10" s="56"/>
+      <c r="P10" s="56"/>
+      <c r="Q10" s="56"/>
+      <c r="R10" s="56"/>
+      <c r="S10" s="56"/>
     </row>
     <row r="11" spans="1:19">
-      <c r="A11" s="104"/>
-      <c r="B11" s="111"/>
-      <c r="C11" s="117"/>
-      <c r="D11" s="119"/>
-      <c r="E11" s="119"/>
-      <c r="F11" s="119"/>
-      <c r="G11" s="119"/>
-      <c r="H11" s="119"/>
-      <c r="I11" s="119"/>
-      <c r="J11" s="119"/>
-      <c r="K11" s="119"/>
-      <c r="L11" s="119"/>
-      <c r="M11" s="119"/>
-      <c r="N11" s="119"/>
-      <c r="O11" s="119"/>
-      <c r="P11" s="119"/>
-      <c r="Q11" s="119"/>
-      <c r="R11" s="119"/>
-      <c r="S11" s="119"/>
+      <c r="A11" s="69"/>
+      <c r="B11" s="85"/>
+      <c r="C11" s="84"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="56"/>
+      <c r="P11" s="56"/>
+      <c r="Q11" s="56"/>
+      <c r="R11" s="56"/>
+      <c r="S11" s="56"/>
     </row>
     <row r="12" spans="1:19">
-      <c r="A12" s="104"/>
-      <c r="B12" s="111"/>
-      <c r="C12" s="117"/>
-      <c r="D12" s="119"/>
-      <c r="E12" s="119"/>
-      <c r="F12" s="119"/>
-      <c r="G12" s="119"/>
-      <c r="H12" s="119"/>
-      <c r="I12" s="119"/>
-      <c r="J12" s="119"/>
-      <c r="K12" s="119"/>
-      <c r="L12" s="119"/>
-      <c r="M12" s="119"/>
-      <c r="N12" s="119"/>
-      <c r="O12" s="119"/>
-      <c r="P12" s="119"/>
-      <c r="Q12" s="119"/>
-      <c r="R12" s="119"/>
-      <c r="S12" s="119"/>
+      <c r="A12" s="69"/>
+      <c r="B12" s="85"/>
+      <c r="C12" s="84"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="56"/>
+      <c r="O12" s="56"/>
+      <c r="P12" s="56"/>
+      <c r="Q12" s="56"/>
+      <c r="R12" s="56"/>
+      <c r="S12" s="56"/>
     </row>
     <row r="13" spans="1:19">
-      <c r="A13" s="104"/>
-      <c r="B13" s="111"/>
-      <c r="C13" s="117"/>
-      <c r="D13" s="119"/>
-      <c r="E13" s="119"/>
-      <c r="F13" s="119"/>
-      <c r="G13" s="119"/>
-      <c r="H13" s="119"/>
-      <c r="I13" s="119"/>
-      <c r="J13" s="119"/>
-      <c r="K13" s="119"/>
-      <c r="L13" s="119"/>
-      <c r="M13" s="119"/>
-      <c r="N13" s="119"/>
-      <c r="O13" s="119"/>
-      <c r="P13" s="119"/>
-      <c r="Q13" s="119"/>
-      <c r="R13" s="119"/>
-      <c r="S13" s="119"/>
+      <c r="A13" s="69"/>
+      <c r="B13" s="85"/>
+      <c r="C13" s="84"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="56"/>
+      <c r="M13" s="56"/>
+      <c r="N13" s="56"/>
+      <c r="O13" s="56"/>
+      <c r="P13" s="56"/>
+      <c r="Q13" s="56"/>
+      <c r="R13" s="56"/>
+      <c r="S13" s="56"/>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14" s="104"/>
-      <c r="B14" s="111"/>
-      <c r="C14" s="117"/>
-      <c r="D14" s="119"/>
-      <c r="E14" s="119"/>
-      <c r="F14" s="119"/>
-      <c r="G14" s="119"/>
-      <c r="H14" s="119"/>
-      <c r="I14" s="119"/>
-      <c r="J14" s="119"/>
-      <c r="K14" s="119"/>
-      <c r="L14" s="119"/>
-      <c r="M14" s="119"/>
-      <c r="N14" s="119"/>
-      <c r="O14" s="119"/>
-      <c r="P14" s="119"/>
-      <c r="Q14" s="119"/>
-      <c r="R14" s="119"/>
-      <c r="S14" s="119"/>
+      <c r="A14" s="69"/>
+      <c r="B14" s="85"/>
+      <c r="C14" s="84"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="56"/>
+      <c r="O14" s="56"/>
+      <c r="P14" s="56"/>
+      <c r="Q14" s="56"/>
+      <c r="R14" s="56"/>
+      <c r="S14" s="56"/>
     </row>
     <row r="15" spans="1:19">
-      <c r="A15" s="105"/>
-      <c r="B15" s="112"/>
-      <c r="C15" s="117"/>
-      <c r="D15" s="119"/>
-      <c r="E15" s="119"/>
-      <c r="F15" s="119"/>
-      <c r="G15" s="119"/>
-      <c r="H15" s="119"/>
-      <c r="I15" s="119"/>
-      <c r="J15" s="119"/>
-      <c r="K15" s="119"/>
-      <c r="L15" s="119"/>
-      <c r="M15" s="119"/>
-      <c r="N15" s="119"/>
-      <c r="O15" s="119"/>
-      <c r="P15" s="119"/>
-      <c r="Q15" s="119"/>
-      <c r="R15" s="119"/>
-      <c r="S15" s="119"/>
+      <c r="A15" s="102"/>
+      <c r="B15" s="87"/>
+      <c r="C15" s="84"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="56"/>
+      <c r="M15" s="56"/>
+      <c r="N15" s="56"/>
+      <c r="O15" s="56"/>
+      <c r="P15" s="56"/>
+      <c r="Q15" s="56"/>
+      <c r="R15" s="56"/>
+      <c r="S15" s="56"/>
     </row>
     <row r="16" spans="1:19">
-      <c r="A16" s="103" t="s">
+      <c r="A16" s="101" t="s">
         <v>406</v>
       </c>
-      <c r="B16" s="110"/>
-      <c r="C16" s="117"/>
-      <c r="D16" s="119"/>
-      <c r="E16" s="119"/>
-      <c r="F16" s="119"/>
-      <c r="G16" s="119"/>
-      <c r="H16" s="119"/>
-      <c r="I16" s="119"/>
-      <c r="J16" s="119"/>
-      <c r="K16" s="119"/>
-      <c r="L16" s="119"/>
-      <c r="M16" s="119"/>
-      <c r="N16" s="119"/>
-      <c r="O16" s="119"/>
-      <c r="P16" s="119"/>
-      <c r="Q16" s="119"/>
-      <c r="R16" s="119"/>
-      <c r="S16" s="119"/>
+      <c r="B16" s="83"/>
+      <c r="C16" s="84"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="56"/>
+      <c r="O16" s="56"/>
+      <c r="P16" s="56"/>
+      <c r="Q16" s="56"/>
+      <c r="R16" s="56"/>
+      <c r="S16" s="56"/>
     </row>
     <row r="17" spans="1:19">
-      <c r="A17" s="104"/>
-      <c r="B17" s="111"/>
-      <c r="C17" s="117"/>
-      <c r="D17" s="119"/>
-      <c r="E17" s="119"/>
-      <c r="F17" s="119"/>
-      <c r="G17" s="119"/>
-      <c r="H17" s="119"/>
-      <c r="I17" s="119"/>
-      <c r="J17" s="119"/>
-      <c r="K17" s="119"/>
-      <c r="L17" s="119"/>
-      <c r="M17" s="119"/>
-      <c r="N17" s="119"/>
-      <c r="O17" s="119"/>
-      <c r="P17" s="119"/>
-      <c r="Q17" s="119"/>
-      <c r="R17" s="119"/>
-      <c r="S17" s="119"/>
+      <c r="A17" s="69"/>
+      <c r="B17" s="85"/>
+      <c r="C17" s="84"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="56"/>
+      <c r="O17" s="56"/>
+      <c r="P17" s="56"/>
+      <c r="Q17" s="56"/>
+      <c r="R17" s="56"/>
+      <c r="S17" s="56"/>
     </row>
     <row r="18" spans="1:19">
-      <c r="A18" s="104"/>
-      <c r="B18" s="111"/>
-      <c r="C18" s="117"/>
-      <c r="D18" s="119"/>
-      <c r="E18" s="119"/>
-      <c r="F18" s="119"/>
-      <c r="G18" s="119"/>
-      <c r="H18" s="119"/>
-      <c r="I18" s="119"/>
-      <c r="J18" s="119"/>
-      <c r="K18" s="119"/>
-      <c r="L18" s="119"/>
-      <c r="M18" s="119"/>
-      <c r="N18" s="119"/>
-      <c r="O18" s="119"/>
-      <c r="P18" s="119"/>
-      <c r="Q18" s="119"/>
-      <c r="R18" s="119"/>
-      <c r="S18" s="119"/>
+      <c r="A18" s="69"/>
+      <c r="B18" s="85"/>
+      <c r="C18" s="84"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="56"/>
+      <c r="O18" s="56"/>
+      <c r="P18" s="56"/>
+      <c r="Q18" s="56"/>
+      <c r="R18" s="56"/>
+      <c r="S18" s="56"/>
     </row>
     <row r="19" spans="1:19">
-      <c r="A19" s="104"/>
-      <c r="B19" s="111"/>
-      <c r="C19" s="117"/>
-      <c r="D19" s="119"/>
-      <c r="E19" s="119"/>
-      <c r="F19" s="119"/>
-      <c r="G19" s="119"/>
-      <c r="H19" s="119"/>
-      <c r="I19" s="119"/>
-      <c r="J19" s="119"/>
-      <c r="K19" s="119"/>
-      <c r="L19" s="119"/>
-      <c r="M19" s="119"/>
-      <c r="N19" s="119"/>
-      <c r="O19" s="119"/>
-      <c r="P19" s="119"/>
-      <c r="Q19" s="119"/>
-      <c r="R19" s="119"/>
-      <c r="S19" s="119"/>
+      <c r="A19" s="69"/>
+      <c r="B19" s="85"/>
+      <c r="C19" s="84"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="56"/>
+      <c r="M19" s="56"/>
+      <c r="N19" s="56"/>
+      <c r="O19" s="56"/>
+      <c r="P19" s="56"/>
+      <c r="Q19" s="56"/>
+      <c r="R19" s="56"/>
+      <c r="S19" s="56"/>
     </row>
     <row r="20" spans="1:19">
-      <c r="A20" s="104"/>
-      <c r="B20" s="111"/>
-      <c r="C20" s="117"/>
-      <c r="D20" s="119"/>
-      <c r="E20" s="119"/>
-      <c r="F20" s="119"/>
-      <c r="G20" s="119"/>
-      <c r="H20" s="119"/>
-      <c r="I20" s="119"/>
-      <c r="J20" s="119"/>
-      <c r="K20" s="119"/>
-      <c r="L20" s="119"/>
-      <c r="M20" s="119"/>
-      <c r="N20" s="119"/>
-      <c r="O20" s="119"/>
-      <c r="P20" s="119"/>
-      <c r="Q20" s="119"/>
-      <c r="R20" s="119"/>
-      <c r="S20" s="119"/>
+      <c r="A20" s="69"/>
+      <c r="B20" s="85"/>
+      <c r="C20" s="84"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="56"/>
+      <c r="O20" s="56"/>
+      <c r="P20" s="56"/>
+      <c r="Q20" s="56"/>
+      <c r="R20" s="56"/>
+      <c r="S20" s="56"/>
     </row>
     <row r="21" spans="1:19">
-      <c r="A21" s="104"/>
-      <c r="B21" s="111"/>
-      <c r="C21" s="117"/>
-      <c r="D21" s="119"/>
-      <c r="E21" s="119"/>
-      <c r="F21" s="119"/>
-      <c r="G21" s="119"/>
-      <c r="H21" s="119"/>
-      <c r="I21" s="119"/>
-      <c r="J21" s="119"/>
-      <c r="K21" s="119"/>
-      <c r="L21" s="119"/>
-      <c r="M21" s="119"/>
-      <c r="N21" s="119"/>
-      <c r="O21" s="119"/>
-      <c r="P21" s="119"/>
-      <c r="Q21" s="119"/>
-      <c r="R21" s="119"/>
-      <c r="S21" s="119"/>
+      <c r="A21" s="69"/>
+      <c r="B21" s="85"/>
+      <c r="C21" s="84"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="56"/>
+      <c r="L21" s="56"/>
+      <c r="M21" s="56"/>
+      <c r="N21" s="56"/>
+      <c r="O21" s="56"/>
+      <c r="P21" s="56"/>
+      <c r="Q21" s="56"/>
+      <c r="R21" s="56"/>
+      <c r="S21" s="56"/>
     </row>
     <row r="22" spans="1:19">
-      <c r="A22" s="104"/>
-      <c r="B22" s="111"/>
-      <c r="C22" s="117"/>
-      <c r="D22" s="119"/>
-      <c r="E22" s="119"/>
-      <c r="F22" s="119"/>
-      <c r="G22" s="119"/>
-      <c r="H22" s="119"/>
-      <c r="I22" s="119"/>
-      <c r="J22" s="119"/>
-      <c r="K22" s="119"/>
-      <c r="L22" s="119"/>
-      <c r="M22" s="119"/>
-      <c r="N22" s="119"/>
-      <c r="O22" s="119"/>
-      <c r="P22" s="119"/>
-      <c r="Q22" s="119"/>
-      <c r="R22" s="119"/>
-      <c r="S22" s="119"/>
+      <c r="A22" s="69"/>
+      <c r="B22" s="85"/>
+      <c r="C22" s="84"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="56"/>
+      <c r="M22" s="56"/>
+      <c r="N22" s="56"/>
+      <c r="O22" s="56"/>
+      <c r="P22" s="56"/>
+      <c r="Q22" s="56"/>
+      <c r="R22" s="56"/>
+      <c r="S22" s="56"/>
     </row>
     <row r="23" spans="1:19">
-      <c r="A23" s="104"/>
-      <c r="B23" s="111"/>
-      <c r="C23" s="117"/>
-      <c r="D23" s="119"/>
-      <c r="E23" s="119"/>
-      <c r="F23" s="119"/>
-      <c r="G23" s="119"/>
-      <c r="H23" s="119"/>
-      <c r="I23" s="119"/>
-      <c r="J23" s="119"/>
-      <c r="K23" s="119"/>
-      <c r="L23" s="119"/>
-      <c r="M23" s="119"/>
-      <c r="N23" s="119"/>
-      <c r="O23" s="119"/>
-      <c r="P23" s="119"/>
-      <c r="Q23" s="119"/>
-      <c r="R23" s="119"/>
-      <c r="S23" s="119"/>
+      <c r="A23" s="69"/>
+      <c r="B23" s="85"/>
+      <c r="C23" s="84"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="56"/>
+      <c r="L23" s="56"/>
+      <c r="M23" s="56"/>
+      <c r="N23" s="56"/>
+      <c r="O23" s="56"/>
+      <c r="P23" s="56"/>
+      <c r="Q23" s="56"/>
+      <c r="R23" s="56"/>
+      <c r="S23" s="56"/>
     </row>
     <row r="24" spans="1:19">
-      <c r="A24" s="104"/>
-      <c r="B24" s="111"/>
-      <c r="C24" s="117"/>
-      <c r="D24" s="119"/>
-      <c r="E24" s="119"/>
-      <c r="F24" s="119"/>
-      <c r="G24" s="119"/>
-      <c r="H24" s="119"/>
-      <c r="I24" s="119"/>
-      <c r="J24" s="119"/>
-      <c r="K24" s="119"/>
-      <c r="L24" s="119"/>
-      <c r="M24" s="119"/>
-      <c r="N24" s="119"/>
-      <c r="O24" s="119"/>
-      <c r="P24" s="119"/>
-      <c r="Q24" s="119"/>
-      <c r="R24" s="119"/>
-      <c r="S24" s="119"/>
+      <c r="A24" s="69"/>
+      <c r="B24" s="85"/>
+      <c r="C24" s="84"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="56"/>
+      <c r="K24" s="56"/>
+      <c r="L24" s="56"/>
+      <c r="M24" s="56"/>
+      <c r="N24" s="56"/>
+      <c r="O24" s="56"/>
+      <c r="P24" s="56"/>
+      <c r="Q24" s="56"/>
+      <c r="R24" s="56"/>
+      <c r="S24" s="56"/>
     </row>
     <row r="25" spans="1:19">
-      <c r="A25" s="104"/>
-      <c r="B25" s="111"/>
-      <c r="C25" s="117"/>
-      <c r="D25" s="119"/>
-      <c r="E25" s="119"/>
-      <c r="F25" s="119"/>
-      <c r="G25" s="119"/>
-      <c r="H25" s="119"/>
-      <c r="I25" s="119"/>
-      <c r="J25" s="119"/>
-      <c r="K25" s="119"/>
-      <c r="L25" s="119"/>
-      <c r="M25" s="119"/>
-      <c r="N25" s="119"/>
-      <c r="O25" s="119"/>
-      <c r="P25" s="119"/>
-      <c r="Q25" s="119"/>
-      <c r="R25" s="119"/>
-      <c r="S25" s="119"/>
+      <c r="A25" s="69"/>
+      <c r="B25" s="85"/>
+      <c r="C25" s="84"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="56"/>
+      <c r="H25" s="56"/>
+      <c r="I25" s="56"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="56"/>
+      <c r="L25" s="56"/>
+      <c r="M25" s="56"/>
+      <c r="N25" s="56"/>
+      <c r="O25" s="56"/>
+      <c r="P25" s="56"/>
+      <c r="Q25" s="56"/>
+      <c r="R25" s="56"/>
+      <c r="S25" s="56"/>
     </row>
     <row r="26" spans="1:19">
-      <c r="A26" s="104"/>
-      <c r="B26" s="111"/>
-      <c r="C26" s="117"/>
-      <c r="D26" s="119"/>
-      <c r="E26" s="119"/>
-      <c r="F26" s="119"/>
-      <c r="G26" s="119"/>
-      <c r="H26" s="119"/>
-      <c r="I26" s="119"/>
-      <c r="J26" s="119"/>
-      <c r="K26" s="119"/>
-      <c r="L26" s="119"/>
-      <c r="M26" s="119"/>
-      <c r="N26" s="119"/>
-      <c r="O26" s="119"/>
-      <c r="P26" s="119"/>
-      <c r="Q26" s="119"/>
-      <c r="R26" s="119"/>
-      <c r="S26" s="119"/>
+      <c r="A26" s="69"/>
+      <c r="B26" s="85"/>
+      <c r="C26" s="84"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="56"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="56"/>
+      <c r="K26" s="56"/>
+      <c r="L26" s="56"/>
+      <c r="M26" s="56"/>
+      <c r="N26" s="56"/>
+      <c r="O26" s="56"/>
+      <c r="P26" s="56"/>
+      <c r="Q26" s="56"/>
+      <c r="R26" s="56"/>
+      <c r="S26" s="56"/>
     </row>
     <row r="27" spans="1:19">
-      <c r="A27" s="104"/>
-      <c r="B27" s="111"/>
-      <c r="C27" s="117"/>
-      <c r="D27" s="119"/>
-      <c r="E27" s="119"/>
-      <c r="F27" s="119"/>
-      <c r="G27" s="119"/>
-      <c r="H27" s="119"/>
-      <c r="I27" s="119"/>
-      <c r="J27" s="119"/>
-      <c r="K27" s="119"/>
-      <c r="L27" s="119"/>
-      <c r="M27" s="119"/>
-      <c r="N27" s="119"/>
-      <c r="O27" s="119"/>
-      <c r="P27" s="119"/>
-      <c r="Q27" s="119"/>
-      <c r="R27" s="119"/>
-      <c r="S27" s="119"/>
+      <c r="A27" s="69"/>
+      <c r="B27" s="85"/>
+      <c r="C27" s="84"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="56"/>
+      <c r="L27" s="56"/>
+      <c r="M27" s="56"/>
+      <c r="N27" s="56"/>
+      <c r="O27" s="56"/>
+      <c r="P27" s="56"/>
+      <c r="Q27" s="56"/>
+      <c r="R27" s="56"/>
+      <c r="S27" s="56"/>
     </row>
     <row r="28" spans="1:19">
-      <c r="A28" s="105"/>
-      <c r="B28" s="112"/>
-      <c r="C28" s="117"/>
-      <c r="D28" s="119"/>
-      <c r="E28" s="119"/>
-      <c r="F28" s="119"/>
-      <c r="G28" s="119"/>
-      <c r="H28" s="119"/>
-      <c r="I28" s="119"/>
-      <c r="J28" s="119"/>
-      <c r="K28" s="119"/>
-      <c r="L28" s="119"/>
-      <c r="M28" s="119"/>
-      <c r="N28" s="119"/>
-      <c r="O28" s="119"/>
-      <c r="P28" s="119"/>
-      <c r="Q28" s="119"/>
-      <c r="R28" s="119"/>
-      <c r="S28" s="119"/>
+      <c r="A28" s="102"/>
+      <c r="B28" s="87"/>
+      <c r="C28" s="84"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="56"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="56"/>
+      <c r="K28" s="56"/>
+      <c r="L28" s="56"/>
+      <c r="M28" s="56"/>
+      <c r="N28" s="56"/>
+      <c r="O28" s="56"/>
+      <c r="P28" s="56"/>
+      <c r="Q28" s="56"/>
+      <c r="R28" s="56"/>
+      <c r="S28" s="56"/>
     </row>
     <row r="29" spans="1:19">
-      <c r="A29" s="103" t="s">
+      <c r="A29" s="101" t="s">
         <v>261</v>
       </c>
-      <c r="B29" s="110"/>
-      <c r="C29" s="117" t="s">
+      <c r="B29" s="83"/>
+      <c r="C29" s="84" t="s">
         <v>297</v>
       </c>
-      <c r="D29" s="119"/>
-      <c r="E29" s="119"/>
-      <c r="F29" s="119"/>
-      <c r="G29" s="119"/>
-      <c r="H29" s="119"/>
-      <c r="I29" s="119"/>
-      <c r="J29" s="119"/>
-      <c r="K29" s="119"/>
-      <c r="L29" s="119"/>
-      <c r="M29" s="119"/>
-      <c r="N29" s="119"/>
-      <c r="O29" s="119"/>
-      <c r="P29" s="119"/>
-      <c r="Q29" s="119"/>
-      <c r="R29" s="119"/>
-      <c r="S29" s="119"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="56"/>
+      <c r="I29" s="56"/>
+      <c r="J29" s="56"/>
+      <c r="K29" s="56"/>
+      <c r="L29" s="56"/>
+      <c r="M29" s="56"/>
+      <c r="N29" s="56"/>
+      <c r="O29" s="56"/>
+      <c r="P29" s="56"/>
+      <c r="Q29" s="56"/>
+      <c r="R29" s="56"/>
+      <c r="S29" s="56"/>
     </row>
     <row r="30" spans="1:19">
-      <c r="A30" s="104"/>
-      <c r="B30" s="111"/>
-      <c r="C30" s="117"/>
-      <c r="D30" s="119"/>
-      <c r="E30" s="119"/>
-      <c r="F30" s="119"/>
-      <c r="G30" s="119"/>
-      <c r="H30" s="119"/>
-      <c r="I30" s="119"/>
-      <c r="J30" s="119"/>
-      <c r="K30" s="119"/>
-      <c r="L30" s="119"/>
-      <c r="M30" s="119"/>
-      <c r="N30" s="119"/>
-      <c r="O30" s="119"/>
-      <c r="P30" s="119"/>
-      <c r="Q30" s="119"/>
-      <c r="R30" s="119"/>
-      <c r="S30" s="119"/>
+      <c r="A30" s="69"/>
+      <c r="B30" s="85"/>
+      <c r="C30" s="84"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="56"/>
+      <c r="H30" s="56"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="56"/>
+      <c r="K30" s="56"/>
+      <c r="L30" s="56"/>
+      <c r="M30" s="56"/>
+      <c r="N30" s="56"/>
+      <c r="O30" s="56"/>
+      <c r="P30" s="56"/>
+      <c r="Q30" s="56"/>
+      <c r="R30" s="56"/>
+      <c r="S30" s="56"/>
     </row>
     <row r="31" spans="1:19">
-      <c r="A31" s="104"/>
-      <c r="B31" s="111"/>
-      <c r="C31" s="117"/>
-      <c r="D31" s="119"/>
-      <c r="E31" s="119"/>
-      <c r="F31" s="119"/>
-      <c r="G31" s="119"/>
-      <c r="H31" s="119"/>
-      <c r="I31" s="119"/>
-      <c r="J31" s="119"/>
-      <c r="K31" s="119"/>
-      <c r="L31" s="119"/>
-      <c r="M31" s="119"/>
-      <c r="N31" s="119"/>
-      <c r="O31" s="119"/>
-      <c r="P31" s="119"/>
-      <c r="Q31" s="119"/>
-      <c r="R31" s="119"/>
-      <c r="S31" s="119"/>
+      <c r="A31" s="69"/>
+      <c r="B31" s="85"/>
+      <c r="C31" s="84"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="56"/>
+      <c r="H31" s="56"/>
+      <c r="I31" s="56"/>
+      <c r="J31" s="56"/>
+      <c r="K31" s="56"/>
+      <c r="L31" s="56"/>
+      <c r="M31" s="56"/>
+      <c r="N31" s="56"/>
+      <c r="O31" s="56"/>
+      <c r="P31" s="56"/>
+      <c r="Q31" s="56"/>
+      <c r="R31" s="56"/>
+      <c r="S31" s="56"/>
     </row>
     <row r="32" spans="1:19">
-      <c r="A32" s="106"/>
-      <c r="B32" s="113"/>
-      <c r="C32" s="117"/>
-      <c r="D32" s="119"/>
-      <c r="E32" s="119"/>
-      <c r="F32" s="119"/>
-      <c r="G32" s="119"/>
-      <c r="H32" s="119"/>
-      <c r="I32" s="119"/>
-      <c r="J32" s="119"/>
-      <c r="K32" s="119"/>
-      <c r="L32" s="119"/>
-      <c r="M32" s="119"/>
-      <c r="N32" s="119"/>
-      <c r="O32" s="119"/>
-      <c r="P32" s="119"/>
-      <c r="Q32" s="119"/>
-      <c r="R32" s="119"/>
-      <c r="S32" s="119"/>
+      <c r="A32" s="103"/>
+      <c r="B32" s="104"/>
+      <c r="C32" s="84"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="56"/>
+      <c r="H32" s="56"/>
+      <c r="I32" s="56"/>
+      <c r="J32" s="56"/>
+      <c r="K32" s="56"/>
+      <c r="L32" s="56"/>
+      <c r="M32" s="56"/>
+      <c r="N32" s="56"/>
+      <c r="O32" s="56"/>
+      <c r="P32" s="56"/>
+      <c r="Q32" s="56"/>
+      <c r="R32" s="56"/>
+      <c r="S32" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="24">
@@ -22667,719 +22598,719 @@
       <c r="A1" s="100">
         <v>23</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="114" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="105" t="s">
         <v>417</v>
       </c>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
-      <c r="J1" s="107"/>
-      <c r="K1" s="107"/>
-      <c r="L1" s="107"/>
-      <c r="M1" s="107"/>
-      <c r="N1" s="107"/>
-      <c r="O1" s="107"/>
-      <c r="P1" s="107"/>
-      <c r="Q1" s="107"/>
-      <c r="R1" s="121" t="s">
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="24" t="s">
         <v>254</v>
       </c>
-      <c r="S1" s="125">
+      <c r="S1" s="110">
         <v>43601</v>
       </c>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="101"/>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="108"/>
-      <c r="K2" s="108"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="108"/>
-      <c r="N2" s="108"/>
-      <c r="O2" s="108"/>
-      <c r="P2" s="108"/>
-      <c r="Q2" s="108"/>
-      <c r="R2" s="122"/>
-      <c r="S2" s="119"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="56"/>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="101"/>
-      <c r="B3" s="108"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
-      <c r="G3" s="108"/>
-      <c r="H3" s="108"/>
-      <c r="I3" s="108"/>
-      <c r="J3" s="108"/>
-      <c r="K3" s="108"/>
-      <c r="L3" s="108"/>
-      <c r="M3" s="108"/>
-      <c r="N3" s="108"/>
-      <c r="O3" s="108"/>
-      <c r="P3" s="108"/>
-      <c r="Q3" s="108"/>
-      <c r="R3" s="122" t="s">
+      <c r="A3" s="51"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="16" t="s">
         <v>255</v>
       </c>
-      <c r="S3" s="125">
+      <c r="S3" s="110">
         <v>43601</v>
       </c>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="101"/>
-      <c r="B4" s="108"/>
-      <c r="C4" s="115" t="s">
+      <c r="A4" s="51"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="106" t="s">
         <v>262</v>
       </c>
-      <c r="D4" s="118"/>
-      <c r="E4" s="115" t="s">
+      <c r="D4" s="107"/>
+      <c r="E4" s="106" t="s">
         <v>419</v>
       </c>
-      <c r="F4" s="120"/>
-      <c r="G4" s="120"/>
-      <c r="H4" s="120"/>
-      <c r="I4" s="120"/>
-      <c r="J4" s="120"/>
-      <c r="K4" s="120"/>
-      <c r="L4" s="120"/>
-      <c r="M4" s="120"/>
-      <c r="N4" s="120"/>
-      <c r="O4" s="120"/>
-      <c r="P4" s="120"/>
-      <c r="Q4" s="118"/>
-      <c r="R4" s="122"/>
-      <c r="S4" s="119"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="108"/>
+      <c r="H4" s="108"/>
+      <c r="I4" s="108"/>
+      <c r="J4" s="108"/>
+      <c r="K4" s="108"/>
+      <c r="L4" s="108"/>
+      <c r="M4" s="108"/>
+      <c r="N4" s="108"/>
+      <c r="O4" s="108"/>
+      <c r="P4" s="108"/>
+      <c r="Q4" s="107"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="56"/>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="101" t="s">
+      <c r="A5" s="51" t="s">
         <v>257</v>
       </c>
-      <c r="B5" s="108"/>
-      <c r="C5" s="108" t="s">
+      <c r="B5" s="13"/>
+      <c r="C5" s="13" t="s">
         <v>278</v>
       </c>
-      <c r="D5" s="108"/>
-      <c r="E5" s="108"/>
-      <c r="F5" s="108"/>
-      <c r="G5" s="108"/>
-      <c r="H5" s="108"/>
-      <c r="I5" s="108" t="s">
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13" t="s">
         <v>258</v>
       </c>
-      <c r="J5" s="108"/>
-      <c r="K5" s="108" t="s">
+      <c r="J5" s="13"/>
+      <c r="K5" s="13" t="s">
         <v>394</v>
       </c>
-      <c r="L5" s="108"/>
-      <c r="M5" s="108"/>
-      <c r="N5" s="108"/>
-      <c r="O5" s="108"/>
-      <c r="P5" s="108"/>
-      <c r="Q5" s="108"/>
-      <c r="R5" s="123" t="s">
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="22" t="s">
         <v>403</v>
       </c>
-      <c r="S5" s="104" t="s">
+      <c r="S5" s="69" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="101" t="s">
+      <c r="A6" s="51" t="s">
         <v>259</v>
       </c>
-      <c r="B6" s="108"/>
-      <c r="C6" s="108" t="s">
+      <c r="B6" s="13"/>
+      <c r="C6" s="13" t="s">
         <v>304</v>
       </c>
-      <c r="D6" s="108"/>
-      <c r="E6" s="108"/>
-      <c r="F6" s="108"/>
-      <c r="G6" s="108"/>
-      <c r="H6" s="108"/>
-      <c r="I6" s="108" t="s">
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13" t="s">
         <v>277</v>
       </c>
-      <c r="J6" s="108"/>
-      <c r="K6" s="108" t="s">
+      <c r="J6" s="13"/>
+      <c r="K6" s="13" t="s">
         <v>420</v>
       </c>
-      <c r="L6" s="108"/>
-      <c r="M6" s="108"/>
-      <c r="N6" s="108"/>
-      <c r="O6" s="108"/>
-      <c r="P6" s="108"/>
-      <c r="Q6" s="108"/>
-      <c r="R6" s="124"/>
-      <c r="S6" s="104"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="109"/>
+      <c r="S6" s="69"/>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="103" t="s">
+      <c r="A7" s="101" t="s">
         <v>388</v>
       </c>
-      <c r="B7" s="110"/>
-      <c r="C7" s="116" t="s">
+      <c r="B7" s="83"/>
+      <c r="C7" s="88" t="s">
         <v>418</v>
       </c>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="119"/>
-      <c r="K7" s="119"/>
-      <c r="L7" s="119"/>
-      <c r="M7" s="119"/>
-      <c r="N7" s="119"/>
-      <c r="O7" s="119"/>
-      <c r="P7" s="119"/>
-      <c r="Q7" s="119"/>
-      <c r="R7" s="119"/>
-      <c r="S7" s="119"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="56"/>
+      <c r="O7" s="56"/>
+      <c r="P7" s="56"/>
+      <c r="Q7" s="56"/>
+      <c r="R7" s="56"/>
+      <c r="S7" s="56"/>
     </row>
     <row r="8" spans="1:19">
-      <c r="A8" s="104"/>
-      <c r="B8" s="111"/>
-      <c r="C8" s="117"/>
-      <c r="D8" s="119"/>
-      <c r="E8" s="119"/>
-      <c r="F8" s="119"/>
-      <c r="G8" s="119"/>
-      <c r="H8" s="119"/>
-      <c r="I8" s="119"/>
-      <c r="J8" s="119"/>
-      <c r="K8" s="119"/>
-      <c r="L8" s="119"/>
-      <c r="M8" s="119"/>
-      <c r="N8" s="119"/>
-      <c r="O8" s="119"/>
-      <c r="P8" s="119"/>
-      <c r="Q8" s="119"/>
-      <c r="R8" s="119"/>
-      <c r="S8" s="119"/>
+      <c r="A8" s="69"/>
+      <c r="B8" s="85"/>
+      <c r="C8" s="84"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="56"/>
+      <c r="M8" s="56"/>
+      <c r="N8" s="56"/>
+      <c r="O8" s="56"/>
+      <c r="P8" s="56"/>
+      <c r="Q8" s="56"/>
+      <c r="R8" s="56"/>
+      <c r="S8" s="56"/>
     </row>
     <row r="9" spans="1:19">
-      <c r="A9" s="104"/>
-      <c r="B9" s="111"/>
-      <c r="C9" s="117"/>
-      <c r="D9" s="119"/>
-      <c r="E9" s="119"/>
-      <c r="F9" s="119"/>
-      <c r="G9" s="119"/>
-      <c r="H9" s="119"/>
-      <c r="I9" s="119"/>
-      <c r="J9" s="119"/>
-      <c r="K9" s="119"/>
-      <c r="L9" s="119"/>
-      <c r="M9" s="119"/>
-      <c r="N9" s="119"/>
-      <c r="O9" s="119"/>
-      <c r="P9" s="119"/>
-      <c r="Q9" s="119"/>
-      <c r="R9" s="119"/>
-      <c r="S9" s="119"/>
+      <c r="A9" s="69"/>
+      <c r="B9" s="85"/>
+      <c r="C9" s="84"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="56"/>
+      <c r="O9" s="56"/>
+      <c r="P9" s="56"/>
+      <c r="Q9" s="56"/>
+      <c r="R9" s="56"/>
+      <c r="S9" s="56"/>
     </row>
     <row r="10" spans="1:19">
-      <c r="A10" s="104"/>
-      <c r="B10" s="111"/>
-      <c r="C10" s="117"/>
-      <c r="D10" s="119"/>
-      <c r="E10" s="119"/>
-      <c r="F10" s="119"/>
-      <c r="G10" s="119"/>
-      <c r="H10" s="119"/>
-      <c r="I10" s="119"/>
-      <c r="J10" s="119"/>
-      <c r="K10" s="119"/>
-      <c r="L10" s="119"/>
-      <c r="M10" s="119"/>
-      <c r="N10" s="119"/>
-      <c r="O10" s="119"/>
-      <c r="P10" s="119"/>
-      <c r="Q10" s="119"/>
-      <c r="R10" s="119"/>
-      <c r="S10" s="119"/>
+      <c r="A10" s="69"/>
+      <c r="B10" s="85"/>
+      <c r="C10" s="84"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="56"/>
+      <c r="M10" s="56"/>
+      <c r="N10" s="56"/>
+      <c r="O10" s="56"/>
+      <c r="P10" s="56"/>
+      <c r="Q10" s="56"/>
+      <c r="R10" s="56"/>
+      <c r="S10" s="56"/>
     </row>
     <row r="11" spans="1:19">
-      <c r="A11" s="104"/>
-      <c r="B11" s="111"/>
-      <c r="C11" s="117"/>
-      <c r="D11" s="119"/>
-      <c r="E11" s="119"/>
-      <c r="F11" s="119"/>
-      <c r="G11" s="119"/>
-      <c r="H11" s="119"/>
-      <c r="I11" s="119"/>
-      <c r="J11" s="119"/>
-      <c r="K11" s="119"/>
-      <c r="L11" s="119"/>
-      <c r="M11" s="119"/>
-      <c r="N11" s="119"/>
-      <c r="O11" s="119"/>
-      <c r="P11" s="119"/>
-      <c r="Q11" s="119"/>
-      <c r="R11" s="119"/>
-      <c r="S11" s="119"/>
+      <c r="A11" s="69"/>
+      <c r="B11" s="85"/>
+      <c r="C11" s="84"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="56"/>
+      <c r="P11" s="56"/>
+      <c r="Q11" s="56"/>
+      <c r="R11" s="56"/>
+      <c r="S11" s="56"/>
     </row>
     <row r="12" spans="1:19">
-      <c r="A12" s="104"/>
-      <c r="B12" s="111"/>
-      <c r="C12" s="117"/>
-      <c r="D12" s="119"/>
-      <c r="E12" s="119"/>
-      <c r="F12" s="119"/>
-      <c r="G12" s="119"/>
-      <c r="H12" s="119"/>
-      <c r="I12" s="119"/>
-      <c r="J12" s="119"/>
-      <c r="K12" s="119"/>
-      <c r="L12" s="119"/>
-      <c r="M12" s="119"/>
-      <c r="N12" s="119"/>
-      <c r="O12" s="119"/>
-      <c r="P12" s="119"/>
-      <c r="Q12" s="119"/>
-      <c r="R12" s="119"/>
-      <c r="S12" s="119"/>
+      <c r="A12" s="69"/>
+      <c r="B12" s="85"/>
+      <c r="C12" s="84"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="56"/>
+      <c r="O12" s="56"/>
+      <c r="P12" s="56"/>
+      <c r="Q12" s="56"/>
+      <c r="R12" s="56"/>
+      <c r="S12" s="56"/>
     </row>
     <row r="13" spans="1:19">
-      <c r="A13" s="104"/>
-      <c r="B13" s="111"/>
-      <c r="C13" s="117"/>
-      <c r="D13" s="119"/>
-      <c r="E13" s="119"/>
-      <c r="F13" s="119"/>
-      <c r="G13" s="119"/>
-      <c r="H13" s="119"/>
-      <c r="I13" s="119"/>
-      <c r="J13" s="119"/>
-      <c r="K13" s="119"/>
-      <c r="L13" s="119"/>
-      <c r="M13" s="119"/>
-      <c r="N13" s="119"/>
-      <c r="O13" s="119"/>
-      <c r="P13" s="119"/>
-      <c r="Q13" s="119"/>
-      <c r="R13" s="119"/>
-      <c r="S13" s="119"/>
+      <c r="A13" s="69"/>
+      <c r="B13" s="85"/>
+      <c r="C13" s="84"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="56"/>
+      <c r="M13" s="56"/>
+      <c r="N13" s="56"/>
+      <c r="O13" s="56"/>
+      <c r="P13" s="56"/>
+      <c r="Q13" s="56"/>
+      <c r="R13" s="56"/>
+      <c r="S13" s="56"/>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14" s="104"/>
-      <c r="B14" s="111"/>
-      <c r="C14" s="117"/>
-      <c r="D14" s="119"/>
-      <c r="E14" s="119"/>
-      <c r="F14" s="119"/>
-      <c r="G14" s="119"/>
-      <c r="H14" s="119"/>
-      <c r="I14" s="119"/>
-      <c r="J14" s="119"/>
-      <c r="K14" s="119"/>
-      <c r="L14" s="119"/>
-      <c r="M14" s="119"/>
-      <c r="N14" s="119"/>
-      <c r="O14" s="119"/>
-      <c r="P14" s="119"/>
-      <c r="Q14" s="119"/>
-      <c r="R14" s="119"/>
-      <c r="S14" s="119"/>
+      <c r="A14" s="69"/>
+      <c r="B14" s="85"/>
+      <c r="C14" s="84"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="56"/>
+      <c r="O14" s="56"/>
+      <c r="P14" s="56"/>
+      <c r="Q14" s="56"/>
+      <c r="R14" s="56"/>
+      <c r="S14" s="56"/>
     </row>
     <row r="15" spans="1:19">
-      <c r="A15" s="105"/>
-      <c r="B15" s="112"/>
-      <c r="C15" s="117"/>
-      <c r="D15" s="119"/>
-      <c r="E15" s="119"/>
-      <c r="F15" s="119"/>
-      <c r="G15" s="119"/>
-      <c r="H15" s="119"/>
-      <c r="I15" s="119"/>
-      <c r="J15" s="119"/>
-      <c r="K15" s="119"/>
-      <c r="L15" s="119"/>
-      <c r="M15" s="119"/>
-      <c r="N15" s="119"/>
-      <c r="O15" s="119"/>
-      <c r="P15" s="119"/>
-      <c r="Q15" s="119"/>
-      <c r="R15" s="119"/>
-      <c r="S15" s="119"/>
+      <c r="A15" s="102"/>
+      <c r="B15" s="87"/>
+      <c r="C15" s="84"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="56"/>
+      <c r="M15" s="56"/>
+      <c r="N15" s="56"/>
+      <c r="O15" s="56"/>
+      <c r="P15" s="56"/>
+      <c r="Q15" s="56"/>
+      <c r="R15" s="56"/>
+      <c r="S15" s="56"/>
     </row>
     <row r="16" spans="1:19">
-      <c r="A16" s="103" t="s">
+      <c r="A16" s="101" t="s">
         <v>406</v>
       </c>
-      <c r="B16" s="110"/>
-      <c r="C16" s="117"/>
-      <c r="D16" s="119"/>
-      <c r="E16" s="119"/>
-      <c r="F16" s="119"/>
-      <c r="G16" s="119"/>
-      <c r="H16" s="119"/>
-      <c r="I16" s="119"/>
-      <c r="J16" s="119"/>
-      <c r="K16" s="119"/>
-      <c r="L16" s="119"/>
-      <c r="M16" s="119"/>
-      <c r="N16" s="119"/>
-      <c r="O16" s="119"/>
-      <c r="P16" s="119"/>
-      <c r="Q16" s="119"/>
-      <c r="R16" s="119"/>
-      <c r="S16" s="119"/>
+      <c r="B16" s="83"/>
+      <c r="C16" s="84"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="56"/>
+      <c r="O16" s="56"/>
+      <c r="P16" s="56"/>
+      <c r="Q16" s="56"/>
+      <c r="R16" s="56"/>
+      <c r="S16" s="56"/>
     </row>
     <row r="17" spans="1:19">
-      <c r="A17" s="104"/>
-      <c r="B17" s="111"/>
-      <c r="C17" s="117"/>
-      <c r="D17" s="119"/>
-      <c r="E17" s="119"/>
-      <c r="F17" s="119"/>
-      <c r="G17" s="119"/>
-      <c r="H17" s="119"/>
-      <c r="I17" s="119"/>
-      <c r="J17" s="119"/>
-      <c r="K17" s="119"/>
-      <c r="L17" s="119"/>
-      <c r="M17" s="119"/>
-      <c r="N17" s="119"/>
-      <c r="O17" s="119"/>
-      <c r="P17" s="119"/>
-      <c r="Q17" s="119"/>
-      <c r="R17" s="119"/>
-      <c r="S17" s="119"/>
+      <c r="A17" s="69"/>
+      <c r="B17" s="85"/>
+      <c r="C17" s="84"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="56"/>
+      <c r="O17" s="56"/>
+      <c r="P17" s="56"/>
+      <c r="Q17" s="56"/>
+      <c r="R17" s="56"/>
+      <c r="S17" s="56"/>
     </row>
     <row r="18" spans="1:19">
-      <c r="A18" s="104"/>
-      <c r="B18" s="111"/>
-      <c r="C18" s="117"/>
-      <c r="D18" s="119"/>
-      <c r="E18" s="119"/>
-      <c r="F18" s="119"/>
-      <c r="G18" s="119"/>
-      <c r="H18" s="119"/>
-      <c r="I18" s="119"/>
-      <c r="J18" s="119"/>
-      <c r="K18" s="119"/>
-      <c r="L18" s="119"/>
-      <c r="M18" s="119"/>
-      <c r="N18" s="119"/>
-      <c r="O18" s="119"/>
-      <c r="P18" s="119"/>
-      <c r="Q18" s="119"/>
-      <c r="R18" s="119"/>
-      <c r="S18" s="119"/>
+      <c r="A18" s="69"/>
+      <c r="B18" s="85"/>
+      <c r="C18" s="84"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="56"/>
+      <c r="O18" s="56"/>
+      <c r="P18" s="56"/>
+      <c r="Q18" s="56"/>
+      <c r="R18" s="56"/>
+      <c r="S18" s="56"/>
     </row>
     <row r="19" spans="1:19">
-      <c r="A19" s="104"/>
-      <c r="B19" s="111"/>
-      <c r="C19" s="117"/>
-      <c r="D19" s="119"/>
-      <c r="E19" s="119"/>
-      <c r="F19" s="119"/>
-      <c r="G19" s="119"/>
-      <c r="H19" s="119"/>
-      <c r="I19" s="119"/>
-      <c r="J19" s="119"/>
-      <c r="K19" s="119"/>
-      <c r="L19" s="119"/>
-      <c r="M19" s="119"/>
-      <c r="N19" s="119"/>
-      <c r="O19" s="119"/>
-      <c r="P19" s="119"/>
-      <c r="Q19" s="119"/>
-      <c r="R19" s="119"/>
-      <c r="S19" s="119"/>
+      <c r="A19" s="69"/>
+      <c r="B19" s="85"/>
+      <c r="C19" s="84"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="56"/>
+      <c r="M19" s="56"/>
+      <c r="N19" s="56"/>
+      <c r="O19" s="56"/>
+      <c r="P19" s="56"/>
+      <c r="Q19" s="56"/>
+      <c r="R19" s="56"/>
+      <c r="S19" s="56"/>
     </row>
     <row r="20" spans="1:19">
-      <c r="A20" s="104"/>
-      <c r="B20" s="111"/>
-      <c r="C20" s="117"/>
-      <c r="D20" s="119"/>
-      <c r="E20" s="119"/>
-      <c r="F20" s="119"/>
-      <c r="G20" s="119"/>
-      <c r="H20" s="119"/>
-      <c r="I20" s="119"/>
-      <c r="J20" s="119"/>
-      <c r="K20" s="119"/>
-      <c r="L20" s="119"/>
-      <c r="M20" s="119"/>
-      <c r="N20" s="119"/>
-      <c r="O20" s="119"/>
-      <c r="P20" s="119"/>
-      <c r="Q20" s="119"/>
-      <c r="R20" s="119"/>
-      <c r="S20" s="119"/>
+      <c r="A20" s="69"/>
+      <c r="B20" s="85"/>
+      <c r="C20" s="84"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="56"/>
+      <c r="O20" s="56"/>
+      <c r="P20" s="56"/>
+      <c r="Q20" s="56"/>
+      <c r="R20" s="56"/>
+      <c r="S20" s="56"/>
     </row>
     <row r="21" spans="1:19">
-      <c r="A21" s="104"/>
-      <c r="B21" s="111"/>
-      <c r="C21" s="117"/>
-      <c r="D21" s="119"/>
-      <c r="E21" s="119"/>
-      <c r="F21" s="119"/>
-      <c r="G21" s="119"/>
-      <c r="H21" s="119"/>
-      <c r="I21" s="119"/>
-      <c r="J21" s="119"/>
-      <c r="K21" s="119"/>
-      <c r="L21" s="119"/>
-      <c r="M21" s="119"/>
-      <c r="N21" s="119"/>
-      <c r="O21" s="119"/>
-      <c r="P21" s="119"/>
-      <c r="Q21" s="119"/>
-      <c r="R21" s="119"/>
-      <c r="S21" s="119"/>
+      <c r="A21" s="69"/>
+      <c r="B21" s="85"/>
+      <c r="C21" s="84"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="56"/>
+      <c r="L21" s="56"/>
+      <c r="M21" s="56"/>
+      <c r="N21" s="56"/>
+      <c r="O21" s="56"/>
+      <c r="P21" s="56"/>
+      <c r="Q21" s="56"/>
+      <c r="R21" s="56"/>
+      <c r="S21" s="56"/>
     </row>
     <row r="22" spans="1:19">
-      <c r="A22" s="104"/>
-      <c r="B22" s="111"/>
-      <c r="C22" s="117"/>
-      <c r="D22" s="119"/>
-      <c r="E22" s="119"/>
-      <c r="F22" s="119"/>
-      <c r="G22" s="119"/>
-      <c r="H22" s="119"/>
-      <c r="I22" s="119"/>
-      <c r="J22" s="119"/>
-      <c r="K22" s="119"/>
-      <c r="L22" s="119"/>
-      <c r="M22" s="119"/>
-      <c r="N22" s="119"/>
-      <c r="O22" s="119"/>
-      <c r="P22" s="119"/>
-      <c r="Q22" s="119"/>
-      <c r="R22" s="119"/>
-      <c r="S22" s="119"/>
+      <c r="A22" s="69"/>
+      <c r="B22" s="85"/>
+      <c r="C22" s="84"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="56"/>
+      <c r="M22" s="56"/>
+      <c r="N22" s="56"/>
+      <c r="O22" s="56"/>
+      <c r="P22" s="56"/>
+      <c r="Q22" s="56"/>
+      <c r="R22" s="56"/>
+      <c r="S22" s="56"/>
     </row>
     <row r="23" spans="1:19">
-      <c r="A23" s="104"/>
-      <c r="B23" s="111"/>
-      <c r="C23" s="117"/>
-      <c r="D23" s="119"/>
-      <c r="E23" s="119"/>
-      <c r="F23" s="119"/>
-      <c r="G23" s="119"/>
-      <c r="H23" s="119"/>
-      <c r="I23" s="119"/>
-      <c r="J23" s="119"/>
-      <c r="K23" s="119"/>
-      <c r="L23" s="119"/>
-      <c r="M23" s="119"/>
-      <c r="N23" s="119"/>
-      <c r="O23" s="119"/>
-      <c r="P23" s="119"/>
-      <c r="Q23" s="119"/>
-      <c r="R23" s="119"/>
-      <c r="S23" s="119"/>
+      <c r="A23" s="69"/>
+      <c r="B23" s="85"/>
+      <c r="C23" s="84"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="56"/>
+      <c r="L23" s="56"/>
+      <c r="M23" s="56"/>
+      <c r="N23" s="56"/>
+      <c r="O23" s="56"/>
+      <c r="P23" s="56"/>
+      <c r="Q23" s="56"/>
+      <c r="R23" s="56"/>
+      <c r="S23" s="56"/>
     </row>
     <row r="24" spans="1:19">
-      <c r="A24" s="104"/>
-      <c r="B24" s="111"/>
-      <c r="C24" s="117"/>
-      <c r="D24" s="119"/>
-      <c r="E24" s="119"/>
-      <c r="F24" s="119"/>
-      <c r="G24" s="119"/>
-      <c r="H24" s="119"/>
-      <c r="I24" s="119"/>
-      <c r="J24" s="119"/>
-      <c r="K24" s="119"/>
-      <c r="L24" s="119"/>
-      <c r="M24" s="119"/>
-      <c r="N24" s="119"/>
-      <c r="O24" s="119"/>
-      <c r="P24" s="119"/>
-      <c r="Q24" s="119"/>
-      <c r="R24" s="119"/>
-      <c r="S24" s="119"/>
+      <c r="A24" s="69"/>
+      <c r="B24" s="85"/>
+      <c r="C24" s="84"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="56"/>
+      <c r="K24" s="56"/>
+      <c r="L24" s="56"/>
+      <c r="M24" s="56"/>
+      <c r="N24" s="56"/>
+      <c r="O24" s="56"/>
+      <c r="P24" s="56"/>
+      <c r="Q24" s="56"/>
+      <c r="R24" s="56"/>
+      <c r="S24" s="56"/>
     </row>
     <row r="25" spans="1:19">
-      <c r="A25" s="104"/>
-      <c r="B25" s="111"/>
-      <c r="C25" s="117"/>
-      <c r="D25" s="119"/>
-      <c r="E25" s="119"/>
-      <c r="F25" s="119"/>
-      <c r="G25" s="119"/>
-      <c r="H25" s="119"/>
-      <c r="I25" s="119"/>
-      <c r="J25" s="119"/>
-      <c r="K25" s="119"/>
-      <c r="L25" s="119"/>
-      <c r="M25" s="119"/>
-      <c r="N25" s="119"/>
-      <c r="O25" s="119"/>
-      <c r="P25" s="119"/>
-      <c r="Q25" s="119"/>
-      <c r="R25" s="119"/>
-      <c r="S25" s="119"/>
+      <c r="A25" s="69"/>
+      <c r="B25" s="85"/>
+      <c r="C25" s="84"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="56"/>
+      <c r="H25" s="56"/>
+      <c r="I25" s="56"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="56"/>
+      <c r="L25" s="56"/>
+      <c r="M25" s="56"/>
+      <c r="N25" s="56"/>
+      <c r="O25" s="56"/>
+      <c r="P25" s="56"/>
+      <c r="Q25" s="56"/>
+      <c r="R25" s="56"/>
+      <c r="S25" s="56"/>
     </row>
     <row r="26" spans="1:19">
-      <c r="A26" s="104"/>
-      <c r="B26" s="111"/>
-      <c r="C26" s="117"/>
-      <c r="D26" s="119"/>
-      <c r="E26" s="119"/>
-      <c r="F26" s="119"/>
-      <c r="G26" s="119"/>
-      <c r="H26" s="119"/>
-      <c r="I26" s="119"/>
-      <c r="J26" s="119"/>
-      <c r="K26" s="119"/>
-      <c r="L26" s="119"/>
-      <c r="M26" s="119"/>
-      <c r="N26" s="119"/>
-      <c r="O26" s="119"/>
-      <c r="P26" s="119"/>
-      <c r="Q26" s="119"/>
-      <c r="R26" s="119"/>
-      <c r="S26" s="119"/>
+      <c r="A26" s="69"/>
+      <c r="B26" s="85"/>
+      <c r="C26" s="84"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="56"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="56"/>
+      <c r="K26" s="56"/>
+      <c r="L26" s="56"/>
+      <c r="M26" s="56"/>
+      <c r="N26" s="56"/>
+      <c r="O26" s="56"/>
+      <c r="P26" s="56"/>
+      <c r="Q26" s="56"/>
+      <c r="R26" s="56"/>
+      <c r="S26" s="56"/>
     </row>
     <row r="27" spans="1:19">
-      <c r="A27" s="104"/>
-      <c r="B27" s="111"/>
-      <c r="C27" s="117"/>
-      <c r="D27" s="119"/>
-      <c r="E27" s="119"/>
-      <c r="F27" s="119"/>
-      <c r="G27" s="119"/>
-      <c r="H27" s="119"/>
-      <c r="I27" s="119"/>
-      <c r="J27" s="119"/>
-      <c r="K27" s="119"/>
-      <c r="L27" s="119"/>
-      <c r="M27" s="119"/>
-      <c r="N27" s="119"/>
-      <c r="O27" s="119"/>
-      <c r="P27" s="119"/>
-      <c r="Q27" s="119"/>
-      <c r="R27" s="119"/>
-      <c r="S27" s="119"/>
+      <c r="A27" s="69"/>
+      <c r="B27" s="85"/>
+      <c r="C27" s="84"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="56"/>
+      <c r="L27" s="56"/>
+      <c r="M27" s="56"/>
+      <c r="N27" s="56"/>
+      <c r="O27" s="56"/>
+      <c r="P27" s="56"/>
+      <c r="Q27" s="56"/>
+      <c r="R27" s="56"/>
+      <c r="S27" s="56"/>
     </row>
     <row r="28" spans="1:19">
-      <c r="A28" s="105"/>
-      <c r="B28" s="112"/>
-      <c r="C28" s="117"/>
-      <c r="D28" s="119"/>
-      <c r="E28" s="119"/>
-      <c r="F28" s="119"/>
-      <c r="G28" s="119"/>
-      <c r="H28" s="119"/>
-      <c r="I28" s="119"/>
-      <c r="J28" s="119"/>
-      <c r="K28" s="119"/>
-      <c r="L28" s="119"/>
-      <c r="M28" s="119"/>
-      <c r="N28" s="119"/>
-      <c r="O28" s="119"/>
-      <c r="P28" s="119"/>
-      <c r="Q28" s="119"/>
-      <c r="R28" s="119"/>
-      <c r="S28" s="119"/>
+      <c r="A28" s="102"/>
+      <c r="B28" s="87"/>
+      <c r="C28" s="84"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="56"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="56"/>
+      <c r="K28" s="56"/>
+      <c r="L28" s="56"/>
+      <c r="M28" s="56"/>
+      <c r="N28" s="56"/>
+      <c r="O28" s="56"/>
+      <c r="P28" s="56"/>
+      <c r="Q28" s="56"/>
+      <c r="R28" s="56"/>
+      <c r="S28" s="56"/>
     </row>
     <row r="29" spans="1:19">
-      <c r="A29" s="103" t="s">
+      <c r="A29" s="101" t="s">
         <v>261</v>
       </c>
-      <c r="B29" s="110"/>
-      <c r="C29" s="117" t="s">
+      <c r="B29" s="83"/>
+      <c r="C29" s="84" t="s">
         <v>297</v>
       </c>
-      <c r="D29" s="119"/>
-      <c r="E29" s="119"/>
-      <c r="F29" s="119"/>
-      <c r="G29" s="119"/>
-      <c r="H29" s="119"/>
-      <c r="I29" s="119"/>
-      <c r="J29" s="119"/>
-      <c r="K29" s="119"/>
-      <c r="L29" s="119"/>
-      <c r="M29" s="119"/>
-      <c r="N29" s="119"/>
-      <c r="O29" s="119"/>
-      <c r="P29" s="119"/>
-      <c r="Q29" s="119"/>
-      <c r="R29" s="119"/>
-      <c r="S29" s="119"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="56"/>
+      <c r="I29" s="56"/>
+      <c r="J29" s="56"/>
+      <c r="K29" s="56"/>
+      <c r="L29" s="56"/>
+      <c r="M29" s="56"/>
+      <c r="N29" s="56"/>
+      <c r="O29" s="56"/>
+      <c r="P29" s="56"/>
+      <c r="Q29" s="56"/>
+      <c r="R29" s="56"/>
+      <c r="S29" s="56"/>
     </row>
     <row r="30" spans="1:19">
-      <c r="A30" s="104"/>
-      <c r="B30" s="111"/>
-      <c r="C30" s="117"/>
-      <c r="D30" s="119"/>
-      <c r="E30" s="119"/>
-      <c r="F30" s="119"/>
-      <c r="G30" s="119"/>
-      <c r="H30" s="119"/>
-      <c r="I30" s="119"/>
-      <c r="J30" s="119"/>
-      <c r="K30" s="119"/>
-      <c r="L30" s="119"/>
-      <c r="M30" s="119"/>
-      <c r="N30" s="119"/>
-      <c r="O30" s="119"/>
-      <c r="P30" s="119"/>
-      <c r="Q30" s="119"/>
-      <c r="R30" s="119"/>
-      <c r="S30" s="119"/>
+      <c r="A30" s="69"/>
+      <c r="B30" s="85"/>
+      <c r="C30" s="84"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="56"/>
+      <c r="H30" s="56"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="56"/>
+      <c r="K30" s="56"/>
+      <c r="L30" s="56"/>
+      <c r="M30" s="56"/>
+      <c r="N30" s="56"/>
+      <c r="O30" s="56"/>
+      <c r="P30" s="56"/>
+      <c r="Q30" s="56"/>
+      <c r="R30" s="56"/>
+      <c r="S30" s="56"/>
     </row>
     <row r="31" spans="1:19">
-      <c r="A31" s="104"/>
-      <c r="B31" s="111"/>
-      <c r="C31" s="117"/>
-      <c r="D31" s="119"/>
-      <c r="E31" s="119"/>
-      <c r="F31" s="119"/>
-      <c r="G31" s="119"/>
-      <c r="H31" s="119"/>
-      <c r="I31" s="119"/>
-      <c r="J31" s="119"/>
-      <c r="K31" s="119"/>
-      <c r="L31" s="119"/>
-      <c r="M31" s="119"/>
-      <c r="N31" s="119"/>
-      <c r="O31" s="119"/>
-      <c r="P31" s="119"/>
-      <c r="Q31" s="119"/>
-      <c r="R31" s="119"/>
-      <c r="S31" s="119"/>
+      <c r="A31" s="69"/>
+      <c r="B31" s="85"/>
+      <c r="C31" s="84"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="56"/>
+      <c r="H31" s="56"/>
+      <c r="I31" s="56"/>
+      <c r="J31" s="56"/>
+      <c r="K31" s="56"/>
+      <c r="L31" s="56"/>
+      <c r="M31" s="56"/>
+      <c r="N31" s="56"/>
+      <c r="O31" s="56"/>
+      <c r="P31" s="56"/>
+      <c r="Q31" s="56"/>
+      <c r="R31" s="56"/>
+      <c r="S31" s="56"/>
     </row>
     <row r="32" spans="1:19">
-      <c r="A32" s="106"/>
-      <c r="B32" s="113"/>
-      <c r="C32" s="117"/>
-      <c r="D32" s="119"/>
-      <c r="E32" s="119"/>
-      <c r="F32" s="119"/>
-      <c r="G32" s="119"/>
-      <c r="H32" s="119"/>
-      <c r="I32" s="119"/>
-      <c r="J32" s="119"/>
-      <c r="K32" s="119"/>
-      <c r="L32" s="119"/>
-      <c r="M32" s="119"/>
-      <c r="N32" s="119"/>
-      <c r="O32" s="119"/>
-      <c r="P32" s="119"/>
-      <c r="Q32" s="119"/>
-      <c r="R32" s="119"/>
-      <c r="S32" s="119"/>
+      <c r="A32" s="103"/>
+      <c r="B32" s="104"/>
+      <c r="C32" s="84"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="56"/>
+      <c r="H32" s="56"/>
+      <c r="I32" s="56"/>
+      <c r="J32" s="56"/>
+      <c r="K32" s="56"/>
+      <c r="L32" s="56"/>
+      <c r="M32" s="56"/>
+      <c r="N32" s="56"/>
+      <c r="O32" s="56"/>
+      <c r="P32" s="56"/>
+      <c r="Q32" s="56"/>
+      <c r="R32" s="56"/>
+      <c r="S32" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="24">
@@ -23419,7 +23350,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -23436,8 +23367,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T32"/>
   <sheetViews>
-    <sheetView zoomScale="120" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:B4"/>
+    <sheetView topLeftCell="A7" zoomScale="120" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -24218,7 +24149,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T32"/>
   <sheetViews>
-    <sheetView zoomScale="120" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="120" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:B4"/>
     </sheetView>
   </sheetViews>
@@ -25000,7 +24931,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T32"/>
   <sheetViews>
-    <sheetView zoomScale="120" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="120" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:B4"/>
     </sheetView>
   </sheetViews>

--- a/잡리스트 0514수정.xlsx
+++ b/잡리스트 0514수정.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="920" activeTab="17"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="910" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="joblist" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="463">
   <si>
     <t>J O B L I S T</t>
   </si>
@@ -1720,6 +1720,108 @@
   </si>
   <si>
     <t>좌석 관리 화면 출력 2</t>
+  </si>
+  <si>
+    <t>D05</t>
+  </si>
+  <si>
+    <t>D06</t>
+  </si>
+  <si>
+    <t>D07</t>
+  </si>
+  <si>
+    <t>D08</t>
+  </si>
+  <si>
+    <t>memberUpdateDailog</t>
+  </si>
+  <si>
+    <t>PmemberUpdateDailogayDialog</t>
+  </si>
+  <si>
+    <t>회원관리 정보수정 대화상자</t>
+  </si>
+  <si>
+    <t>예약취소 대화상자</t>
+  </si>
+  <si>
+    <t>deleteDialog</t>
+  </si>
+  <si>
+    <t>좌석예약 옮기기 대화상자</t>
+  </si>
+  <si>
+    <t>moveDialog</t>
+  </si>
+  <si>
+    <t>removeProductDialog</t>
+  </si>
+  <si>
+    <t>상품삭제 대화상자</t>
+  </si>
+  <si>
+    <t>revecheck</t>
+  </si>
+  <si>
+    <t>예약좌석 확인</t>
+  </si>
+  <si>
+    <t>회원탈퇴 대화상자</t>
+  </si>
+  <si>
+    <t>removeDialog</t>
+  </si>
+  <si>
+    <t>ProductListSetting</t>
+  </si>
+  <si>
+    <t>photoListSetting</t>
+  </si>
+  <si>
+    <t>상품사진셋팅</t>
+  </si>
+  <si>
+    <t>상품관리리스트셋팅</t>
+  </si>
+  <si>
+    <t>상품사진추가</t>
+  </si>
+  <si>
+    <t>photoadd</t>
+  </si>
+  <si>
+    <t>onCreate</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>pay</t>
+  </si>
+  <si>
+    <t>V19</t>
+  </si>
+  <si>
+    <t>상숨사진추가</t>
+  </si>
+  <si>
+    <t>V20</t>
+  </si>
+  <si>
+    <t>상품사진리스트뷰</t>
+  </si>
+  <si>
+    <t>photolist</t>
+  </si>
+  <si>
+    <t>V21</t>
+  </si>
+  <si>
+    <t>시간추가</t>
+  </si>
+  <si>
+    <t>timeadd</t>
   </si>
 </sst>
 </file>
@@ -2036,7 +2138,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="60">
+  <borders count="80">
     <border>
       <left/>
       <right/>
@@ -2763,6 +2865,296 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="hair">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="hair">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="1"/>
+      </left>
+      <right style="hair">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="hair">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="hair">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="hair">
+        <color theme="1"/>
+      </right>
+      <top style="hair">
+        <color theme="1"/>
+      </top>
+      <bottom style="hair">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="1"/>
+      </left>
+      <right style="hair">
+        <color theme="1"/>
+      </right>
+      <top style="hair">
+        <color theme="1"/>
+      </top>
+      <bottom style="hair">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="hair">
+        <color theme="1"/>
+      </top>
+      <bottom style="hair">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="hair">
+        <color theme="1"/>
+      </right>
+      <top style="hair">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="1"/>
+      </left>
+      <right style="hair">
+        <color theme="1"/>
+      </right>
+      <top style="hair">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="hair">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2913,7 +3305,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3245,6 +3637,72 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="78" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -7410,10 +7868,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I105"/>
+  <dimension ref="A1:J115"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView topLeftCell="A41" tabSelected="1" workbookViewId="0">
+      <selection activeCell="L76" sqref="L76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00000000" defaultRowHeight="16.500000"/>
@@ -7424,12 +7882,12 @@
     <col min="5" max="5" style="1" width="13.00500011" customWidth="1" outlineLevel="0"/>
     <col min="6" max="7" style="1" width="9.00500011" customWidth="1" outlineLevel="0"/>
     <col min="8" max="8" style="1" width="22.62999916" customWidth="1" outlineLevel="0"/>
-    <col min="9" max="9" style="1" width="18.75499916" customWidth="1" outlineLevel="0"/>
+    <col min="9" max="9" style="1" width="21.25499916" customWidth="1" outlineLevel="0"/>
     <col min="10" max="10" style="1" width="9.00500011" customWidth="1" outlineLevel="0"/>
     <col min="11" max="16384" style="1" width="9.00500011" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="63.750000">
+    <row r="1" spans="2:9" ht="60.750000">
       <c r="B1" s="32" t="s">
         <v>0</v>
       </c>
@@ -7441,7 +7899,7 @@
       <c r="H1" s="33"/>
       <c r="I1" s="34"/>
     </row>
-    <row r="2" spans="2:9">
+    <row r="2" spans="2:9" ht="17.250000">
       <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
@@ -7497,7 +7955,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="2:9">
+    <row r="5" spans="2:9" ht="17.250000">
       <c r="B5" s="6" t="s">
         <v>40</v>
       </c>
@@ -7611,7 +8069,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="2:9">
+    <row r="11" spans="2:9" ht="17.250000">
       <c r="B11" s="39"/>
       <c r="C11" s="3" t="s">
         <v>45</v>
@@ -8251,7 +8709,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="43" spans="2:9">
+    <row r="43" spans="2:9" ht="17.250000">
       <c r="B43" s="48"/>
       <c r="C43" s="17" t="s">
         <v>112</v>
@@ -8373,7 +8831,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="49" spans="2:9">
+    <row r="49" spans="2:10" ht="17.250000">
       <c r="B49" s="49"/>
       <c r="C49" s="17" t="s">
         <v>138</v>
@@ -8393,7 +8851,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="50" spans="2:9">
+    <row r="50" spans="2:10">
       <c r="B50" s="50" t="s">
         <v>141</v>
       </c>
@@ -8415,7 +8873,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="51" spans="2:9">
+    <row r="51" spans="2:10">
       <c r="B51" s="51"/>
       <c r="C51" s="13" t="s">
         <v>143</v>
@@ -8435,7 +8893,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="52" spans="2:9">
+    <row r="52" spans="2:10">
       <c r="B52" s="51"/>
       <c r="C52" s="13" t="s">
         <v>144</v>
@@ -8455,7 +8913,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="53" spans="2:9">
+    <row r="53" spans="2:10">
       <c r="B53" s="51"/>
       <c r="C53" s="13" t="s">
         <v>145</v>
@@ -8475,7 +8933,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="54" spans="2:9">
+    <row r="54" spans="2:10">
       <c r="B54" s="51"/>
       <c r="C54" s="13" t="s">
         <v>146</v>
@@ -8495,7 +8953,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="55" spans="2:9">
+    <row r="55" spans="2:10">
       <c r="B55" s="51"/>
       <c r="C55" s="13" t="s">
         <v>147</v>
@@ -8515,7 +8973,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="56" spans="2:9">
+    <row r="56" spans="2:10" ht="17.250000">
       <c r="B56" s="52"/>
       <c r="C56" s="17" t="s">
         <v>148</v>
@@ -8535,7 +8993,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="57" spans="2:9">
+    <row r="57" spans="2:10">
       <c r="B57" s="40" t="s">
         <v>159</v>
       </c>
@@ -8547,7 +9005,7 @@
       <c r="H57" s="41"/>
       <c r="I57" s="42"/>
     </row>
-    <row r="58" spans="2:9">
+    <row r="58" spans="2:10">
       <c r="B58" s="53" t="s">
         <v>160</v>
       </c>
@@ -8568,8 +9026,9 @@
       <c r="I58" s="24" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="59" spans="2:9">
+      <c r="J58" s="1"/>
+    </row>
+    <row r="59" spans="2:10">
       <c r="B59" s="51"/>
       <c r="C59" s="13" t="s">
         <v>268</v>
@@ -8588,14 +9047,15 @@
       <c r="I59" s="16" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="60" spans="2:9">
+      <c r="J59" s="1"/>
+    </row>
+    <row r="60" spans="2:10">
       <c r="B60" s="51"/>
       <c r="C60" s="13" t="s">
         <v>269</v>
       </c>
       <c r="D60" s="13" t="s">
-        <v>163</v>
+        <v>435</v>
       </c>
       <c r="E60" s="13"/>
       <c r="F60" s="13" t="s">
@@ -8606,98 +9066,96 @@
         <v>165</v>
       </c>
       <c r="I60" s="16" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10">
       <c r="B61" s="51"/>
-      <c r="C61" s="13" t="s">
+      <c r="C61" s="23" t="s">
         <v>270</v>
       </c>
-      <c r="D61" s="13" t="s">
-        <v>273</v>
-      </c>
-      <c r="E61" s="13"/>
-      <c r="F61" s="13" t="s">
+      <c r="D61" s="106" t="s">
+        <v>436</v>
+      </c>
+      <c r="E61" s="107"/>
+      <c r="F61" s="106" t="s">
         <v>159</v>
       </c>
-      <c r="G61" s="13"/>
+      <c r="G61" s="107"/>
       <c r="H61" s="13" t="s">
         <v>165</v>
       </c>
       <c r="I61" s="16" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9">
-      <c r="B62" s="52"/>
-      <c r="C62" s="17" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10">
+      <c r="B62" s="51"/>
+      <c r="C62" s="13" t="s">
         <v>271</v>
       </c>
-      <c r="D62" s="17" t="s">
-        <v>164</v>
-      </c>
-      <c r="E62" s="17"/>
-      <c r="F62" s="17" t="s">
+      <c r="D62" s="106" t="s">
+        <v>438</v>
+      </c>
+      <c r="E62" s="107"/>
+      <c r="F62" s="106" t="s">
         <v>159</v>
       </c>
-      <c r="G62" s="17"/>
-      <c r="H62" s="17" t="s">
+      <c r="G62" s="107"/>
+      <c r="H62" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="I62" s="19" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9">
-      <c r="B63" s="43" t="s">
-        <v>170</v>
-      </c>
-      <c r="C63" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="D63" s="54" t="s">
-        <v>176</v>
-      </c>
-      <c r="E63" s="54"/>
-      <c r="F63" s="23" t="s">
+      <c r="I62" s="16" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10">
+      <c r="B63" s="51"/>
+      <c r="C63" s="13" t="s">
+        <v>429</v>
+      </c>
+      <c r="D63" s="106" t="s">
+        <v>441</v>
+      </c>
+      <c r="E63" s="107"/>
+      <c r="F63" s="106" t="s">
         <v>159</v>
       </c>
-      <c r="G63" s="23"/>
-      <c r="H63" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="I63" s="24" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9">
-      <c r="B64" s="46"/>
-      <c r="C64" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="D64" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="E64" s="13"/>
-      <c r="F64" s="13" t="s">
+      <c r="G63" s="107"/>
+      <c r="H63" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="I63" s="16" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10">
+      <c r="B64" s="51"/>
+      <c r="C64" s="23" t="s">
+        <v>430</v>
+      </c>
+      <c r="D64" s="106" t="s">
+        <v>443</v>
+      </c>
+      <c r="E64" s="107"/>
+      <c r="F64" s="106" t="s">
         <v>159</v>
       </c>
-      <c r="G64" s="13"/>
+      <c r="G64" s="107"/>
       <c r="H64" s="13" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="I64" s="16" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9">
-      <c r="B65" s="46"/>
+        <v>442</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10">
+      <c r="B65" s="51"/>
       <c r="C65" s="13" t="s">
-        <v>173</v>
+        <v>431</v>
       </c>
       <c r="D65" s="13" t="s">
-        <v>178</v>
+        <v>273</v>
       </c>
       <c r="E65" s="13"/>
       <c r="F65" s="13" t="s">
@@ -8705,19 +9163,19 @@
       </c>
       <c r="G65" s="13"/>
       <c r="H65" s="13" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="I65" s="16" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9">
-      <c r="B66" s="49"/>
-      <c r="C66" s="17" t="s">
-        <v>174</v>
+        <v>272</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10" ht="17.250000">
+      <c r="B66" s="52"/>
+      <c r="C66" s="13" t="s">
+        <v>432</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>179</v>
+        <v>444</v>
       </c>
       <c r="E66" s="17"/>
       <c r="F66" s="17" t="s">
@@ -8725,53 +9183,61 @@
       </c>
       <c r="G66" s="17"/>
       <c r="H66" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="I66" s="19" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10">
+      <c r="B67" s="43" t="s">
+        <v>170</v>
+      </c>
+      <c r="C67" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="D67" s="54" t="s">
+        <v>448</v>
+      </c>
+      <c r="E67" s="54"/>
+      <c r="F67" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="G67" s="23"/>
+      <c r="H67" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="I66" s="19" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9">
-      <c r="B67" s="40" t="s">
-        <v>184</v>
-      </c>
-      <c r="C67" s="41"/>
-      <c r="D67" s="41"/>
-      <c r="E67" s="41"/>
-      <c r="F67" s="41"/>
-      <c r="G67" s="41"/>
-      <c r="H67" s="41"/>
-      <c r="I67" s="42"/>
-    </row>
-    <row r="68" spans="2:9">
-      <c r="B68" s="55" t="s">
-        <v>184</v>
-      </c>
-      <c r="C68" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="D68" s="54" t="s">
-        <v>11</v>
-      </c>
-      <c r="E68" s="54"/>
-      <c r="F68" s="23" t="s">
+      <c r="I67" s="24" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="68" spans="2:10">
+      <c r="B68" s="46"/>
+      <c r="C68" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="D68" s="13" t="s">
+        <v>449</v>
+      </c>
+      <c r="E68" s="13"/>
+      <c r="F68" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="G68" s="23"/>
-      <c r="H68" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="I68" s="24" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9">
+      <c r="G68" s="13"/>
+      <c r="H68" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="I68" s="16" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="69" spans="2:10">
       <c r="B69" s="46"/>
       <c r="C69" s="13" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="D69" s="13" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="E69" s="13"/>
       <c r="F69" s="13" t="s">
@@ -8779,395 +9245,402 @@
       </c>
       <c r="G69" s="13"/>
       <c r="H69" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="I69" s="16" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="70" spans="2:10" ht="17.250000">
+      <c r="B70" s="49"/>
+      <c r="C70" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="D70" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="E70" s="17"/>
+      <c r="F70" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="G70" s="17"/>
+      <c r="H70" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="I70" s="19" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="71" spans="2:10">
+      <c r="B71" s="40" t="s">
+        <v>184</v>
+      </c>
+      <c r="C71" s="41"/>
+      <c r="D71" s="41"/>
+      <c r="E71" s="41"/>
+      <c r="F71" s="41"/>
+      <c r="G71" s="41"/>
+      <c r="H71" s="41"/>
+      <c r="I71" s="42"/>
+    </row>
+    <row r="72" spans="2:10">
+      <c r="B72" s="122" t="s">
+        <v>184</v>
+      </c>
+      <c r="C72" s="125" t="s">
+        <v>8</v>
+      </c>
+      <c r="D72" s="126" t="s">
+        <v>11</v>
+      </c>
+      <c r="E72" s="126"/>
+      <c r="F72" s="127" t="s">
+        <v>159</v>
+      </c>
+      <c r="G72" s="127"/>
+      <c r="H72" s="127" t="s">
+        <v>34</v>
+      </c>
+      <c r="I72" s="128" t="s">
+        <v>213</v>
+      </c>
+      <c r="J72" s="1"/>
+    </row>
+    <row r="73" spans="2:10">
+      <c r="B73" s="123"/>
+      <c r="C73" s="129" t="s">
+        <v>185</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="G73" s="3"/>
+      <c r="H73" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="I69" s="24" t="s">
+      <c r="I73" s="4" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="70" spans="2:9">
-      <c r="B70" s="46"/>
-      <c r="C70" s="13" t="s">
+      <c r="J73" s="1"/>
+    </row>
+    <row r="74" spans="2:10">
+      <c r="B74" s="123"/>
+      <c r="C74" s="129" t="s">
         <v>186</v>
       </c>
-      <c r="D70" s="13" t="s">
+      <c r="D74" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E70" s="13"/>
-      <c r="F70" s="13" t="s">
+      <c r="E74" s="3"/>
+      <c r="F74" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="G70" s="13"/>
-      <c r="H70" s="13" t="s">
+      <c r="G74" s="3"/>
+      <c r="H74" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="I70" s="24" t="s">
+      <c r="I74" s="4" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="71" spans="2:9">
-      <c r="B71" s="46"/>
-      <c r="C71" s="13" t="s">
+      <c r="J74" s="1"/>
+    </row>
+    <row r="75" spans="2:10">
+      <c r="B75" s="123"/>
+      <c r="C75" s="129" t="s">
         <v>187</v>
       </c>
-      <c r="D71" s="13" t="s">
+      <c r="D75" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E71" s="13"/>
-      <c r="F71" s="13" t="s">
+      <c r="E75" s="3"/>
+      <c r="F75" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="G71" s="13"/>
-      <c r="H71" s="13" t="s">
+      <c r="G75" s="3"/>
+      <c r="H75" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="I71" s="24" t="s">
+      <c r="I75" s="4" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="72" spans="2:9">
-      <c r="B72" s="46"/>
-      <c r="C72" s="13" t="s">
+      <c r="J75" s="1"/>
+    </row>
+    <row r="76" spans="2:10">
+      <c r="B76" s="123"/>
+      <c r="C76" s="129" t="s">
         <v>188</v>
       </c>
-      <c r="D72" s="13" t="s">
+      <c r="D76" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E72" s="13"/>
-      <c r="F72" s="13" t="s">
+      <c r="E76" s="3"/>
+      <c r="F76" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="G72" s="13"/>
-      <c r="H72" s="13" t="s">
+      <c r="G76" s="3"/>
+      <c r="H76" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="I72" s="24" t="s">
+      <c r="I76" s="4" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="73" spans="2:9">
-      <c r="B73" s="46"/>
-      <c r="C73" s="13" t="s">
+      <c r="J76" s="1"/>
+    </row>
+    <row r="77" spans="2:10">
+      <c r="B77" s="123"/>
+      <c r="C77" s="129" t="s">
         <v>189</v>
       </c>
-      <c r="D73" s="13" t="s">
-        <v>198</v>
-      </c>
-      <c r="E73" s="13"/>
-      <c r="F73" s="13" t="s">
+      <c r="D77" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="G73" s="13"/>
-      <c r="H73" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="I73" s="24" t="s">
+      <c r="G77" s="3"/>
+      <c r="H77" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="I77" s="4" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="74" spans="2:9">
-      <c r="B74" s="46"/>
-      <c r="C74" s="13" t="s">
+      <c r="J77" s="1"/>
+    </row>
+    <row r="78" spans="2:10">
+      <c r="B78" s="123"/>
+      <c r="C78" s="129" t="s">
         <v>190</v>
       </c>
-      <c r="D74" s="13" t="s">
+      <c r="D78" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E74" s="13"/>
-      <c r="F74" s="13" t="s">
+      <c r="E78" s="3"/>
+      <c r="F78" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="G74" s="13"/>
-      <c r="H74" s="13" t="s">
+      <c r="G78" s="3"/>
+      <c r="H78" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I74" s="24" t="s">
+      <c r="I78" s="4" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="75" spans="2:9">
-      <c r="B75" s="46"/>
-      <c r="C75" s="13" t="s">
+      <c r="J78" s="1"/>
+    </row>
+    <row r="79" spans="2:10">
+      <c r="B79" s="123"/>
+      <c r="C79" s="129" t="s">
         <v>191</v>
       </c>
-      <c r="D75" s="13" t="s">
+      <c r="D79" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E75" s="13"/>
-      <c r="F75" s="13" t="s">
+      <c r="E79" s="3"/>
+      <c r="F79" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="G75" s="13"/>
-      <c r="H75" s="13" t="s">
+      <c r="G79" s="3"/>
+      <c r="H79" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="I75" s="24" t="s">
+      <c r="I79" s="4" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="76" spans="2:9">
-      <c r="B76" s="46"/>
-      <c r="C76" s="13" t="s">
+      <c r="J79" s="1"/>
+    </row>
+    <row r="80" spans="2:10">
+      <c r="B80" s="123"/>
+      <c r="C80" s="129" t="s">
         <v>192</v>
       </c>
-      <c r="D76" s="13" t="s">
+      <c r="D80" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E76" s="13"/>
-      <c r="F76" s="13" t="s">
+      <c r="E80" s="3"/>
+      <c r="F80" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="G76" s="13"/>
-      <c r="H76" s="13" t="s">
+      <c r="G80" s="3"/>
+      <c r="H80" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="I76" s="24" t="s">
+      <c r="I80" s="4" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="77" spans="2:9">
-      <c r="B77" s="46"/>
-      <c r="C77" s="13" t="s">
+      <c r="J80" s="1"/>
+    </row>
+    <row r="81" spans="2:10">
+      <c r="B81" s="123"/>
+      <c r="C81" s="129" t="s">
         <v>193</v>
       </c>
-      <c r="D77" s="13" t="s">
+      <c r="D81" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="E77" s="13"/>
-      <c r="F77" s="13" t="s">
+      <c r="E81" s="3"/>
+      <c r="F81" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="G77" s="13"/>
-      <c r="H77" s="13" t="s">
+      <c r="G81" s="3"/>
+      <c r="H81" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="I77" s="24" t="s">
+      <c r="I81" s="4" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="78" spans="2:9">
-      <c r="B78" s="46"/>
-      <c r="C78" s="13" t="s">
+      <c r="J81" s="1"/>
+    </row>
+    <row r="82" spans="2:10">
+      <c r="B82" s="123"/>
+      <c r="C82" s="129" t="s">
         <v>194</v>
       </c>
-      <c r="D78" s="13" t="s">
+      <c r="D82" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="E78" s="13"/>
-      <c r="F78" s="13" t="s">
+      <c r="E82" s="3"/>
+      <c r="F82" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="G78" s="13"/>
-      <c r="H78" s="13" t="s">
+      <c r="G82" s="3"/>
+      <c r="H82" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="I78" s="24" t="s">
+      <c r="I82" s="4" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="79" spans="2:9">
-      <c r="B79" s="49"/>
-      <c r="C79" s="17" t="s">
+      <c r="J82" s="1"/>
+    </row>
+    <row r="83" spans="2:10">
+      <c r="B83" s="123"/>
+      <c r="C83" s="129" t="s">
         <v>195</v>
       </c>
-      <c r="D79" s="17" t="s">
+      <c r="D83" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E79" s="17"/>
-      <c r="F79" s="17" t="s">
+      <c r="E83" s="3"/>
+      <c r="F83" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="G79" s="17"/>
-      <c r="H79" s="17" t="s">
+      <c r="G83" s="3"/>
+      <c r="H83" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="I79" s="27" t="s">
+      <c r="I83" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="J83" s="1"/>
+    </row>
+    <row r="84" spans="2:10" ht="17.250000">
+      <c r="B84" s="124"/>
+      <c r="C84" s="130" t="s">
+        <v>453</v>
+      </c>
+      <c r="D84" s="131" t="s">
+        <v>20</v>
+      </c>
+      <c r="E84" s="131"/>
+      <c r="F84" s="131" t="s">
+        <v>159</v>
+      </c>
+      <c r="G84" s="131"/>
+      <c r="H84" s="131" t="s">
+        <v>454</v>
+      </c>
+      <c r="I84" s="132" t="s">
+        <v>452</v>
+      </c>
+      <c r="J84" s="1"/>
+    </row>
+    <row r="85" spans="2:10">
+      <c r="B85" s="38" t="s">
+        <v>209</v>
+      </c>
+      <c r="C85" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="D85" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="E85" s="23"/>
+      <c r="F85" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="G85" s="23"/>
+      <c r="H85" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="I85" s="24" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="86" spans="2:10" ht="17.250000">
+      <c r="B86" s="39"/>
+      <c r="C86" s="30" t="s">
+        <v>264</v>
+      </c>
+      <c r="D86" s="30" t="s">
+        <v>210</v>
+      </c>
+      <c r="E86" s="30"/>
+      <c r="F86" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="G86" s="30"/>
+      <c r="H86" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="I86" s="31" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="80" spans="2:9">
-      <c r="B80" s="38" t="s">
-        <v>209</v>
-      </c>
-      <c r="C80" s="23" t="s">
-        <v>212</v>
-      </c>
-      <c r="D80" s="23" t="s">
-        <v>265</v>
-      </c>
-      <c r="E80" s="23"/>
-      <c r="F80" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="G80" s="23"/>
-      <c r="H80" s="23" t="s">
-        <v>266</v>
-      </c>
-      <c r="I80" s="24" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="81" spans="2:9">
-      <c r="B81" s="39"/>
-      <c r="C81" s="30" t="s">
-        <v>264</v>
-      </c>
-      <c r="D81" s="30" t="s">
-        <v>210</v>
-      </c>
-      <c r="E81" s="30"/>
-      <c r="F81" s="30" t="s">
-        <v>159</v>
-      </c>
-      <c r="G81" s="30"/>
-      <c r="H81" s="30" t="s">
-        <v>211</v>
-      </c>
-      <c r="I81" s="31" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="82" spans="2:9">
-      <c r="B82" s="40" t="s">
+    <row r="87" spans="2:10">
+      <c r="B87" s="40" t="s">
         <v>214</v>
       </c>
-      <c r="C82" s="41"/>
-      <c r="D82" s="41"/>
-      <c r="E82" s="41"/>
-      <c r="F82" s="41"/>
-      <c r="G82" s="41"/>
-      <c r="H82" s="41"/>
-      <c r="I82" s="42"/>
-    </row>
-    <row r="83" spans="2:9">
-      <c r="B83" s="55" t="s">
+      <c r="C87" s="41"/>
+      <c r="D87" s="41"/>
+      <c r="E87" s="41"/>
+      <c r="F87" s="41"/>
+      <c r="G87" s="41"/>
+      <c r="H87" s="41"/>
+      <c r="I87" s="42"/>
+    </row>
+    <row r="88" spans="2:10">
+      <c r="B88" s="55" t="s">
         <v>214</v>
       </c>
-      <c r="C83" s="23" t="s">
+      <c r="C88" s="23" t="s">
         <v>215</v>
       </c>
-      <c r="D83" s="23" t="s">
+      <c r="D88" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E83" s="23"/>
-      <c r="F83" s="23" t="s">
+      <c r="E88" s="23"/>
+      <c r="F88" s="23" t="s">
         <v>234</v>
       </c>
-      <c r="G83" s="23"/>
-      <c r="H83" s="23" t="s">
+      <c r="G88" s="23"/>
+      <c r="H88" s="23" t="s">
         <v>236</v>
       </c>
-      <c r="I83" s="24" t="s">
+      <c r="I88" s="24" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="84" spans="2:9">
-      <c r="B84" s="46"/>
-      <c r="C84" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="D84" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E84" s="13"/>
-      <c r="F84" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="G84" s="13"/>
-      <c r="H84" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="I84" s="16" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="85" spans="2:9">
-      <c r="B85" s="46"/>
-      <c r="C85" s="13" t="s">
-        <v>217</v>
-      </c>
-      <c r="D85" s="13" t="s">
-        <v>238</v>
-      </c>
-      <c r="E85" s="13"/>
-      <c r="F85" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="G85" s="13"/>
-      <c r="H85" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="I85" s="16" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9">
-      <c r="B86" s="46"/>
-      <c r="C86" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="D86" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E86" s="13"/>
-      <c r="F86" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="G86" s="13"/>
-      <c r="H86" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="I86" s="16" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9">
-      <c r="B87" s="46"/>
-      <c r="C87" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="D87" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E87" s="13"/>
-      <c r="F87" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="G87" s="13"/>
-      <c r="H87" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="I87" s="16" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="88" spans="2:9">
-      <c r="B88" s="46"/>
-      <c r="C88" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="D88" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E88" s="13"/>
-      <c r="F88" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="G88" s="13"/>
-      <c r="H88" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="I88" s="16" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="89" spans="2:9">
+    <row r="89" spans="2:10">
       <c r="B89" s="46"/>
       <c r="C89" s="13" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D89" s="13" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E89" s="13"/>
       <c r="F89" s="13" t="s">
@@ -9175,19 +9648,19 @@
       </c>
       <c r="G89" s="13"/>
       <c r="H89" s="13" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="I89" s="16" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="90" spans="2:9">
+    <row r="90" spans="2:10">
       <c r="B90" s="46"/>
       <c r="C90" s="13" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D90" s="13" t="s">
-        <v>198</v>
+        <v>238</v>
       </c>
       <c r="E90" s="13"/>
       <c r="F90" s="13" t="s">
@@ -9195,19 +9668,19 @@
       </c>
       <c r="G90" s="13"/>
       <c r="H90" s="13" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="I90" s="16" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="91" spans="2:9">
+    <row r="91" spans="2:10">
       <c r="B91" s="46"/>
       <c r="C91" s="13" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D91" s="13" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E91" s="13"/>
       <c r="F91" s="13" t="s">
@@ -9215,19 +9688,19 @@
       </c>
       <c r="G91" s="13"/>
       <c r="H91" s="13" t="s">
-        <v>241</v>
+        <v>202</v>
       </c>
       <c r="I91" s="16" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="92" spans="2:9">
+    <row r="92" spans="2:10">
       <c r="B92" s="46"/>
       <c r="C92" s="13" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D92" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E92" s="13"/>
       <c r="F92" s="13" t="s">
@@ -9235,19 +9708,19 @@
       </c>
       <c r="G92" s="13"/>
       <c r="H92" s="13" t="s">
-        <v>263</v>
+        <v>203</v>
       </c>
       <c r="I92" s="16" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="93" spans="2:9">
+    <row r="93" spans="2:10">
       <c r="B93" s="46"/>
       <c r="C93" s="13" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D93" s="13" t="s">
-        <v>242</v>
+        <v>12</v>
       </c>
       <c r="E93" s="13"/>
       <c r="F93" s="13" t="s">
@@ -9255,19 +9728,19 @@
       </c>
       <c r="G93" s="13"/>
       <c r="H93" s="13" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="I93" s="16" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="94" spans="2:9">
+    <row r="94" spans="2:10">
       <c r="B94" s="46"/>
       <c r="C94" s="13" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D94" s="13" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E94" s="13"/>
       <c r="F94" s="13" t="s">
@@ -9275,19 +9748,19 @@
       </c>
       <c r="G94" s="13"/>
       <c r="H94" s="13" t="s">
-        <v>33</v>
+        <v>240</v>
       </c>
       <c r="I94" s="16" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="95" spans="2:9">
+    <row r="95" spans="2:10">
       <c r="B95" s="46"/>
       <c r="C95" s="13" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="D95" s="13" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E95" s="13"/>
       <c r="F95" s="13" t="s">
@@ -9295,19 +9768,19 @@
       </c>
       <c r="G95" s="13"/>
       <c r="H95" s="13" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I95" s="16" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="96" spans="2:9">
+    <row r="96" spans="2:10">
       <c r="B96" s="46"/>
       <c r="C96" s="13" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D96" s="13" t="s">
-        <v>244</v>
+        <v>9</v>
       </c>
       <c r="E96" s="13"/>
       <c r="F96" s="13" t="s">
@@ -9315,19 +9788,20 @@
       </c>
       <c r="G96" s="13"/>
       <c r="H96" s="13" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="I96" s="16" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="97" spans="2:9">
+      <c r="J96" s="1"/>
+    </row>
+    <row r="97" spans="2:10">
       <c r="B97" s="46"/>
       <c r="C97" s="13" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D97" s="13" t="s">
-        <v>246</v>
+        <v>13</v>
       </c>
       <c r="E97" s="13"/>
       <c r="F97" s="13" t="s">
@@ -9335,19 +9809,20 @@
       </c>
       <c r="G97" s="13"/>
       <c r="H97" s="13" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="I97" s="16" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="98" spans="2:9">
+      <c r="J97" s="1"/>
+    </row>
+    <row r="98" spans="2:10">
       <c r="B98" s="46"/>
       <c r="C98" s="13" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D98" s="13" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="E98" s="13"/>
       <c r="F98" s="13" t="s">
@@ -9355,19 +9830,20 @@
       </c>
       <c r="G98" s="13"/>
       <c r="H98" s="13" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="I98" s="16" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="99" spans="2:9">
+      <c r="J98" s="1"/>
+    </row>
+    <row r="99" spans="2:10">
       <c r="B99" s="46"/>
       <c r="C99" s="13" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D99" s="13" t="s">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="E99" s="13"/>
       <c r="F99" s="13" t="s">
@@ -9375,19 +9851,20 @@
       </c>
       <c r="G99" s="13"/>
       <c r="H99" s="13" t="s">
-        <v>207</v>
+        <v>33</v>
       </c>
       <c r="I99" s="16" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="100" spans="2:9">
+      <c r="J99" s="1"/>
+    </row>
+    <row r="100" spans="2:10">
       <c r="B100" s="46"/>
       <c r="C100" s="13" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="D100" s="13" t="s">
-        <v>19</v>
+        <v>196</v>
       </c>
       <c r="E100" s="13"/>
       <c r="F100" s="13" t="s">
@@ -9395,67 +9872,251 @@
       </c>
       <c r="G100" s="13"/>
       <c r="H100" s="13" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I100" s="16" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="101" spans="2:9">
-      <c r="B101" s="49"/>
-      <c r="C101" s="17" t="s">
+      <c r="J100" s="1"/>
+    </row>
+    <row r="101" spans="2:10">
+      <c r="B101" s="46"/>
+      <c r="C101" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="D101" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="E101" s="13"/>
+      <c r="F101" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="G101" s="13"/>
+      <c r="H101" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="I101" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="J101" s="1"/>
+    </row>
+    <row r="102" spans="2:10">
+      <c r="B102" s="46"/>
+      <c r="C102" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="D102" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="E102" s="13"/>
+      <c r="F102" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="G102" s="13"/>
+      <c r="H102" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="I102" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="J102" s="1"/>
+    </row>
+    <row r="103" spans="2:10">
+      <c r="B103" s="46"/>
+      <c r="C103" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="D103" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="E103" s="13"/>
+      <c r="F103" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="G103" s="13"/>
+      <c r="H103" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="I103" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="J103" s="1"/>
+    </row>
+    <row r="104" spans="2:10">
+      <c r="B104" s="46"/>
+      <c r="C104" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="D104" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="E104" s="13"/>
+      <c r="F104" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="G104" s="13"/>
+      <c r="H104" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="I104" s="16" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="105" spans="2:10">
+      <c r="B105" s="46"/>
+      <c r="C105" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="D105" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E105" s="13"/>
+      <c r="F105" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="G105" s="13"/>
+      <c r="H105" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="I105" s="16" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="106" spans="2:10" ht="17.250000">
+      <c r="B106" s="46"/>
+      <c r="C106" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="D101" s="17" t="s">
+      <c r="D106" s="17" t="s">
         <v>250</v>
       </c>
-      <c r="E101" s="17"/>
-      <c r="F101" s="17" t="s">
+      <c r="E106" s="17"/>
+      <c r="F106" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="G101" s="17"/>
-      <c r="H101" s="17" t="s">
+      <c r="G106" s="17"/>
+      <c r="H106" s="17" t="s">
         <v>251</v>
       </c>
-      <c r="I101" s="19" t="s">
+      <c r="I106" s="19" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="102" spans="2:9">
-      <c r="B102" s="40" t="s">
+    <row r="107" spans="2:10">
+      <c r="B107" s="46"/>
+      <c r="C107" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="D107" s="13" t="s">
+        <v>458</v>
+      </c>
+      <c r="E107" s="13"/>
+      <c r="F107" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="G107" s="13"/>
+      <c r="H107" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="I107" s="16" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="108" spans="2:10" ht="17.250000">
+      <c r="B108" s="46"/>
+      <c r="C108" s="17" t="s">
+        <v>457</v>
+      </c>
+      <c r="D108" s="17" t="s">
+        <v>450</v>
+      </c>
+      <c r="E108" s="17"/>
+      <c r="F108" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="G108" s="17"/>
+      <c r="H108" s="17" t="s">
+        <v>451</v>
+      </c>
+      <c r="I108" s="19" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="109" spans="2:10" ht="17.250000">
+      <c r="B109" s="49"/>
+      <c r="C109" s="17" t="s">
+        <v>460</v>
+      </c>
+      <c r="D109" s="17" t="s">
+        <v>461</v>
+      </c>
+      <c r="E109" s="17"/>
+      <c r="F109" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="G109" s="17"/>
+      <c r="H109" s="17" t="s">
+        <v>462</v>
+      </c>
+      <c r="I109" s="19" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="110" spans="2:10">
+      <c r="B110" s="40" t="s">
         <v>252</v>
       </c>
-      <c r="C102" s="41"/>
-      <c r="D102" s="41"/>
-      <c r="E102" s="41"/>
-      <c r="F102" s="41"/>
-      <c r="G102" s="41"/>
-      <c r="H102" s="41"/>
-      <c r="I102" s="42"/>
-    </row>
-    <row r="103" spans="2:9">
-      <c r="B103" s="2"/>
-      <c r="D103" s="56"/>
-      <c r="E103" s="56"/>
-      <c r="F103" s="56"/>
-      <c r="G103" s="56"/>
-    </row>
-    <row r="104" spans="2:9">
-      <c r="B104" s="2"/>
-      <c r="D104" s="56"/>
-      <c r="E104" s="56"/>
-      <c r="F104" s="56"/>
-      <c r="G104" s="56"/>
-    </row>
-    <row r="105" spans="2:9">
-      <c r="B105" s="2"/>
-      <c r="D105" s="56"/>
-      <c r="E105" s="56"/>
-      <c r="F105" s="56"/>
-      <c r="G105" s="56"/>
+      <c r="C110" s="41"/>
+      <c r="D110" s="41"/>
+      <c r="E110" s="41"/>
+      <c r="F110" s="41"/>
+      <c r="G110" s="41"/>
+      <c r="H110" s="41"/>
+      <c r="I110" s="42"/>
+    </row>
+    <row r="111" spans="2:10">
+      <c r="B111" s="2"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="56"/>
+      <c r="E111" s="56"/>
+      <c r="F111" s="56"/>
+      <c r="G111" s="56"/>
+      <c r="H111" s="1"/>
+      <c r="I111" s="1"/>
+    </row>
+    <row r="112" spans="2:10">
+      <c r="B112" s="2"/>
+      <c r="C112" s="1"/>
+      <c r="D112" s="56"/>
+      <c r="E112" s="56"/>
+      <c r="F112" s="56"/>
+      <c r="G112" s="56"/>
+      <c r="H112" s="1"/>
+      <c r="I112" s="1"/>
+    </row>
+    <row r="113" spans="2:7">
+      <c r="B113" s="2"/>
+      <c r="D113" s="56"/>
+      <c r="E113" s="56"/>
+      <c r="F113" s="56"/>
+      <c r="G113" s="56"/>
+    </row>
+    <row r="114" spans="2:7">
+      <c r="B114" s="1"/>
+      <c r="D114" s="1"/>
+      <c r="E114" s="1"/>
+      <c r="F114" s="1"/>
+      <c r="G114" s="1"/>
+    </row>
+    <row r="115" spans="2:7">
+      <c r="B115" s="1"/>
+      <c r="D115" s="1"/>
+      <c r="E115" s="1"/>
+      <c r="F115" s="1"/>
+      <c r="G115" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="214">
+  <mergeCells count="230">
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
@@ -9572,7 +10233,7 @@
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="F56:G56"/>
     <mergeCell ref="B57:I57"/>
-    <mergeCell ref="B58:B62"/>
+    <mergeCell ref="B58:B66"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="F58:G58"/>
     <mergeCell ref="D59:E59"/>
@@ -9583,7 +10244,6 @@
     <mergeCell ref="F61:G61"/>
     <mergeCell ref="D62:E62"/>
     <mergeCell ref="F62:G62"/>
-    <mergeCell ref="B63:B66"/>
     <mergeCell ref="D63:E63"/>
     <mergeCell ref="F63:G63"/>
     <mergeCell ref="D64:E64"/>
@@ -9592,16 +10252,17 @@
     <mergeCell ref="F65:G65"/>
     <mergeCell ref="D66:E66"/>
     <mergeCell ref="F66:G66"/>
-    <mergeCell ref="B67:I67"/>
-    <mergeCell ref="B68:B79"/>
+    <mergeCell ref="B67:B70"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="F67:G67"/>
     <mergeCell ref="D68:E68"/>
     <mergeCell ref="F68:G68"/>
     <mergeCell ref="D69:E69"/>
     <mergeCell ref="F69:G69"/>
     <mergeCell ref="D70:E70"/>
     <mergeCell ref="F70:G70"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="B71:I71"/>
+    <mergeCell ref="B72:B84"/>
     <mergeCell ref="D72:E72"/>
     <mergeCell ref="F72:G72"/>
     <mergeCell ref="D73:E73"/>
@@ -9618,23 +10279,23 @@
     <mergeCell ref="F78:G78"/>
     <mergeCell ref="D79:E79"/>
     <mergeCell ref="F79:G79"/>
-    <mergeCell ref="B80:B81"/>
     <mergeCell ref="D80:E80"/>
     <mergeCell ref="F80:G80"/>
     <mergeCell ref="D81:E81"/>
     <mergeCell ref="F81:G81"/>
-    <mergeCell ref="B82:I82"/>
-    <mergeCell ref="B83:B101"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="F82:G82"/>
     <mergeCell ref="D83:E83"/>
     <mergeCell ref="F83:G83"/>
     <mergeCell ref="D84:E84"/>
     <mergeCell ref="F84:G84"/>
+    <mergeCell ref="B85:B86"/>
     <mergeCell ref="D85:E85"/>
     <mergeCell ref="F85:G85"/>
     <mergeCell ref="D86:E86"/>
     <mergeCell ref="F86:G86"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="F87:G87"/>
+    <mergeCell ref="B87:I87"/>
+    <mergeCell ref="B88:B109"/>
     <mergeCell ref="D88:E88"/>
     <mergeCell ref="F88:G88"/>
     <mergeCell ref="D89:E89"/>
@@ -9663,13 +10324,29 @@
     <mergeCell ref="F100:G100"/>
     <mergeCell ref="D101:E101"/>
     <mergeCell ref="F101:G101"/>
-    <mergeCell ref="B102:I102"/>
+    <mergeCell ref="D102:E102"/>
+    <mergeCell ref="F102:G102"/>
     <mergeCell ref="D103:E103"/>
     <mergeCell ref="F103:G103"/>
     <mergeCell ref="D104:E104"/>
     <mergeCell ref="F104:G104"/>
     <mergeCell ref="D105:E105"/>
     <mergeCell ref="F105:G105"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="F106:G106"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="F107:G107"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="F108:G108"/>
+    <mergeCell ref="D109:E109"/>
+    <mergeCell ref="F109:G109"/>
+    <mergeCell ref="B110:I110"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="F111:G111"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="F112:G112"/>
+    <mergeCell ref="D113:E113"/>
+    <mergeCell ref="F113:G113"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
@@ -15710,8 +16387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y14" sqref="Y14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T18" sqref="T18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
